--- a/excel/ledger.xlsx
+++ b/excel/ledger.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gzhennaxia/Documents/GitHub/filebackup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gzhennaxia/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05C0C47-F901-EB48-8D74-9873F6A472D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4046073F-132A-174B-9F8E-CD14FD3D7EA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2606" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2617" uniqueCount="780">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2990,6 +2990,22 @@
   </si>
   <si>
     <t>太原南-大荔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.6/kg，1.184kg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9452,8 +9468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C81ADFD-2D83-574A-AD81-B8046C388F80}">
   <dimension ref="A1:V250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="88" workbookViewId="0">
-      <selection activeCell="I182" sqref="I182"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="I184" sqref="I184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -19018,8 +19034,30 @@
       </c>
     </row>
     <row r="183" spans="1:22">
-      <c r="A183" s="1"/>
-      <c r="B183" s="2"/>
+      <c r="A183" s="1">
+        <v>43893</v>
+      </c>
+      <c r="B183" s="2">
+        <v>0.79305555555555562</v>
+      </c>
+      <c r="C183" t="s">
+        <v>336</v>
+      </c>
+      <c r="D183" t="s">
+        <v>776</v>
+      </c>
+      <c r="E183">
+        <v>15</v>
+      </c>
+      <c r="F183" t="s">
+        <v>777</v>
+      </c>
+      <c r="G183" t="s">
+        <v>13</v>
+      </c>
+      <c r="H183" t="s">
+        <v>258</v>
+      </c>
       <c r="K183" s="1">
         <v>43870</v>
       </c>
@@ -19049,8 +19087,33 @@
       </c>
     </row>
     <row r="184" spans="1:22">
-      <c r="A184" s="1"/>
-      <c r="B184" s="2"/>
+      <c r="A184" s="1">
+        <v>43893</v>
+      </c>
+      <c r="B184" s="2">
+        <v>0.7944444444444444</v>
+      </c>
+      <c r="C184" t="s">
+        <v>258</v>
+      </c>
+      <c r="D184" t="s">
+        <v>541</v>
+      </c>
+      <c r="E184">
+        <v>25.61</v>
+      </c>
+      <c r="F184" t="s">
+        <v>778</v>
+      </c>
+      <c r="G184" t="s">
+        <v>13</v>
+      </c>
+      <c r="H184" t="s">
+        <v>535</v>
+      </c>
+      <c r="I184" t="s">
+        <v>779</v>
+      </c>
       <c r="K184" s="1">
         <v>43870</v>
       </c>

--- a/excel/ledger.xlsx
+++ b/excel/ledger.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gzhennaxia/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4046073F-132A-174B-9F8E-CD14FD3D7EA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE67DD8-8FC7-B845-9C6F-63374A2B75D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2617" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="783">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3006,6 +3006,18 @@
   </si>
   <si>
     <t>21.6/kg，1.184kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妇女节快乐红包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各人微信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群聊：最亲一家人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9468,8 +9480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C81ADFD-2D83-574A-AD81-B8046C388F80}">
   <dimension ref="A1:V250"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="I184" sqref="I184"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="88" workbookViewId="0">
+      <selection activeCell="I185" sqref="I185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -19143,8 +19155,33 @@
       </c>
     </row>
     <row r="185" spans="1:22">
-      <c r="A185" s="1"/>
-      <c r="B185" s="2"/>
+      <c r="A185" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B185" s="2">
+        <v>0.30694444444444441</v>
+      </c>
+      <c r="C185" t="s">
+        <v>765</v>
+      </c>
+      <c r="D185" t="s">
+        <v>780</v>
+      </c>
+      <c r="E185">
+        <v>100</v>
+      </c>
+      <c r="F185" t="s">
+        <v>61</v>
+      </c>
+      <c r="G185" t="s">
+        <v>24</v>
+      </c>
+      <c r="H185" t="s">
+        <v>781</v>
+      </c>
+      <c r="I185" t="s">
+        <v>782</v>
+      </c>
       <c r="K185" s="1">
         <v>43870</v>
       </c>

--- a/excel/ledger.xlsx
+++ b/excel/ledger.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gzhennaxia/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE67DD8-8FC7-B845-9C6F-63374A2B75D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A40B265-B04D-C34C-AC04-3E1D0F91E8FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
+    <workbookView xWindow="14420" yWindow="460" windowWidth="14380" windowHeight="16500" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2935" uniqueCount="891">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3018,6 +3018,437 @@
   </si>
   <si>
     <t>群聊：最亲一家人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年3月份房租</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20191104-20200312 水费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电费及物业费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年2、3月份电费及物业费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60.91/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>380.66/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的那份先欠着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电蚊香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2瓶1器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24L 加盖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生间置物架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房碗筷收纳盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中号升级款抽屉式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充398送20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020 年 3 月 14 号 一次天猫超市购物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舒客舒克牙膏早晚去黄去口臭美白口气清新洁牙家庭套装官方正品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://trade.tmall.com/detail/orderDetail.htm?spm=a1z09.2.0.0.44f62e8dv5UnGa&amp;bizOrderId=889991139191542514</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺梵无糖花香薄荷糖香体糖果网红接吻糖约会零食情人节礼物95g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面食传说鸡蛋挂面圆面条900g细面条 汤面 炒面 龙须面早餐面条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙鱼 精炼一级大豆油900ml/瓶 色拉油 食用油烘焙黄豆油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百事可乐碳酸汽水饮料饮品整箱330*24普通经典口味百事出品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得力(deli)订书机3件套(省力订书器+12#订书针+起钉器)颜色随机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棉花秘密宝宝柔纸巾保湿柔纸3层40抽8包呵护肌肤鼻炎可用面巾纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰露矿泉水矿物质水550ML*12瓶/箱可口可乐出品新老包装随机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.alicdn.com/imgextra/i4/725677994/O1CN01S6B1hf28vIjlKYKcC_!!0-item_pic.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.alicdn.com/imgextra/i2/725677994/O1CN01DhPRLF28vIjk3FYJm_!!0-item_pic.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.alicdn.com/imgextra/i2/725677994/O1CN01iEtXYo28vIjlyVkqT_!!725677994-0-sm.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.alicdn.com/imgextra/i4/725677994/O1CN019pnFBU28vIjjqNvgg_!!0-item_pic.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.alicdn.com/imgextra/i3/725677994/O1CN01IcHHeJ28vIjqDw0pO_!!0-item_pic.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.alicdn.com/imgextra/i2/725677994/O1CN015ZzVyo28vIdfd4d6g_!!725677994.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.alicdn.com/imgextra/i2/725677994/O1CN01USsdXq28vIjlz0UyQ_!!0-item_pic.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.alicdn.com/imgextra/i3/725677994/O1CN016dSYUV28vIjlQ6Li1_!!725677994-0-sm.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满2件 7.5折=第2件5折</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2020 年 3 月 14 号 一次天猫超市购物											</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单总价：160.32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10卷*3提</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老鼠粘板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蟑螂粘板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房吸油纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120张/卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棒球帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稻草人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑜伽垫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骆驼户外，183*61*1cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020 年 3 月 15 号 一次超市购物</t>
+  </si>
+  <si>
+    <t>2020 年 3 月 15 号 一次超市购物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.468kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.96/kg，2个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.32kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.96/kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.354kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.96/kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.96/kg，4个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.234kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.6/kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.6/kg，3个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.89kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.96/kg，3根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京包菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.95kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.96/kg，1个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.166kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.96/kg，1把</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.136kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.96/kg，1根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿豆芽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.142kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娃娃菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.364kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.96/kg，1个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.088kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27/kg，5个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特价蔬菜(芹菜)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.408kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水豆腐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5/kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.176kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金针菇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.96/kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.102kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.6/kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前腿肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.174kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>79.6/kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荷兰豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.208kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.96/kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.21kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.6/kg，20个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.752kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.96/kg，3个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2323 惠州南-深圳北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车站售票机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3334,10 +3765,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3350,7 +3781,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="229">
+  <dxfs count="258">
     <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
     </dxf>
@@ -3536,6 +3967,657 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="5" tint="-0.249977111117893"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
         <name val="等线"/>
         <family val="2"/>
         <charset val="134"/>
@@ -8377,8 +9459,8 @@
     <sortCondition ref="B2:B22"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{72722D89-93C2-8A41-9B20-0A4F424C6AC1}" name="日期" dataDxfId="228"/>
-    <tableColumn id="2" xr3:uid="{E3DDD260-AD94-3B4D-A5E3-388891DDD893}" name="时间" dataDxfId="227"/>
+    <tableColumn id="1" xr3:uid="{72722D89-93C2-8A41-9B20-0A4F424C6AC1}" name="日期" dataDxfId="257"/>
+    <tableColumn id="2" xr3:uid="{E3DDD260-AD94-3B4D-A5E3-388891DDD893}" name="时间" dataDxfId="256"/>
     <tableColumn id="3" xr3:uid="{DCBF4A5F-9919-504B-8B8E-109C04FA8E2B}" name="类别"/>
     <tableColumn id="4" xr3:uid="{A8A4CCEB-557C-D346-B945-54BF13A8C825}" name="名称"/>
     <tableColumn id="5" xr3:uid="{DF4347C8-27B6-5643-97AF-17AC7096A509}" name="金额(¥)"/>
@@ -8410,169 +9492,240 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{AB454117-BA52-2544-9127-12465162C859}" name="表2_1213151620211823" displayName="表2_1213151620211823" ref="K182:S204" totalsRowShown="0" headerRowDxfId="117" dataDxfId="115" headerRowBorderDxfId="116" tableBorderDxfId="114">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{AB454117-BA52-2544-9127-12465162C859}" name="表2_1213151620211823" displayName="表2_1213151620211823" ref="K182:S204" totalsRowShown="0" headerRowDxfId="146" dataDxfId="144" headerRowBorderDxfId="145" tableBorderDxfId="143">
   <autoFilter ref="K182:S204" xr:uid="{02D241E9-3DCF-8D40-BFFA-FFE3C0F5535D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K183:S197">
     <sortCondition ref="K3:K27"/>
     <sortCondition ref="L3:L27"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{E0363E3F-8A48-934C-B29D-6F37B2A1F390}" name="日期" dataDxfId="113"/>
-    <tableColumn id="2" xr3:uid="{8EF78633-EF5B-D949-9349-9BA90D233A6B}" name="时间" dataDxfId="112"/>
-    <tableColumn id="3" xr3:uid="{0A291899-58E8-2546-9EB0-FB388ED22547}" name="类别" dataDxfId="111"/>
-    <tableColumn id="4" xr3:uid="{816B9FC9-9687-FC4B-BB06-0D42F1052B33}" name="名称" dataDxfId="110"/>
-    <tableColumn id="10" xr3:uid="{02884C40-934F-0D4A-BD96-621C5C5CA1BD}" name="金额($)" dataDxfId="109"/>
-    <tableColumn id="6" xr3:uid="{0ECCB125-B4E3-624F-8652-7FC0D1EFC1D8}" name="数量" dataDxfId="108"/>
-    <tableColumn id="7" xr3:uid="{18528009-3F29-5D42-9C0D-9AA95B859C4C}" name="支付方式" dataDxfId="107"/>
-    <tableColumn id="8" xr3:uid="{03F449A0-F068-C340-AEDC-BDBC5A0F46EB}" name="渠道" dataDxfId="106"/>
-    <tableColumn id="9" xr3:uid="{ADC9AE2A-A61B-414C-89E7-D98600793217}" name="备注" dataDxfId="105"/>
+    <tableColumn id="1" xr3:uid="{E0363E3F-8A48-934C-B29D-6F37B2A1F390}" name="日期" dataDxfId="142"/>
+    <tableColumn id="2" xr3:uid="{8EF78633-EF5B-D949-9349-9BA90D233A6B}" name="时间" dataDxfId="141"/>
+    <tableColumn id="3" xr3:uid="{0A291899-58E8-2546-9EB0-FB388ED22547}" name="类别" dataDxfId="140"/>
+    <tableColumn id="4" xr3:uid="{816B9FC9-9687-FC4B-BB06-0D42F1052B33}" name="名称" dataDxfId="139"/>
+    <tableColumn id="10" xr3:uid="{02884C40-934F-0D4A-BD96-621C5C5CA1BD}" name="金额($)" dataDxfId="138"/>
+    <tableColumn id="6" xr3:uid="{0ECCB125-B4E3-624F-8652-7FC0D1EFC1D8}" name="数量" dataDxfId="137"/>
+    <tableColumn id="7" xr3:uid="{18528009-3F29-5D42-9C0D-9AA95B859C4C}" name="支付方式" dataDxfId="136"/>
+    <tableColumn id="8" xr3:uid="{03F449A0-F068-C340-AEDC-BDBC5A0F46EB}" name="渠道" dataDxfId="135"/>
+    <tableColumn id="9" xr3:uid="{ADC9AE2A-A61B-414C-89E7-D98600793217}" name="备注" dataDxfId="134"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{87DA1393-6827-EA44-A084-237782089CCF}" name="表2_12131516202118231718" displayName="表2_12131516202118231718" ref="K207:S212" totalsRowShown="0" headerRowDxfId="104" dataDxfId="102" headerRowBorderDxfId="103" tableBorderDxfId="101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{87DA1393-6827-EA44-A084-237782089CCF}" name="表2_12131516202118231718" displayName="表2_12131516202118231718" ref="K207:S212" totalsRowShown="0" headerRowDxfId="133" dataDxfId="131" headerRowBorderDxfId="132" tableBorderDxfId="130">
   <autoFilter ref="K207:S212" xr:uid="{91480F83-2419-784F-8386-55181DF5FEED}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K208:S212">
     <sortCondition ref="K3:K16"/>
     <sortCondition ref="L3:L16"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7C3343CA-D706-6144-8941-580B84CF394E}" name="日期" dataDxfId="100"/>
-    <tableColumn id="2" xr3:uid="{F0847EE3-B118-BE48-8689-812598FEC9AB}" name="时间" dataDxfId="99"/>
-    <tableColumn id="3" xr3:uid="{DDD877B7-BAD5-4F47-9769-A90FCED37116}" name="类别" dataDxfId="98"/>
-    <tableColumn id="4" xr3:uid="{5733AB69-4847-A948-B567-029768E79D0F}" name="名称" dataDxfId="97"/>
-    <tableColumn id="10" xr3:uid="{77BDEA3A-FF25-D243-BE63-AC4C735EE37B}" name="金额($)" dataDxfId="96"/>
-    <tableColumn id="6" xr3:uid="{E8909EDA-F899-A749-B5A9-EF6D64858A24}" name="数量" dataDxfId="95"/>
-    <tableColumn id="7" xr3:uid="{FF1D4B60-B5F5-C841-A54B-3C394BED27E0}" name="支付方式" dataDxfId="94"/>
-    <tableColumn id="8" xr3:uid="{0C20E0FA-7029-A345-AE88-BCCB51C0FB8F}" name="渠道" dataDxfId="93"/>
-    <tableColumn id="9" xr3:uid="{5E0D300F-446D-D245-97F6-C4F1EDF51911}" name="备注" dataDxfId="92"/>
+    <tableColumn id="1" xr3:uid="{7C3343CA-D706-6144-8941-580B84CF394E}" name="日期" dataDxfId="129"/>
+    <tableColumn id="2" xr3:uid="{F0847EE3-B118-BE48-8689-812598FEC9AB}" name="时间" dataDxfId="128"/>
+    <tableColumn id="3" xr3:uid="{DDD877B7-BAD5-4F47-9769-A90FCED37116}" name="类别" dataDxfId="127"/>
+    <tableColumn id="4" xr3:uid="{5733AB69-4847-A948-B567-029768E79D0F}" name="名称" dataDxfId="126"/>
+    <tableColumn id="10" xr3:uid="{77BDEA3A-FF25-D243-BE63-AC4C735EE37B}" name="金额($)" dataDxfId="125"/>
+    <tableColumn id="6" xr3:uid="{E8909EDA-F899-A749-B5A9-EF6D64858A24}" name="数量" dataDxfId="124"/>
+    <tableColumn id="7" xr3:uid="{FF1D4B60-B5F5-C841-A54B-3C394BED27E0}" name="支付方式" dataDxfId="123"/>
+    <tableColumn id="8" xr3:uid="{0C20E0FA-7029-A345-AE88-BCCB51C0FB8F}" name="渠道" dataDxfId="122"/>
+    <tableColumn id="9" xr3:uid="{5E0D300F-446D-D245-97F6-C4F1EDF51911}" name="备注" dataDxfId="121"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{D07645E1-FF51-BE44-A108-6E2E28DFE3B7}" name="表2_121315162021182317181725" displayName="表2_121315162021182317181725" ref="K131:S151" totalsRowShown="0" headerRowDxfId="91" dataDxfId="89" headerRowBorderDxfId="90" tableBorderDxfId="88">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{D07645E1-FF51-BE44-A108-6E2E28DFE3B7}" name="表2_121315162021182317181725" displayName="表2_121315162021182317181725" ref="K131:S151" totalsRowShown="0" headerRowDxfId="120" dataDxfId="118" headerRowBorderDxfId="119" tableBorderDxfId="117">
   <autoFilter ref="K131:S151" xr:uid="{7F3530B9-75AA-9F46-8D36-5829A96A835C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K132:S136">
     <sortCondition ref="K3:K16"/>
     <sortCondition ref="L3:L16"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{8388B4F3-69C3-C044-806B-2EE342EDD1C1}" name="日期" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{1A44F757-A145-5C4B-8846-784AA96D8FE5}" name="时间" dataDxfId="86"/>
-    <tableColumn id="3" xr3:uid="{03320F0B-381F-4E4D-8C75-FE6DCBE2496F}" name="类别" dataDxfId="85"/>
-    <tableColumn id="4" xr3:uid="{16347860-F209-A641-A3C4-CD2748326322}" name="名称" dataDxfId="84"/>
-    <tableColumn id="10" xr3:uid="{39758E3B-78A9-5A48-8DFC-3FF15887AE7E}" name="金额($)" dataDxfId="83"/>
-    <tableColumn id="6" xr3:uid="{FF6795EE-AE94-E44E-8DC0-CC26ACFADE61}" name="数量" dataDxfId="82"/>
-    <tableColumn id="7" xr3:uid="{DA94A68D-2BBE-C746-9AA4-32A4797B9173}" name="支付方式" dataDxfId="81"/>
-    <tableColumn id="8" xr3:uid="{2C9A8B05-D71F-7944-9F61-0DA82B1DFBF3}" name="渠道" dataDxfId="80"/>
-    <tableColumn id="9" xr3:uid="{EEF78B6C-8D16-8549-9C0B-F12CD0D648B8}" name="备注" dataDxfId="79"/>
+    <tableColumn id="1" xr3:uid="{8388B4F3-69C3-C044-806B-2EE342EDD1C1}" name="日期" dataDxfId="116"/>
+    <tableColumn id="2" xr3:uid="{1A44F757-A145-5C4B-8846-784AA96D8FE5}" name="时间" dataDxfId="115"/>
+    <tableColumn id="3" xr3:uid="{03320F0B-381F-4E4D-8C75-FE6DCBE2496F}" name="类别" dataDxfId="114"/>
+    <tableColumn id="4" xr3:uid="{16347860-F209-A641-A3C4-CD2748326322}" name="名称" dataDxfId="113"/>
+    <tableColumn id="10" xr3:uid="{39758E3B-78A9-5A48-8DFC-3FF15887AE7E}" name="金额($)" dataDxfId="112"/>
+    <tableColumn id="6" xr3:uid="{FF6795EE-AE94-E44E-8DC0-CC26ACFADE61}" name="数量" dataDxfId="111"/>
+    <tableColumn id="7" xr3:uid="{DA94A68D-2BBE-C746-9AA4-32A4797B9173}" name="支付方式" dataDxfId="110"/>
+    <tableColumn id="8" xr3:uid="{2C9A8B05-D71F-7944-9F61-0DA82B1DFBF3}" name="渠道" dataDxfId="109"/>
+    <tableColumn id="9" xr3:uid="{EEF78B6C-8D16-8549-9C0B-F12CD0D648B8}" name="备注" dataDxfId="108"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{E94DDC74-E61C-5249-90F9-930C74E64060}" name="表2_12131516202118231724" displayName="表2_12131516202118231724" ref="K154:V179" totalsRowShown="0" headerRowDxfId="78" dataDxfId="76" headerRowBorderDxfId="77" tableBorderDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{E94DDC74-E61C-5249-90F9-930C74E64060}" name="表2_12131516202118231724" displayName="表2_12131516202118231724" ref="K154:V179" totalsRowShown="0" headerRowDxfId="107" dataDxfId="105" headerRowBorderDxfId="106" tableBorderDxfId="104">
   <autoFilter ref="K154:V179" xr:uid="{A7B4FD5B-7483-B04B-9945-909AF67F9E14}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K155:S169">
     <sortCondition ref="K3:K27"/>
     <sortCondition ref="L3:L27"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{DD305DCE-D663-1142-86EC-D044803DC44F}" name="日期" dataDxfId="74"/>
-    <tableColumn id="2" xr3:uid="{6982A3CC-B1A0-4D45-BF51-C06CBB7A285C}" name="时间" dataDxfId="73"/>
-    <tableColumn id="3" xr3:uid="{912915AB-DBFC-554A-8CD9-B4F4926B4A88}" name="类别" dataDxfId="72"/>
-    <tableColumn id="4" xr3:uid="{D100A818-0E73-8B45-A0E8-8884ACD0B9A5}" name="名称" dataDxfId="71"/>
-    <tableColumn id="10" xr3:uid="{3B8E05F8-35E1-A04B-AFF1-8420B1B2683A}" name="金额($)" dataDxfId="70"/>
-    <tableColumn id="6" xr3:uid="{A0D4CAB7-832E-4C45-B8D4-06FD364054C7}" name="数量" dataDxfId="69"/>
-    <tableColumn id="7" xr3:uid="{FE530E16-074B-C844-A52C-76C806232C75}" name="支付方式" dataDxfId="68"/>
-    <tableColumn id="8" xr3:uid="{09B30289-80C0-584E-B3E0-DDD5B9414A87}" name="渠道" dataDxfId="67"/>
-    <tableColumn id="9" xr3:uid="{BA05C1CE-6415-F940-8118-34A391017EE7}" name="备注" dataDxfId="66"/>
-    <tableColumn id="11" xr3:uid="{FB53420E-50E1-4A44-8957-033A6FA13273}" name="图片地址" dataDxfId="65"/>
-    <tableColumn id="12" xr3:uid="{B614C980-4CAD-1848-BF01-7572F1B90952}" name="订单详情" dataDxfId="64"/>
-    <tableColumn id="13" xr3:uid="{B6B349AE-EC78-0846-9E99-3A5C24F68DB6}" name="列1" dataDxfId="63"/>
+    <tableColumn id="1" xr3:uid="{DD305DCE-D663-1142-86EC-D044803DC44F}" name="日期" dataDxfId="103"/>
+    <tableColumn id="2" xr3:uid="{6982A3CC-B1A0-4D45-BF51-C06CBB7A285C}" name="时间" dataDxfId="102"/>
+    <tableColumn id="3" xr3:uid="{912915AB-DBFC-554A-8CD9-B4F4926B4A88}" name="类别" dataDxfId="101"/>
+    <tableColumn id="4" xr3:uid="{D100A818-0E73-8B45-A0E8-8884ACD0B9A5}" name="名称" dataDxfId="100"/>
+    <tableColumn id="10" xr3:uid="{3B8E05F8-35E1-A04B-AFF1-8420B1B2683A}" name="金额($)" dataDxfId="99"/>
+    <tableColumn id="6" xr3:uid="{A0D4CAB7-832E-4C45-B8D4-06FD364054C7}" name="数量" dataDxfId="98"/>
+    <tableColumn id="7" xr3:uid="{FE530E16-074B-C844-A52C-76C806232C75}" name="支付方式" dataDxfId="97"/>
+    <tableColumn id="8" xr3:uid="{09B30289-80C0-584E-B3E0-DDD5B9414A87}" name="渠道" dataDxfId="96"/>
+    <tableColumn id="9" xr3:uid="{BA05C1CE-6415-F940-8118-34A391017EE7}" name="备注" dataDxfId="95"/>
+    <tableColumn id="11" xr3:uid="{FB53420E-50E1-4A44-8957-033A6FA13273}" name="图片地址" dataDxfId="94"/>
+    <tableColumn id="12" xr3:uid="{B614C980-4CAD-1848-BF01-7572F1B90952}" name="订单详情" dataDxfId="93"/>
+    <tableColumn id="13" xr3:uid="{B6B349AE-EC78-0846-9E99-3A5C24F68DB6}" name="列1" dataDxfId="92"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{029FEBD4-A447-6D48-BD02-0BE2F1B735AB}" name="表2_12131516202118231726" displayName="表2_12131516202118231726" ref="K61:V74" totalsRowShown="0" headerRowDxfId="62" dataDxfId="60" headerRowBorderDxfId="61" tableBorderDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{029FEBD4-A447-6D48-BD02-0BE2F1B735AB}" name="表2_12131516202118231726" displayName="表2_12131516202118231726" ref="K61:V74" totalsRowShown="0" headerRowDxfId="91" dataDxfId="89" headerRowBorderDxfId="90" tableBorderDxfId="88">
   <autoFilter ref="K61:V74" xr:uid="{4A6F62B7-DFA0-0142-8AF6-16BD93B05409}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K62:S72">
     <sortCondition ref="K3:K18"/>
     <sortCondition ref="L3:L18"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{221A8622-D460-D946-9D54-30C9CDF9ACD3}" name="日期" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{3F799C66-E8A5-C840-9B0F-90149E0B90B8}" name="时间" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{247A341C-834A-D84A-B642-E4D254351147}" name="类别" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{66C0FF70-B0EB-1348-9A0A-A373D91877A5}" name="名称" dataDxfId="55"/>
-    <tableColumn id="10" xr3:uid="{F2CF9D3F-1599-2140-A9E3-6DD2BB6718A0}" name="金额($)" dataDxfId="54"/>
-    <tableColumn id="6" xr3:uid="{7A2F9865-1F89-7847-BBB5-866D4F8ACE2C}" name="数量" dataDxfId="53"/>
-    <tableColumn id="7" xr3:uid="{4D476744-220B-7845-B018-74BE17061F7F}" name="支付方式" dataDxfId="52"/>
-    <tableColumn id="8" xr3:uid="{DAAED3F4-C2DA-3C42-AA43-0EB6C981D90B}" name="渠道" dataDxfId="51"/>
-    <tableColumn id="9" xr3:uid="{01438435-C03F-5E4C-B03F-CBE95D393CA8}" name="备注" dataDxfId="50"/>
-    <tableColumn id="11" xr3:uid="{EF6A6F82-FA89-1643-BF62-35B9E06215E1}" name="图片地址" dataDxfId="49"/>
-    <tableColumn id="12" xr3:uid="{AE1B08C3-3787-9045-A6A9-2A9595E5C02A}" name="订单详情" dataDxfId="48"/>
-    <tableColumn id="13" xr3:uid="{817576EA-B0A3-324E-A3B3-3DCDD8FFE8C3}" name="列1" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{221A8622-D460-D946-9D54-30C9CDF9ACD3}" name="日期" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{3F799C66-E8A5-C840-9B0F-90149E0B90B8}" name="时间" dataDxfId="86"/>
+    <tableColumn id="3" xr3:uid="{247A341C-834A-D84A-B642-E4D254351147}" name="类别" dataDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{66C0FF70-B0EB-1348-9A0A-A373D91877A5}" name="名称" dataDxfId="84"/>
+    <tableColumn id="10" xr3:uid="{F2CF9D3F-1599-2140-A9E3-6DD2BB6718A0}" name="金额($)" dataDxfId="83"/>
+    <tableColumn id="6" xr3:uid="{7A2F9865-1F89-7847-BBB5-866D4F8ACE2C}" name="数量" dataDxfId="82"/>
+    <tableColumn id="7" xr3:uid="{4D476744-220B-7845-B018-74BE17061F7F}" name="支付方式" dataDxfId="81"/>
+    <tableColumn id="8" xr3:uid="{DAAED3F4-C2DA-3C42-AA43-0EB6C981D90B}" name="渠道" dataDxfId="80"/>
+    <tableColumn id="9" xr3:uid="{01438435-C03F-5E4C-B03F-CBE95D393CA8}" name="备注" dataDxfId="79"/>
+    <tableColumn id="11" xr3:uid="{EF6A6F82-FA89-1643-BF62-35B9E06215E1}" name="图片地址" dataDxfId="78"/>
+    <tableColumn id="12" xr3:uid="{AE1B08C3-3787-9045-A6A9-2A9595E5C02A}" name="订单详情" dataDxfId="77"/>
+    <tableColumn id="13" xr3:uid="{817576EA-B0A3-324E-A3B3-3DCDD8FFE8C3}" name="列1" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{3F2EC857-243B-2645-AF03-53AF6C939B9F}" name="表2_121315162021182317181727" displayName="表2_121315162021182317181727" ref="K215:S239" totalsRowShown="0" headerRowDxfId="46" dataDxfId="44" headerRowBorderDxfId="45" tableBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{3F2EC857-243B-2645-AF03-53AF6C939B9F}" name="表2_121315162021182317181727" displayName="表2_121315162021182317181727" ref="K215:S239" totalsRowShown="0" headerRowDxfId="75" dataDxfId="73" headerRowBorderDxfId="74" tableBorderDxfId="72">
   <autoFilter ref="K215:S239" xr:uid="{DAC89B1E-920B-0D43-AD39-2C0F93C33525}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K216:S220">
     <sortCondition ref="K3:K16"/>
     <sortCondition ref="L3:L16"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B8C31F80-1A4B-4648-8E25-9594C529804C}" name="日期" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{E3FE4CDC-CB02-4547-8A6E-7B5018F830B9}" name="时间" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{B830E525-327C-5445-91BD-134C2E975CA1}" name="类别" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{4C06D8FD-B007-FD4D-A0C6-EEFCD7D2462D}" name="名称" dataDxfId="39"/>
-    <tableColumn id="10" xr3:uid="{CB8B18FA-634B-DF42-96C1-13B16D3B4C37}" name="金额($)" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{8F79BF8F-58E2-DD43-8F4A-93643167882D}" name="数量" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{3563508A-5295-5443-AB75-74063E5F55C3}" name="支付方式" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{8FC2120B-449C-2B40-8921-5B059E22E49F}" name="渠道" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{64B8FCA5-512D-FE47-92FF-7DDFBB7884E4}" name="备注" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{B8C31F80-1A4B-4648-8E25-9594C529804C}" name="日期" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{E3FE4CDC-CB02-4547-8A6E-7B5018F830B9}" name="时间" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{B830E525-327C-5445-91BD-134C2E975CA1}" name="类别" dataDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{4C06D8FD-B007-FD4D-A0C6-EEFCD7D2462D}" name="名称" dataDxfId="68"/>
+    <tableColumn id="10" xr3:uid="{CB8B18FA-634B-DF42-96C1-13B16D3B4C37}" name="金额($)" dataDxfId="67"/>
+    <tableColumn id="6" xr3:uid="{8F79BF8F-58E2-DD43-8F4A-93643167882D}" name="数量" dataDxfId="66"/>
+    <tableColumn id="7" xr3:uid="{3563508A-5295-5443-AB75-74063E5F55C3}" name="支付方式" dataDxfId="65"/>
+    <tableColumn id="8" xr3:uid="{8FC2120B-449C-2B40-8921-5B059E22E49F}" name="渠道" dataDxfId="64"/>
+    <tableColumn id="9" xr3:uid="{64B8FCA5-512D-FE47-92FF-7DDFBB7884E4}" name="备注" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{7E52F1F1-47DF-7043-BC6F-D5DF62C49306}" name="表2_121315162021182317242829" displayName="表2_121315162021182317242829" ref="K242:V250" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{7E52F1F1-47DF-7043-BC6F-D5DF62C49306}" name="表2_121315162021182317242829" displayName="表2_121315162021182317242829" ref="K242:V250" totalsRowShown="0" headerRowDxfId="62" dataDxfId="60" headerRowBorderDxfId="61" tableBorderDxfId="59">
   <autoFilter ref="K242:V250" xr:uid="{9E59D046-D048-C843-8065-387FC3638EC9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K243:S250">
     <sortCondition ref="K3:K18"/>
     <sortCondition ref="L3:L18"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{8BAAA80A-A7FB-9C4C-AB5C-CFA3B8FABC98}" name="日期" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{347E57DF-2B5E-BD40-86C8-8F59D0256FB2}" name="时间" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{18E112DA-9A28-A74E-8CC6-4AC29E6C30CC}" name="类别" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{A72441B5-BA41-F64F-8F0A-4E80E2BC5460}" name="名称" dataDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{432E6622-AC43-064E-8A9A-7E2979B64C81}" name="金额($)" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{F7CC930A-519F-ED47-88BB-E7F6BC8E72F5}" name="数量" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{3F34C0C1-C8A9-EC44-BE7B-5E1805884F14}" name="支付方式" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{84730249-F504-F740-AC25-9A561C529D42}" name="渠道" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{AD4DD8A8-6A02-8F4F-91F0-DD7F2E94B253}" name="备注" dataDxfId="21"/>
-    <tableColumn id="11" xr3:uid="{6AE29104-87BA-6448-A1D6-3EFCD9E408DF}" name="图片地址" dataDxfId="20"/>
-    <tableColumn id="12" xr3:uid="{E7D376F1-44BE-7F42-B1F6-9A6FAA1BD658}" name="订单详情" dataDxfId="19"/>
-    <tableColumn id="13" xr3:uid="{22C41DAC-55E6-8342-96F8-4842A3C8659C}" name="列1" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{8BAAA80A-A7FB-9C4C-AB5C-CFA3B8FABC98}" name="日期" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{347E57DF-2B5E-BD40-86C8-8F59D0256FB2}" name="时间" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{18E112DA-9A28-A74E-8CC6-4AC29E6C30CC}" name="类别" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{A72441B5-BA41-F64F-8F0A-4E80E2BC5460}" name="名称" dataDxfId="55"/>
+    <tableColumn id="10" xr3:uid="{432E6622-AC43-064E-8A9A-7E2979B64C81}" name="金额($)" dataDxfId="54"/>
+    <tableColumn id="6" xr3:uid="{F7CC930A-519F-ED47-88BB-E7F6BC8E72F5}" name="数量" dataDxfId="53"/>
+    <tableColumn id="7" xr3:uid="{3F34C0C1-C8A9-EC44-BE7B-5E1805884F14}" name="支付方式" dataDxfId="52"/>
+    <tableColumn id="8" xr3:uid="{84730249-F504-F740-AC25-9A561C529D42}" name="渠道" dataDxfId="51"/>
+    <tableColumn id="9" xr3:uid="{AD4DD8A8-6A02-8F4F-91F0-DD7F2E94B253}" name="备注" dataDxfId="50"/>
+    <tableColumn id="11" xr3:uid="{6AE29104-87BA-6448-A1D6-3EFCD9E408DF}" name="图片地址" dataDxfId="49"/>
+    <tableColumn id="12" xr3:uid="{E7D376F1-44BE-7F42-B1F6-9A6FAA1BD658}" name="订单详情" dataDxfId="48"/>
+    <tableColumn id="13" xr3:uid="{22C41DAC-55E6-8342-96F8-4842A3C8659C}" name="列1" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{13C46A62-F0CF-624F-B8B1-05BDFB8205C2}" name="表2_1213151620211823172428291728" displayName="表2_1213151620211823172428291728" ref="K253:V263" totalsRowShown="0" headerRowDxfId="46" dataDxfId="44" headerRowBorderDxfId="45" tableBorderDxfId="43">
+  <autoFilter ref="K253:V263" xr:uid="{71BAF812-C1FF-6F47-99C9-6676E531B0D8}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K254:S263">
+    <sortCondition ref="K3:K22"/>
+    <sortCondition ref="L3:L22"/>
+  </sortState>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{0C9C24D4-6C4E-1E41-BB19-A753D30EEB1F}" name="日期" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{DD9E0D3C-D75B-7344-9697-18B109EBC526}" name="时间" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{B3D44877-D397-E74C-9786-4AAD53F1C29A}" name="类别" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{85A74C0F-056C-DC4F-BD60-3893462862FD}" name="名称" dataDxfId="39"/>
+    <tableColumn id="10" xr3:uid="{4B8BC20A-FA2D-D746-9B6C-1D4BE3D2C843}" name="金额($)" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{5FF34829-EC22-F94F-A5F1-1CB8DBF311F3}" name="数量" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{BD4A1933-54F8-9646-9A4D-27A96AF4CA46}" name="支付方式" dataDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{1503903D-9129-4C4E-8961-6908E3A522D3}" name="渠道" dataDxfId="35"/>
+    <tableColumn id="9" xr3:uid="{3DFBD95E-56A9-094F-9730-442A433CD346}" name="备注" dataDxfId="34"/>
+    <tableColumn id="11" xr3:uid="{2D754D37-9C71-014D-AB90-8F1CCFD5FDDE}" name="图片地址" dataDxfId="33"/>
+    <tableColumn id="12" xr3:uid="{CA6406E3-CEEA-6C43-BBAD-D43411B562C0}" name="订单详情" dataDxfId="32"/>
+    <tableColumn id="13" xr3:uid="{EBF9066D-8CDB-424B-9C3D-A0DC5CD8CBC2}" name="列1" dataDxfId="31"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{72BCC51D-4165-C448-B82C-A263B9880D62}" name="表2_1213151620211823171817" displayName="表2_1213151620211823171817" ref="K266:S287" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27">
+  <autoFilter ref="K266:S287" xr:uid="{5F6D25BB-3E42-564C-AA79-91B0EBC07FC4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K267:S271">
+    <sortCondition ref="K258:K271"/>
+    <sortCondition ref="L258:L271"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{43D08019-CB55-E64C-A582-7164C07BFAE3}" name="日期" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{F26B41EC-36EA-DB41-9395-C974B983BC85}" name="时间" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{8BB0E3BF-A9E0-384C-B2E1-E0712FA9168F}" name="类别" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{3DF4AEFA-B488-8142-A801-684FB87323C6}" name="名称" dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{D9233AF3-A6D1-5247-B635-FF8D4E0BE30C}" name="金额($)" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{2DBFCA37-8FE3-EB43-B50F-71029FD28038}" name="数量" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{74FB31CE-3FBF-3442-8881-4B7A979E7271}" name="支付方式" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{D290E6A6-DF8D-6C4A-9138-C20E189FEFDD}" name="渠道" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{BE73F99C-935F-9F42-AEC7-18342B2A8982}" name="备注" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA735AAC-C770-2E42-A456-00A4A31FA22B}" name="表2" displayName="表2" ref="K2:U30" totalsRowShown="0" headerRowDxfId="255" dataDxfId="253" headerRowBorderDxfId="254" tableBorderDxfId="252">
+  <autoFilter ref="K2:U30" xr:uid="{4793C34A-1C18-7E44-A39F-05257DC17272}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K3:U30">
+    <sortCondition ref="K3:K30"/>
+    <sortCondition ref="L3:L30"/>
+  </sortState>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{A8855FFB-69E8-5346-85D7-D302A4361F0D}" name="日期" dataDxfId="251"/>
+    <tableColumn id="2" xr3:uid="{7F5C8AE4-748F-B249-94E5-C82E8B468666}" name="时间" dataDxfId="250"/>
+    <tableColumn id="3" xr3:uid="{2038DB5F-A483-5B45-BD40-2EE71479D120}" name="类别" dataDxfId="249"/>
+    <tableColumn id="4" xr3:uid="{866FA0C4-A8D9-954D-B79F-91827E135B06}" name="名称" dataDxfId="248"/>
+    <tableColumn id="10" xr3:uid="{BDBE979D-A86E-9A42-B694-AF71E0F9E33B}" name="金额($)" dataDxfId="247"/>
+    <tableColumn id="11" xr3:uid="{34065CA2-B34E-7E48-9114-CF6B6AC8F093}" name="金额(陈)" dataDxfId="246"/>
+    <tableColumn id="5" xr3:uid="{A5B56494-2462-CB4D-8877-6002352002FB}" name="金额(李)" dataDxfId="245"/>
+    <tableColumn id="6" xr3:uid="{040AF034-DFE5-1447-B9DF-4AE4E769137D}" name="数量" dataDxfId="244"/>
+    <tableColumn id="7" xr3:uid="{C33AE25B-0D3A-124A-889B-B96CBDD49041}" name="支付方式" dataDxfId="243"/>
+    <tableColumn id="8" xr3:uid="{FDC575F4-37F8-2B42-AA8E-F9581923CCAD}" name="渠道" dataDxfId="242"/>
+    <tableColumn id="9" xr3:uid="{EBDE8156-8EBE-DE42-AE3D-F526626C95E6}" name="备注" dataDxfId="241"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E8827FEC-29EB-A64F-A117-AB93F5AF704B}" name="表4" displayName="表4" ref="A2:Z29" totalsRowShown="0">
   <autoFilter ref="A2:Z29" xr:uid="{ADCC33E7-0DD1-FA45-9C41-7D7E3B5A50FC}"/>
   <tableColumns count="26">
@@ -8607,7 +9760,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{608D5E4E-7BC0-414D-A696-97B3CAE12BE2}" name="表7" displayName="表7" ref="AB2:AG16" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
   <autoFilter ref="AB2:AG16" xr:uid="{D99BBCC0-26F8-584F-82AF-B9C9A1318EBC}"/>
   <tableColumns count="6">
@@ -8622,31 +9775,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA735AAC-C770-2E42-A456-00A4A31FA22B}" name="表2" displayName="表2" ref="K2:U30" totalsRowShown="0" headerRowDxfId="226" dataDxfId="224" headerRowBorderDxfId="225" tableBorderDxfId="223">
-  <autoFilter ref="K2:U30" xr:uid="{4793C34A-1C18-7E44-A39F-05257DC17272}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K3:U30">
-    <sortCondition ref="K3:K30"/>
-    <sortCondition ref="L3:L30"/>
-  </sortState>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{A8855FFB-69E8-5346-85D7-D302A4361F0D}" name="日期" dataDxfId="222"/>
-    <tableColumn id="2" xr3:uid="{7F5C8AE4-748F-B249-94E5-C82E8B468666}" name="时间" dataDxfId="221"/>
-    <tableColumn id="3" xr3:uid="{2038DB5F-A483-5B45-BD40-2EE71479D120}" name="类别" dataDxfId="220"/>
-    <tableColumn id="4" xr3:uid="{866FA0C4-A8D9-954D-B79F-91827E135B06}" name="名称" dataDxfId="219"/>
-    <tableColumn id="10" xr3:uid="{BDBE979D-A86E-9A42-B694-AF71E0F9E33B}" name="金额($)" dataDxfId="218"/>
-    <tableColumn id="11" xr3:uid="{34065CA2-B34E-7E48-9114-CF6B6AC8F093}" name="金额(陈)" dataDxfId="217"/>
-    <tableColumn id="5" xr3:uid="{A5B56494-2462-CB4D-8877-6002352002FB}" name="金额(李)" dataDxfId="216"/>
-    <tableColumn id="6" xr3:uid="{040AF034-DFE5-1447-B9DF-4AE4E769137D}" name="数量" dataDxfId="215"/>
-    <tableColumn id="7" xr3:uid="{C33AE25B-0D3A-124A-889B-B96CBDD49041}" name="支付方式" dataDxfId="214"/>
-    <tableColumn id="8" xr3:uid="{FDC575F4-37F8-2B42-AA8E-F9581923CCAD}" name="渠道" dataDxfId="213"/>
-    <tableColumn id="9" xr3:uid="{EBDE8156-8EBE-DE42-AE3D-F526626C95E6}" name="备注" dataDxfId="212"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{410100AD-10E0-4F44-9412-B97D896BE399}" name="表12_14" displayName="表12_14" ref="AI2:AV16" totalsRowShown="0">
   <autoFilter ref="AI2:AV16" xr:uid="{89D068C2-82CB-8047-9DFF-C45CD4BCF7C3}"/>
   <tableColumns count="14">
@@ -8669,7 +9798,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4A8A3C27-EB59-8440-9FAF-B3CF2592953D}" name="表8" displayName="表8" ref="A1:AR3" totalsRowShown="0">
   <autoFilter ref="A1:AR3" xr:uid="{0F1C729B-8ECB-2146-BFBD-8CF0DB869F75}"/>
   <tableColumns count="44">
@@ -8722,7 +9851,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{02022759-1D6A-1B48-A9EF-B4775205DB9B}" name="表10" displayName="表10" ref="A1:AR2" totalsRowShown="0">
   <autoFilter ref="A1:AR2" xr:uid="{2368815E-0083-7C4E-AFD6-5BD45387C155}"/>
   <tableColumns count="44">
@@ -8775,7 +9904,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A5C76C99-5210-AA4E-88F9-DA6CB4EC7370}" name="表6" displayName="表6" ref="A1:B2" totalsRowShown="0">
   <autoFilter ref="A1:B2" xr:uid="{6D1BEB71-2A6D-204C-90D6-33D32A457DF7}"/>
   <tableColumns count="2">
@@ -8788,7 +9917,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{90CCD7A2-463A-D647-96DA-22DFD0FBF9A0}" name="表3" displayName="表3" ref="A1:AP32" totalsRowShown="0">
   <autoFilter ref="A1:AP32" xr:uid="{506FB319-DAC5-C74F-9129-972A005A58DA}"/>
   <tableColumns count="42">
@@ -8841,7 +9970,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{80315183-2A95-B14D-B6F6-AFEEA10909ED}" name="表5" displayName="表5" ref="A34:AR36" totalsRowShown="0">
   <autoFilter ref="A34:AR36" xr:uid="{36935680-17BE-F74F-88AB-1DDEC0F4D885}"/>
   <tableColumns count="44">
@@ -8894,7 +10023,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9E9531E0-077A-C14A-B48F-4B3304B57241}" name="表9" displayName="表9" ref="A40:AR41" totalsRowShown="0">
   <autoFilter ref="A40:AR41" xr:uid="{76002C9A-0A0E-6F40-A4AF-4AD85C0C63A4}"/>
   <tableColumns count="44">
@@ -9030,152 +10159,152 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{11A792C6-3B2B-EB45-B402-6B17FF6ECC12}" name="表2_12" displayName="表2_12" ref="K33:S41" totalsRowShown="0" headerRowDxfId="211" dataDxfId="209" headerRowBorderDxfId="210" tableBorderDxfId="208">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{11A792C6-3B2B-EB45-B402-6B17FF6ECC12}" name="表2_12" displayName="表2_12" ref="K33:S41" totalsRowShown="0" headerRowDxfId="240" dataDxfId="238" headerRowBorderDxfId="239" tableBorderDxfId="237">
   <autoFilter ref="K33:S41" xr:uid="{BF5DEAC1-034C-6E4F-BFC7-2363B9047242}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K34:S60">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{9E6DCB6F-2192-F341-9E3F-1C4530C10FA8}" name="日期" dataDxfId="207"/>
-    <tableColumn id="2" xr3:uid="{E2BCBFCC-07FA-4144-B6A7-6BA37CAE0B0B}" name="时间" dataDxfId="206"/>
-    <tableColumn id="3" xr3:uid="{9E554D31-EFE4-EC43-967A-01E672C5B7F9}" name="类别" dataDxfId="205"/>
-    <tableColumn id="4" xr3:uid="{7F292805-5DAB-FB40-9F28-0C7BCA16DAA0}" name="名称" dataDxfId="204"/>
-    <tableColumn id="10" xr3:uid="{2F81F807-05F7-C04A-BB0E-654041F5B9F6}" name="金额($)" dataDxfId="203"/>
-    <tableColumn id="6" xr3:uid="{6DBF3C40-8B26-0048-A1C9-BE6D68464C6F}" name="数量" dataDxfId="202"/>
-    <tableColumn id="7" xr3:uid="{A64FDE06-A678-4646-A55C-2026413CC908}" name="支付方式" dataDxfId="201"/>
-    <tableColumn id="8" xr3:uid="{3352A65C-6558-D843-9D75-CEE8687567E5}" name="渠道" dataDxfId="200"/>
-    <tableColumn id="9" xr3:uid="{9E21A11A-E4AD-DA4D-B780-F28E44B87A61}" name="备注" dataDxfId="199"/>
+    <tableColumn id="1" xr3:uid="{9E6DCB6F-2192-F341-9E3F-1C4530C10FA8}" name="日期" dataDxfId="236"/>
+    <tableColumn id="2" xr3:uid="{E2BCBFCC-07FA-4144-B6A7-6BA37CAE0B0B}" name="时间" dataDxfId="235"/>
+    <tableColumn id="3" xr3:uid="{9E554D31-EFE4-EC43-967A-01E672C5B7F9}" name="类别" dataDxfId="234"/>
+    <tableColumn id="4" xr3:uid="{7F292805-5DAB-FB40-9F28-0C7BCA16DAA0}" name="名称" dataDxfId="233"/>
+    <tableColumn id="10" xr3:uid="{2F81F807-05F7-C04A-BB0E-654041F5B9F6}" name="金额($)" dataDxfId="232"/>
+    <tableColumn id="6" xr3:uid="{6DBF3C40-8B26-0048-A1C9-BE6D68464C6F}" name="数量" dataDxfId="231"/>
+    <tableColumn id="7" xr3:uid="{A64FDE06-A678-4646-A55C-2026413CC908}" name="支付方式" dataDxfId="230"/>
+    <tableColumn id="8" xr3:uid="{3352A65C-6558-D843-9D75-CEE8687567E5}" name="渠道" dataDxfId="229"/>
+    <tableColumn id="9" xr3:uid="{9E21A11A-E4AD-DA4D-B780-F28E44B87A61}" name="备注" dataDxfId="228"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{8E6CF227-0B2A-9943-95A9-E98C28AA3996}" name="表2_1213" displayName="表2_1213" ref="K44:S50" totalsRowShown="0" headerRowDxfId="198" dataDxfId="196" headerRowBorderDxfId="197" tableBorderDxfId="195">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{8E6CF227-0B2A-9943-95A9-E98C28AA3996}" name="表2_1213" displayName="表2_1213" ref="K44:S50" totalsRowShown="0" headerRowDxfId="227" dataDxfId="225" headerRowBorderDxfId="226" tableBorderDxfId="224">
   <autoFilter ref="K44:S50" xr:uid="{DBBD540D-9ACB-A74D-BB39-A853F97094BD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K45:S69">
     <sortCondition ref="K2:K29"/>
     <sortCondition ref="L2:L29"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{BD21C2E9-1BF4-1A48-903A-DCDEC887088A}" name="日期" dataDxfId="194"/>
-    <tableColumn id="2" xr3:uid="{B11C4ABC-6240-EF48-A31A-8BECF6AE51C3}" name="时间" dataDxfId="193"/>
-    <tableColumn id="3" xr3:uid="{67754CDC-1A19-9D49-B251-9EC86E09BE70}" name="类别" dataDxfId="192"/>
-    <tableColumn id="4" xr3:uid="{3F8C96A0-999F-A049-BCA0-6ED855C07086}" name="名称" dataDxfId="191"/>
-    <tableColumn id="10" xr3:uid="{CF71653C-3CB6-274A-8499-A136549F1D07}" name="金额($)" dataDxfId="190"/>
-    <tableColumn id="6" xr3:uid="{99FBADE8-F414-3D4E-9F3B-BDE3571F4BA1}" name="数量" dataDxfId="189"/>
-    <tableColumn id="7" xr3:uid="{24CADA98-38C4-8143-AA5C-9D7AE4D2221D}" name="支付方式" dataDxfId="188"/>
-    <tableColumn id="8" xr3:uid="{1D3BEB19-BBEB-C845-87BF-7C23136790B9}" name="渠道" dataDxfId="187"/>
-    <tableColumn id="9" xr3:uid="{3855FCA6-738B-7D49-9DEE-4106312F0DB2}" name="备注" dataDxfId="186"/>
+    <tableColumn id="1" xr3:uid="{BD21C2E9-1BF4-1A48-903A-DCDEC887088A}" name="日期" dataDxfId="223"/>
+    <tableColumn id="2" xr3:uid="{B11C4ABC-6240-EF48-A31A-8BECF6AE51C3}" name="时间" dataDxfId="222"/>
+    <tableColumn id="3" xr3:uid="{67754CDC-1A19-9D49-B251-9EC86E09BE70}" name="类别" dataDxfId="221"/>
+    <tableColumn id="4" xr3:uid="{3F8C96A0-999F-A049-BCA0-6ED855C07086}" name="名称" dataDxfId="220"/>
+    <tableColumn id="10" xr3:uid="{CF71653C-3CB6-274A-8499-A136549F1D07}" name="金额($)" dataDxfId="219"/>
+    <tableColumn id="6" xr3:uid="{99FBADE8-F414-3D4E-9F3B-BDE3571F4BA1}" name="数量" dataDxfId="218"/>
+    <tableColumn id="7" xr3:uid="{24CADA98-38C4-8143-AA5C-9D7AE4D2221D}" name="支付方式" dataDxfId="217"/>
+    <tableColumn id="8" xr3:uid="{1D3BEB19-BBEB-C845-87BF-7C23136790B9}" name="渠道" dataDxfId="216"/>
+    <tableColumn id="9" xr3:uid="{3855FCA6-738B-7D49-9DEE-4106312F0DB2}" name="备注" dataDxfId="215"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{85D5A6C9-0983-1F49-9E7D-1C7D322B37A0}" name="表2_121315" displayName="表2_121315" ref="K77:S84" totalsRowShown="0" headerRowDxfId="185" dataDxfId="183" headerRowBorderDxfId="184" tableBorderDxfId="182">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{85D5A6C9-0983-1F49-9E7D-1C7D322B37A0}" name="表2_121315" displayName="表2_121315" ref="K77:S84" totalsRowShown="0" headerRowDxfId="214" dataDxfId="212" headerRowBorderDxfId="213" tableBorderDxfId="211">
   <autoFilter ref="K77:S84" xr:uid="{835B7ABE-F456-CF45-8A7D-5507E998E23E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K78:S103">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{74D9CA40-4FE9-984A-A0EB-AA2378AD6CA6}" name="日期" dataDxfId="181"/>
-    <tableColumn id="2" xr3:uid="{399F4564-6842-1545-B8AF-E02DAC43416A}" name="时间" dataDxfId="180"/>
-    <tableColumn id="3" xr3:uid="{E8144FE3-3D58-0443-AF79-8BF552410036}" name="类别" dataDxfId="179"/>
-    <tableColumn id="4" xr3:uid="{8FBB1190-B9EE-0A40-B8AF-1F9469490287}" name="名称" dataDxfId="178"/>
-    <tableColumn id="10" xr3:uid="{0C6C1CDC-B4E4-8645-8C6D-D53E3E0CFEAC}" name="金额($)" dataDxfId="177"/>
-    <tableColumn id="6" xr3:uid="{D8196724-FF67-DD4A-A1BE-F88FB8237117}" name="数量" dataDxfId="176"/>
-    <tableColumn id="7" xr3:uid="{321E4B00-5C56-AF45-956D-93589BC551AF}" name="支付方式" dataDxfId="175"/>
-    <tableColumn id="8" xr3:uid="{8C94CA3B-1B09-C945-8241-D03F6F239F9F}" name="渠道" dataDxfId="174"/>
-    <tableColumn id="9" xr3:uid="{F056B581-94F6-6A4D-9231-DDC1C0437631}" name="备注" dataDxfId="173"/>
+    <tableColumn id="1" xr3:uid="{74D9CA40-4FE9-984A-A0EB-AA2378AD6CA6}" name="日期" dataDxfId="210"/>
+    <tableColumn id="2" xr3:uid="{399F4564-6842-1545-B8AF-E02DAC43416A}" name="时间" dataDxfId="209"/>
+    <tableColumn id="3" xr3:uid="{E8144FE3-3D58-0443-AF79-8BF552410036}" name="类别" dataDxfId="208"/>
+    <tableColumn id="4" xr3:uid="{8FBB1190-B9EE-0A40-B8AF-1F9469490287}" name="名称" dataDxfId="207"/>
+    <tableColumn id="10" xr3:uid="{0C6C1CDC-B4E4-8645-8C6D-D53E3E0CFEAC}" name="金额($)" dataDxfId="206"/>
+    <tableColumn id="6" xr3:uid="{D8196724-FF67-DD4A-A1BE-F88FB8237117}" name="数量" dataDxfId="205"/>
+    <tableColumn id="7" xr3:uid="{321E4B00-5C56-AF45-956D-93589BC551AF}" name="支付方式" dataDxfId="204"/>
+    <tableColumn id="8" xr3:uid="{8C94CA3B-1B09-C945-8241-D03F6F239F9F}" name="渠道" dataDxfId="203"/>
+    <tableColumn id="9" xr3:uid="{F056B581-94F6-6A4D-9231-DDC1C0437631}" name="备注" dataDxfId="202"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{5A08404A-170A-AF43-8E1D-DF9862393746}" name="表2_12131516" displayName="表2_12131516" ref="K87:S91" totalsRowShown="0" headerRowDxfId="172" dataDxfId="170" headerRowBorderDxfId="171" tableBorderDxfId="169">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{5A08404A-170A-AF43-8E1D-DF9862393746}" name="表2_12131516" displayName="表2_12131516" ref="K87:S91" totalsRowShown="0" headerRowDxfId="201" dataDxfId="199" headerRowBorderDxfId="200" tableBorderDxfId="198">
   <autoFilter ref="K87:S91" xr:uid="{94896363-E9F6-6743-B1C8-ACC0B149BEDF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K88:S110">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{834FC3A7-2586-5448-8952-7C3E0EC89688}" name="日期" dataDxfId="168"/>
-    <tableColumn id="2" xr3:uid="{7F1EF38F-268A-0F46-942E-72A9EF34A342}" name="时间" dataDxfId="167"/>
-    <tableColumn id="3" xr3:uid="{28FEEB6B-3150-6649-9028-BA0EE86B0496}" name="类别" dataDxfId="166"/>
-    <tableColumn id="4" xr3:uid="{347E68C4-C92A-4D49-BDAE-84DC38ED641B}" name="名称" dataDxfId="165"/>
-    <tableColumn id="10" xr3:uid="{17182FB7-D83A-1D4A-99C7-3B78D3BC590F}" name="金额($)" dataDxfId="164"/>
-    <tableColumn id="6" xr3:uid="{53E4A12C-B04D-EB4B-A0DE-59416C400198}" name="数量" dataDxfId="163"/>
-    <tableColumn id="7" xr3:uid="{393090AF-7A3C-C54A-825A-64E2B42A460E}" name="支付方式" dataDxfId="162"/>
-    <tableColumn id="8" xr3:uid="{549E8A07-2F1C-804C-B9F0-258E3F72FC60}" name="渠道" dataDxfId="161"/>
-    <tableColumn id="9" xr3:uid="{92665FCA-79D8-8145-8646-27E3066FA64C}" name="备注" dataDxfId="160"/>
+    <tableColumn id="1" xr3:uid="{834FC3A7-2586-5448-8952-7C3E0EC89688}" name="日期" dataDxfId="197"/>
+    <tableColumn id="2" xr3:uid="{7F1EF38F-268A-0F46-942E-72A9EF34A342}" name="时间" dataDxfId="196"/>
+    <tableColumn id="3" xr3:uid="{28FEEB6B-3150-6649-9028-BA0EE86B0496}" name="类别" dataDxfId="195"/>
+    <tableColumn id="4" xr3:uid="{347E68C4-C92A-4D49-BDAE-84DC38ED641B}" name="名称" dataDxfId="194"/>
+    <tableColumn id="10" xr3:uid="{17182FB7-D83A-1D4A-99C7-3B78D3BC590F}" name="金额($)" dataDxfId="193"/>
+    <tableColumn id="6" xr3:uid="{53E4A12C-B04D-EB4B-A0DE-59416C400198}" name="数量" dataDxfId="192"/>
+    <tableColumn id="7" xr3:uid="{393090AF-7A3C-C54A-825A-64E2B42A460E}" name="支付方式" dataDxfId="191"/>
+    <tableColumn id="8" xr3:uid="{549E8A07-2F1C-804C-B9F0-258E3F72FC60}" name="渠道" dataDxfId="190"/>
+    <tableColumn id="9" xr3:uid="{92665FCA-79D8-8145-8646-27E3066FA64C}" name="备注" dataDxfId="189"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{F8F4C9F9-ECF7-484B-BF22-500571CA134E}" name="表18" displayName="表18" ref="K53:U58" totalsRowShown="0" headerRowDxfId="159" dataDxfId="157" headerRowBorderDxfId="158" tableBorderDxfId="156" totalsRowBorderDxfId="155">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{F8F4C9F9-ECF7-484B-BF22-500571CA134E}" name="表18" displayName="表18" ref="K53:U58" totalsRowShown="0" headerRowDxfId="188" dataDxfId="186" headerRowBorderDxfId="187" tableBorderDxfId="185" totalsRowBorderDxfId="184">
   <autoFilter ref="K53:U58" xr:uid="{D9ADCBF8-F752-BD45-92A5-FF212FE991D9}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{A7BB4249-B024-D844-9DC5-DC40FE447B69}" name="日期" dataDxfId="154"/>
-    <tableColumn id="2" xr3:uid="{371CFA43-DD16-3D47-BFDB-319E8BB2562D}" name="时间" dataDxfId="153"/>
-    <tableColumn id="3" xr3:uid="{9E72B5C9-6F7B-EB40-B273-DC1E26E01184}" name="类别" dataDxfId="152"/>
-    <tableColumn id="4" xr3:uid="{05B51FE5-06F7-3B4A-9CE8-59C692D71DB6}" name="名称" dataDxfId="151"/>
-    <tableColumn id="5" xr3:uid="{971993D3-228B-BE4F-9FBE-3D1DDDBB8726}" name="金额($)" dataDxfId="150"/>
-    <tableColumn id="6" xr3:uid="{8E3188D8-5443-0141-87FC-8B6D4AFFEF54}" name="金额(陈)" dataDxfId="149"/>
-    <tableColumn id="7" xr3:uid="{648E2B1A-EBE3-8F4A-95A3-A09F24E0C9DA}" name="金额(李)" dataDxfId="148"/>
-    <tableColumn id="8" xr3:uid="{7D50B75C-424D-034A-9749-4961F0A2F2C9}" name="数量" dataDxfId="147"/>
-    <tableColumn id="9" xr3:uid="{85652E18-1A14-BD49-B7D7-2C7AA1447817}" name="支付方式" dataDxfId="146"/>
-    <tableColumn id="10" xr3:uid="{C770346D-F261-0347-B5FE-63CC5BAF59B4}" name="渠道" dataDxfId="145"/>
-    <tableColumn id="11" xr3:uid="{31FD91E5-37C9-BE46-9FA0-02CFBF3E45E1}" name="备注" dataDxfId="144"/>
+    <tableColumn id="1" xr3:uid="{A7BB4249-B024-D844-9DC5-DC40FE447B69}" name="日期" dataDxfId="183"/>
+    <tableColumn id="2" xr3:uid="{371CFA43-DD16-3D47-BFDB-319E8BB2562D}" name="时间" dataDxfId="182"/>
+    <tableColumn id="3" xr3:uid="{9E72B5C9-6F7B-EB40-B273-DC1E26E01184}" name="类别" dataDxfId="181"/>
+    <tableColumn id="4" xr3:uid="{05B51FE5-06F7-3B4A-9CE8-59C692D71DB6}" name="名称" dataDxfId="180"/>
+    <tableColumn id="5" xr3:uid="{971993D3-228B-BE4F-9FBE-3D1DDDBB8726}" name="金额($)" dataDxfId="179"/>
+    <tableColumn id="6" xr3:uid="{8E3188D8-5443-0141-87FC-8B6D4AFFEF54}" name="金额(陈)" dataDxfId="178"/>
+    <tableColumn id="7" xr3:uid="{648E2B1A-EBE3-8F4A-95A3-A09F24E0C9DA}" name="金额(李)" dataDxfId="177"/>
+    <tableColumn id="8" xr3:uid="{7D50B75C-424D-034A-9749-4961F0A2F2C9}" name="数量" dataDxfId="176"/>
+    <tableColumn id="9" xr3:uid="{85652E18-1A14-BD49-B7D7-2C7AA1447817}" name="支付方式" dataDxfId="175"/>
+    <tableColumn id="10" xr3:uid="{C770346D-F261-0347-B5FE-63CC5BAF59B4}" name="渠道" dataDxfId="174"/>
+    <tableColumn id="11" xr3:uid="{31FD91E5-37C9-BE46-9FA0-02CFBF3E45E1}" name="备注" dataDxfId="173"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{606E3E97-D81D-AB41-BA99-E007537886BF}" name="表2_1213151620" displayName="表2_1213151620" ref="K94:S100" totalsRowShown="0" headerRowDxfId="143" dataDxfId="141" headerRowBorderDxfId="142" tableBorderDxfId="140">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{606E3E97-D81D-AB41-BA99-E007537886BF}" name="表2_1213151620" displayName="表2_1213151620" ref="K94:S100" totalsRowShown="0" headerRowDxfId="172" dataDxfId="170" headerRowBorderDxfId="171" tableBorderDxfId="169">
   <autoFilter ref="K94:S100" xr:uid="{2674F753-E0FA-1844-8EF2-AF7541B04290}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K95:S119">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{15D7FFBF-4311-7F47-914F-8B84FE5F4082}" name="日期" dataDxfId="139"/>
-    <tableColumn id="2" xr3:uid="{27DD3D02-CE0C-FF46-B0B1-235BB58DA381}" name="时间" dataDxfId="138"/>
-    <tableColumn id="3" xr3:uid="{3F62F38A-6972-5A49-B690-81990D2CC035}" name="类别" dataDxfId="137"/>
-    <tableColumn id="4" xr3:uid="{EA1F0C6D-25C3-7342-8D38-1ADC56C101DF}" name="名称" dataDxfId="136"/>
-    <tableColumn id="10" xr3:uid="{90C5F47D-F18D-7942-A073-EAF9720C1C5F}" name="金额($)" dataDxfId="135"/>
-    <tableColumn id="6" xr3:uid="{23DA7484-2642-294C-B615-581AB57BD3A1}" name="数量" dataDxfId="134"/>
-    <tableColumn id="7" xr3:uid="{82AC8D78-CF26-9F4D-8211-2B13B307DFC3}" name="支付方式" dataDxfId="133"/>
-    <tableColumn id="8" xr3:uid="{91141D7B-3679-F747-9F5F-E409D72331DA}" name="渠道" dataDxfId="132"/>
-    <tableColumn id="9" xr3:uid="{529F0920-90E6-EB41-A2FB-D0928A57CD99}" name="备注" dataDxfId="131"/>
+    <tableColumn id="1" xr3:uid="{15D7FFBF-4311-7F47-914F-8B84FE5F4082}" name="日期" dataDxfId="168"/>
+    <tableColumn id="2" xr3:uid="{27DD3D02-CE0C-FF46-B0B1-235BB58DA381}" name="时间" dataDxfId="167"/>
+    <tableColumn id="3" xr3:uid="{3F62F38A-6972-5A49-B690-81990D2CC035}" name="类别" dataDxfId="166"/>
+    <tableColumn id="4" xr3:uid="{EA1F0C6D-25C3-7342-8D38-1ADC56C101DF}" name="名称" dataDxfId="165"/>
+    <tableColumn id="10" xr3:uid="{90C5F47D-F18D-7942-A073-EAF9720C1C5F}" name="金额($)" dataDxfId="164"/>
+    <tableColumn id="6" xr3:uid="{23DA7484-2642-294C-B615-581AB57BD3A1}" name="数量" dataDxfId="163"/>
+    <tableColumn id="7" xr3:uid="{82AC8D78-CF26-9F4D-8211-2B13B307DFC3}" name="支付方式" dataDxfId="162"/>
+    <tableColumn id="8" xr3:uid="{91141D7B-3679-F747-9F5F-E409D72331DA}" name="渠道" dataDxfId="161"/>
+    <tableColumn id="9" xr3:uid="{529F0920-90E6-EB41-A2FB-D0928A57CD99}" name="备注" dataDxfId="160"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{65F04204-4685-BD44-A9A9-528E74381FD5}" name="表2_121315162021" displayName="表2_121315162021" ref="K103:S109" totalsRowShown="0" headerRowDxfId="130" dataDxfId="128" headerRowBorderDxfId="129" tableBorderDxfId="127">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{65F04204-4685-BD44-A9A9-528E74381FD5}" name="表2_121315162021" displayName="表2_121315162021" ref="K103:S109" totalsRowShown="0" headerRowDxfId="159" dataDxfId="157" headerRowBorderDxfId="158" tableBorderDxfId="156">
   <autoFilter ref="K103:S109" xr:uid="{667113CE-E40C-644A-9375-DFFA158F767D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K104:S128">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{86FDBD0A-C64B-684E-88E4-97A9B8A90394}" name="日期" dataDxfId="126"/>
-    <tableColumn id="2" xr3:uid="{E706DFF2-17A8-074C-A9BC-624F5932127D}" name="时间" dataDxfId="125"/>
-    <tableColumn id="3" xr3:uid="{4178F89C-CD46-CA48-BE92-ECFE4C3DFE56}" name="类别" dataDxfId="124"/>
-    <tableColumn id="4" xr3:uid="{A549C014-3FFF-9F40-9F34-910684A4517C}" name="名称" dataDxfId="123"/>
-    <tableColumn id="10" xr3:uid="{C84AE528-810C-6C47-8DF2-AF970AF9A2D4}" name="金额($)" dataDxfId="122"/>
-    <tableColumn id="6" xr3:uid="{5270CAB9-ED19-D449-9926-0A2551F4C6AD}" name="数量" dataDxfId="121"/>
-    <tableColumn id="7" xr3:uid="{A50583DC-76A3-3246-BBE9-4A25FC54C124}" name="支付方式" dataDxfId="120"/>
-    <tableColumn id="8" xr3:uid="{F0F66474-976C-7E44-8C1D-71BF0D6187AB}" name="渠道" dataDxfId="119"/>
-    <tableColumn id="9" xr3:uid="{7CB81F3A-0F01-4E45-8F36-0A6F6C393579}" name="备注" dataDxfId="118"/>
+    <tableColumn id="1" xr3:uid="{86FDBD0A-C64B-684E-88E4-97A9B8A90394}" name="日期" dataDxfId="155"/>
+    <tableColumn id="2" xr3:uid="{E706DFF2-17A8-074C-A9BC-624F5932127D}" name="时间" dataDxfId="154"/>
+    <tableColumn id="3" xr3:uid="{4178F89C-CD46-CA48-BE92-ECFE4C3DFE56}" name="类别" dataDxfId="153"/>
+    <tableColumn id="4" xr3:uid="{A549C014-3FFF-9F40-9F34-910684A4517C}" name="名称" dataDxfId="152"/>
+    <tableColumn id="10" xr3:uid="{C84AE528-810C-6C47-8DF2-AF970AF9A2D4}" name="金额($)" dataDxfId="151"/>
+    <tableColumn id="6" xr3:uid="{5270CAB9-ED19-D449-9926-0A2551F4C6AD}" name="数量" dataDxfId="150"/>
+    <tableColumn id="7" xr3:uid="{A50583DC-76A3-3246-BBE9-4A25FC54C124}" name="支付方式" dataDxfId="149"/>
+    <tableColumn id="8" xr3:uid="{F0F66474-976C-7E44-8C1D-71BF0D6187AB}" name="渠道" dataDxfId="148"/>
+    <tableColumn id="9" xr3:uid="{7CB81F3A-0F01-4E45-8F36-0A6F6C393579}" name="备注" dataDxfId="147"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9478,10 +10607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C81ADFD-2D83-574A-AD81-B8046C388F80}">
-  <dimension ref="A1:V250"/>
+  <dimension ref="A1:V287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="88" workbookViewId="0">
-      <selection activeCell="I185" sqref="I185"/>
+    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="88" workbookViewId="0">
+      <selection activeCell="E207" sqref="E207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9525,19 +10654,19 @@
       <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="1">
@@ -11314,17 +12443,17 @@
       <c r="I32" t="s">
         <v>141</v>
       </c>
-      <c r="K32" s="40" t="s">
+      <c r="K32" s="41" t="s">
         <v>354</v>
       </c>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
       <c r="T32" s="29"/>
       <c r="U32" s="29"/>
     </row>
@@ -11843,17 +12972,17 @@
       <c r="I43" t="s">
         <v>197</v>
       </c>
-      <c r="K43" s="40" t="s">
+      <c r="K43" s="41" t="s">
         <v>354</v>
       </c>
-      <c r="L43" s="40"/>
-      <c r="M43" s="40"/>
-      <c r="N43" s="40"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="40"/>
-      <c r="S43" s="40"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="41"/>
+      <c r="S43" s="41"/>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="1">
@@ -12270,19 +13399,19 @@
       <c r="I52" t="s">
         <v>141</v>
       </c>
-      <c r="K52" s="41" t="s">
+      <c r="K52" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="L52" s="41"/>
-      <c r="M52" s="41"/>
-      <c r="N52" s="41"/>
-      <c r="O52" s="41"/>
-      <c r="P52" s="41"/>
-      <c r="Q52" s="41"/>
-      <c r="R52" s="41"/>
-      <c r="S52" s="41"/>
-      <c r="T52" s="41"/>
-      <c r="U52" s="41"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="40"/>
+      <c r="R52" s="40"/>
+      <c r="S52" s="40"/>
+      <c r="T52" s="40"/>
+      <c r="U52" s="40"/>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="1">
@@ -12713,20 +13842,20 @@
       <c r="I60" t="s">
         <v>231</v>
       </c>
-      <c r="K60" s="41" t="s">
+      <c r="K60" s="40" t="s">
         <v>666</v>
       </c>
-      <c r="L60" s="41"/>
-      <c r="M60" s="41"/>
-      <c r="N60" s="41"/>
-      <c r="O60" s="41"/>
-      <c r="P60" s="41"/>
-      <c r="Q60" s="41"/>
-      <c r="R60" s="41"/>
-      <c r="S60" s="41"/>
-      <c r="T60" s="41"/>
-      <c r="U60" s="41"/>
-      <c r="V60" s="41"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="40"/>
+      <c r="O60" s="40"/>
+      <c r="P60" s="40"/>
+      <c r="Q60" s="40"/>
+      <c r="R60" s="40"/>
+      <c r="S60" s="40"/>
+      <c r="T60" s="40"/>
+      <c r="U60" s="40"/>
+      <c r="V60" s="40"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="1">
@@ -13645,17 +14774,17 @@
       <c r="I76" t="s">
         <v>262</v>
       </c>
-      <c r="K76" s="40" t="s">
+      <c r="K76" s="41" t="s">
         <v>348</v>
       </c>
-      <c r="L76" s="40"/>
-      <c r="M76" s="40"/>
-      <c r="N76" s="40"/>
-      <c r="O76" s="40"/>
-      <c r="P76" s="40"/>
-      <c r="Q76" s="40"/>
-      <c r="R76" s="40"/>
-      <c r="S76" s="40"/>
+      <c r="L76" s="41"/>
+      <c r="M76" s="41"/>
+      <c r="N76" s="41"/>
+      <c r="O76" s="41"/>
+      <c r="P76" s="41"/>
+      <c r="Q76" s="41"/>
+      <c r="R76" s="41"/>
+      <c r="S76" s="41"/>
     </row>
     <row r="77" spans="1:22">
       <c r="A77" s="1">
@@ -14119,17 +15248,17 @@
       <c r="I86" t="s">
         <v>176</v>
       </c>
-      <c r="K86" s="40" t="s">
+      <c r="K86" s="41" t="s">
         <v>368</v>
       </c>
-      <c r="L86" s="40"/>
-      <c r="M86" s="40"/>
-      <c r="N86" s="40"/>
-      <c r="O86" s="40"/>
-      <c r="P86" s="40"/>
-      <c r="Q86" s="40"/>
-      <c r="R86" s="40"/>
-      <c r="S86" s="40"/>
+      <c r="L86" s="41"/>
+      <c r="M86" s="41"/>
+      <c r="N86" s="41"/>
+      <c r="O86" s="41"/>
+      <c r="P86" s="41"/>
+      <c r="Q86" s="41"/>
+      <c r="R86" s="41"/>
+      <c r="S86" s="41"/>
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="1">
@@ -14434,17 +15563,17 @@
       <c r="I93" t="s">
         <v>141</v>
       </c>
-      <c r="K93" s="40" t="s">
+      <c r="K93" s="41" t="s">
         <v>379</v>
       </c>
-      <c r="L93" s="40"/>
-      <c r="M93" s="40"/>
-      <c r="N93" s="40"/>
-      <c r="O93" s="40"/>
-      <c r="P93" s="40"/>
-      <c r="Q93" s="40"/>
-      <c r="R93" s="40"/>
-      <c r="S93" s="40"/>
+      <c r="L93" s="41"/>
+      <c r="M93" s="41"/>
+      <c r="N93" s="41"/>
+      <c r="O93" s="41"/>
+      <c r="P93" s="41"/>
+      <c r="Q93" s="41"/>
+      <c r="R93" s="41"/>
+      <c r="S93" s="41"/>
     </row>
     <row r="94" spans="1:19">
       <c r="A94" s="1">
@@ -14846,17 +15975,17 @@
       <c r="H102" t="s">
         <v>291</v>
       </c>
-      <c r="K102" s="40" t="s">
+      <c r="K102" s="41" t="s">
         <v>379</v>
       </c>
-      <c r="L102" s="40"/>
-      <c r="M102" s="40"/>
-      <c r="N102" s="40"/>
-      <c r="O102" s="40"/>
-      <c r="P102" s="40"/>
-      <c r="Q102" s="40"/>
-      <c r="R102" s="40"/>
-      <c r="S102" s="40"/>
+      <c r="L102" s="41"/>
+      <c r="M102" s="41"/>
+      <c r="N102" s="41"/>
+      <c r="O102" s="41"/>
+      <c r="P102" s="41"/>
+      <c r="Q102" s="41"/>
+      <c r="R102" s="41"/>
+      <c r="S102" s="41"/>
     </row>
     <row r="103" spans="1:19">
       <c r="A103" s="1">
@@ -16156,17 +17285,17 @@
       <c r="H130" t="s">
         <v>283</v>
       </c>
-      <c r="K130" s="40" t="s">
+      <c r="K130" s="41" t="s">
         <v>549</v>
       </c>
-      <c r="L130" s="40"/>
-      <c r="M130" s="40"/>
-      <c r="N130" s="40"/>
-      <c r="O130" s="40"/>
-      <c r="P130" s="40"/>
-      <c r="Q130" s="40"/>
-      <c r="R130" s="40"/>
-      <c r="S130" s="40"/>
+      <c r="L130" s="41"/>
+      <c r="M130" s="41"/>
+      <c r="N130" s="41"/>
+      <c r="O130" s="41"/>
+      <c r="P130" s="41"/>
+      <c r="Q130" s="41"/>
+      <c r="R130" s="41"/>
+      <c r="S130" s="41"/>
     </row>
     <row r="131" spans="1:19">
       <c r="A131" s="1">
@@ -17343,20 +18472,20 @@
       <c r="I153" t="s">
         <v>415</v>
       </c>
-      <c r="K153" s="41" t="s">
+      <c r="K153" s="40" t="s">
         <v>597</v>
       </c>
-      <c r="L153" s="41"/>
-      <c r="M153" s="41"/>
-      <c r="N153" s="41"/>
-      <c r="O153" s="41"/>
-      <c r="P153" s="41"/>
-      <c r="Q153" s="41"/>
-      <c r="R153" s="41"/>
-      <c r="S153" s="41"/>
-      <c r="T153" s="41"/>
-      <c r="U153" s="41"/>
-      <c r="V153" s="41"/>
+      <c r="L153" s="40"/>
+      <c r="M153" s="40"/>
+      <c r="N153" s="40"/>
+      <c r="O153" s="40"/>
+      <c r="P153" s="40"/>
+      <c r="Q153" s="40"/>
+      <c r="R153" s="40"/>
+      <c r="S153" s="40"/>
+      <c r="T153" s="40"/>
+      <c r="U153" s="40"/>
+      <c r="V153" s="40"/>
     </row>
     <row r="154" spans="1:22">
       <c r="A154" s="1">
@@ -18337,28 +19466,28 @@
     </row>
     <row r="170" spans="1:22">
       <c r="A170" s="1">
-        <v>43864</v>
+        <v>43863</v>
       </c>
       <c r="B170" s="2">
-        <v>0.43888888888888888</v>
+        <v>0.59444444444444444</v>
       </c>
       <c r="C170" t="s">
-        <v>83</v>
+        <v>771</v>
       </c>
       <c r="D170" t="s">
-        <v>548</v>
+        <v>889</v>
       </c>
       <c r="E170">
-        <v>203.30000000000004</v>
+        <v>20</v>
       </c>
       <c r="F170" t="s">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="G170" t="s">
-        <v>51</v>
+        <v>303</v>
       </c>
       <c r="H170" t="s">
-        <v>534</v>
+        <v>890</v>
       </c>
       <c r="K170" s="1">
         <v>43867</v>
@@ -18396,28 +19525,28 @@
     </row>
     <row r="171" spans="1:22">
       <c r="A171" s="1">
-        <v>43867</v>
+        <v>43864</v>
       </c>
       <c r="B171" s="2">
-        <v>0.41944444444444401</v>
+        <v>0.43888888888888888</v>
       </c>
       <c r="C171" t="s">
-        <v>274</v>
+        <v>83</v>
       </c>
       <c r="D171" t="s">
-        <v>596</v>
+        <v>548</v>
       </c>
       <c r="E171">
-        <v>24.8</v>
+        <v>203.30000000000004</v>
       </c>
       <c r="F171" t="s">
         <v>23</v>
       </c>
       <c r="G171" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="H171" t="s">
-        <v>391</v>
+        <v>534</v>
       </c>
       <c r="K171" s="1">
         <v>43867</v>
@@ -18455,28 +19584,28 @@
     </row>
     <row r="172" spans="1:22">
       <c r="A172" s="1">
-        <v>43870</v>
+        <v>43867</v>
       </c>
       <c r="B172" s="2">
-        <v>0.58194444444444404</v>
+        <v>0.41944444444444401</v>
       </c>
       <c r="C172" t="s">
-        <v>83</v>
+        <v>274</v>
       </c>
       <c r="D172" t="s">
-        <v>530</v>
+        <v>596</v>
       </c>
       <c r="E172">
-        <v>218.52000000000004</v>
+        <v>24.8</v>
       </c>
       <c r="F172" t="s">
         <v>23</v>
       </c>
       <c r="G172" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H172" t="s">
-        <v>479</v>
+        <v>391</v>
       </c>
       <c r="K172" s="1">
         <v>43867</v>
@@ -18517,28 +19646,28 @@
     </row>
     <row r="173" spans="1:22">
       <c r="A173" s="1">
-        <v>43871</v>
+        <v>43870</v>
       </c>
       <c r="B173" s="2">
-        <v>0.60902777777777795</v>
+        <v>0.58194444444444404</v>
       </c>
       <c r="C173" t="s">
         <v>83</v>
       </c>
       <c r="D173" t="s">
-        <v>532</v>
-      </c>
-      <c r="E173" s="4">
-        <v>46.300000000000004</v>
+        <v>530</v>
+      </c>
+      <c r="E173">
+        <v>218.52000000000004</v>
       </c>
       <c r="F173" t="s">
         <v>23</v>
       </c>
       <c r="G173" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H173" t="s">
-        <v>534</v>
+        <v>479</v>
       </c>
       <c r="K173" s="1">
         <v>43867</v>
@@ -18579,31 +19708,28 @@
     </row>
     <row r="174" spans="1:22">
       <c r="A174" s="1">
-        <v>43883</v>
+        <v>43871</v>
       </c>
       <c r="B174" s="2">
-        <v>0.7055555555555556</v>
+        <v>0.60902777777777795</v>
       </c>
       <c r="C174" t="s">
-        <v>700</v>
+        <v>83</v>
       </c>
       <c r="D174" t="s">
-        <v>701</v>
-      </c>
-      <c r="E174">
-        <v>114</v>
+        <v>532</v>
+      </c>
+      <c r="E174" s="4">
+        <v>46.300000000000004</v>
       </c>
       <c r="F174" t="s">
         <v>23</v>
       </c>
       <c r="G174" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H174" t="s">
-        <v>702</v>
-      </c>
-      <c r="I174" t="s">
-        <v>703</v>
+        <v>534</v>
       </c>
       <c r="K174" s="1">
         <v>43867</v>
@@ -18644,28 +19770,31 @@
     </row>
     <row r="175" spans="1:22">
       <c r="A175" s="1">
-        <v>43885</v>
+        <v>43883</v>
       </c>
       <c r="B175" s="2">
-        <v>0.68611111111111101</v>
+        <v>0.7055555555555556</v>
       </c>
       <c r="C175" t="s">
-        <v>26</v>
+        <v>700</v>
       </c>
       <c r="D175" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="E175">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="F175" t="s">
         <v>23</v>
       </c>
       <c r="G175" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H175" t="s">
-        <v>699</v>
+        <v>702</v>
+      </c>
+      <c r="I175" t="s">
+        <v>703</v>
       </c>
       <c r="K175" s="1">
         <v>43867</v>
@@ -18703,28 +19832,28 @@
     </row>
     <row r="176" spans="1:22">
       <c r="A176" s="1">
-        <v>43886</v>
+        <v>43885</v>
       </c>
       <c r="B176" s="2">
-        <v>0.40902777777777799</v>
+        <v>0.68611111111111101</v>
       </c>
       <c r="C176" t="s">
-        <v>258</v>
+        <v>26</v>
       </c>
       <c r="D176" t="s">
-        <v>706</v>
-      </c>
-      <c r="E176" s="4">
-        <v>114.4</v>
+        <v>698</v>
+      </c>
+      <c r="E176">
+        <v>10</v>
       </c>
       <c r="F176" t="s">
         <v>23</v>
       </c>
       <c r="G176" t="s">
-        <v>303</v>
+        <v>14</v>
       </c>
       <c r="H176" t="s">
-        <v>535</v>
+        <v>699</v>
       </c>
       <c r="K176" s="1">
         <v>43867</v>
@@ -18765,25 +19894,25 @@
         <v>43886</v>
       </c>
       <c r="B177" s="2">
-        <v>0.55694444444444446</v>
+        <v>0.40902777777777799</v>
       </c>
       <c r="C177" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="D177" t="s">
-        <v>768</v>
-      </c>
-      <c r="E177">
-        <v>22.3</v>
+        <v>706</v>
+      </c>
+      <c r="E177" s="4">
+        <v>114.4</v>
       </c>
       <c r="F177" t="s">
-        <v>769</v>
+        <v>23</v>
       </c>
       <c r="G177" t="s">
         <v>303</v>
       </c>
       <c r="H177" t="s">
-        <v>278</v>
+        <v>535</v>
       </c>
       <c r="K177" s="1">
         <v>43867</v>
@@ -18824,25 +19953,25 @@
         <v>43886</v>
       </c>
       <c r="B178" s="2">
-        <v>0.56388888888888888</v>
+        <v>0.55694444444444446</v>
       </c>
       <c r="C178" t="s">
         <v>274</v>
       </c>
       <c r="D178" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="E178">
-        <v>84.69</v>
+        <v>22.3</v>
       </c>
       <c r="F178" t="s">
-        <v>23</v>
+        <v>769</v>
       </c>
       <c r="G178" t="s">
         <v>303</v>
       </c>
       <c r="H178" t="s">
-        <v>391</v>
+        <v>278</v>
       </c>
       <c r="K178" s="1" t="s">
         <v>128</v>
@@ -18875,25 +20004,25 @@
         <v>43886</v>
       </c>
       <c r="B179" s="2">
-        <v>0.5708333333333333</v>
+        <v>0.56388888888888888</v>
       </c>
       <c r="C179" t="s">
         <v>274</v>
       </c>
       <c r="D179" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="E179">
-        <v>29</v>
+        <v>84.69</v>
       </c>
       <c r="F179" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="G179" t="s">
         <v>303</v>
       </c>
       <c r="H179" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K179" s="1"/>
       <c r="L179" s="2"/>
@@ -18921,73 +20050,70 @@
     </row>
     <row r="180" spans="1:22">
       <c r="A180" s="1">
-        <v>43890</v>
+        <v>43886</v>
       </c>
       <c r="B180" s="2">
-        <v>0.66666666666666663</v>
+        <v>0.5708333333333333</v>
       </c>
       <c r="C180" t="s">
-        <v>700</v>
+        <v>274</v>
       </c>
       <c r="D180" t="s">
-        <v>701</v>
+        <v>770</v>
       </c>
       <c r="E180">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="F180" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="G180" t="s">
-        <v>24</v>
+        <v>303</v>
       </c>
       <c r="H180" t="s">
-        <v>702</v>
-      </c>
-      <c r="I180" t="s">
-        <v>703</v>
+        <v>392</v>
       </c>
       <c r="O180" s="13"/>
     </row>
     <row r="181" spans="1:22">
       <c r="A181" s="1">
-        <v>43892</v>
+        <v>43890</v>
       </c>
       <c r="B181" s="2">
-        <v>0.39374999999999999</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C181" t="s">
-        <v>771</v>
+        <v>700</v>
       </c>
       <c r="D181" t="s">
-        <v>772</v>
+        <v>701</v>
       </c>
       <c r="E181">
-        <v>401</v>
+        <v>114</v>
       </c>
       <c r="F181" t="s">
-        <v>773</v>
+        <v>23</v>
       </c>
       <c r="G181" t="s">
         <v>24</v>
       </c>
       <c r="H181" t="s">
-        <v>401</v>
+        <v>702</v>
       </c>
       <c r="I181" t="s">
-        <v>774</v>
-      </c>
-      <c r="K181" s="40" t="s">
+        <v>703</v>
+      </c>
+      <c r="K181" s="41" t="s">
         <v>531</v>
       </c>
-      <c r="L181" s="40"/>
-      <c r="M181" s="40"/>
-      <c r="N181" s="40"/>
-      <c r="O181" s="40"/>
-      <c r="P181" s="40"/>
-      <c r="Q181" s="40"/>
-      <c r="R181" s="40"/>
-      <c r="S181" s="40"/>
+      <c r="L181" s="41"/>
+      <c r="M181" s="41"/>
+      <c r="N181" s="41"/>
+      <c r="O181" s="41"/>
+      <c r="P181" s="41"/>
+      <c r="Q181" s="41"/>
+      <c r="R181" s="41"/>
+      <c r="S181" s="41"/>
     </row>
     <row r="182" spans="1:22">
       <c r="A182" s="1">
@@ -19000,10 +20126,10 @@
         <v>771</v>
       </c>
       <c r="D182" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="E182">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="F182" t="s">
         <v>773</v>
@@ -19047,28 +20173,31 @@
     </row>
     <row r="183" spans="1:22">
       <c r="A183" s="1">
-        <v>43893</v>
+        <v>43892</v>
       </c>
       <c r="B183" s="2">
-        <v>0.79305555555555562</v>
+        <v>0.39374999999999999</v>
       </c>
       <c r="C183" t="s">
-        <v>336</v>
+        <v>771</v>
       </c>
       <c r="D183" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E183">
-        <v>15</v>
+        <v>286</v>
       </c>
       <c r="F183" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="G183" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H183" t="s">
-        <v>258</v>
+        <v>401</v>
+      </c>
+      <c r="I183" t="s">
+        <v>774</v>
       </c>
       <c r="K183" s="1">
         <v>43870</v>
@@ -19103,28 +20232,25 @@
         <v>43893</v>
       </c>
       <c r="B184" s="2">
-        <v>0.7944444444444444</v>
+        <v>0.79305555555555562</v>
       </c>
       <c r="C184" t="s">
-        <v>258</v>
+        <v>336</v>
       </c>
       <c r="D184" t="s">
-        <v>541</v>
+        <v>776</v>
       </c>
       <c r="E184">
-        <v>25.61</v>
+        <v>15</v>
       </c>
       <c r="F184" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G184" t="s">
         <v>13</v>
       </c>
       <c r="H184" t="s">
-        <v>535</v>
-      </c>
-      <c r="I184" t="s">
-        <v>779</v>
+        <v>258</v>
       </c>
       <c r="K184" s="1">
         <v>43870</v>
@@ -19156,31 +20282,31 @@
     </row>
     <row r="185" spans="1:22">
       <c r="A185" s="1">
-        <v>43898</v>
+        <v>43893</v>
       </c>
       <c r="B185" s="2">
-        <v>0.30694444444444441</v>
+        <v>0.7944444444444444</v>
       </c>
       <c r="C185" t="s">
-        <v>765</v>
+        <v>258</v>
       </c>
       <c r="D185" t="s">
-        <v>780</v>
+        <v>541</v>
       </c>
       <c r="E185">
-        <v>100</v>
+        <v>25.61</v>
       </c>
       <c r="F185" t="s">
-        <v>61</v>
+        <v>778</v>
       </c>
       <c r="G185" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H185" t="s">
-        <v>781</v>
+        <v>535</v>
       </c>
       <c r="I185" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="K185" s="1">
         <v>43870</v>
@@ -19211,8 +20337,33 @@
       </c>
     </row>
     <row r="186" spans="1:22">
-      <c r="A186" s="1"/>
-      <c r="B186" s="2"/>
+      <c r="A186" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B186" s="2">
+        <v>0.30694444444444441</v>
+      </c>
+      <c r="C186" t="s">
+        <v>765</v>
+      </c>
+      <c r="D186" t="s">
+        <v>780</v>
+      </c>
+      <c r="E186">
+        <v>100</v>
+      </c>
+      <c r="F186" t="s">
+        <v>61</v>
+      </c>
+      <c r="G186" t="s">
+        <v>24</v>
+      </c>
+      <c r="H186" t="s">
+        <v>781</v>
+      </c>
+      <c r="I186" t="s">
+        <v>782</v>
+      </c>
       <c r="K186" s="1">
         <v>43870</v>
       </c>
@@ -19242,8 +20393,33 @@
       </c>
     </row>
     <row r="187" spans="1:22">
-      <c r="A187" s="1"/>
-      <c r="B187" s="2"/>
+      <c r="A187" s="1">
+        <v>43902</v>
+      </c>
+      <c r="B187" s="2">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="C187" t="s">
+        <v>208</v>
+      </c>
+      <c r="D187" t="s">
+        <v>784</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187" t="s">
+        <v>23</v>
+      </c>
+      <c r="G187" t="s">
+        <v>150</v>
+      </c>
+      <c r="H187" t="s">
+        <v>783</v>
+      </c>
+      <c r="I187" t="s">
+        <v>791</v>
+      </c>
       <c r="K187" s="1">
         <v>43870</v>
       </c>
@@ -19273,8 +20449,33 @@
       </c>
     </row>
     <row r="188" spans="1:22">
-      <c r="A188" s="1"/>
-      <c r="B188" s="2"/>
+      <c r="A188" s="1">
+        <v>43902</v>
+      </c>
+      <c r="B188" s="2">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="C188" t="s">
+        <v>786</v>
+      </c>
+      <c r="D188" t="s">
+        <v>785</v>
+      </c>
+      <c r="E188">
+        <v>30.454999999999998</v>
+      </c>
+      <c r="F188" t="s">
+        <v>23</v>
+      </c>
+      <c r="G188" t="s">
+        <v>150</v>
+      </c>
+      <c r="H188" t="s">
+        <v>783</v>
+      </c>
+      <c r="I188" t="s">
+        <v>789</v>
+      </c>
       <c r="K188" s="1">
         <v>43870</v>
       </c>
@@ -19304,8 +20505,33 @@
       </c>
     </row>
     <row r="189" spans="1:22">
-      <c r="A189" s="1"/>
-      <c r="B189" s="2"/>
+      <c r="A189" s="1">
+        <v>43902</v>
+      </c>
+      <c r="B189" s="2">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="C189" t="s">
+        <v>787</v>
+      </c>
+      <c r="D189" t="s">
+        <v>788</v>
+      </c>
+      <c r="E189">
+        <v>190.33</v>
+      </c>
+      <c r="F189" t="s">
+        <v>23</v>
+      </c>
+      <c r="G189" t="s">
+        <v>150</v>
+      </c>
+      <c r="H189" t="s">
+        <v>783</v>
+      </c>
+      <c r="I189" t="s">
+        <v>790</v>
+      </c>
       <c r="K189" s="1">
         <v>43870</v>
       </c>
@@ -19335,8 +20561,33 @@
       </c>
     </row>
     <row r="190" spans="1:22">
-      <c r="A190" s="1"/>
-      <c r="B190" s="2"/>
+      <c r="A190" s="1">
+        <v>43903</v>
+      </c>
+      <c r="B190" s="2">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="C190" t="s">
+        <v>274</v>
+      </c>
+      <c r="D190" t="s">
+        <v>792</v>
+      </c>
+      <c r="E190">
+        <v>9.9</v>
+      </c>
+      <c r="F190" t="s">
+        <v>201</v>
+      </c>
+      <c r="G190" t="s">
+        <v>24</v>
+      </c>
+      <c r="H190" t="s">
+        <v>278</v>
+      </c>
+      <c r="I190" t="s">
+        <v>793</v>
+      </c>
       <c r="K190" s="1">
         <v>43870</v>
       </c>
@@ -19366,8 +20617,33 @@
       </c>
     </row>
     <row r="191" spans="1:22">
-      <c r="A191" s="1"/>
-      <c r="B191" s="2"/>
+      <c r="A191" s="1">
+        <v>43903</v>
+      </c>
+      <c r="B191" s="2">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="C191" t="s">
+        <v>274</v>
+      </c>
+      <c r="D191" t="s">
+        <v>794</v>
+      </c>
+      <c r="E191">
+        <v>20.9</v>
+      </c>
+      <c r="F191" t="s">
+        <v>65</v>
+      </c>
+      <c r="G191" t="s">
+        <v>24</v>
+      </c>
+      <c r="H191" t="s">
+        <v>278</v>
+      </c>
+      <c r="I191" t="s">
+        <v>795</v>
+      </c>
       <c r="K191" s="1">
         <v>43870</v>
       </c>
@@ -19394,8 +20670,33 @@
       </c>
     </row>
     <row r="192" spans="1:22">
-      <c r="A192" s="1"/>
-      <c r="B192" s="2"/>
+      <c r="A192" s="1">
+        <v>43903</v>
+      </c>
+      <c r="B192" s="2">
+        <v>0.78194444444444444</v>
+      </c>
+      <c r="C192" t="s">
+        <v>274</v>
+      </c>
+      <c r="D192" t="s">
+        <v>796</v>
+      </c>
+      <c r="E192">
+        <v>19.8</v>
+      </c>
+      <c r="F192" t="s">
+        <v>287</v>
+      </c>
+      <c r="G192" t="s">
+        <v>24</v>
+      </c>
+      <c r="H192" t="s">
+        <v>278</v>
+      </c>
+      <c r="I192" t="s">
+        <v>797</v>
+      </c>
       <c r="K192" s="1">
         <v>43870</v>
       </c>
@@ -19425,8 +20726,33 @@
       </c>
     </row>
     <row r="193" spans="1:19">
-      <c r="A193" s="1"/>
-      <c r="B193" s="2"/>
+      <c r="A193" s="1">
+        <v>43903</v>
+      </c>
+      <c r="B193" s="2">
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="C193" t="s">
+        <v>274</v>
+      </c>
+      <c r="D193" t="s">
+        <v>798</v>
+      </c>
+      <c r="E193">
+        <v>26.93</v>
+      </c>
+      <c r="F193" t="s">
+        <v>65</v>
+      </c>
+      <c r="G193" t="s">
+        <v>24</v>
+      </c>
+      <c r="H193" t="s">
+        <v>278</v>
+      </c>
+      <c r="I193" t="s">
+        <v>799</v>
+      </c>
       <c r="K193" s="1">
         <v>43870</v>
       </c>
@@ -19456,8 +20782,30 @@
       </c>
     </row>
     <row r="194" spans="1:19">
-      <c r="A194" s="1"/>
-      <c r="B194" s="2"/>
+      <c r="A194" s="1">
+        <v>43903</v>
+      </c>
+      <c r="B194" s="2">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="C194" t="s">
+        <v>274</v>
+      </c>
+      <c r="D194" t="s">
+        <v>800</v>
+      </c>
+      <c r="E194">
+        <v>8.5</v>
+      </c>
+      <c r="F194" t="s">
+        <v>294</v>
+      </c>
+      <c r="G194" t="s">
+        <v>24</v>
+      </c>
+      <c r="H194" t="s">
+        <v>278</v>
+      </c>
       <c r="K194" s="1">
         <v>43870</v>
       </c>
@@ -19487,8 +20835,33 @@
       </c>
     </row>
     <row r="195" spans="1:19">
-      <c r="A195" s="1"/>
-      <c r="B195" s="2"/>
+      <c r="A195" s="1">
+        <v>43904</v>
+      </c>
+      <c r="B195" s="2">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="C195" t="s">
+        <v>26</v>
+      </c>
+      <c r="D195" t="s">
+        <v>663</v>
+      </c>
+      <c r="E195">
+        <v>398</v>
+      </c>
+      <c r="F195" t="s">
+        <v>23</v>
+      </c>
+      <c r="G195" t="s">
+        <v>394</v>
+      </c>
+      <c r="H195" t="s">
+        <v>392</v>
+      </c>
+      <c r="I195" t="s">
+        <v>801</v>
+      </c>
       <c r="K195" s="1">
         <v>43870</v>
       </c>
@@ -19518,8 +20891,33 @@
       </c>
     </row>
     <row r="196" spans="1:19">
-      <c r="A196" s="1"/>
-      <c r="B196" s="2"/>
+      <c r="A196" s="1">
+        <v>43904</v>
+      </c>
+      <c r="B196" s="2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C196" t="s">
+        <v>258</v>
+      </c>
+      <c r="D196" t="s">
+        <v>822</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196" t="s">
+        <v>23</v>
+      </c>
+      <c r="G196" t="s">
+        <v>663</v>
+      </c>
+      <c r="H196" t="s">
+        <v>392</v>
+      </c>
+      <c r="I196" s="36" t="s">
+        <v>823</v>
+      </c>
       <c r="K196" s="1">
         <v>43870</v>
       </c>
@@ -19549,8 +20947,33 @@
       </c>
     </row>
     <row r="197" spans="1:19">
-      <c r="A197" s="1"/>
-      <c r="B197" s="2"/>
+      <c r="A197" s="1">
+        <v>43904</v>
+      </c>
+      <c r="B197" s="2">
+        <v>0.43541666666666662</v>
+      </c>
+      <c r="C197" t="s">
+        <v>274</v>
+      </c>
+      <c r="D197" t="s">
+        <v>824</v>
+      </c>
+      <c r="E197">
+        <v>25.9</v>
+      </c>
+      <c r="F197" t="s">
+        <v>825</v>
+      </c>
+      <c r="G197" t="s">
+        <v>24</v>
+      </c>
+      <c r="H197" t="s">
+        <v>278</v>
+      </c>
+      <c r="I197" s="36" t="s">
+        <v>826</v>
+      </c>
       <c r="K197" s="1">
         <v>43870</v>
       </c>
@@ -19580,8 +21003,30 @@
       </c>
     </row>
     <row r="198" spans="1:19">
-      <c r="A198" s="1"/>
-      <c r="B198" s="2"/>
+      <c r="A198" s="1">
+        <v>43904</v>
+      </c>
+      <c r="B198" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="C198" t="s">
+        <v>274</v>
+      </c>
+      <c r="D198" t="s">
+        <v>828</v>
+      </c>
+      <c r="E198">
+        <v>12.5</v>
+      </c>
+      <c r="F198" t="s">
+        <v>827</v>
+      </c>
+      <c r="G198" t="s">
+        <v>24</v>
+      </c>
+      <c r="H198" t="s">
+        <v>278</v>
+      </c>
       <c r="K198" s="1">
         <v>43870</v>
       </c>
@@ -19611,8 +21056,30 @@
       </c>
     </row>
     <row r="199" spans="1:19">
-      <c r="A199" s="1"/>
-      <c r="B199" s="2"/>
+      <c r="A199" s="1">
+        <v>43904</v>
+      </c>
+      <c r="B199" s="2">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="C199" t="s">
+        <v>274</v>
+      </c>
+      <c r="D199" t="s">
+        <v>830</v>
+      </c>
+      <c r="E199">
+        <v>16.8</v>
+      </c>
+      <c r="F199" t="s">
+        <v>829</v>
+      </c>
+      <c r="G199" t="s">
+        <v>24</v>
+      </c>
+      <c r="H199" t="s">
+        <v>278</v>
+      </c>
       <c r="K199" s="1">
         <v>43870</v>
       </c>
@@ -19642,8 +21109,33 @@
       </c>
     </row>
     <row r="200" spans="1:19">
-      <c r="A200" s="1"/>
-      <c r="B200" s="2"/>
+      <c r="A200" s="1">
+        <v>43904</v>
+      </c>
+      <c r="B200" s="2">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="C200" t="s">
+        <v>274</v>
+      </c>
+      <c r="D200" t="s">
+        <v>831</v>
+      </c>
+      <c r="E200">
+        <v>32.9</v>
+      </c>
+      <c r="F200" t="s">
+        <v>832</v>
+      </c>
+      <c r="G200" t="s">
+        <v>24</v>
+      </c>
+      <c r="H200" t="s">
+        <v>278</v>
+      </c>
+      <c r="I200" t="s">
+        <v>833</v>
+      </c>
       <c r="K200" s="1">
         <v>43870</v>
       </c>
@@ -19673,8 +21165,33 @@
       </c>
     </row>
     <row r="201" spans="1:19">
-      <c r="A201" s="1"/>
-      <c r="B201" s="2"/>
+      <c r="A201" s="1">
+        <v>43905</v>
+      </c>
+      <c r="B201" s="2">
+        <v>0.31527777777777777</v>
+      </c>
+      <c r="C201" t="s">
+        <v>274</v>
+      </c>
+      <c r="D201" t="s">
+        <v>834</v>
+      </c>
+      <c r="E201">
+        <v>29.9</v>
+      </c>
+      <c r="F201" t="s">
+        <v>65</v>
+      </c>
+      <c r="G201" t="s">
+        <v>394</v>
+      </c>
+      <c r="H201" t="s">
+        <v>276</v>
+      </c>
+      <c r="I201" t="s">
+        <v>835</v>
+      </c>
       <c r="K201" s="1">
         <v>43870</v>
       </c>
@@ -19704,8 +21221,33 @@
       </c>
     </row>
     <row r="202" spans="1:19">
-      <c r="A202" s="1"/>
-      <c r="B202" s="2"/>
+      <c r="A202" s="1">
+        <v>43905</v>
+      </c>
+      <c r="B202" s="2">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="C202" t="s">
+        <v>274</v>
+      </c>
+      <c r="D202" t="s">
+        <v>836</v>
+      </c>
+      <c r="E202">
+        <v>25.67</v>
+      </c>
+      <c r="F202" t="s">
+        <v>65</v>
+      </c>
+      <c r="G202" t="s">
+        <v>394</v>
+      </c>
+      <c r="H202" t="s">
+        <v>276</v>
+      </c>
+      <c r="I202" t="s">
+        <v>837</v>
+      </c>
       <c r="K202" s="1">
         <v>43870</v>
       </c>
@@ -19735,8 +21277,30 @@
       </c>
     </row>
     <row r="203" spans="1:19">
-      <c r="A203" s="1"/>
-      <c r="B203" s="2"/>
+      <c r="A203" s="1">
+        <v>43905</v>
+      </c>
+      <c r="B203" s="2">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="C203" t="s">
+        <v>258</v>
+      </c>
+      <c r="D203" t="s">
+        <v>838</v>
+      </c>
+      <c r="E203">
+        <v>95.5</v>
+      </c>
+      <c r="F203" t="s">
+        <v>23</v>
+      </c>
+      <c r="G203" t="s">
+        <v>303</v>
+      </c>
+      <c r="H203" t="s">
+        <v>535</v>
+      </c>
       <c r="K203" s="1">
         <v>43870</v>
       </c>
@@ -19783,17 +21347,17 @@
     <row r="206" spans="1:19">
       <c r="A206" s="1"/>
       <c r="B206" s="2"/>
-      <c r="K206" s="40" t="s">
+      <c r="K206" s="41" t="s">
         <v>533</v>
       </c>
-      <c r="L206" s="40"/>
-      <c r="M206" s="40"/>
-      <c r="N206" s="40"/>
-      <c r="O206" s="40"/>
-      <c r="P206" s="40"/>
-      <c r="Q206" s="40"/>
-      <c r="R206" s="40"/>
-      <c r="S206" s="40"/>
+      <c r="L206" s="41"/>
+      <c r="M206" s="41"/>
+      <c r="N206" s="41"/>
+      <c r="O206" s="41"/>
+      <c r="P206" s="41"/>
+      <c r="Q206" s="41"/>
+      <c r="R206" s="41"/>
+      <c r="S206" s="41"/>
     </row>
     <row r="207" spans="1:19">
       <c r="A207" s="1"/>
@@ -19968,17 +21532,17 @@
     <row r="214" spans="1:19">
       <c r="A214" s="1"/>
       <c r="B214" s="2"/>
-      <c r="K214" s="40" t="s">
+      <c r="K214" s="41" t="s">
         <v>707</v>
       </c>
-      <c r="L214" s="40"/>
-      <c r="M214" s="40"/>
-      <c r="N214" s="40"/>
-      <c r="O214" s="40"/>
-      <c r="P214" s="40"/>
-      <c r="Q214" s="40"/>
-      <c r="R214" s="40"/>
-      <c r="S214" s="40"/>
+      <c r="L214" s="41"/>
+      <c r="M214" s="41"/>
+      <c r="N214" s="41"/>
+      <c r="O214" s="41"/>
+      <c r="P214" s="41"/>
+      <c r="Q214" s="41"/>
+      <c r="R214" s="41"/>
+      <c r="S214" s="41"/>
     </row>
     <row r="215" spans="1:19">
       <c r="A215" s="1"/>
@@ -20739,20 +22303,20 @@
     <row r="241" spans="1:22">
       <c r="A241" s="1"/>
       <c r="B241" s="2"/>
-      <c r="K241" s="41" t="s">
+      <c r="K241" s="40" t="s">
         <v>767</v>
       </c>
-      <c r="L241" s="41"/>
-      <c r="M241" s="41"/>
-      <c r="N241" s="41"/>
-      <c r="O241" s="41"/>
-      <c r="P241" s="41"/>
-      <c r="Q241" s="41"/>
-      <c r="R241" s="41"/>
-      <c r="S241" s="41"/>
-      <c r="T241" s="41"/>
-      <c r="U241" s="41"/>
-      <c r="V241" s="41"/>
+      <c r="L241" s="40"/>
+      <c r="M241" s="40"/>
+      <c r="N241" s="40"/>
+      <c r="O241" s="40"/>
+      <c r="P241" s="40"/>
+      <c r="Q241" s="40"/>
+      <c r="R241" s="40"/>
+      <c r="S241" s="40"/>
+      <c r="T241" s="40"/>
+      <c r="U241" s="40"/>
+      <c r="V241" s="40"/>
     </row>
     <row r="242" spans="1:22">
       <c r="A242" s="1"/>
@@ -21082,10 +22646,1032 @@
       <c r="T250" s="35"/>
       <c r="U250" s="35"/>
     </row>
+    <row r="252" spans="1:22">
+      <c r="K252" s="40" t="s">
+        <v>802</v>
+      </c>
+      <c r="L252" s="40"/>
+      <c r="M252" s="40"/>
+      <c r="N252" s="40"/>
+      <c r="O252" s="40"/>
+      <c r="P252" s="40"/>
+      <c r="Q252" s="40"/>
+      <c r="R252" s="40"/>
+      <c r="S252" s="40"/>
+      <c r="T252" s="40"/>
+      <c r="U252" s="40"/>
+      <c r="V252" s="40"/>
+    </row>
+    <row r="253" spans="1:22">
+      <c r="K253" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L253" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M253" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N253" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O253" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="P253" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q253" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R253" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S253" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="T253" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="U253" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="V253" s="9" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="254" spans="1:22">
+      <c r="K254" s="1">
+        <v>43904</v>
+      </c>
+      <c r="L254" s="2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="M254" t="s">
+        <v>274</v>
+      </c>
+      <c r="N254" t="s">
+        <v>803</v>
+      </c>
+      <c r="O254" s="39">
+        <v>13.9</v>
+      </c>
+      <c r="P254" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q254" t="s">
+        <v>663</v>
+      </c>
+      <c r="R254" t="s">
+        <v>391</v>
+      </c>
+      <c r="T254" t="s">
+        <v>812</v>
+      </c>
+      <c r="U254" t="s">
+        <v>804</v>
+      </c>
+      <c r="V254" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="255" spans="1:22">
+      <c r="K255" s="1">
+        <v>43904</v>
+      </c>
+      <c r="L255" s="2">
+        <v>0.38888888888888701</v>
+      </c>
+      <c r="M255" t="s">
+        <v>274</v>
+      </c>
+      <c r="N255" t="s">
+        <v>805</v>
+      </c>
+      <c r="O255" s="39">
+        <v>9.9</v>
+      </c>
+      <c r="P255" s="39">
+        <v>2</v>
+      </c>
+      <c r="Q255" t="s">
+        <v>663</v>
+      </c>
+      <c r="R255" t="s">
+        <v>391</v>
+      </c>
+      <c r="S255" t="s">
+        <v>821</v>
+      </c>
+      <c r="T255" t="s">
+        <v>813</v>
+      </c>
+      <c r="U255" t="s">
+        <v>804</v>
+      </c>
+      <c r="V255" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="256" spans="1:22">
+      <c r="K256" s="1">
+        <v>43904</v>
+      </c>
+      <c r="L256" s="2">
+        <v>0.38888888888888701</v>
+      </c>
+      <c r="M256" t="s">
+        <v>274</v>
+      </c>
+      <c r="N256" t="s">
+        <v>806</v>
+      </c>
+      <c r="O256" s="39">
+        <v>6.9</v>
+      </c>
+      <c r="P256" s="39">
+        <v>2</v>
+      </c>
+      <c r="Q256" t="s">
+        <v>663</v>
+      </c>
+      <c r="R256" t="s">
+        <v>391</v>
+      </c>
+      <c r="T256" t="s">
+        <v>814</v>
+      </c>
+      <c r="U256" t="s">
+        <v>804</v>
+      </c>
+      <c r="V256" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="257" spans="11:22">
+      <c r="K257" s="1">
+        <v>43904</v>
+      </c>
+      <c r="L257" s="2">
+        <v>0.38888888888888701</v>
+      </c>
+      <c r="M257" t="s">
+        <v>274</v>
+      </c>
+      <c r="N257" t="s">
+        <v>807</v>
+      </c>
+      <c r="O257" s="39">
+        <v>9.9</v>
+      </c>
+      <c r="P257" s="39">
+        <v>2</v>
+      </c>
+      <c r="Q257" t="s">
+        <v>663</v>
+      </c>
+      <c r="R257" t="s">
+        <v>391</v>
+      </c>
+      <c r="T257" t="s">
+        <v>815</v>
+      </c>
+      <c r="U257" t="s">
+        <v>804</v>
+      </c>
+      <c r="V257" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="258" spans="11:22">
+      <c r="K258" s="1">
+        <v>43904</v>
+      </c>
+      <c r="L258" s="2">
+        <v>0.38888888888888701</v>
+      </c>
+      <c r="M258" t="s">
+        <v>274</v>
+      </c>
+      <c r="N258" t="s">
+        <v>808</v>
+      </c>
+      <c r="O258" s="39">
+        <v>45.9</v>
+      </c>
+      <c r="P258" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q258" t="s">
+        <v>663</v>
+      </c>
+      <c r="R258" t="s">
+        <v>391</v>
+      </c>
+      <c r="T258" t="s">
+        <v>816</v>
+      </c>
+      <c r="U258" t="s">
+        <v>804</v>
+      </c>
+      <c r="V258" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="259" spans="11:22">
+      <c r="K259" s="1">
+        <v>43904</v>
+      </c>
+      <c r="L259" s="2">
+        <v>0.38888888888888701</v>
+      </c>
+      <c r="M259" t="s">
+        <v>274</v>
+      </c>
+      <c r="N259" t="s">
+        <v>809</v>
+      </c>
+      <c r="O259" s="39">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="P259" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q259" t="s">
+        <v>663</v>
+      </c>
+      <c r="R259" t="s">
+        <v>391</v>
+      </c>
+      <c r="T259" t="s">
+        <v>817</v>
+      </c>
+      <c r="U259" t="s">
+        <v>804</v>
+      </c>
+      <c r="V259" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="260" spans="11:22">
+      <c r="K260" s="1">
+        <v>43904</v>
+      </c>
+      <c r="L260" s="2">
+        <v>0.38888888888888701</v>
+      </c>
+      <c r="M260" t="s">
+        <v>274</v>
+      </c>
+      <c r="N260" t="s">
+        <v>810</v>
+      </c>
+      <c r="O260" s="39">
+        <v>9.9</v>
+      </c>
+      <c r="P260" s="39">
+        <v>2</v>
+      </c>
+      <c r="Q260" t="s">
+        <v>663</v>
+      </c>
+      <c r="R260" t="s">
+        <v>391</v>
+      </c>
+      <c r="T260" t="s">
+        <v>818</v>
+      </c>
+      <c r="U260" t="s">
+        <v>804</v>
+      </c>
+      <c r="V260" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="261" spans="11:22">
+      <c r="K261" s="1">
+        <v>43904</v>
+      </c>
+      <c r="L261" s="2">
+        <v>0.38888888888888701</v>
+      </c>
+      <c r="M261" t="s">
+        <v>274</v>
+      </c>
+      <c r="N261" t="s">
+        <v>811</v>
+      </c>
+      <c r="O261" s="39">
+        <v>11.9</v>
+      </c>
+      <c r="P261" s="39">
+        <v>2</v>
+      </c>
+      <c r="Q261" t="s">
+        <v>663</v>
+      </c>
+      <c r="R261" t="s">
+        <v>391</v>
+      </c>
+      <c r="T261" t="s">
+        <v>819</v>
+      </c>
+      <c r="U261" t="s">
+        <v>804</v>
+      </c>
+      <c r="V261" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="262" spans="11:22">
+      <c r="K262" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L262" s="2"/>
+      <c r="M262" s="36" t="s">
+        <v>658</v>
+      </c>
+      <c r="N262" s="36" t="s">
+        <v>820</v>
+      </c>
+      <c r="O262" s="36" t="s">
+        <v>660</v>
+      </c>
+      <c r="P262" s="36" t="s">
+        <v>661</v>
+      </c>
+      <c r="Q262" s="36" t="s">
+        <v>662</v>
+      </c>
+      <c r="R262" s="36" t="s">
+        <v>663</v>
+      </c>
+      <c r="S262" s="36" t="s">
+        <v>664</v>
+      </c>
+      <c r="T262" s="35"/>
+      <c r="U262" s="35"/>
+    </row>
+    <row r="263" spans="11:22">
+      <c r="K263" s="1"/>
+      <c r="L263" s="2"/>
+      <c r="M263" s="36">
+        <v>173.7</v>
+      </c>
+      <c r="N263" s="36">
+        <v>-4.95</v>
+      </c>
+      <c r="O263" s="36">
+        <v>-8.43</v>
+      </c>
+      <c r="P263" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q263" s="36">
+        <v>160.32</v>
+      </c>
+      <c r="R263" s="36">
+        <v>-160.32</v>
+      </c>
+      <c r="S263" s="37">
+        <v>0</v>
+      </c>
+      <c r="T263" s="35"/>
+      <c r="U263" s="35"/>
+    </row>
+    <row r="265" spans="11:22">
+      <c r="K265" s="41" t="s">
+        <v>839</v>
+      </c>
+      <c r="L265" s="41"/>
+      <c r="M265" s="41"/>
+      <c r="N265" s="41"/>
+      <c r="O265" s="41"/>
+      <c r="P265" s="41"/>
+      <c r="Q265" s="41"/>
+      <c r="R265" s="41"/>
+      <c r="S265" s="41"/>
+    </row>
+    <row r="266" spans="11:22">
+      <c r="K266" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L266" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M266" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N266" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O266" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="P266" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q266" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R266" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S266" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="11:22">
+      <c r="K267" s="1">
+        <v>43905</v>
+      </c>
+      <c r="L267" s="2">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="M267" t="s">
+        <v>258</v>
+      </c>
+      <c r="N267" t="s">
+        <v>720</v>
+      </c>
+      <c r="O267">
+        <v>3.7</v>
+      </c>
+      <c r="P267" t="s">
+        <v>840</v>
+      </c>
+      <c r="Q267" t="s">
+        <v>303</v>
+      </c>
+      <c r="R267" t="s">
+        <v>535</v>
+      </c>
+      <c r="S267" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="268" spans="11:22">
+      <c r="K268" s="1">
+        <v>43905</v>
+      </c>
+      <c r="L268" s="2">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="M268" t="s">
+        <v>258</v>
+      </c>
+      <c r="N268" t="s">
+        <v>372</v>
+      </c>
+      <c r="O268">
+        <v>3.2</v>
+      </c>
+      <c r="P268" t="s">
+        <v>842</v>
+      </c>
+      <c r="Q268" t="s">
+        <v>303</v>
+      </c>
+      <c r="R268" t="s">
+        <v>535</v>
+      </c>
+      <c r="S268" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="269" spans="11:22">
+      <c r="K269" s="1">
+        <v>43905</v>
+      </c>
+      <c r="L269" s="2">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="M269" t="s">
+        <v>258</v>
+      </c>
+      <c r="N269" t="s">
+        <v>723</v>
+      </c>
+      <c r="O269">
+        <v>2.1</v>
+      </c>
+      <c r="P269" t="s">
+        <v>844</v>
+      </c>
+      <c r="Q269" t="s">
+        <v>303</v>
+      </c>
+      <c r="R269" t="s">
+        <v>535</v>
+      </c>
+      <c r="S269" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="270" spans="11:22">
+      <c r="K270" s="1">
+        <v>43905</v>
+      </c>
+      <c r="L270" s="2">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="M270" t="s">
+        <v>258</v>
+      </c>
+      <c r="N270" t="s">
+        <v>719</v>
+      </c>
+      <c r="O270">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="P270" t="s">
+        <v>847</v>
+      </c>
+      <c r="Q270" t="s">
+        <v>303</v>
+      </c>
+      <c r="R270" t="s">
+        <v>535</v>
+      </c>
+      <c r="S270" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="271" spans="11:22">
+      <c r="K271" s="1">
+        <v>43905</v>
+      </c>
+      <c r="L271" s="2">
+        <v>0.40763888888888899</v>
+      </c>
+      <c r="M271" t="s">
+        <v>258</v>
+      </c>
+      <c r="N271" t="s">
+        <v>734</v>
+      </c>
+      <c r="O271">
+        <v>8.9</v>
+      </c>
+      <c r="P271" t="s">
+        <v>850</v>
+      </c>
+      <c r="Q271" t="s">
+        <v>303</v>
+      </c>
+      <c r="R271" t="s">
+        <v>535</v>
+      </c>
+      <c r="S271" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="272" spans="11:22">
+      <c r="K272" s="1">
+        <v>43905</v>
+      </c>
+      <c r="L272" s="2">
+        <v>0.40763888888888899</v>
+      </c>
+      <c r="M272" t="s">
+        <v>258</v>
+      </c>
+      <c r="N272" t="s">
+        <v>852</v>
+      </c>
+      <c r="O272">
+        <v>3.8</v>
+      </c>
+      <c r="P272" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q272" t="s">
+        <v>303</v>
+      </c>
+      <c r="R272" t="s">
+        <v>535</v>
+      </c>
+      <c r="S272" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="273" spans="11:19">
+      <c r="K273" s="1">
+        <v>43905</v>
+      </c>
+      <c r="L273" s="2">
+        <v>0.40763888888888899</v>
+      </c>
+      <c r="M273" t="s">
+        <v>258</v>
+      </c>
+      <c r="N273" t="s">
+        <v>725</v>
+      </c>
+      <c r="O273">
+        <v>2</v>
+      </c>
+      <c r="P273" t="s">
+        <v>855</v>
+      </c>
+      <c r="Q273" t="s">
+        <v>303</v>
+      </c>
+      <c r="R273" t="s">
+        <v>535</v>
+      </c>
+      <c r="S273" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="274" spans="11:19">
+      <c r="K274" s="1">
+        <v>43905</v>
+      </c>
+      <c r="L274" s="2">
+        <v>0.40763888888888899</v>
+      </c>
+      <c r="M274" t="s">
+        <v>258</v>
+      </c>
+      <c r="N274" t="s">
+        <v>551</v>
+      </c>
+      <c r="O274">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P274" t="s">
+        <v>857</v>
+      </c>
+      <c r="Q274" t="s">
+        <v>303</v>
+      </c>
+      <c r="R274" t="s">
+        <v>535</v>
+      </c>
+      <c r="S274" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="275" spans="11:19">
+      <c r="K275" s="1">
+        <v>43905</v>
+      </c>
+      <c r="L275" s="2">
+        <v>0.40763888888888899</v>
+      </c>
+      <c r="M275" t="s">
+        <v>258</v>
+      </c>
+      <c r="N275" t="s">
+        <v>859</v>
+      </c>
+      <c r="O275">
+        <v>0.9</v>
+      </c>
+      <c r="P275" t="s">
+        <v>860</v>
+      </c>
+      <c r="Q275" t="s">
+        <v>303</v>
+      </c>
+      <c r="R275" t="s">
+        <v>535</v>
+      </c>
+      <c r="S275" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="276" spans="11:19">
+      <c r="K276" s="1">
+        <v>43905</v>
+      </c>
+      <c r="L276" s="2">
+        <v>0.40763888888888899</v>
+      </c>
+      <c r="M276" t="s">
+        <v>258</v>
+      </c>
+      <c r="N276" t="s">
+        <v>861</v>
+      </c>
+      <c r="O276">
+        <v>2.9</v>
+      </c>
+      <c r="P276" t="s">
+        <v>862</v>
+      </c>
+      <c r="Q276" t="s">
+        <v>303</v>
+      </c>
+      <c r="R276" t="s">
+        <v>535</v>
+      </c>
+      <c r="S276" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="277" spans="11:19">
+      <c r="K277" s="1">
+        <v>43905</v>
+      </c>
+      <c r="L277" s="2">
+        <v>0.40763888888888899</v>
+      </c>
+      <c r="M277" t="s">
+        <v>258</v>
+      </c>
+      <c r="N277" t="s">
+        <v>387</v>
+      </c>
+      <c r="O277">
+        <v>2.4</v>
+      </c>
+      <c r="P277" t="s">
+        <v>864</v>
+      </c>
+      <c r="Q277" t="s">
+        <v>303</v>
+      </c>
+      <c r="R277" t="s">
+        <v>535</v>
+      </c>
+      <c r="S277" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="278" spans="11:19">
+      <c r="K278" s="1">
+        <v>43905</v>
+      </c>
+      <c r="L278" s="2">
+        <v>0.40763888888888899</v>
+      </c>
+      <c r="M278" t="s">
+        <v>258</v>
+      </c>
+      <c r="N278" t="s">
+        <v>866</v>
+      </c>
+      <c r="O278">
+        <v>2.4</v>
+      </c>
+      <c r="P278" t="s">
+        <v>867</v>
+      </c>
+      <c r="Q278" t="s">
+        <v>303</v>
+      </c>
+      <c r="R278" t="s">
+        <v>535</v>
+      </c>
+      <c r="S278" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="279" spans="11:19">
+      <c r="K279" s="1">
+        <v>43905</v>
+      </c>
+      <c r="L279" s="2">
+        <v>0.40763888888888899</v>
+      </c>
+      <c r="M279" t="s">
+        <v>258</v>
+      </c>
+      <c r="N279" t="s">
+        <v>868</v>
+      </c>
+      <c r="O279">
+        <v>1.5</v>
+      </c>
+      <c r="P279" t="s">
+        <v>869</v>
+      </c>
+      <c r="Q279" t="s">
+        <v>303</v>
+      </c>
+      <c r="R279" t="s">
+        <v>535</v>
+      </c>
+      <c r="S279" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="280" spans="11:19">
+      <c r="K280" s="1">
+        <v>43905</v>
+      </c>
+      <c r="L280" s="2">
+        <v>0.40763888888888899</v>
+      </c>
+      <c r="M280" t="s">
+        <v>258</v>
+      </c>
+      <c r="N280" t="s">
+        <v>871</v>
+      </c>
+      <c r="O280">
+        <v>3.1</v>
+      </c>
+      <c r="P280" t="s">
+        <v>872</v>
+      </c>
+      <c r="Q280" t="s">
+        <v>303</v>
+      </c>
+      <c r="R280" t="s">
+        <v>535</v>
+      </c>
+      <c r="S280" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="281" spans="11:19">
+      <c r="K281" s="1">
+        <v>43905</v>
+      </c>
+      <c r="L281" s="2">
+        <v>0.40763888888888899</v>
+      </c>
+      <c r="M281" t="s">
+        <v>258</v>
+      </c>
+      <c r="N281" t="s">
+        <v>873</v>
+      </c>
+      <c r="O281">
+        <v>2.8</v>
+      </c>
+      <c r="P281" t="s">
+        <v>874</v>
+      </c>
+      <c r="Q281" t="s">
+        <v>303</v>
+      </c>
+      <c r="R281" t="s">
+        <v>535</v>
+      </c>
+      <c r="S281" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="282" spans="11:19">
+      <c r="K282" s="1">
+        <v>43905</v>
+      </c>
+      <c r="L282" s="2">
+        <v>0.40763888888888899</v>
+      </c>
+      <c r="M282" t="s">
+        <v>258</v>
+      </c>
+      <c r="N282" t="s">
+        <v>876</v>
+      </c>
+      <c r="O282">
+        <v>2.4</v>
+      </c>
+      <c r="P282" t="s">
+        <v>877</v>
+      </c>
+      <c r="Q282" t="s">
+        <v>303</v>
+      </c>
+      <c r="R282" t="s">
+        <v>535</v>
+      </c>
+      <c r="S282" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="283" spans="11:19">
+      <c r="K283" s="1">
+        <v>43905</v>
+      </c>
+      <c r="L283" s="2">
+        <v>0.40763888888888899</v>
+      </c>
+      <c r="M283" t="s">
+        <v>258</v>
+      </c>
+      <c r="N283" t="s">
+        <v>879</v>
+      </c>
+      <c r="O283">
+        <v>13.9</v>
+      </c>
+      <c r="P283" t="s">
+        <v>880</v>
+      </c>
+      <c r="Q283" t="s">
+        <v>303</v>
+      </c>
+      <c r="R283" t="s">
+        <v>535</v>
+      </c>
+      <c r="S283" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="284" spans="11:19">
+      <c r="K284" s="1">
+        <v>43905</v>
+      </c>
+      <c r="L284" s="2">
+        <v>0.40763888888888899</v>
+      </c>
+      <c r="M284" t="s">
+        <v>258</v>
+      </c>
+      <c r="N284" t="s">
+        <v>882</v>
+      </c>
+      <c r="O284">
+        <v>3.7</v>
+      </c>
+      <c r="P284" t="s">
+        <v>883</v>
+      </c>
+      <c r="Q284" t="s">
+        <v>303</v>
+      </c>
+      <c r="R284" t="s">
+        <v>535</v>
+      </c>
+      <c r="S284" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="285" spans="11:19">
+      <c r="K285" s="1">
+        <v>43905</v>
+      </c>
+      <c r="L285" s="2">
+        <v>0.40763888888888899</v>
+      </c>
+      <c r="M285" t="s">
+        <v>258</v>
+      </c>
+      <c r="N285" t="s">
+        <v>541</v>
+      </c>
+      <c r="O285">
+        <v>26.1</v>
+      </c>
+      <c r="P285" t="s">
+        <v>885</v>
+      </c>
+      <c r="Q285" t="s">
+        <v>303</v>
+      </c>
+      <c r="R285" t="s">
+        <v>535</v>
+      </c>
+      <c r="S285" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="286" spans="11:19">
+      <c r="K286" s="1">
+        <v>43905</v>
+      </c>
+      <c r="L286" s="2">
+        <v>0.40763888888888899</v>
+      </c>
+      <c r="M286" t="s">
+        <v>258</v>
+      </c>
+      <c r="N286" t="s">
+        <v>729</v>
+      </c>
+      <c r="O286">
+        <v>4.5</v>
+      </c>
+      <c r="P286" t="s">
+        <v>887</v>
+      </c>
+      <c r="Q286" t="s">
+        <v>303</v>
+      </c>
+      <c r="R286" t="s">
+        <v>535</v>
+      </c>
+      <c r="S286" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="287" spans="11:19">
+      <c r="K287" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L287" s="2"/>
+      <c r="O287" s="13">
+        <v>95.5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="K214:S214"/>
-    <mergeCell ref="K241:V241"/>
+  <mergeCells count="18">
     <mergeCell ref="K1:U1"/>
     <mergeCell ref="K32:S32"/>
     <mergeCell ref="K76:S76"/>
@@ -21099,7 +23685,11 @@
     <mergeCell ref="K102:S102"/>
     <mergeCell ref="K130:S130"/>
     <mergeCell ref="K153:V153"/>
+    <mergeCell ref="K265:S265"/>
     <mergeCell ref="K60:V60"/>
+    <mergeCell ref="K252:V252"/>
+    <mergeCell ref="K214:S214"/>
+    <mergeCell ref="K241:V241"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="13">
@@ -21148,7 +23738,7 @@
   <ignoredErrors>
     <ignoredError sqref="S61:S74 M61:M74" listDataValidation="1"/>
   </ignoredErrors>
-  <tableParts count="17">
+  <tableParts count="19">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -21166,6 +23756,8 @@
     <tablePart r:id="rId15"/>
     <tablePart r:id="rId16"/>
     <tablePart r:id="rId17"/>
+    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId19"/>
   </tableParts>
 </worksheet>
 </file>

--- a/excel/ledger.xlsx
+++ b/excel/ledger.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gzhennaxia/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A40B265-B04D-C34C-AC04-3E1D0F91E8FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14F20BF-291D-0E46-A7B7-233DEFA7B149}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14420" yWindow="460" windowWidth="14380" windowHeight="16500" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
+    <workbookView xWindow="14420" yWindow="460" windowWidth="14380" windowHeight="16440" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2935" uniqueCount="891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2980" uniqueCount="904">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3449,6 +3449,58 @@
   </si>
   <si>
     <t>车站售票机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红火龙果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路边小推车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芒果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韭菜鸡蛋饺子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鑫隆鑫老东北菜馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠光-上沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤红薯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>染发+剪发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤尾-珠光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋子到付快递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺丰快递</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3765,10 +3817,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -10609,8 +10661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C81ADFD-2D83-574A-AD81-B8046C388F80}">
   <dimension ref="A1:V287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="88" workbookViewId="0">
-      <selection activeCell="E207" sqref="E207"/>
+    <sheetView tabSelected="1" topLeftCell="A185" zoomScale="88" workbookViewId="0">
+      <selection activeCell="H212" sqref="H212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10654,19 +10706,19 @@
       <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="1">
@@ -12443,17 +12495,17 @@
       <c r="I32" t="s">
         <v>141</v>
       </c>
-      <c r="K32" s="41" t="s">
+      <c r="K32" s="40" t="s">
         <v>354</v>
       </c>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="41"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
       <c r="T32" s="29"/>
       <c r="U32" s="29"/>
     </row>
@@ -12972,17 +13024,17 @@
       <c r="I43" t="s">
         <v>197</v>
       </c>
-      <c r="K43" s="41" t="s">
+      <c r="K43" s="40" t="s">
         <v>354</v>
       </c>
-      <c r="L43" s="41"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="41"/>
-      <c r="O43" s="41"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="41"/>
-      <c r="S43" s="41"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="40"/>
+      <c r="S43" s="40"/>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="1">
@@ -13399,19 +13451,19 @@
       <c r="I52" t="s">
         <v>141</v>
       </c>
-      <c r="K52" s="40" t="s">
+      <c r="K52" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="L52" s="40"/>
-      <c r="M52" s="40"/>
-      <c r="N52" s="40"/>
-      <c r="O52" s="40"/>
-      <c r="P52" s="40"/>
-      <c r="Q52" s="40"/>
-      <c r="R52" s="40"/>
-      <c r="S52" s="40"/>
-      <c r="T52" s="40"/>
-      <c r="U52" s="40"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="41"/>
+      <c r="N52" s="41"/>
+      <c r="O52" s="41"/>
+      <c r="P52" s="41"/>
+      <c r="Q52" s="41"/>
+      <c r="R52" s="41"/>
+      <c r="S52" s="41"/>
+      <c r="T52" s="41"/>
+      <c r="U52" s="41"/>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="1">
@@ -13842,20 +13894,20 @@
       <c r="I60" t="s">
         <v>231</v>
       </c>
-      <c r="K60" s="40" t="s">
+      <c r="K60" s="41" t="s">
         <v>666</v>
       </c>
-      <c r="L60" s="40"/>
-      <c r="M60" s="40"/>
-      <c r="N60" s="40"/>
-      <c r="O60" s="40"/>
-      <c r="P60" s="40"/>
-      <c r="Q60" s="40"/>
-      <c r="R60" s="40"/>
-      <c r="S60" s="40"/>
-      <c r="T60" s="40"/>
-      <c r="U60" s="40"/>
-      <c r="V60" s="40"/>
+      <c r="L60" s="41"/>
+      <c r="M60" s="41"/>
+      <c r="N60" s="41"/>
+      <c r="O60" s="41"/>
+      <c r="P60" s="41"/>
+      <c r="Q60" s="41"/>
+      <c r="R60" s="41"/>
+      <c r="S60" s="41"/>
+      <c r="T60" s="41"/>
+      <c r="U60" s="41"/>
+      <c r="V60" s="41"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="1">
@@ -14774,17 +14826,17 @@
       <c r="I76" t="s">
         <v>262</v>
       </c>
-      <c r="K76" s="41" t="s">
+      <c r="K76" s="40" t="s">
         <v>348</v>
       </c>
-      <c r="L76" s="41"/>
-      <c r="M76" s="41"/>
-      <c r="N76" s="41"/>
-      <c r="O76" s="41"/>
-      <c r="P76" s="41"/>
-      <c r="Q76" s="41"/>
-      <c r="R76" s="41"/>
-      <c r="S76" s="41"/>
+      <c r="L76" s="40"/>
+      <c r="M76" s="40"/>
+      <c r="N76" s="40"/>
+      <c r="O76" s="40"/>
+      <c r="P76" s="40"/>
+      <c r="Q76" s="40"/>
+      <c r="R76" s="40"/>
+      <c r="S76" s="40"/>
     </row>
     <row r="77" spans="1:22">
       <c r="A77" s="1">
@@ -15248,17 +15300,17 @@
       <c r="I86" t="s">
         <v>176</v>
       </c>
-      <c r="K86" s="41" t="s">
+      <c r="K86" s="40" t="s">
         <v>368</v>
       </c>
-      <c r="L86" s="41"/>
-      <c r="M86" s="41"/>
-      <c r="N86" s="41"/>
-      <c r="O86" s="41"/>
-      <c r="P86" s="41"/>
-      <c r="Q86" s="41"/>
-      <c r="R86" s="41"/>
-      <c r="S86" s="41"/>
+      <c r="L86" s="40"/>
+      <c r="M86" s="40"/>
+      <c r="N86" s="40"/>
+      <c r="O86" s="40"/>
+      <c r="P86" s="40"/>
+      <c r="Q86" s="40"/>
+      <c r="R86" s="40"/>
+      <c r="S86" s="40"/>
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="1">
@@ -15563,17 +15615,17 @@
       <c r="I93" t="s">
         <v>141</v>
       </c>
-      <c r="K93" s="41" t="s">
+      <c r="K93" s="40" t="s">
         <v>379</v>
       </c>
-      <c r="L93" s="41"/>
-      <c r="M93" s="41"/>
-      <c r="N93" s="41"/>
-      <c r="O93" s="41"/>
-      <c r="P93" s="41"/>
-      <c r="Q93" s="41"/>
-      <c r="R93" s="41"/>
-      <c r="S93" s="41"/>
+      <c r="L93" s="40"/>
+      <c r="M93" s="40"/>
+      <c r="N93" s="40"/>
+      <c r="O93" s="40"/>
+      <c r="P93" s="40"/>
+      <c r="Q93" s="40"/>
+      <c r="R93" s="40"/>
+      <c r="S93" s="40"/>
     </row>
     <row r="94" spans="1:19">
       <c r="A94" s="1">
@@ -15975,17 +16027,17 @@
       <c r="H102" t="s">
         <v>291</v>
       </c>
-      <c r="K102" s="41" t="s">
+      <c r="K102" s="40" t="s">
         <v>379</v>
       </c>
-      <c r="L102" s="41"/>
-      <c r="M102" s="41"/>
-      <c r="N102" s="41"/>
-      <c r="O102" s="41"/>
-      <c r="P102" s="41"/>
-      <c r="Q102" s="41"/>
-      <c r="R102" s="41"/>
-      <c r="S102" s="41"/>
+      <c r="L102" s="40"/>
+      <c r="M102" s="40"/>
+      <c r="N102" s="40"/>
+      <c r="O102" s="40"/>
+      <c r="P102" s="40"/>
+      <c r="Q102" s="40"/>
+      <c r="R102" s="40"/>
+      <c r="S102" s="40"/>
     </row>
     <row r="103" spans="1:19">
       <c r="A103" s="1">
@@ -17285,17 +17337,17 @@
       <c r="H130" t="s">
         <v>283</v>
       </c>
-      <c r="K130" s="41" t="s">
+      <c r="K130" s="40" t="s">
         <v>549</v>
       </c>
-      <c r="L130" s="41"/>
-      <c r="M130" s="41"/>
-      <c r="N130" s="41"/>
-      <c r="O130" s="41"/>
-      <c r="P130" s="41"/>
-      <c r="Q130" s="41"/>
-      <c r="R130" s="41"/>
-      <c r="S130" s="41"/>
+      <c r="L130" s="40"/>
+      <c r="M130" s="40"/>
+      <c r="N130" s="40"/>
+      <c r="O130" s="40"/>
+      <c r="P130" s="40"/>
+      <c r="Q130" s="40"/>
+      <c r="R130" s="40"/>
+      <c r="S130" s="40"/>
     </row>
     <row r="131" spans="1:19">
       <c r="A131" s="1">
@@ -18472,20 +18524,20 @@
       <c r="I153" t="s">
         <v>415</v>
       </c>
-      <c r="K153" s="40" t="s">
+      <c r="K153" s="41" t="s">
         <v>597</v>
       </c>
-      <c r="L153" s="40"/>
-      <c r="M153" s="40"/>
-      <c r="N153" s="40"/>
-      <c r="O153" s="40"/>
-      <c r="P153" s="40"/>
-      <c r="Q153" s="40"/>
-      <c r="R153" s="40"/>
-      <c r="S153" s="40"/>
-      <c r="T153" s="40"/>
-      <c r="U153" s="40"/>
-      <c r="V153" s="40"/>
+      <c r="L153" s="41"/>
+      <c r="M153" s="41"/>
+      <c r="N153" s="41"/>
+      <c r="O153" s="41"/>
+      <c r="P153" s="41"/>
+      <c r="Q153" s="41"/>
+      <c r="R153" s="41"/>
+      <c r="S153" s="41"/>
+      <c r="T153" s="41"/>
+      <c r="U153" s="41"/>
+      <c r="V153" s="41"/>
     </row>
     <row r="154" spans="1:22">
       <c r="A154" s="1">
@@ -20103,17 +20155,17 @@
       <c r="I181" t="s">
         <v>703</v>
       </c>
-      <c r="K181" s="41" t="s">
+      <c r="K181" s="40" t="s">
         <v>531</v>
       </c>
-      <c r="L181" s="41"/>
-      <c r="M181" s="41"/>
-      <c r="N181" s="41"/>
-      <c r="O181" s="41"/>
-      <c r="P181" s="41"/>
-      <c r="Q181" s="41"/>
-      <c r="R181" s="41"/>
-      <c r="S181" s="41"/>
+      <c r="L181" s="40"/>
+      <c r="M181" s="40"/>
+      <c r="N181" s="40"/>
+      <c r="O181" s="40"/>
+      <c r="P181" s="40"/>
+      <c r="Q181" s="40"/>
+      <c r="R181" s="40"/>
+      <c r="S181" s="40"/>
     </row>
     <row r="182" spans="1:22">
       <c r="A182" s="1">
@@ -21330,8 +21382,30 @@
       </c>
     </row>
     <row r="204" spans="1:19">
-      <c r="A204" s="1"/>
-      <c r="B204" s="2"/>
+      <c r="A204" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B204" s="2">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="C204" t="s">
+        <v>0</v>
+      </c>
+      <c r="D204" t="s">
+        <v>321</v>
+      </c>
+      <c r="E204">
+        <v>3</v>
+      </c>
+      <c r="F204" t="s">
+        <v>23</v>
+      </c>
+      <c r="G204" t="s">
+        <v>24</v>
+      </c>
+      <c r="H204" t="s">
+        <v>25</v>
+      </c>
       <c r="K204" s="1" t="s">
         <v>128</v>
       </c>
@@ -21341,27 +21415,93 @@
       </c>
     </row>
     <row r="205" spans="1:19">
-      <c r="A205" s="1"/>
-      <c r="B205" s="2"/>
+      <c r="A205" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B205" s="2">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="C205" t="s">
+        <v>0</v>
+      </c>
+      <c r="D205" t="s">
+        <v>900</v>
+      </c>
+      <c r="E205">
+        <v>6</v>
+      </c>
+      <c r="F205" t="s">
+        <v>23</v>
+      </c>
+      <c r="G205" t="s">
+        <v>24</v>
+      </c>
+      <c r="H205" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="206" spans="1:19">
-      <c r="A206" s="1"/>
-      <c r="B206" s="2"/>
-      <c r="K206" s="41" t="s">
+      <c r="A206" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B206" s="2">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="C206" t="s">
+        <v>898</v>
+      </c>
+      <c r="D206" t="s">
+        <v>899</v>
+      </c>
+      <c r="E206">
+        <v>594</v>
+      </c>
+      <c r="F206" t="s">
+        <v>23</v>
+      </c>
+      <c r="G206" t="s">
+        <v>24</v>
+      </c>
+      <c r="H206" t="s">
+        <v>216</v>
+      </c>
+      <c r="K206" s="40" t="s">
         <v>533</v>
       </c>
-      <c r="L206" s="41"/>
-      <c r="M206" s="41"/>
-      <c r="N206" s="41"/>
-      <c r="O206" s="41"/>
-      <c r="P206" s="41"/>
-      <c r="Q206" s="41"/>
-      <c r="R206" s="41"/>
-      <c r="S206" s="41"/>
+      <c r="L206" s="40"/>
+      <c r="M206" s="40"/>
+      <c r="N206" s="40"/>
+      <c r="O206" s="40"/>
+      <c r="P206" s="40"/>
+      <c r="Q206" s="40"/>
+      <c r="R206" s="40"/>
+      <c r="S206" s="40"/>
     </row>
     <row r="207" spans="1:19">
-      <c r="A207" s="1"/>
-      <c r="B207" s="2"/>
+      <c r="A207" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B207" s="2">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="C207" t="s">
+        <v>260</v>
+      </c>
+      <c r="D207" t="s">
+        <v>897</v>
+      </c>
+      <c r="E207">
+        <v>8</v>
+      </c>
+      <c r="F207" t="s">
+        <v>65</v>
+      </c>
+      <c r="G207" t="s">
+        <v>24</v>
+      </c>
+      <c r="H207" t="s">
+        <v>892</v>
+      </c>
       <c r="K207" s="9" t="s">
         <v>1</v>
       </c>
@@ -21391,8 +21531,30 @@
       </c>
     </row>
     <row r="208" spans="1:19">
-      <c r="A208" s="1"/>
-      <c r="B208" s="2"/>
+      <c r="A208" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B208" s="2">
+        <v>0.92847222222222225</v>
+      </c>
+      <c r="C208" t="s">
+        <v>0</v>
+      </c>
+      <c r="D208" t="s">
+        <v>896</v>
+      </c>
+      <c r="E208">
+        <v>4</v>
+      </c>
+      <c r="F208" t="s">
+        <v>23</v>
+      </c>
+      <c r="G208" t="s">
+        <v>24</v>
+      </c>
+      <c r="H208" t="s">
+        <v>25</v>
+      </c>
       <c r="K208" s="1">
         <v>43871</v>
       </c>
@@ -21422,8 +21584,30 @@
       </c>
     </row>
     <row r="209" spans="1:19">
-      <c r="A209" s="1"/>
-      <c r="B209" s="2"/>
+      <c r="A209" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B209" s="2">
+        <v>0.9506944444444444</v>
+      </c>
+      <c r="C209" t="s">
+        <v>8</v>
+      </c>
+      <c r="D209" t="s">
+        <v>891</v>
+      </c>
+      <c r="E209">
+        <v>5</v>
+      </c>
+      <c r="F209" t="s">
+        <v>594</v>
+      </c>
+      <c r="G209" t="s">
+        <v>303</v>
+      </c>
+      <c r="H209" t="s">
+        <v>892</v>
+      </c>
       <c r="K209" s="1">
         <v>43871</v>
       </c>
@@ -21453,8 +21637,30 @@
       </c>
     </row>
     <row r="210" spans="1:19">
-      <c r="A210" s="1"/>
-      <c r="B210" s="2"/>
+      <c r="A210" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B210" s="2">
+        <v>0.9506944444444444</v>
+      </c>
+      <c r="C210" t="s">
+        <v>8</v>
+      </c>
+      <c r="D210" t="s">
+        <v>893</v>
+      </c>
+      <c r="E210">
+        <v>5</v>
+      </c>
+      <c r="F210" t="s">
+        <v>594</v>
+      </c>
+      <c r="G210" t="s">
+        <v>303</v>
+      </c>
+      <c r="H210" t="s">
+        <v>892</v>
+      </c>
       <c r="K210" s="1">
         <v>43871</v>
       </c>
@@ -21484,8 +21690,30 @@
       </c>
     </row>
     <row r="211" spans="1:19">
-      <c r="A211" s="1"/>
-      <c r="B211" s="2"/>
+      <c r="A211" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B211" s="2">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="C211" t="s">
+        <v>260</v>
+      </c>
+      <c r="D211" t="s">
+        <v>894</v>
+      </c>
+      <c r="E211">
+        <v>17</v>
+      </c>
+      <c r="F211" t="s">
+        <v>20</v>
+      </c>
+      <c r="G211" t="s">
+        <v>24</v>
+      </c>
+      <c r="H211" t="s">
+        <v>895</v>
+      </c>
       <c r="K211" s="1">
         <v>43871</v>
       </c>
@@ -21515,8 +21743,30 @@
       </c>
     </row>
     <row r="212" spans="1:19">
-      <c r="A212" s="1"/>
-      <c r="B212" s="2"/>
+      <c r="A212" s="1">
+        <v>43915</v>
+      </c>
+      <c r="B212" s="2">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="C212" t="s">
+        <v>901</v>
+      </c>
+      <c r="D212" t="s">
+        <v>902</v>
+      </c>
+      <c r="E212">
+        <v>25</v>
+      </c>
+      <c r="F212" t="s">
+        <v>23</v>
+      </c>
+      <c r="G212" t="s">
+        <v>24</v>
+      </c>
+      <c r="H212" t="s">
+        <v>903</v>
+      </c>
       <c r="K212" s="1" t="s">
         <v>128</v>
       </c>
@@ -21532,17 +21782,17 @@
     <row r="214" spans="1:19">
       <c r="A214" s="1"/>
       <c r="B214" s="2"/>
-      <c r="K214" s="41" t="s">
+      <c r="K214" s="40" t="s">
         <v>707</v>
       </c>
-      <c r="L214" s="41"/>
-      <c r="M214" s="41"/>
-      <c r="N214" s="41"/>
-      <c r="O214" s="41"/>
-      <c r="P214" s="41"/>
-      <c r="Q214" s="41"/>
-      <c r="R214" s="41"/>
-      <c r="S214" s="41"/>
+      <c r="L214" s="40"/>
+      <c r="M214" s="40"/>
+      <c r="N214" s="40"/>
+      <c r="O214" s="40"/>
+      <c r="P214" s="40"/>
+      <c r="Q214" s="40"/>
+      <c r="R214" s="40"/>
+      <c r="S214" s="40"/>
     </row>
     <row r="215" spans="1:19">
       <c r="A215" s="1"/>
@@ -22303,20 +22553,20 @@
     <row r="241" spans="1:22">
       <c r="A241" s="1"/>
       <c r="B241" s="2"/>
-      <c r="K241" s="40" t="s">
+      <c r="K241" s="41" t="s">
         <v>767</v>
       </c>
-      <c r="L241" s="40"/>
-      <c r="M241" s="40"/>
-      <c r="N241" s="40"/>
-      <c r="O241" s="40"/>
-      <c r="P241" s="40"/>
-      <c r="Q241" s="40"/>
-      <c r="R241" s="40"/>
-      <c r="S241" s="40"/>
-      <c r="T241" s="40"/>
-      <c r="U241" s="40"/>
-      <c r="V241" s="40"/>
+      <c r="L241" s="41"/>
+      <c r="M241" s="41"/>
+      <c r="N241" s="41"/>
+      <c r="O241" s="41"/>
+      <c r="P241" s="41"/>
+      <c r="Q241" s="41"/>
+      <c r="R241" s="41"/>
+      <c r="S241" s="41"/>
+      <c r="T241" s="41"/>
+      <c r="U241" s="41"/>
+      <c r="V241" s="41"/>
     </row>
     <row r="242" spans="1:22">
       <c r="A242" s="1"/>
@@ -22647,20 +22897,20 @@
       <c r="U250" s="35"/>
     </row>
     <row r="252" spans="1:22">
-      <c r="K252" s="40" t="s">
+      <c r="K252" s="41" t="s">
         <v>802</v>
       </c>
-      <c r="L252" s="40"/>
-      <c r="M252" s="40"/>
-      <c r="N252" s="40"/>
-      <c r="O252" s="40"/>
-      <c r="P252" s="40"/>
-      <c r="Q252" s="40"/>
-      <c r="R252" s="40"/>
-      <c r="S252" s="40"/>
-      <c r="T252" s="40"/>
-      <c r="U252" s="40"/>
-      <c r="V252" s="40"/>
+      <c r="L252" s="41"/>
+      <c r="M252" s="41"/>
+      <c r="N252" s="41"/>
+      <c r="O252" s="41"/>
+      <c r="P252" s="41"/>
+      <c r="Q252" s="41"/>
+      <c r="R252" s="41"/>
+      <c r="S252" s="41"/>
+      <c r="T252" s="41"/>
+      <c r="U252" s="41"/>
+      <c r="V252" s="41"/>
     </row>
     <row r="253" spans="1:22">
       <c r="K253" s="9" t="s">
@@ -23040,17 +23290,17 @@
       <c r="U263" s="35"/>
     </row>
     <row r="265" spans="11:22">
-      <c r="K265" s="41" t="s">
+      <c r="K265" s="40" t="s">
         <v>839</v>
       </c>
-      <c r="L265" s="41"/>
-      <c r="M265" s="41"/>
-      <c r="N265" s="41"/>
-      <c r="O265" s="41"/>
-      <c r="P265" s="41"/>
-      <c r="Q265" s="41"/>
-      <c r="R265" s="41"/>
-      <c r="S265" s="41"/>
+      <c r="L265" s="40"/>
+      <c r="M265" s="40"/>
+      <c r="N265" s="40"/>
+      <c r="O265" s="40"/>
+      <c r="P265" s="40"/>
+      <c r="Q265" s="40"/>
+      <c r="R265" s="40"/>
+      <c r="S265" s="40"/>
     </row>
     <row r="266" spans="11:22">
       <c r="K266" s="9" t="s">

--- a/excel/ledger.xlsx
+++ b/excel/ledger.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gzhennaxia/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14F20BF-291D-0E46-A7B7-233DEFA7B149}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A9B4A2-3B5A-734E-89BD-719FEE73986C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14420" yWindow="460" windowWidth="14380" windowHeight="16440" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2980" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="905">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3501,6 +3501,10 @@
   </si>
   <si>
     <t>顺丰快递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼下小超市</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3820,10 +3824,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -10662,7 +10666,7 @@
   <dimension ref="A1:V287"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A185" zoomScale="88" workbookViewId="0">
-      <selection activeCell="H212" sqref="H212"/>
+      <selection activeCell="H213" sqref="H213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13451,19 +13455,19 @@
       <c r="I52" t="s">
         <v>141</v>
       </c>
-      <c r="K52" s="41" t="s">
+      <c r="K52" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="L52" s="41"/>
-      <c r="M52" s="41"/>
-      <c r="N52" s="41"/>
-      <c r="O52" s="41"/>
-      <c r="P52" s="41"/>
-      <c r="Q52" s="41"/>
-      <c r="R52" s="41"/>
-      <c r="S52" s="41"/>
-      <c r="T52" s="41"/>
-      <c r="U52" s="41"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="42"/>
+      <c r="R52" s="42"/>
+      <c r="S52" s="42"/>
+      <c r="T52" s="42"/>
+      <c r="U52" s="42"/>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="1">
@@ -13894,20 +13898,20 @@
       <c r="I60" t="s">
         <v>231</v>
       </c>
-      <c r="K60" s="41" t="s">
+      <c r="K60" s="42" t="s">
         <v>666</v>
       </c>
-      <c r="L60" s="41"/>
-      <c r="M60" s="41"/>
-      <c r="N60" s="41"/>
-      <c r="O60" s="41"/>
-      <c r="P60" s="41"/>
-      <c r="Q60" s="41"/>
-      <c r="R60" s="41"/>
-      <c r="S60" s="41"/>
-      <c r="T60" s="41"/>
-      <c r="U60" s="41"/>
-      <c r="V60" s="41"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="42"/>
+      <c r="P60" s="42"/>
+      <c r="Q60" s="42"/>
+      <c r="R60" s="42"/>
+      <c r="S60" s="42"/>
+      <c r="T60" s="42"/>
+      <c r="U60" s="42"/>
+      <c r="V60" s="42"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="1">
@@ -16402,17 +16406,17 @@
       <c r="I111" t="s">
         <v>340</v>
       </c>
-      <c r="K111" s="42" t="s">
+      <c r="K111" s="41" t="s">
         <v>448</v>
       </c>
-      <c r="L111" s="42"/>
-      <c r="M111" s="42"/>
-      <c r="N111" s="42"/>
-      <c r="O111" s="42"/>
-      <c r="P111" s="42"/>
-      <c r="Q111" s="42"/>
-      <c r="R111" s="42"/>
-      <c r="S111" s="42"/>
+      <c r="L111" s="41"/>
+      <c r="M111" s="41"/>
+      <c r="N111" s="41"/>
+      <c r="O111" s="41"/>
+      <c r="P111" s="41"/>
+      <c r="Q111" s="41"/>
+      <c r="R111" s="41"/>
+      <c r="S111" s="41"/>
     </row>
     <row r="112" spans="1:19">
       <c r="A112" s="1">
@@ -18524,20 +18528,20 @@
       <c r="I153" t="s">
         <v>415</v>
       </c>
-      <c r="K153" s="41" t="s">
+      <c r="K153" s="42" t="s">
         <v>597</v>
       </c>
-      <c r="L153" s="41"/>
-      <c r="M153" s="41"/>
-      <c r="N153" s="41"/>
-      <c r="O153" s="41"/>
-      <c r="P153" s="41"/>
-      <c r="Q153" s="41"/>
-      <c r="R153" s="41"/>
-      <c r="S153" s="41"/>
-      <c r="T153" s="41"/>
-      <c r="U153" s="41"/>
-      <c r="V153" s="41"/>
+      <c r="L153" s="42"/>
+      <c r="M153" s="42"/>
+      <c r="N153" s="42"/>
+      <c r="O153" s="42"/>
+      <c r="P153" s="42"/>
+      <c r="Q153" s="42"/>
+      <c r="R153" s="42"/>
+      <c r="S153" s="42"/>
+      <c r="T153" s="42"/>
+      <c r="U153" s="42"/>
+      <c r="V153" s="42"/>
     </row>
     <row r="154" spans="1:22">
       <c r="A154" s="1">
@@ -21776,8 +21780,30 @@
       </c>
     </row>
     <row r="213" spans="1:19">
-      <c r="A213" s="1"/>
-      <c r="B213" s="2"/>
+      <c r="A213" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B213" s="2">
+        <v>0.92569444444444438</v>
+      </c>
+      <c r="C213" t="s">
+        <v>336</v>
+      </c>
+      <c r="D213" t="s">
+        <v>222</v>
+      </c>
+      <c r="E213">
+        <v>13</v>
+      </c>
+      <c r="F213" t="s">
+        <v>62</v>
+      </c>
+      <c r="G213" t="s">
+        <v>24</v>
+      </c>
+      <c r="H213" t="s">
+        <v>904</v>
+      </c>
     </row>
     <row r="214" spans="1:19">
       <c r="A214" s="1"/>
@@ -22553,20 +22579,20 @@
     <row r="241" spans="1:22">
       <c r="A241" s="1"/>
       <c r="B241" s="2"/>
-      <c r="K241" s="41" t="s">
+      <c r="K241" s="42" t="s">
         <v>767</v>
       </c>
-      <c r="L241" s="41"/>
-      <c r="M241" s="41"/>
-      <c r="N241" s="41"/>
-      <c r="O241" s="41"/>
-      <c r="P241" s="41"/>
-      <c r="Q241" s="41"/>
-      <c r="R241" s="41"/>
-      <c r="S241" s="41"/>
-      <c r="T241" s="41"/>
-      <c r="U241" s="41"/>
-      <c r="V241" s="41"/>
+      <c r="L241" s="42"/>
+      <c r="M241" s="42"/>
+      <c r="N241" s="42"/>
+      <c r="O241" s="42"/>
+      <c r="P241" s="42"/>
+      <c r="Q241" s="42"/>
+      <c r="R241" s="42"/>
+      <c r="S241" s="42"/>
+      <c r="T241" s="42"/>
+      <c r="U241" s="42"/>
+      <c r="V241" s="42"/>
     </row>
     <row r="242" spans="1:22">
       <c r="A242" s="1"/>
@@ -22897,20 +22923,20 @@
       <c r="U250" s="35"/>
     </row>
     <row r="252" spans="1:22">
-      <c r="K252" s="41" t="s">
+      <c r="K252" s="42" t="s">
         <v>802</v>
       </c>
-      <c r="L252" s="41"/>
-      <c r="M252" s="41"/>
-      <c r="N252" s="41"/>
-      <c r="O252" s="41"/>
-      <c r="P252" s="41"/>
-      <c r="Q252" s="41"/>
-      <c r="R252" s="41"/>
-      <c r="S252" s="41"/>
-      <c r="T252" s="41"/>
-      <c r="U252" s="41"/>
-      <c r="V252" s="41"/>
+      <c r="L252" s="42"/>
+      <c r="M252" s="42"/>
+      <c r="N252" s="42"/>
+      <c r="O252" s="42"/>
+      <c r="P252" s="42"/>
+      <c r="Q252" s="42"/>
+      <c r="R252" s="42"/>
+      <c r="S252" s="42"/>
+      <c r="T252" s="42"/>
+      <c r="U252" s="42"/>
+      <c r="V252" s="42"/>
     </row>
     <row r="253" spans="1:22">
       <c r="K253" s="9" t="s">
@@ -23922,6 +23948,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K265:S265"/>
+    <mergeCell ref="K60:V60"/>
+    <mergeCell ref="K252:V252"/>
+    <mergeCell ref="K214:S214"/>
+    <mergeCell ref="K241:V241"/>
     <mergeCell ref="K1:U1"/>
     <mergeCell ref="K32:S32"/>
     <mergeCell ref="K76:S76"/>
@@ -23935,11 +23966,6 @@
     <mergeCell ref="K102:S102"/>
     <mergeCell ref="K130:S130"/>
     <mergeCell ref="K153:V153"/>
-    <mergeCell ref="K265:S265"/>
-    <mergeCell ref="K60:V60"/>
-    <mergeCell ref="K252:V252"/>
-    <mergeCell ref="K214:S214"/>
-    <mergeCell ref="K241:V241"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="13">
@@ -24026,34 +24052,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
       <c r="AB1" s="43" t="s">
         <v>327</v>
       </c>
@@ -24062,22 +24088,22 @@
       <c r="AE1" s="43"/>
       <c r="AF1" s="43"/>
       <c r="AG1" s="43"/>
-      <c r="AI1" s="42" t="s">
+      <c r="AI1" s="41" t="s">
         <v>328</v>
       </c>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="42"/>
-      <c r="AL1" s="42"/>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="42"/>
-      <c r="AP1" s="42"/>
-      <c r="AQ1" s="42"/>
-      <c r="AR1" s="42"/>
-      <c r="AS1" s="42"/>
-      <c r="AT1" s="42"/>
-      <c r="AU1" s="42"/>
-      <c r="AV1" s="42"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="41"/>
     </row>
     <row r="2" spans="1:48">
       <c r="A2" t="s">

--- a/excel/ledger.xlsx
+++ b/excel/ledger.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gzhennaxia/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A9B4A2-3B5A-734E-89BD-719FEE73986C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE89168-4DBB-AA42-AB7F-B61E5E5F5E2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14420" yWindow="460" windowWidth="14380" windowHeight="16440" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3006" uniqueCount="910">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1595,6 +1595,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线 (正文)"/>
+        <charset val="134"/>
       </rPr>
       <t>已取消</t>
     </r>
@@ -3505,6 +3506,26 @@
   </si>
   <si>
     <t>楼下小超市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲜肉青团套餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-Eleven便利店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出租车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海岸欢庆大厦到创新科技广场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3593,6 +3614,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="等线 (正文)"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3824,10 +3846,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9510,7 +9532,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FEFEF66-0DFC-B343-AE55-FC43085C5197}" name="表1" displayName="表1" ref="A1:I247" totalsRowShown="0">
   <autoFilter ref="A1:I247" xr:uid="{5BBC9419-B13B-B148-8ACF-0DE90D8ED5A0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I247">
+  <sortState ref="A2:I247">
     <sortCondition ref="A2:A22"/>
     <sortCondition ref="B2:B22"/>
   </sortState>
@@ -9550,7 +9572,7 @@
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{AB454117-BA52-2544-9127-12465162C859}" name="表2_1213151620211823" displayName="表2_1213151620211823" ref="K182:S204" totalsRowShown="0" headerRowDxfId="146" dataDxfId="144" headerRowBorderDxfId="145" tableBorderDxfId="143">
   <autoFilter ref="K182:S204" xr:uid="{02D241E9-3DCF-8D40-BFFA-FFE3C0F5535D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K183:S197">
+  <sortState ref="K183:S197">
     <sortCondition ref="K3:K27"/>
     <sortCondition ref="L3:L27"/>
   </sortState>
@@ -9572,7 +9594,7 @@
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{87DA1393-6827-EA44-A084-237782089CCF}" name="表2_12131516202118231718" displayName="表2_12131516202118231718" ref="K207:S212" totalsRowShown="0" headerRowDxfId="133" dataDxfId="131" headerRowBorderDxfId="132" tableBorderDxfId="130">
   <autoFilter ref="K207:S212" xr:uid="{91480F83-2419-784F-8386-55181DF5FEED}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K208:S212">
+  <sortState ref="K208:S212">
     <sortCondition ref="K3:K16"/>
     <sortCondition ref="L3:L16"/>
   </sortState>
@@ -9594,7 +9616,7 @@
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{D07645E1-FF51-BE44-A108-6E2E28DFE3B7}" name="表2_121315162021182317181725" displayName="表2_121315162021182317181725" ref="K131:S151" totalsRowShown="0" headerRowDxfId="120" dataDxfId="118" headerRowBorderDxfId="119" tableBorderDxfId="117">
   <autoFilter ref="K131:S151" xr:uid="{7F3530B9-75AA-9F46-8D36-5829A96A835C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K132:S136">
+  <sortState ref="K132:S136">
     <sortCondition ref="K3:K16"/>
     <sortCondition ref="L3:L16"/>
   </sortState>
@@ -9616,7 +9638,7 @@
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{E94DDC74-E61C-5249-90F9-930C74E64060}" name="表2_12131516202118231724" displayName="表2_12131516202118231724" ref="K154:V179" totalsRowShown="0" headerRowDxfId="107" dataDxfId="105" headerRowBorderDxfId="106" tableBorderDxfId="104">
   <autoFilter ref="K154:V179" xr:uid="{A7B4FD5B-7483-B04B-9945-909AF67F9E14}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K155:S169">
+  <sortState ref="K155:S169">
     <sortCondition ref="K3:K27"/>
     <sortCondition ref="L3:L27"/>
   </sortState>
@@ -9641,7 +9663,7 @@
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{029FEBD4-A447-6D48-BD02-0BE2F1B735AB}" name="表2_12131516202118231726" displayName="表2_12131516202118231726" ref="K61:V74" totalsRowShown="0" headerRowDxfId="91" dataDxfId="89" headerRowBorderDxfId="90" tableBorderDxfId="88">
   <autoFilter ref="K61:V74" xr:uid="{4A6F62B7-DFA0-0142-8AF6-16BD93B05409}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K62:S72">
+  <sortState ref="K62:S72">
     <sortCondition ref="K3:K18"/>
     <sortCondition ref="L3:L18"/>
   </sortState>
@@ -9666,7 +9688,7 @@
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{3F2EC857-243B-2645-AF03-53AF6C939B9F}" name="表2_121315162021182317181727" displayName="表2_121315162021182317181727" ref="K215:S239" totalsRowShown="0" headerRowDxfId="75" dataDxfId="73" headerRowBorderDxfId="74" tableBorderDxfId="72">
   <autoFilter ref="K215:S239" xr:uid="{DAC89B1E-920B-0D43-AD39-2C0F93C33525}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K216:S220">
+  <sortState ref="K216:S220">
     <sortCondition ref="K3:K16"/>
     <sortCondition ref="L3:L16"/>
   </sortState>
@@ -9688,7 +9710,7 @@
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{7E52F1F1-47DF-7043-BC6F-D5DF62C49306}" name="表2_121315162021182317242829" displayName="表2_121315162021182317242829" ref="K242:V250" totalsRowShown="0" headerRowDxfId="62" dataDxfId="60" headerRowBorderDxfId="61" tableBorderDxfId="59">
   <autoFilter ref="K242:V250" xr:uid="{9E59D046-D048-C843-8065-387FC3638EC9}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K243:S250">
+  <sortState ref="K243:S250">
     <sortCondition ref="K3:K18"/>
     <sortCondition ref="L3:L18"/>
   </sortState>
@@ -9713,7 +9735,7 @@
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{13C46A62-F0CF-624F-B8B1-05BDFB8205C2}" name="表2_1213151620211823172428291728" displayName="表2_1213151620211823172428291728" ref="K253:V263" totalsRowShown="0" headerRowDxfId="46" dataDxfId="44" headerRowBorderDxfId="45" tableBorderDxfId="43">
   <autoFilter ref="K253:V263" xr:uid="{71BAF812-C1FF-6F47-99C9-6676E531B0D8}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K254:S263">
+  <sortState ref="K254:S263">
     <sortCondition ref="K3:K22"/>
     <sortCondition ref="L3:L22"/>
   </sortState>
@@ -9738,7 +9760,7 @@
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{72BCC51D-4165-C448-B82C-A263B9880D62}" name="表2_1213151620211823171817" displayName="表2_1213151620211823171817" ref="K266:S287" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27">
   <autoFilter ref="K266:S287" xr:uid="{5F6D25BB-3E42-564C-AA79-91B0EBC07FC4}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K267:S271">
+  <sortState ref="K267:S271">
     <sortCondition ref="K258:K271"/>
     <sortCondition ref="L258:L271"/>
   </sortState>
@@ -9760,7 +9782,7 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA735AAC-C770-2E42-A456-00A4A31FA22B}" name="表2" displayName="表2" ref="K2:U30" totalsRowShown="0" headerRowDxfId="255" dataDxfId="253" headerRowBorderDxfId="254" tableBorderDxfId="252">
   <autoFilter ref="K2:U30" xr:uid="{4793C34A-1C18-7E44-A39F-05257DC17272}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K3:U30">
+  <sortState ref="K3:U30">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
@@ -10217,7 +10239,7 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{11A792C6-3B2B-EB45-B402-6B17FF6ECC12}" name="表2_12" displayName="表2_12" ref="K33:S41" totalsRowShown="0" headerRowDxfId="240" dataDxfId="238" headerRowBorderDxfId="239" tableBorderDxfId="237">
   <autoFilter ref="K33:S41" xr:uid="{BF5DEAC1-034C-6E4F-BFC7-2363B9047242}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K34:S60">
+  <sortState ref="K34:S60">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
@@ -10239,7 +10261,7 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{8E6CF227-0B2A-9943-95A9-E98C28AA3996}" name="表2_1213" displayName="表2_1213" ref="K44:S50" totalsRowShown="0" headerRowDxfId="227" dataDxfId="225" headerRowBorderDxfId="226" tableBorderDxfId="224">
   <autoFilter ref="K44:S50" xr:uid="{DBBD540D-9ACB-A74D-BB39-A853F97094BD}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K45:S69">
+  <sortState ref="K45:S69">
     <sortCondition ref="K2:K29"/>
     <sortCondition ref="L2:L29"/>
   </sortState>
@@ -10261,7 +10283,7 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{85D5A6C9-0983-1F49-9E7D-1C7D322B37A0}" name="表2_121315" displayName="表2_121315" ref="K77:S84" totalsRowShown="0" headerRowDxfId="214" dataDxfId="212" headerRowBorderDxfId="213" tableBorderDxfId="211">
   <autoFilter ref="K77:S84" xr:uid="{835B7ABE-F456-CF45-8A7D-5507E998E23E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K78:S103">
+  <sortState ref="K78:S103">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
@@ -10283,7 +10305,7 @@
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{5A08404A-170A-AF43-8E1D-DF9862393746}" name="表2_12131516" displayName="表2_12131516" ref="K87:S91" totalsRowShown="0" headerRowDxfId="201" dataDxfId="199" headerRowBorderDxfId="200" tableBorderDxfId="198">
   <autoFilter ref="K87:S91" xr:uid="{94896363-E9F6-6743-B1C8-ACC0B149BEDF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K88:S110">
+  <sortState ref="K88:S110">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
@@ -10325,7 +10347,7 @@
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{606E3E97-D81D-AB41-BA99-E007537886BF}" name="表2_1213151620" displayName="表2_1213151620" ref="K94:S100" totalsRowShown="0" headerRowDxfId="172" dataDxfId="170" headerRowBorderDxfId="171" tableBorderDxfId="169">
   <autoFilter ref="K94:S100" xr:uid="{2674F753-E0FA-1844-8EF2-AF7541B04290}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K95:S119">
+  <sortState ref="K95:S119">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
@@ -10347,7 +10369,7 @@
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{65F04204-4685-BD44-A9A9-528E74381FD5}" name="表2_121315162021" displayName="表2_121315162021" ref="K103:S109" totalsRowShown="0" headerRowDxfId="159" dataDxfId="157" headerRowBorderDxfId="158" tableBorderDxfId="156">
   <autoFilter ref="K103:S109" xr:uid="{667113CE-E40C-644A-9375-DFFA158F767D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K104:S128">
+  <sortState ref="K104:S128">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
@@ -10665,8 +10687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C81ADFD-2D83-574A-AD81-B8046C388F80}">
   <dimension ref="A1:V287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" zoomScale="88" workbookViewId="0">
-      <selection activeCell="H213" sqref="H213"/>
+    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="88" workbookViewId="0">
+      <selection activeCell="A218" sqref="A218:A219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13455,19 +13477,19 @@
       <c r="I52" t="s">
         <v>141</v>
       </c>
-      <c r="K52" s="42" t="s">
+      <c r="K52" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="L52" s="42"/>
-      <c r="M52" s="42"/>
-      <c r="N52" s="42"/>
-      <c r="O52" s="42"/>
-      <c r="P52" s="42"/>
-      <c r="Q52" s="42"/>
-      <c r="R52" s="42"/>
-      <c r="S52" s="42"/>
-      <c r="T52" s="42"/>
-      <c r="U52" s="42"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="41"/>
+      <c r="N52" s="41"/>
+      <c r="O52" s="41"/>
+      <c r="P52" s="41"/>
+      <c r="Q52" s="41"/>
+      <c r="R52" s="41"/>
+      <c r="S52" s="41"/>
+      <c r="T52" s="41"/>
+      <c r="U52" s="41"/>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="1">
@@ -13898,20 +13920,20 @@
       <c r="I60" t="s">
         <v>231</v>
       </c>
-      <c r="K60" s="42" t="s">
+      <c r="K60" s="41" t="s">
         <v>666</v>
       </c>
-      <c r="L60" s="42"/>
-      <c r="M60" s="42"/>
-      <c r="N60" s="42"/>
-      <c r="O60" s="42"/>
-      <c r="P60" s="42"/>
-      <c r="Q60" s="42"/>
-      <c r="R60" s="42"/>
-      <c r="S60" s="42"/>
-      <c r="T60" s="42"/>
-      <c r="U60" s="42"/>
-      <c r="V60" s="42"/>
+      <c r="L60" s="41"/>
+      <c r="M60" s="41"/>
+      <c r="N60" s="41"/>
+      <c r="O60" s="41"/>
+      <c r="P60" s="41"/>
+      <c r="Q60" s="41"/>
+      <c r="R60" s="41"/>
+      <c r="S60" s="41"/>
+      <c r="T60" s="41"/>
+      <c r="U60" s="41"/>
+      <c r="V60" s="41"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="1">
@@ -16406,17 +16428,17 @@
       <c r="I111" t="s">
         <v>340</v>
       </c>
-      <c r="K111" s="41" t="s">
+      <c r="K111" s="42" t="s">
         <v>448</v>
       </c>
-      <c r="L111" s="41"/>
-      <c r="M111" s="41"/>
-      <c r="N111" s="41"/>
-      <c r="O111" s="41"/>
-      <c r="P111" s="41"/>
-      <c r="Q111" s="41"/>
-      <c r="R111" s="41"/>
-      <c r="S111" s="41"/>
+      <c r="L111" s="42"/>
+      <c r="M111" s="42"/>
+      <c r="N111" s="42"/>
+      <c r="O111" s="42"/>
+      <c r="P111" s="42"/>
+      <c r="Q111" s="42"/>
+      <c r="R111" s="42"/>
+      <c r="S111" s="42"/>
     </row>
     <row r="112" spans="1:19">
       <c r="A112" s="1">
@@ -18528,20 +18550,20 @@
       <c r="I153" t="s">
         <v>415</v>
       </c>
-      <c r="K153" s="42" t="s">
+      <c r="K153" s="41" t="s">
         <v>597</v>
       </c>
-      <c r="L153" s="42"/>
-      <c r="M153" s="42"/>
-      <c r="N153" s="42"/>
-      <c r="O153" s="42"/>
-      <c r="P153" s="42"/>
-      <c r="Q153" s="42"/>
-      <c r="R153" s="42"/>
-      <c r="S153" s="42"/>
-      <c r="T153" s="42"/>
-      <c r="U153" s="42"/>
-      <c r="V153" s="42"/>
+      <c r="L153" s="41"/>
+      <c r="M153" s="41"/>
+      <c r="N153" s="41"/>
+      <c r="O153" s="41"/>
+      <c r="P153" s="41"/>
+      <c r="Q153" s="41"/>
+      <c r="R153" s="41"/>
+      <c r="S153" s="41"/>
+      <c r="T153" s="41"/>
+      <c r="U153" s="41"/>
+      <c r="V153" s="41"/>
     </row>
     <row r="154" spans="1:22">
       <c r="A154" s="1">
@@ -21806,8 +21828,30 @@
       </c>
     </row>
     <row r="214" spans="1:19">
-      <c r="A214" s="1"/>
-      <c r="B214" s="2"/>
+      <c r="A214" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B214" s="2">
+        <v>0.54583333333333328</v>
+      </c>
+      <c r="C214" t="s">
+        <v>19</v>
+      </c>
+      <c r="D214" t="s">
+        <v>344</v>
+      </c>
+      <c r="E214">
+        <v>18</v>
+      </c>
+      <c r="F214" t="s">
+        <v>20</v>
+      </c>
+      <c r="G214" t="s">
+        <v>24</v>
+      </c>
+      <c r="H214" t="s">
+        <v>30</v>
+      </c>
       <c r="K214" s="40" t="s">
         <v>707</v>
       </c>
@@ -21821,8 +21865,30 @@
       <c r="S214" s="40"/>
     </row>
     <row r="215" spans="1:19">
-      <c r="A215" s="1"/>
-      <c r="B215" s="2"/>
+      <c r="A215" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B215" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C215" t="s">
+        <v>427</v>
+      </c>
+      <c r="D215" t="s">
+        <v>905</v>
+      </c>
+      <c r="E215">
+        <v>7</v>
+      </c>
+      <c r="F215" t="s">
+        <v>20</v>
+      </c>
+      <c r="G215" t="s">
+        <v>24</v>
+      </c>
+      <c r="H215" t="s">
+        <v>906</v>
+      </c>
       <c r="K215" s="9" t="s">
         <v>1</v>
       </c>
@@ -21852,8 +21918,33 @@
       </c>
     </row>
     <row r="216" spans="1:19">
-      <c r="A216" s="1"/>
-      <c r="B216" s="2"/>
+      <c r="A216" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B216" s="2">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="C216" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216" t="s">
+        <v>908</v>
+      </c>
+      <c r="E216">
+        <v>39.5</v>
+      </c>
+      <c r="F216" t="s">
+        <v>23</v>
+      </c>
+      <c r="G216" t="s">
+        <v>24</v>
+      </c>
+      <c r="H216" t="s">
+        <v>907</v>
+      </c>
+      <c r="I216" t="s">
+        <v>909</v>
+      </c>
       <c r="K216" s="1">
         <v>43886</v>
       </c>
@@ -21883,8 +21974,30 @@
       </c>
     </row>
     <row r="217" spans="1:19">
-      <c r="A217" s="1"/>
-      <c r="B217" s="2"/>
+      <c r="A217" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B217" s="2">
+        <v>0.34930555555555554</v>
+      </c>
+      <c r="C217" t="s">
+        <v>0</v>
+      </c>
+      <c r="D217" t="s">
+        <v>321</v>
+      </c>
+      <c r="E217">
+        <v>3</v>
+      </c>
+      <c r="F217" t="s">
+        <v>23</v>
+      </c>
+      <c r="G217" t="s">
+        <v>24</v>
+      </c>
+      <c r="H217" t="s">
+        <v>25</v>
+      </c>
       <c r="K217" s="1">
         <v>43886</v>
       </c>
@@ -22579,20 +22692,20 @@
     <row r="241" spans="1:22">
       <c r="A241" s="1"/>
       <c r="B241" s="2"/>
-      <c r="K241" s="42" t="s">
+      <c r="K241" s="41" t="s">
         <v>767</v>
       </c>
-      <c r="L241" s="42"/>
-      <c r="M241" s="42"/>
-      <c r="N241" s="42"/>
-      <c r="O241" s="42"/>
-      <c r="P241" s="42"/>
-      <c r="Q241" s="42"/>
-      <c r="R241" s="42"/>
-      <c r="S241" s="42"/>
-      <c r="T241" s="42"/>
-      <c r="U241" s="42"/>
-      <c r="V241" s="42"/>
+      <c r="L241" s="41"/>
+      <c r="M241" s="41"/>
+      <c r="N241" s="41"/>
+      <c r="O241" s="41"/>
+      <c r="P241" s="41"/>
+      <c r="Q241" s="41"/>
+      <c r="R241" s="41"/>
+      <c r="S241" s="41"/>
+      <c r="T241" s="41"/>
+      <c r="U241" s="41"/>
+      <c r="V241" s="41"/>
     </row>
     <row r="242" spans="1:22">
       <c r="A242" s="1"/>
@@ -22923,20 +23036,20 @@
       <c r="U250" s="35"/>
     </row>
     <row r="252" spans="1:22">
-      <c r="K252" s="42" t="s">
+      <c r="K252" s="41" t="s">
         <v>802</v>
       </c>
-      <c r="L252" s="42"/>
-      <c r="M252" s="42"/>
-      <c r="N252" s="42"/>
-      <c r="O252" s="42"/>
-      <c r="P252" s="42"/>
-      <c r="Q252" s="42"/>
-      <c r="R252" s="42"/>
-      <c r="S252" s="42"/>
-      <c r="T252" s="42"/>
-      <c r="U252" s="42"/>
-      <c r="V252" s="42"/>
+      <c r="L252" s="41"/>
+      <c r="M252" s="41"/>
+      <c r="N252" s="41"/>
+      <c r="O252" s="41"/>
+      <c r="P252" s="41"/>
+      <c r="Q252" s="41"/>
+      <c r="R252" s="41"/>
+      <c r="S252" s="41"/>
+      <c r="T252" s="41"/>
+      <c r="U252" s="41"/>
+      <c r="V252" s="41"/>
     </row>
     <row r="253" spans="1:22">
       <c r="K253" s="9" t="s">
@@ -23948,11 +24061,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K265:S265"/>
-    <mergeCell ref="K60:V60"/>
-    <mergeCell ref="K252:V252"/>
-    <mergeCell ref="K214:S214"/>
-    <mergeCell ref="K241:V241"/>
     <mergeCell ref="K1:U1"/>
     <mergeCell ref="K32:S32"/>
     <mergeCell ref="K76:S76"/>
@@ -23966,6 +24074,11 @@
     <mergeCell ref="K102:S102"/>
     <mergeCell ref="K130:S130"/>
     <mergeCell ref="K153:V153"/>
+    <mergeCell ref="K265:S265"/>
+    <mergeCell ref="K60:V60"/>
+    <mergeCell ref="K252:V252"/>
+    <mergeCell ref="K214:S214"/>
+    <mergeCell ref="K241:V241"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="13">
@@ -24052,34 +24165,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
       <c r="AB1" s="43" t="s">
         <v>327</v>
       </c>
@@ -24088,22 +24201,22 @@
       <c r="AE1" s="43"/>
       <c r="AF1" s="43"/>
       <c r="AG1" s="43"/>
-      <c r="AI1" s="41" t="s">
+      <c r="AI1" s="42" t="s">
         <v>328</v>
       </c>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="41"/>
-      <c r="AV1" s="41"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="42"/>
+      <c r="AP1" s="42"/>
+      <c r="AQ1" s="42"/>
+      <c r="AR1" s="42"/>
+      <c r="AS1" s="42"/>
+      <c r="AT1" s="42"/>
+      <c r="AU1" s="42"/>
+      <c r="AV1" s="42"/>
     </row>
     <row r="2" spans="1:48">
       <c r="A2" t="s">

--- a/excel/ledger.xlsx
+++ b/excel/ledger.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE89168-4DBB-AA42-AB7F-B61E5E5F5E2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDC55AB-5101-D54C-B732-CFC439D0E64E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14420" yWindow="460" windowWidth="14380" windowHeight="16440" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
+    <workbookView xWindow="17460" yWindow="2760" windowWidth="14380" windowHeight="16440" activeTab="1" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3006" uniqueCount="910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="929">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1595,7 +1595,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>已取消</t>
     </r>
@@ -3526,6 +3525,82 @@
   </si>
   <si>
     <t>海岸欢庆大厦到创新科技广场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020 年 3 月 27 号 一次超市购物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翠肉西瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣女果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新疆哈密瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特价蔬菜(青椒)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.496kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价：7.96/kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉堡+菠萝派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦当劳门店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤尾-车公庙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价：11.96/kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.358kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.07kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价：5.96/kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.634kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价：9.96/kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.948kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价：9.36/kg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3614,7 +3689,6 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="等线 (正文)"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3846,10 +3920,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3859,7 +3933,295 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="258">
+  <dxfs count="271">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
     </dxf>
@@ -9537,8 +9899,8 @@
     <sortCondition ref="B2:B22"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{72722D89-93C2-8A41-9B20-0A4F424C6AC1}" name="日期" dataDxfId="257"/>
-    <tableColumn id="2" xr3:uid="{E3DDD260-AD94-3B4D-A5E3-388891DDD893}" name="时间" dataDxfId="256"/>
+    <tableColumn id="1" xr3:uid="{72722D89-93C2-8A41-9B20-0A4F424C6AC1}" name="日期" dataDxfId="270"/>
+    <tableColumn id="2" xr3:uid="{E3DDD260-AD94-3B4D-A5E3-388891DDD893}" name="时间" dataDxfId="269"/>
     <tableColumn id="3" xr3:uid="{DCBF4A5F-9919-504B-8B8E-109C04FA8E2B}" name="类别"/>
     <tableColumn id="4" xr3:uid="{A8A4CCEB-557C-D346-B945-54BF13A8C825}" name="名称"/>
     <tableColumn id="5" xr3:uid="{DF4347C8-27B6-5643-97AF-17AC7096A509}" name="金额(¥)"/>
@@ -9570,240 +9932,262 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{AB454117-BA52-2544-9127-12465162C859}" name="表2_1213151620211823" displayName="表2_1213151620211823" ref="K182:S204" totalsRowShown="0" headerRowDxfId="146" dataDxfId="144" headerRowBorderDxfId="145" tableBorderDxfId="143">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{AB454117-BA52-2544-9127-12465162C859}" name="表2_1213151620211823" displayName="表2_1213151620211823" ref="K182:S204" totalsRowShown="0" headerRowDxfId="159" dataDxfId="157" headerRowBorderDxfId="158" tableBorderDxfId="156">
   <autoFilter ref="K182:S204" xr:uid="{02D241E9-3DCF-8D40-BFFA-FFE3C0F5535D}"/>
   <sortState ref="K183:S197">
     <sortCondition ref="K3:K27"/>
     <sortCondition ref="L3:L27"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{E0363E3F-8A48-934C-B29D-6F37B2A1F390}" name="日期" dataDxfId="142"/>
-    <tableColumn id="2" xr3:uid="{8EF78633-EF5B-D949-9349-9BA90D233A6B}" name="时间" dataDxfId="141"/>
-    <tableColumn id="3" xr3:uid="{0A291899-58E8-2546-9EB0-FB388ED22547}" name="类别" dataDxfId="140"/>
-    <tableColumn id="4" xr3:uid="{816B9FC9-9687-FC4B-BB06-0D42F1052B33}" name="名称" dataDxfId="139"/>
-    <tableColumn id="10" xr3:uid="{02884C40-934F-0D4A-BD96-621C5C5CA1BD}" name="金额($)" dataDxfId="138"/>
-    <tableColumn id="6" xr3:uid="{0ECCB125-B4E3-624F-8652-7FC0D1EFC1D8}" name="数量" dataDxfId="137"/>
-    <tableColumn id="7" xr3:uid="{18528009-3F29-5D42-9C0D-9AA95B859C4C}" name="支付方式" dataDxfId="136"/>
-    <tableColumn id="8" xr3:uid="{03F449A0-F068-C340-AEDC-BDBC5A0F46EB}" name="渠道" dataDxfId="135"/>
-    <tableColumn id="9" xr3:uid="{ADC9AE2A-A61B-414C-89E7-D98600793217}" name="备注" dataDxfId="134"/>
+    <tableColumn id="1" xr3:uid="{E0363E3F-8A48-934C-B29D-6F37B2A1F390}" name="日期" dataDxfId="155"/>
+    <tableColumn id="2" xr3:uid="{8EF78633-EF5B-D949-9349-9BA90D233A6B}" name="时间" dataDxfId="154"/>
+    <tableColumn id="3" xr3:uid="{0A291899-58E8-2546-9EB0-FB388ED22547}" name="类别" dataDxfId="153"/>
+    <tableColumn id="4" xr3:uid="{816B9FC9-9687-FC4B-BB06-0D42F1052B33}" name="名称" dataDxfId="152"/>
+    <tableColumn id="10" xr3:uid="{02884C40-934F-0D4A-BD96-621C5C5CA1BD}" name="金额($)" dataDxfId="151"/>
+    <tableColumn id="6" xr3:uid="{0ECCB125-B4E3-624F-8652-7FC0D1EFC1D8}" name="数量" dataDxfId="150"/>
+    <tableColumn id="7" xr3:uid="{18528009-3F29-5D42-9C0D-9AA95B859C4C}" name="支付方式" dataDxfId="149"/>
+    <tableColumn id="8" xr3:uid="{03F449A0-F068-C340-AEDC-BDBC5A0F46EB}" name="渠道" dataDxfId="148"/>
+    <tableColumn id="9" xr3:uid="{ADC9AE2A-A61B-414C-89E7-D98600793217}" name="备注" dataDxfId="147"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{87DA1393-6827-EA44-A084-237782089CCF}" name="表2_12131516202118231718" displayName="表2_12131516202118231718" ref="K207:S212" totalsRowShown="0" headerRowDxfId="133" dataDxfId="131" headerRowBorderDxfId="132" tableBorderDxfId="130">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{87DA1393-6827-EA44-A084-237782089CCF}" name="表2_12131516202118231718" displayName="表2_12131516202118231718" ref="K207:S212" totalsRowShown="0" headerRowDxfId="146" dataDxfId="144" headerRowBorderDxfId="145" tableBorderDxfId="143">
   <autoFilter ref="K207:S212" xr:uid="{91480F83-2419-784F-8386-55181DF5FEED}"/>
   <sortState ref="K208:S212">
     <sortCondition ref="K3:K16"/>
     <sortCondition ref="L3:L16"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7C3343CA-D706-6144-8941-580B84CF394E}" name="日期" dataDxfId="129"/>
-    <tableColumn id="2" xr3:uid="{F0847EE3-B118-BE48-8689-812598FEC9AB}" name="时间" dataDxfId="128"/>
-    <tableColumn id="3" xr3:uid="{DDD877B7-BAD5-4F47-9769-A90FCED37116}" name="类别" dataDxfId="127"/>
-    <tableColumn id="4" xr3:uid="{5733AB69-4847-A948-B567-029768E79D0F}" name="名称" dataDxfId="126"/>
-    <tableColumn id="10" xr3:uid="{77BDEA3A-FF25-D243-BE63-AC4C735EE37B}" name="金额($)" dataDxfId="125"/>
-    <tableColumn id="6" xr3:uid="{E8909EDA-F899-A749-B5A9-EF6D64858A24}" name="数量" dataDxfId="124"/>
-    <tableColumn id="7" xr3:uid="{FF1D4B60-B5F5-C841-A54B-3C394BED27E0}" name="支付方式" dataDxfId="123"/>
-    <tableColumn id="8" xr3:uid="{0C20E0FA-7029-A345-AE88-BCCB51C0FB8F}" name="渠道" dataDxfId="122"/>
-    <tableColumn id="9" xr3:uid="{5E0D300F-446D-D245-97F6-C4F1EDF51911}" name="备注" dataDxfId="121"/>
+    <tableColumn id="1" xr3:uid="{7C3343CA-D706-6144-8941-580B84CF394E}" name="日期" dataDxfId="142"/>
+    <tableColumn id="2" xr3:uid="{F0847EE3-B118-BE48-8689-812598FEC9AB}" name="时间" dataDxfId="141"/>
+    <tableColumn id="3" xr3:uid="{DDD877B7-BAD5-4F47-9769-A90FCED37116}" name="类别" dataDxfId="140"/>
+    <tableColumn id="4" xr3:uid="{5733AB69-4847-A948-B567-029768E79D0F}" name="名称" dataDxfId="139"/>
+    <tableColumn id="10" xr3:uid="{77BDEA3A-FF25-D243-BE63-AC4C735EE37B}" name="金额($)" dataDxfId="138"/>
+    <tableColumn id="6" xr3:uid="{E8909EDA-F899-A749-B5A9-EF6D64858A24}" name="数量" dataDxfId="137"/>
+    <tableColumn id="7" xr3:uid="{FF1D4B60-B5F5-C841-A54B-3C394BED27E0}" name="支付方式" dataDxfId="136"/>
+    <tableColumn id="8" xr3:uid="{0C20E0FA-7029-A345-AE88-BCCB51C0FB8F}" name="渠道" dataDxfId="135"/>
+    <tableColumn id="9" xr3:uid="{5E0D300F-446D-D245-97F6-C4F1EDF51911}" name="备注" dataDxfId="134"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{D07645E1-FF51-BE44-A108-6E2E28DFE3B7}" name="表2_121315162021182317181725" displayName="表2_121315162021182317181725" ref="K131:S151" totalsRowShown="0" headerRowDxfId="120" dataDxfId="118" headerRowBorderDxfId="119" tableBorderDxfId="117">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{D07645E1-FF51-BE44-A108-6E2E28DFE3B7}" name="表2_121315162021182317181725" displayName="表2_121315162021182317181725" ref="K131:S151" totalsRowShown="0" headerRowDxfId="133" dataDxfId="131" headerRowBorderDxfId="132" tableBorderDxfId="130">
   <autoFilter ref="K131:S151" xr:uid="{7F3530B9-75AA-9F46-8D36-5829A96A835C}"/>
   <sortState ref="K132:S136">
     <sortCondition ref="K3:K16"/>
     <sortCondition ref="L3:L16"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{8388B4F3-69C3-C044-806B-2EE342EDD1C1}" name="日期" dataDxfId="116"/>
-    <tableColumn id="2" xr3:uid="{1A44F757-A145-5C4B-8846-784AA96D8FE5}" name="时间" dataDxfId="115"/>
-    <tableColumn id="3" xr3:uid="{03320F0B-381F-4E4D-8C75-FE6DCBE2496F}" name="类别" dataDxfId="114"/>
-    <tableColumn id="4" xr3:uid="{16347860-F209-A641-A3C4-CD2748326322}" name="名称" dataDxfId="113"/>
-    <tableColumn id="10" xr3:uid="{39758E3B-78A9-5A48-8DFC-3FF15887AE7E}" name="金额($)" dataDxfId="112"/>
-    <tableColumn id="6" xr3:uid="{FF6795EE-AE94-E44E-8DC0-CC26ACFADE61}" name="数量" dataDxfId="111"/>
-    <tableColumn id="7" xr3:uid="{DA94A68D-2BBE-C746-9AA4-32A4797B9173}" name="支付方式" dataDxfId="110"/>
-    <tableColumn id="8" xr3:uid="{2C9A8B05-D71F-7944-9F61-0DA82B1DFBF3}" name="渠道" dataDxfId="109"/>
-    <tableColumn id="9" xr3:uid="{EEF78B6C-8D16-8549-9C0B-F12CD0D648B8}" name="备注" dataDxfId="108"/>
+    <tableColumn id="1" xr3:uid="{8388B4F3-69C3-C044-806B-2EE342EDD1C1}" name="日期" dataDxfId="129"/>
+    <tableColumn id="2" xr3:uid="{1A44F757-A145-5C4B-8846-784AA96D8FE5}" name="时间" dataDxfId="128"/>
+    <tableColumn id="3" xr3:uid="{03320F0B-381F-4E4D-8C75-FE6DCBE2496F}" name="类别" dataDxfId="127"/>
+    <tableColumn id="4" xr3:uid="{16347860-F209-A641-A3C4-CD2748326322}" name="名称" dataDxfId="126"/>
+    <tableColumn id="10" xr3:uid="{39758E3B-78A9-5A48-8DFC-3FF15887AE7E}" name="金额($)" dataDxfId="125"/>
+    <tableColumn id="6" xr3:uid="{FF6795EE-AE94-E44E-8DC0-CC26ACFADE61}" name="数量" dataDxfId="124"/>
+    <tableColumn id="7" xr3:uid="{DA94A68D-2BBE-C746-9AA4-32A4797B9173}" name="支付方式" dataDxfId="123"/>
+    <tableColumn id="8" xr3:uid="{2C9A8B05-D71F-7944-9F61-0DA82B1DFBF3}" name="渠道" dataDxfId="122"/>
+    <tableColumn id="9" xr3:uid="{EEF78B6C-8D16-8549-9C0B-F12CD0D648B8}" name="备注" dataDxfId="121"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{E94DDC74-E61C-5249-90F9-930C74E64060}" name="表2_12131516202118231724" displayName="表2_12131516202118231724" ref="K154:V179" totalsRowShown="0" headerRowDxfId="107" dataDxfId="105" headerRowBorderDxfId="106" tableBorderDxfId="104">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{E94DDC74-E61C-5249-90F9-930C74E64060}" name="表2_12131516202118231724" displayName="表2_12131516202118231724" ref="K154:V179" totalsRowShown="0" headerRowDxfId="120" dataDxfId="118" headerRowBorderDxfId="119" tableBorderDxfId="117">
   <autoFilter ref="K154:V179" xr:uid="{A7B4FD5B-7483-B04B-9945-909AF67F9E14}"/>
   <sortState ref="K155:S169">
     <sortCondition ref="K3:K27"/>
     <sortCondition ref="L3:L27"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{DD305DCE-D663-1142-86EC-D044803DC44F}" name="日期" dataDxfId="103"/>
-    <tableColumn id="2" xr3:uid="{6982A3CC-B1A0-4D45-BF51-C06CBB7A285C}" name="时间" dataDxfId="102"/>
-    <tableColumn id="3" xr3:uid="{912915AB-DBFC-554A-8CD9-B4F4926B4A88}" name="类别" dataDxfId="101"/>
-    <tableColumn id="4" xr3:uid="{D100A818-0E73-8B45-A0E8-8884ACD0B9A5}" name="名称" dataDxfId="100"/>
-    <tableColumn id="10" xr3:uid="{3B8E05F8-35E1-A04B-AFF1-8420B1B2683A}" name="金额($)" dataDxfId="99"/>
-    <tableColumn id="6" xr3:uid="{A0D4CAB7-832E-4C45-B8D4-06FD364054C7}" name="数量" dataDxfId="98"/>
-    <tableColumn id="7" xr3:uid="{FE530E16-074B-C844-A52C-76C806232C75}" name="支付方式" dataDxfId="97"/>
-    <tableColumn id="8" xr3:uid="{09B30289-80C0-584E-B3E0-DDD5B9414A87}" name="渠道" dataDxfId="96"/>
-    <tableColumn id="9" xr3:uid="{BA05C1CE-6415-F940-8118-34A391017EE7}" name="备注" dataDxfId="95"/>
-    <tableColumn id="11" xr3:uid="{FB53420E-50E1-4A44-8957-033A6FA13273}" name="图片地址" dataDxfId="94"/>
-    <tableColumn id="12" xr3:uid="{B614C980-4CAD-1848-BF01-7572F1B90952}" name="订单详情" dataDxfId="93"/>
-    <tableColumn id="13" xr3:uid="{B6B349AE-EC78-0846-9E99-3A5C24F68DB6}" name="列1" dataDxfId="92"/>
+    <tableColumn id="1" xr3:uid="{DD305DCE-D663-1142-86EC-D044803DC44F}" name="日期" dataDxfId="116"/>
+    <tableColumn id="2" xr3:uid="{6982A3CC-B1A0-4D45-BF51-C06CBB7A285C}" name="时间" dataDxfId="115"/>
+    <tableColumn id="3" xr3:uid="{912915AB-DBFC-554A-8CD9-B4F4926B4A88}" name="类别" dataDxfId="114"/>
+    <tableColumn id="4" xr3:uid="{D100A818-0E73-8B45-A0E8-8884ACD0B9A5}" name="名称" dataDxfId="113"/>
+    <tableColumn id="10" xr3:uid="{3B8E05F8-35E1-A04B-AFF1-8420B1B2683A}" name="金额($)" dataDxfId="112"/>
+    <tableColumn id="6" xr3:uid="{A0D4CAB7-832E-4C45-B8D4-06FD364054C7}" name="数量" dataDxfId="111"/>
+    <tableColumn id="7" xr3:uid="{FE530E16-074B-C844-A52C-76C806232C75}" name="支付方式" dataDxfId="110"/>
+    <tableColumn id="8" xr3:uid="{09B30289-80C0-584E-B3E0-DDD5B9414A87}" name="渠道" dataDxfId="109"/>
+    <tableColumn id="9" xr3:uid="{BA05C1CE-6415-F940-8118-34A391017EE7}" name="备注" dataDxfId="108"/>
+    <tableColumn id="11" xr3:uid="{FB53420E-50E1-4A44-8957-033A6FA13273}" name="图片地址" dataDxfId="107"/>
+    <tableColumn id="12" xr3:uid="{B614C980-4CAD-1848-BF01-7572F1B90952}" name="订单详情" dataDxfId="106"/>
+    <tableColumn id="13" xr3:uid="{B6B349AE-EC78-0846-9E99-3A5C24F68DB6}" name="列1" dataDxfId="105"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{029FEBD4-A447-6D48-BD02-0BE2F1B735AB}" name="表2_12131516202118231726" displayName="表2_12131516202118231726" ref="K61:V74" totalsRowShown="0" headerRowDxfId="91" dataDxfId="89" headerRowBorderDxfId="90" tableBorderDxfId="88">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{029FEBD4-A447-6D48-BD02-0BE2F1B735AB}" name="表2_12131516202118231726" displayName="表2_12131516202118231726" ref="K61:V74" totalsRowShown="0" headerRowDxfId="104" dataDxfId="102" headerRowBorderDxfId="103" tableBorderDxfId="101">
   <autoFilter ref="K61:V74" xr:uid="{4A6F62B7-DFA0-0142-8AF6-16BD93B05409}"/>
   <sortState ref="K62:S72">
     <sortCondition ref="K3:K18"/>
     <sortCondition ref="L3:L18"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{221A8622-D460-D946-9D54-30C9CDF9ACD3}" name="日期" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{3F799C66-E8A5-C840-9B0F-90149E0B90B8}" name="时间" dataDxfId="86"/>
-    <tableColumn id="3" xr3:uid="{247A341C-834A-D84A-B642-E4D254351147}" name="类别" dataDxfId="85"/>
-    <tableColumn id="4" xr3:uid="{66C0FF70-B0EB-1348-9A0A-A373D91877A5}" name="名称" dataDxfId="84"/>
-    <tableColumn id="10" xr3:uid="{F2CF9D3F-1599-2140-A9E3-6DD2BB6718A0}" name="金额($)" dataDxfId="83"/>
-    <tableColumn id="6" xr3:uid="{7A2F9865-1F89-7847-BBB5-866D4F8ACE2C}" name="数量" dataDxfId="82"/>
-    <tableColumn id="7" xr3:uid="{4D476744-220B-7845-B018-74BE17061F7F}" name="支付方式" dataDxfId="81"/>
-    <tableColumn id="8" xr3:uid="{DAAED3F4-C2DA-3C42-AA43-0EB6C981D90B}" name="渠道" dataDxfId="80"/>
-    <tableColumn id="9" xr3:uid="{01438435-C03F-5E4C-B03F-CBE95D393CA8}" name="备注" dataDxfId="79"/>
-    <tableColumn id="11" xr3:uid="{EF6A6F82-FA89-1643-BF62-35B9E06215E1}" name="图片地址" dataDxfId="78"/>
-    <tableColumn id="12" xr3:uid="{AE1B08C3-3787-9045-A6A9-2A9595E5C02A}" name="订单详情" dataDxfId="77"/>
-    <tableColumn id="13" xr3:uid="{817576EA-B0A3-324E-A3B3-3DCDD8FFE8C3}" name="列1" dataDxfId="76"/>
+    <tableColumn id="1" xr3:uid="{221A8622-D460-D946-9D54-30C9CDF9ACD3}" name="日期" dataDxfId="100"/>
+    <tableColumn id="2" xr3:uid="{3F799C66-E8A5-C840-9B0F-90149E0B90B8}" name="时间" dataDxfId="99"/>
+    <tableColumn id="3" xr3:uid="{247A341C-834A-D84A-B642-E4D254351147}" name="类别" dataDxfId="98"/>
+    <tableColumn id="4" xr3:uid="{66C0FF70-B0EB-1348-9A0A-A373D91877A5}" name="名称" dataDxfId="97"/>
+    <tableColumn id="10" xr3:uid="{F2CF9D3F-1599-2140-A9E3-6DD2BB6718A0}" name="金额($)" dataDxfId="96"/>
+    <tableColumn id="6" xr3:uid="{7A2F9865-1F89-7847-BBB5-866D4F8ACE2C}" name="数量" dataDxfId="95"/>
+    <tableColumn id="7" xr3:uid="{4D476744-220B-7845-B018-74BE17061F7F}" name="支付方式" dataDxfId="94"/>
+    <tableColumn id="8" xr3:uid="{DAAED3F4-C2DA-3C42-AA43-0EB6C981D90B}" name="渠道" dataDxfId="93"/>
+    <tableColumn id="9" xr3:uid="{01438435-C03F-5E4C-B03F-CBE95D393CA8}" name="备注" dataDxfId="92"/>
+    <tableColumn id="11" xr3:uid="{EF6A6F82-FA89-1643-BF62-35B9E06215E1}" name="图片地址" dataDxfId="91"/>
+    <tableColumn id="12" xr3:uid="{AE1B08C3-3787-9045-A6A9-2A9595E5C02A}" name="订单详情" dataDxfId="90"/>
+    <tableColumn id="13" xr3:uid="{817576EA-B0A3-324E-A3B3-3DCDD8FFE8C3}" name="列1" dataDxfId="89"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{3F2EC857-243B-2645-AF03-53AF6C939B9F}" name="表2_121315162021182317181727" displayName="表2_121315162021182317181727" ref="K215:S239" totalsRowShown="0" headerRowDxfId="75" dataDxfId="73" headerRowBorderDxfId="74" tableBorderDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{3F2EC857-243B-2645-AF03-53AF6C939B9F}" name="表2_121315162021182317181727" displayName="表2_121315162021182317181727" ref="K215:S239" totalsRowShown="0" headerRowDxfId="88" dataDxfId="86" headerRowBorderDxfId="87" tableBorderDxfId="85">
   <autoFilter ref="K215:S239" xr:uid="{DAC89B1E-920B-0D43-AD39-2C0F93C33525}"/>
   <sortState ref="K216:S220">
     <sortCondition ref="K3:K16"/>
     <sortCondition ref="L3:L16"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B8C31F80-1A4B-4648-8E25-9594C529804C}" name="日期" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{E3FE4CDC-CB02-4547-8A6E-7B5018F830B9}" name="时间" dataDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{B830E525-327C-5445-91BD-134C2E975CA1}" name="类别" dataDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{4C06D8FD-B007-FD4D-A0C6-EEFCD7D2462D}" name="名称" dataDxfId="68"/>
-    <tableColumn id="10" xr3:uid="{CB8B18FA-634B-DF42-96C1-13B16D3B4C37}" name="金额($)" dataDxfId="67"/>
-    <tableColumn id="6" xr3:uid="{8F79BF8F-58E2-DD43-8F4A-93643167882D}" name="数量" dataDxfId="66"/>
-    <tableColumn id="7" xr3:uid="{3563508A-5295-5443-AB75-74063E5F55C3}" name="支付方式" dataDxfId="65"/>
-    <tableColumn id="8" xr3:uid="{8FC2120B-449C-2B40-8921-5B059E22E49F}" name="渠道" dataDxfId="64"/>
-    <tableColumn id="9" xr3:uid="{64B8FCA5-512D-FE47-92FF-7DDFBB7884E4}" name="备注" dataDxfId="63"/>
+    <tableColumn id="1" xr3:uid="{B8C31F80-1A4B-4648-8E25-9594C529804C}" name="日期" dataDxfId="84"/>
+    <tableColumn id="2" xr3:uid="{E3FE4CDC-CB02-4547-8A6E-7B5018F830B9}" name="时间" dataDxfId="83"/>
+    <tableColumn id="3" xr3:uid="{B830E525-327C-5445-91BD-134C2E975CA1}" name="类别" dataDxfId="82"/>
+    <tableColumn id="4" xr3:uid="{4C06D8FD-B007-FD4D-A0C6-EEFCD7D2462D}" name="名称" dataDxfId="81"/>
+    <tableColumn id="10" xr3:uid="{CB8B18FA-634B-DF42-96C1-13B16D3B4C37}" name="金额($)" dataDxfId="80"/>
+    <tableColumn id="6" xr3:uid="{8F79BF8F-58E2-DD43-8F4A-93643167882D}" name="数量" dataDxfId="79"/>
+    <tableColumn id="7" xr3:uid="{3563508A-5295-5443-AB75-74063E5F55C3}" name="支付方式" dataDxfId="78"/>
+    <tableColumn id="8" xr3:uid="{8FC2120B-449C-2B40-8921-5B059E22E49F}" name="渠道" dataDxfId="77"/>
+    <tableColumn id="9" xr3:uid="{64B8FCA5-512D-FE47-92FF-7DDFBB7884E4}" name="备注" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{7E52F1F1-47DF-7043-BC6F-D5DF62C49306}" name="表2_121315162021182317242829" displayName="表2_121315162021182317242829" ref="K242:V250" totalsRowShown="0" headerRowDxfId="62" dataDxfId="60" headerRowBorderDxfId="61" tableBorderDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{7E52F1F1-47DF-7043-BC6F-D5DF62C49306}" name="表2_121315162021182317242829" displayName="表2_121315162021182317242829" ref="K242:V250" totalsRowShown="0" headerRowDxfId="75" dataDxfId="73" headerRowBorderDxfId="74" tableBorderDxfId="72">
   <autoFilter ref="K242:V250" xr:uid="{9E59D046-D048-C843-8065-387FC3638EC9}"/>
   <sortState ref="K243:S250">
     <sortCondition ref="K3:K18"/>
     <sortCondition ref="L3:L18"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{8BAAA80A-A7FB-9C4C-AB5C-CFA3B8FABC98}" name="日期" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{347E57DF-2B5E-BD40-86C8-8F59D0256FB2}" name="时间" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{18E112DA-9A28-A74E-8CC6-4AC29E6C30CC}" name="类别" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{A72441B5-BA41-F64F-8F0A-4E80E2BC5460}" name="名称" dataDxfId="55"/>
-    <tableColumn id="10" xr3:uid="{432E6622-AC43-064E-8A9A-7E2979B64C81}" name="金额($)" dataDxfId="54"/>
-    <tableColumn id="6" xr3:uid="{F7CC930A-519F-ED47-88BB-E7F6BC8E72F5}" name="数量" dataDxfId="53"/>
-    <tableColumn id="7" xr3:uid="{3F34C0C1-C8A9-EC44-BE7B-5E1805884F14}" name="支付方式" dataDxfId="52"/>
-    <tableColumn id="8" xr3:uid="{84730249-F504-F740-AC25-9A561C529D42}" name="渠道" dataDxfId="51"/>
-    <tableColumn id="9" xr3:uid="{AD4DD8A8-6A02-8F4F-91F0-DD7F2E94B253}" name="备注" dataDxfId="50"/>
-    <tableColumn id="11" xr3:uid="{6AE29104-87BA-6448-A1D6-3EFCD9E408DF}" name="图片地址" dataDxfId="49"/>
-    <tableColumn id="12" xr3:uid="{E7D376F1-44BE-7F42-B1F6-9A6FAA1BD658}" name="订单详情" dataDxfId="48"/>
-    <tableColumn id="13" xr3:uid="{22C41DAC-55E6-8342-96F8-4842A3C8659C}" name="列1" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{8BAAA80A-A7FB-9C4C-AB5C-CFA3B8FABC98}" name="日期" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{347E57DF-2B5E-BD40-86C8-8F59D0256FB2}" name="时间" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{18E112DA-9A28-A74E-8CC6-4AC29E6C30CC}" name="类别" dataDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{A72441B5-BA41-F64F-8F0A-4E80E2BC5460}" name="名称" dataDxfId="68"/>
+    <tableColumn id="10" xr3:uid="{432E6622-AC43-064E-8A9A-7E2979B64C81}" name="金额($)" dataDxfId="67"/>
+    <tableColumn id="6" xr3:uid="{F7CC930A-519F-ED47-88BB-E7F6BC8E72F5}" name="数量" dataDxfId="66"/>
+    <tableColumn id="7" xr3:uid="{3F34C0C1-C8A9-EC44-BE7B-5E1805884F14}" name="支付方式" dataDxfId="65"/>
+    <tableColumn id="8" xr3:uid="{84730249-F504-F740-AC25-9A561C529D42}" name="渠道" dataDxfId="64"/>
+    <tableColumn id="9" xr3:uid="{AD4DD8A8-6A02-8F4F-91F0-DD7F2E94B253}" name="备注" dataDxfId="63"/>
+    <tableColumn id="11" xr3:uid="{6AE29104-87BA-6448-A1D6-3EFCD9E408DF}" name="图片地址" dataDxfId="62"/>
+    <tableColumn id="12" xr3:uid="{E7D376F1-44BE-7F42-B1F6-9A6FAA1BD658}" name="订单详情" dataDxfId="61"/>
+    <tableColumn id="13" xr3:uid="{22C41DAC-55E6-8342-96F8-4842A3C8659C}" name="列1" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{13C46A62-F0CF-624F-B8B1-05BDFB8205C2}" name="表2_1213151620211823172428291728" displayName="表2_1213151620211823172428291728" ref="K253:V263" totalsRowShown="0" headerRowDxfId="46" dataDxfId="44" headerRowBorderDxfId="45" tableBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{13C46A62-F0CF-624F-B8B1-05BDFB8205C2}" name="表2_1213151620211823172428291728" displayName="表2_1213151620211823172428291728" ref="K253:V263" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56">
   <autoFilter ref="K253:V263" xr:uid="{71BAF812-C1FF-6F47-99C9-6676E531B0D8}"/>
   <sortState ref="K254:S263">
     <sortCondition ref="K3:K22"/>
     <sortCondition ref="L3:L22"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{0C9C24D4-6C4E-1E41-BB19-A753D30EEB1F}" name="日期" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{DD9E0D3C-D75B-7344-9697-18B109EBC526}" name="时间" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{B3D44877-D397-E74C-9786-4AAD53F1C29A}" name="类别" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{85A74C0F-056C-DC4F-BD60-3893462862FD}" name="名称" dataDxfId="39"/>
-    <tableColumn id="10" xr3:uid="{4B8BC20A-FA2D-D746-9B6C-1D4BE3D2C843}" name="金额($)" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{5FF34829-EC22-F94F-A5F1-1CB8DBF311F3}" name="数量" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{BD4A1933-54F8-9646-9A4D-27A96AF4CA46}" name="支付方式" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{1503903D-9129-4C4E-8961-6908E3A522D3}" name="渠道" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{3DFBD95E-56A9-094F-9730-442A433CD346}" name="备注" dataDxfId="34"/>
-    <tableColumn id="11" xr3:uid="{2D754D37-9C71-014D-AB90-8F1CCFD5FDDE}" name="图片地址" dataDxfId="33"/>
-    <tableColumn id="12" xr3:uid="{CA6406E3-CEEA-6C43-BBAD-D43411B562C0}" name="订单详情" dataDxfId="32"/>
-    <tableColumn id="13" xr3:uid="{EBF9066D-8CDB-424B-9C3D-A0DC5CD8CBC2}" name="列1" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{0C9C24D4-6C4E-1E41-BB19-A753D30EEB1F}" name="日期" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{DD9E0D3C-D75B-7344-9697-18B109EBC526}" name="时间" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{B3D44877-D397-E74C-9786-4AAD53F1C29A}" name="类别" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{85A74C0F-056C-DC4F-BD60-3893462862FD}" name="名称" dataDxfId="52"/>
+    <tableColumn id="10" xr3:uid="{4B8BC20A-FA2D-D746-9B6C-1D4BE3D2C843}" name="金额($)" dataDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{5FF34829-EC22-F94F-A5F1-1CB8DBF311F3}" name="数量" dataDxfId="50"/>
+    <tableColumn id="7" xr3:uid="{BD4A1933-54F8-9646-9A4D-27A96AF4CA46}" name="支付方式" dataDxfId="49"/>
+    <tableColumn id="8" xr3:uid="{1503903D-9129-4C4E-8961-6908E3A522D3}" name="渠道" dataDxfId="48"/>
+    <tableColumn id="9" xr3:uid="{3DFBD95E-56A9-094F-9730-442A433CD346}" name="备注" dataDxfId="47"/>
+    <tableColumn id="11" xr3:uid="{2D754D37-9C71-014D-AB90-8F1CCFD5FDDE}" name="图片地址" dataDxfId="46"/>
+    <tableColumn id="12" xr3:uid="{CA6406E3-CEEA-6C43-BBAD-D43411B562C0}" name="订单详情" dataDxfId="45"/>
+    <tableColumn id="13" xr3:uid="{EBF9066D-8CDB-424B-9C3D-A0DC5CD8CBC2}" name="列1" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{72BCC51D-4165-C448-B82C-A263B9880D62}" name="表2_1213151620211823171817" displayName="表2_1213151620211823171817" ref="K266:S287" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{72BCC51D-4165-C448-B82C-A263B9880D62}" name="表2_1213151620211823171817" displayName="表2_1213151620211823171817" ref="K266:S287" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40">
   <autoFilter ref="K266:S287" xr:uid="{5F6D25BB-3E42-564C-AA79-91B0EBC07FC4}"/>
   <sortState ref="K267:S271">
     <sortCondition ref="K258:K271"/>
     <sortCondition ref="L258:L271"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{43D08019-CB55-E64C-A582-7164C07BFAE3}" name="日期" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{F26B41EC-36EA-DB41-9395-C974B983BC85}" name="时间" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{8BB0E3BF-A9E0-384C-B2E1-E0712FA9168F}" name="类别" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{3DF4AEFA-B488-8142-A801-684FB87323C6}" name="名称" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{D9233AF3-A6D1-5247-B635-FF8D4E0BE30C}" name="金额($)" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{2DBFCA37-8FE3-EB43-B50F-71029FD28038}" name="数量" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{74FB31CE-3FBF-3442-8881-4B7A979E7271}" name="支付方式" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{D290E6A6-DF8D-6C4A-9138-C20E189FEFDD}" name="渠道" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{BE73F99C-935F-9F42-AEC7-18342B2A8982}" name="备注" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{43D08019-CB55-E64C-A582-7164C07BFAE3}" name="日期" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{F26B41EC-36EA-DB41-9395-C974B983BC85}" name="时间" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{8BB0E3BF-A9E0-384C-B2E1-E0712FA9168F}" name="类别" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{3DF4AEFA-B488-8142-A801-684FB87323C6}" name="名称" dataDxfId="36"/>
+    <tableColumn id="10" xr3:uid="{D9233AF3-A6D1-5247-B635-FF8D4E0BE30C}" name="金额($)" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{2DBFCA37-8FE3-EB43-B50F-71029FD28038}" name="数量" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{74FB31CE-3FBF-3442-8881-4B7A979E7271}" name="支付方式" dataDxfId="33"/>
+    <tableColumn id="8" xr3:uid="{D290E6A6-DF8D-6C4A-9138-C20E189FEFDD}" name="渠道" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{BE73F99C-935F-9F42-AEC7-18342B2A8982}" name="备注" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA735AAC-C770-2E42-A456-00A4A31FA22B}" name="表2" displayName="表2" ref="K2:U30" totalsRowShown="0" headerRowDxfId="255" dataDxfId="253" headerRowBorderDxfId="254" tableBorderDxfId="252">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA735AAC-C770-2E42-A456-00A4A31FA22B}" name="表2" displayName="表2" ref="K2:U30" totalsRowShown="0" headerRowDxfId="268" dataDxfId="266" headerRowBorderDxfId="267" tableBorderDxfId="265">
   <autoFilter ref="K2:U30" xr:uid="{4793C34A-1C18-7E44-A39F-05257DC17272}"/>
   <sortState ref="K3:U30">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{A8855FFB-69E8-5346-85D7-D302A4361F0D}" name="日期" dataDxfId="251"/>
-    <tableColumn id="2" xr3:uid="{7F5C8AE4-748F-B249-94E5-C82E8B468666}" name="时间" dataDxfId="250"/>
-    <tableColumn id="3" xr3:uid="{2038DB5F-A483-5B45-BD40-2EE71479D120}" name="类别" dataDxfId="249"/>
-    <tableColumn id="4" xr3:uid="{866FA0C4-A8D9-954D-B79F-91827E135B06}" name="名称" dataDxfId="248"/>
-    <tableColumn id="10" xr3:uid="{BDBE979D-A86E-9A42-B694-AF71E0F9E33B}" name="金额($)" dataDxfId="247"/>
-    <tableColumn id="11" xr3:uid="{34065CA2-B34E-7E48-9114-CF6B6AC8F093}" name="金额(陈)" dataDxfId="246"/>
-    <tableColumn id="5" xr3:uid="{A5B56494-2462-CB4D-8877-6002352002FB}" name="金额(李)" dataDxfId="245"/>
-    <tableColumn id="6" xr3:uid="{040AF034-DFE5-1447-B9DF-4AE4E769137D}" name="数量" dataDxfId="244"/>
-    <tableColumn id="7" xr3:uid="{C33AE25B-0D3A-124A-889B-B96CBDD49041}" name="支付方式" dataDxfId="243"/>
-    <tableColumn id="8" xr3:uid="{FDC575F4-37F8-2B42-AA8E-F9581923CCAD}" name="渠道" dataDxfId="242"/>
-    <tableColumn id="9" xr3:uid="{EBDE8156-8EBE-DE42-AE3D-F526626C95E6}" name="备注" dataDxfId="241"/>
+    <tableColumn id="1" xr3:uid="{A8855FFB-69E8-5346-85D7-D302A4361F0D}" name="日期" dataDxfId="264"/>
+    <tableColumn id="2" xr3:uid="{7F5C8AE4-748F-B249-94E5-C82E8B468666}" name="时间" dataDxfId="263"/>
+    <tableColumn id="3" xr3:uid="{2038DB5F-A483-5B45-BD40-2EE71479D120}" name="类别" dataDxfId="262"/>
+    <tableColumn id="4" xr3:uid="{866FA0C4-A8D9-954D-B79F-91827E135B06}" name="名称" dataDxfId="261"/>
+    <tableColumn id="10" xr3:uid="{BDBE979D-A86E-9A42-B694-AF71E0F9E33B}" name="金额($)" dataDxfId="260"/>
+    <tableColumn id="11" xr3:uid="{34065CA2-B34E-7E48-9114-CF6B6AC8F093}" name="金额(陈)" dataDxfId="259"/>
+    <tableColumn id="5" xr3:uid="{A5B56494-2462-CB4D-8877-6002352002FB}" name="金额(李)" dataDxfId="258"/>
+    <tableColumn id="6" xr3:uid="{040AF034-DFE5-1447-B9DF-4AE4E769137D}" name="数量" dataDxfId="257"/>
+    <tableColumn id="7" xr3:uid="{C33AE25B-0D3A-124A-889B-B96CBDD49041}" name="支付方式" dataDxfId="256"/>
+    <tableColumn id="8" xr3:uid="{FDC575F4-37F8-2B42-AA8E-F9581923CCAD}" name="渠道" dataDxfId="255"/>
+    <tableColumn id="9" xr3:uid="{EBDE8156-8EBE-DE42-AE3D-F526626C95E6}" name="备注" dataDxfId="254"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{FB357124-CAEC-3A4F-9AD4-7015BDE6A775}" name="表2_1213151620211823171817273031" displayName="表2_1213151620211823171817273031" ref="K290:S297" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <autoFilter ref="K290:S297" xr:uid="{19D2B74C-350E-264E-98FF-E443C6433870}"/>
+  <sortState ref="K291:S295">
+    <sortCondition ref="K3:K16"/>
+    <sortCondition ref="L3:L16"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{9F482AF4-8898-3D4C-9C3D-D4CF5443AA65}" name="日期" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{D4017213-F6BD-CD45-B890-1657F2E760B3}" name="时间" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{4D0F7953-22E6-5145-98C4-202DC7DFA362}" name="类别" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{2FD150A8-7F79-3042-8703-1432B4938FC8}" name="名称" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{6730A74C-034E-7C45-B932-A54930F60E7E}" name="金额($)" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{B1BA88F4-FDAC-3D49-9152-2FE21693D2D0}" name="数量" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{05EF7F84-CFDB-AF40-B6F0-5EDC117FD992}" name="支付方式" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{2E853F2D-E108-3E48-83B5-BBA8785D9168}" name="渠道" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{D8BEB0D1-5FD6-EC41-BA7B-1FA7AD6A53C6}" name="备注" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E8827FEC-29EB-A64F-A117-AB93F5AF704B}" name="表4" displayName="表4" ref="A2:Z29" totalsRowShown="0">
   <autoFilter ref="A2:Z29" xr:uid="{ADCC33E7-0DD1-FA45-9C41-7D7E3B5A50FC}"/>
   <tableColumns count="26">
@@ -9838,22 +10222,22 @@
 </table>
 </file>
 
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{608D5E4E-7BC0-414D-A696-97B3CAE12BE2}" name="表7" displayName="表7" ref="AB2:AG16" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{608D5E4E-7BC0-414D-A696-97B3CAE12BE2}" name="表7" displayName="表7" ref="AB2:AG16" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27">
   <autoFilter ref="AB2:AG16" xr:uid="{D99BBCC0-26F8-584F-82AF-B9C9A1318EBC}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AD21D3B0-716F-7E48-8025-AFE6FCD92120}" name="日期" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{FC1DE92B-2BB9-C747-9F2C-31A1E6EC711A}" name="总计" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{2CF739A1-8CBC-4B46-BFBE-38C9697B1DC3}" name="支付宝" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{37AC6B7D-8DE6-EA44-989F-87DDDBECA772}" name="微信" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00BE3057-47F6-7B4F-87A9-6B0CC4188CEF}" name="现金" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{B6C7CF2F-B1B2-3E49-8ACD-DD1A2CA77F01}" name="银行卡" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{AD21D3B0-716F-7E48-8025-AFE6FCD92120}" name="日期" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{FC1DE92B-2BB9-C747-9F2C-31A1E6EC711A}" name="总计" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{2CF739A1-8CBC-4B46-BFBE-38C9697B1DC3}" name="支付宝" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{37AC6B7D-8DE6-EA44-989F-87DDDBECA772}" name="微信" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{00BE3057-47F6-7B4F-87A9-6B0CC4188CEF}" name="现金" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{B6C7CF2F-B1B2-3E49-8ACD-DD1A2CA77F01}" name="银行卡" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{410100AD-10E0-4F44-9412-B97D896BE399}" name="表12_14" displayName="表12_14" ref="AI2:AV16" totalsRowShown="0">
   <autoFilter ref="AI2:AV16" xr:uid="{89D068C2-82CB-8047-9DFF-C45CD4BCF7C3}"/>
   <tableColumns count="14">
@@ -9876,12 +10260,12 @@
 </table>
 </file>
 
-<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4A8A3C27-EB59-8440-9FAF-B3CF2592953D}" name="表8" displayName="表8" ref="A1:AR3" totalsRowShown="0">
   <autoFilter ref="A1:AR3" xr:uid="{0F1C729B-8ECB-2146-BFBD-8CF0DB869F75}"/>
   <tableColumns count="44">
-    <tableColumn id="3" xr3:uid="{2581BCC0-F69D-6B4D-AEC8-D0030C419CB3}" name="起始日期2" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{95E26320-E744-E549-B533-39AC4179085D}" name="结束日期3" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{2581BCC0-F69D-6B4D-AEC8-D0030C419CB3}" name="起始日期2" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{95E26320-E744-E549-B533-39AC4179085D}" name="结束日期3" dataDxfId="19"/>
     <tableColumn id="5" xr3:uid="{017C7CC6-7A50-E14C-9010-4A96C3E17AAE}" name="周次"/>
     <tableColumn id="6" xr3:uid="{5013C261-37F5-024E-8869-62C7BB939C64}" name="总计"/>
     <tableColumn id="7" xr3:uid="{86979D30-41EE-6C4C-B773-E0842C968F33}" name="0:00"/>
@@ -9929,12 +10313,12 @@
 </table>
 </file>
 
-<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{02022759-1D6A-1B48-A9EF-B4775205DB9B}" name="表10" displayName="表10" ref="A1:AR2" totalsRowShown="0">
   <autoFilter ref="A1:AR2" xr:uid="{2368815E-0083-7C4E-AFD6-5BD45387C155}"/>
   <tableColumns count="44">
-    <tableColumn id="1" xr3:uid="{C0F5CD09-98E8-DD4D-8B07-7A63CBC46885}" name="起始日期" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{310700D5-AA51-6C4F-9C4C-EBF3E9EFEA2B}" name="结束日期" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{C0F5CD09-98E8-DD4D-8B07-7A63CBC46885}" name="起始日期" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{310700D5-AA51-6C4F-9C4C-EBF3E9EFEA2B}" name="结束日期" dataDxfId="17"/>
     <tableColumn id="3" xr3:uid="{E3BB613C-2E5A-4046-9257-D1DB5057AC50}" name="月份"/>
     <tableColumn id="4" xr3:uid="{581D6C9B-0675-814D-8E48-FE3CBE3222FF}" name="总计"/>
     <tableColumn id="5" xr3:uid="{8CD512E4-B465-1948-AD0C-9D92E154A27C}" name="0:00"/>
@@ -9982,7 +10366,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A5C76C99-5210-AA4E-88F9-DA6CB4EC7370}" name="表6" displayName="表6" ref="A1:B2" totalsRowShown="0">
   <autoFilter ref="A1:B2" xr:uid="{6D1BEB71-2A6D-204C-90D6-33D32A457DF7}"/>
   <tableColumns count="2">
@@ -9995,16 +10379,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{90CCD7A2-463A-D647-96DA-22DFD0FBF9A0}" name="表3" displayName="表3" ref="A1:AP32" totalsRowShown="0">
   <autoFilter ref="A1:AP32" xr:uid="{506FB319-DAC5-C74F-9129-972A005A58DA}"/>
   <tableColumns count="42">
-    <tableColumn id="1" xr3:uid="{F034F842-B0D4-7C49-92AC-92126BFED303}" name="日期" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{F034F842-B0D4-7C49-92AC-92126BFED303}" name="日期" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{E4A20DC4-BCAA-5A4C-8F92-7768890FB62A}" name="总计">
       <calculatedColumnFormula>SUMIF(records!A2:A247, template!A2, records!E2:E247)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{4634C45B-FA6E-3A4F-A29C-00438EE32653}" name="0:00"/>
-    <tableColumn id="4" xr3:uid="{FAE9234B-318D-7D47-AF72-AE2A681B63D3}" name="1:00" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{FAE9234B-318D-7D47-AF72-AE2A681B63D3}" name="1:00" dataDxfId="15"/>
     <tableColumn id="5" xr3:uid="{C3E9F398-2977-274F-AC07-745B24EA6D5B}" name="2:00"/>
     <tableColumn id="6" xr3:uid="{538DED39-B589-734E-A6B3-BC72BF0D9B0D}" name="3:00"/>
     <tableColumn id="7" xr3:uid="{108D9D1B-57A3-B849-9C65-4BBC2558EB2F}" name="4:00"/>
@@ -10048,7 +10432,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{80315183-2A95-B14D-B6F6-AFEEA10909ED}" name="表5" displayName="表5" ref="A34:AR36" totalsRowShown="0">
   <autoFilter ref="A34:AR36" xr:uid="{36935680-17BE-F74F-88AB-1DDEC0F4D885}"/>
   <tableColumns count="44">
@@ -10101,12 +10485,12 @@
 </table>
 </file>
 
-<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9E9531E0-077A-C14A-B48F-4B3304B57241}" name="表9" displayName="表9" ref="A40:AR41" totalsRowShown="0">
   <autoFilter ref="A40:AR41" xr:uid="{76002C9A-0A0E-6F40-A4AF-4AD85C0C63A4}"/>
   <tableColumns count="44">
-    <tableColumn id="1" xr3:uid="{4B46A71B-91FB-1542-AB1C-88155CE27D04}" name="起始日期" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{8482E588-E7EF-7B49-8CA8-6F2A7133DEAD}" name="结束日期" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{4B46A71B-91FB-1542-AB1C-88155CE27D04}" name="起始日期" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{8482E588-E7EF-7B49-8CA8-6F2A7133DEAD}" name="结束日期" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{92055967-689A-EC42-B55A-6B47F10291F6}" name="月份"/>
     <tableColumn id="4" xr3:uid="{55866787-4B70-3048-A457-F0AE2ECD6322}" name="总计">
       <calculatedColumnFormula>SUMIFS(day!B3:B55,day!A3:A55,"&gt;="&amp;template!A41,day!A3:A55,"&lt;="&amp;template!B41)</calculatedColumnFormula>
@@ -10237,152 +10621,152 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{11A792C6-3B2B-EB45-B402-6B17FF6ECC12}" name="表2_12" displayName="表2_12" ref="K33:S41" totalsRowShown="0" headerRowDxfId="240" dataDxfId="238" headerRowBorderDxfId="239" tableBorderDxfId="237">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{11A792C6-3B2B-EB45-B402-6B17FF6ECC12}" name="表2_12" displayName="表2_12" ref="K33:S41" totalsRowShown="0" headerRowDxfId="253" dataDxfId="251" headerRowBorderDxfId="252" tableBorderDxfId="250">
   <autoFilter ref="K33:S41" xr:uid="{BF5DEAC1-034C-6E4F-BFC7-2363B9047242}"/>
   <sortState ref="K34:S60">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{9E6DCB6F-2192-F341-9E3F-1C4530C10FA8}" name="日期" dataDxfId="236"/>
-    <tableColumn id="2" xr3:uid="{E2BCBFCC-07FA-4144-B6A7-6BA37CAE0B0B}" name="时间" dataDxfId="235"/>
-    <tableColumn id="3" xr3:uid="{9E554D31-EFE4-EC43-967A-01E672C5B7F9}" name="类别" dataDxfId="234"/>
-    <tableColumn id="4" xr3:uid="{7F292805-5DAB-FB40-9F28-0C7BCA16DAA0}" name="名称" dataDxfId="233"/>
-    <tableColumn id="10" xr3:uid="{2F81F807-05F7-C04A-BB0E-654041F5B9F6}" name="金额($)" dataDxfId="232"/>
-    <tableColumn id="6" xr3:uid="{6DBF3C40-8B26-0048-A1C9-BE6D68464C6F}" name="数量" dataDxfId="231"/>
-    <tableColumn id="7" xr3:uid="{A64FDE06-A678-4646-A55C-2026413CC908}" name="支付方式" dataDxfId="230"/>
-    <tableColumn id="8" xr3:uid="{3352A65C-6558-D843-9D75-CEE8687567E5}" name="渠道" dataDxfId="229"/>
-    <tableColumn id="9" xr3:uid="{9E21A11A-E4AD-DA4D-B780-F28E44B87A61}" name="备注" dataDxfId="228"/>
+    <tableColumn id="1" xr3:uid="{9E6DCB6F-2192-F341-9E3F-1C4530C10FA8}" name="日期" dataDxfId="249"/>
+    <tableColumn id="2" xr3:uid="{E2BCBFCC-07FA-4144-B6A7-6BA37CAE0B0B}" name="时间" dataDxfId="248"/>
+    <tableColumn id="3" xr3:uid="{9E554D31-EFE4-EC43-967A-01E672C5B7F9}" name="类别" dataDxfId="247"/>
+    <tableColumn id="4" xr3:uid="{7F292805-5DAB-FB40-9F28-0C7BCA16DAA0}" name="名称" dataDxfId="246"/>
+    <tableColumn id="10" xr3:uid="{2F81F807-05F7-C04A-BB0E-654041F5B9F6}" name="金额($)" dataDxfId="245"/>
+    <tableColumn id="6" xr3:uid="{6DBF3C40-8B26-0048-A1C9-BE6D68464C6F}" name="数量" dataDxfId="244"/>
+    <tableColumn id="7" xr3:uid="{A64FDE06-A678-4646-A55C-2026413CC908}" name="支付方式" dataDxfId="243"/>
+    <tableColumn id="8" xr3:uid="{3352A65C-6558-D843-9D75-CEE8687567E5}" name="渠道" dataDxfId="242"/>
+    <tableColumn id="9" xr3:uid="{9E21A11A-E4AD-DA4D-B780-F28E44B87A61}" name="备注" dataDxfId="241"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{8E6CF227-0B2A-9943-95A9-E98C28AA3996}" name="表2_1213" displayName="表2_1213" ref="K44:S50" totalsRowShown="0" headerRowDxfId="227" dataDxfId="225" headerRowBorderDxfId="226" tableBorderDxfId="224">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{8E6CF227-0B2A-9943-95A9-E98C28AA3996}" name="表2_1213" displayName="表2_1213" ref="K44:S50" totalsRowShown="0" headerRowDxfId="240" dataDxfId="238" headerRowBorderDxfId="239" tableBorderDxfId="237">
   <autoFilter ref="K44:S50" xr:uid="{DBBD540D-9ACB-A74D-BB39-A853F97094BD}"/>
   <sortState ref="K45:S69">
     <sortCondition ref="K2:K29"/>
     <sortCondition ref="L2:L29"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{BD21C2E9-1BF4-1A48-903A-DCDEC887088A}" name="日期" dataDxfId="223"/>
-    <tableColumn id="2" xr3:uid="{B11C4ABC-6240-EF48-A31A-8BECF6AE51C3}" name="时间" dataDxfId="222"/>
-    <tableColumn id="3" xr3:uid="{67754CDC-1A19-9D49-B251-9EC86E09BE70}" name="类别" dataDxfId="221"/>
-    <tableColumn id="4" xr3:uid="{3F8C96A0-999F-A049-BCA0-6ED855C07086}" name="名称" dataDxfId="220"/>
-    <tableColumn id="10" xr3:uid="{CF71653C-3CB6-274A-8499-A136549F1D07}" name="金额($)" dataDxfId="219"/>
-    <tableColumn id="6" xr3:uid="{99FBADE8-F414-3D4E-9F3B-BDE3571F4BA1}" name="数量" dataDxfId="218"/>
-    <tableColumn id="7" xr3:uid="{24CADA98-38C4-8143-AA5C-9D7AE4D2221D}" name="支付方式" dataDxfId="217"/>
-    <tableColumn id="8" xr3:uid="{1D3BEB19-BBEB-C845-87BF-7C23136790B9}" name="渠道" dataDxfId="216"/>
-    <tableColumn id="9" xr3:uid="{3855FCA6-738B-7D49-9DEE-4106312F0DB2}" name="备注" dataDxfId="215"/>
+    <tableColumn id="1" xr3:uid="{BD21C2E9-1BF4-1A48-903A-DCDEC887088A}" name="日期" dataDxfId="236"/>
+    <tableColumn id="2" xr3:uid="{B11C4ABC-6240-EF48-A31A-8BECF6AE51C3}" name="时间" dataDxfId="235"/>
+    <tableColumn id="3" xr3:uid="{67754CDC-1A19-9D49-B251-9EC86E09BE70}" name="类别" dataDxfId="234"/>
+    <tableColumn id="4" xr3:uid="{3F8C96A0-999F-A049-BCA0-6ED855C07086}" name="名称" dataDxfId="233"/>
+    <tableColumn id="10" xr3:uid="{CF71653C-3CB6-274A-8499-A136549F1D07}" name="金额($)" dataDxfId="232"/>
+    <tableColumn id="6" xr3:uid="{99FBADE8-F414-3D4E-9F3B-BDE3571F4BA1}" name="数量" dataDxfId="231"/>
+    <tableColumn id="7" xr3:uid="{24CADA98-38C4-8143-AA5C-9D7AE4D2221D}" name="支付方式" dataDxfId="230"/>
+    <tableColumn id="8" xr3:uid="{1D3BEB19-BBEB-C845-87BF-7C23136790B9}" name="渠道" dataDxfId="229"/>
+    <tableColumn id="9" xr3:uid="{3855FCA6-738B-7D49-9DEE-4106312F0DB2}" name="备注" dataDxfId="228"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{85D5A6C9-0983-1F49-9E7D-1C7D322B37A0}" name="表2_121315" displayName="表2_121315" ref="K77:S84" totalsRowShown="0" headerRowDxfId="214" dataDxfId="212" headerRowBorderDxfId="213" tableBorderDxfId="211">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{85D5A6C9-0983-1F49-9E7D-1C7D322B37A0}" name="表2_121315" displayName="表2_121315" ref="K77:S84" totalsRowShown="0" headerRowDxfId="227" dataDxfId="225" headerRowBorderDxfId="226" tableBorderDxfId="224">
   <autoFilter ref="K77:S84" xr:uid="{835B7ABE-F456-CF45-8A7D-5507E998E23E}"/>
   <sortState ref="K78:S103">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{74D9CA40-4FE9-984A-A0EB-AA2378AD6CA6}" name="日期" dataDxfId="210"/>
-    <tableColumn id="2" xr3:uid="{399F4564-6842-1545-B8AF-E02DAC43416A}" name="时间" dataDxfId="209"/>
-    <tableColumn id="3" xr3:uid="{E8144FE3-3D58-0443-AF79-8BF552410036}" name="类别" dataDxfId="208"/>
-    <tableColumn id="4" xr3:uid="{8FBB1190-B9EE-0A40-B8AF-1F9469490287}" name="名称" dataDxfId="207"/>
-    <tableColumn id="10" xr3:uid="{0C6C1CDC-B4E4-8645-8C6D-D53E3E0CFEAC}" name="金额($)" dataDxfId="206"/>
-    <tableColumn id="6" xr3:uid="{D8196724-FF67-DD4A-A1BE-F88FB8237117}" name="数量" dataDxfId="205"/>
-    <tableColumn id="7" xr3:uid="{321E4B00-5C56-AF45-956D-93589BC551AF}" name="支付方式" dataDxfId="204"/>
-    <tableColumn id="8" xr3:uid="{8C94CA3B-1B09-C945-8241-D03F6F239F9F}" name="渠道" dataDxfId="203"/>
-    <tableColumn id="9" xr3:uid="{F056B581-94F6-6A4D-9231-DDC1C0437631}" name="备注" dataDxfId="202"/>
+    <tableColumn id="1" xr3:uid="{74D9CA40-4FE9-984A-A0EB-AA2378AD6CA6}" name="日期" dataDxfId="223"/>
+    <tableColumn id="2" xr3:uid="{399F4564-6842-1545-B8AF-E02DAC43416A}" name="时间" dataDxfId="222"/>
+    <tableColumn id="3" xr3:uid="{E8144FE3-3D58-0443-AF79-8BF552410036}" name="类别" dataDxfId="221"/>
+    <tableColumn id="4" xr3:uid="{8FBB1190-B9EE-0A40-B8AF-1F9469490287}" name="名称" dataDxfId="220"/>
+    <tableColumn id="10" xr3:uid="{0C6C1CDC-B4E4-8645-8C6D-D53E3E0CFEAC}" name="金额($)" dataDxfId="219"/>
+    <tableColumn id="6" xr3:uid="{D8196724-FF67-DD4A-A1BE-F88FB8237117}" name="数量" dataDxfId="218"/>
+    <tableColumn id="7" xr3:uid="{321E4B00-5C56-AF45-956D-93589BC551AF}" name="支付方式" dataDxfId="217"/>
+    <tableColumn id="8" xr3:uid="{8C94CA3B-1B09-C945-8241-D03F6F239F9F}" name="渠道" dataDxfId="216"/>
+    <tableColumn id="9" xr3:uid="{F056B581-94F6-6A4D-9231-DDC1C0437631}" name="备注" dataDxfId="215"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{5A08404A-170A-AF43-8E1D-DF9862393746}" name="表2_12131516" displayName="表2_12131516" ref="K87:S91" totalsRowShown="0" headerRowDxfId="201" dataDxfId="199" headerRowBorderDxfId="200" tableBorderDxfId="198">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{5A08404A-170A-AF43-8E1D-DF9862393746}" name="表2_12131516" displayName="表2_12131516" ref="K87:S91" totalsRowShown="0" headerRowDxfId="214" dataDxfId="212" headerRowBorderDxfId="213" tableBorderDxfId="211">
   <autoFilter ref="K87:S91" xr:uid="{94896363-E9F6-6743-B1C8-ACC0B149BEDF}"/>
   <sortState ref="K88:S110">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{834FC3A7-2586-5448-8952-7C3E0EC89688}" name="日期" dataDxfId="197"/>
-    <tableColumn id="2" xr3:uid="{7F1EF38F-268A-0F46-942E-72A9EF34A342}" name="时间" dataDxfId="196"/>
-    <tableColumn id="3" xr3:uid="{28FEEB6B-3150-6649-9028-BA0EE86B0496}" name="类别" dataDxfId="195"/>
-    <tableColumn id="4" xr3:uid="{347E68C4-C92A-4D49-BDAE-84DC38ED641B}" name="名称" dataDxfId="194"/>
-    <tableColumn id="10" xr3:uid="{17182FB7-D83A-1D4A-99C7-3B78D3BC590F}" name="金额($)" dataDxfId="193"/>
-    <tableColumn id="6" xr3:uid="{53E4A12C-B04D-EB4B-A0DE-59416C400198}" name="数量" dataDxfId="192"/>
-    <tableColumn id="7" xr3:uid="{393090AF-7A3C-C54A-825A-64E2B42A460E}" name="支付方式" dataDxfId="191"/>
-    <tableColumn id="8" xr3:uid="{549E8A07-2F1C-804C-B9F0-258E3F72FC60}" name="渠道" dataDxfId="190"/>
-    <tableColumn id="9" xr3:uid="{92665FCA-79D8-8145-8646-27E3066FA64C}" name="备注" dataDxfId="189"/>
+    <tableColumn id="1" xr3:uid="{834FC3A7-2586-5448-8952-7C3E0EC89688}" name="日期" dataDxfId="210"/>
+    <tableColumn id="2" xr3:uid="{7F1EF38F-268A-0F46-942E-72A9EF34A342}" name="时间" dataDxfId="209"/>
+    <tableColumn id="3" xr3:uid="{28FEEB6B-3150-6649-9028-BA0EE86B0496}" name="类别" dataDxfId="208"/>
+    <tableColumn id="4" xr3:uid="{347E68C4-C92A-4D49-BDAE-84DC38ED641B}" name="名称" dataDxfId="207"/>
+    <tableColumn id="10" xr3:uid="{17182FB7-D83A-1D4A-99C7-3B78D3BC590F}" name="金额($)" dataDxfId="206"/>
+    <tableColumn id="6" xr3:uid="{53E4A12C-B04D-EB4B-A0DE-59416C400198}" name="数量" dataDxfId="205"/>
+    <tableColumn id="7" xr3:uid="{393090AF-7A3C-C54A-825A-64E2B42A460E}" name="支付方式" dataDxfId="204"/>
+    <tableColumn id="8" xr3:uid="{549E8A07-2F1C-804C-B9F0-258E3F72FC60}" name="渠道" dataDxfId="203"/>
+    <tableColumn id="9" xr3:uid="{92665FCA-79D8-8145-8646-27E3066FA64C}" name="备注" dataDxfId="202"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{F8F4C9F9-ECF7-484B-BF22-500571CA134E}" name="表18" displayName="表18" ref="K53:U58" totalsRowShown="0" headerRowDxfId="188" dataDxfId="186" headerRowBorderDxfId="187" tableBorderDxfId="185" totalsRowBorderDxfId="184">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{F8F4C9F9-ECF7-484B-BF22-500571CA134E}" name="表18" displayName="表18" ref="K53:U58" totalsRowShown="0" headerRowDxfId="201" dataDxfId="199" headerRowBorderDxfId="200" tableBorderDxfId="198" totalsRowBorderDxfId="197">
   <autoFilter ref="K53:U58" xr:uid="{D9ADCBF8-F752-BD45-92A5-FF212FE991D9}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{A7BB4249-B024-D844-9DC5-DC40FE447B69}" name="日期" dataDxfId="183"/>
-    <tableColumn id="2" xr3:uid="{371CFA43-DD16-3D47-BFDB-319E8BB2562D}" name="时间" dataDxfId="182"/>
-    <tableColumn id="3" xr3:uid="{9E72B5C9-6F7B-EB40-B273-DC1E26E01184}" name="类别" dataDxfId="181"/>
-    <tableColumn id="4" xr3:uid="{05B51FE5-06F7-3B4A-9CE8-59C692D71DB6}" name="名称" dataDxfId="180"/>
-    <tableColumn id="5" xr3:uid="{971993D3-228B-BE4F-9FBE-3D1DDDBB8726}" name="金额($)" dataDxfId="179"/>
-    <tableColumn id="6" xr3:uid="{8E3188D8-5443-0141-87FC-8B6D4AFFEF54}" name="金额(陈)" dataDxfId="178"/>
-    <tableColumn id="7" xr3:uid="{648E2B1A-EBE3-8F4A-95A3-A09F24E0C9DA}" name="金额(李)" dataDxfId="177"/>
-    <tableColumn id="8" xr3:uid="{7D50B75C-424D-034A-9749-4961F0A2F2C9}" name="数量" dataDxfId="176"/>
-    <tableColumn id="9" xr3:uid="{85652E18-1A14-BD49-B7D7-2C7AA1447817}" name="支付方式" dataDxfId="175"/>
-    <tableColumn id="10" xr3:uid="{C770346D-F261-0347-B5FE-63CC5BAF59B4}" name="渠道" dataDxfId="174"/>
-    <tableColumn id="11" xr3:uid="{31FD91E5-37C9-BE46-9FA0-02CFBF3E45E1}" name="备注" dataDxfId="173"/>
+    <tableColumn id="1" xr3:uid="{A7BB4249-B024-D844-9DC5-DC40FE447B69}" name="日期" dataDxfId="196"/>
+    <tableColumn id="2" xr3:uid="{371CFA43-DD16-3D47-BFDB-319E8BB2562D}" name="时间" dataDxfId="195"/>
+    <tableColumn id="3" xr3:uid="{9E72B5C9-6F7B-EB40-B273-DC1E26E01184}" name="类别" dataDxfId="194"/>
+    <tableColumn id="4" xr3:uid="{05B51FE5-06F7-3B4A-9CE8-59C692D71DB6}" name="名称" dataDxfId="193"/>
+    <tableColumn id="5" xr3:uid="{971993D3-228B-BE4F-9FBE-3D1DDDBB8726}" name="金额($)" dataDxfId="192"/>
+    <tableColumn id="6" xr3:uid="{8E3188D8-5443-0141-87FC-8B6D4AFFEF54}" name="金额(陈)" dataDxfId="191"/>
+    <tableColumn id="7" xr3:uid="{648E2B1A-EBE3-8F4A-95A3-A09F24E0C9DA}" name="金额(李)" dataDxfId="190"/>
+    <tableColumn id="8" xr3:uid="{7D50B75C-424D-034A-9749-4961F0A2F2C9}" name="数量" dataDxfId="189"/>
+    <tableColumn id="9" xr3:uid="{85652E18-1A14-BD49-B7D7-2C7AA1447817}" name="支付方式" dataDxfId="188"/>
+    <tableColumn id="10" xr3:uid="{C770346D-F261-0347-B5FE-63CC5BAF59B4}" name="渠道" dataDxfId="187"/>
+    <tableColumn id="11" xr3:uid="{31FD91E5-37C9-BE46-9FA0-02CFBF3E45E1}" name="备注" dataDxfId="186"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{606E3E97-D81D-AB41-BA99-E007537886BF}" name="表2_1213151620" displayName="表2_1213151620" ref="K94:S100" totalsRowShown="0" headerRowDxfId="172" dataDxfId="170" headerRowBorderDxfId="171" tableBorderDxfId="169">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{606E3E97-D81D-AB41-BA99-E007537886BF}" name="表2_1213151620" displayName="表2_1213151620" ref="K94:S100" totalsRowShown="0" headerRowDxfId="185" dataDxfId="183" headerRowBorderDxfId="184" tableBorderDxfId="182">
   <autoFilter ref="K94:S100" xr:uid="{2674F753-E0FA-1844-8EF2-AF7541B04290}"/>
   <sortState ref="K95:S119">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{15D7FFBF-4311-7F47-914F-8B84FE5F4082}" name="日期" dataDxfId="168"/>
-    <tableColumn id="2" xr3:uid="{27DD3D02-CE0C-FF46-B0B1-235BB58DA381}" name="时间" dataDxfId="167"/>
-    <tableColumn id="3" xr3:uid="{3F62F38A-6972-5A49-B690-81990D2CC035}" name="类别" dataDxfId="166"/>
-    <tableColumn id="4" xr3:uid="{EA1F0C6D-25C3-7342-8D38-1ADC56C101DF}" name="名称" dataDxfId="165"/>
-    <tableColumn id="10" xr3:uid="{90C5F47D-F18D-7942-A073-EAF9720C1C5F}" name="金额($)" dataDxfId="164"/>
-    <tableColumn id="6" xr3:uid="{23DA7484-2642-294C-B615-581AB57BD3A1}" name="数量" dataDxfId="163"/>
-    <tableColumn id="7" xr3:uid="{82AC8D78-CF26-9F4D-8211-2B13B307DFC3}" name="支付方式" dataDxfId="162"/>
-    <tableColumn id="8" xr3:uid="{91141D7B-3679-F747-9F5F-E409D72331DA}" name="渠道" dataDxfId="161"/>
-    <tableColumn id="9" xr3:uid="{529F0920-90E6-EB41-A2FB-D0928A57CD99}" name="备注" dataDxfId="160"/>
+    <tableColumn id="1" xr3:uid="{15D7FFBF-4311-7F47-914F-8B84FE5F4082}" name="日期" dataDxfId="181"/>
+    <tableColumn id="2" xr3:uid="{27DD3D02-CE0C-FF46-B0B1-235BB58DA381}" name="时间" dataDxfId="180"/>
+    <tableColumn id="3" xr3:uid="{3F62F38A-6972-5A49-B690-81990D2CC035}" name="类别" dataDxfId="179"/>
+    <tableColumn id="4" xr3:uid="{EA1F0C6D-25C3-7342-8D38-1ADC56C101DF}" name="名称" dataDxfId="178"/>
+    <tableColumn id="10" xr3:uid="{90C5F47D-F18D-7942-A073-EAF9720C1C5F}" name="金额($)" dataDxfId="177"/>
+    <tableColumn id="6" xr3:uid="{23DA7484-2642-294C-B615-581AB57BD3A1}" name="数量" dataDxfId="176"/>
+    <tableColumn id="7" xr3:uid="{82AC8D78-CF26-9F4D-8211-2B13B307DFC3}" name="支付方式" dataDxfId="175"/>
+    <tableColumn id="8" xr3:uid="{91141D7B-3679-F747-9F5F-E409D72331DA}" name="渠道" dataDxfId="174"/>
+    <tableColumn id="9" xr3:uid="{529F0920-90E6-EB41-A2FB-D0928A57CD99}" name="备注" dataDxfId="173"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{65F04204-4685-BD44-A9A9-528E74381FD5}" name="表2_121315162021" displayName="表2_121315162021" ref="K103:S109" totalsRowShown="0" headerRowDxfId="159" dataDxfId="157" headerRowBorderDxfId="158" tableBorderDxfId="156">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{65F04204-4685-BD44-A9A9-528E74381FD5}" name="表2_121315162021" displayName="表2_121315162021" ref="K103:S109" totalsRowShown="0" headerRowDxfId="172" dataDxfId="170" headerRowBorderDxfId="171" tableBorderDxfId="169">
   <autoFilter ref="K103:S109" xr:uid="{667113CE-E40C-644A-9375-DFFA158F767D}"/>
   <sortState ref="K104:S128">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{86FDBD0A-C64B-684E-88E4-97A9B8A90394}" name="日期" dataDxfId="155"/>
-    <tableColumn id="2" xr3:uid="{E706DFF2-17A8-074C-A9BC-624F5932127D}" name="时间" dataDxfId="154"/>
-    <tableColumn id="3" xr3:uid="{4178F89C-CD46-CA48-BE92-ECFE4C3DFE56}" name="类别" dataDxfId="153"/>
-    <tableColumn id="4" xr3:uid="{A549C014-3FFF-9F40-9F34-910684A4517C}" name="名称" dataDxfId="152"/>
-    <tableColumn id="10" xr3:uid="{C84AE528-810C-6C47-8DF2-AF970AF9A2D4}" name="金额($)" dataDxfId="151"/>
-    <tableColumn id="6" xr3:uid="{5270CAB9-ED19-D449-9926-0A2551F4C6AD}" name="数量" dataDxfId="150"/>
-    <tableColumn id="7" xr3:uid="{A50583DC-76A3-3246-BBE9-4A25FC54C124}" name="支付方式" dataDxfId="149"/>
-    <tableColumn id="8" xr3:uid="{F0F66474-976C-7E44-8C1D-71BF0D6187AB}" name="渠道" dataDxfId="148"/>
-    <tableColumn id="9" xr3:uid="{7CB81F3A-0F01-4E45-8F36-0A6F6C393579}" name="备注" dataDxfId="147"/>
+    <tableColumn id="1" xr3:uid="{86FDBD0A-C64B-684E-88E4-97A9B8A90394}" name="日期" dataDxfId="168"/>
+    <tableColumn id="2" xr3:uid="{E706DFF2-17A8-074C-A9BC-624F5932127D}" name="时间" dataDxfId="167"/>
+    <tableColumn id="3" xr3:uid="{4178F89C-CD46-CA48-BE92-ECFE4C3DFE56}" name="类别" dataDxfId="166"/>
+    <tableColumn id="4" xr3:uid="{A549C014-3FFF-9F40-9F34-910684A4517C}" name="名称" dataDxfId="165"/>
+    <tableColumn id="10" xr3:uid="{C84AE528-810C-6C47-8DF2-AF970AF9A2D4}" name="金额($)" dataDxfId="164"/>
+    <tableColumn id="6" xr3:uid="{5270CAB9-ED19-D449-9926-0A2551F4C6AD}" name="数量" dataDxfId="163"/>
+    <tableColumn id="7" xr3:uid="{A50583DC-76A3-3246-BBE9-4A25FC54C124}" name="支付方式" dataDxfId="162"/>
+    <tableColumn id="8" xr3:uid="{F0F66474-976C-7E44-8C1D-71BF0D6187AB}" name="渠道" dataDxfId="161"/>
+    <tableColumn id="9" xr3:uid="{7CB81F3A-0F01-4E45-8F36-0A6F6C393579}" name="备注" dataDxfId="160"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10685,10 +11069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C81ADFD-2D83-574A-AD81-B8046C388F80}">
-  <dimension ref="A1:V287"/>
+  <dimension ref="A1:V297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="88" workbookViewId="0">
-      <selection activeCell="A218" sqref="A218:A219"/>
+    <sheetView topLeftCell="A208" zoomScale="88" workbookViewId="0">
+      <selection activeCell="D224" sqref="D224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13477,19 +13861,19 @@
       <c r="I52" t="s">
         <v>141</v>
       </c>
-      <c r="K52" s="41" t="s">
+      <c r="K52" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="L52" s="41"/>
-      <c r="M52" s="41"/>
-      <c r="N52" s="41"/>
-      <c r="O52" s="41"/>
-      <c r="P52" s="41"/>
-      <c r="Q52" s="41"/>
-      <c r="R52" s="41"/>
-      <c r="S52" s="41"/>
-      <c r="T52" s="41"/>
-      <c r="U52" s="41"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="42"/>
+      <c r="R52" s="42"/>
+      <c r="S52" s="42"/>
+      <c r="T52" s="42"/>
+      <c r="U52" s="42"/>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="1">
@@ -13920,20 +14304,20 @@
       <c r="I60" t="s">
         <v>231</v>
       </c>
-      <c r="K60" s="41" t="s">
+      <c r="K60" s="42" t="s">
         <v>666</v>
       </c>
-      <c r="L60" s="41"/>
-      <c r="M60" s="41"/>
-      <c r="N60" s="41"/>
-      <c r="O60" s="41"/>
-      <c r="P60" s="41"/>
-      <c r="Q60" s="41"/>
-      <c r="R60" s="41"/>
-      <c r="S60" s="41"/>
-      <c r="T60" s="41"/>
-      <c r="U60" s="41"/>
-      <c r="V60" s="41"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="42"/>
+      <c r="P60" s="42"/>
+      <c r="Q60" s="42"/>
+      <c r="R60" s="42"/>
+      <c r="S60" s="42"/>
+      <c r="T60" s="42"/>
+      <c r="U60" s="42"/>
+      <c r="V60" s="42"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="1">
@@ -16428,17 +16812,17 @@
       <c r="I111" t="s">
         <v>340</v>
       </c>
-      <c r="K111" s="42" t="s">
+      <c r="K111" s="41" t="s">
         <v>448</v>
       </c>
-      <c r="L111" s="42"/>
-      <c r="M111" s="42"/>
-      <c r="N111" s="42"/>
-      <c r="O111" s="42"/>
-      <c r="P111" s="42"/>
-      <c r="Q111" s="42"/>
-      <c r="R111" s="42"/>
-      <c r="S111" s="42"/>
+      <c r="L111" s="41"/>
+      <c r="M111" s="41"/>
+      <c r="N111" s="41"/>
+      <c r="O111" s="41"/>
+      <c r="P111" s="41"/>
+      <c r="Q111" s="41"/>
+      <c r="R111" s="41"/>
+      <c r="S111" s="41"/>
     </row>
     <row r="112" spans="1:19">
       <c r="A112" s="1">
@@ -18550,20 +18934,20 @@
       <c r="I153" t="s">
         <v>415</v>
       </c>
-      <c r="K153" s="41" t="s">
+      <c r="K153" s="42" t="s">
         <v>597</v>
       </c>
-      <c r="L153" s="41"/>
-      <c r="M153" s="41"/>
-      <c r="N153" s="41"/>
-      <c r="O153" s="41"/>
-      <c r="P153" s="41"/>
-      <c r="Q153" s="41"/>
-      <c r="R153" s="41"/>
-      <c r="S153" s="41"/>
-      <c r="T153" s="41"/>
-      <c r="U153" s="41"/>
-      <c r="V153" s="41"/>
+      <c r="L153" s="42"/>
+      <c r="M153" s="42"/>
+      <c r="N153" s="42"/>
+      <c r="O153" s="42"/>
+      <c r="P153" s="42"/>
+      <c r="Q153" s="42"/>
+      <c r="R153" s="42"/>
+      <c r="S153" s="42"/>
+      <c r="T153" s="42"/>
+      <c r="U153" s="42"/>
+      <c r="V153" s="42"/>
     </row>
     <row r="154" spans="1:22">
       <c r="A154" s="1">
@@ -21832,25 +22216,25 @@
         <v>43917</v>
       </c>
       <c r="B214" s="2">
-        <v>0.54583333333333328</v>
+        <v>0.34930555555555554</v>
       </c>
       <c r="C214" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D214" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="E214">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F214" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G214" t="s">
         <v>24</v>
       </c>
       <c r="H214" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K214" s="40" t="s">
         <v>707</v>
@@ -21869,25 +22253,28 @@
         <v>43917</v>
       </c>
       <c r="B215" s="2">
-        <v>0.41666666666666669</v>
+        <v>0.39374999999999999</v>
       </c>
       <c r="C215" t="s">
-        <v>427</v>
+        <v>6</v>
       </c>
       <c r="D215" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="E215">
-        <v>7</v>
+        <v>39.5</v>
       </c>
       <c r="F215" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G215" t="s">
         <v>24</v>
       </c>
       <c r="H215" t="s">
-        <v>906</v>
+        <v>907</v>
+      </c>
+      <c r="I215" t="s">
+        <v>909</v>
       </c>
       <c r="K215" s="9" t="s">
         <v>1</v>
@@ -21922,28 +22309,25 @@
         <v>43917</v>
       </c>
       <c r="B216" s="2">
-        <v>0.39374999999999999</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C216" t="s">
-        <v>6</v>
+        <v>427</v>
       </c>
       <c r="D216" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="E216">
-        <v>39.5</v>
+        <v>7</v>
       </c>
       <c r="F216" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G216" t="s">
         <v>24</v>
       </c>
       <c r="H216" t="s">
-        <v>907</v>
-      </c>
-      <c r="I216" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="K216" s="1">
         <v>43886</v>
@@ -21978,25 +22362,25 @@
         <v>43917</v>
       </c>
       <c r="B217" s="2">
-        <v>0.34930555555555554</v>
+        <v>0.54583333333333328</v>
       </c>
       <c r="C217" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D217" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="E217">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F217" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G217" t="s">
         <v>24</v>
       </c>
       <c r="H217" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K217" s="1">
         <v>43886</v>
@@ -22027,8 +22411,30 @@
       </c>
     </row>
     <row r="218" spans="1:19">
-      <c r="A218" s="1"/>
-      <c r="B218" s="2"/>
+      <c r="A218" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B218" s="2">
+        <v>0.7909722222222223</v>
+      </c>
+      <c r="C218" t="s">
+        <v>83</v>
+      </c>
+      <c r="D218" t="s">
+        <v>910</v>
+      </c>
+      <c r="E218">
+        <v>42.2</v>
+      </c>
+      <c r="F218" t="s">
+        <v>23</v>
+      </c>
+      <c r="G218" t="s">
+        <v>24</v>
+      </c>
+      <c r="H218" t="s">
+        <v>535</v>
+      </c>
       <c r="K218" s="1">
         <v>43886</v>
       </c>
@@ -22058,8 +22464,30 @@
       </c>
     </row>
     <row r="219" spans="1:19">
-      <c r="A219" s="1"/>
-      <c r="B219" s="2"/>
+      <c r="A219" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B219" s="2">
+        <v>0.8979166666666667</v>
+      </c>
+      <c r="C219" t="s">
+        <v>336</v>
+      </c>
+      <c r="D219" t="s">
+        <v>222</v>
+      </c>
+      <c r="E219">
+        <v>12</v>
+      </c>
+      <c r="F219" t="s">
+        <v>62</v>
+      </c>
+      <c r="G219" t="s">
+        <v>24</v>
+      </c>
+      <c r="H219" t="s">
+        <v>904</v>
+      </c>
       <c r="K219" s="1">
         <v>43886</v>
       </c>
@@ -22089,8 +22517,30 @@
       </c>
     </row>
     <row r="220" spans="1:19">
-      <c r="A220" s="1"/>
-      <c r="B220" s="2"/>
+      <c r="A220" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B220" s="2">
+        <v>0.35694444444444445</v>
+      </c>
+      <c r="C220" t="s">
+        <v>0</v>
+      </c>
+      <c r="D220" t="s">
+        <v>321</v>
+      </c>
+      <c r="E220">
+        <v>3</v>
+      </c>
+      <c r="F220" t="s">
+        <v>23</v>
+      </c>
+      <c r="G220" t="s">
+        <v>24</v>
+      </c>
+      <c r="H220" t="s">
+        <v>25</v>
+      </c>
       <c r="K220" s="1">
         <v>43886</v>
       </c>
@@ -22120,8 +22570,30 @@
       </c>
     </row>
     <row r="221" spans="1:19">
-      <c r="A221" s="1"/>
-      <c r="B221" s="2"/>
+      <c r="A221" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B221" s="2">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="C221" t="s">
+        <v>0</v>
+      </c>
+      <c r="D221" t="s">
+        <v>919</v>
+      </c>
+      <c r="E221">
+        <v>3</v>
+      </c>
+      <c r="F221" t="s">
+        <v>23</v>
+      </c>
+      <c r="G221" t="s">
+        <v>24</v>
+      </c>
+      <c r="H221" t="s">
+        <v>25</v>
+      </c>
       <c r="K221" s="1">
         <v>43886</v>
       </c>
@@ -22151,8 +22623,30 @@
       </c>
     </row>
     <row r="222" spans="1:19">
-      <c r="A222" s="1"/>
-      <c r="B222" s="2"/>
+      <c r="A222" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B222" s="2">
+        <v>0.43263888888888885</v>
+      </c>
+      <c r="C222" t="s">
+        <v>427</v>
+      </c>
+      <c r="D222" t="s">
+        <v>917</v>
+      </c>
+      <c r="E222">
+        <v>12</v>
+      </c>
+      <c r="F222" t="s">
+        <v>23</v>
+      </c>
+      <c r="G222" t="s">
+        <v>24</v>
+      </c>
+      <c r="H222" t="s">
+        <v>918</v>
+      </c>
       <c r="K222" s="1">
         <v>43886</v>
       </c>
@@ -22692,20 +23186,20 @@
     <row r="241" spans="1:22">
       <c r="A241" s="1"/>
       <c r="B241" s="2"/>
-      <c r="K241" s="41" t="s">
+      <c r="K241" s="42" t="s">
         <v>767</v>
       </c>
-      <c r="L241" s="41"/>
-      <c r="M241" s="41"/>
-      <c r="N241" s="41"/>
-      <c r="O241" s="41"/>
-      <c r="P241" s="41"/>
-      <c r="Q241" s="41"/>
-      <c r="R241" s="41"/>
-      <c r="S241" s="41"/>
-      <c r="T241" s="41"/>
-      <c r="U241" s="41"/>
-      <c r="V241" s="41"/>
+      <c r="L241" s="42"/>
+      <c r="M241" s="42"/>
+      <c r="N241" s="42"/>
+      <c r="O241" s="42"/>
+      <c r="P241" s="42"/>
+      <c r="Q241" s="42"/>
+      <c r="R241" s="42"/>
+      <c r="S241" s="42"/>
+      <c r="T241" s="42"/>
+      <c r="U241" s="42"/>
+      <c r="V241" s="42"/>
     </row>
     <row r="242" spans="1:22">
       <c r="A242" s="1"/>
@@ -23036,20 +23530,20 @@
       <c r="U250" s="35"/>
     </row>
     <row r="252" spans="1:22">
-      <c r="K252" s="41" t="s">
+      <c r="K252" s="42" t="s">
         <v>802</v>
       </c>
-      <c r="L252" s="41"/>
-      <c r="M252" s="41"/>
-      <c r="N252" s="41"/>
-      <c r="O252" s="41"/>
-      <c r="P252" s="41"/>
-      <c r="Q252" s="41"/>
-      <c r="R252" s="41"/>
-      <c r="S252" s="41"/>
-      <c r="T252" s="41"/>
-      <c r="U252" s="41"/>
-      <c r="V252" s="41"/>
+      <c r="L252" s="42"/>
+      <c r="M252" s="42"/>
+      <c r="N252" s="42"/>
+      <c r="O252" s="42"/>
+      <c r="P252" s="42"/>
+      <c r="Q252" s="42"/>
+      <c r="R252" s="42"/>
+      <c r="S252" s="42"/>
+      <c r="T252" s="42"/>
+      <c r="U252" s="42"/>
+      <c r="V252" s="42"/>
     </row>
     <row r="253" spans="1:22">
       <c r="K253" s="9" t="s">
@@ -24059,8 +24553,239 @@
         <v>95.5</v>
       </c>
     </row>
+    <row r="289" spans="11:19">
+      <c r="K289" s="40" t="s">
+        <v>910</v>
+      </c>
+      <c r="L289" s="40"/>
+      <c r="M289" s="40"/>
+      <c r="N289" s="40"/>
+      <c r="O289" s="40"/>
+      <c r="P289" s="40"/>
+      <c r="Q289" s="40"/>
+      <c r="R289" s="40"/>
+      <c r="S289" s="40"/>
+    </row>
+    <row r="290" spans="11:19">
+      <c r="K290" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L290" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M290" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N290" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O290" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="P290" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q290" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R290" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S290" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="11:19">
+      <c r="K291" s="1">
+        <v>43917</v>
+      </c>
+      <c r="L291" s="2">
+        <v>0.7909722222222223</v>
+      </c>
+      <c r="M291" t="s">
+        <v>258</v>
+      </c>
+      <c r="N291" t="s">
+        <v>725</v>
+      </c>
+      <c r="O291">
+        <v>0.8</v>
+      </c>
+      <c r="P291" t="s">
+        <v>922</v>
+      </c>
+      <c r="Q291" t="s">
+        <v>24</v>
+      </c>
+      <c r="R291" t="s">
+        <v>535</v>
+      </c>
+      <c r="S291" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="292" spans="11:19">
+      <c r="K292" s="1">
+        <v>43917</v>
+      </c>
+      <c r="L292" s="2">
+        <v>0.7909722222222223</v>
+      </c>
+      <c r="M292" t="s">
+        <v>258</v>
+      </c>
+      <c r="N292" t="s">
+        <v>911</v>
+      </c>
+      <c r="O292">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="P292" t="s">
+        <v>915</v>
+      </c>
+      <c r="Q292" t="s">
+        <v>24</v>
+      </c>
+      <c r="R292" t="s">
+        <v>535</v>
+      </c>
+      <c r="S292" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="293" spans="11:19">
+      <c r="K293" s="1">
+        <v>43917</v>
+      </c>
+      <c r="L293" s="2">
+        <v>0.7909722222222223</v>
+      </c>
+      <c r="M293" t="s">
+        <v>258</v>
+      </c>
+      <c r="N293" t="s">
+        <v>723</v>
+      </c>
+      <c r="O293">
+        <v>1.5</v>
+      </c>
+      <c r="P293" t="s">
+        <v>923</v>
+      </c>
+      <c r="Q293" t="s">
+        <v>24</v>
+      </c>
+      <c r="R293" t="s">
+        <v>535</v>
+      </c>
+      <c r="S293" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="294" spans="11:19">
+      <c r="K294" s="1">
+        <v>43917</v>
+      </c>
+      <c r="L294" s="2">
+        <v>0.79097222222222197</v>
+      </c>
+      <c r="M294" t="s">
+        <v>258</v>
+      </c>
+      <c r="N294" t="s">
+        <v>912</v>
+      </c>
+      <c r="O294">
+        <v>6.3</v>
+      </c>
+      <c r="P294" t="s">
+        <v>925</v>
+      </c>
+      <c r="Q294" t="s">
+        <v>24</v>
+      </c>
+      <c r="R294" t="s">
+        <v>535</v>
+      </c>
+      <c r="S294" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="295" spans="11:19">
+      <c r="K295" s="1">
+        <v>43917</v>
+      </c>
+      <c r="L295" s="2">
+        <v>0.79097222222222197</v>
+      </c>
+      <c r="M295" t="s">
+        <v>258</v>
+      </c>
+      <c r="N295" t="s">
+        <v>914</v>
+      </c>
+      <c r="O295">
+        <v>4.3</v>
+      </c>
+      <c r="P295" t="s">
+        <v>921</v>
+      </c>
+      <c r="Q295" t="s">
+        <v>24</v>
+      </c>
+      <c r="R295" t="s">
+        <v>535</v>
+      </c>
+      <c r="S295" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="296" spans="11:19">
+      <c r="K296" s="1">
+        <v>43917</v>
+      </c>
+      <c r="L296" s="2">
+        <v>0.79097222222222197</v>
+      </c>
+      <c r="M296" t="s">
+        <v>258</v>
+      </c>
+      <c r="N296" t="s">
+        <v>913</v>
+      </c>
+      <c r="O296">
+        <v>9.4</v>
+      </c>
+      <c r="P296" t="s">
+        <v>927</v>
+      </c>
+      <c r="Q296" t="s">
+        <v>24</v>
+      </c>
+      <c r="R296" t="s">
+        <v>535</v>
+      </c>
+      <c r="S296" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="297" spans="11:19">
+      <c r="K297" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L297" s="2"/>
+      <c r="O297" s="13">
+        <v>42.2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="K289:S289"/>
+    <mergeCell ref="K265:S265"/>
+    <mergeCell ref="K60:V60"/>
+    <mergeCell ref="K252:V252"/>
+    <mergeCell ref="K214:S214"/>
+    <mergeCell ref="K241:V241"/>
     <mergeCell ref="K1:U1"/>
     <mergeCell ref="K32:S32"/>
     <mergeCell ref="K76:S76"/>
@@ -24074,11 +24799,6 @@
     <mergeCell ref="K102:S102"/>
     <mergeCell ref="K130:S130"/>
     <mergeCell ref="K153:V153"/>
-    <mergeCell ref="K265:S265"/>
-    <mergeCell ref="K60:V60"/>
-    <mergeCell ref="K252:V252"/>
-    <mergeCell ref="K214:S214"/>
-    <mergeCell ref="K241:V241"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="13">
@@ -24127,7 +24847,7 @@
   <ignoredErrors>
     <ignoredError sqref="S61:S74 M61:M74" listDataValidation="1"/>
   </ignoredErrors>
-  <tableParts count="19">
+  <tableParts count="20">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -24147,6 +24867,7 @@
     <tablePart r:id="rId17"/>
     <tablePart r:id="rId18"/>
     <tablePart r:id="rId19"/>
+    <tablePart r:id="rId20"/>
   </tableParts>
 </worksheet>
 </file>
@@ -24155,8 +24876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB2B069-B7D1-B241-94FB-BD2BABA4F21B}">
   <dimension ref="A1:AV29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -24165,34 +24886,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
       <c r="AB1" s="43" t="s">
         <v>327</v>
       </c>
@@ -24201,22 +24922,22 @@
       <c r="AE1" s="43"/>
       <c r="AF1" s="43"/>
       <c r="AG1" s="43"/>
-      <c r="AI1" s="42" t="s">
+      <c r="AI1" s="41" t="s">
         <v>328</v>
       </c>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="42"/>
-      <c r="AL1" s="42"/>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="42"/>
-      <c r="AP1" s="42"/>
-      <c r="AQ1" s="42"/>
-      <c r="AR1" s="42"/>
-      <c r="AS1" s="42"/>
-      <c r="AT1" s="42"/>
-      <c r="AU1" s="42"/>
-      <c r="AV1" s="42"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="41"/>
     </row>
     <row r="2" spans="1:48">
       <c r="A2" t="s">

--- a/excel/ledger.xlsx
+++ b/excel/ledger.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDC55AB-5101-D54C-B732-CFC439D0E64E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5C67D1-D596-3B4D-A930-4E4FC5155B29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17460" yWindow="2760" windowWidth="14380" windowHeight="16440" activeTab="1" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
+    <workbookView xWindow="17460" yWindow="2760" windowWidth="14380" windowHeight="16440" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3134" uniqueCount="948">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3601,6 +3601,82 @@
   </si>
   <si>
     <t>单价：9.36/kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单车+外卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大脆鸡扒麦满分组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金地花园-科技广场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美团摩拜单车免密支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车公庙-上沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一荤一素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯客门店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼下早餐店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车公庙-鲤鱼门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珞珈樱花拿铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两荤两素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波记烧鹅门店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肉面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黔派虾子羊肉粉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3920,10 +3996,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3934,6 +4010,197 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="271">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4163,13 +4430,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <top style="thin">
           <color theme="1"/>
         </top>
@@ -4204,193 +4464,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="thin">
-          <color theme="5"/>
+          <color theme="1"/>
         </bottom>
       </border>
     </dxf>
@@ -4406,7 +4482,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="5" tint="-0.249977111117893"/>
+        <color theme="1"/>
         <name val="等线"/>
         <family val="2"/>
         <charset val="134"/>
@@ -9894,7 +9970,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FEFEF66-0DFC-B343-AE55-FC43085C5197}" name="表1" displayName="表1" ref="A1:I247" totalsRowShown="0">
   <autoFilter ref="A1:I247" xr:uid="{5BBC9419-B13B-B148-8ACF-0DE90D8ED5A0}"/>
-  <sortState ref="A2:I247">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I247">
     <sortCondition ref="A2:A22"/>
     <sortCondition ref="B2:B22"/>
   </sortState>
@@ -9934,7 +10010,7 @@
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{AB454117-BA52-2544-9127-12465162C859}" name="表2_1213151620211823" displayName="表2_1213151620211823" ref="K182:S204" totalsRowShown="0" headerRowDxfId="159" dataDxfId="157" headerRowBorderDxfId="158" tableBorderDxfId="156">
   <autoFilter ref="K182:S204" xr:uid="{02D241E9-3DCF-8D40-BFFA-FFE3C0F5535D}"/>
-  <sortState ref="K183:S197">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K183:S197">
     <sortCondition ref="K3:K27"/>
     <sortCondition ref="L3:L27"/>
   </sortState>
@@ -9956,7 +10032,7 @@
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{87DA1393-6827-EA44-A084-237782089CCF}" name="表2_12131516202118231718" displayName="表2_12131516202118231718" ref="K207:S212" totalsRowShown="0" headerRowDxfId="146" dataDxfId="144" headerRowBorderDxfId="145" tableBorderDxfId="143">
   <autoFilter ref="K207:S212" xr:uid="{91480F83-2419-784F-8386-55181DF5FEED}"/>
-  <sortState ref="K208:S212">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K208:S212">
     <sortCondition ref="K3:K16"/>
     <sortCondition ref="L3:L16"/>
   </sortState>
@@ -9978,7 +10054,7 @@
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{D07645E1-FF51-BE44-A108-6E2E28DFE3B7}" name="表2_121315162021182317181725" displayName="表2_121315162021182317181725" ref="K131:S151" totalsRowShown="0" headerRowDxfId="133" dataDxfId="131" headerRowBorderDxfId="132" tableBorderDxfId="130">
   <autoFilter ref="K131:S151" xr:uid="{7F3530B9-75AA-9F46-8D36-5829A96A835C}"/>
-  <sortState ref="K132:S136">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K132:S136">
     <sortCondition ref="K3:K16"/>
     <sortCondition ref="L3:L16"/>
   </sortState>
@@ -10000,7 +10076,7 @@
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{E94DDC74-E61C-5249-90F9-930C74E64060}" name="表2_12131516202118231724" displayName="表2_12131516202118231724" ref="K154:V179" totalsRowShown="0" headerRowDxfId="120" dataDxfId="118" headerRowBorderDxfId="119" tableBorderDxfId="117">
   <autoFilter ref="K154:V179" xr:uid="{A7B4FD5B-7483-B04B-9945-909AF67F9E14}"/>
-  <sortState ref="K155:S169">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K155:S169">
     <sortCondition ref="K3:K27"/>
     <sortCondition ref="L3:L27"/>
   </sortState>
@@ -10025,7 +10101,7 @@
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{029FEBD4-A447-6D48-BD02-0BE2F1B735AB}" name="表2_12131516202118231726" displayName="表2_12131516202118231726" ref="K61:V74" totalsRowShown="0" headerRowDxfId="104" dataDxfId="102" headerRowBorderDxfId="103" tableBorderDxfId="101">
   <autoFilter ref="K61:V74" xr:uid="{4A6F62B7-DFA0-0142-8AF6-16BD93B05409}"/>
-  <sortState ref="K62:S72">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K62:S72">
     <sortCondition ref="K3:K18"/>
     <sortCondition ref="L3:L18"/>
   </sortState>
@@ -10050,7 +10126,7 @@
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{3F2EC857-243B-2645-AF03-53AF6C939B9F}" name="表2_121315162021182317181727" displayName="表2_121315162021182317181727" ref="K215:S239" totalsRowShown="0" headerRowDxfId="88" dataDxfId="86" headerRowBorderDxfId="87" tableBorderDxfId="85">
   <autoFilter ref="K215:S239" xr:uid="{DAC89B1E-920B-0D43-AD39-2C0F93C33525}"/>
-  <sortState ref="K216:S220">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K216:S220">
     <sortCondition ref="K3:K16"/>
     <sortCondition ref="L3:L16"/>
   </sortState>
@@ -10072,7 +10148,7 @@
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{7E52F1F1-47DF-7043-BC6F-D5DF62C49306}" name="表2_121315162021182317242829" displayName="表2_121315162021182317242829" ref="K242:V250" totalsRowShown="0" headerRowDxfId="75" dataDxfId="73" headerRowBorderDxfId="74" tableBorderDxfId="72">
   <autoFilter ref="K242:V250" xr:uid="{9E59D046-D048-C843-8065-387FC3638EC9}"/>
-  <sortState ref="K243:S250">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K243:S250">
     <sortCondition ref="K3:K18"/>
     <sortCondition ref="L3:L18"/>
   </sortState>
@@ -10097,7 +10173,7 @@
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{13C46A62-F0CF-624F-B8B1-05BDFB8205C2}" name="表2_1213151620211823172428291728" displayName="表2_1213151620211823172428291728" ref="K253:V263" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56">
   <autoFilter ref="K253:V263" xr:uid="{71BAF812-C1FF-6F47-99C9-6676E531B0D8}"/>
-  <sortState ref="K254:S263">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K254:S263">
     <sortCondition ref="K3:K22"/>
     <sortCondition ref="L3:L22"/>
   </sortState>
@@ -10122,7 +10198,7 @@
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{72BCC51D-4165-C448-B82C-A263B9880D62}" name="表2_1213151620211823171817" displayName="表2_1213151620211823171817" ref="K266:S287" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40">
   <autoFilter ref="K266:S287" xr:uid="{5F6D25BB-3E42-564C-AA79-91B0EBC07FC4}"/>
-  <sortState ref="K267:S271">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K267:S271">
     <sortCondition ref="K258:K271"/>
     <sortCondition ref="L258:L271"/>
   </sortState>
@@ -10144,7 +10220,7 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA735AAC-C770-2E42-A456-00A4A31FA22B}" name="表2" displayName="表2" ref="K2:U30" totalsRowShown="0" headerRowDxfId="268" dataDxfId="266" headerRowBorderDxfId="267" tableBorderDxfId="265">
   <autoFilter ref="K2:U30" xr:uid="{4793C34A-1C18-7E44-A39F-05257DC17272}"/>
-  <sortState ref="K3:U30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K3:U30">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
@@ -10166,22 +10242,22 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{FB357124-CAEC-3A4F-9AD4-7015BDE6A775}" name="表2_1213151620211823171817273031" displayName="表2_1213151620211823171817273031" ref="K290:S297" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{FB357124-CAEC-3A4F-9AD4-7015BDE6A775}" name="表2_1213151620211823171817273031" displayName="表2_1213151620211823171817273031" ref="K290:S297" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27">
   <autoFilter ref="K290:S297" xr:uid="{19D2B74C-350E-264E-98FF-E443C6433870}"/>
-  <sortState ref="K291:S295">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K291:S295">
     <sortCondition ref="K3:K16"/>
     <sortCondition ref="L3:L16"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{9F482AF4-8898-3D4C-9C3D-D4CF5443AA65}" name="日期" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{D4017213-F6BD-CD45-B890-1657F2E760B3}" name="时间" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{4D0F7953-22E6-5145-98C4-202DC7DFA362}" name="类别" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{2FD150A8-7F79-3042-8703-1432B4938FC8}" name="名称" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{6730A74C-034E-7C45-B932-A54930F60E7E}" name="金额($)" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{B1BA88F4-FDAC-3D49-9152-2FE21693D2D0}" name="数量" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{05EF7F84-CFDB-AF40-B6F0-5EDC117FD992}" name="支付方式" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{2E853F2D-E108-3E48-83B5-BBA8785D9168}" name="渠道" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{D8BEB0D1-5FD6-EC41-BA7B-1FA7AD6A53C6}" name="备注" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{9F482AF4-8898-3D4C-9C3D-D4CF5443AA65}" name="日期" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{D4017213-F6BD-CD45-B890-1657F2E760B3}" name="时间" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{4D0F7953-22E6-5145-98C4-202DC7DFA362}" name="类别" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{2FD150A8-7F79-3042-8703-1432B4938FC8}" name="名称" dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{6730A74C-034E-7C45-B932-A54930F60E7E}" name="金额($)" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{B1BA88F4-FDAC-3D49-9152-2FE21693D2D0}" name="数量" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{05EF7F84-CFDB-AF40-B6F0-5EDC117FD992}" name="支付方式" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{2E853F2D-E108-3E48-83B5-BBA8785D9168}" name="渠道" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{D8BEB0D1-5FD6-EC41-BA7B-1FA7AD6A53C6}" name="备注" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10223,15 +10299,15 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{608D5E4E-7BC0-414D-A696-97B3CAE12BE2}" name="表7" displayName="表7" ref="AB2:AG16" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{608D5E4E-7BC0-414D-A696-97B3CAE12BE2}" name="表7" displayName="表7" ref="AB2:AG16" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
   <autoFilter ref="AB2:AG16" xr:uid="{D99BBCC0-26F8-584F-82AF-B9C9A1318EBC}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AD21D3B0-716F-7E48-8025-AFE6FCD92120}" name="日期" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{FC1DE92B-2BB9-C747-9F2C-31A1E6EC711A}" name="总计" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{2CF739A1-8CBC-4B46-BFBE-38C9697B1DC3}" name="支付宝" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{37AC6B7D-8DE6-EA44-989F-87DDDBECA772}" name="微信" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{00BE3057-47F6-7B4F-87A9-6B0CC4188CEF}" name="现金" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{B6C7CF2F-B1B2-3E49-8ACD-DD1A2CA77F01}" name="银行卡" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{AD21D3B0-716F-7E48-8025-AFE6FCD92120}" name="日期" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{FC1DE92B-2BB9-C747-9F2C-31A1E6EC711A}" name="总计" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{2CF739A1-8CBC-4B46-BFBE-38C9697B1DC3}" name="支付宝" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{37AC6B7D-8DE6-EA44-989F-87DDDBECA772}" name="微信" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00BE3057-47F6-7B4F-87A9-6B0CC4188CEF}" name="现金" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{B6C7CF2F-B1B2-3E49-8ACD-DD1A2CA77F01}" name="银行卡" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10264,8 +10340,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4A8A3C27-EB59-8440-9FAF-B3CF2592953D}" name="表8" displayName="表8" ref="A1:AR3" totalsRowShown="0">
   <autoFilter ref="A1:AR3" xr:uid="{0F1C729B-8ECB-2146-BFBD-8CF0DB869F75}"/>
   <tableColumns count="44">
-    <tableColumn id="3" xr3:uid="{2581BCC0-F69D-6B4D-AEC8-D0030C419CB3}" name="起始日期2" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{95E26320-E744-E549-B533-39AC4179085D}" name="结束日期3" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{2581BCC0-F69D-6B4D-AEC8-D0030C419CB3}" name="起始日期2" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{95E26320-E744-E549-B533-39AC4179085D}" name="结束日期3" dataDxfId="6"/>
     <tableColumn id="5" xr3:uid="{017C7CC6-7A50-E14C-9010-4A96C3E17AAE}" name="周次"/>
     <tableColumn id="6" xr3:uid="{5013C261-37F5-024E-8869-62C7BB939C64}" name="总计"/>
     <tableColumn id="7" xr3:uid="{86979D30-41EE-6C4C-B773-E0842C968F33}" name="0:00"/>
@@ -10317,8 +10393,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{02022759-1D6A-1B48-A9EF-B4775205DB9B}" name="表10" displayName="表10" ref="A1:AR2" totalsRowShown="0">
   <autoFilter ref="A1:AR2" xr:uid="{2368815E-0083-7C4E-AFD6-5BD45387C155}"/>
   <tableColumns count="44">
-    <tableColumn id="1" xr3:uid="{C0F5CD09-98E8-DD4D-8B07-7A63CBC46885}" name="起始日期" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{310700D5-AA51-6C4F-9C4C-EBF3E9EFEA2B}" name="结束日期" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{C0F5CD09-98E8-DD4D-8B07-7A63CBC46885}" name="起始日期" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{310700D5-AA51-6C4F-9C4C-EBF3E9EFEA2B}" name="结束日期" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{E3BB613C-2E5A-4046-9257-D1DB5057AC50}" name="月份"/>
     <tableColumn id="4" xr3:uid="{581D6C9B-0675-814D-8E48-FE3CBE3222FF}" name="总计"/>
     <tableColumn id="5" xr3:uid="{8CD512E4-B465-1948-AD0C-9D92E154A27C}" name="0:00"/>
@@ -10383,12 +10459,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{90CCD7A2-463A-D647-96DA-22DFD0FBF9A0}" name="表3" displayName="表3" ref="A1:AP32" totalsRowShown="0">
   <autoFilter ref="A1:AP32" xr:uid="{506FB319-DAC5-C74F-9129-972A005A58DA}"/>
   <tableColumns count="42">
-    <tableColumn id="1" xr3:uid="{F034F842-B0D4-7C49-92AC-92126BFED303}" name="日期" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{F034F842-B0D4-7C49-92AC-92126BFED303}" name="日期" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{E4A20DC4-BCAA-5A4C-8F92-7768890FB62A}" name="总计">
       <calculatedColumnFormula>SUMIF(records!A2:A247, template!A2, records!E2:E247)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{4634C45B-FA6E-3A4F-A29C-00438EE32653}" name="0:00"/>
-    <tableColumn id="4" xr3:uid="{FAE9234B-318D-7D47-AF72-AE2A681B63D3}" name="1:00" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{FAE9234B-318D-7D47-AF72-AE2A681B63D3}" name="1:00" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{C3E9F398-2977-274F-AC07-745B24EA6D5B}" name="2:00"/>
     <tableColumn id="6" xr3:uid="{538DED39-B589-734E-A6B3-BC72BF0D9B0D}" name="3:00"/>
     <tableColumn id="7" xr3:uid="{108D9D1B-57A3-B849-9C65-4BBC2558EB2F}" name="4:00"/>
@@ -10489,8 +10565,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9E9531E0-077A-C14A-B48F-4B3304B57241}" name="表9" displayName="表9" ref="A40:AR41" totalsRowShown="0">
   <autoFilter ref="A40:AR41" xr:uid="{76002C9A-0A0E-6F40-A4AF-4AD85C0C63A4}"/>
   <tableColumns count="44">
-    <tableColumn id="1" xr3:uid="{4B46A71B-91FB-1542-AB1C-88155CE27D04}" name="起始日期" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{8482E588-E7EF-7B49-8CA8-6F2A7133DEAD}" name="结束日期" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{4B46A71B-91FB-1542-AB1C-88155CE27D04}" name="起始日期" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{8482E588-E7EF-7B49-8CA8-6F2A7133DEAD}" name="结束日期" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{92055967-689A-EC42-B55A-6B47F10291F6}" name="月份"/>
     <tableColumn id="4" xr3:uid="{55866787-4B70-3048-A457-F0AE2ECD6322}" name="总计">
       <calculatedColumnFormula>SUMIFS(day!B3:B55,day!A3:A55,"&gt;="&amp;template!A41,day!A3:A55,"&lt;="&amp;template!B41)</calculatedColumnFormula>
@@ -10623,7 +10699,7 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{11A792C6-3B2B-EB45-B402-6B17FF6ECC12}" name="表2_12" displayName="表2_12" ref="K33:S41" totalsRowShown="0" headerRowDxfId="253" dataDxfId="251" headerRowBorderDxfId="252" tableBorderDxfId="250">
   <autoFilter ref="K33:S41" xr:uid="{BF5DEAC1-034C-6E4F-BFC7-2363B9047242}"/>
-  <sortState ref="K34:S60">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K34:S60">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
@@ -10645,7 +10721,7 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{8E6CF227-0B2A-9943-95A9-E98C28AA3996}" name="表2_1213" displayName="表2_1213" ref="K44:S50" totalsRowShown="0" headerRowDxfId="240" dataDxfId="238" headerRowBorderDxfId="239" tableBorderDxfId="237">
   <autoFilter ref="K44:S50" xr:uid="{DBBD540D-9ACB-A74D-BB39-A853F97094BD}"/>
-  <sortState ref="K45:S69">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K45:S69">
     <sortCondition ref="K2:K29"/>
     <sortCondition ref="L2:L29"/>
   </sortState>
@@ -10667,7 +10743,7 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{85D5A6C9-0983-1F49-9E7D-1C7D322B37A0}" name="表2_121315" displayName="表2_121315" ref="K77:S84" totalsRowShown="0" headerRowDxfId="227" dataDxfId="225" headerRowBorderDxfId="226" tableBorderDxfId="224">
   <autoFilter ref="K77:S84" xr:uid="{835B7ABE-F456-CF45-8A7D-5507E998E23E}"/>
-  <sortState ref="K78:S103">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K78:S103">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
@@ -10689,7 +10765,7 @@
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{5A08404A-170A-AF43-8E1D-DF9862393746}" name="表2_12131516" displayName="表2_12131516" ref="K87:S91" totalsRowShown="0" headerRowDxfId="214" dataDxfId="212" headerRowBorderDxfId="213" tableBorderDxfId="211">
   <autoFilter ref="K87:S91" xr:uid="{94896363-E9F6-6743-B1C8-ACC0B149BEDF}"/>
-  <sortState ref="K88:S110">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K88:S110">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
@@ -10731,7 +10807,7 @@
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{606E3E97-D81D-AB41-BA99-E007537886BF}" name="表2_1213151620" displayName="表2_1213151620" ref="K94:S100" totalsRowShown="0" headerRowDxfId="185" dataDxfId="183" headerRowBorderDxfId="184" tableBorderDxfId="182">
   <autoFilter ref="K94:S100" xr:uid="{2674F753-E0FA-1844-8EF2-AF7541B04290}"/>
-  <sortState ref="K95:S119">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K95:S119">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
@@ -10753,7 +10829,7 @@
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{65F04204-4685-BD44-A9A9-528E74381FD5}" name="表2_121315162021" displayName="表2_121315162021" ref="K103:S109" totalsRowShown="0" headerRowDxfId="172" dataDxfId="170" headerRowBorderDxfId="171" tableBorderDxfId="169">
   <autoFilter ref="K103:S109" xr:uid="{667113CE-E40C-644A-9375-DFFA158F767D}"/>
-  <sortState ref="K104:S128">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K104:S128">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
@@ -11071,8 +11147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C81ADFD-2D83-574A-AD81-B8046C388F80}">
   <dimension ref="A1:V297"/>
   <sheetViews>
-    <sheetView topLeftCell="A208" zoomScale="88" workbookViewId="0">
-      <selection activeCell="D224" sqref="D224"/>
+    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="88" workbookViewId="0">
+      <selection activeCell="H233" sqref="H233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13861,19 +13937,19 @@
       <c r="I52" t="s">
         <v>141</v>
       </c>
-      <c r="K52" s="42" t="s">
+      <c r="K52" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="L52" s="42"/>
-      <c r="M52" s="42"/>
-      <c r="N52" s="42"/>
-      <c r="O52" s="42"/>
-      <c r="P52" s="42"/>
-      <c r="Q52" s="42"/>
-      <c r="R52" s="42"/>
-      <c r="S52" s="42"/>
-      <c r="T52" s="42"/>
-      <c r="U52" s="42"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="41"/>
+      <c r="N52" s="41"/>
+      <c r="O52" s="41"/>
+      <c r="P52" s="41"/>
+      <c r="Q52" s="41"/>
+      <c r="R52" s="41"/>
+      <c r="S52" s="41"/>
+      <c r="T52" s="41"/>
+      <c r="U52" s="41"/>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="1">
@@ -14304,20 +14380,20 @@
       <c r="I60" t="s">
         <v>231</v>
       </c>
-      <c r="K60" s="42" t="s">
+      <c r="K60" s="41" t="s">
         <v>666</v>
       </c>
-      <c r="L60" s="42"/>
-      <c r="M60" s="42"/>
-      <c r="N60" s="42"/>
-      <c r="O60" s="42"/>
-      <c r="P60" s="42"/>
-      <c r="Q60" s="42"/>
-      <c r="R60" s="42"/>
-      <c r="S60" s="42"/>
-      <c r="T60" s="42"/>
-      <c r="U60" s="42"/>
-      <c r="V60" s="42"/>
+      <c r="L60" s="41"/>
+      <c r="M60" s="41"/>
+      <c r="N60" s="41"/>
+      <c r="O60" s="41"/>
+      <c r="P60" s="41"/>
+      <c r="Q60" s="41"/>
+      <c r="R60" s="41"/>
+      <c r="S60" s="41"/>
+      <c r="T60" s="41"/>
+      <c r="U60" s="41"/>
+      <c r="V60" s="41"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="1">
@@ -16812,17 +16888,17 @@
       <c r="I111" t="s">
         <v>340</v>
       </c>
-      <c r="K111" s="41" t="s">
+      <c r="K111" s="42" t="s">
         <v>448</v>
       </c>
-      <c r="L111" s="41"/>
-      <c r="M111" s="41"/>
-      <c r="N111" s="41"/>
-      <c r="O111" s="41"/>
-      <c r="P111" s="41"/>
-      <c r="Q111" s="41"/>
-      <c r="R111" s="41"/>
-      <c r="S111" s="41"/>
+      <c r="L111" s="42"/>
+      <c r="M111" s="42"/>
+      <c r="N111" s="42"/>
+      <c r="O111" s="42"/>
+      <c r="P111" s="42"/>
+      <c r="Q111" s="42"/>
+      <c r="R111" s="42"/>
+      <c r="S111" s="42"/>
     </row>
     <row r="112" spans="1:19">
       <c r="A112" s="1">
@@ -18934,20 +19010,20 @@
       <c r="I153" t="s">
         <v>415</v>
       </c>
-      <c r="K153" s="42" t="s">
+      <c r="K153" s="41" t="s">
         <v>597</v>
       </c>
-      <c r="L153" s="42"/>
-      <c r="M153" s="42"/>
-      <c r="N153" s="42"/>
-      <c r="O153" s="42"/>
-      <c r="P153" s="42"/>
-      <c r="Q153" s="42"/>
-      <c r="R153" s="42"/>
-      <c r="S153" s="42"/>
-      <c r="T153" s="42"/>
-      <c r="U153" s="42"/>
-      <c r="V153" s="42"/>
+      <c r="L153" s="41"/>
+      <c r="M153" s="41"/>
+      <c r="N153" s="41"/>
+      <c r="O153" s="41"/>
+      <c r="P153" s="41"/>
+      <c r="Q153" s="41"/>
+      <c r="R153" s="41"/>
+      <c r="S153" s="41"/>
+      <c r="T153" s="41"/>
+      <c r="U153" s="41"/>
+      <c r="V153" s="41"/>
     </row>
     <row r="154" spans="1:22">
       <c r="A154" s="1">
@@ -22676,8 +22752,30 @@
       </c>
     </row>
     <row r="223" spans="1:19">
-      <c r="A223" s="1"/>
-      <c r="B223" s="2"/>
+      <c r="A223" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B223" s="2">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="C223" t="s">
+        <v>0</v>
+      </c>
+      <c r="D223" t="s">
+        <v>935</v>
+      </c>
+      <c r="E223">
+        <v>2</v>
+      </c>
+      <c r="F223" t="s">
+        <v>23</v>
+      </c>
+      <c r="G223" t="s">
+        <v>24</v>
+      </c>
+      <c r="H223" t="s">
+        <v>25</v>
+      </c>
       <c r="K223" s="1">
         <v>43886</v>
       </c>
@@ -22707,8 +22805,30 @@
       </c>
     </row>
     <row r="224" spans="1:19">
-      <c r="A224" s="1"/>
-      <c r="B224" s="2"/>
+      <c r="A224" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B224" s="2">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="C224" t="s">
+        <v>260</v>
+      </c>
+      <c r="D224" t="s">
+        <v>44</v>
+      </c>
+      <c r="E224">
+        <v>20</v>
+      </c>
+      <c r="F224" t="s">
+        <v>20</v>
+      </c>
+      <c r="G224" t="s">
+        <v>24</v>
+      </c>
+      <c r="H224" t="s">
+        <v>895</v>
+      </c>
       <c r="K224" s="1">
         <v>43886</v>
       </c>
@@ -22738,8 +22858,30 @@
       </c>
     </row>
     <row r="225" spans="1:19">
-      <c r="A225" s="1"/>
-      <c r="B225" s="2"/>
+      <c r="A225" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B225" s="2">
+        <v>0.35347222222222219</v>
+      </c>
+      <c r="C225" t="s">
+        <v>932</v>
+      </c>
+      <c r="D225" t="s">
+        <v>933</v>
+      </c>
+      <c r="E225">
+        <v>1.5</v>
+      </c>
+      <c r="F225" t="s">
+        <v>23</v>
+      </c>
+      <c r="G225" t="s">
+        <v>24</v>
+      </c>
+      <c r="H225" t="s">
+        <v>934</v>
+      </c>
       <c r="K225" s="1">
         <v>43886</v>
       </c>
@@ -22769,8 +22911,30 @@
       </c>
     </row>
     <row r="226" spans="1:19">
-      <c r="A226" s="1"/>
-      <c r="B226" s="2"/>
+      <c r="A226" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B226" s="2">
+        <v>0.35902777777777778</v>
+      </c>
+      <c r="C226" t="s">
+        <v>427</v>
+      </c>
+      <c r="D226" t="s">
+        <v>931</v>
+      </c>
+      <c r="E226">
+        <v>7</v>
+      </c>
+      <c r="F226" t="s">
+        <v>23</v>
+      </c>
+      <c r="G226" t="s">
+        <v>24</v>
+      </c>
+      <c r="H226" t="s">
+        <v>918</v>
+      </c>
       <c r="K226" s="1">
         <v>43886</v>
       </c>
@@ -22800,8 +22964,30 @@
       </c>
     </row>
     <row r="227" spans="1:19">
-      <c r="A227" s="1"/>
-      <c r="B227" s="2"/>
+      <c r="A227" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B227" s="2">
+        <v>0.37013888888888885</v>
+      </c>
+      <c r="C227" t="s">
+        <v>929</v>
+      </c>
+      <c r="D227" t="s">
+        <v>930</v>
+      </c>
+      <c r="E227">
+        <v>20</v>
+      </c>
+      <c r="F227" t="s">
+        <v>23</v>
+      </c>
+      <c r="G227" t="s">
+        <v>24</v>
+      </c>
+      <c r="H227" t="s">
+        <v>251</v>
+      </c>
       <c r="K227" s="1">
         <v>43886</v>
       </c>
@@ -22831,8 +23017,30 @@
       </c>
     </row>
     <row r="228" spans="1:19">
-      <c r="A228" s="1"/>
-      <c r="B228" s="2"/>
+      <c r="A228" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B228" s="2">
+        <v>0.52847222222222223</v>
+      </c>
+      <c r="C228" t="s">
+        <v>936</v>
+      </c>
+      <c r="D228" t="s">
+        <v>943</v>
+      </c>
+      <c r="E228">
+        <v>18</v>
+      </c>
+      <c r="F228" t="s">
+        <v>20</v>
+      </c>
+      <c r="G228" t="s">
+        <v>24</v>
+      </c>
+      <c r="H228" t="s">
+        <v>944</v>
+      </c>
       <c r="K228" s="1">
         <v>43886</v>
       </c>
@@ -22862,8 +23070,30 @@
       </c>
     </row>
     <row r="229" spans="1:19">
-      <c r="A229" s="1"/>
-      <c r="B229" s="2"/>
+      <c r="A229" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B229" s="2">
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="C229" t="s">
+        <v>53</v>
+      </c>
+      <c r="D229" t="s">
+        <v>942</v>
+      </c>
+      <c r="E229">
+        <v>5.04</v>
+      </c>
+      <c r="F229" t="s">
+        <v>191</v>
+      </c>
+      <c r="G229" t="s">
+        <v>24</v>
+      </c>
+      <c r="H229" t="s">
+        <v>56</v>
+      </c>
       <c r="K229" s="1">
         <v>43886</v>
       </c>
@@ -22893,8 +23123,30 @@
       </c>
     </row>
     <row r="230" spans="1:19">
-      <c r="A230" s="1"/>
-      <c r="B230" s="2"/>
+      <c r="A230" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B230" s="2">
+        <v>0.68541666666666667</v>
+      </c>
+      <c r="C230" t="s">
+        <v>0</v>
+      </c>
+      <c r="D230" t="s">
+        <v>941</v>
+      </c>
+      <c r="E230">
+        <v>5</v>
+      </c>
+      <c r="F230" t="s">
+        <v>23</v>
+      </c>
+      <c r="G230" t="s">
+        <v>24</v>
+      </c>
+      <c r="H230" t="s">
+        <v>25</v>
+      </c>
       <c r="K230" s="1">
         <v>43886</v>
       </c>
@@ -22924,8 +23176,33 @@
       </c>
     </row>
     <row r="231" spans="1:19">
-      <c r="A231" s="1"/>
-      <c r="B231" s="2"/>
+      <c r="A231" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B231" s="2">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="C231" t="s">
+        <v>427</v>
+      </c>
+      <c r="D231" t="s">
+        <v>939</v>
+      </c>
+      <c r="E231">
+        <v>3.5</v>
+      </c>
+      <c r="F231" t="s">
+        <v>287</v>
+      </c>
+      <c r="G231" t="s">
+        <v>24</v>
+      </c>
+      <c r="H231" t="s">
+        <v>940</v>
+      </c>
+      <c r="I231" t="s">
+        <v>937</v>
+      </c>
       <c r="K231" s="1">
         <v>43886</v>
       </c>
@@ -22955,8 +23232,30 @@
       </c>
     </row>
     <row r="232" spans="1:19">
-      <c r="A232" s="1"/>
-      <c r="B232" s="2"/>
+      <c r="A232" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B232" s="2">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="C232" t="s">
+        <v>936</v>
+      </c>
+      <c r="D232" t="s">
+        <v>937</v>
+      </c>
+      <c r="E232">
+        <v>14</v>
+      </c>
+      <c r="F232" t="s">
+        <v>23</v>
+      </c>
+      <c r="G232" t="s">
+        <v>24</v>
+      </c>
+      <c r="H232" t="s">
+        <v>938</v>
+      </c>
       <c r="K232" s="1">
         <v>43886</v>
       </c>
@@ -22986,8 +23285,30 @@
       </c>
     </row>
     <row r="233" spans="1:19">
-      <c r="A233" s="1"/>
-      <c r="B233" s="2"/>
+      <c r="A233" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B233" s="2">
+        <v>0.77638888888888891</v>
+      </c>
+      <c r="C233" t="s">
+        <v>945</v>
+      </c>
+      <c r="D233" t="s">
+        <v>946</v>
+      </c>
+      <c r="E233">
+        <v>22</v>
+      </c>
+      <c r="F233" t="s">
+        <v>20</v>
+      </c>
+      <c r="G233" t="s">
+        <v>24</v>
+      </c>
+      <c r="H233" t="s">
+        <v>947</v>
+      </c>
       <c r="K233" s="1">
         <v>43886</v>
       </c>
@@ -23186,20 +23507,20 @@
     <row r="241" spans="1:22">
       <c r="A241" s="1"/>
       <c r="B241" s="2"/>
-      <c r="K241" s="42" t="s">
+      <c r="K241" s="41" t="s">
         <v>767</v>
       </c>
-      <c r="L241" s="42"/>
-      <c r="M241" s="42"/>
-      <c r="N241" s="42"/>
-      <c r="O241" s="42"/>
-      <c r="P241" s="42"/>
-      <c r="Q241" s="42"/>
-      <c r="R241" s="42"/>
-      <c r="S241" s="42"/>
-      <c r="T241" s="42"/>
-      <c r="U241" s="42"/>
-      <c r="V241" s="42"/>
+      <c r="L241" s="41"/>
+      <c r="M241" s="41"/>
+      <c r="N241" s="41"/>
+      <c r="O241" s="41"/>
+      <c r="P241" s="41"/>
+      <c r="Q241" s="41"/>
+      <c r="R241" s="41"/>
+      <c r="S241" s="41"/>
+      <c r="T241" s="41"/>
+      <c r="U241" s="41"/>
+      <c r="V241" s="41"/>
     </row>
     <row r="242" spans="1:22">
       <c r="A242" s="1"/>
@@ -23530,20 +23851,20 @@
       <c r="U250" s="35"/>
     </row>
     <row r="252" spans="1:22">
-      <c r="K252" s="42" t="s">
+      <c r="K252" s="41" t="s">
         <v>802</v>
       </c>
-      <c r="L252" s="42"/>
-      <c r="M252" s="42"/>
-      <c r="N252" s="42"/>
-      <c r="O252" s="42"/>
-      <c r="P252" s="42"/>
-      <c r="Q252" s="42"/>
-      <c r="R252" s="42"/>
-      <c r="S252" s="42"/>
-      <c r="T252" s="42"/>
-      <c r="U252" s="42"/>
-      <c r="V252" s="42"/>
+      <c r="L252" s="41"/>
+      <c r="M252" s="41"/>
+      <c r="N252" s="41"/>
+      <c r="O252" s="41"/>
+      <c r="P252" s="41"/>
+      <c r="Q252" s="41"/>
+      <c r="R252" s="41"/>
+      <c r="S252" s="41"/>
+      <c r="T252" s="41"/>
+      <c r="U252" s="41"/>
+      <c r="V252" s="41"/>
     </row>
     <row r="253" spans="1:22">
       <c r="K253" s="9" t="s">
@@ -24780,12 +25101,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K289:S289"/>
-    <mergeCell ref="K265:S265"/>
-    <mergeCell ref="K60:V60"/>
-    <mergeCell ref="K252:V252"/>
-    <mergeCell ref="K214:S214"/>
-    <mergeCell ref="K241:V241"/>
     <mergeCell ref="K1:U1"/>
     <mergeCell ref="K32:S32"/>
     <mergeCell ref="K76:S76"/>
@@ -24799,6 +25114,12 @@
     <mergeCell ref="K102:S102"/>
     <mergeCell ref="K130:S130"/>
     <mergeCell ref="K153:V153"/>
+    <mergeCell ref="K289:S289"/>
+    <mergeCell ref="K265:S265"/>
+    <mergeCell ref="K60:V60"/>
+    <mergeCell ref="K252:V252"/>
+    <mergeCell ref="K214:S214"/>
+    <mergeCell ref="K241:V241"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="13">
@@ -24876,7 +25197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB2B069-B7D1-B241-94FB-BD2BABA4F21B}">
   <dimension ref="A1:AV29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -24886,34 +25207,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
       <c r="AB1" s="43" t="s">
         <v>327</v>
       </c>
@@ -24922,22 +25243,22 @@
       <c r="AE1" s="43"/>
       <c r="AF1" s="43"/>
       <c r="AG1" s="43"/>
-      <c r="AI1" s="41" t="s">
+      <c r="AI1" s="42" t="s">
         <v>328</v>
       </c>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="41"/>
-      <c r="AV1" s="41"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="42"/>
+      <c r="AP1" s="42"/>
+      <c r="AQ1" s="42"/>
+      <c r="AR1" s="42"/>
+      <c r="AS1" s="42"/>
+      <c r="AT1" s="42"/>
+      <c r="AU1" s="42"/>
+      <c r="AV1" s="42"/>
     </row>
     <row r="2" spans="1:48">
       <c r="A2" t="s">

--- a/excel/ledger.xlsx
+++ b/excel/ledger.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5C67D1-D596-3B4D-A930-4E4FC5155B29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB83FAFD-6144-8147-928C-2958820E5241}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17460" yWindow="2760" windowWidth="14380" windowHeight="16440" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3134" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3145" uniqueCount="952">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3677,6 +3677,22 @@
   </si>
   <si>
     <t>黔派虾子羊肉粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芹菜香干回锅肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦罐汤木桶饭门店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回锅肉太硬了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3996,10 +4012,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -11148,7 +11164,7 @@
   <dimension ref="A1:V297"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A208" zoomScale="88" workbookViewId="0">
-      <selection activeCell="H233" sqref="H233"/>
+      <selection activeCell="E241" sqref="E241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13937,19 +13953,19 @@
       <c r="I52" t="s">
         <v>141</v>
       </c>
-      <c r="K52" s="41" t="s">
+      <c r="K52" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="L52" s="41"/>
-      <c r="M52" s="41"/>
-      <c r="N52" s="41"/>
-      <c r="O52" s="41"/>
-      <c r="P52" s="41"/>
-      <c r="Q52" s="41"/>
-      <c r="R52" s="41"/>
-      <c r="S52" s="41"/>
-      <c r="T52" s="41"/>
-      <c r="U52" s="41"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="42"/>
+      <c r="R52" s="42"/>
+      <c r="S52" s="42"/>
+      <c r="T52" s="42"/>
+      <c r="U52" s="42"/>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="1">
@@ -14380,20 +14396,20 @@
       <c r="I60" t="s">
         <v>231</v>
       </c>
-      <c r="K60" s="41" t="s">
+      <c r="K60" s="42" t="s">
         <v>666</v>
       </c>
-      <c r="L60" s="41"/>
-      <c r="M60" s="41"/>
-      <c r="N60" s="41"/>
-      <c r="O60" s="41"/>
-      <c r="P60" s="41"/>
-      <c r="Q60" s="41"/>
-      <c r="R60" s="41"/>
-      <c r="S60" s="41"/>
-      <c r="T60" s="41"/>
-      <c r="U60" s="41"/>
-      <c r="V60" s="41"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="42"/>
+      <c r="P60" s="42"/>
+      <c r="Q60" s="42"/>
+      <c r="R60" s="42"/>
+      <c r="S60" s="42"/>
+      <c r="T60" s="42"/>
+      <c r="U60" s="42"/>
+      <c r="V60" s="42"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="1">
@@ -16888,17 +16904,17 @@
       <c r="I111" t="s">
         <v>340</v>
       </c>
-      <c r="K111" s="42" t="s">
+      <c r="K111" s="41" t="s">
         <v>448</v>
       </c>
-      <c r="L111" s="42"/>
-      <c r="M111" s="42"/>
-      <c r="N111" s="42"/>
-      <c r="O111" s="42"/>
-      <c r="P111" s="42"/>
-      <c r="Q111" s="42"/>
-      <c r="R111" s="42"/>
-      <c r="S111" s="42"/>
+      <c r="L111" s="41"/>
+      <c r="M111" s="41"/>
+      <c r="N111" s="41"/>
+      <c r="O111" s="41"/>
+      <c r="P111" s="41"/>
+      <c r="Q111" s="41"/>
+      <c r="R111" s="41"/>
+      <c r="S111" s="41"/>
     </row>
     <row r="112" spans="1:19">
       <c r="A112" s="1">
@@ -19010,20 +19026,20 @@
       <c r="I153" t="s">
         <v>415</v>
       </c>
-      <c r="K153" s="41" t="s">
+      <c r="K153" s="42" t="s">
         <v>597</v>
       </c>
-      <c r="L153" s="41"/>
-      <c r="M153" s="41"/>
-      <c r="N153" s="41"/>
-      <c r="O153" s="41"/>
-      <c r="P153" s="41"/>
-      <c r="Q153" s="41"/>
-      <c r="R153" s="41"/>
-      <c r="S153" s="41"/>
-      <c r="T153" s="41"/>
-      <c r="U153" s="41"/>
-      <c r="V153" s="41"/>
+      <c r="L153" s="42"/>
+      <c r="M153" s="42"/>
+      <c r="N153" s="42"/>
+      <c r="O153" s="42"/>
+      <c r="P153" s="42"/>
+      <c r="Q153" s="42"/>
+      <c r="R153" s="42"/>
+      <c r="S153" s="42"/>
+      <c r="T153" s="42"/>
+      <c r="U153" s="42"/>
+      <c r="V153" s="42"/>
     </row>
     <row r="154" spans="1:22">
       <c r="A154" s="1">
@@ -23335,8 +23351,33 @@
       </c>
     </row>
     <row r="234" spans="1:19">
-      <c r="A234" s="1"/>
-      <c r="B234" s="2"/>
+      <c r="A234" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B234" s="2">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="C234" t="s">
+        <v>936</v>
+      </c>
+      <c r="D234" t="s">
+        <v>949</v>
+      </c>
+      <c r="E234">
+        <v>17</v>
+      </c>
+      <c r="F234" t="s">
+        <v>20</v>
+      </c>
+      <c r="G234" t="s">
+        <v>24</v>
+      </c>
+      <c r="H234" t="s">
+        <v>950</v>
+      </c>
+      <c r="I234" t="s">
+        <v>951</v>
+      </c>
       <c r="K234" s="1">
         <v>43886</v>
       </c>
@@ -23366,8 +23407,30 @@
       </c>
     </row>
     <row r="235" spans="1:19">
-      <c r="A235" s="1"/>
-      <c r="B235" s="2"/>
+      <c r="A235" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B235" s="2">
+        <v>0.78125</v>
+      </c>
+      <c r="C235" t="s">
+        <v>945</v>
+      </c>
+      <c r="D235" t="s">
+        <v>948</v>
+      </c>
+      <c r="E235">
+        <v>16</v>
+      </c>
+      <c r="F235" t="s">
+        <v>20</v>
+      </c>
+      <c r="G235" t="s">
+        <v>24</v>
+      </c>
+      <c r="H235" t="s">
+        <v>938</v>
+      </c>
       <c r="K235" s="1">
         <v>43886</v>
       </c>
@@ -23507,20 +23570,20 @@
     <row r="241" spans="1:22">
       <c r="A241" s="1"/>
       <c r="B241" s="2"/>
-      <c r="K241" s="41" t="s">
+      <c r="K241" s="42" t="s">
         <v>767</v>
       </c>
-      <c r="L241" s="41"/>
-      <c r="M241" s="41"/>
-      <c r="N241" s="41"/>
-      <c r="O241" s="41"/>
-      <c r="P241" s="41"/>
-      <c r="Q241" s="41"/>
-      <c r="R241" s="41"/>
-      <c r="S241" s="41"/>
-      <c r="T241" s="41"/>
-      <c r="U241" s="41"/>
-      <c r="V241" s="41"/>
+      <c r="L241" s="42"/>
+      <c r="M241" s="42"/>
+      <c r="N241" s="42"/>
+      <c r="O241" s="42"/>
+      <c r="P241" s="42"/>
+      <c r="Q241" s="42"/>
+      <c r="R241" s="42"/>
+      <c r="S241" s="42"/>
+      <c r="T241" s="42"/>
+      <c r="U241" s="42"/>
+      <c r="V241" s="42"/>
     </row>
     <row r="242" spans="1:22">
       <c r="A242" s="1"/>
@@ -23851,20 +23914,20 @@
       <c r="U250" s="35"/>
     </row>
     <row r="252" spans="1:22">
-      <c r="K252" s="41" t="s">
+      <c r="K252" s="42" t="s">
         <v>802</v>
       </c>
-      <c r="L252" s="41"/>
-      <c r="M252" s="41"/>
-      <c r="N252" s="41"/>
-      <c r="O252" s="41"/>
-      <c r="P252" s="41"/>
-      <c r="Q252" s="41"/>
-      <c r="R252" s="41"/>
-      <c r="S252" s="41"/>
-      <c r="T252" s="41"/>
-      <c r="U252" s="41"/>
-      <c r="V252" s="41"/>
+      <c r="L252" s="42"/>
+      <c r="M252" s="42"/>
+      <c r="N252" s="42"/>
+      <c r="O252" s="42"/>
+      <c r="P252" s="42"/>
+      <c r="Q252" s="42"/>
+      <c r="R252" s="42"/>
+      <c r="S252" s="42"/>
+      <c r="T252" s="42"/>
+      <c r="U252" s="42"/>
+      <c r="V252" s="42"/>
     </row>
     <row r="253" spans="1:22">
       <c r="K253" s="9" t="s">
@@ -25101,6 +25164,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="K289:S289"/>
+    <mergeCell ref="K265:S265"/>
+    <mergeCell ref="K60:V60"/>
+    <mergeCell ref="K252:V252"/>
+    <mergeCell ref="K214:S214"/>
+    <mergeCell ref="K241:V241"/>
     <mergeCell ref="K1:U1"/>
     <mergeCell ref="K32:S32"/>
     <mergeCell ref="K76:S76"/>
@@ -25114,12 +25183,6 @@
     <mergeCell ref="K102:S102"/>
     <mergeCell ref="K130:S130"/>
     <mergeCell ref="K153:V153"/>
-    <mergeCell ref="K289:S289"/>
-    <mergeCell ref="K265:S265"/>
-    <mergeCell ref="K60:V60"/>
-    <mergeCell ref="K252:V252"/>
-    <mergeCell ref="K214:S214"/>
-    <mergeCell ref="K241:V241"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="13">
@@ -25207,34 +25270,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
       <c r="AB1" s="43" t="s">
         <v>327</v>
       </c>
@@ -25243,22 +25306,22 @@
       <c r="AE1" s="43"/>
       <c r="AF1" s="43"/>
       <c r="AG1" s="43"/>
-      <c r="AI1" s="42" t="s">
+      <c r="AI1" s="41" t="s">
         <v>328</v>
       </c>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="42"/>
-      <c r="AL1" s="42"/>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="42"/>
-      <c r="AP1" s="42"/>
-      <c r="AQ1" s="42"/>
-      <c r="AR1" s="42"/>
-      <c r="AS1" s="42"/>
-      <c r="AT1" s="42"/>
-      <c r="AU1" s="42"/>
-      <c r="AV1" s="42"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="41"/>
     </row>
     <row r="2" spans="1:48">
       <c r="A2" t="s">

--- a/excel/ledger.xlsx
+++ b/excel/ledger.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB83FAFD-6144-8147-928C-2958820E5241}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA886744-9741-B248-8000-A79BA5E7C48B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17460" yWindow="2760" windowWidth="14380" windowHeight="16440" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3145" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3155" uniqueCount="953">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3693,6 +3693,10 @@
   </si>
   <si>
     <t>回锅肉太硬了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香菇肉丁粉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4012,10 +4016,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -11164,7 +11168,7 @@
   <dimension ref="A1:V297"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A208" zoomScale="88" workbookViewId="0">
-      <selection activeCell="E241" sqref="E241"/>
+      <selection activeCell="D237" sqref="D237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13953,19 +13957,19 @@
       <c r="I52" t="s">
         <v>141</v>
       </c>
-      <c r="K52" s="42" t="s">
+      <c r="K52" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="L52" s="42"/>
-      <c r="M52" s="42"/>
-      <c r="N52" s="42"/>
-      <c r="O52" s="42"/>
-      <c r="P52" s="42"/>
-      <c r="Q52" s="42"/>
-      <c r="R52" s="42"/>
-      <c r="S52" s="42"/>
-      <c r="T52" s="42"/>
-      <c r="U52" s="42"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="41"/>
+      <c r="N52" s="41"/>
+      <c r="O52" s="41"/>
+      <c r="P52" s="41"/>
+      <c r="Q52" s="41"/>
+      <c r="R52" s="41"/>
+      <c r="S52" s="41"/>
+      <c r="T52" s="41"/>
+      <c r="U52" s="41"/>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="1">
@@ -14396,20 +14400,20 @@
       <c r="I60" t="s">
         <v>231</v>
       </c>
-      <c r="K60" s="42" t="s">
+      <c r="K60" s="41" t="s">
         <v>666</v>
       </c>
-      <c r="L60" s="42"/>
-      <c r="M60" s="42"/>
-      <c r="N60" s="42"/>
-      <c r="O60" s="42"/>
-      <c r="P60" s="42"/>
-      <c r="Q60" s="42"/>
-      <c r="R60" s="42"/>
-      <c r="S60" s="42"/>
-      <c r="T60" s="42"/>
-      <c r="U60" s="42"/>
-      <c r="V60" s="42"/>
+      <c r="L60" s="41"/>
+      <c r="M60" s="41"/>
+      <c r="N60" s="41"/>
+      <c r="O60" s="41"/>
+      <c r="P60" s="41"/>
+      <c r="Q60" s="41"/>
+      <c r="R60" s="41"/>
+      <c r="S60" s="41"/>
+      <c r="T60" s="41"/>
+      <c r="U60" s="41"/>
+      <c r="V60" s="41"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="1">
@@ -16904,17 +16908,17 @@
       <c r="I111" t="s">
         <v>340</v>
       </c>
-      <c r="K111" s="41" t="s">
+      <c r="K111" s="42" t="s">
         <v>448</v>
       </c>
-      <c r="L111" s="41"/>
-      <c r="M111" s="41"/>
-      <c r="N111" s="41"/>
-      <c r="O111" s="41"/>
-      <c r="P111" s="41"/>
-      <c r="Q111" s="41"/>
-      <c r="R111" s="41"/>
-      <c r="S111" s="41"/>
+      <c r="L111" s="42"/>
+      <c r="M111" s="42"/>
+      <c r="N111" s="42"/>
+      <c r="O111" s="42"/>
+      <c r="P111" s="42"/>
+      <c r="Q111" s="42"/>
+      <c r="R111" s="42"/>
+      <c r="S111" s="42"/>
     </row>
     <row r="112" spans="1:19">
       <c r="A112" s="1">
@@ -19026,20 +19030,20 @@
       <c r="I153" t="s">
         <v>415</v>
       </c>
-      <c r="K153" s="42" t="s">
+      <c r="K153" s="41" t="s">
         <v>597</v>
       </c>
-      <c r="L153" s="42"/>
-      <c r="M153" s="42"/>
-      <c r="N153" s="42"/>
-      <c r="O153" s="42"/>
-      <c r="P153" s="42"/>
-      <c r="Q153" s="42"/>
-      <c r="R153" s="42"/>
-      <c r="S153" s="42"/>
-      <c r="T153" s="42"/>
-      <c r="U153" s="42"/>
-      <c r="V153" s="42"/>
+      <c r="L153" s="41"/>
+      <c r="M153" s="41"/>
+      <c r="N153" s="41"/>
+      <c r="O153" s="41"/>
+      <c r="P153" s="41"/>
+      <c r="Q153" s="41"/>
+      <c r="R153" s="41"/>
+      <c r="S153" s="41"/>
+      <c r="T153" s="41"/>
+      <c r="U153" s="41"/>
+      <c r="V153" s="41"/>
     </row>
     <row r="154" spans="1:22">
       <c r="A154" s="1">
@@ -23460,8 +23464,30 @@
       </c>
     </row>
     <row r="236" spans="1:19">
-      <c r="A236" s="1"/>
-      <c r="B236" s="2"/>
+      <c r="A236" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B236" s="2">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="C236" t="s">
+        <v>945</v>
+      </c>
+      <c r="D236" t="s">
+        <v>948</v>
+      </c>
+      <c r="E236">
+        <v>16</v>
+      </c>
+      <c r="F236" t="s">
+        <v>20</v>
+      </c>
+      <c r="G236" t="s">
+        <v>24</v>
+      </c>
+      <c r="H236" t="s">
+        <v>938</v>
+      </c>
       <c r="K236" s="1">
         <v>43886</v>
       </c>
@@ -23491,8 +23517,30 @@
       </c>
     </row>
     <row r="237" spans="1:19">
-      <c r="A237" s="1"/>
-      <c r="B237" s="2"/>
+      <c r="A237" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B237" s="2">
+        <v>0.77569444444444446</v>
+      </c>
+      <c r="C237" t="s">
+        <v>945</v>
+      </c>
+      <c r="D237" t="s">
+        <v>952</v>
+      </c>
+      <c r="E237">
+        <v>20</v>
+      </c>
+      <c r="F237" t="s">
+        <v>20</v>
+      </c>
+      <c r="G237" t="s">
+        <v>24</v>
+      </c>
+      <c r="H237" t="s">
+        <v>947</v>
+      </c>
       <c r="K237" s="1">
         <v>43886</v>
       </c>
@@ -23570,20 +23618,20 @@
     <row r="241" spans="1:22">
       <c r="A241" s="1"/>
       <c r="B241" s="2"/>
-      <c r="K241" s="42" t="s">
+      <c r="K241" s="41" t="s">
         <v>767</v>
       </c>
-      <c r="L241" s="42"/>
-      <c r="M241" s="42"/>
-      <c r="N241" s="42"/>
-      <c r="O241" s="42"/>
-      <c r="P241" s="42"/>
-      <c r="Q241" s="42"/>
-      <c r="R241" s="42"/>
-      <c r="S241" s="42"/>
-      <c r="T241" s="42"/>
-      <c r="U241" s="42"/>
-      <c r="V241" s="42"/>
+      <c r="L241" s="41"/>
+      <c r="M241" s="41"/>
+      <c r="N241" s="41"/>
+      <c r="O241" s="41"/>
+      <c r="P241" s="41"/>
+      <c r="Q241" s="41"/>
+      <c r="R241" s="41"/>
+      <c r="S241" s="41"/>
+      <c r="T241" s="41"/>
+      <c r="U241" s="41"/>
+      <c r="V241" s="41"/>
     </row>
     <row r="242" spans="1:22">
       <c r="A242" s="1"/>
@@ -23914,20 +23962,20 @@
       <c r="U250" s="35"/>
     </row>
     <row r="252" spans="1:22">
-      <c r="K252" s="42" t="s">
+      <c r="K252" s="41" t="s">
         <v>802</v>
       </c>
-      <c r="L252" s="42"/>
-      <c r="M252" s="42"/>
-      <c r="N252" s="42"/>
-      <c r="O252" s="42"/>
-      <c r="P252" s="42"/>
-      <c r="Q252" s="42"/>
-      <c r="R252" s="42"/>
-      <c r="S252" s="42"/>
-      <c r="T252" s="42"/>
-      <c r="U252" s="42"/>
-      <c r="V252" s="42"/>
+      <c r="L252" s="41"/>
+      <c r="M252" s="41"/>
+      <c r="N252" s="41"/>
+      <c r="O252" s="41"/>
+      <c r="P252" s="41"/>
+      <c r="Q252" s="41"/>
+      <c r="R252" s="41"/>
+      <c r="S252" s="41"/>
+      <c r="T252" s="41"/>
+      <c r="U252" s="41"/>
+      <c r="V252" s="41"/>
     </row>
     <row r="253" spans="1:22">
       <c r="K253" s="9" t="s">
@@ -25164,12 +25212,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K289:S289"/>
-    <mergeCell ref="K265:S265"/>
-    <mergeCell ref="K60:V60"/>
-    <mergeCell ref="K252:V252"/>
-    <mergeCell ref="K214:S214"/>
-    <mergeCell ref="K241:V241"/>
     <mergeCell ref="K1:U1"/>
     <mergeCell ref="K32:S32"/>
     <mergeCell ref="K76:S76"/>
@@ -25183,6 +25225,12 @@
     <mergeCell ref="K102:S102"/>
     <mergeCell ref="K130:S130"/>
     <mergeCell ref="K153:V153"/>
+    <mergeCell ref="K289:S289"/>
+    <mergeCell ref="K265:S265"/>
+    <mergeCell ref="K60:V60"/>
+    <mergeCell ref="K252:V252"/>
+    <mergeCell ref="K214:S214"/>
+    <mergeCell ref="K241:V241"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="13">
@@ -25270,34 +25318,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
       <c r="AB1" s="43" t="s">
         <v>327</v>
       </c>
@@ -25306,22 +25354,22 @@
       <c r="AE1" s="43"/>
       <c r="AF1" s="43"/>
       <c r="AG1" s="43"/>
-      <c r="AI1" s="41" t="s">
+      <c r="AI1" s="42" t="s">
         <v>328</v>
       </c>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="41"/>
-      <c r="AV1" s="41"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="42"/>
+      <c r="AP1" s="42"/>
+      <c r="AQ1" s="42"/>
+      <c r="AR1" s="42"/>
+      <c r="AS1" s="42"/>
+      <c r="AT1" s="42"/>
+      <c r="AU1" s="42"/>
+      <c r="AV1" s="42"/>
     </row>
     <row r="2" spans="1:48">
       <c r="A2" t="s">

--- a/excel/ledger.xlsx
+++ b/excel/ledger.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gzhennaxia/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA886744-9741-B248-8000-A79BA5E7C48B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495A2328-EA6F-204C-A91E-50328FA26064}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17460" yWindow="2760" windowWidth="14380" windowHeight="16440" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3155" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3195" uniqueCount="962">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3697,6 +3697,42 @@
   </si>
   <si>
     <t>香菇肉丁粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一人食苏丹王榴莲披萨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人气甜辣味炸鸡中份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油泼biangbiang面+羊肉卷饼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美式咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韭菜炒鸡蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔壁502转让</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芹菜香干炒肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臊子面+肉夹馍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11167,8 +11203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C81ADFD-2D83-574A-AD81-B8046C388F80}">
   <dimension ref="A1:V297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="88" workbookViewId="0">
-      <selection activeCell="D237" sqref="D237"/>
+    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="88" workbookViewId="0">
+      <selection activeCell="N183" sqref="N183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -23570,8 +23606,30 @@
       </c>
     </row>
     <row r="238" spans="1:19">
-      <c r="A238" s="1"/>
-      <c r="B238" s="2"/>
+      <c r="A238" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B238" s="2">
+        <v>0.56111111111111112</v>
+      </c>
+      <c r="C238" t="s">
+        <v>936</v>
+      </c>
+      <c r="D238" t="s">
+        <v>957</v>
+      </c>
+      <c r="E238">
+        <v>15</v>
+      </c>
+      <c r="F238" t="s">
+        <v>20</v>
+      </c>
+      <c r="G238" t="s">
+        <v>24</v>
+      </c>
+      <c r="H238" t="s">
+        <v>950</v>
+      </c>
       <c r="K238" s="1">
         <v>43886</v>
       </c>
@@ -23601,8 +23659,30 @@
       </c>
     </row>
     <row r="239" spans="1:19">
-      <c r="A239" s="1"/>
-      <c r="B239" s="2"/>
+      <c r="A239" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B239" s="2">
+        <v>0.57222222222222219</v>
+      </c>
+      <c r="C239" t="s">
+        <v>53</v>
+      </c>
+      <c r="D239" t="s">
+        <v>956</v>
+      </c>
+      <c r="E239">
+        <v>8</v>
+      </c>
+      <c r="F239" t="s">
+        <v>20</v>
+      </c>
+      <c r="G239" t="s">
+        <v>24</v>
+      </c>
+      <c r="H239" t="s">
+        <v>906</v>
+      </c>
       <c r="K239" s="1" t="s">
         <v>128</v>
       </c>
@@ -23612,12 +23692,56 @@
       </c>
     </row>
     <row r="240" spans="1:19">
-      <c r="A240" s="1"/>
-      <c r="B240" s="2"/>
+      <c r="A240" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B240" s="2">
+        <v>0.72777777777777775</v>
+      </c>
+      <c r="C240" t="s">
+        <v>945</v>
+      </c>
+      <c r="D240" t="s">
+        <v>955</v>
+      </c>
+      <c r="E240">
+        <v>28.3</v>
+      </c>
+      <c r="F240" t="s">
+        <v>20</v>
+      </c>
+      <c r="G240" t="s">
+        <v>24</v>
+      </c>
+      <c r="H240" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="241" spans="1:22">
-      <c r="A241" s="1"/>
-      <c r="B241" s="2"/>
+      <c r="A241" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B241" s="2">
+        <v>0.72777777777777775</v>
+      </c>
+      <c r="C241" t="s">
+        <v>945</v>
+      </c>
+      <c r="D241" t="s">
+        <v>954</v>
+      </c>
+      <c r="E241">
+        <v>22.88</v>
+      </c>
+      <c r="F241" t="s">
+        <v>20</v>
+      </c>
+      <c r="G241" t="s">
+        <v>24</v>
+      </c>
+      <c r="H241" t="s">
+        <v>251</v>
+      </c>
       <c r="K241" s="41" t="s">
         <v>767</v>
       </c>
@@ -23634,8 +23758,30 @@
       <c r="V241" s="41"/>
     </row>
     <row r="242" spans="1:22">
-      <c r="A242" s="1"/>
-      <c r="B242" s="2"/>
+      <c r="A242" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B242" s="2">
+        <v>0.66597222222222219</v>
+      </c>
+      <c r="C242" t="s">
+        <v>945</v>
+      </c>
+      <c r="D242" t="s">
+        <v>953</v>
+      </c>
+      <c r="E242">
+        <v>23.9</v>
+      </c>
+      <c r="F242" t="s">
+        <v>20</v>
+      </c>
+      <c r="G242" t="s">
+        <v>24</v>
+      </c>
+      <c r="H242" t="s">
+        <v>251</v>
+      </c>
       <c r="K242" s="9" t="s">
         <v>1</v>
       </c>
@@ -23674,8 +23820,30 @@
       </c>
     </row>
     <row r="243" spans="1:22">
-      <c r="A243" s="1"/>
-      <c r="B243" s="2"/>
+      <c r="A243" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B243" s="2">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="C243" t="s">
+        <v>765</v>
+      </c>
+      <c r="D243" t="s">
+        <v>958</v>
+      </c>
+      <c r="E243">
+        <v>100</v>
+      </c>
+      <c r="F243" t="s">
+        <v>23</v>
+      </c>
+      <c r="G243" t="s">
+        <v>24</v>
+      </c>
+      <c r="H243" t="s">
+        <v>959</v>
+      </c>
       <c r="K243" s="1">
         <v>43886</v>
       </c>
@@ -23714,8 +23882,30 @@
       </c>
     </row>
     <row r="244" spans="1:22">
-      <c r="A244" s="1"/>
-      <c r="B244" s="2"/>
+      <c r="A244" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B244" s="2">
+        <v>0.49374999999999997</v>
+      </c>
+      <c r="C244" t="s">
+        <v>936</v>
+      </c>
+      <c r="D244" t="s">
+        <v>961</v>
+      </c>
+      <c r="E244">
+        <v>25.8</v>
+      </c>
+      <c r="F244" t="s">
+        <v>20</v>
+      </c>
+      <c r="G244" t="s">
+        <v>24</v>
+      </c>
+      <c r="H244" t="s">
+        <v>251</v>
+      </c>
       <c r="K244" s="1">
         <v>43886</v>
       </c>
@@ -23754,8 +23944,30 @@
       </c>
     </row>
     <row r="245" spans="1:22">
-      <c r="A245" s="1"/>
-      <c r="B245" s="2"/>
+      <c r="A245" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B245" s="2">
+        <v>0.77916666666666667</v>
+      </c>
+      <c r="C245" t="s">
+        <v>945</v>
+      </c>
+      <c r="D245" t="s">
+        <v>960</v>
+      </c>
+      <c r="E245">
+        <v>16</v>
+      </c>
+      <c r="F245" t="s">
+        <v>20</v>
+      </c>
+      <c r="G245" t="s">
+        <v>24</v>
+      </c>
+      <c r="H245" t="s">
+        <v>950</v>
+      </c>
       <c r="K245" s="1">
         <v>43886</v>
       </c>

--- a/excel/ledger.xlsx
+++ b/excel/ledger.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gzhennaxia/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495A2328-EA6F-204C-A91E-50328FA26064}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296EBBC1-EC3C-3549-A75B-42992AAADF33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3195" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3200" uniqueCount="962">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4052,10 +4052,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -11203,8 +11203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C81ADFD-2D83-574A-AD81-B8046C388F80}">
   <dimension ref="A1:V297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="88" workbookViewId="0">
-      <selection activeCell="N183" sqref="N183"/>
+    <sheetView tabSelected="1" topLeftCell="A234" zoomScale="88" workbookViewId="0">
+      <selection activeCell="H246" sqref="H246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13993,19 +13993,19 @@
       <c r="I52" t="s">
         <v>141</v>
       </c>
-      <c r="K52" s="41" t="s">
+      <c r="K52" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="L52" s="41"/>
-      <c r="M52" s="41"/>
-      <c r="N52" s="41"/>
-      <c r="O52" s="41"/>
-      <c r="P52" s="41"/>
-      <c r="Q52" s="41"/>
-      <c r="R52" s="41"/>
-      <c r="S52" s="41"/>
-      <c r="T52" s="41"/>
-      <c r="U52" s="41"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="42"/>
+      <c r="R52" s="42"/>
+      <c r="S52" s="42"/>
+      <c r="T52" s="42"/>
+      <c r="U52" s="42"/>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="1">
@@ -14436,20 +14436,20 @@
       <c r="I60" t="s">
         <v>231</v>
       </c>
-      <c r="K60" s="41" t="s">
+      <c r="K60" s="42" t="s">
         <v>666</v>
       </c>
-      <c r="L60" s="41"/>
-      <c r="M60" s="41"/>
-      <c r="N60" s="41"/>
-      <c r="O60" s="41"/>
-      <c r="P60" s="41"/>
-      <c r="Q60" s="41"/>
-      <c r="R60" s="41"/>
-      <c r="S60" s="41"/>
-      <c r="T60" s="41"/>
-      <c r="U60" s="41"/>
-      <c r="V60" s="41"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="42"/>
+      <c r="P60" s="42"/>
+      <c r="Q60" s="42"/>
+      <c r="R60" s="42"/>
+      <c r="S60" s="42"/>
+      <c r="T60" s="42"/>
+      <c r="U60" s="42"/>
+      <c r="V60" s="42"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="1">
@@ -16944,17 +16944,17 @@
       <c r="I111" t="s">
         <v>340</v>
       </c>
-      <c r="K111" s="42" t="s">
+      <c r="K111" s="41" t="s">
         <v>448</v>
       </c>
-      <c r="L111" s="42"/>
-      <c r="M111" s="42"/>
-      <c r="N111" s="42"/>
-      <c r="O111" s="42"/>
-      <c r="P111" s="42"/>
-      <c r="Q111" s="42"/>
-      <c r="R111" s="42"/>
-      <c r="S111" s="42"/>
+      <c r="L111" s="41"/>
+      <c r="M111" s="41"/>
+      <c r="N111" s="41"/>
+      <c r="O111" s="41"/>
+      <c r="P111" s="41"/>
+      <c r="Q111" s="41"/>
+      <c r="R111" s="41"/>
+      <c r="S111" s="41"/>
     </row>
     <row r="112" spans="1:19">
       <c r="A112" s="1">
@@ -19066,20 +19066,20 @@
       <c r="I153" t="s">
         <v>415</v>
       </c>
-      <c r="K153" s="41" t="s">
+      <c r="K153" s="42" t="s">
         <v>597</v>
       </c>
-      <c r="L153" s="41"/>
-      <c r="M153" s="41"/>
-      <c r="N153" s="41"/>
-      <c r="O153" s="41"/>
-      <c r="P153" s="41"/>
-      <c r="Q153" s="41"/>
-      <c r="R153" s="41"/>
-      <c r="S153" s="41"/>
-      <c r="T153" s="41"/>
-      <c r="U153" s="41"/>
-      <c r="V153" s="41"/>
+      <c r="L153" s="42"/>
+      <c r="M153" s="42"/>
+      <c r="N153" s="42"/>
+      <c r="O153" s="42"/>
+      <c r="P153" s="42"/>
+      <c r="Q153" s="42"/>
+      <c r="R153" s="42"/>
+      <c r="S153" s="42"/>
+      <c r="T153" s="42"/>
+      <c r="U153" s="42"/>
+      <c r="V153" s="42"/>
     </row>
     <row r="154" spans="1:22">
       <c r="A154" s="1">
@@ -23742,20 +23742,20 @@
       <c r="H241" t="s">
         <v>251</v>
       </c>
-      <c r="K241" s="41" t="s">
+      <c r="K241" s="42" t="s">
         <v>767</v>
       </c>
-      <c r="L241" s="41"/>
-      <c r="M241" s="41"/>
-      <c r="N241" s="41"/>
-      <c r="O241" s="41"/>
-      <c r="P241" s="41"/>
-      <c r="Q241" s="41"/>
-      <c r="R241" s="41"/>
-      <c r="S241" s="41"/>
-      <c r="T241" s="41"/>
-      <c r="U241" s="41"/>
-      <c r="V241" s="41"/>
+      <c r="L241" s="42"/>
+      <c r="M241" s="42"/>
+      <c r="N241" s="42"/>
+      <c r="O241" s="42"/>
+      <c r="P241" s="42"/>
+      <c r="Q241" s="42"/>
+      <c r="R241" s="42"/>
+      <c r="S241" s="42"/>
+      <c r="T241" s="42"/>
+      <c r="U241" s="42"/>
+      <c r="V241" s="42"/>
     </row>
     <row r="242" spans="1:22">
       <c r="A242" s="1">
@@ -24006,8 +24006,30 @@
       </c>
     </row>
     <row r="246" spans="1:22">
-      <c r="A246" s="1"/>
-      <c r="B246" s="2"/>
+      <c r="A246" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B246" s="2">
+        <v>0.37361111111111112</v>
+      </c>
+      <c r="C246" t="s">
+        <v>53</v>
+      </c>
+      <c r="D246" t="s">
+        <v>942</v>
+      </c>
+      <c r="E246">
+        <v>3</v>
+      </c>
+      <c r="F246" t="s">
+        <v>191</v>
+      </c>
+      <c r="G246" t="s">
+        <v>24</v>
+      </c>
+      <c r="H246" t="s">
+        <v>56</v>
+      </c>
       <c r="K246" s="1">
         <v>43886</v>
       </c>
@@ -24174,20 +24196,20 @@
       <c r="U250" s="35"/>
     </row>
     <row r="252" spans="1:22">
-      <c r="K252" s="41" t="s">
+      <c r="K252" s="42" t="s">
         <v>802</v>
       </c>
-      <c r="L252" s="41"/>
-      <c r="M252" s="41"/>
-      <c r="N252" s="41"/>
-      <c r="O252" s="41"/>
-      <c r="P252" s="41"/>
-      <c r="Q252" s="41"/>
-      <c r="R252" s="41"/>
-      <c r="S252" s="41"/>
-      <c r="T252" s="41"/>
-      <c r="U252" s="41"/>
-      <c r="V252" s="41"/>
+      <c r="L252" s="42"/>
+      <c r="M252" s="42"/>
+      <c r="N252" s="42"/>
+      <c r="O252" s="42"/>
+      <c r="P252" s="42"/>
+      <c r="Q252" s="42"/>
+      <c r="R252" s="42"/>
+      <c r="S252" s="42"/>
+      <c r="T252" s="42"/>
+      <c r="U252" s="42"/>
+      <c r="V252" s="42"/>
     </row>
     <row r="253" spans="1:22">
       <c r="K253" s="9" t="s">
@@ -25424,6 +25446,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="K289:S289"/>
+    <mergeCell ref="K265:S265"/>
+    <mergeCell ref="K60:V60"/>
+    <mergeCell ref="K252:V252"/>
+    <mergeCell ref="K214:S214"/>
+    <mergeCell ref="K241:V241"/>
     <mergeCell ref="K1:U1"/>
     <mergeCell ref="K32:S32"/>
     <mergeCell ref="K76:S76"/>
@@ -25437,12 +25465,6 @@
     <mergeCell ref="K102:S102"/>
     <mergeCell ref="K130:S130"/>
     <mergeCell ref="K153:V153"/>
-    <mergeCell ref="K289:S289"/>
-    <mergeCell ref="K265:S265"/>
-    <mergeCell ref="K60:V60"/>
-    <mergeCell ref="K252:V252"/>
-    <mergeCell ref="K214:S214"/>
-    <mergeCell ref="K241:V241"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="13">
@@ -25530,34 +25552,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
       <c r="AB1" s="43" t="s">
         <v>327</v>
       </c>
@@ -25566,22 +25588,22 @@
       <c r="AE1" s="43"/>
       <c r="AF1" s="43"/>
       <c r="AG1" s="43"/>
-      <c r="AI1" s="42" t="s">
+      <c r="AI1" s="41" t="s">
         <v>328</v>
       </c>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="42"/>
-      <c r="AL1" s="42"/>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="42"/>
-      <c r="AP1" s="42"/>
-      <c r="AQ1" s="42"/>
-      <c r="AR1" s="42"/>
-      <c r="AS1" s="42"/>
-      <c r="AT1" s="42"/>
-      <c r="AU1" s="42"/>
-      <c r="AV1" s="42"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="41"/>
     </row>
     <row r="2" spans="1:48">
       <c r="A2" t="s">

--- a/excel/ledger.xlsx
+++ b/excel/ledger.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296EBBC1-EC3C-3549-A75B-42992AAADF33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AB628A-BB4F-4B4D-90D4-53606E064A0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="13640" windowHeight="11260" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3200" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3210" uniqueCount="964">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3733,6 +3733,14 @@
   </si>
   <si>
     <t>臊子面+肉夹馍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金牌遵义羊肉面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油泼biangbiang面+冰峰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4052,10 +4060,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -10024,9 +10032,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FEFEF66-0DFC-B343-AE55-FC43085C5197}" name="表1" displayName="表1" ref="A1:I247" totalsRowShown="0">
-  <autoFilter ref="A1:I247" xr:uid="{5BBC9419-B13B-B148-8ACF-0DE90D8ED5A0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I247">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FEFEF66-0DFC-B343-AE55-FC43085C5197}" name="表1" displayName="表1" ref="A1:I265" totalsRowShown="0">
+  <autoFilter ref="A1:I265" xr:uid="{5BBC9419-B13B-B148-8ACF-0DE90D8ED5A0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I265">
     <sortCondition ref="A2:A22"/>
     <sortCondition ref="B2:B22"/>
   </sortState>
@@ -10504,7 +10512,7 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{708C10D3-3099-AB43-BF6B-AAC0E5724B2D}" name="年"/>
     <tableColumn id="2" xr3:uid="{5D7EEFFC-1B1B-C442-8DD0-96BF0D9145E1}" name="总计">
-      <calculatedColumnFormula>SUM(records!E2:E247)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(records!E2:E265)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -10517,7 +10525,7 @@
   <tableColumns count="42">
     <tableColumn id="1" xr3:uid="{F034F842-B0D4-7C49-92AC-92126BFED303}" name="日期" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{E4A20DC4-BCAA-5A4C-8F92-7768890FB62A}" name="总计">
-      <calculatedColumnFormula>SUMIF(records!A2:A247, template!A2, records!E2:E247)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUMIF(records!A2:A265, template!A2, records!E2:E265)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{4634C45B-FA6E-3A4F-A29C-00438EE32653}" name="0:00"/>
     <tableColumn id="4" xr3:uid="{FAE9234B-318D-7D47-AF72-AE2A681B63D3}" name="1:00" dataDxfId="2"/>
@@ -11204,7 +11212,7 @@
   <dimension ref="A1:V297"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A234" zoomScale="88" workbookViewId="0">
-      <selection activeCell="H246" sqref="H246"/>
+      <selection activeCell="C248" sqref="C248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13993,19 +14001,19 @@
       <c r="I52" t="s">
         <v>141</v>
       </c>
-      <c r="K52" s="42" t="s">
+      <c r="K52" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="L52" s="42"/>
-      <c r="M52" s="42"/>
-      <c r="N52" s="42"/>
-      <c r="O52" s="42"/>
-      <c r="P52" s="42"/>
-      <c r="Q52" s="42"/>
-      <c r="R52" s="42"/>
-      <c r="S52" s="42"/>
-      <c r="T52" s="42"/>
-      <c r="U52" s="42"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="41"/>
+      <c r="N52" s="41"/>
+      <c r="O52" s="41"/>
+      <c r="P52" s="41"/>
+      <c r="Q52" s="41"/>
+      <c r="R52" s="41"/>
+      <c r="S52" s="41"/>
+      <c r="T52" s="41"/>
+      <c r="U52" s="41"/>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="1">
@@ -14436,20 +14444,20 @@
       <c r="I60" t="s">
         <v>231</v>
       </c>
-      <c r="K60" s="42" t="s">
+      <c r="K60" s="41" t="s">
         <v>666</v>
       </c>
-      <c r="L60" s="42"/>
-      <c r="M60" s="42"/>
-      <c r="N60" s="42"/>
-      <c r="O60" s="42"/>
-      <c r="P60" s="42"/>
-      <c r="Q60" s="42"/>
-      <c r="R60" s="42"/>
-      <c r="S60" s="42"/>
-      <c r="T60" s="42"/>
-      <c r="U60" s="42"/>
-      <c r="V60" s="42"/>
+      <c r="L60" s="41"/>
+      <c r="M60" s="41"/>
+      <c r="N60" s="41"/>
+      <c r="O60" s="41"/>
+      <c r="P60" s="41"/>
+      <c r="Q60" s="41"/>
+      <c r="R60" s="41"/>
+      <c r="S60" s="41"/>
+      <c r="T60" s="41"/>
+      <c r="U60" s="41"/>
+      <c r="V60" s="41"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="1">
@@ -16944,17 +16952,17 @@
       <c r="I111" t="s">
         <v>340</v>
       </c>
-      <c r="K111" s="41" t="s">
+      <c r="K111" s="42" t="s">
         <v>448</v>
       </c>
-      <c r="L111" s="41"/>
-      <c r="M111" s="41"/>
-      <c r="N111" s="41"/>
-      <c r="O111" s="41"/>
-      <c r="P111" s="41"/>
-      <c r="Q111" s="41"/>
-      <c r="R111" s="41"/>
-      <c r="S111" s="41"/>
+      <c r="L111" s="42"/>
+      <c r="M111" s="42"/>
+      <c r="N111" s="42"/>
+      <c r="O111" s="42"/>
+      <c r="P111" s="42"/>
+      <c r="Q111" s="42"/>
+      <c r="R111" s="42"/>
+      <c r="S111" s="42"/>
     </row>
     <row r="112" spans="1:19">
       <c r="A112" s="1">
@@ -19066,20 +19074,20 @@
       <c r="I153" t="s">
         <v>415</v>
       </c>
-      <c r="K153" s="42" t="s">
+      <c r="K153" s="41" t="s">
         <v>597</v>
       </c>
-      <c r="L153" s="42"/>
-      <c r="M153" s="42"/>
-      <c r="N153" s="42"/>
-      <c r="O153" s="42"/>
-      <c r="P153" s="42"/>
-      <c r="Q153" s="42"/>
-      <c r="R153" s="42"/>
-      <c r="S153" s="42"/>
-      <c r="T153" s="42"/>
-      <c r="U153" s="42"/>
-      <c r="V153" s="42"/>
+      <c r="L153" s="41"/>
+      <c r="M153" s="41"/>
+      <c r="N153" s="41"/>
+      <c r="O153" s="41"/>
+      <c r="P153" s="41"/>
+      <c r="Q153" s="41"/>
+      <c r="R153" s="41"/>
+      <c r="S153" s="41"/>
+      <c r="T153" s="41"/>
+      <c r="U153" s="41"/>
+      <c r="V153" s="41"/>
     </row>
     <row r="154" spans="1:22">
       <c r="A154" s="1">
@@ -23742,20 +23750,20 @@
       <c r="H241" t="s">
         <v>251</v>
       </c>
-      <c r="K241" s="42" t="s">
+      <c r="K241" s="41" t="s">
         <v>767</v>
       </c>
-      <c r="L241" s="42"/>
-      <c r="M241" s="42"/>
-      <c r="N241" s="42"/>
-      <c r="O241" s="42"/>
-      <c r="P241" s="42"/>
-      <c r="Q241" s="42"/>
-      <c r="R241" s="42"/>
-      <c r="S241" s="42"/>
-      <c r="T241" s="42"/>
-      <c r="U241" s="42"/>
-      <c r="V241" s="42"/>
+      <c r="L241" s="41"/>
+      <c r="M241" s="41"/>
+      <c r="N241" s="41"/>
+      <c r="O241" s="41"/>
+      <c r="P241" s="41"/>
+      <c r="Q241" s="41"/>
+      <c r="R241" s="41"/>
+      <c r="S241" s="41"/>
+      <c r="T241" s="41"/>
+      <c r="U241" s="41"/>
+      <c r="V241" s="41"/>
     </row>
     <row r="242" spans="1:22">
       <c r="A242" s="1">
@@ -24068,8 +24076,30 @@
       </c>
     </row>
     <row r="247" spans="1:22">
-      <c r="A247" s="1"/>
-      <c r="B247" s="2"/>
+      <c r="A247" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B247" s="2">
+        <v>0.49374999999999997</v>
+      </c>
+      <c r="C247" t="s">
+        <v>936</v>
+      </c>
+      <c r="D247" t="s">
+        <v>963</v>
+      </c>
+      <c r="E247">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="F247" t="s">
+        <v>20</v>
+      </c>
+      <c r="G247" t="s">
+        <v>24</v>
+      </c>
+      <c r="H247" t="s">
+        <v>251</v>
+      </c>
       <c r="K247" s="1">
         <v>43886</v>
       </c>
@@ -24108,6 +24138,30 @@
       </c>
     </row>
     <row r="248" spans="1:22">
+      <c r="A248" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B248" s="2">
+        <v>0.77638888888888891</v>
+      </c>
+      <c r="C248" t="s">
+        <v>945</v>
+      </c>
+      <c r="D248" t="s">
+        <v>962</v>
+      </c>
+      <c r="E248">
+        <v>22</v>
+      </c>
+      <c r="F248" t="s">
+        <v>20</v>
+      </c>
+      <c r="G248" t="s">
+        <v>24</v>
+      </c>
+      <c r="H248" t="s">
+        <v>947</v>
+      </c>
       <c r="K248" s="1">
         <v>43886</v>
       </c>
@@ -24146,6 +24200,8 @@
       </c>
     </row>
     <row r="249" spans="1:22">
+      <c r="A249" s="1"/>
+      <c r="B249" s="2"/>
       <c r="K249" s="1" t="s">
         <v>128</v>
       </c>
@@ -24172,6 +24228,8 @@
       <c r="U249" s="35"/>
     </row>
     <row r="250" spans="1:22">
+      <c r="A250" s="1"/>
+      <c r="B250" s="2"/>
       <c r="K250" s="1"/>
       <c r="L250" s="2"/>
       <c r="M250" s="36">
@@ -24195,23 +24253,31 @@
       <c r="T250" s="35"/>
       <c r="U250" s="35"/>
     </row>
+    <row r="251" spans="1:22">
+      <c r="A251" s="1"/>
+      <c r="B251" s="2"/>
+    </row>
     <row r="252" spans="1:22">
-      <c r="K252" s="42" t="s">
+      <c r="A252" s="1"/>
+      <c r="B252" s="2"/>
+      <c r="K252" s="41" t="s">
         <v>802</v>
       </c>
-      <c r="L252" s="42"/>
-      <c r="M252" s="42"/>
-      <c r="N252" s="42"/>
-      <c r="O252" s="42"/>
-      <c r="P252" s="42"/>
-      <c r="Q252" s="42"/>
-      <c r="R252" s="42"/>
-      <c r="S252" s="42"/>
-      <c r="T252" s="42"/>
-      <c r="U252" s="42"/>
-      <c r="V252" s="42"/>
+      <c r="L252" s="41"/>
+      <c r="M252" s="41"/>
+      <c r="N252" s="41"/>
+      <c r="O252" s="41"/>
+      <c r="P252" s="41"/>
+      <c r="Q252" s="41"/>
+      <c r="R252" s="41"/>
+      <c r="S252" s="41"/>
+      <c r="T252" s="41"/>
+      <c r="U252" s="41"/>
+      <c r="V252" s="41"/>
     </row>
     <row r="253" spans="1:22">
+      <c r="A253" s="1"/>
+      <c r="B253" s="2"/>
       <c r="K253" s="9" t="s">
         <v>1</v>
       </c>
@@ -24250,6 +24316,8 @@
       </c>
     </row>
     <row r="254" spans="1:22">
+      <c r="A254" s="1"/>
+      <c r="B254" s="2"/>
       <c r="K254" s="1">
         <v>43904</v>
       </c>
@@ -24285,6 +24353,8 @@
       </c>
     </row>
     <row r="255" spans="1:22">
+      <c r="A255" s="1"/>
+      <c r="B255" s="2"/>
       <c r="K255" s="1">
         <v>43904</v>
       </c>
@@ -24323,6 +24393,8 @@
       </c>
     </row>
     <row r="256" spans="1:22">
+      <c r="A256" s="1"/>
+      <c r="B256" s="2"/>
       <c r="K256" s="1">
         <v>43904</v>
       </c>
@@ -24357,7 +24429,9 @@
         <v>602</v>
       </c>
     </row>
-    <row r="257" spans="11:22">
+    <row r="257" spans="1:22">
+      <c r="A257" s="1"/>
+      <c r="B257" s="2"/>
       <c r="K257" s="1">
         <v>43904</v>
       </c>
@@ -24392,7 +24466,9 @@
         <v>602</v>
       </c>
     </row>
-    <row r="258" spans="11:22">
+    <row r="258" spans="1:22">
+      <c r="A258" s="1"/>
+      <c r="B258" s="2"/>
       <c r="K258" s="1">
         <v>43904</v>
       </c>
@@ -24427,7 +24503,9 @@
         <v>602</v>
       </c>
     </row>
-    <row r="259" spans="11:22">
+    <row r="259" spans="1:22">
+      <c r="A259" s="1"/>
+      <c r="B259" s="2"/>
       <c r="K259" s="1">
         <v>43904</v>
       </c>
@@ -24462,7 +24540,9 @@
         <v>602</v>
       </c>
     </row>
-    <row r="260" spans="11:22">
+    <row r="260" spans="1:22">
+      <c r="A260" s="1"/>
+      <c r="B260" s="2"/>
       <c r="K260" s="1">
         <v>43904</v>
       </c>
@@ -24497,7 +24577,9 @@
         <v>602</v>
       </c>
     </row>
-    <row r="261" spans="11:22">
+    <row r="261" spans="1:22">
+      <c r="A261" s="1"/>
+      <c r="B261" s="2"/>
       <c r="K261" s="1">
         <v>43904</v>
       </c>
@@ -24532,7 +24614,9 @@
         <v>602</v>
       </c>
     </row>
-    <row r="262" spans="11:22">
+    <row r="262" spans="1:22">
+      <c r="A262" s="1"/>
+      <c r="B262" s="2"/>
       <c r="K262" s="1" t="s">
         <v>128</v>
       </c>
@@ -24561,7 +24645,9 @@
       <c r="T262" s="35"/>
       <c r="U262" s="35"/>
     </row>
-    <row r="263" spans="11:22">
+    <row r="263" spans="1:22">
+      <c r="A263" s="1"/>
+      <c r="B263" s="2"/>
       <c r="K263" s="1"/>
       <c r="L263" s="2"/>
       <c r="M263" s="36">
@@ -24588,7 +24674,13 @@
       <c r="T263" s="35"/>
       <c r="U263" s="35"/>
     </row>
-    <row r="265" spans="11:22">
+    <row r="264" spans="1:22">
+      <c r="A264" s="1"/>
+      <c r="B264" s="2"/>
+    </row>
+    <row r="265" spans="1:22">
+      <c r="A265" s="1"/>
+      <c r="B265" s="2"/>
       <c r="K265" s="40" t="s">
         <v>839</v>
       </c>
@@ -24601,7 +24693,7 @@
       <c r="R265" s="40"/>
       <c r="S265" s="40"/>
     </row>
-    <row r="266" spans="11:22">
+    <row r="266" spans="1:22">
       <c r="K266" s="9" t="s">
         <v>1</v>
       </c>
@@ -24630,7 +24722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="11:22">
+    <row r="267" spans="1:22">
       <c r="K267" s="1">
         <v>43905</v>
       </c>
@@ -24659,7 +24751,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="268" spans="11:22">
+    <row r="268" spans="1:22">
       <c r="K268" s="1">
         <v>43905</v>
       </c>
@@ -24688,7 +24780,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="269" spans="11:22">
+    <row r="269" spans="1:22">
       <c r="K269" s="1">
         <v>43905</v>
       </c>
@@ -24717,7 +24809,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="270" spans="11:22">
+    <row r="270" spans="1:22">
       <c r="K270" s="1">
         <v>43905</v>
       </c>
@@ -24746,7 +24838,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="271" spans="11:22">
+    <row r="271" spans="1:22">
       <c r="K271" s="1">
         <v>43905</v>
       </c>
@@ -24775,7 +24867,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="272" spans="11:22">
+    <row r="272" spans="1:22">
       <c r="K272" s="1">
         <v>43905</v>
       </c>
@@ -25446,12 +25538,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K289:S289"/>
-    <mergeCell ref="K265:S265"/>
-    <mergeCell ref="K60:V60"/>
-    <mergeCell ref="K252:V252"/>
-    <mergeCell ref="K214:S214"/>
-    <mergeCell ref="K241:V241"/>
     <mergeCell ref="K1:U1"/>
     <mergeCell ref="K32:S32"/>
     <mergeCell ref="K76:S76"/>
@@ -25465,6 +25551,12 @@
     <mergeCell ref="K102:S102"/>
     <mergeCell ref="K130:S130"/>
     <mergeCell ref="K153:V153"/>
+    <mergeCell ref="K289:S289"/>
+    <mergeCell ref="K265:S265"/>
+    <mergeCell ref="K60:V60"/>
+    <mergeCell ref="K252:V252"/>
+    <mergeCell ref="K214:S214"/>
+    <mergeCell ref="K241:V241"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="13">
@@ -25552,34 +25644,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
       <c r="AB1" s="43" t="s">
         <v>327</v>
       </c>
@@ -25588,22 +25680,22 @@
       <c r="AE1" s="43"/>
       <c r="AF1" s="43"/>
       <c r="AG1" s="43"/>
-      <c r="AI1" s="41" t="s">
+      <c r="AI1" s="42" t="s">
         <v>328</v>
       </c>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="41"/>
-      <c r="AV1" s="41"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="42"/>
+      <c r="AP1" s="42"/>
+      <c r="AQ1" s="42"/>
+      <c r="AR1" s="42"/>
+      <c r="AS1" s="42"/>
+      <c r="AT1" s="42"/>
+      <c r="AU1" s="42"/>
+      <c r="AV1" s="42"/>
     </row>
     <row r="2" spans="1:48">
       <c r="A2" t="s">
@@ -28985,163 +29077,163 @@
         <v>24</v>
       </c>
       <c r="C2">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A2, records!B2:B247, "&gt;=" &amp; template!C1,records!B2:B247, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!C1,records!B2:B265, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A2, records!B2:B247, "&gt;=" &amp; template!D1,records!B2:B247, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!D1,records!B2:B265, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E2">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A2, records!B2:B247, "&gt;=" &amp; template!E1,records!B2:B247, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!E1,records!B2:B265, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F2">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A2, records!B2:B247, "&gt;=" &amp; template!F1,records!B2:B247, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!F1,records!B2:B265, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A2, records!B2:B247, "&gt;=" &amp; template!G1,records!B2:B247, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!G1,records!B2:B265, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H2">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A2, records!B2:B247, "&gt;=" &amp; template!H1,records!B2:B247, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!H1,records!B2:B265, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I2">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A2, records!B2:B247, "&gt;=" &amp; template!I1,records!B2:B247, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!I1,records!B2:B265, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J2">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A2, records!B2:B247, "&gt;=" &amp; template!J1,records!B2:B247, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!J1,records!B2:B265, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K2">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A2, records!B2:B247, "&gt;=" &amp; template!K1,records!B2:B247, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!K1,records!B2:B265, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L2">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A2, records!B2:B247, "&gt;=" &amp; template!L1,records!B2:B247, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!L1,records!B2:B265, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M2">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A2, records!B2:B247, "&gt;=" &amp; template!M1,records!B2:B247, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!M1,records!B2:B265, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N2">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A2, records!B2:B247, "&gt;=" &amp; template!N1,records!B2:B247, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!N1,records!B2:B265, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O2">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A2, records!B2:B247, "&gt;=" &amp; template!O1,records!B2:B247, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!O1,records!B2:B265, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P2">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A2, records!B2:B247, "&gt;=" &amp; template!P1,records!B2:B247, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!P1,records!B2:B265, "&lt;" &amp; template!Q1)</f>
         <v>24</v>
       </c>
       <c r="Q2">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A2, records!B2:B247, "&gt;=" &amp; template!Q1,records!B2:B247, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!Q1,records!B2:B265, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R2">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A2, records!B2:B247, "&gt;=" &amp; template!R1,records!B2:B247, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!R1,records!B2:B265, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S2">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A2, records!B2:B247, "&gt;=" &amp; template!S1,records!B2:B247, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!S1,records!B2:B265, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T2">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A2, records!B2:B247, "&gt;=" &amp; template!T1,records!B2:B247, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!T1,records!B2:B265, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U2">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A2, records!B2:B247, "&gt;=" &amp; template!U1,records!B2:B247, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!U1,records!B2:B265, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V2">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A2, records!B2:B247, "&gt;=" &amp; template!V1,records!B2:B247, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!V1,records!B2:B265, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W2">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A2, records!B2:B247, "&gt;=" &amp; template!W1,records!B2:B247, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!W1,records!B2:B265, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X2">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A2, records!B2:B247, "&gt;=" &amp; template!X1,records!B2:B247, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!X1,records!B2:B265, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y2">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A2, records!B2:B247, "&gt;=" &amp; template!Y1,records!B2:B247, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!Y1,records!B2:B265, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z2">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A2, records!B2:B247, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA2">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A2,records!G2:G247,template!AA1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2,records!G2:G265,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB2">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A2,records!G2:G247,template!AB1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2,records!G2:G265,template!AB1)</f>
         <v>24</v>
       </c>
       <c r="AC2">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A2,records!G2:G247,template!AC1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2,records!G2:G265,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD2">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A2,records!G2:G247,template!AD1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2,records!G2:G265,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE2">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A2,records!C2:C247,template!AE1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2,records!C2:C265,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF2">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A2,records!C2:C247,template!AF1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2,records!C2:C265,template!AF1)</f>
         <v>24</v>
       </c>
       <c r="AG2">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A2,records!C2:C247,template!AG1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2,records!C2:C265,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH2">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A2,records!C2:C247,template!AH1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2,records!C2:C265,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI2">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A2,records!C2:C247,template!AI1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2,records!C2:C265,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ2">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A2,records!C2:C247,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2,records!C2:C265,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK2">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A2,records!C2:C247,template!AK1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2,records!C2:C265,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL2">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A2,records!C2:C247,template!AL1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2,records!C2:C265,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM2">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A2,records!C2:C247,template!AM1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2,records!C2:C265,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN2">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A2,records!C2:C247,template!AN1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2,records!C2:C265,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO2">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A2,records!C2:C247,template!AO1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2,records!C2:C265,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP2">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A2,records!C2:C247,template!AP1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2,records!C2:C265,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -29154,163 +29246,163 @@
         <v>22</v>
       </c>
       <c r="C3">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A3, records!B2:B247, "&gt;=" &amp; template!C1,records!B2:B247, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!C1,records!B2:B265, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D3" s="14">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A3, records!B2:B247, "&gt;=" &amp; template!D1,records!B2:B247, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!D1,records!B2:B265, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A3, records!B2:B247, "&gt;=" &amp; template!E1,records!B2:B247, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!E1,records!B2:B265, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F3">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A3, records!B2:B247, "&gt;=" &amp; template!F1,records!B2:B247, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!F1,records!B2:B265, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G3">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A3, records!B2:B247, "&gt;=" &amp; template!G1,records!B2:B247, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!G1,records!B2:B265, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H3">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A3, records!B2:B247, "&gt;=" &amp; template!H1,records!B2:B247, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!H1,records!B2:B265, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I3">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A3, records!B2:B247, "&gt;=" &amp; template!I1,records!B2:B247, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!I1,records!B2:B265, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J3">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A3, records!B2:B247, "&gt;=" &amp; template!J1,records!B2:B247, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!J1,records!B2:B265, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A3, records!B2:B247, "&gt;=" &amp; template!K1,records!B2:B247, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!K1,records!B2:B265, "&lt;" &amp; template!L1)</f>
         <v>3</v>
       </c>
       <c r="L3">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A3, records!B2:B247, "&gt;=" &amp; template!L1,records!B2:B247, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!L1,records!B2:B265, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M3">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A3, records!B2:B247, "&gt;=" &amp; template!M1,records!B2:B247, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!M1,records!B2:B265, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N3">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A3, records!B2:B247, "&gt;=" &amp; template!N1,records!B2:B247, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!N1,records!B2:B265, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O3">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A3, records!B2:B247, "&gt;=" &amp; template!O1,records!B2:B247, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!O1,records!B2:B265, "&lt;" &amp; template!P1)</f>
         <v>16</v>
       </c>
       <c r="P3">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A3, records!B2:B247, "&gt;=" &amp; template!P1,records!B2:B247, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!P1,records!B2:B265, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A3, records!B2:B247, "&gt;=" &amp; template!Q1,records!B2:B247, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!Q1,records!B2:B265, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R3">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A3, records!B2:B247, "&gt;=" &amp; template!R1,records!B2:B247, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!R1,records!B2:B265, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S3">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A3, records!B2:B247, "&gt;=" &amp; template!S1,records!B2:B247, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!S1,records!B2:B265, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T3">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A3, records!B2:B247, "&gt;=" &amp; template!T1,records!B2:B247, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!T1,records!B2:B265, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U3">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A3, records!B2:B247, "&gt;=" &amp; template!U1,records!B2:B247, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!U1,records!B2:B265, "&lt;" &amp; template!V1)</f>
         <v>3</v>
       </c>
       <c r="V3">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A3, records!B2:B247, "&gt;=" &amp; template!V1,records!B2:B247, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!V1,records!B2:B265, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W3">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A3, records!B2:B247, "&gt;=" &amp; template!W1,records!B2:B247, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!W1,records!B2:B265, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X3">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A3, records!B2:B247, "&gt;=" &amp; template!X1,records!B2:B247, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!X1,records!B2:B265, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y3">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A3, records!B2:B247, "&gt;=" &amp; template!Y1,records!B2:B247, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!Y1,records!B2:B265, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z3">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A3, records!B2:B247, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA3">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A3,records!G2:G247,template!AA1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3,records!G2:G265,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB3">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A3,records!G2:G247,template!AB1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3,records!G2:G265,template!AB1)</f>
         <v>22</v>
       </c>
       <c r="AC3">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A3,records!G2:G247,template!AC1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3,records!G2:G265,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD3">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A3,records!G2:G247,template!AD1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3,records!G2:G265,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE3">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A3,records!C2:C247,template!AE1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3,records!C2:C265,template!AE1)</f>
         <v>6</v>
       </c>
       <c r="AF3">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A3,records!C2:C247,template!AF1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3,records!C2:C265,template!AF1)</f>
         <v>16</v>
       </c>
       <c r="AG3">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A3,records!C2:C247,template!AG1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3,records!C2:C265,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH3">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A3,records!C2:C247,template!AH1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3,records!C2:C265,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI3">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A3,records!C2:C247,template!AI1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3,records!C2:C265,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ3">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A3,records!C2:C247,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3,records!C2:C265,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK3">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A3,records!C2:C247,template!AK1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3,records!C2:C265,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL3">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A3,records!C2:C247,template!AL1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3,records!C2:C265,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM3">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A3,records!C2:C247,template!AM1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3,records!C2:C265,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN3">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A3,records!C2:C247,template!AN1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3,records!C2:C265,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO3">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A3,records!C2:C247,template!AO1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3,records!C2:C265,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP3">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A3,records!C2:C247,template!AP1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3,records!C2:C265,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -29323,163 +29415,163 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A4, records!B2:B247, "&gt;=" &amp; template!C1,records!B2:B247, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!C1,records!B2:B265, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D4" s="14">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A4, records!B2:B247, "&gt;=" &amp; template!D1,records!B2:B247, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!D1,records!B2:B265, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A4, records!B2:B247, "&gt;=" &amp; template!E1,records!B2:B247, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!E1,records!B2:B265, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A4, records!B2:B247, "&gt;=" &amp; template!F1,records!B2:B247, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!F1,records!B2:B265, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G4">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A4, records!B2:B247, "&gt;=" &amp; template!G1,records!B2:B247, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!G1,records!B2:B265, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A4, records!B2:B247, "&gt;=" &amp; template!H1,records!B2:B247, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!H1,records!B2:B265, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A4, records!B2:B247, "&gt;=" &amp; template!I1,records!B2:B247, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!I1,records!B2:B265, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A4, records!B2:B247, "&gt;=" &amp; template!J1,records!B2:B247, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!J1,records!B2:B265, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A4, records!B2:B247, "&gt;=" &amp; template!K1,records!B2:B247, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!K1,records!B2:B265, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L4">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A4, records!B2:B247, "&gt;=" &amp; template!L1,records!B2:B247, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!L1,records!B2:B265, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M4">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A4, records!B2:B247, "&gt;=" &amp; template!M1,records!B2:B247, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!M1,records!B2:B265, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A4, records!B2:B247, "&gt;=" &amp; template!N1,records!B2:B247, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!N1,records!B2:B265, "&lt;" &amp; template!O1)</f>
         <v>16</v>
       </c>
       <c r="O4">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A4, records!B2:B247, "&gt;=" &amp; template!O1,records!B2:B247, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!O1,records!B2:B265, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P4">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A4, records!B2:B247, "&gt;=" &amp; template!P1,records!B2:B247, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!P1,records!B2:B265, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A4, records!B2:B247, "&gt;=" &amp; template!Q1,records!B2:B247, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!Q1,records!B2:B265, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R4">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A4, records!B2:B247, "&gt;=" &amp; template!R1,records!B2:B247, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!R1,records!B2:B265, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S4">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A4, records!B2:B247, "&gt;=" &amp; template!S1,records!B2:B247, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!S1,records!B2:B265, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T4">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A4, records!B2:B247, "&gt;=" &amp; template!T1,records!B2:B247, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!T1,records!B2:B265, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U4">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A4, records!B2:B247, "&gt;=" &amp; template!U1,records!B2:B247, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!U1,records!B2:B265, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V4">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A4, records!B2:B247, "&gt;=" &amp; template!V1,records!B2:B247, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!V1,records!B2:B265, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W4">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A4, records!B2:B247, "&gt;=" &amp; template!W1,records!B2:B247, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!W1,records!B2:B265, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X4">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A4, records!B2:B247, "&gt;=" &amp; template!X1,records!B2:B247, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!X1,records!B2:B265, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y4">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A4, records!B2:B247, "&gt;=" &amp; template!Y1,records!B2:B247, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!Y1,records!B2:B265, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z4">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A4, records!B2:B247, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA4">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A4,records!G2:G247,template!AA1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4,records!G2:G265,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB4">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A4,records!G2:G247,template!AB1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4,records!G2:G265,template!AB1)</f>
         <v>16</v>
       </c>
       <c r="AC4">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A4,records!G2:G247,template!AC1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4,records!G2:G265,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD4">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A4,records!G2:G247,template!AD1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4,records!G2:G265,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE4">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A4,records!C2:C247,template!AE1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4,records!C2:C265,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF4">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A4,records!C2:C247,template!AF1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4,records!C2:C265,template!AF1)</f>
         <v>16</v>
       </c>
       <c r="AG4">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A4,records!C2:C247,template!AG1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4,records!C2:C265,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH4">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A4,records!C2:C247,template!AH1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4,records!C2:C265,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI4">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A4,records!C2:C247,template!AI1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4,records!C2:C265,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ4">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A4,records!C2:C247,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4,records!C2:C265,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK4">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A4,records!C2:C247,template!AK1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4,records!C2:C265,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL4">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A4,records!C2:C247,template!AL1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4,records!C2:C265,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM4">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A4,records!C2:C247,template!AM1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4,records!C2:C265,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN4">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A4,records!C2:C247,template!AN1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4,records!C2:C265,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO4">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A4,records!C2:C247,template!AO1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4,records!C2:C265,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP4">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A4,records!C2:C247,template!AP1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4,records!C2:C265,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -29492,163 +29584,163 @@
         <v>69</v>
       </c>
       <c r="C5">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A5, records!B2:B247, "&gt;=" &amp; template!C1,records!B2:B247, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!C1,records!B2:B265, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D5" s="14">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A5, records!B2:B247, "&gt;=" &amp; template!D1,records!B2:B247, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!D1,records!B2:B265, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E5">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A5, records!B2:B247, "&gt;=" &amp; template!E1,records!B2:B247, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!E1,records!B2:B265, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F5">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A5, records!B2:B247, "&gt;=" &amp; template!F1,records!B2:B247, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!F1,records!B2:B265, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G5">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A5, records!B2:B247, "&gt;=" &amp; template!G1,records!B2:B247, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!G1,records!B2:B265, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H5">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A5, records!B2:B247, "&gt;=" &amp; template!H1,records!B2:B247, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!H1,records!B2:B265, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I5">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A5, records!B2:B247, "&gt;=" &amp; template!I1,records!B2:B247, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!I1,records!B2:B265, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J5">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A5, records!B2:B247, "&gt;=" &amp; template!J1,records!B2:B247, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!J1,records!B2:B265, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K5">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A5, records!B2:B247, "&gt;=" &amp; template!K1,records!B2:B247, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!K1,records!B2:B265, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L5">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A5, records!B2:B247, "&gt;=" &amp; template!L1,records!B2:B247, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!L1,records!B2:B265, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M5">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A5, records!B2:B247, "&gt;=" &amp; template!M1,records!B2:B247, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!M1,records!B2:B265, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N5">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A5, records!B2:B247, "&gt;=" &amp; template!N1,records!B2:B247, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!N1,records!B2:B265, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O5">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A5, records!B2:B247, "&gt;=" &amp; template!O1,records!B2:B247, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!O1,records!B2:B265, "&lt;" &amp; template!P1)</f>
         <v>34</v>
       </c>
       <c r="P5">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A5, records!B2:B247, "&gt;=" &amp; template!P1,records!B2:B247, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!P1,records!B2:B265, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q5">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A5, records!B2:B247, "&gt;=" &amp; template!Q1,records!B2:B247, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!Q1,records!B2:B265, "&lt;" &amp; template!R1)</f>
         <v>3</v>
       </c>
       <c r="R5">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A5, records!B2:B247, "&gt;=" &amp; template!R1,records!B2:B247, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!R1,records!B2:B265, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S5">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A5, records!B2:B247, "&gt;=" &amp; template!S1,records!B2:B247, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!S1,records!B2:B265, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T5">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A5, records!B2:B247, "&gt;=" &amp; template!T1,records!B2:B247, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!T1,records!B2:B265, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U5">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A5, records!B2:B247, "&gt;=" &amp; template!U1,records!B2:B247, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!U1,records!B2:B265, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V5">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A5, records!B2:B247, "&gt;=" &amp; template!V1,records!B2:B247, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!V1,records!B2:B265, "&lt;" &amp; template!W1)</f>
         <v>32</v>
       </c>
       <c r="W5">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A5, records!B2:B247, "&gt;=" &amp; template!W1,records!B2:B247, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!W1,records!B2:B265, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X5">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A5, records!B2:B247, "&gt;=" &amp; template!X1,records!B2:B247, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!X1,records!B2:B265, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y5">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A5, records!B2:B247, "&gt;=" &amp; template!Y1,records!B2:B247, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!Y1,records!B2:B265, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z5">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A5, records!B2:B247, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA5">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A5,records!G2:G247,template!AA1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5,records!G2:G265,template!AA1)</f>
         <v>66</v>
       </c>
       <c r="AB5">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A5,records!G2:G247,template!AB1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5,records!G2:G265,template!AB1)</f>
         <v>3</v>
       </c>
       <c r="AC5">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A5,records!G2:G247,template!AC1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5,records!G2:G265,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD5">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A5,records!G2:G247,template!AD1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5,records!G2:G265,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE5">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A5,records!C2:C247,template!AE1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5,records!C2:C265,template!AE1)</f>
         <v>32</v>
       </c>
       <c r="AF5">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A5,records!C2:C247,template!AF1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5,records!C2:C265,template!AF1)</f>
         <v>34</v>
       </c>
       <c r="AG5">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A5,records!C2:C247,template!AG1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5,records!C2:C265,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH5">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A5,records!C2:C247,template!AH1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5,records!C2:C265,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI5">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A5,records!C2:C247,template!AI1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5,records!C2:C265,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ5">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A5,records!C2:C247,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5,records!C2:C265,template!AJ1)</f>
         <v>3</v>
       </c>
       <c r="AK5">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A5,records!C2:C247,template!AK1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5,records!C2:C265,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL5">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A5,records!C2:C247,template!AL1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5,records!C2:C265,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM5">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A5,records!C2:C247,template!AM1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5,records!C2:C265,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN5">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A5,records!C2:C247,template!AN1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5,records!C2:C265,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO5">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A5,records!C2:C247,template!AO1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5,records!C2:C265,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP5">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A5,records!C2:C247,template!AP1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5,records!C2:C265,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -29661,163 +29753,163 @@
         <v>17</v>
       </c>
       <c r="C6">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A6, records!B2:B247, "&gt;=" &amp; template!C1,records!B2:B247, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!C1,records!B2:B265, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D6" s="14">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A6, records!B2:B247, "&gt;=" &amp; template!D1,records!B2:B247, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!D1,records!B2:B265, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E6">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A6, records!B2:B247, "&gt;=" &amp; template!E1,records!B2:B247, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!E1,records!B2:B265, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F6">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A6, records!B2:B247, "&gt;=" &amp; template!F1,records!B2:B247, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!F1,records!B2:B265, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A6, records!B2:B247, "&gt;=" &amp; template!G1,records!B2:B247, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!G1,records!B2:B265, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H6">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A6, records!B2:B247, "&gt;=" &amp; template!H1,records!B2:B247, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!H1,records!B2:B265, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I6">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A6, records!B2:B247, "&gt;=" &amp; template!I1,records!B2:B247, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!I1,records!B2:B265, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J6">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A6, records!B2:B247, "&gt;=" &amp; template!J1,records!B2:B247, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!J1,records!B2:B265, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K6">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A6, records!B2:B247, "&gt;=" &amp; template!K1,records!B2:B247, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!K1,records!B2:B265, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L6">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A6, records!B2:B247, "&gt;=" &amp; template!L1,records!B2:B247, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!L1,records!B2:B265, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M6">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A6, records!B2:B247, "&gt;=" &amp; template!M1,records!B2:B247, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!M1,records!B2:B265, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N6">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A6, records!B2:B247, "&gt;=" &amp; template!N1,records!B2:B247, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!N1,records!B2:B265, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O6">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A6, records!B2:B247, "&gt;=" &amp; template!O1,records!B2:B247, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!O1,records!B2:B265, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P6">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A6, records!B2:B247, "&gt;=" &amp; template!P1,records!B2:B247, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!P1,records!B2:B265, "&lt;" &amp; template!Q1)</f>
         <v>17</v>
       </c>
       <c r="Q6">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A6, records!B2:B247, "&gt;=" &amp; template!Q1,records!B2:B247, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!Q1,records!B2:B265, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R6">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A6, records!B2:B247, "&gt;=" &amp; template!R1,records!B2:B247, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!R1,records!B2:B265, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S6">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A6, records!B2:B247, "&gt;=" &amp; template!S1,records!B2:B247, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!S1,records!B2:B265, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T6">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A6, records!B2:B247, "&gt;=" &amp; template!T1,records!B2:B247, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!T1,records!B2:B265, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U6">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A6, records!B2:B247, "&gt;=" &amp; template!U1,records!B2:B247, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!U1,records!B2:B265, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V6">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A6, records!B2:B247, "&gt;=" &amp; template!V1,records!B2:B247, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!V1,records!B2:B265, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W6">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A6, records!B2:B247, "&gt;=" &amp; template!W1,records!B2:B247, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!W1,records!B2:B265, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X6">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A6, records!B2:B247, "&gt;=" &amp; template!X1,records!B2:B247, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!X1,records!B2:B265, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y6">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A6, records!B2:B247, "&gt;=" &amp; template!Y1,records!B2:B247, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!Y1,records!B2:B265, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z6">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A6, records!B2:B247, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA6">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A6,records!G2:G247,template!AA1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6,records!G2:G265,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB6">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A6,records!G2:G247,template!AB1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6,records!G2:G265,template!AB1)</f>
         <v>17</v>
       </c>
       <c r="AC6">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A6,records!G2:G247,template!AC1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6,records!G2:G265,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD6">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A6,records!G2:G247,template!AD1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6,records!G2:G265,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE6">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A6,records!C2:C247,template!AE1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6,records!C2:C265,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF6">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A6,records!C2:C247,template!AF1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6,records!C2:C265,template!AF1)</f>
         <v>17</v>
       </c>
       <c r="AG6">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A6,records!C2:C247,template!AG1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6,records!C2:C265,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH6">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A6,records!C2:C247,template!AH1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6,records!C2:C265,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI6">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A6,records!C2:C247,template!AI1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6,records!C2:C265,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ6">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A6,records!C2:C247,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6,records!C2:C265,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK6">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A6,records!C2:C247,template!AK1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6,records!C2:C265,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL6">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A6,records!C2:C247,template!AL1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6,records!C2:C265,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM6">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A6,records!C2:C247,template!AM1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6,records!C2:C265,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN6">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A6,records!C2:C247,template!AN1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6,records!C2:C265,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO6">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A6,records!C2:C247,template!AO1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6,records!C2:C265,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP6">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A6,records!C2:C247,template!AP1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6,records!C2:C265,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -29830,163 +29922,163 @@
         <v>146.69999999999999</v>
       </c>
       <c r="C7">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A7, records!B2:B247, "&gt;=" &amp; template!C1,records!B2:B247, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!C1,records!B2:B265, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D7" s="14">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A7, records!B2:B247, "&gt;=" &amp; template!D1,records!B2:B247, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!D1,records!B2:B265, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A7, records!B2:B247, "&gt;=" &amp; template!E1,records!B2:B247, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!E1,records!B2:B265, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F7">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A7, records!B2:B247, "&gt;=" &amp; template!F1,records!B2:B247, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!F1,records!B2:B265, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A7, records!B2:B247, "&gt;=" &amp; template!G1,records!B2:B247, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!G1,records!B2:B265, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H7">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A7, records!B2:B247, "&gt;=" &amp; template!H1,records!B2:B247, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!H1,records!B2:B265, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A7, records!B2:B247, "&gt;=" &amp; template!I1,records!B2:B247, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!I1,records!B2:B265, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A7, records!B2:B247, "&gt;=" &amp; template!J1,records!B2:B247, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!J1,records!B2:B265, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K7">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A7, records!B2:B247, "&gt;=" &amp; template!K1,records!B2:B247, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!K1,records!B2:B265, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L7">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A7, records!B2:B247, "&gt;=" &amp; template!L1,records!B2:B247, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!L1,records!B2:B265, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M7">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A7, records!B2:B247, "&gt;=" &amp; template!M1,records!B2:B247, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!M1,records!B2:B265, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N7">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A7, records!B2:B247, "&gt;=" &amp; template!N1,records!B2:B247, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!N1,records!B2:B265, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O7">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A7, records!B2:B247, "&gt;=" &amp; template!O1,records!B2:B247, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!O1,records!B2:B265, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P7">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A7, records!B2:B247, "&gt;=" &amp; template!P1,records!B2:B247, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!P1,records!B2:B265, "&lt;" &amp; template!Q1)</f>
         <v>16</v>
       </c>
       <c r="Q7">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A7, records!B2:B247, "&gt;=" &amp; template!Q1,records!B2:B247, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!Q1,records!B2:B265, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R7">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A7, records!B2:B247, "&gt;=" &amp; template!R1,records!B2:B247, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!R1,records!B2:B265, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S7">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A7, records!B2:B247, "&gt;=" &amp; template!S1,records!B2:B247, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!S1,records!B2:B265, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T7">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A7, records!B2:B247, "&gt;=" &amp; template!T1,records!B2:B247, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!T1,records!B2:B265, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U7">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A7, records!B2:B247, "&gt;=" &amp; template!U1,records!B2:B247, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!U1,records!B2:B265, "&lt;" &amp; template!V1)</f>
         <v>32</v>
       </c>
       <c r="V7">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A7, records!B2:B247, "&gt;=" &amp; template!V1,records!B2:B247, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!V1,records!B2:B265, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W7">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A7, records!B2:B247, "&gt;=" &amp; template!W1,records!B2:B247, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!W1,records!B2:B265, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X7">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A7, records!B2:B247, "&gt;=" &amp; template!X1,records!B2:B247, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!X1,records!B2:B265, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y7">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A7, records!B2:B247, "&gt;=" &amp; template!Y1,records!B2:B247, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!Y1,records!B2:B265, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z7">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A7, records!B2:B247, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!Z1)</f>
         <v>98.7</v>
       </c>
       <c r="AA7">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A7,records!G2:G247,template!AA1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7,records!G2:G265,template!AA1)</f>
         <v>37</v>
       </c>
       <c r="AB7">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A7,records!G2:G247,template!AB1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7,records!G2:G265,template!AB1)</f>
         <v>0</v>
       </c>
       <c r="AC7">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A7,records!G2:G247,template!AC1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7,records!G2:G265,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD7">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A7,records!G2:G247,template!AD1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7,records!G2:G265,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE7">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A7,records!C2:C247,template!AE1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7,records!C2:C265,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF7">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A7,records!C2:C247,template!AF1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7,records!C2:C265,template!AF1)</f>
         <v>16</v>
       </c>
       <c r="AG7">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A7,records!C2:C247,template!AG1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7,records!C2:C265,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH7">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A7,records!C2:C247,template!AH1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7,records!C2:C265,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI7">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A7,records!C2:C247,template!AI1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7,records!C2:C265,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ7">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A7,records!C2:C247,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7,records!C2:C265,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK7">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A7,records!C2:C247,template!AK1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7,records!C2:C265,template!AK1)</f>
         <v>11</v>
       </c>
       <c r="AL7">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A7,records!C2:C247,template!AL1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7,records!C2:C265,template!AL1)</f>
         <v>21</v>
       </c>
       <c r="AM7">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A7,records!C2:C247,template!AM1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7,records!C2:C265,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN7">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A7,records!C2:C247,template!AN1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7,records!C2:C265,template!AN1)</f>
         <v>98.7</v>
       </c>
       <c r="AO7">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A7,records!C2:C247,template!AO1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7,records!C2:C265,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP7">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A7,records!C2:C247,template!AP1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7,records!C2:C265,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -29999,163 +30091,163 @@
         <v>2017.98</v>
       </c>
       <c r="C8">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A8, records!B2:B247, "&gt;=" &amp; template!C1,records!B2:B247, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!C1,records!B2:B265, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D8" s="14">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A8, records!B2:B247, "&gt;=" &amp; template!D1,records!B2:B247, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!D1,records!B2:B265, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E8">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A8, records!B2:B247, "&gt;=" &amp; template!E1,records!B2:B247, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!E1,records!B2:B265, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A8, records!B2:B247, "&gt;=" &amp; template!F1,records!B2:B247, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!F1,records!B2:B265, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A8, records!B2:B247, "&gt;=" &amp; template!G1,records!B2:B247, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!G1,records!B2:B265, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A8, records!B2:B247, "&gt;=" &amp; template!H1,records!B2:B247, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!H1,records!B2:B265, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A8, records!B2:B247, "&gt;=" &amp; template!I1,records!B2:B247, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!I1,records!B2:B265, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A8, records!B2:B247, "&gt;=" &amp; template!J1,records!B2:B247, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!J1,records!B2:B265, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K8">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A8, records!B2:B247, "&gt;=" &amp; template!K1,records!B2:B247, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!K1,records!B2:B265, "&lt;" &amp; template!L1)</f>
         <v>2000</v>
       </c>
       <c r="L8">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A8, records!B2:B247, "&gt;=" &amp; template!L1,records!B2:B247, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!L1,records!B2:B265, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M8">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A8, records!B2:B247, "&gt;=" &amp; template!M1,records!B2:B247, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!M1,records!B2:B265, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N8">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A8, records!B2:B247, "&gt;=" &amp; template!N1,records!B2:B247, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!N1,records!B2:B265, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O8">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A8, records!B2:B247, "&gt;=" &amp; template!O1,records!B2:B247, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!O1,records!B2:B265, "&lt;" &amp; template!P1)</f>
         <v>17.98</v>
       </c>
       <c r="P8">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A8, records!B2:B247, "&gt;=" &amp; template!P1,records!B2:B247, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!P1,records!B2:B265, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A8, records!B2:B247, "&gt;=" &amp; template!Q1,records!B2:B247, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!Q1,records!B2:B265, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R8">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A8, records!B2:B247, "&gt;=" &amp; template!R1,records!B2:B247, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!R1,records!B2:B265, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S8">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A8, records!B2:B247, "&gt;=" &amp; template!S1,records!B2:B247, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!S1,records!B2:B265, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T8">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A8, records!B2:B247, "&gt;=" &amp; template!T1,records!B2:B247, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!T1,records!B2:B265, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U8">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A8, records!B2:B247, "&gt;=" &amp; template!U1,records!B2:B247, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!U1,records!B2:B265, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V8">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A8, records!B2:B247, "&gt;=" &amp; template!V1,records!B2:B247, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!V1,records!B2:B265, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W8">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A8, records!B2:B247, "&gt;=" &amp; template!W1,records!B2:B247, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!W1,records!B2:B265, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X8">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A8, records!B2:B247, "&gt;=" &amp; template!X1,records!B2:B247, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!X1,records!B2:B265, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y8">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A8, records!B2:B247, "&gt;=" &amp; template!Y1,records!B2:B247, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!Y1,records!B2:B265, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z8">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A8, records!B2:B247, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA8">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A8,records!G2:G247,template!AA1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8,records!G2:G265,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB8">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A8,records!G2:G247,template!AB1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8,records!G2:G265,template!AB1)</f>
         <v>2000</v>
       </c>
       <c r="AC8">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A8,records!G2:G247,template!AC1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8,records!G2:G265,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD8">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A8,records!G2:G247,template!AD1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8,records!G2:G265,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE8">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A8,records!C2:C247,template!AE1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8,records!C2:C265,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF8">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A8,records!C2:C247,template!AF1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8,records!C2:C265,template!AF1)</f>
         <v>17.98</v>
       </c>
       <c r="AG8">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A8,records!C2:C247,template!AG1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8,records!C2:C265,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH8">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A8,records!C2:C247,template!AH1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8,records!C2:C265,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI8">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A8,records!C2:C247,template!AI1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8,records!C2:C265,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ8">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A8,records!C2:C247,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8,records!C2:C265,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK8">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A8,records!C2:C247,template!AK1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8,records!C2:C265,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL8">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A8,records!C2:C247,template!AL1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8,records!C2:C265,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM8">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A8,records!C2:C247,template!AM1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8,records!C2:C265,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN8">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A8,records!C2:C247,template!AN1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8,records!C2:C265,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO8">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A8,records!C2:C247,template!AO1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8,records!C2:C265,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP8">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A8,records!C2:C247,template!AP1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8,records!C2:C265,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -30168,163 +30260,163 @@
         <v>1532.5</v>
       </c>
       <c r="C9">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A9, records!B2:B247, "&gt;=" &amp; template!C1,records!B2:B247, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!C1,records!B2:B265, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D9" s="14">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A9, records!B2:B247, "&gt;=" &amp; template!D1,records!B2:B247, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!D1,records!B2:B265, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A9, records!B2:B247, "&gt;=" &amp; template!E1,records!B2:B247, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!E1,records!B2:B265, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A9, records!B2:B247, "&gt;=" &amp; template!F1,records!B2:B247, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!F1,records!B2:B265, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A9, records!B2:B247, "&gt;=" &amp; template!G1,records!B2:B247, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!G1,records!B2:B265, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H9">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A9, records!B2:B247, "&gt;=" &amp; template!H1,records!B2:B247, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!H1,records!B2:B265, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A9, records!B2:B247, "&gt;=" &amp; template!I1,records!B2:B247, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!I1,records!B2:B265, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A9, records!B2:B247, "&gt;=" &amp; template!J1,records!B2:B247, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!J1,records!B2:B265, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K9">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A9, records!B2:B247, "&gt;=" &amp; template!K1,records!B2:B247, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!K1,records!B2:B265, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L9">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A9, records!B2:B247, "&gt;=" &amp; template!L1,records!B2:B247, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!L1,records!B2:B265, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M9">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A9, records!B2:B247, "&gt;=" &amp; template!M1,records!B2:B247, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!M1,records!B2:B265, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N9">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A9, records!B2:B247, "&gt;=" &amp; template!N1,records!B2:B247, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!N1,records!B2:B265, "&lt;" &amp; template!O1)</f>
         <v>2</v>
       </c>
       <c r="O9">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A9, records!B2:B247, "&gt;=" &amp; template!O1,records!B2:B247, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!O1,records!B2:B265, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P9">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A9, records!B2:B247, "&gt;=" &amp; template!P1,records!B2:B247, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!P1,records!B2:B265, "&lt;" &amp; template!Q1)</f>
         <v>20</v>
       </c>
       <c r="Q9">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A9, records!B2:B247, "&gt;=" &amp; template!Q1,records!B2:B247, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!Q1,records!B2:B265, "&lt;" &amp; template!R1)</f>
         <v>10.5</v>
       </c>
       <c r="R9">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A9, records!B2:B247, "&gt;=" &amp; template!R1,records!B2:B247, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!R1,records!B2:B265, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S9">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A9, records!B2:B247, "&gt;=" &amp; template!S1,records!B2:B247, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!S1,records!B2:B265, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T9">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A9, records!B2:B247, "&gt;=" &amp; template!T1,records!B2:B247, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!T1,records!B2:B265, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U9">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A9, records!B2:B247, "&gt;=" &amp; template!U1,records!B2:B247, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!U1,records!B2:B265, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V9">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A9, records!B2:B247, "&gt;=" &amp; template!V1,records!B2:B247, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!V1,records!B2:B265, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W9">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A9, records!B2:B247, "&gt;=" &amp; template!W1,records!B2:B247, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!W1,records!B2:B265, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X9">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A9, records!B2:B247, "&gt;=" &amp; template!X1,records!B2:B247, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!X1,records!B2:B265, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y9">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A9, records!B2:B247, "&gt;=" &amp; template!Y1,records!B2:B247, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!Y1,records!B2:B265, "&lt;" &amp; template!Z1)</f>
         <v>1500</v>
       </c>
       <c r="Z9">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A9, records!B2:B247, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA9">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A9,records!G2:G247,template!AA1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9,records!G2:G265,template!AA1)</f>
         <v>1502</v>
       </c>
       <c r="AB9">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A9,records!G2:G247,template!AB1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9,records!G2:G265,template!AB1)</f>
         <v>30.5</v>
       </c>
       <c r="AC9">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A9,records!G2:G247,template!AC1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9,records!G2:G265,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD9">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A9,records!G2:G247,template!AD1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9,records!G2:G265,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE9">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A9,records!C2:C247,template!AE1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9,records!C2:C265,template!AE1)</f>
         <v>2</v>
       </c>
       <c r="AF9">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A9,records!C2:C247,template!AF1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9,records!C2:C265,template!AF1)</f>
         <v>20</v>
       </c>
       <c r="AG9">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A9,records!C2:C247,template!AG1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9,records!C2:C265,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH9">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A9,records!C2:C247,template!AH1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9,records!C2:C265,template!AH1)</f>
         <v>1500</v>
       </c>
       <c r="AI9">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A9,records!C2:C247,template!AI1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9,records!C2:C265,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ9">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A9,records!C2:C247,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9,records!C2:C265,template!AJ1)</f>
         <v>10.5</v>
       </c>
       <c r="AK9">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A9,records!C2:C247,template!AK1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9,records!C2:C265,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL9">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A9,records!C2:C247,template!AL1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9,records!C2:C265,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM9">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A9,records!C2:C247,template!AM1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9,records!C2:C265,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN9">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A9,records!C2:C247,template!AN1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9,records!C2:C265,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO9">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A9,records!C2:C247,template!AO1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9,records!C2:C265,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP9">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A9,records!C2:C247,template!AP1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9,records!C2:C265,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -30337,163 +30429,163 @@
         <v>109</v>
       </c>
       <c r="C10">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A10, records!B2:B247, "&gt;=" &amp; template!C1,records!B2:B247, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!C1,records!B2:B265, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D10" s="14">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A10, records!B2:B247, "&gt;=" &amp; template!D1,records!B2:B247, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!D1,records!B2:B265, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E10">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A10, records!B2:B247, "&gt;=" &amp; template!E1,records!B2:B247, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!E1,records!B2:B265, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F10">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A10, records!B2:B247, "&gt;=" &amp; template!F1,records!B2:B247, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!F1,records!B2:B265, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G10">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A10, records!B2:B247, "&gt;=" &amp; template!G1,records!B2:B247, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!G1,records!B2:B265, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H10">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A10, records!B2:B247, "&gt;=" &amp; template!H1,records!B2:B247, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!H1,records!B2:B265, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I10">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A10, records!B2:B247, "&gt;=" &amp; template!I1,records!B2:B247, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!I1,records!B2:B265, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A10, records!B2:B247, "&gt;=" &amp; template!J1,records!B2:B247, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!J1,records!B2:B265, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K10">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A10, records!B2:B247, "&gt;=" &amp; template!K1,records!B2:B247, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!K1,records!B2:B265, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L10">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A10, records!B2:B247, "&gt;=" &amp; template!L1,records!B2:B247, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!L1,records!B2:B265, "&lt;" &amp; template!M1)</f>
         <v>18</v>
       </c>
       <c r="M10">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A10, records!B2:B247, "&gt;=" &amp; template!M1,records!B2:B247, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!M1,records!B2:B265, "&lt;" &amp; template!N1)</f>
         <v>15</v>
       </c>
       <c r="N10">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A10, records!B2:B247, "&gt;=" &amp; template!N1,records!B2:B247, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!N1,records!B2:B265, "&lt;" &amp; template!O1)</f>
         <v>30</v>
       </c>
       <c r="O10">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A10, records!B2:B247, "&gt;=" &amp; template!O1,records!B2:B247, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!O1,records!B2:B265, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P10">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A10, records!B2:B247, "&gt;=" &amp; template!P1,records!B2:B247, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!P1,records!B2:B265, "&lt;" &amp; template!Q1)</f>
         <v>30</v>
       </c>
       <c r="Q10">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A10, records!B2:B247, "&gt;=" &amp; template!Q1,records!B2:B247, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!Q1,records!B2:B265, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R10">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A10, records!B2:B247, "&gt;=" &amp; template!R1,records!B2:B247, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!R1,records!B2:B265, "&lt;" &amp; template!S1)</f>
         <v>6</v>
       </c>
       <c r="S10">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A10, records!B2:B247, "&gt;=" &amp; template!S1,records!B2:B247, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!S1,records!B2:B265, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T10">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A10, records!B2:B247, "&gt;=" &amp; template!T1,records!B2:B247, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!T1,records!B2:B265, "&lt;" &amp; template!U1)</f>
         <v>10</v>
       </c>
       <c r="U10">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A10, records!B2:B247, "&gt;=" &amp; template!U1,records!B2:B247, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!U1,records!B2:B265, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V10">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A10, records!B2:B247, "&gt;=" &amp; template!V1,records!B2:B247, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!V1,records!B2:B265, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W10">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A10, records!B2:B247, "&gt;=" &amp; template!W1,records!B2:B247, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!W1,records!B2:B265, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X10">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A10, records!B2:B247, "&gt;=" &amp; template!X1,records!B2:B247, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!X1,records!B2:B265, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y10">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A10, records!B2:B247, "&gt;=" &amp; template!Y1,records!B2:B247, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!Y1,records!B2:B265, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z10">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A10, records!B2:B247, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA10">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A10,records!G2:G247,template!AA1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10,records!G2:G265,template!AA1)</f>
         <v>94</v>
       </c>
       <c r="AB10">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A10,records!G2:G247,template!AB1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10,records!G2:G265,template!AB1)</f>
         <v>0</v>
       </c>
       <c r="AC10">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A10,records!G2:G247,template!AC1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10,records!G2:G265,template!AC1)</f>
         <v>15</v>
       </c>
       <c r="AD10">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A10,records!G2:G247,template!AD1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10,records!G2:G265,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE10">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A10,records!C2:C247,template!AE1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10,records!C2:C265,template!AE1)</f>
         <v>33</v>
       </c>
       <c r="AF10">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A10,records!C2:C247,template!AF1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10,records!C2:C265,template!AF1)</f>
         <v>30</v>
       </c>
       <c r="AG10">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A10,records!C2:C247,template!AG1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10,records!C2:C265,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH10">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A10,records!C2:C247,template!AH1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10,records!C2:C265,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI10">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A10,records!C2:C247,template!AI1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10,records!C2:C265,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ10">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A10,records!C2:C247,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10,records!C2:C265,template!AJ1)</f>
         <v>6</v>
       </c>
       <c r="AK10">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A10,records!C2:C247,template!AK1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10,records!C2:C265,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL10">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A10,records!C2:C247,template!AL1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10,records!C2:C265,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM10">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A10,records!C2:C247,template!AM1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10,records!C2:C265,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN10">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A10,records!C2:C247,template!AN1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10,records!C2:C265,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO10">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A10,records!C2:C247,template!AO1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10,records!C2:C265,template!AO1)</f>
         <v>10</v>
       </c>
       <c r="AP10">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A10,records!C2:C247,template!AP1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10,records!C2:C265,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -30506,163 +30598,163 @@
         <v>115</v>
       </c>
       <c r="C11">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A11, records!B2:B247, "&gt;=" &amp; template!C1,records!B2:B247, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!C1,records!B2:B265, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D11" s="14">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A11, records!B2:B247, "&gt;=" &amp; template!D1,records!B2:B247, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!D1,records!B2:B265, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E11">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A11, records!B2:B247, "&gt;=" &amp; template!E1,records!B2:B247, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!E1,records!B2:B265, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F11">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A11, records!B2:B247, "&gt;=" &amp; template!F1,records!B2:B247, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!F1,records!B2:B265, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G11">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A11, records!B2:B247, "&gt;=" &amp; template!G1,records!B2:B247, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!G1,records!B2:B265, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H11">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A11, records!B2:B247, "&gt;=" &amp; template!H1,records!B2:B247, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!H1,records!B2:B265, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I11">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A11, records!B2:B247, "&gt;=" &amp; template!I1,records!B2:B247, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!I1,records!B2:B265, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A11, records!B2:B247, "&gt;=" &amp; template!J1,records!B2:B247, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!J1,records!B2:B265, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K11">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A11, records!B2:B247, "&gt;=" &amp; template!K1,records!B2:B247, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!K1,records!B2:B265, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L11">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A11, records!B2:B247, "&gt;=" &amp; template!L1,records!B2:B247, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!L1,records!B2:B265, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M11">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A11, records!B2:B247, "&gt;=" &amp; template!M1,records!B2:B247, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!M1,records!B2:B265, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N11">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A11, records!B2:B247, "&gt;=" &amp; template!N1,records!B2:B247, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!N1,records!B2:B265, "&lt;" &amp; template!O1)</f>
         <v>18</v>
       </c>
       <c r="O11">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A11, records!B2:B247, "&gt;=" &amp; template!O1,records!B2:B247, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!O1,records!B2:B265, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P11">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A11, records!B2:B247, "&gt;=" &amp; template!P1,records!B2:B247, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!P1,records!B2:B265, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q11">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A11, records!B2:B247, "&gt;=" &amp; template!Q1,records!B2:B247, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!Q1,records!B2:B265, "&lt;" &amp; template!R1)</f>
         <v>51</v>
       </c>
       <c r="R11">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A11, records!B2:B247, "&gt;=" &amp; template!R1,records!B2:B247, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!R1,records!B2:B265, "&lt;" &amp; template!S1)</f>
         <v>15</v>
       </c>
       <c r="S11">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A11, records!B2:B247, "&gt;=" &amp; template!S1,records!B2:B247, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!S1,records!B2:B265, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T11">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A11, records!B2:B247, "&gt;=" &amp; template!T1,records!B2:B247, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!T1,records!B2:B265, "&lt;" &amp; template!U1)</f>
         <v>31</v>
       </c>
       <c r="U11">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A11, records!B2:B247, "&gt;=" &amp; template!U1,records!B2:B247, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!U1,records!B2:B265, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V11">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A11, records!B2:B247, "&gt;=" &amp; template!V1,records!B2:B247, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!V1,records!B2:B265, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W11">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A11, records!B2:B247, "&gt;=" &amp; template!W1,records!B2:B247, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!W1,records!B2:B265, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X11">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A11, records!B2:B247, "&gt;=" &amp; template!X1,records!B2:B247, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!X1,records!B2:B265, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y11">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A11, records!B2:B247, "&gt;=" &amp; template!Y1,records!B2:B247, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!Y1,records!B2:B265, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z11">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A11, records!B2:B247, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA11">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A11,records!G2:G247,template!AA1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11,records!G2:G265,template!AA1)</f>
         <v>49</v>
       </c>
       <c r="AB11">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A11,records!G2:G247,template!AB1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11,records!G2:G265,template!AB1)</f>
         <v>51</v>
       </c>
       <c r="AC11">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A11,records!G2:G247,template!AC1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11,records!G2:G265,template!AC1)</f>
         <v>15</v>
       </c>
       <c r="AD11">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A11,records!G2:G247,template!AD1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11,records!G2:G265,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE11">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A11,records!C2:C247,template!AE1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11,records!C2:C265,template!AE1)</f>
         <v>64</v>
       </c>
       <c r="AF11">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A11,records!C2:C247,template!AF1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11,records!C2:C265,template!AF1)</f>
         <v>51</v>
       </c>
       <c r="AG11">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A11,records!C2:C247,template!AG1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11,records!C2:C265,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH11">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A11,records!C2:C247,template!AH1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11,records!C2:C265,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI11">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A11,records!C2:C247,template!AI1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11,records!C2:C265,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ11">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A11,records!C2:C247,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11,records!C2:C265,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK11">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A11,records!C2:C247,template!AK1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11,records!C2:C265,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL11">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A11,records!C2:C247,template!AL1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11,records!C2:C265,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM11">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A11,records!C2:C247,template!AM1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11,records!C2:C265,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN11">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A11,records!C2:C247,template!AN1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11,records!C2:C265,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO11">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A11,records!C2:C247,template!AO1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11,records!C2:C265,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP11">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A11,records!C2:C247,template!AP1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11,records!C2:C265,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -30675,163 +30767,163 @@
         <v>100</v>
       </c>
       <c r="C12">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A12, records!B2:B247, "&gt;=" &amp; template!C1,records!B2:B247, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!C1,records!B2:B265, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D12" s="14">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A12, records!B2:B247, "&gt;=" &amp; template!D1,records!B2:B247, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!D1,records!B2:B265, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E12">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A12, records!B2:B247, "&gt;=" &amp; template!E1,records!B2:B247, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!E1,records!B2:B265, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F12">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A12, records!B2:B247, "&gt;=" &amp; template!F1,records!B2:B247, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!F1,records!B2:B265, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G12">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A12, records!B2:B247, "&gt;=" &amp; template!G1,records!B2:B247, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!G1,records!B2:B265, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H12">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A12, records!B2:B247, "&gt;=" &amp; template!H1,records!B2:B247, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!H1,records!B2:B265, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I12">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A12, records!B2:B247, "&gt;=" &amp; template!I1,records!B2:B247, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!I1,records!B2:B265, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A12, records!B2:B247, "&gt;=" &amp; template!J1,records!B2:B247, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!J1,records!B2:B265, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K12">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A12, records!B2:B247, "&gt;=" &amp; template!K1,records!B2:B247, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!K1,records!B2:B265, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L12">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A12, records!B2:B247, "&gt;=" &amp; template!L1,records!B2:B247, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!L1,records!B2:B265, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M12">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A12, records!B2:B247, "&gt;=" &amp; template!M1,records!B2:B247, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!M1,records!B2:B265, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N12">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A12, records!B2:B247, "&gt;=" &amp; template!N1,records!B2:B247, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!N1,records!B2:B265, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O12">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A12, records!B2:B247, "&gt;=" &amp; template!O1,records!B2:B247, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!O1,records!B2:B265, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P12">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A12, records!B2:B247, "&gt;=" &amp; template!P1,records!B2:B247, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!P1,records!B2:B265, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q12">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A12, records!B2:B247, "&gt;=" &amp; template!Q1,records!B2:B247, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!Q1,records!B2:B265, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R12">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A12, records!B2:B247, "&gt;=" &amp; template!R1,records!B2:B247, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!R1,records!B2:B265, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S12">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A12, records!B2:B247, "&gt;=" &amp; template!S1,records!B2:B247, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!S1,records!B2:B265, "&lt;" &amp; template!T1)</f>
         <v>88</v>
       </c>
       <c r="T12">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A12, records!B2:B247, "&gt;=" &amp; template!T1,records!B2:B247, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!T1,records!B2:B265, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U12">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A12, records!B2:B247, "&gt;=" &amp; template!U1,records!B2:B247, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!U1,records!B2:B265, "&lt;" &amp; template!V1)</f>
         <v>12</v>
       </c>
       <c r="V12">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A12, records!B2:B247, "&gt;=" &amp; template!V1,records!B2:B247, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!V1,records!B2:B265, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W12">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A12, records!B2:B247, "&gt;=" &amp; template!W1,records!B2:B247, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!W1,records!B2:B265, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X12">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A12, records!B2:B247, "&gt;=" &amp; template!X1,records!B2:B247, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!X1,records!B2:B265, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y12">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A12, records!B2:B247, "&gt;=" &amp; template!Y1,records!B2:B247, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!Y1,records!B2:B265, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z12">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A12, records!B2:B247, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA12">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A12,records!G2:G247,template!AA1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12,records!G2:G265,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB12">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A12,records!G2:G247,template!AB1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12,records!G2:G265,template!AB1)</f>
         <v>100</v>
       </c>
       <c r="AC12">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A12,records!G2:G247,template!AC1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12,records!G2:G265,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD12">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A12,records!G2:G247,template!AD1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12,records!G2:G265,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE12">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A12,records!C2:C247,template!AE1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12,records!C2:C265,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF12">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A12,records!C2:C247,template!AF1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12,records!C2:C265,template!AF1)</f>
         <v>0</v>
       </c>
       <c r="AG12">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A12,records!C2:C247,template!AG1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12,records!C2:C265,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH12">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A12,records!C2:C247,template!AH1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12,records!C2:C265,template!AH1)</f>
         <v>88</v>
       </c>
       <c r="AI12">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A12,records!C2:C247,template!AI1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12,records!C2:C265,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ12">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A12,records!C2:C247,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12,records!C2:C265,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK12">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A12,records!C2:C247,template!AK1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12,records!C2:C265,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL12">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A12,records!C2:C247,template!AL1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12,records!C2:C265,template!AL1)</f>
         <v>12</v>
       </c>
       <c r="AM12">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A12,records!C2:C247,template!AM1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12,records!C2:C265,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN12">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A12,records!C2:C247,template!AN1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12,records!C2:C265,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO12">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A12,records!C2:C247,template!AO1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12,records!C2:C265,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP12">
-        <f>SUMIFS(records!E2:E247,records!A2:A247,template!A12,records!C2:C247,template!AP1)</f>
+        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12,records!C2:C265,template!AP1)</f>
         <v>0</v>
       </c>
     </row>

--- a/excel/ledger.xlsx
+++ b/excel/ledger.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AB628A-BB4F-4B4D-90D4-53606E064A0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95FD4D1-FEE7-1046-A1D8-41A546214B49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="13640" windowHeight="11260" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3210" uniqueCount="964">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3273" uniqueCount="974">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3741,6 +3741,46 @@
   </si>
   <si>
     <t>油泼biangbiang面+冰峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉面炒年糕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020 年 4 月 9 号 一次天猫超市购物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君稻优选东北大米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消毒喷雾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7喜柠檬碳酸饮料 330ml*12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香雪麦纯富强5kg通用面粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2020 年 4 月 9 号 一次天猫超市购物											</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焖面+菜夹馍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4057,10 +4097,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4073,7 +4113,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="271">
+  <dxfs count="287">
     <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
     </dxf>
@@ -4259,6 +4299,369 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="5" tint="-0.249977111117893"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
         <name val="等线"/>
         <family val="2"/>
         <charset val="134"/>
@@ -10039,8 +10442,8 @@
     <sortCondition ref="B2:B22"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{72722D89-93C2-8A41-9B20-0A4F424C6AC1}" name="日期" dataDxfId="270"/>
-    <tableColumn id="2" xr3:uid="{E3DDD260-AD94-3B4D-A5E3-388891DDD893}" name="时间" dataDxfId="269"/>
+    <tableColumn id="1" xr3:uid="{72722D89-93C2-8A41-9B20-0A4F424C6AC1}" name="日期" dataDxfId="286"/>
+    <tableColumn id="2" xr3:uid="{E3DDD260-AD94-3B4D-A5E3-388891DDD893}" name="时间" dataDxfId="285"/>
     <tableColumn id="3" xr3:uid="{DCBF4A5F-9919-504B-8B8E-109C04FA8E2B}" name="类别"/>
     <tableColumn id="4" xr3:uid="{A8A4CCEB-557C-D346-B945-54BF13A8C825}" name="名称"/>
     <tableColumn id="5" xr3:uid="{DF4347C8-27B6-5643-97AF-17AC7096A509}" name="金额(¥)"/>
@@ -10072,262 +10475,287 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{AB454117-BA52-2544-9127-12465162C859}" name="表2_1213151620211823" displayName="表2_1213151620211823" ref="K182:S204" totalsRowShown="0" headerRowDxfId="159" dataDxfId="157" headerRowBorderDxfId="158" tableBorderDxfId="156">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{AB454117-BA52-2544-9127-12465162C859}" name="表2_1213151620211823" displayName="表2_1213151620211823" ref="K182:S204" totalsRowShown="0" headerRowDxfId="175" dataDxfId="173" headerRowBorderDxfId="174" tableBorderDxfId="172">
   <autoFilter ref="K182:S204" xr:uid="{02D241E9-3DCF-8D40-BFFA-FFE3C0F5535D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K183:S197">
     <sortCondition ref="K3:K27"/>
     <sortCondition ref="L3:L27"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{E0363E3F-8A48-934C-B29D-6F37B2A1F390}" name="日期" dataDxfId="155"/>
-    <tableColumn id="2" xr3:uid="{8EF78633-EF5B-D949-9349-9BA90D233A6B}" name="时间" dataDxfId="154"/>
-    <tableColumn id="3" xr3:uid="{0A291899-58E8-2546-9EB0-FB388ED22547}" name="类别" dataDxfId="153"/>
-    <tableColumn id="4" xr3:uid="{816B9FC9-9687-FC4B-BB06-0D42F1052B33}" name="名称" dataDxfId="152"/>
-    <tableColumn id="10" xr3:uid="{02884C40-934F-0D4A-BD96-621C5C5CA1BD}" name="金额($)" dataDxfId="151"/>
-    <tableColumn id="6" xr3:uid="{0ECCB125-B4E3-624F-8652-7FC0D1EFC1D8}" name="数量" dataDxfId="150"/>
-    <tableColumn id="7" xr3:uid="{18528009-3F29-5D42-9C0D-9AA95B859C4C}" name="支付方式" dataDxfId="149"/>
-    <tableColumn id="8" xr3:uid="{03F449A0-F068-C340-AEDC-BDBC5A0F46EB}" name="渠道" dataDxfId="148"/>
-    <tableColumn id="9" xr3:uid="{ADC9AE2A-A61B-414C-89E7-D98600793217}" name="备注" dataDxfId="147"/>
+    <tableColumn id="1" xr3:uid="{E0363E3F-8A48-934C-B29D-6F37B2A1F390}" name="日期" dataDxfId="171"/>
+    <tableColumn id="2" xr3:uid="{8EF78633-EF5B-D949-9349-9BA90D233A6B}" name="时间" dataDxfId="170"/>
+    <tableColumn id="3" xr3:uid="{0A291899-58E8-2546-9EB0-FB388ED22547}" name="类别" dataDxfId="169"/>
+    <tableColumn id="4" xr3:uid="{816B9FC9-9687-FC4B-BB06-0D42F1052B33}" name="名称" dataDxfId="168"/>
+    <tableColumn id="10" xr3:uid="{02884C40-934F-0D4A-BD96-621C5C5CA1BD}" name="金额($)" dataDxfId="167"/>
+    <tableColumn id="6" xr3:uid="{0ECCB125-B4E3-624F-8652-7FC0D1EFC1D8}" name="数量" dataDxfId="166"/>
+    <tableColumn id="7" xr3:uid="{18528009-3F29-5D42-9C0D-9AA95B859C4C}" name="支付方式" dataDxfId="165"/>
+    <tableColumn id="8" xr3:uid="{03F449A0-F068-C340-AEDC-BDBC5A0F46EB}" name="渠道" dataDxfId="164"/>
+    <tableColumn id="9" xr3:uid="{ADC9AE2A-A61B-414C-89E7-D98600793217}" name="备注" dataDxfId="163"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{87DA1393-6827-EA44-A084-237782089CCF}" name="表2_12131516202118231718" displayName="表2_12131516202118231718" ref="K207:S212" totalsRowShown="0" headerRowDxfId="146" dataDxfId="144" headerRowBorderDxfId="145" tableBorderDxfId="143">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{87DA1393-6827-EA44-A084-237782089CCF}" name="表2_12131516202118231718" displayName="表2_12131516202118231718" ref="K207:S212" totalsRowShown="0" headerRowDxfId="162" dataDxfId="160" headerRowBorderDxfId="161" tableBorderDxfId="159">
   <autoFilter ref="K207:S212" xr:uid="{91480F83-2419-784F-8386-55181DF5FEED}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K208:S212">
     <sortCondition ref="K3:K16"/>
     <sortCondition ref="L3:L16"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7C3343CA-D706-6144-8941-580B84CF394E}" name="日期" dataDxfId="142"/>
-    <tableColumn id="2" xr3:uid="{F0847EE3-B118-BE48-8689-812598FEC9AB}" name="时间" dataDxfId="141"/>
-    <tableColumn id="3" xr3:uid="{DDD877B7-BAD5-4F47-9769-A90FCED37116}" name="类别" dataDxfId="140"/>
-    <tableColumn id="4" xr3:uid="{5733AB69-4847-A948-B567-029768E79D0F}" name="名称" dataDxfId="139"/>
-    <tableColumn id="10" xr3:uid="{77BDEA3A-FF25-D243-BE63-AC4C735EE37B}" name="金额($)" dataDxfId="138"/>
-    <tableColumn id="6" xr3:uid="{E8909EDA-F899-A749-B5A9-EF6D64858A24}" name="数量" dataDxfId="137"/>
-    <tableColumn id="7" xr3:uid="{FF1D4B60-B5F5-C841-A54B-3C394BED27E0}" name="支付方式" dataDxfId="136"/>
-    <tableColumn id="8" xr3:uid="{0C20E0FA-7029-A345-AE88-BCCB51C0FB8F}" name="渠道" dataDxfId="135"/>
-    <tableColumn id="9" xr3:uid="{5E0D300F-446D-D245-97F6-C4F1EDF51911}" name="备注" dataDxfId="134"/>
+    <tableColumn id="1" xr3:uid="{7C3343CA-D706-6144-8941-580B84CF394E}" name="日期" dataDxfId="158"/>
+    <tableColumn id="2" xr3:uid="{F0847EE3-B118-BE48-8689-812598FEC9AB}" name="时间" dataDxfId="157"/>
+    <tableColumn id="3" xr3:uid="{DDD877B7-BAD5-4F47-9769-A90FCED37116}" name="类别" dataDxfId="156"/>
+    <tableColumn id="4" xr3:uid="{5733AB69-4847-A948-B567-029768E79D0F}" name="名称" dataDxfId="155"/>
+    <tableColumn id="10" xr3:uid="{77BDEA3A-FF25-D243-BE63-AC4C735EE37B}" name="金额($)" dataDxfId="154"/>
+    <tableColumn id="6" xr3:uid="{E8909EDA-F899-A749-B5A9-EF6D64858A24}" name="数量" dataDxfId="153"/>
+    <tableColumn id="7" xr3:uid="{FF1D4B60-B5F5-C841-A54B-3C394BED27E0}" name="支付方式" dataDxfId="152"/>
+    <tableColumn id="8" xr3:uid="{0C20E0FA-7029-A345-AE88-BCCB51C0FB8F}" name="渠道" dataDxfId="151"/>
+    <tableColumn id="9" xr3:uid="{5E0D300F-446D-D245-97F6-C4F1EDF51911}" name="备注" dataDxfId="150"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{D07645E1-FF51-BE44-A108-6E2E28DFE3B7}" name="表2_121315162021182317181725" displayName="表2_121315162021182317181725" ref="K131:S151" totalsRowShown="0" headerRowDxfId="133" dataDxfId="131" headerRowBorderDxfId="132" tableBorderDxfId="130">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{D07645E1-FF51-BE44-A108-6E2E28DFE3B7}" name="表2_121315162021182317181725" displayName="表2_121315162021182317181725" ref="K131:S151" totalsRowShown="0" headerRowDxfId="149" dataDxfId="147" headerRowBorderDxfId="148" tableBorderDxfId="146">
   <autoFilter ref="K131:S151" xr:uid="{7F3530B9-75AA-9F46-8D36-5829A96A835C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K132:S136">
     <sortCondition ref="K3:K16"/>
     <sortCondition ref="L3:L16"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{8388B4F3-69C3-C044-806B-2EE342EDD1C1}" name="日期" dataDxfId="129"/>
-    <tableColumn id="2" xr3:uid="{1A44F757-A145-5C4B-8846-784AA96D8FE5}" name="时间" dataDxfId="128"/>
-    <tableColumn id="3" xr3:uid="{03320F0B-381F-4E4D-8C75-FE6DCBE2496F}" name="类别" dataDxfId="127"/>
-    <tableColumn id="4" xr3:uid="{16347860-F209-A641-A3C4-CD2748326322}" name="名称" dataDxfId="126"/>
-    <tableColumn id="10" xr3:uid="{39758E3B-78A9-5A48-8DFC-3FF15887AE7E}" name="金额($)" dataDxfId="125"/>
-    <tableColumn id="6" xr3:uid="{FF6795EE-AE94-E44E-8DC0-CC26ACFADE61}" name="数量" dataDxfId="124"/>
-    <tableColumn id="7" xr3:uid="{DA94A68D-2BBE-C746-9AA4-32A4797B9173}" name="支付方式" dataDxfId="123"/>
-    <tableColumn id="8" xr3:uid="{2C9A8B05-D71F-7944-9F61-0DA82B1DFBF3}" name="渠道" dataDxfId="122"/>
-    <tableColumn id="9" xr3:uid="{EEF78B6C-8D16-8549-9C0B-F12CD0D648B8}" name="备注" dataDxfId="121"/>
+    <tableColumn id="1" xr3:uid="{8388B4F3-69C3-C044-806B-2EE342EDD1C1}" name="日期" dataDxfId="145"/>
+    <tableColumn id="2" xr3:uid="{1A44F757-A145-5C4B-8846-784AA96D8FE5}" name="时间" dataDxfId="144"/>
+    <tableColumn id="3" xr3:uid="{03320F0B-381F-4E4D-8C75-FE6DCBE2496F}" name="类别" dataDxfId="143"/>
+    <tableColumn id="4" xr3:uid="{16347860-F209-A641-A3C4-CD2748326322}" name="名称" dataDxfId="142"/>
+    <tableColumn id="10" xr3:uid="{39758E3B-78A9-5A48-8DFC-3FF15887AE7E}" name="金额($)" dataDxfId="141"/>
+    <tableColumn id="6" xr3:uid="{FF6795EE-AE94-E44E-8DC0-CC26ACFADE61}" name="数量" dataDxfId="140"/>
+    <tableColumn id="7" xr3:uid="{DA94A68D-2BBE-C746-9AA4-32A4797B9173}" name="支付方式" dataDxfId="139"/>
+    <tableColumn id="8" xr3:uid="{2C9A8B05-D71F-7944-9F61-0DA82B1DFBF3}" name="渠道" dataDxfId="138"/>
+    <tableColumn id="9" xr3:uid="{EEF78B6C-8D16-8549-9C0B-F12CD0D648B8}" name="备注" dataDxfId="137"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{E94DDC74-E61C-5249-90F9-930C74E64060}" name="表2_12131516202118231724" displayName="表2_12131516202118231724" ref="K154:V179" totalsRowShown="0" headerRowDxfId="120" dataDxfId="118" headerRowBorderDxfId="119" tableBorderDxfId="117">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{E94DDC74-E61C-5249-90F9-930C74E64060}" name="表2_12131516202118231724" displayName="表2_12131516202118231724" ref="K154:V179" totalsRowShown="0" headerRowDxfId="136" dataDxfId="134" headerRowBorderDxfId="135" tableBorderDxfId="133">
   <autoFilter ref="K154:V179" xr:uid="{A7B4FD5B-7483-B04B-9945-909AF67F9E14}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K155:S169">
     <sortCondition ref="K3:K27"/>
     <sortCondition ref="L3:L27"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{DD305DCE-D663-1142-86EC-D044803DC44F}" name="日期" dataDxfId="116"/>
-    <tableColumn id="2" xr3:uid="{6982A3CC-B1A0-4D45-BF51-C06CBB7A285C}" name="时间" dataDxfId="115"/>
-    <tableColumn id="3" xr3:uid="{912915AB-DBFC-554A-8CD9-B4F4926B4A88}" name="类别" dataDxfId="114"/>
-    <tableColumn id="4" xr3:uid="{D100A818-0E73-8B45-A0E8-8884ACD0B9A5}" name="名称" dataDxfId="113"/>
-    <tableColumn id="10" xr3:uid="{3B8E05F8-35E1-A04B-AFF1-8420B1B2683A}" name="金额($)" dataDxfId="112"/>
-    <tableColumn id="6" xr3:uid="{A0D4CAB7-832E-4C45-B8D4-06FD364054C7}" name="数量" dataDxfId="111"/>
-    <tableColumn id="7" xr3:uid="{FE530E16-074B-C844-A52C-76C806232C75}" name="支付方式" dataDxfId="110"/>
-    <tableColumn id="8" xr3:uid="{09B30289-80C0-584E-B3E0-DDD5B9414A87}" name="渠道" dataDxfId="109"/>
-    <tableColumn id="9" xr3:uid="{BA05C1CE-6415-F940-8118-34A391017EE7}" name="备注" dataDxfId="108"/>
-    <tableColumn id="11" xr3:uid="{FB53420E-50E1-4A44-8957-033A6FA13273}" name="图片地址" dataDxfId="107"/>
-    <tableColumn id="12" xr3:uid="{B614C980-4CAD-1848-BF01-7572F1B90952}" name="订单详情" dataDxfId="106"/>
-    <tableColumn id="13" xr3:uid="{B6B349AE-EC78-0846-9E99-3A5C24F68DB6}" name="列1" dataDxfId="105"/>
+    <tableColumn id="1" xr3:uid="{DD305DCE-D663-1142-86EC-D044803DC44F}" name="日期" dataDxfId="132"/>
+    <tableColumn id="2" xr3:uid="{6982A3CC-B1A0-4D45-BF51-C06CBB7A285C}" name="时间" dataDxfId="131"/>
+    <tableColumn id="3" xr3:uid="{912915AB-DBFC-554A-8CD9-B4F4926B4A88}" name="类别" dataDxfId="130"/>
+    <tableColumn id="4" xr3:uid="{D100A818-0E73-8B45-A0E8-8884ACD0B9A5}" name="名称" dataDxfId="129"/>
+    <tableColumn id="10" xr3:uid="{3B8E05F8-35E1-A04B-AFF1-8420B1B2683A}" name="金额($)" dataDxfId="128"/>
+    <tableColumn id="6" xr3:uid="{A0D4CAB7-832E-4C45-B8D4-06FD364054C7}" name="数量" dataDxfId="127"/>
+    <tableColumn id="7" xr3:uid="{FE530E16-074B-C844-A52C-76C806232C75}" name="支付方式" dataDxfId="126"/>
+    <tableColumn id="8" xr3:uid="{09B30289-80C0-584E-B3E0-DDD5B9414A87}" name="渠道" dataDxfId="125"/>
+    <tableColumn id="9" xr3:uid="{BA05C1CE-6415-F940-8118-34A391017EE7}" name="备注" dataDxfId="124"/>
+    <tableColumn id="11" xr3:uid="{FB53420E-50E1-4A44-8957-033A6FA13273}" name="图片地址" dataDxfId="123"/>
+    <tableColumn id="12" xr3:uid="{B614C980-4CAD-1848-BF01-7572F1B90952}" name="订单详情" dataDxfId="122"/>
+    <tableColumn id="13" xr3:uid="{B6B349AE-EC78-0846-9E99-3A5C24F68DB6}" name="列1" dataDxfId="121"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{029FEBD4-A447-6D48-BD02-0BE2F1B735AB}" name="表2_12131516202118231726" displayName="表2_12131516202118231726" ref="K61:V74" totalsRowShown="0" headerRowDxfId="104" dataDxfId="102" headerRowBorderDxfId="103" tableBorderDxfId="101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{029FEBD4-A447-6D48-BD02-0BE2F1B735AB}" name="表2_12131516202118231726" displayName="表2_12131516202118231726" ref="K61:V74" totalsRowShown="0" headerRowDxfId="120" dataDxfId="118" headerRowBorderDxfId="119" tableBorderDxfId="117">
   <autoFilter ref="K61:V74" xr:uid="{4A6F62B7-DFA0-0142-8AF6-16BD93B05409}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K62:S72">
     <sortCondition ref="K3:K18"/>
     <sortCondition ref="L3:L18"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{221A8622-D460-D946-9D54-30C9CDF9ACD3}" name="日期" dataDxfId="100"/>
-    <tableColumn id="2" xr3:uid="{3F799C66-E8A5-C840-9B0F-90149E0B90B8}" name="时间" dataDxfId="99"/>
-    <tableColumn id="3" xr3:uid="{247A341C-834A-D84A-B642-E4D254351147}" name="类别" dataDxfId="98"/>
-    <tableColumn id="4" xr3:uid="{66C0FF70-B0EB-1348-9A0A-A373D91877A5}" name="名称" dataDxfId="97"/>
-    <tableColumn id="10" xr3:uid="{F2CF9D3F-1599-2140-A9E3-6DD2BB6718A0}" name="金额($)" dataDxfId="96"/>
-    <tableColumn id="6" xr3:uid="{7A2F9865-1F89-7847-BBB5-866D4F8ACE2C}" name="数量" dataDxfId="95"/>
-    <tableColumn id="7" xr3:uid="{4D476744-220B-7845-B018-74BE17061F7F}" name="支付方式" dataDxfId="94"/>
-    <tableColumn id="8" xr3:uid="{DAAED3F4-C2DA-3C42-AA43-0EB6C981D90B}" name="渠道" dataDxfId="93"/>
-    <tableColumn id="9" xr3:uid="{01438435-C03F-5E4C-B03F-CBE95D393CA8}" name="备注" dataDxfId="92"/>
-    <tableColumn id="11" xr3:uid="{EF6A6F82-FA89-1643-BF62-35B9E06215E1}" name="图片地址" dataDxfId="91"/>
-    <tableColumn id="12" xr3:uid="{AE1B08C3-3787-9045-A6A9-2A9595E5C02A}" name="订单详情" dataDxfId="90"/>
-    <tableColumn id="13" xr3:uid="{817576EA-B0A3-324E-A3B3-3DCDD8FFE8C3}" name="列1" dataDxfId="89"/>
+    <tableColumn id="1" xr3:uid="{221A8622-D460-D946-9D54-30C9CDF9ACD3}" name="日期" dataDxfId="116"/>
+    <tableColumn id="2" xr3:uid="{3F799C66-E8A5-C840-9B0F-90149E0B90B8}" name="时间" dataDxfId="115"/>
+    <tableColumn id="3" xr3:uid="{247A341C-834A-D84A-B642-E4D254351147}" name="类别" dataDxfId="114"/>
+    <tableColumn id="4" xr3:uid="{66C0FF70-B0EB-1348-9A0A-A373D91877A5}" name="名称" dataDxfId="113"/>
+    <tableColumn id="10" xr3:uid="{F2CF9D3F-1599-2140-A9E3-6DD2BB6718A0}" name="金额($)" dataDxfId="112"/>
+    <tableColumn id="6" xr3:uid="{7A2F9865-1F89-7847-BBB5-866D4F8ACE2C}" name="数量" dataDxfId="111"/>
+    <tableColumn id="7" xr3:uid="{4D476744-220B-7845-B018-74BE17061F7F}" name="支付方式" dataDxfId="110"/>
+    <tableColumn id="8" xr3:uid="{DAAED3F4-C2DA-3C42-AA43-0EB6C981D90B}" name="渠道" dataDxfId="109"/>
+    <tableColumn id="9" xr3:uid="{01438435-C03F-5E4C-B03F-CBE95D393CA8}" name="备注" dataDxfId="108"/>
+    <tableColumn id="11" xr3:uid="{EF6A6F82-FA89-1643-BF62-35B9E06215E1}" name="图片地址" dataDxfId="107"/>
+    <tableColumn id="12" xr3:uid="{AE1B08C3-3787-9045-A6A9-2A9595E5C02A}" name="订单详情" dataDxfId="106"/>
+    <tableColumn id="13" xr3:uid="{817576EA-B0A3-324E-A3B3-3DCDD8FFE8C3}" name="列1" dataDxfId="105"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{3F2EC857-243B-2645-AF03-53AF6C939B9F}" name="表2_121315162021182317181727" displayName="表2_121315162021182317181727" ref="K215:S239" totalsRowShown="0" headerRowDxfId="88" dataDxfId="86" headerRowBorderDxfId="87" tableBorderDxfId="85">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{3F2EC857-243B-2645-AF03-53AF6C939B9F}" name="表2_121315162021182317181727" displayName="表2_121315162021182317181727" ref="K215:S239" totalsRowShown="0" headerRowDxfId="104" dataDxfId="102" headerRowBorderDxfId="103" tableBorderDxfId="101">
   <autoFilter ref="K215:S239" xr:uid="{DAC89B1E-920B-0D43-AD39-2C0F93C33525}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K216:S220">
     <sortCondition ref="K3:K16"/>
     <sortCondition ref="L3:L16"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B8C31F80-1A4B-4648-8E25-9594C529804C}" name="日期" dataDxfId="84"/>
-    <tableColumn id="2" xr3:uid="{E3FE4CDC-CB02-4547-8A6E-7B5018F830B9}" name="时间" dataDxfId="83"/>
-    <tableColumn id="3" xr3:uid="{B830E525-327C-5445-91BD-134C2E975CA1}" name="类别" dataDxfId="82"/>
-    <tableColumn id="4" xr3:uid="{4C06D8FD-B007-FD4D-A0C6-EEFCD7D2462D}" name="名称" dataDxfId="81"/>
-    <tableColumn id="10" xr3:uid="{CB8B18FA-634B-DF42-96C1-13B16D3B4C37}" name="金额($)" dataDxfId="80"/>
-    <tableColumn id="6" xr3:uid="{8F79BF8F-58E2-DD43-8F4A-93643167882D}" name="数量" dataDxfId="79"/>
-    <tableColumn id="7" xr3:uid="{3563508A-5295-5443-AB75-74063E5F55C3}" name="支付方式" dataDxfId="78"/>
-    <tableColumn id="8" xr3:uid="{8FC2120B-449C-2B40-8921-5B059E22E49F}" name="渠道" dataDxfId="77"/>
-    <tableColumn id="9" xr3:uid="{64B8FCA5-512D-FE47-92FF-7DDFBB7884E4}" name="备注" dataDxfId="76"/>
+    <tableColumn id="1" xr3:uid="{B8C31F80-1A4B-4648-8E25-9594C529804C}" name="日期" dataDxfId="100"/>
+    <tableColumn id="2" xr3:uid="{E3FE4CDC-CB02-4547-8A6E-7B5018F830B9}" name="时间" dataDxfId="99"/>
+    <tableColumn id="3" xr3:uid="{B830E525-327C-5445-91BD-134C2E975CA1}" name="类别" dataDxfId="98"/>
+    <tableColumn id="4" xr3:uid="{4C06D8FD-B007-FD4D-A0C6-EEFCD7D2462D}" name="名称" dataDxfId="97"/>
+    <tableColumn id="10" xr3:uid="{CB8B18FA-634B-DF42-96C1-13B16D3B4C37}" name="金额($)" dataDxfId="96"/>
+    <tableColumn id="6" xr3:uid="{8F79BF8F-58E2-DD43-8F4A-93643167882D}" name="数量" dataDxfId="95"/>
+    <tableColumn id="7" xr3:uid="{3563508A-5295-5443-AB75-74063E5F55C3}" name="支付方式" dataDxfId="94"/>
+    <tableColumn id="8" xr3:uid="{8FC2120B-449C-2B40-8921-5B059E22E49F}" name="渠道" dataDxfId="93"/>
+    <tableColumn id="9" xr3:uid="{64B8FCA5-512D-FE47-92FF-7DDFBB7884E4}" name="备注" dataDxfId="92"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{7E52F1F1-47DF-7043-BC6F-D5DF62C49306}" name="表2_121315162021182317242829" displayName="表2_121315162021182317242829" ref="K242:V250" totalsRowShown="0" headerRowDxfId="75" dataDxfId="73" headerRowBorderDxfId="74" tableBorderDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{7E52F1F1-47DF-7043-BC6F-D5DF62C49306}" name="表2_121315162021182317242829" displayName="表2_121315162021182317242829" ref="K242:V250" totalsRowShown="0" headerRowDxfId="91" dataDxfId="89" headerRowBorderDxfId="90" tableBorderDxfId="88">
   <autoFilter ref="K242:V250" xr:uid="{9E59D046-D048-C843-8065-387FC3638EC9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K243:S250">
     <sortCondition ref="K3:K18"/>
     <sortCondition ref="L3:L18"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{8BAAA80A-A7FB-9C4C-AB5C-CFA3B8FABC98}" name="日期" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{347E57DF-2B5E-BD40-86C8-8F59D0256FB2}" name="时间" dataDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{18E112DA-9A28-A74E-8CC6-4AC29E6C30CC}" name="类别" dataDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{A72441B5-BA41-F64F-8F0A-4E80E2BC5460}" name="名称" dataDxfId="68"/>
-    <tableColumn id="10" xr3:uid="{432E6622-AC43-064E-8A9A-7E2979B64C81}" name="金额($)" dataDxfId="67"/>
-    <tableColumn id="6" xr3:uid="{F7CC930A-519F-ED47-88BB-E7F6BC8E72F5}" name="数量" dataDxfId="66"/>
-    <tableColumn id="7" xr3:uid="{3F34C0C1-C8A9-EC44-BE7B-5E1805884F14}" name="支付方式" dataDxfId="65"/>
-    <tableColumn id="8" xr3:uid="{84730249-F504-F740-AC25-9A561C529D42}" name="渠道" dataDxfId="64"/>
-    <tableColumn id="9" xr3:uid="{AD4DD8A8-6A02-8F4F-91F0-DD7F2E94B253}" name="备注" dataDxfId="63"/>
-    <tableColumn id="11" xr3:uid="{6AE29104-87BA-6448-A1D6-3EFCD9E408DF}" name="图片地址" dataDxfId="62"/>
-    <tableColumn id="12" xr3:uid="{E7D376F1-44BE-7F42-B1F6-9A6FAA1BD658}" name="订单详情" dataDxfId="61"/>
-    <tableColumn id="13" xr3:uid="{22C41DAC-55E6-8342-96F8-4842A3C8659C}" name="列1" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{8BAAA80A-A7FB-9C4C-AB5C-CFA3B8FABC98}" name="日期" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{347E57DF-2B5E-BD40-86C8-8F59D0256FB2}" name="时间" dataDxfId="86"/>
+    <tableColumn id="3" xr3:uid="{18E112DA-9A28-A74E-8CC6-4AC29E6C30CC}" name="类别" dataDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{A72441B5-BA41-F64F-8F0A-4E80E2BC5460}" name="名称" dataDxfId="84"/>
+    <tableColumn id="10" xr3:uid="{432E6622-AC43-064E-8A9A-7E2979B64C81}" name="金额($)" dataDxfId="83"/>
+    <tableColumn id="6" xr3:uid="{F7CC930A-519F-ED47-88BB-E7F6BC8E72F5}" name="数量" dataDxfId="82"/>
+    <tableColumn id="7" xr3:uid="{3F34C0C1-C8A9-EC44-BE7B-5E1805884F14}" name="支付方式" dataDxfId="81"/>
+    <tableColumn id="8" xr3:uid="{84730249-F504-F740-AC25-9A561C529D42}" name="渠道" dataDxfId="80"/>
+    <tableColumn id="9" xr3:uid="{AD4DD8A8-6A02-8F4F-91F0-DD7F2E94B253}" name="备注" dataDxfId="79"/>
+    <tableColumn id="11" xr3:uid="{6AE29104-87BA-6448-A1D6-3EFCD9E408DF}" name="图片地址" dataDxfId="78"/>
+    <tableColumn id="12" xr3:uid="{E7D376F1-44BE-7F42-B1F6-9A6FAA1BD658}" name="订单详情" dataDxfId="77"/>
+    <tableColumn id="13" xr3:uid="{22C41DAC-55E6-8342-96F8-4842A3C8659C}" name="列1" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{13C46A62-F0CF-624F-B8B1-05BDFB8205C2}" name="表2_1213151620211823172428291728" displayName="表2_1213151620211823172428291728" ref="K253:V263" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{13C46A62-F0CF-624F-B8B1-05BDFB8205C2}" name="表2_1213151620211823172428291728" displayName="表2_1213151620211823172428291728" ref="K253:V263" totalsRowShown="0" headerRowDxfId="75" dataDxfId="73" headerRowBorderDxfId="74" tableBorderDxfId="72">
   <autoFilter ref="K253:V263" xr:uid="{71BAF812-C1FF-6F47-99C9-6676E531B0D8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K254:S263">
     <sortCondition ref="K3:K22"/>
     <sortCondition ref="L3:L22"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{0C9C24D4-6C4E-1E41-BB19-A753D30EEB1F}" name="日期" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{DD9E0D3C-D75B-7344-9697-18B109EBC526}" name="时间" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{B3D44877-D397-E74C-9786-4AAD53F1C29A}" name="类别" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{85A74C0F-056C-DC4F-BD60-3893462862FD}" name="名称" dataDxfId="52"/>
-    <tableColumn id="10" xr3:uid="{4B8BC20A-FA2D-D746-9B6C-1D4BE3D2C843}" name="金额($)" dataDxfId="51"/>
-    <tableColumn id="6" xr3:uid="{5FF34829-EC22-F94F-A5F1-1CB8DBF311F3}" name="数量" dataDxfId="50"/>
-    <tableColumn id="7" xr3:uid="{BD4A1933-54F8-9646-9A4D-27A96AF4CA46}" name="支付方式" dataDxfId="49"/>
-    <tableColumn id="8" xr3:uid="{1503903D-9129-4C4E-8961-6908E3A522D3}" name="渠道" dataDxfId="48"/>
-    <tableColumn id="9" xr3:uid="{3DFBD95E-56A9-094F-9730-442A433CD346}" name="备注" dataDxfId="47"/>
-    <tableColumn id="11" xr3:uid="{2D754D37-9C71-014D-AB90-8F1CCFD5FDDE}" name="图片地址" dataDxfId="46"/>
-    <tableColumn id="12" xr3:uid="{CA6406E3-CEEA-6C43-BBAD-D43411B562C0}" name="订单详情" dataDxfId="45"/>
-    <tableColumn id="13" xr3:uid="{EBF9066D-8CDB-424B-9C3D-A0DC5CD8CBC2}" name="列1" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{0C9C24D4-6C4E-1E41-BB19-A753D30EEB1F}" name="日期" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{DD9E0D3C-D75B-7344-9697-18B109EBC526}" name="时间" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{B3D44877-D397-E74C-9786-4AAD53F1C29A}" name="类别" dataDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{85A74C0F-056C-DC4F-BD60-3893462862FD}" name="名称" dataDxfId="68"/>
+    <tableColumn id="10" xr3:uid="{4B8BC20A-FA2D-D746-9B6C-1D4BE3D2C843}" name="金额($)" dataDxfId="67"/>
+    <tableColumn id="6" xr3:uid="{5FF34829-EC22-F94F-A5F1-1CB8DBF311F3}" name="数量" dataDxfId="66"/>
+    <tableColumn id="7" xr3:uid="{BD4A1933-54F8-9646-9A4D-27A96AF4CA46}" name="支付方式" dataDxfId="65"/>
+    <tableColumn id="8" xr3:uid="{1503903D-9129-4C4E-8961-6908E3A522D3}" name="渠道" dataDxfId="64"/>
+    <tableColumn id="9" xr3:uid="{3DFBD95E-56A9-094F-9730-442A433CD346}" name="备注" dataDxfId="63"/>
+    <tableColumn id="11" xr3:uid="{2D754D37-9C71-014D-AB90-8F1CCFD5FDDE}" name="图片地址" dataDxfId="62"/>
+    <tableColumn id="12" xr3:uid="{CA6406E3-CEEA-6C43-BBAD-D43411B562C0}" name="订单详情" dataDxfId="61"/>
+    <tableColumn id="13" xr3:uid="{EBF9066D-8CDB-424B-9C3D-A0DC5CD8CBC2}" name="列1" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{72BCC51D-4165-C448-B82C-A263B9880D62}" name="表2_1213151620211823171817" displayName="表2_1213151620211823171817" ref="K266:S287" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{72BCC51D-4165-C448-B82C-A263B9880D62}" name="表2_1213151620211823171817" displayName="表2_1213151620211823171817" ref="K266:S287" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56">
   <autoFilter ref="K266:S287" xr:uid="{5F6D25BB-3E42-564C-AA79-91B0EBC07FC4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K267:S271">
     <sortCondition ref="K258:K271"/>
     <sortCondition ref="L258:L271"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{43D08019-CB55-E64C-A582-7164C07BFAE3}" name="日期" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{F26B41EC-36EA-DB41-9395-C974B983BC85}" name="时间" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{8BB0E3BF-A9E0-384C-B2E1-E0712FA9168F}" name="类别" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{3DF4AEFA-B488-8142-A801-684FB87323C6}" name="名称" dataDxfId="36"/>
-    <tableColumn id="10" xr3:uid="{D9233AF3-A6D1-5247-B635-FF8D4E0BE30C}" name="金额($)" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{2DBFCA37-8FE3-EB43-B50F-71029FD28038}" name="数量" dataDxfId="34"/>
-    <tableColumn id="7" xr3:uid="{74FB31CE-3FBF-3442-8881-4B7A979E7271}" name="支付方式" dataDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{D290E6A6-DF8D-6C4A-9138-C20E189FEFDD}" name="渠道" dataDxfId="32"/>
-    <tableColumn id="9" xr3:uid="{BE73F99C-935F-9F42-AEC7-18342B2A8982}" name="备注" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{43D08019-CB55-E64C-A582-7164C07BFAE3}" name="日期" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{F26B41EC-36EA-DB41-9395-C974B983BC85}" name="时间" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{8BB0E3BF-A9E0-384C-B2E1-E0712FA9168F}" name="类别" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{3DF4AEFA-B488-8142-A801-684FB87323C6}" name="名称" dataDxfId="52"/>
+    <tableColumn id="10" xr3:uid="{D9233AF3-A6D1-5247-B635-FF8D4E0BE30C}" name="金额($)" dataDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{2DBFCA37-8FE3-EB43-B50F-71029FD28038}" name="数量" dataDxfId="50"/>
+    <tableColumn id="7" xr3:uid="{74FB31CE-3FBF-3442-8881-4B7A979E7271}" name="支付方式" dataDxfId="49"/>
+    <tableColumn id="8" xr3:uid="{D290E6A6-DF8D-6C4A-9138-C20E189FEFDD}" name="渠道" dataDxfId="48"/>
+    <tableColumn id="9" xr3:uid="{BE73F99C-935F-9F42-AEC7-18342B2A8982}" name="备注" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA735AAC-C770-2E42-A456-00A4A31FA22B}" name="表2" displayName="表2" ref="K2:U30" totalsRowShown="0" headerRowDxfId="268" dataDxfId="266" headerRowBorderDxfId="267" tableBorderDxfId="265">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA735AAC-C770-2E42-A456-00A4A31FA22B}" name="表2" displayName="表2" ref="K2:U30" totalsRowShown="0" headerRowDxfId="284" dataDxfId="282" headerRowBorderDxfId="283" tableBorderDxfId="281">
   <autoFilter ref="K2:U30" xr:uid="{4793C34A-1C18-7E44-A39F-05257DC17272}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K3:U30">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{A8855FFB-69E8-5346-85D7-D302A4361F0D}" name="日期" dataDxfId="264"/>
-    <tableColumn id="2" xr3:uid="{7F5C8AE4-748F-B249-94E5-C82E8B468666}" name="时间" dataDxfId="263"/>
-    <tableColumn id="3" xr3:uid="{2038DB5F-A483-5B45-BD40-2EE71479D120}" name="类别" dataDxfId="262"/>
-    <tableColumn id="4" xr3:uid="{866FA0C4-A8D9-954D-B79F-91827E135B06}" name="名称" dataDxfId="261"/>
-    <tableColumn id="10" xr3:uid="{BDBE979D-A86E-9A42-B694-AF71E0F9E33B}" name="金额($)" dataDxfId="260"/>
-    <tableColumn id="11" xr3:uid="{34065CA2-B34E-7E48-9114-CF6B6AC8F093}" name="金额(陈)" dataDxfId="259"/>
-    <tableColumn id="5" xr3:uid="{A5B56494-2462-CB4D-8877-6002352002FB}" name="金额(李)" dataDxfId="258"/>
-    <tableColumn id="6" xr3:uid="{040AF034-DFE5-1447-B9DF-4AE4E769137D}" name="数量" dataDxfId="257"/>
-    <tableColumn id="7" xr3:uid="{C33AE25B-0D3A-124A-889B-B96CBDD49041}" name="支付方式" dataDxfId="256"/>
-    <tableColumn id="8" xr3:uid="{FDC575F4-37F8-2B42-AA8E-F9581923CCAD}" name="渠道" dataDxfId="255"/>
-    <tableColumn id="9" xr3:uid="{EBDE8156-8EBE-DE42-AE3D-F526626C95E6}" name="备注" dataDxfId="254"/>
+    <tableColumn id="1" xr3:uid="{A8855FFB-69E8-5346-85D7-D302A4361F0D}" name="日期" dataDxfId="280"/>
+    <tableColumn id="2" xr3:uid="{7F5C8AE4-748F-B249-94E5-C82E8B468666}" name="时间" dataDxfId="279"/>
+    <tableColumn id="3" xr3:uid="{2038DB5F-A483-5B45-BD40-2EE71479D120}" name="类别" dataDxfId="278"/>
+    <tableColumn id="4" xr3:uid="{866FA0C4-A8D9-954D-B79F-91827E135B06}" name="名称" dataDxfId="277"/>
+    <tableColumn id="10" xr3:uid="{BDBE979D-A86E-9A42-B694-AF71E0F9E33B}" name="金额($)" dataDxfId="276"/>
+    <tableColumn id="11" xr3:uid="{34065CA2-B34E-7E48-9114-CF6B6AC8F093}" name="金额(陈)" dataDxfId="275"/>
+    <tableColumn id="5" xr3:uid="{A5B56494-2462-CB4D-8877-6002352002FB}" name="金额(李)" dataDxfId="274"/>
+    <tableColumn id="6" xr3:uid="{040AF034-DFE5-1447-B9DF-4AE4E769137D}" name="数量" dataDxfId="273"/>
+    <tableColumn id="7" xr3:uid="{C33AE25B-0D3A-124A-889B-B96CBDD49041}" name="支付方式" dataDxfId="272"/>
+    <tableColumn id="8" xr3:uid="{FDC575F4-37F8-2B42-AA8E-F9581923CCAD}" name="渠道" dataDxfId="271"/>
+    <tableColumn id="9" xr3:uid="{EBDE8156-8EBE-DE42-AE3D-F526626C95E6}" name="备注" dataDxfId="270"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{FB357124-CAEC-3A4F-9AD4-7015BDE6A775}" name="表2_1213151620211823171817273031" displayName="表2_1213151620211823171817273031" ref="K290:S297" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{FB357124-CAEC-3A4F-9AD4-7015BDE6A775}" name="表2_1213151620211823171817273031" displayName="表2_1213151620211823171817273031" ref="K290:S297" totalsRowShown="0" headerRowDxfId="46" dataDxfId="44" headerRowBorderDxfId="45" tableBorderDxfId="43">
   <autoFilter ref="K290:S297" xr:uid="{19D2B74C-350E-264E-98FF-E443C6433870}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K291:S295">
     <sortCondition ref="K3:K16"/>
     <sortCondition ref="L3:L16"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{9F482AF4-8898-3D4C-9C3D-D4CF5443AA65}" name="日期" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{D4017213-F6BD-CD45-B890-1657F2E760B3}" name="时间" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{4D0F7953-22E6-5145-98C4-202DC7DFA362}" name="类别" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{2FD150A8-7F79-3042-8703-1432B4938FC8}" name="名称" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{6730A74C-034E-7C45-B932-A54930F60E7E}" name="金额($)" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{B1BA88F4-FDAC-3D49-9152-2FE21693D2D0}" name="数量" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{05EF7F84-CFDB-AF40-B6F0-5EDC117FD992}" name="支付方式" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{2E853F2D-E108-3E48-83B5-BBA8785D9168}" name="渠道" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{D8BEB0D1-5FD6-EC41-BA7B-1FA7AD6A53C6}" name="备注" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{9F482AF4-8898-3D4C-9C3D-D4CF5443AA65}" name="日期" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{D4017213-F6BD-CD45-B890-1657F2E760B3}" name="时间" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{4D0F7953-22E6-5145-98C4-202DC7DFA362}" name="类别" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{2FD150A8-7F79-3042-8703-1432B4938FC8}" name="名称" dataDxfId="39"/>
+    <tableColumn id="10" xr3:uid="{6730A74C-034E-7C45-B932-A54930F60E7E}" name="金额($)" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{B1BA88F4-FDAC-3D49-9152-2FE21693D2D0}" name="数量" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{05EF7F84-CFDB-AF40-B6F0-5EDC117FD992}" name="支付方式" dataDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{2E853F2D-E108-3E48-83B5-BBA8785D9168}" name="渠道" dataDxfId="35"/>
+    <tableColumn id="9" xr3:uid="{D8BEB0D1-5FD6-EC41-BA7B-1FA7AD6A53C6}" name="备注" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{A091A92C-8D15-494C-9271-1560616714FF}" name="表2_12131516202118231724282917283032" displayName="表2_12131516202118231724282917283032" ref="K300:V306" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30">
+  <autoFilter ref="K300:V306" xr:uid="{67CE5601-EEEE-6546-A415-E03486A4FB5C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K301:S306">
+    <sortCondition ref="K3:K18"/>
+    <sortCondition ref="L3:L18"/>
+  </sortState>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{B98629A6-9FDE-6643-B4DC-7CE89F44DFE3}" name="日期" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{4D159D06-7404-9042-B7E8-270ECCC8AF58}" name="时间" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{390AD1F2-6635-6945-83F9-F128B4BCD775}" name="类别" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{3238EEAF-9D23-3443-A46F-CD3E778E1BAE}" name="名称" dataDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{FAD10A5C-DA42-3948-8033-2170DA2E709C}" name="金额($)" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{025F8947-3C16-7C4C-AC34-773D099DA4B8}" name="数量" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{C8AEE753-1F17-6F41-982A-2983AFDF83CC}" name="支付方式" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{55CEAD31-BBC4-A644-91D8-1700DA9E8AC0}" name="渠道" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{070A6CEC-45AD-7347-BB5D-E9A8284F9CD9}" name="备注" dataDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{AA22FFCA-B274-9245-91E7-7F58AD731074}" name="图片地址" dataDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{0C9A315A-FA3C-6647-9CB0-EEF0FCD034F3}" name="订单详情" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{CBC19044-2043-5A4E-A2F5-7013CD1CB630}" name="列1" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E8827FEC-29EB-A64F-A117-AB93F5AF704B}" name="表4" displayName="表4" ref="A2:Z29" totalsRowShown="0">
   <autoFilter ref="A2:Z29" xr:uid="{ADCC33E7-0DD1-FA45-9C41-7D7E3B5A50FC}"/>
   <tableColumns count="26">
@@ -10362,7 +10790,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{608D5E4E-7BC0-414D-A696-97B3CAE12BE2}" name="表7" displayName="表7" ref="AB2:AG16" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
   <autoFilter ref="AB2:AG16" xr:uid="{D99BBCC0-26F8-584F-82AF-B9C9A1318EBC}"/>
   <tableColumns count="6">
@@ -10377,7 +10805,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{410100AD-10E0-4F44-9412-B97D896BE399}" name="表12_14" displayName="表12_14" ref="AI2:AV16" totalsRowShown="0">
   <autoFilter ref="AI2:AV16" xr:uid="{89D068C2-82CB-8047-9DFF-C45CD4BCF7C3}"/>
   <tableColumns count="14">
@@ -10400,7 +10828,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4A8A3C27-EB59-8440-9FAF-B3CF2592953D}" name="表8" displayName="表8" ref="A1:AR3" totalsRowShown="0">
   <autoFilter ref="A1:AR3" xr:uid="{0F1C729B-8ECB-2146-BFBD-8CF0DB869F75}"/>
   <tableColumns count="44">
@@ -10453,7 +10881,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{02022759-1D6A-1B48-A9EF-B4775205DB9B}" name="表10" displayName="表10" ref="A1:AR2" totalsRowShown="0">
   <autoFilter ref="A1:AR2" xr:uid="{2368815E-0083-7C4E-AFD6-5BD45387C155}"/>
   <tableColumns count="44">
@@ -10506,7 +10934,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A5C76C99-5210-AA4E-88F9-DA6CB4EC7370}" name="表6" displayName="表6" ref="A1:B2" totalsRowShown="0">
   <autoFilter ref="A1:B2" xr:uid="{6D1BEB71-2A6D-204C-90D6-33D32A457DF7}"/>
   <tableColumns count="2">
@@ -10519,7 +10947,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{90CCD7A2-463A-D647-96DA-22DFD0FBF9A0}" name="表3" displayName="表3" ref="A1:AP32" totalsRowShown="0">
   <autoFilter ref="A1:AP32" xr:uid="{506FB319-DAC5-C74F-9129-972A005A58DA}"/>
   <tableColumns count="42">
@@ -10572,7 +11000,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{80315183-2A95-B14D-B6F6-AFEEA10909ED}" name="表5" displayName="表5" ref="A34:AR36" totalsRowShown="0">
   <autoFilter ref="A34:AR36" xr:uid="{36935680-17BE-F74F-88AB-1DDEC0F4D885}"/>
   <tableColumns count="44">
@@ -10625,7 +11053,29 @@
 </table>
 </file>
 
-<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{11A792C6-3B2B-EB45-B402-6B17FF6ECC12}" name="表2_12" displayName="表2_12" ref="K33:S41" totalsRowShown="0" headerRowDxfId="269" dataDxfId="267" headerRowBorderDxfId="268" tableBorderDxfId="266">
+  <autoFilter ref="K33:S41" xr:uid="{BF5DEAC1-034C-6E4F-BFC7-2363B9047242}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K34:S60">
+    <sortCondition ref="K3:K30"/>
+    <sortCondition ref="L3:L30"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{9E6DCB6F-2192-F341-9E3F-1C4530C10FA8}" name="日期" dataDxfId="265"/>
+    <tableColumn id="2" xr3:uid="{E2BCBFCC-07FA-4144-B6A7-6BA37CAE0B0B}" name="时间" dataDxfId="264"/>
+    <tableColumn id="3" xr3:uid="{9E554D31-EFE4-EC43-967A-01E672C5B7F9}" name="类别" dataDxfId="263"/>
+    <tableColumn id="4" xr3:uid="{7F292805-5DAB-FB40-9F28-0C7BCA16DAA0}" name="名称" dataDxfId="262"/>
+    <tableColumn id="10" xr3:uid="{2F81F807-05F7-C04A-BB0E-654041F5B9F6}" name="金额($)" dataDxfId="261"/>
+    <tableColumn id="6" xr3:uid="{6DBF3C40-8B26-0048-A1C9-BE6D68464C6F}" name="数量" dataDxfId="260"/>
+    <tableColumn id="7" xr3:uid="{A64FDE06-A678-4646-A55C-2026413CC908}" name="支付方式" dataDxfId="259"/>
+    <tableColumn id="8" xr3:uid="{3352A65C-6558-D843-9D75-CEE8687567E5}" name="渠道" dataDxfId="258"/>
+    <tableColumn id="9" xr3:uid="{9E21A11A-E4AD-DA4D-B780-F28E44B87A61}" name="备注" dataDxfId="257"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9E9531E0-077A-C14A-B48F-4B3304B57241}" name="表9" displayName="表9" ref="A40:AR41" totalsRowShown="0">
   <autoFilter ref="A40:AR41" xr:uid="{76002C9A-0A0E-6F40-A4AF-4AD85C0C63A4}"/>
   <tableColumns count="44">
@@ -10760,153 +11210,131 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{11A792C6-3B2B-EB45-B402-6B17FF6ECC12}" name="表2_12" displayName="表2_12" ref="K33:S41" totalsRowShown="0" headerRowDxfId="253" dataDxfId="251" headerRowBorderDxfId="252" tableBorderDxfId="250">
-  <autoFilter ref="K33:S41" xr:uid="{BF5DEAC1-034C-6E4F-BFC7-2363B9047242}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K34:S60">
-    <sortCondition ref="K3:K30"/>
-    <sortCondition ref="L3:L30"/>
-  </sortState>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{9E6DCB6F-2192-F341-9E3F-1C4530C10FA8}" name="日期" dataDxfId="249"/>
-    <tableColumn id="2" xr3:uid="{E2BCBFCC-07FA-4144-B6A7-6BA37CAE0B0B}" name="时间" dataDxfId="248"/>
-    <tableColumn id="3" xr3:uid="{9E554D31-EFE4-EC43-967A-01E672C5B7F9}" name="类别" dataDxfId="247"/>
-    <tableColumn id="4" xr3:uid="{7F292805-5DAB-FB40-9F28-0C7BCA16DAA0}" name="名称" dataDxfId="246"/>
-    <tableColumn id="10" xr3:uid="{2F81F807-05F7-C04A-BB0E-654041F5B9F6}" name="金额($)" dataDxfId="245"/>
-    <tableColumn id="6" xr3:uid="{6DBF3C40-8B26-0048-A1C9-BE6D68464C6F}" name="数量" dataDxfId="244"/>
-    <tableColumn id="7" xr3:uid="{A64FDE06-A678-4646-A55C-2026413CC908}" name="支付方式" dataDxfId="243"/>
-    <tableColumn id="8" xr3:uid="{3352A65C-6558-D843-9D75-CEE8687567E5}" name="渠道" dataDxfId="242"/>
-    <tableColumn id="9" xr3:uid="{9E21A11A-E4AD-DA4D-B780-F28E44B87A61}" name="备注" dataDxfId="241"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{8E6CF227-0B2A-9943-95A9-E98C28AA3996}" name="表2_1213" displayName="表2_1213" ref="K44:S50" totalsRowShown="0" headerRowDxfId="240" dataDxfId="238" headerRowBorderDxfId="239" tableBorderDxfId="237">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{8E6CF227-0B2A-9943-95A9-E98C28AA3996}" name="表2_1213" displayName="表2_1213" ref="K44:S50" totalsRowShown="0" headerRowDxfId="256" dataDxfId="254" headerRowBorderDxfId="255" tableBorderDxfId="253">
   <autoFilter ref="K44:S50" xr:uid="{DBBD540D-9ACB-A74D-BB39-A853F97094BD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K45:S69">
     <sortCondition ref="K2:K29"/>
     <sortCondition ref="L2:L29"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{BD21C2E9-1BF4-1A48-903A-DCDEC887088A}" name="日期" dataDxfId="236"/>
-    <tableColumn id="2" xr3:uid="{B11C4ABC-6240-EF48-A31A-8BECF6AE51C3}" name="时间" dataDxfId="235"/>
-    <tableColumn id="3" xr3:uid="{67754CDC-1A19-9D49-B251-9EC86E09BE70}" name="类别" dataDxfId="234"/>
-    <tableColumn id="4" xr3:uid="{3F8C96A0-999F-A049-BCA0-6ED855C07086}" name="名称" dataDxfId="233"/>
-    <tableColumn id="10" xr3:uid="{CF71653C-3CB6-274A-8499-A136549F1D07}" name="金额($)" dataDxfId="232"/>
-    <tableColumn id="6" xr3:uid="{99FBADE8-F414-3D4E-9F3B-BDE3571F4BA1}" name="数量" dataDxfId="231"/>
-    <tableColumn id="7" xr3:uid="{24CADA98-38C4-8143-AA5C-9D7AE4D2221D}" name="支付方式" dataDxfId="230"/>
-    <tableColumn id="8" xr3:uid="{1D3BEB19-BBEB-C845-87BF-7C23136790B9}" name="渠道" dataDxfId="229"/>
-    <tableColumn id="9" xr3:uid="{3855FCA6-738B-7D49-9DEE-4106312F0DB2}" name="备注" dataDxfId="228"/>
+    <tableColumn id="1" xr3:uid="{BD21C2E9-1BF4-1A48-903A-DCDEC887088A}" name="日期" dataDxfId="252"/>
+    <tableColumn id="2" xr3:uid="{B11C4ABC-6240-EF48-A31A-8BECF6AE51C3}" name="时间" dataDxfId="251"/>
+    <tableColumn id="3" xr3:uid="{67754CDC-1A19-9D49-B251-9EC86E09BE70}" name="类别" dataDxfId="250"/>
+    <tableColumn id="4" xr3:uid="{3F8C96A0-999F-A049-BCA0-6ED855C07086}" name="名称" dataDxfId="249"/>
+    <tableColumn id="10" xr3:uid="{CF71653C-3CB6-274A-8499-A136549F1D07}" name="金额($)" dataDxfId="248"/>
+    <tableColumn id="6" xr3:uid="{99FBADE8-F414-3D4E-9F3B-BDE3571F4BA1}" name="数量" dataDxfId="247"/>
+    <tableColumn id="7" xr3:uid="{24CADA98-38C4-8143-AA5C-9D7AE4D2221D}" name="支付方式" dataDxfId="246"/>
+    <tableColumn id="8" xr3:uid="{1D3BEB19-BBEB-C845-87BF-7C23136790B9}" name="渠道" dataDxfId="245"/>
+    <tableColumn id="9" xr3:uid="{3855FCA6-738B-7D49-9DEE-4106312F0DB2}" name="备注" dataDxfId="244"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{85D5A6C9-0983-1F49-9E7D-1C7D322B37A0}" name="表2_121315" displayName="表2_121315" ref="K77:S84" totalsRowShown="0" headerRowDxfId="227" dataDxfId="225" headerRowBorderDxfId="226" tableBorderDxfId="224">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{85D5A6C9-0983-1F49-9E7D-1C7D322B37A0}" name="表2_121315" displayName="表2_121315" ref="K77:S84" totalsRowShown="0" headerRowDxfId="243" dataDxfId="241" headerRowBorderDxfId="242" tableBorderDxfId="240">
   <autoFilter ref="K77:S84" xr:uid="{835B7ABE-F456-CF45-8A7D-5507E998E23E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K78:S103">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{74D9CA40-4FE9-984A-A0EB-AA2378AD6CA6}" name="日期" dataDxfId="223"/>
-    <tableColumn id="2" xr3:uid="{399F4564-6842-1545-B8AF-E02DAC43416A}" name="时间" dataDxfId="222"/>
-    <tableColumn id="3" xr3:uid="{E8144FE3-3D58-0443-AF79-8BF552410036}" name="类别" dataDxfId="221"/>
-    <tableColumn id="4" xr3:uid="{8FBB1190-B9EE-0A40-B8AF-1F9469490287}" name="名称" dataDxfId="220"/>
-    <tableColumn id="10" xr3:uid="{0C6C1CDC-B4E4-8645-8C6D-D53E3E0CFEAC}" name="金额($)" dataDxfId="219"/>
-    <tableColumn id="6" xr3:uid="{D8196724-FF67-DD4A-A1BE-F88FB8237117}" name="数量" dataDxfId="218"/>
-    <tableColumn id="7" xr3:uid="{321E4B00-5C56-AF45-956D-93589BC551AF}" name="支付方式" dataDxfId="217"/>
-    <tableColumn id="8" xr3:uid="{8C94CA3B-1B09-C945-8241-D03F6F239F9F}" name="渠道" dataDxfId="216"/>
-    <tableColumn id="9" xr3:uid="{F056B581-94F6-6A4D-9231-DDC1C0437631}" name="备注" dataDxfId="215"/>
+    <tableColumn id="1" xr3:uid="{74D9CA40-4FE9-984A-A0EB-AA2378AD6CA6}" name="日期" dataDxfId="239"/>
+    <tableColumn id="2" xr3:uid="{399F4564-6842-1545-B8AF-E02DAC43416A}" name="时间" dataDxfId="238"/>
+    <tableColumn id="3" xr3:uid="{E8144FE3-3D58-0443-AF79-8BF552410036}" name="类别" dataDxfId="237"/>
+    <tableColumn id="4" xr3:uid="{8FBB1190-B9EE-0A40-B8AF-1F9469490287}" name="名称" dataDxfId="236"/>
+    <tableColumn id="10" xr3:uid="{0C6C1CDC-B4E4-8645-8C6D-D53E3E0CFEAC}" name="金额($)" dataDxfId="235"/>
+    <tableColumn id="6" xr3:uid="{D8196724-FF67-DD4A-A1BE-F88FB8237117}" name="数量" dataDxfId="234"/>
+    <tableColumn id="7" xr3:uid="{321E4B00-5C56-AF45-956D-93589BC551AF}" name="支付方式" dataDxfId="233"/>
+    <tableColumn id="8" xr3:uid="{8C94CA3B-1B09-C945-8241-D03F6F239F9F}" name="渠道" dataDxfId="232"/>
+    <tableColumn id="9" xr3:uid="{F056B581-94F6-6A4D-9231-DDC1C0437631}" name="备注" dataDxfId="231"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{5A08404A-170A-AF43-8E1D-DF9862393746}" name="表2_12131516" displayName="表2_12131516" ref="K87:S91" totalsRowShown="0" headerRowDxfId="214" dataDxfId="212" headerRowBorderDxfId="213" tableBorderDxfId="211">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{5A08404A-170A-AF43-8E1D-DF9862393746}" name="表2_12131516" displayName="表2_12131516" ref="K87:S91" totalsRowShown="0" headerRowDxfId="230" dataDxfId="228" headerRowBorderDxfId="229" tableBorderDxfId="227">
   <autoFilter ref="K87:S91" xr:uid="{94896363-E9F6-6743-B1C8-ACC0B149BEDF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K88:S110">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{834FC3A7-2586-5448-8952-7C3E0EC89688}" name="日期" dataDxfId="210"/>
-    <tableColumn id="2" xr3:uid="{7F1EF38F-268A-0F46-942E-72A9EF34A342}" name="时间" dataDxfId="209"/>
-    <tableColumn id="3" xr3:uid="{28FEEB6B-3150-6649-9028-BA0EE86B0496}" name="类别" dataDxfId="208"/>
-    <tableColumn id="4" xr3:uid="{347E68C4-C92A-4D49-BDAE-84DC38ED641B}" name="名称" dataDxfId="207"/>
-    <tableColumn id="10" xr3:uid="{17182FB7-D83A-1D4A-99C7-3B78D3BC590F}" name="金额($)" dataDxfId="206"/>
-    <tableColumn id="6" xr3:uid="{53E4A12C-B04D-EB4B-A0DE-59416C400198}" name="数量" dataDxfId="205"/>
-    <tableColumn id="7" xr3:uid="{393090AF-7A3C-C54A-825A-64E2B42A460E}" name="支付方式" dataDxfId="204"/>
-    <tableColumn id="8" xr3:uid="{549E8A07-2F1C-804C-B9F0-258E3F72FC60}" name="渠道" dataDxfId="203"/>
-    <tableColumn id="9" xr3:uid="{92665FCA-79D8-8145-8646-27E3066FA64C}" name="备注" dataDxfId="202"/>
+    <tableColumn id="1" xr3:uid="{834FC3A7-2586-5448-8952-7C3E0EC89688}" name="日期" dataDxfId="226"/>
+    <tableColumn id="2" xr3:uid="{7F1EF38F-268A-0F46-942E-72A9EF34A342}" name="时间" dataDxfId="225"/>
+    <tableColumn id="3" xr3:uid="{28FEEB6B-3150-6649-9028-BA0EE86B0496}" name="类别" dataDxfId="224"/>
+    <tableColumn id="4" xr3:uid="{347E68C4-C92A-4D49-BDAE-84DC38ED641B}" name="名称" dataDxfId="223"/>
+    <tableColumn id="10" xr3:uid="{17182FB7-D83A-1D4A-99C7-3B78D3BC590F}" name="金额($)" dataDxfId="222"/>
+    <tableColumn id="6" xr3:uid="{53E4A12C-B04D-EB4B-A0DE-59416C400198}" name="数量" dataDxfId="221"/>
+    <tableColumn id="7" xr3:uid="{393090AF-7A3C-C54A-825A-64E2B42A460E}" name="支付方式" dataDxfId="220"/>
+    <tableColumn id="8" xr3:uid="{549E8A07-2F1C-804C-B9F0-258E3F72FC60}" name="渠道" dataDxfId="219"/>
+    <tableColumn id="9" xr3:uid="{92665FCA-79D8-8145-8646-27E3066FA64C}" name="备注" dataDxfId="218"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{F8F4C9F9-ECF7-484B-BF22-500571CA134E}" name="表18" displayName="表18" ref="K53:U58" totalsRowShown="0" headerRowDxfId="201" dataDxfId="199" headerRowBorderDxfId="200" tableBorderDxfId="198" totalsRowBorderDxfId="197">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{F8F4C9F9-ECF7-484B-BF22-500571CA134E}" name="表18" displayName="表18" ref="K53:U58" totalsRowShown="0" headerRowDxfId="217" dataDxfId="215" headerRowBorderDxfId="216" tableBorderDxfId="214" totalsRowBorderDxfId="213">
   <autoFilter ref="K53:U58" xr:uid="{D9ADCBF8-F752-BD45-92A5-FF212FE991D9}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{A7BB4249-B024-D844-9DC5-DC40FE447B69}" name="日期" dataDxfId="196"/>
-    <tableColumn id="2" xr3:uid="{371CFA43-DD16-3D47-BFDB-319E8BB2562D}" name="时间" dataDxfId="195"/>
-    <tableColumn id="3" xr3:uid="{9E72B5C9-6F7B-EB40-B273-DC1E26E01184}" name="类别" dataDxfId="194"/>
-    <tableColumn id="4" xr3:uid="{05B51FE5-06F7-3B4A-9CE8-59C692D71DB6}" name="名称" dataDxfId="193"/>
-    <tableColumn id="5" xr3:uid="{971993D3-228B-BE4F-9FBE-3D1DDDBB8726}" name="金额($)" dataDxfId="192"/>
-    <tableColumn id="6" xr3:uid="{8E3188D8-5443-0141-87FC-8B6D4AFFEF54}" name="金额(陈)" dataDxfId="191"/>
-    <tableColumn id="7" xr3:uid="{648E2B1A-EBE3-8F4A-95A3-A09F24E0C9DA}" name="金额(李)" dataDxfId="190"/>
-    <tableColumn id="8" xr3:uid="{7D50B75C-424D-034A-9749-4961F0A2F2C9}" name="数量" dataDxfId="189"/>
-    <tableColumn id="9" xr3:uid="{85652E18-1A14-BD49-B7D7-2C7AA1447817}" name="支付方式" dataDxfId="188"/>
-    <tableColumn id="10" xr3:uid="{C770346D-F261-0347-B5FE-63CC5BAF59B4}" name="渠道" dataDxfId="187"/>
-    <tableColumn id="11" xr3:uid="{31FD91E5-37C9-BE46-9FA0-02CFBF3E45E1}" name="备注" dataDxfId="186"/>
+    <tableColumn id="1" xr3:uid="{A7BB4249-B024-D844-9DC5-DC40FE447B69}" name="日期" dataDxfId="212"/>
+    <tableColumn id="2" xr3:uid="{371CFA43-DD16-3D47-BFDB-319E8BB2562D}" name="时间" dataDxfId="211"/>
+    <tableColumn id="3" xr3:uid="{9E72B5C9-6F7B-EB40-B273-DC1E26E01184}" name="类别" dataDxfId="210"/>
+    <tableColumn id="4" xr3:uid="{05B51FE5-06F7-3B4A-9CE8-59C692D71DB6}" name="名称" dataDxfId="209"/>
+    <tableColumn id="5" xr3:uid="{971993D3-228B-BE4F-9FBE-3D1DDDBB8726}" name="金额($)" dataDxfId="208"/>
+    <tableColumn id="6" xr3:uid="{8E3188D8-5443-0141-87FC-8B6D4AFFEF54}" name="金额(陈)" dataDxfId="207"/>
+    <tableColumn id="7" xr3:uid="{648E2B1A-EBE3-8F4A-95A3-A09F24E0C9DA}" name="金额(李)" dataDxfId="206"/>
+    <tableColumn id="8" xr3:uid="{7D50B75C-424D-034A-9749-4961F0A2F2C9}" name="数量" dataDxfId="205"/>
+    <tableColumn id="9" xr3:uid="{85652E18-1A14-BD49-B7D7-2C7AA1447817}" name="支付方式" dataDxfId="204"/>
+    <tableColumn id="10" xr3:uid="{C770346D-F261-0347-B5FE-63CC5BAF59B4}" name="渠道" dataDxfId="203"/>
+    <tableColumn id="11" xr3:uid="{31FD91E5-37C9-BE46-9FA0-02CFBF3E45E1}" name="备注" dataDxfId="202"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{606E3E97-D81D-AB41-BA99-E007537886BF}" name="表2_1213151620" displayName="表2_1213151620" ref="K94:S100" totalsRowShown="0" headerRowDxfId="185" dataDxfId="183" headerRowBorderDxfId="184" tableBorderDxfId="182">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{606E3E97-D81D-AB41-BA99-E007537886BF}" name="表2_1213151620" displayName="表2_1213151620" ref="K94:S100" totalsRowShown="0" headerRowDxfId="201" dataDxfId="199" headerRowBorderDxfId="200" tableBorderDxfId="198">
   <autoFilter ref="K94:S100" xr:uid="{2674F753-E0FA-1844-8EF2-AF7541B04290}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K95:S119">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{15D7FFBF-4311-7F47-914F-8B84FE5F4082}" name="日期" dataDxfId="181"/>
-    <tableColumn id="2" xr3:uid="{27DD3D02-CE0C-FF46-B0B1-235BB58DA381}" name="时间" dataDxfId="180"/>
-    <tableColumn id="3" xr3:uid="{3F62F38A-6972-5A49-B690-81990D2CC035}" name="类别" dataDxfId="179"/>
-    <tableColumn id="4" xr3:uid="{EA1F0C6D-25C3-7342-8D38-1ADC56C101DF}" name="名称" dataDxfId="178"/>
-    <tableColumn id="10" xr3:uid="{90C5F47D-F18D-7942-A073-EAF9720C1C5F}" name="金额($)" dataDxfId="177"/>
-    <tableColumn id="6" xr3:uid="{23DA7484-2642-294C-B615-581AB57BD3A1}" name="数量" dataDxfId="176"/>
-    <tableColumn id="7" xr3:uid="{82AC8D78-CF26-9F4D-8211-2B13B307DFC3}" name="支付方式" dataDxfId="175"/>
-    <tableColumn id="8" xr3:uid="{91141D7B-3679-F747-9F5F-E409D72331DA}" name="渠道" dataDxfId="174"/>
-    <tableColumn id="9" xr3:uid="{529F0920-90E6-EB41-A2FB-D0928A57CD99}" name="备注" dataDxfId="173"/>
+    <tableColumn id="1" xr3:uid="{15D7FFBF-4311-7F47-914F-8B84FE5F4082}" name="日期" dataDxfId="197"/>
+    <tableColumn id="2" xr3:uid="{27DD3D02-CE0C-FF46-B0B1-235BB58DA381}" name="时间" dataDxfId="196"/>
+    <tableColumn id="3" xr3:uid="{3F62F38A-6972-5A49-B690-81990D2CC035}" name="类别" dataDxfId="195"/>
+    <tableColumn id="4" xr3:uid="{EA1F0C6D-25C3-7342-8D38-1ADC56C101DF}" name="名称" dataDxfId="194"/>
+    <tableColumn id="10" xr3:uid="{90C5F47D-F18D-7942-A073-EAF9720C1C5F}" name="金额($)" dataDxfId="193"/>
+    <tableColumn id="6" xr3:uid="{23DA7484-2642-294C-B615-581AB57BD3A1}" name="数量" dataDxfId="192"/>
+    <tableColumn id="7" xr3:uid="{82AC8D78-CF26-9F4D-8211-2B13B307DFC3}" name="支付方式" dataDxfId="191"/>
+    <tableColumn id="8" xr3:uid="{91141D7B-3679-F747-9F5F-E409D72331DA}" name="渠道" dataDxfId="190"/>
+    <tableColumn id="9" xr3:uid="{529F0920-90E6-EB41-A2FB-D0928A57CD99}" name="备注" dataDxfId="189"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{65F04204-4685-BD44-A9A9-528E74381FD5}" name="表2_121315162021" displayName="表2_121315162021" ref="K103:S109" totalsRowShown="0" headerRowDxfId="172" dataDxfId="170" headerRowBorderDxfId="171" tableBorderDxfId="169">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{65F04204-4685-BD44-A9A9-528E74381FD5}" name="表2_121315162021" displayName="表2_121315162021" ref="K103:S109" totalsRowShown="0" headerRowDxfId="188" dataDxfId="186" headerRowBorderDxfId="187" tableBorderDxfId="185">
   <autoFilter ref="K103:S109" xr:uid="{667113CE-E40C-644A-9375-DFFA158F767D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K104:S128">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{86FDBD0A-C64B-684E-88E4-97A9B8A90394}" name="日期" dataDxfId="168"/>
-    <tableColumn id="2" xr3:uid="{E706DFF2-17A8-074C-A9BC-624F5932127D}" name="时间" dataDxfId="167"/>
-    <tableColumn id="3" xr3:uid="{4178F89C-CD46-CA48-BE92-ECFE4C3DFE56}" name="类别" dataDxfId="166"/>
-    <tableColumn id="4" xr3:uid="{A549C014-3FFF-9F40-9F34-910684A4517C}" name="名称" dataDxfId="165"/>
-    <tableColumn id="10" xr3:uid="{C84AE528-810C-6C47-8DF2-AF970AF9A2D4}" name="金额($)" dataDxfId="164"/>
-    <tableColumn id="6" xr3:uid="{5270CAB9-ED19-D449-9926-0A2551F4C6AD}" name="数量" dataDxfId="163"/>
-    <tableColumn id="7" xr3:uid="{A50583DC-76A3-3246-BBE9-4A25FC54C124}" name="支付方式" dataDxfId="162"/>
-    <tableColumn id="8" xr3:uid="{F0F66474-976C-7E44-8C1D-71BF0D6187AB}" name="渠道" dataDxfId="161"/>
-    <tableColumn id="9" xr3:uid="{7CB81F3A-0F01-4E45-8F36-0A6F6C393579}" name="备注" dataDxfId="160"/>
+    <tableColumn id="1" xr3:uid="{86FDBD0A-C64B-684E-88E4-97A9B8A90394}" name="日期" dataDxfId="184"/>
+    <tableColumn id="2" xr3:uid="{E706DFF2-17A8-074C-A9BC-624F5932127D}" name="时间" dataDxfId="183"/>
+    <tableColumn id="3" xr3:uid="{4178F89C-CD46-CA48-BE92-ECFE4C3DFE56}" name="类别" dataDxfId="182"/>
+    <tableColumn id="4" xr3:uid="{A549C014-3FFF-9F40-9F34-910684A4517C}" name="名称" dataDxfId="181"/>
+    <tableColumn id="10" xr3:uid="{C84AE528-810C-6C47-8DF2-AF970AF9A2D4}" name="金额($)" dataDxfId="180"/>
+    <tableColumn id="6" xr3:uid="{5270CAB9-ED19-D449-9926-0A2551F4C6AD}" name="数量" dataDxfId="179"/>
+    <tableColumn id="7" xr3:uid="{A50583DC-76A3-3246-BBE9-4A25FC54C124}" name="支付方式" dataDxfId="178"/>
+    <tableColumn id="8" xr3:uid="{F0F66474-976C-7E44-8C1D-71BF0D6187AB}" name="渠道" dataDxfId="177"/>
+    <tableColumn id="9" xr3:uid="{7CB81F3A-0F01-4E45-8F36-0A6F6C393579}" name="备注" dataDxfId="176"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11209,10 +11637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C81ADFD-2D83-574A-AD81-B8046C388F80}">
-  <dimension ref="A1:V297"/>
+  <dimension ref="A1:V306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A234" zoomScale="88" workbookViewId="0">
-      <selection activeCell="C248" sqref="C248"/>
+    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="88" workbookViewId="0">
+      <selection activeCell="D252" sqref="D252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11256,19 +11684,19 @@
       <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="1">
@@ -13045,17 +13473,17 @@
       <c r="I32" t="s">
         <v>141</v>
       </c>
-      <c r="K32" s="40" t="s">
+      <c r="K32" s="41" t="s">
         <v>354</v>
       </c>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
       <c r="T32" s="29"/>
       <c r="U32" s="29"/>
     </row>
@@ -13574,17 +14002,17 @@
       <c r="I43" t="s">
         <v>197</v>
       </c>
-      <c r="K43" s="40" t="s">
+      <c r="K43" s="41" t="s">
         <v>354</v>
       </c>
-      <c r="L43" s="40"/>
-      <c r="M43" s="40"/>
-      <c r="N43" s="40"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="40"/>
-      <c r="S43" s="40"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="41"/>
+      <c r="S43" s="41"/>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="1">
@@ -14001,19 +14429,19 @@
       <c r="I52" t="s">
         <v>141</v>
       </c>
-      <c r="K52" s="41" t="s">
+      <c r="K52" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="L52" s="41"/>
-      <c r="M52" s="41"/>
-      <c r="N52" s="41"/>
-      <c r="O52" s="41"/>
-      <c r="P52" s="41"/>
-      <c r="Q52" s="41"/>
-      <c r="R52" s="41"/>
-      <c r="S52" s="41"/>
-      <c r="T52" s="41"/>
-      <c r="U52" s="41"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="40"/>
+      <c r="R52" s="40"/>
+      <c r="S52" s="40"/>
+      <c r="T52" s="40"/>
+      <c r="U52" s="40"/>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="1">
@@ -14444,20 +14872,20 @@
       <c r="I60" t="s">
         <v>231</v>
       </c>
-      <c r="K60" s="41" t="s">
+      <c r="K60" s="40" t="s">
         <v>666</v>
       </c>
-      <c r="L60" s="41"/>
-      <c r="M60" s="41"/>
-      <c r="N60" s="41"/>
-      <c r="O60" s="41"/>
-      <c r="P60" s="41"/>
-      <c r="Q60" s="41"/>
-      <c r="R60" s="41"/>
-      <c r="S60" s="41"/>
-      <c r="T60" s="41"/>
-      <c r="U60" s="41"/>
-      <c r="V60" s="41"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="40"/>
+      <c r="O60" s="40"/>
+      <c r="P60" s="40"/>
+      <c r="Q60" s="40"/>
+      <c r="R60" s="40"/>
+      <c r="S60" s="40"/>
+      <c r="T60" s="40"/>
+      <c r="U60" s="40"/>
+      <c r="V60" s="40"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="1">
@@ -15376,17 +15804,17 @@
       <c r="I76" t="s">
         <v>262</v>
       </c>
-      <c r="K76" s="40" t="s">
+      <c r="K76" s="41" t="s">
         <v>348</v>
       </c>
-      <c r="L76" s="40"/>
-      <c r="M76" s="40"/>
-      <c r="N76" s="40"/>
-      <c r="O76" s="40"/>
-      <c r="P76" s="40"/>
-      <c r="Q76" s="40"/>
-      <c r="R76" s="40"/>
-      <c r="S76" s="40"/>
+      <c r="L76" s="41"/>
+      <c r="M76" s="41"/>
+      <c r="N76" s="41"/>
+      <c r="O76" s="41"/>
+      <c r="P76" s="41"/>
+      <c r="Q76" s="41"/>
+      <c r="R76" s="41"/>
+      <c r="S76" s="41"/>
     </row>
     <row r="77" spans="1:22">
       <c r="A77" s="1">
@@ -15850,17 +16278,17 @@
       <c r="I86" t="s">
         <v>176</v>
       </c>
-      <c r="K86" s="40" t="s">
+      <c r="K86" s="41" t="s">
         <v>368</v>
       </c>
-      <c r="L86" s="40"/>
-      <c r="M86" s="40"/>
-      <c r="N86" s="40"/>
-      <c r="O86" s="40"/>
-      <c r="P86" s="40"/>
-      <c r="Q86" s="40"/>
-      <c r="R86" s="40"/>
-      <c r="S86" s="40"/>
+      <c r="L86" s="41"/>
+      <c r="M86" s="41"/>
+      <c r="N86" s="41"/>
+      <c r="O86" s="41"/>
+      <c r="P86" s="41"/>
+      <c r="Q86" s="41"/>
+      <c r="R86" s="41"/>
+      <c r="S86" s="41"/>
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="1">
@@ -16165,17 +16593,17 @@
       <c r="I93" t="s">
         <v>141</v>
       </c>
-      <c r="K93" s="40" t="s">
+      <c r="K93" s="41" t="s">
         <v>379</v>
       </c>
-      <c r="L93" s="40"/>
-      <c r="M93" s="40"/>
-      <c r="N93" s="40"/>
-      <c r="O93" s="40"/>
-      <c r="P93" s="40"/>
-      <c r="Q93" s="40"/>
-      <c r="R93" s="40"/>
-      <c r="S93" s="40"/>
+      <c r="L93" s="41"/>
+      <c r="M93" s="41"/>
+      <c r="N93" s="41"/>
+      <c r="O93" s="41"/>
+      <c r="P93" s="41"/>
+      <c r="Q93" s="41"/>
+      <c r="R93" s="41"/>
+      <c r="S93" s="41"/>
     </row>
     <row r="94" spans="1:19">
       <c r="A94" s="1">
@@ -16577,17 +17005,17 @@
       <c r="H102" t="s">
         <v>291</v>
       </c>
-      <c r="K102" s="40" t="s">
+      <c r="K102" s="41" t="s">
         <v>379</v>
       </c>
-      <c r="L102" s="40"/>
-      <c r="M102" s="40"/>
-      <c r="N102" s="40"/>
-      <c r="O102" s="40"/>
-      <c r="P102" s="40"/>
-      <c r="Q102" s="40"/>
-      <c r="R102" s="40"/>
-      <c r="S102" s="40"/>
+      <c r="L102" s="41"/>
+      <c r="M102" s="41"/>
+      <c r="N102" s="41"/>
+      <c r="O102" s="41"/>
+      <c r="P102" s="41"/>
+      <c r="Q102" s="41"/>
+      <c r="R102" s="41"/>
+      <c r="S102" s="41"/>
     </row>
     <row r="103" spans="1:19">
       <c r="A103" s="1">
@@ -17887,17 +18315,17 @@
       <c r="H130" t="s">
         <v>283</v>
       </c>
-      <c r="K130" s="40" t="s">
+      <c r="K130" s="41" t="s">
         <v>549</v>
       </c>
-      <c r="L130" s="40"/>
-      <c r="M130" s="40"/>
-      <c r="N130" s="40"/>
-      <c r="O130" s="40"/>
-      <c r="P130" s="40"/>
-      <c r="Q130" s="40"/>
-      <c r="R130" s="40"/>
-      <c r="S130" s="40"/>
+      <c r="L130" s="41"/>
+      <c r="M130" s="41"/>
+      <c r="N130" s="41"/>
+      <c r="O130" s="41"/>
+      <c r="P130" s="41"/>
+      <c r="Q130" s="41"/>
+      <c r="R130" s="41"/>
+      <c r="S130" s="41"/>
     </row>
     <row r="131" spans="1:19">
       <c r="A131" s="1">
@@ -19074,20 +19502,20 @@
       <c r="I153" t="s">
         <v>415</v>
       </c>
-      <c r="K153" s="41" t="s">
+      <c r="K153" s="40" t="s">
         <v>597</v>
       </c>
-      <c r="L153" s="41"/>
-      <c r="M153" s="41"/>
-      <c r="N153" s="41"/>
-      <c r="O153" s="41"/>
-      <c r="P153" s="41"/>
-      <c r="Q153" s="41"/>
-      <c r="R153" s="41"/>
-      <c r="S153" s="41"/>
-      <c r="T153" s="41"/>
-      <c r="U153" s="41"/>
-      <c r="V153" s="41"/>
+      <c r="L153" s="40"/>
+      <c r="M153" s="40"/>
+      <c r="N153" s="40"/>
+      <c r="O153" s="40"/>
+      <c r="P153" s="40"/>
+      <c r="Q153" s="40"/>
+      <c r="R153" s="40"/>
+      <c r="S153" s="40"/>
+      <c r="T153" s="40"/>
+      <c r="U153" s="40"/>
+      <c r="V153" s="40"/>
     </row>
     <row r="154" spans="1:22">
       <c r="A154" s="1">
@@ -20705,17 +21133,17 @@
       <c r="I181" t="s">
         <v>703</v>
       </c>
-      <c r="K181" s="40" t="s">
+      <c r="K181" s="41" t="s">
         <v>531</v>
       </c>
-      <c r="L181" s="40"/>
-      <c r="M181" s="40"/>
-      <c r="N181" s="40"/>
-      <c r="O181" s="40"/>
-      <c r="P181" s="40"/>
-      <c r="Q181" s="40"/>
-      <c r="R181" s="40"/>
-      <c r="S181" s="40"/>
+      <c r="L181" s="41"/>
+      <c r="M181" s="41"/>
+      <c r="N181" s="41"/>
+      <c r="O181" s="41"/>
+      <c r="P181" s="41"/>
+      <c r="Q181" s="41"/>
+      <c r="R181" s="41"/>
+      <c r="S181" s="41"/>
     </row>
     <row r="182" spans="1:22">
       <c r="A182" s="1">
@@ -22015,17 +22443,17 @@
       <c r="H206" t="s">
         <v>216</v>
       </c>
-      <c r="K206" s="40" t="s">
+      <c r="K206" s="41" t="s">
         <v>533</v>
       </c>
-      <c r="L206" s="40"/>
-      <c r="M206" s="40"/>
-      <c r="N206" s="40"/>
-      <c r="O206" s="40"/>
-      <c r="P206" s="40"/>
-      <c r="Q206" s="40"/>
-      <c r="R206" s="40"/>
-      <c r="S206" s="40"/>
+      <c r="L206" s="41"/>
+      <c r="M206" s="41"/>
+      <c r="N206" s="41"/>
+      <c r="O206" s="41"/>
+      <c r="P206" s="41"/>
+      <c r="Q206" s="41"/>
+      <c r="R206" s="41"/>
+      <c r="S206" s="41"/>
     </row>
     <row r="207" spans="1:19">
       <c r="A207" s="1">
@@ -22376,17 +22804,17 @@
       <c r="H214" t="s">
         <v>25</v>
       </c>
-      <c r="K214" s="40" t="s">
+      <c r="K214" s="41" t="s">
         <v>707</v>
       </c>
-      <c r="L214" s="40"/>
-      <c r="M214" s="40"/>
-      <c r="N214" s="40"/>
-      <c r="O214" s="40"/>
-      <c r="P214" s="40"/>
-      <c r="Q214" s="40"/>
-      <c r="R214" s="40"/>
-      <c r="S214" s="40"/>
+      <c r="L214" s="41"/>
+      <c r="M214" s="41"/>
+      <c r="N214" s="41"/>
+      <c r="O214" s="41"/>
+      <c r="P214" s="41"/>
+      <c r="Q214" s="41"/>
+      <c r="R214" s="41"/>
+      <c r="S214" s="41"/>
     </row>
     <row r="215" spans="1:19">
       <c r="A215" s="1">
@@ -23750,20 +24178,20 @@
       <c r="H241" t="s">
         <v>251</v>
       </c>
-      <c r="K241" s="41" t="s">
+      <c r="K241" s="40" t="s">
         <v>767</v>
       </c>
-      <c r="L241" s="41"/>
-      <c r="M241" s="41"/>
-      <c r="N241" s="41"/>
-      <c r="O241" s="41"/>
-      <c r="P241" s="41"/>
-      <c r="Q241" s="41"/>
-      <c r="R241" s="41"/>
-      <c r="S241" s="41"/>
-      <c r="T241" s="41"/>
-      <c r="U241" s="41"/>
-      <c r="V241" s="41"/>
+      <c r="L241" s="40"/>
+      <c r="M241" s="40"/>
+      <c r="N241" s="40"/>
+      <c r="O241" s="40"/>
+      <c r="P241" s="40"/>
+      <c r="Q241" s="40"/>
+      <c r="R241" s="40"/>
+      <c r="S241" s="40"/>
+      <c r="T241" s="40"/>
+      <c r="U241" s="40"/>
+      <c r="V241" s="40"/>
     </row>
     <row r="242" spans="1:22">
       <c r="A242" s="1">
@@ -24200,8 +24628,30 @@
       </c>
     </row>
     <row r="249" spans="1:22">
-      <c r="A249" s="1"/>
-      <c r="B249" s="2"/>
+      <c r="A249" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B249" s="2">
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="C249" t="s">
+        <v>945</v>
+      </c>
+      <c r="D249" t="s">
+        <v>948</v>
+      </c>
+      <c r="E249">
+        <v>18</v>
+      </c>
+      <c r="F249" t="s">
+        <v>20</v>
+      </c>
+      <c r="G249" t="s">
+        <v>24</v>
+      </c>
+      <c r="H249" t="s">
+        <v>938</v>
+      </c>
       <c r="K249" s="1" t="s">
         <v>128</v>
       </c>
@@ -24228,8 +24678,30 @@
       <c r="U249" s="35"/>
     </row>
     <row r="250" spans="1:22">
-      <c r="A250" s="1"/>
-      <c r="B250" s="2"/>
+      <c r="A250" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B250" s="2">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="C250" t="s">
+        <v>936</v>
+      </c>
+      <c r="D250" t="s">
+        <v>964</v>
+      </c>
+      <c r="E250">
+        <v>18.8</v>
+      </c>
+      <c r="F250" t="s">
+        <v>20</v>
+      </c>
+      <c r="G250" t="s">
+        <v>24</v>
+      </c>
+      <c r="H250" t="s">
+        <v>251</v>
+      </c>
       <c r="K250" s="1"/>
       <c r="L250" s="2"/>
       <c r="M250" s="36">
@@ -24254,26 +24726,70 @@
       <c r="U250" s="35"/>
     </row>
     <row r="251" spans="1:22">
-      <c r="A251" s="1"/>
-      <c r="B251" s="2"/>
+      <c r="A251" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B251" s="2">
+        <v>0.94930555555555562</v>
+      </c>
+      <c r="C251" t="s">
+        <v>274</v>
+      </c>
+      <c r="D251" t="s">
+        <v>972</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+      <c r="F251" t="s">
+        <v>23</v>
+      </c>
+      <c r="G251" t="s">
+        <v>14</v>
+      </c>
+      <c r="H251" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="252" spans="1:22">
-      <c r="A252" s="1"/>
-      <c r="B252" s="2"/>
-      <c r="K252" s="41" t="s">
+      <c r="A252" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B252" s="2">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="C252" t="s">
+        <v>936</v>
+      </c>
+      <c r="D252" t="s">
+        <v>973</v>
+      </c>
+      <c r="E252">
+        <v>18.8</v>
+      </c>
+      <c r="F252" t="s">
+        <v>20</v>
+      </c>
+      <c r="G252" t="s">
+        <v>24</v>
+      </c>
+      <c r="H252" t="s">
+        <v>251</v>
+      </c>
+      <c r="K252" s="40" t="s">
         <v>802</v>
       </c>
-      <c r="L252" s="41"/>
-      <c r="M252" s="41"/>
-      <c r="N252" s="41"/>
-      <c r="O252" s="41"/>
-      <c r="P252" s="41"/>
-      <c r="Q252" s="41"/>
-      <c r="R252" s="41"/>
-      <c r="S252" s="41"/>
-      <c r="T252" s="41"/>
-      <c r="U252" s="41"/>
-      <c r="V252" s="41"/>
+      <c r="L252" s="40"/>
+      <c r="M252" s="40"/>
+      <c r="N252" s="40"/>
+      <c r="O252" s="40"/>
+      <c r="P252" s="40"/>
+      <c r="Q252" s="40"/>
+      <c r="R252" s="40"/>
+      <c r="S252" s="40"/>
+      <c r="T252" s="40"/>
+      <c r="U252" s="40"/>
+      <c r="V252" s="40"/>
     </row>
     <row r="253" spans="1:22">
       <c r="A253" s="1"/>
@@ -24681,17 +25197,17 @@
     <row r="265" spans="1:22">
       <c r="A265" s="1"/>
       <c r="B265" s="2"/>
-      <c r="K265" s="40" t="s">
+      <c r="K265" s="41" t="s">
         <v>839</v>
       </c>
-      <c r="L265" s="40"/>
-      <c r="M265" s="40"/>
-      <c r="N265" s="40"/>
-      <c r="O265" s="40"/>
-      <c r="P265" s="40"/>
-      <c r="Q265" s="40"/>
-      <c r="R265" s="40"/>
-      <c r="S265" s="40"/>
+      <c r="L265" s="41"/>
+      <c r="M265" s="41"/>
+      <c r="N265" s="41"/>
+      <c r="O265" s="41"/>
+      <c r="P265" s="41"/>
+      <c r="Q265" s="41"/>
+      <c r="R265" s="41"/>
+      <c r="S265" s="41"/>
     </row>
     <row r="266" spans="1:22">
       <c r="K266" s="9" t="s">
@@ -25311,20 +25827,20 @@
         <v>95.5</v>
       </c>
     </row>
-    <row r="289" spans="11:19">
-      <c r="K289" s="40" t="s">
+    <row r="289" spans="11:22">
+      <c r="K289" s="41" t="s">
         <v>910</v>
       </c>
-      <c r="L289" s="40"/>
-      <c r="M289" s="40"/>
-      <c r="N289" s="40"/>
-      <c r="O289" s="40"/>
-      <c r="P289" s="40"/>
-      <c r="Q289" s="40"/>
-      <c r="R289" s="40"/>
-      <c r="S289" s="40"/>
-    </row>
-    <row r="290" spans="11:19">
+      <c r="L289" s="41"/>
+      <c r="M289" s="41"/>
+      <c r="N289" s="41"/>
+      <c r="O289" s="41"/>
+      <c r="P289" s="41"/>
+      <c r="Q289" s="41"/>
+      <c r="R289" s="41"/>
+      <c r="S289" s="41"/>
+    </row>
+    <row r="290" spans="11:22">
       <c r="K290" s="9" t="s">
         <v>1</v>
       </c>
@@ -25353,7 +25869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="11:19">
+    <row r="291" spans="11:22">
       <c r="K291" s="1">
         <v>43917</v>
       </c>
@@ -25382,7 +25898,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="292" spans="11:19">
+    <row r="292" spans="11:22">
       <c r="K292" s="1">
         <v>43917</v>
       </c>
@@ -25411,7 +25927,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="293" spans="11:19">
+    <row r="293" spans="11:22">
       <c r="K293" s="1">
         <v>43917</v>
       </c>
@@ -25440,7 +25956,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="294" spans="11:19">
+    <row r="294" spans="11:22">
       <c r="K294" s="1">
         <v>43917</v>
       </c>
@@ -25469,7 +25985,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="295" spans="11:19">
+    <row r="295" spans="11:22">
       <c r="K295" s="1">
         <v>43917</v>
       </c>
@@ -25498,7 +26014,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="296" spans="11:19">
+    <row r="296" spans="11:22">
       <c r="K296" s="1">
         <v>43917</v>
       </c>
@@ -25527,7 +26043,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="297" spans="11:19">
+    <row r="297" spans="11:22">
       <c r="K297" s="1" t="s">
         <v>128</v>
       </c>
@@ -25536,8 +26052,240 @@
         <v>42.2</v>
       </c>
     </row>
+    <row r="299" spans="11:22">
+      <c r="K299" s="40" t="s">
+        <v>965</v>
+      </c>
+      <c r="L299" s="40"/>
+      <c r="M299" s="40"/>
+      <c r="N299" s="40"/>
+      <c r="O299" s="40"/>
+      <c r="P299" s="40"/>
+      <c r="Q299" s="40"/>
+      <c r="R299" s="40"/>
+      <c r="S299" s="40"/>
+      <c r="T299" s="40"/>
+      <c r="U299" s="40"/>
+      <c r="V299" s="40"/>
+    </row>
+    <row r="300" spans="11:22">
+      <c r="K300" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L300" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M300" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N300" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O300" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="P300" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q300" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R300" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S300" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="T300" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="U300" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="V300" s="9" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="301" spans="11:22">
+      <c r="K301" s="1">
+        <v>43930</v>
+      </c>
+      <c r="L301" s="2">
+        <v>0.94930555555555562</v>
+      </c>
+      <c r="M301" t="s">
+        <v>274</v>
+      </c>
+      <c r="N301" t="s">
+        <v>966</v>
+      </c>
+      <c r="O301" s="39">
+        <v>12.9</v>
+      </c>
+      <c r="P301" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q301" t="s">
+        <v>663</v>
+      </c>
+      <c r="R301" t="s">
+        <v>391</v>
+      </c>
+      <c r="S301" s="39" t="s">
+        <v>967</v>
+      </c>
+      <c r="V301" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="302" spans="11:22">
+      <c r="K302" s="1">
+        <v>43930</v>
+      </c>
+      <c r="L302" s="2">
+        <v>0.94930555555555562</v>
+      </c>
+      <c r="M302" t="s">
+        <v>274</v>
+      </c>
+      <c r="N302" t="s">
+        <v>968</v>
+      </c>
+      <c r="O302" s="39">
+        <v>29.9</v>
+      </c>
+      <c r="P302" s="39">
+        <v>3</v>
+      </c>
+      <c r="Q302" t="s">
+        <v>663</v>
+      </c>
+      <c r="R302" t="s">
+        <v>391</v>
+      </c>
+      <c r="V302" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="303" spans="11:22">
+      <c r="K303" s="1">
+        <v>43930</v>
+      </c>
+      <c r="L303" s="2">
+        <v>0.94930555555555562</v>
+      </c>
+      <c r="M303" t="s">
+        <v>274</v>
+      </c>
+      <c r="N303" t="s">
+        <v>969</v>
+      </c>
+      <c r="O303" s="39">
+        <v>21.9</v>
+      </c>
+      <c r="P303" s="39">
+        <v>2</v>
+      </c>
+      <c r="Q303" t="s">
+        <v>663</v>
+      </c>
+      <c r="R303" t="s">
+        <v>391</v>
+      </c>
+      <c r="V303" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="304" spans="11:22">
+      <c r="K304" s="1">
+        <v>43930</v>
+      </c>
+      <c r="L304" s="2">
+        <v>0.94930555555555562</v>
+      </c>
+      <c r="M304" t="s">
+        <v>274</v>
+      </c>
+      <c r="N304" t="s">
+        <v>970</v>
+      </c>
+      <c r="O304" s="39">
+        <v>21.9</v>
+      </c>
+      <c r="P304" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q304" t="s">
+        <v>663</v>
+      </c>
+      <c r="R304" t="s">
+        <v>391</v>
+      </c>
+      <c r="S304" t="s">
+        <v>971</v>
+      </c>
+      <c r="V304" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="305" spans="11:21">
+      <c r="K305" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L305" s="2"/>
+      <c r="M305" s="36" t="s">
+        <v>658</v>
+      </c>
+      <c r="N305" s="36" t="s">
+        <v>659</v>
+      </c>
+      <c r="O305" s="36" t="s">
+        <v>660</v>
+      </c>
+      <c r="P305" s="36" t="s">
+        <v>661</v>
+      </c>
+      <c r="Q305" s="36" t="s">
+        <v>662</v>
+      </c>
+      <c r="R305" s="36" t="s">
+        <v>663</v>
+      </c>
+      <c r="S305" s="36" t="s">
+        <v>664</v>
+      </c>
+      <c r="T305" s="35"/>
+      <c r="U305" s="35"/>
+    </row>
+    <row r="306" spans="11:21">
+      <c r="K306" s="1"/>
+      <c r="L306" s="2"/>
+      <c r="M306" s="36">
+        <v>168.3</v>
+      </c>
+      <c r="N306" s="36">
+        <v>-35.67</v>
+      </c>
+      <c r="O306" s="36">
+        <v>-4.8899999999999997</v>
+      </c>
+      <c r="P306" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q306" s="36">
+        <v>127.74</v>
+      </c>
+      <c r="R306" s="36">
+        <v>-127.74</v>
+      </c>
+      <c r="S306" s="37">
+        <v>0</v>
+      </c>
+      <c r="T306" s="35"/>
+      <c r="U306" s="35"/>
+    </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
     <mergeCell ref="K1:U1"/>
     <mergeCell ref="K32:S32"/>
     <mergeCell ref="K76:S76"/>
@@ -25551,6 +26299,7 @@
     <mergeCell ref="K102:S102"/>
     <mergeCell ref="K130:S130"/>
     <mergeCell ref="K153:V153"/>
+    <mergeCell ref="K299:V299"/>
     <mergeCell ref="K289:S289"/>
     <mergeCell ref="K265:S265"/>
     <mergeCell ref="K60:V60"/>
@@ -25605,7 +26354,7 @@
   <ignoredErrors>
     <ignoredError sqref="S61:S74 M61:M74" listDataValidation="1"/>
   </ignoredErrors>
-  <tableParts count="20">
+  <tableParts count="21">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -25626,6 +26375,7 @@
     <tablePart r:id="rId18"/>
     <tablePart r:id="rId19"/>
     <tablePart r:id="rId20"/>
+    <tablePart r:id="rId21"/>
   </tableParts>
 </worksheet>
 </file>

--- a/excel/ledger.xlsx
+++ b/excel/ledger.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95FD4D1-FEE7-1046-A1D8-41A546214B49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F1B460-154F-1041-B002-531EA70CDADB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="13640" windowHeight="11260" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3273" uniqueCount="974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3312" uniqueCount="985">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3781,6 +3781,50 @@
   </si>
   <si>
     <t>焖面+菜夹馍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烩麻食+煎饼卷+百吉饼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸汤烩面+手工凉皮+肉夹馍+煎饼卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦都面馆3元代金劵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒拉条+手工凉皮+煎饼卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外卖红包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代金券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>¥5*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肉烩面+烧饼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李静</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4097,13 +4141,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -11639,8 +11683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C81ADFD-2D83-574A-AD81-B8046C388F80}">
   <dimension ref="A1:V306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="88" workbookViewId="0">
-      <selection activeCell="D252" sqref="D252"/>
+    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="88" workbookViewId="0">
+      <selection activeCell="G249" sqref="G249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11684,19 +11728,19 @@
       <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="1">
@@ -13473,17 +13517,17 @@
       <c r="I32" t="s">
         <v>141</v>
       </c>
-      <c r="K32" s="41" t="s">
+      <c r="K32" s="40" t="s">
         <v>354</v>
       </c>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="41"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
       <c r="T32" s="29"/>
       <c r="U32" s="29"/>
     </row>
@@ -14002,17 +14046,17 @@
       <c r="I43" t="s">
         <v>197</v>
       </c>
-      <c r="K43" s="41" t="s">
+      <c r="K43" s="40" t="s">
         <v>354</v>
       </c>
-      <c r="L43" s="41"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="41"/>
-      <c r="O43" s="41"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="41"/>
-      <c r="S43" s="41"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="40"/>
+      <c r="S43" s="40"/>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="1">
@@ -14429,19 +14473,19 @@
       <c r="I52" t="s">
         <v>141</v>
       </c>
-      <c r="K52" s="40" t="s">
+      <c r="K52" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="L52" s="40"/>
-      <c r="M52" s="40"/>
-      <c r="N52" s="40"/>
-      <c r="O52" s="40"/>
-      <c r="P52" s="40"/>
-      <c r="Q52" s="40"/>
-      <c r="R52" s="40"/>
-      <c r="S52" s="40"/>
-      <c r="T52" s="40"/>
-      <c r="U52" s="40"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="42"/>
+      <c r="R52" s="42"/>
+      <c r="S52" s="42"/>
+      <c r="T52" s="42"/>
+      <c r="U52" s="42"/>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="1">
@@ -14872,20 +14916,20 @@
       <c r="I60" t="s">
         <v>231</v>
       </c>
-      <c r="K60" s="40" t="s">
+      <c r="K60" s="42" t="s">
         <v>666</v>
       </c>
-      <c r="L60" s="40"/>
-      <c r="M60" s="40"/>
-      <c r="N60" s="40"/>
-      <c r="O60" s="40"/>
-      <c r="P60" s="40"/>
-      <c r="Q60" s="40"/>
-      <c r="R60" s="40"/>
-      <c r="S60" s="40"/>
-      <c r="T60" s="40"/>
-      <c r="U60" s="40"/>
-      <c r="V60" s="40"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="42"/>
+      <c r="P60" s="42"/>
+      <c r="Q60" s="42"/>
+      <c r="R60" s="42"/>
+      <c r="S60" s="42"/>
+      <c r="T60" s="42"/>
+      <c r="U60" s="42"/>
+      <c r="V60" s="42"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="1">
@@ -15804,17 +15848,17 @@
       <c r="I76" t="s">
         <v>262</v>
       </c>
-      <c r="K76" s="41" t="s">
+      <c r="K76" s="40" t="s">
         <v>348</v>
       </c>
-      <c r="L76" s="41"/>
-      <c r="M76" s="41"/>
-      <c r="N76" s="41"/>
-      <c r="O76" s="41"/>
-      <c r="P76" s="41"/>
-      <c r="Q76" s="41"/>
-      <c r="R76" s="41"/>
-      <c r="S76" s="41"/>
+      <c r="L76" s="40"/>
+      <c r="M76" s="40"/>
+      <c r="N76" s="40"/>
+      <c r="O76" s="40"/>
+      <c r="P76" s="40"/>
+      <c r="Q76" s="40"/>
+      <c r="R76" s="40"/>
+      <c r="S76" s="40"/>
     </row>
     <row r="77" spans="1:22">
       <c r="A77" s="1">
@@ -16278,17 +16322,17 @@
       <c r="I86" t="s">
         <v>176</v>
       </c>
-      <c r="K86" s="41" t="s">
+      <c r="K86" s="40" t="s">
         <v>368</v>
       </c>
-      <c r="L86" s="41"/>
-      <c r="M86" s="41"/>
-      <c r="N86" s="41"/>
-      <c r="O86" s="41"/>
-      <c r="P86" s="41"/>
-      <c r="Q86" s="41"/>
-      <c r="R86" s="41"/>
-      <c r="S86" s="41"/>
+      <c r="L86" s="40"/>
+      <c r="M86" s="40"/>
+      <c r="N86" s="40"/>
+      <c r="O86" s="40"/>
+      <c r="P86" s="40"/>
+      <c r="Q86" s="40"/>
+      <c r="R86" s="40"/>
+      <c r="S86" s="40"/>
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="1">
@@ -16593,17 +16637,17 @@
       <c r="I93" t="s">
         <v>141</v>
       </c>
-      <c r="K93" s="41" t="s">
+      <c r="K93" s="40" t="s">
         <v>379</v>
       </c>
-      <c r="L93" s="41"/>
-      <c r="M93" s="41"/>
-      <c r="N93" s="41"/>
-      <c r="O93" s="41"/>
-      <c r="P93" s="41"/>
-      <c r="Q93" s="41"/>
-      <c r="R93" s="41"/>
-      <c r="S93" s="41"/>
+      <c r="L93" s="40"/>
+      <c r="M93" s="40"/>
+      <c r="N93" s="40"/>
+      <c r="O93" s="40"/>
+      <c r="P93" s="40"/>
+      <c r="Q93" s="40"/>
+      <c r="R93" s="40"/>
+      <c r="S93" s="40"/>
     </row>
     <row r="94" spans="1:19">
       <c r="A94" s="1">
@@ -17005,17 +17049,17 @@
       <c r="H102" t="s">
         <v>291</v>
       </c>
-      <c r="K102" s="41" t="s">
+      <c r="K102" s="40" t="s">
         <v>379</v>
       </c>
-      <c r="L102" s="41"/>
-      <c r="M102" s="41"/>
-      <c r="N102" s="41"/>
-      <c r="O102" s="41"/>
-      <c r="P102" s="41"/>
-      <c r="Q102" s="41"/>
-      <c r="R102" s="41"/>
-      <c r="S102" s="41"/>
+      <c r="L102" s="40"/>
+      <c r="M102" s="40"/>
+      <c r="N102" s="40"/>
+      <c r="O102" s="40"/>
+      <c r="P102" s="40"/>
+      <c r="Q102" s="40"/>
+      <c r="R102" s="40"/>
+      <c r="S102" s="40"/>
     </row>
     <row r="103" spans="1:19">
       <c r="A103" s="1">
@@ -17380,17 +17424,17 @@
       <c r="I111" t="s">
         <v>340</v>
       </c>
-      <c r="K111" s="42" t="s">
+      <c r="K111" s="41" t="s">
         <v>448</v>
       </c>
-      <c r="L111" s="42"/>
-      <c r="M111" s="42"/>
-      <c r="N111" s="42"/>
-      <c r="O111" s="42"/>
-      <c r="P111" s="42"/>
-      <c r="Q111" s="42"/>
-      <c r="R111" s="42"/>
-      <c r="S111" s="42"/>
+      <c r="L111" s="41"/>
+      <c r="M111" s="41"/>
+      <c r="N111" s="41"/>
+      <c r="O111" s="41"/>
+      <c r="P111" s="41"/>
+      <c r="Q111" s="41"/>
+      <c r="R111" s="41"/>
+      <c r="S111" s="41"/>
     </row>
     <row r="112" spans="1:19">
       <c r="A112" s="1">
@@ -18315,17 +18359,17 @@
       <c r="H130" t="s">
         <v>283</v>
       </c>
-      <c r="K130" s="41" t="s">
+      <c r="K130" s="40" t="s">
         <v>549</v>
       </c>
-      <c r="L130" s="41"/>
-      <c r="M130" s="41"/>
-      <c r="N130" s="41"/>
-      <c r="O130" s="41"/>
-      <c r="P130" s="41"/>
-      <c r="Q130" s="41"/>
-      <c r="R130" s="41"/>
-      <c r="S130" s="41"/>
+      <c r="L130" s="40"/>
+      <c r="M130" s="40"/>
+      <c r="N130" s="40"/>
+      <c r="O130" s="40"/>
+      <c r="P130" s="40"/>
+      <c r="Q130" s="40"/>
+      <c r="R130" s="40"/>
+      <c r="S130" s="40"/>
     </row>
     <row r="131" spans="1:19">
       <c r="A131" s="1">
@@ -19502,20 +19546,20 @@
       <c r="I153" t="s">
         <v>415</v>
       </c>
-      <c r="K153" s="40" t="s">
+      <c r="K153" s="42" t="s">
         <v>597</v>
       </c>
-      <c r="L153" s="40"/>
-      <c r="M153" s="40"/>
-      <c r="N153" s="40"/>
-      <c r="O153" s="40"/>
-      <c r="P153" s="40"/>
-      <c r="Q153" s="40"/>
-      <c r="R153" s="40"/>
-      <c r="S153" s="40"/>
-      <c r="T153" s="40"/>
-      <c r="U153" s="40"/>
-      <c r="V153" s="40"/>
+      <c r="L153" s="42"/>
+      <c r="M153" s="42"/>
+      <c r="N153" s="42"/>
+      <c r="O153" s="42"/>
+      <c r="P153" s="42"/>
+      <c r="Q153" s="42"/>
+      <c r="R153" s="42"/>
+      <c r="S153" s="42"/>
+      <c r="T153" s="42"/>
+      <c r="U153" s="42"/>
+      <c r="V153" s="42"/>
     </row>
     <row r="154" spans="1:22">
       <c r="A154" s="1">
@@ -21133,17 +21177,17 @@
       <c r="I181" t="s">
         <v>703</v>
       </c>
-      <c r="K181" s="41" t="s">
+      <c r="K181" s="40" t="s">
         <v>531</v>
       </c>
-      <c r="L181" s="41"/>
-      <c r="M181" s="41"/>
-      <c r="N181" s="41"/>
-      <c r="O181" s="41"/>
-      <c r="P181" s="41"/>
-      <c r="Q181" s="41"/>
-      <c r="R181" s="41"/>
-      <c r="S181" s="41"/>
+      <c r="L181" s="40"/>
+      <c r="M181" s="40"/>
+      <c r="N181" s="40"/>
+      <c r="O181" s="40"/>
+      <c r="P181" s="40"/>
+      <c r="Q181" s="40"/>
+      <c r="R181" s="40"/>
+      <c r="S181" s="40"/>
     </row>
     <row r="182" spans="1:22">
       <c r="A182" s="1">
@@ -22443,17 +22487,17 @@
       <c r="H206" t="s">
         <v>216</v>
       </c>
-      <c r="K206" s="41" t="s">
+      <c r="K206" s="40" t="s">
         <v>533</v>
       </c>
-      <c r="L206" s="41"/>
-      <c r="M206" s="41"/>
-      <c r="N206" s="41"/>
-      <c r="O206" s="41"/>
-      <c r="P206" s="41"/>
-      <c r="Q206" s="41"/>
-      <c r="R206" s="41"/>
-      <c r="S206" s="41"/>
+      <c r="L206" s="40"/>
+      <c r="M206" s="40"/>
+      <c r="N206" s="40"/>
+      <c r="O206" s="40"/>
+      <c r="P206" s="40"/>
+      <c r="Q206" s="40"/>
+      <c r="R206" s="40"/>
+      <c r="S206" s="40"/>
     </row>
     <row r="207" spans="1:19">
       <c r="A207" s="1">
@@ -22804,17 +22848,17 @@
       <c r="H214" t="s">
         <v>25</v>
       </c>
-      <c r="K214" s="41" t="s">
+      <c r="K214" s="40" t="s">
         <v>707</v>
       </c>
-      <c r="L214" s="41"/>
-      <c r="M214" s="41"/>
-      <c r="N214" s="41"/>
-      <c r="O214" s="41"/>
-      <c r="P214" s="41"/>
-      <c r="Q214" s="41"/>
-      <c r="R214" s="41"/>
-      <c r="S214" s="41"/>
+      <c r="L214" s="40"/>
+      <c r="M214" s="40"/>
+      <c r="N214" s="40"/>
+      <c r="O214" s="40"/>
+      <c r="P214" s="40"/>
+      <c r="Q214" s="40"/>
+      <c r="R214" s="40"/>
+      <c r="S214" s="40"/>
     </row>
     <row r="215" spans="1:19">
       <c r="A215" s="1">
@@ -24178,20 +24222,20 @@
       <c r="H241" t="s">
         <v>251</v>
       </c>
-      <c r="K241" s="40" t="s">
+      <c r="K241" s="42" t="s">
         <v>767</v>
       </c>
-      <c r="L241" s="40"/>
-      <c r="M241" s="40"/>
-      <c r="N241" s="40"/>
-      <c r="O241" s="40"/>
-      <c r="P241" s="40"/>
-      <c r="Q241" s="40"/>
-      <c r="R241" s="40"/>
-      <c r="S241" s="40"/>
-      <c r="T241" s="40"/>
-      <c r="U241" s="40"/>
-      <c r="V241" s="40"/>
+      <c r="L241" s="42"/>
+      <c r="M241" s="42"/>
+      <c r="N241" s="42"/>
+      <c r="O241" s="42"/>
+      <c r="P241" s="42"/>
+      <c r="Q241" s="42"/>
+      <c r="R241" s="42"/>
+      <c r="S241" s="42"/>
+      <c r="T241" s="42"/>
+      <c r="U241" s="42"/>
+      <c r="V241" s="42"/>
     </row>
     <row r="242" spans="1:22">
       <c r="A242" s="1">
@@ -24632,16 +24676,16 @@
         <v>43930</v>
       </c>
       <c r="B249" s="2">
-        <v>0.78749999999999998</v>
+        <v>0.4826388888888889</v>
       </c>
       <c r="C249" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="D249" t="s">
-        <v>948</v>
+        <v>964</v>
       </c>
       <c r="E249">
-        <v>18</v>
+        <v>18.8</v>
       </c>
       <c r="F249" t="s">
         <v>20</v>
@@ -24650,7 +24694,7 @@
         <v>24</v>
       </c>
       <c r="H249" t="s">
-        <v>938</v>
+        <v>251</v>
       </c>
       <c r="K249" s="1" t="s">
         <v>128</v>
@@ -24682,16 +24726,16 @@
         <v>43930</v>
       </c>
       <c r="B250" s="2">
-        <v>0.4826388888888889</v>
+        <v>0.78749999999999998</v>
       </c>
       <c r="C250" t="s">
-        <v>936</v>
+        <v>945</v>
       </c>
       <c r="D250" t="s">
-        <v>964</v>
+        <v>948</v>
       </c>
       <c r="E250">
-        <v>18.8</v>
+        <v>18</v>
       </c>
       <c r="F250" t="s">
         <v>20</v>
@@ -24700,7 +24744,7 @@
         <v>24</v>
       </c>
       <c r="H250" t="s">
-        <v>251</v>
+        <v>938</v>
       </c>
       <c r="K250" s="1"/>
       <c r="L250" s="2"/>
@@ -24730,16 +24774,16 @@
         <v>43930</v>
       </c>
       <c r="B251" s="2">
-        <v>0.94930555555555562</v>
+        <v>0.86319444444444438</v>
       </c>
       <c r="C251" t="s">
-        <v>274</v>
+        <v>983</v>
       </c>
       <c r="D251" t="s">
-        <v>972</v>
+        <v>984</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F251" t="s">
         <v>23</v>
@@ -24747,53 +24791,72 @@
       <c r="G251" t="s">
         <v>14</v>
       </c>
-      <c r="H251" t="s">
-        <v>392</v>
-      </c>
     </row>
     <row r="252" spans="1:22">
       <c r="A252" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B252" s="2">
+        <v>0.94930555555555562</v>
+      </c>
+      <c r="C252" t="s">
+        <v>274</v>
+      </c>
+      <c r="D252" t="s">
+        <v>972</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252" t="s">
+        <v>23</v>
+      </c>
+      <c r="G252" t="s">
+        <v>14</v>
+      </c>
+      <c r="H252" t="s">
+        <v>392</v>
+      </c>
+      <c r="K252" s="42" t="s">
+        <v>802</v>
+      </c>
+      <c r="L252" s="42"/>
+      <c r="M252" s="42"/>
+      <c r="N252" s="42"/>
+      <c r="O252" s="42"/>
+      <c r="P252" s="42"/>
+      <c r="Q252" s="42"/>
+      <c r="R252" s="42"/>
+      <c r="S252" s="42"/>
+      <c r="T252" s="42"/>
+      <c r="U252" s="42"/>
+      <c r="V252" s="42"/>
+    </row>
+    <row r="253" spans="1:22">
+      <c r="A253" s="1">
         <v>43931</v>
       </c>
-      <c r="B252" s="2">
+      <c r="B253" s="2">
         <v>0.48125000000000001</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C253" t="s">
         <v>936</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D253" t="s">
         <v>973</v>
       </c>
-      <c r="E252">
+      <c r="E253">
         <v>18.8</v>
       </c>
-      <c r="F252" t="s">
+      <c r="F253" t="s">
         <v>20</v>
       </c>
-      <c r="G252" t="s">
+      <c r="G253" t="s">
         <v>24</v>
       </c>
-      <c r="H252" t="s">
+      <c r="H253" t="s">
         <v>251</v>
       </c>
-      <c r="K252" s="40" t="s">
-        <v>802</v>
-      </c>
-      <c r="L252" s="40"/>
-      <c r="M252" s="40"/>
-      <c r="N252" s="40"/>
-      <c r="O252" s="40"/>
-      <c r="P252" s="40"/>
-      <c r="Q252" s="40"/>
-      <c r="R252" s="40"/>
-      <c r="S252" s="40"/>
-      <c r="T252" s="40"/>
-      <c r="U252" s="40"/>
-      <c r="V252" s="40"/>
-    </row>
-    <row r="253" spans="1:22">
-      <c r="A253" s="1"/>
-      <c r="B253" s="2"/>
       <c r="K253" s="9" t="s">
         <v>1</v>
       </c>
@@ -24832,8 +24895,30 @@
       </c>
     </row>
     <row r="254" spans="1:22">
-      <c r="A254" s="1"/>
-      <c r="B254" s="2"/>
+      <c r="A254" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B254" s="2">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="C254" t="s">
+        <v>945</v>
+      </c>
+      <c r="D254" t="s">
+        <v>982</v>
+      </c>
+      <c r="E254">
+        <v>21</v>
+      </c>
+      <c r="F254" t="s">
+        <v>20</v>
+      </c>
+      <c r="G254" t="s">
+        <v>24</v>
+      </c>
+      <c r="H254" t="s">
+        <v>251</v>
+      </c>
       <c r="K254" s="1">
         <v>43904</v>
       </c>
@@ -24869,8 +24954,30 @@
       </c>
     </row>
     <row r="255" spans="1:22">
-      <c r="A255" s="1"/>
-      <c r="B255" s="2"/>
+      <c r="A255" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B255" s="2">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="C255" t="s">
+        <v>979</v>
+      </c>
+      <c r="D255" t="s">
+        <v>981</v>
+      </c>
+      <c r="E255">
+        <v>9.9</v>
+      </c>
+      <c r="F255" t="s">
+        <v>23</v>
+      </c>
+      <c r="G255" t="s">
+        <v>24</v>
+      </c>
+      <c r="H255" t="s">
+        <v>251</v>
+      </c>
       <c r="K255" s="1">
         <v>43904</v>
       </c>
@@ -24909,8 +25016,30 @@
       </c>
     </row>
     <row r="256" spans="1:22">
-      <c r="A256" s="1"/>
-      <c r="B256" s="2"/>
+      <c r="A256" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B256" s="2">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="C256" t="s">
+        <v>980</v>
+      </c>
+      <c r="D256" t="s">
+        <v>976</v>
+      </c>
+      <c r="E256">
+        <v>1.5</v>
+      </c>
+      <c r="F256" t="s">
+        <v>977</v>
+      </c>
+      <c r="G256" t="s">
+        <v>24</v>
+      </c>
+      <c r="H256" t="s">
+        <v>251</v>
+      </c>
       <c r="K256" s="1">
         <v>43904</v>
       </c>
@@ -24946,8 +25075,30 @@
       </c>
     </row>
     <row r="257" spans="1:22">
-      <c r="A257" s="1"/>
-      <c r="B257" s="2"/>
+      <c r="A257" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B257" s="2">
+        <v>0.46249999999999997</v>
+      </c>
+      <c r="C257" t="s">
+        <v>936</v>
+      </c>
+      <c r="D257" t="s">
+        <v>978</v>
+      </c>
+      <c r="E257">
+        <v>25.8</v>
+      </c>
+      <c r="F257" t="s">
+        <v>20</v>
+      </c>
+      <c r="G257" t="s">
+        <v>24</v>
+      </c>
+      <c r="H257" t="s">
+        <v>251</v>
+      </c>
       <c r="K257" s="1">
         <v>43904</v>
       </c>
@@ -24983,8 +25134,30 @@
       </c>
     </row>
     <row r="258" spans="1:22">
-      <c r="A258" s="1"/>
-      <c r="B258" s="2"/>
+      <c r="A258" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B258" s="2">
+        <v>0.46249999999999997</v>
+      </c>
+      <c r="C258" t="s">
+        <v>936</v>
+      </c>
+      <c r="D258" t="s">
+        <v>975</v>
+      </c>
+      <c r="E258">
+        <v>33.6</v>
+      </c>
+      <c r="F258" t="s">
+        <v>20</v>
+      </c>
+      <c r="G258" t="s">
+        <v>24</v>
+      </c>
+      <c r="H258" t="s">
+        <v>251</v>
+      </c>
       <c r="K258" s="1">
         <v>43904</v>
       </c>
@@ -25020,8 +25193,30 @@
       </c>
     </row>
     <row r="259" spans="1:22">
-      <c r="A259" s="1"/>
-      <c r="B259" s="2"/>
+      <c r="A259" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B259" s="2">
+        <v>0.46249999999999997</v>
+      </c>
+      <c r="C259" t="s">
+        <v>980</v>
+      </c>
+      <c r="D259" t="s">
+        <v>976</v>
+      </c>
+      <c r="E259">
+        <v>1.5</v>
+      </c>
+      <c r="F259" t="s">
+        <v>977</v>
+      </c>
+      <c r="G259" t="s">
+        <v>24</v>
+      </c>
+      <c r="H259" t="s">
+        <v>251</v>
+      </c>
       <c r="K259" s="1">
         <v>43904</v>
       </c>
@@ -25057,8 +25252,30 @@
       </c>
     </row>
     <row r="260" spans="1:22">
-      <c r="A260" s="1"/>
-      <c r="B260" s="2"/>
+      <c r="A260" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B260" s="2">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="C260" t="s">
+        <v>936</v>
+      </c>
+      <c r="D260" t="s">
+        <v>974</v>
+      </c>
+      <c r="E260">
+        <v>19.3</v>
+      </c>
+      <c r="F260" t="s">
+        <v>20</v>
+      </c>
+      <c r="G260" t="s">
+        <v>24</v>
+      </c>
+      <c r="H260" t="s">
+        <v>251</v>
+      </c>
       <c r="K260" s="1">
         <v>43904</v>
       </c>
@@ -25197,17 +25414,17 @@
     <row r="265" spans="1:22">
       <c r="A265" s="1"/>
       <c r="B265" s="2"/>
-      <c r="K265" s="41" t="s">
+      <c r="K265" s="40" t="s">
         <v>839</v>
       </c>
-      <c r="L265" s="41"/>
-      <c r="M265" s="41"/>
-      <c r="N265" s="41"/>
-      <c r="O265" s="41"/>
-      <c r="P265" s="41"/>
-      <c r="Q265" s="41"/>
-      <c r="R265" s="41"/>
-      <c r="S265" s="41"/>
+      <c r="L265" s="40"/>
+      <c r="M265" s="40"/>
+      <c r="N265" s="40"/>
+      <c r="O265" s="40"/>
+      <c r="P265" s="40"/>
+      <c r="Q265" s="40"/>
+      <c r="R265" s="40"/>
+      <c r="S265" s="40"/>
     </row>
     <row r="266" spans="1:22">
       <c r="K266" s="9" t="s">
@@ -25828,17 +26045,17 @@
       </c>
     </row>
     <row r="289" spans="11:22">
-      <c r="K289" s="41" t="s">
+      <c r="K289" s="40" t="s">
         <v>910</v>
       </c>
-      <c r="L289" s="41"/>
-      <c r="M289" s="41"/>
-      <c r="N289" s="41"/>
-      <c r="O289" s="41"/>
-      <c r="P289" s="41"/>
-      <c r="Q289" s="41"/>
-      <c r="R289" s="41"/>
-      <c r="S289" s="41"/>
+      <c r="L289" s="40"/>
+      <c r="M289" s="40"/>
+      <c r="N289" s="40"/>
+      <c r="O289" s="40"/>
+      <c r="P289" s="40"/>
+      <c r="Q289" s="40"/>
+      <c r="R289" s="40"/>
+      <c r="S289" s="40"/>
     </row>
     <row r="290" spans="11:22">
       <c r="K290" s="9" t="s">
@@ -26053,20 +26270,20 @@
       </c>
     </row>
     <row r="299" spans="11:22">
-      <c r="K299" s="40" t="s">
+      <c r="K299" s="42" t="s">
         <v>965</v>
       </c>
-      <c r="L299" s="40"/>
-      <c r="M299" s="40"/>
-      <c r="N299" s="40"/>
-      <c r="O299" s="40"/>
-      <c r="P299" s="40"/>
-      <c r="Q299" s="40"/>
-      <c r="R299" s="40"/>
-      <c r="S299" s="40"/>
-      <c r="T299" s="40"/>
-      <c r="U299" s="40"/>
-      <c r="V299" s="40"/>
+      <c r="L299" s="42"/>
+      <c r="M299" s="42"/>
+      <c r="N299" s="42"/>
+      <c r="O299" s="42"/>
+      <c r="P299" s="42"/>
+      <c r="Q299" s="42"/>
+      <c r="R299" s="42"/>
+      <c r="S299" s="42"/>
+      <c r="T299" s="42"/>
+      <c r="U299" s="42"/>
+      <c r="V299" s="42"/>
     </row>
     <row r="300" spans="11:22">
       <c r="K300" s="9" t="s">
@@ -26286,6 +26503,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="K299:V299"/>
+    <mergeCell ref="K289:S289"/>
+    <mergeCell ref="K265:S265"/>
+    <mergeCell ref="K60:V60"/>
+    <mergeCell ref="K252:V252"/>
+    <mergeCell ref="K214:S214"/>
+    <mergeCell ref="K241:V241"/>
     <mergeCell ref="K1:U1"/>
     <mergeCell ref="K32:S32"/>
     <mergeCell ref="K76:S76"/>
@@ -26299,13 +26523,6 @@
     <mergeCell ref="K102:S102"/>
     <mergeCell ref="K130:S130"/>
     <mergeCell ref="K153:V153"/>
-    <mergeCell ref="K299:V299"/>
-    <mergeCell ref="K289:S289"/>
-    <mergeCell ref="K265:S265"/>
-    <mergeCell ref="K60:V60"/>
-    <mergeCell ref="K252:V252"/>
-    <mergeCell ref="K214:S214"/>
-    <mergeCell ref="K241:V241"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="13">
@@ -26394,34 +26611,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
       <c r="AB1" s="43" t="s">
         <v>327</v>
       </c>
@@ -26430,22 +26647,22 @@
       <c r="AE1" s="43"/>
       <c r="AF1" s="43"/>
       <c r="AG1" s="43"/>
-      <c r="AI1" s="42" t="s">
+      <c r="AI1" s="41" t="s">
         <v>328</v>
       </c>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="42"/>
-      <c r="AL1" s="42"/>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="42"/>
-      <c r="AP1" s="42"/>
-      <c r="AQ1" s="42"/>
-      <c r="AR1" s="42"/>
-      <c r="AS1" s="42"/>
-      <c r="AT1" s="42"/>
-      <c r="AU1" s="42"/>
-      <c r="AV1" s="42"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="41"/>
     </row>
     <row r="2" spans="1:48">
       <c r="A2" t="s">

--- a/excel/ledger.xlsx
+++ b/excel/ledger.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F1B460-154F-1041-B002-531EA70CDADB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9727357-68E3-BF4F-96D2-662BB05FEC0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
+    <workbookView xWindow="0" yWindow="11760" windowWidth="20460" windowHeight="11280" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3312" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3358" uniqueCount="994">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3825,6 +3825,42 @@
   </si>
   <si>
     <t>李静</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电物业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋炒面+煎饼卷土豆丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋奉吉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还花呗用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油泼棍棍面+紫菜蛋花汤+煎鸡蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>¥5*12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4141,13 +4177,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -10479,9 +10515,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FEFEF66-0DFC-B343-AE55-FC43085C5197}" name="表1" displayName="表1" ref="A1:I265" totalsRowShown="0">
-  <autoFilter ref="A1:I265" xr:uid="{5BBC9419-B13B-B148-8ACF-0DE90D8ED5A0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I265">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FEFEF66-0DFC-B343-AE55-FC43085C5197}" name="表1" displayName="表1" ref="A1:I274" totalsRowShown="0">
+  <autoFilter ref="A1:I274" xr:uid="{5BBC9419-B13B-B148-8ACF-0DE90D8ED5A0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I274">
     <sortCondition ref="A2:A22"/>
     <sortCondition ref="B2:B22"/>
   </sortState>
@@ -10984,7 +11020,7 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{708C10D3-3099-AB43-BF6B-AAC0E5724B2D}" name="年"/>
     <tableColumn id="2" xr3:uid="{5D7EEFFC-1B1B-C442-8DD0-96BF0D9145E1}" name="总计">
-      <calculatedColumnFormula>SUM(records!E2:E265)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(records!E2:E274)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -10997,7 +11033,7 @@
   <tableColumns count="42">
     <tableColumn id="1" xr3:uid="{F034F842-B0D4-7C49-92AC-92126BFED303}" name="日期" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{E4A20DC4-BCAA-5A4C-8F92-7768890FB62A}" name="总计">
-      <calculatedColumnFormula>SUMIF(records!A2:A265, template!A2, records!E2:E265)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUMIF(records!A2:A274, template!A2, records!E2:E274)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{4634C45B-FA6E-3A4F-A29C-00438EE32653}" name="0:00"/>
     <tableColumn id="4" xr3:uid="{FAE9234B-318D-7D47-AF72-AE2A681B63D3}" name="1:00" dataDxfId="2"/>
@@ -11683,8 +11719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C81ADFD-2D83-574A-AD81-B8046C388F80}">
   <dimension ref="A1:V306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="88" workbookViewId="0">
-      <selection activeCell="G249" sqref="G249"/>
+    <sheetView tabSelected="1" topLeftCell="A249" zoomScale="88" workbookViewId="0">
+      <selection activeCell="B269" sqref="A269:H269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11728,19 +11764,19 @@
       <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="1">
@@ -13517,17 +13553,17 @@
       <c r="I32" t="s">
         <v>141</v>
       </c>
-      <c r="K32" s="40" t="s">
+      <c r="K32" s="41" t="s">
         <v>354</v>
       </c>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
       <c r="T32" s="29"/>
       <c r="U32" s="29"/>
     </row>
@@ -14046,17 +14082,17 @@
       <c r="I43" t="s">
         <v>197</v>
       </c>
-      <c r="K43" s="40" t="s">
+      <c r="K43" s="41" t="s">
         <v>354</v>
       </c>
-      <c r="L43" s="40"/>
-      <c r="M43" s="40"/>
-      <c r="N43" s="40"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="40"/>
-      <c r="S43" s="40"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="41"/>
+      <c r="S43" s="41"/>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="1">
@@ -14473,19 +14509,19 @@
       <c r="I52" t="s">
         <v>141</v>
       </c>
-      <c r="K52" s="42" t="s">
+      <c r="K52" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="L52" s="42"/>
-      <c r="M52" s="42"/>
-      <c r="N52" s="42"/>
-      <c r="O52" s="42"/>
-      <c r="P52" s="42"/>
-      <c r="Q52" s="42"/>
-      <c r="R52" s="42"/>
-      <c r="S52" s="42"/>
-      <c r="T52" s="42"/>
-      <c r="U52" s="42"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="40"/>
+      <c r="R52" s="40"/>
+      <c r="S52" s="40"/>
+      <c r="T52" s="40"/>
+      <c r="U52" s="40"/>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="1">
@@ -14916,20 +14952,20 @@
       <c r="I60" t="s">
         <v>231</v>
       </c>
-      <c r="K60" s="42" t="s">
+      <c r="K60" s="40" t="s">
         <v>666</v>
       </c>
-      <c r="L60" s="42"/>
-      <c r="M60" s="42"/>
-      <c r="N60" s="42"/>
-      <c r="O60" s="42"/>
-      <c r="P60" s="42"/>
-      <c r="Q60" s="42"/>
-      <c r="R60" s="42"/>
-      <c r="S60" s="42"/>
-      <c r="T60" s="42"/>
-      <c r="U60" s="42"/>
-      <c r="V60" s="42"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="40"/>
+      <c r="O60" s="40"/>
+      <c r="P60" s="40"/>
+      <c r="Q60" s="40"/>
+      <c r="R60" s="40"/>
+      <c r="S60" s="40"/>
+      <c r="T60" s="40"/>
+      <c r="U60" s="40"/>
+      <c r="V60" s="40"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="1">
@@ -15848,17 +15884,17 @@
       <c r="I76" t="s">
         <v>262</v>
       </c>
-      <c r="K76" s="40" t="s">
+      <c r="K76" s="41" t="s">
         <v>348</v>
       </c>
-      <c r="L76" s="40"/>
-      <c r="M76" s="40"/>
-      <c r="N76" s="40"/>
-      <c r="O76" s="40"/>
-      <c r="P76" s="40"/>
-      <c r="Q76" s="40"/>
-      <c r="R76" s="40"/>
-      <c r="S76" s="40"/>
+      <c r="L76" s="41"/>
+      <c r="M76" s="41"/>
+      <c r="N76" s="41"/>
+      <c r="O76" s="41"/>
+      <c r="P76" s="41"/>
+      <c r="Q76" s="41"/>
+      <c r="R76" s="41"/>
+      <c r="S76" s="41"/>
     </row>
     <row r="77" spans="1:22">
       <c r="A77" s="1">
@@ -16322,17 +16358,17 @@
       <c r="I86" t="s">
         <v>176</v>
       </c>
-      <c r="K86" s="40" t="s">
+      <c r="K86" s="41" t="s">
         <v>368</v>
       </c>
-      <c r="L86" s="40"/>
-      <c r="M86" s="40"/>
-      <c r="N86" s="40"/>
-      <c r="O86" s="40"/>
-      <c r="P86" s="40"/>
-      <c r="Q86" s="40"/>
-      <c r="R86" s="40"/>
-      <c r="S86" s="40"/>
+      <c r="L86" s="41"/>
+      <c r="M86" s="41"/>
+      <c r="N86" s="41"/>
+      <c r="O86" s="41"/>
+      <c r="P86" s="41"/>
+      <c r="Q86" s="41"/>
+      <c r="R86" s="41"/>
+      <c r="S86" s="41"/>
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="1">
@@ -16637,17 +16673,17 @@
       <c r="I93" t="s">
         <v>141</v>
       </c>
-      <c r="K93" s="40" t="s">
+      <c r="K93" s="41" t="s">
         <v>379</v>
       </c>
-      <c r="L93" s="40"/>
-      <c r="M93" s="40"/>
-      <c r="N93" s="40"/>
-      <c r="O93" s="40"/>
-      <c r="P93" s="40"/>
-      <c r="Q93" s="40"/>
-      <c r="R93" s="40"/>
-      <c r="S93" s="40"/>
+      <c r="L93" s="41"/>
+      <c r="M93" s="41"/>
+      <c r="N93" s="41"/>
+      <c r="O93" s="41"/>
+      <c r="P93" s="41"/>
+      <c r="Q93" s="41"/>
+      <c r="R93" s="41"/>
+      <c r="S93" s="41"/>
     </row>
     <row r="94" spans="1:19">
       <c r="A94" s="1">
@@ -17049,17 +17085,17 @@
       <c r="H102" t="s">
         <v>291</v>
       </c>
-      <c r="K102" s="40" t="s">
+      <c r="K102" s="41" t="s">
         <v>379</v>
       </c>
-      <c r="L102" s="40"/>
-      <c r="M102" s="40"/>
-      <c r="N102" s="40"/>
-      <c r="O102" s="40"/>
-      <c r="P102" s="40"/>
-      <c r="Q102" s="40"/>
-      <c r="R102" s="40"/>
-      <c r="S102" s="40"/>
+      <c r="L102" s="41"/>
+      <c r="M102" s="41"/>
+      <c r="N102" s="41"/>
+      <c r="O102" s="41"/>
+      <c r="P102" s="41"/>
+      <c r="Q102" s="41"/>
+      <c r="R102" s="41"/>
+      <c r="S102" s="41"/>
     </row>
     <row r="103" spans="1:19">
       <c r="A103" s="1">
@@ -17424,17 +17460,17 @@
       <c r="I111" t="s">
         <v>340</v>
       </c>
-      <c r="K111" s="41" t="s">
+      <c r="K111" s="42" t="s">
         <v>448</v>
       </c>
-      <c r="L111" s="41"/>
-      <c r="M111" s="41"/>
-      <c r="N111" s="41"/>
-      <c r="O111" s="41"/>
-      <c r="P111" s="41"/>
-      <c r="Q111" s="41"/>
-      <c r="R111" s="41"/>
-      <c r="S111" s="41"/>
+      <c r="L111" s="42"/>
+      <c r="M111" s="42"/>
+      <c r="N111" s="42"/>
+      <c r="O111" s="42"/>
+      <c r="P111" s="42"/>
+      <c r="Q111" s="42"/>
+      <c r="R111" s="42"/>
+      <c r="S111" s="42"/>
     </row>
     <row r="112" spans="1:19">
       <c r="A112" s="1">
@@ -18359,17 +18395,17 @@
       <c r="H130" t="s">
         <v>283</v>
       </c>
-      <c r="K130" s="40" t="s">
+      <c r="K130" s="41" t="s">
         <v>549</v>
       </c>
-      <c r="L130" s="40"/>
-      <c r="M130" s="40"/>
-      <c r="N130" s="40"/>
-      <c r="O130" s="40"/>
-      <c r="P130" s="40"/>
-      <c r="Q130" s="40"/>
-      <c r="R130" s="40"/>
-      <c r="S130" s="40"/>
+      <c r="L130" s="41"/>
+      <c r="M130" s="41"/>
+      <c r="N130" s="41"/>
+      <c r="O130" s="41"/>
+      <c r="P130" s="41"/>
+      <c r="Q130" s="41"/>
+      <c r="R130" s="41"/>
+      <c r="S130" s="41"/>
     </row>
     <row r="131" spans="1:19">
       <c r="A131" s="1">
@@ -19546,20 +19582,20 @@
       <c r="I153" t="s">
         <v>415</v>
       </c>
-      <c r="K153" s="42" t="s">
+      <c r="K153" s="40" t="s">
         <v>597</v>
       </c>
-      <c r="L153" s="42"/>
-      <c r="M153" s="42"/>
-      <c r="N153" s="42"/>
-      <c r="O153" s="42"/>
-      <c r="P153" s="42"/>
-      <c r="Q153" s="42"/>
-      <c r="R153" s="42"/>
-      <c r="S153" s="42"/>
-      <c r="T153" s="42"/>
-      <c r="U153" s="42"/>
-      <c r="V153" s="42"/>
+      <c r="L153" s="40"/>
+      <c r="M153" s="40"/>
+      <c r="N153" s="40"/>
+      <c r="O153" s="40"/>
+      <c r="P153" s="40"/>
+      <c r="Q153" s="40"/>
+      <c r="R153" s="40"/>
+      <c r="S153" s="40"/>
+      <c r="T153" s="40"/>
+      <c r="U153" s="40"/>
+      <c r="V153" s="40"/>
     </row>
     <row r="154" spans="1:22">
       <c r="A154" s="1">
@@ -21177,17 +21213,17 @@
       <c r="I181" t="s">
         <v>703</v>
       </c>
-      <c r="K181" s="40" t="s">
+      <c r="K181" s="41" t="s">
         <v>531</v>
       </c>
-      <c r="L181" s="40"/>
-      <c r="M181" s="40"/>
-      <c r="N181" s="40"/>
-      <c r="O181" s="40"/>
-      <c r="P181" s="40"/>
-      <c r="Q181" s="40"/>
-      <c r="R181" s="40"/>
-      <c r="S181" s="40"/>
+      <c r="L181" s="41"/>
+      <c r="M181" s="41"/>
+      <c r="N181" s="41"/>
+      <c r="O181" s="41"/>
+      <c r="P181" s="41"/>
+      <c r="Q181" s="41"/>
+      <c r="R181" s="41"/>
+      <c r="S181" s="41"/>
     </row>
     <row r="182" spans="1:22">
       <c r="A182" s="1">
@@ -22487,17 +22523,17 @@
       <c r="H206" t="s">
         <v>216</v>
       </c>
-      <c r="K206" s="40" t="s">
+      <c r="K206" s="41" t="s">
         <v>533</v>
       </c>
-      <c r="L206" s="40"/>
-      <c r="M206" s="40"/>
-      <c r="N206" s="40"/>
-      <c r="O206" s="40"/>
-      <c r="P206" s="40"/>
-      <c r="Q206" s="40"/>
-      <c r="R206" s="40"/>
-      <c r="S206" s="40"/>
+      <c r="L206" s="41"/>
+      <c r="M206" s="41"/>
+      <c r="N206" s="41"/>
+      <c r="O206" s="41"/>
+      <c r="P206" s="41"/>
+      <c r="Q206" s="41"/>
+      <c r="R206" s="41"/>
+      <c r="S206" s="41"/>
     </row>
     <row r="207" spans="1:19">
       <c r="A207" s="1">
@@ -22848,17 +22884,17 @@
       <c r="H214" t="s">
         <v>25</v>
       </c>
-      <c r="K214" s="40" t="s">
+      <c r="K214" s="41" t="s">
         <v>707</v>
       </c>
-      <c r="L214" s="40"/>
-      <c r="M214" s="40"/>
-      <c r="N214" s="40"/>
-      <c r="O214" s="40"/>
-      <c r="P214" s="40"/>
-      <c r="Q214" s="40"/>
-      <c r="R214" s="40"/>
-      <c r="S214" s="40"/>
+      <c r="L214" s="41"/>
+      <c r="M214" s="41"/>
+      <c r="N214" s="41"/>
+      <c r="O214" s="41"/>
+      <c r="P214" s="41"/>
+      <c r="Q214" s="41"/>
+      <c r="R214" s="41"/>
+      <c r="S214" s="41"/>
     </row>
     <row r="215" spans="1:19">
       <c r="A215" s="1">
@@ -24222,20 +24258,20 @@
       <c r="H241" t="s">
         <v>251</v>
       </c>
-      <c r="K241" s="42" t="s">
+      <c r="K241" s="40" t="s">
         <v>767</v>
       </c>
-      <c r="L241" s="42"/>
-      <c r="M241" s="42"/>
-      <c r="N241" s="42"/>
-      <c r="O241" s="42"/>
-      <c r="P241" s="42"/>
-      <c r="Q241" s="42"/>
-      <c r="R241" s="42"/>
-      <c r="S241" s="42"/>
-      <c r="T241" s="42"/>
-      <c r="U241" s="42"/>
-      <c r="V241" s="42"/>
+      <c r="L241" s="40"/>
+      <c r="M241" s="40"/>
+      <c r="N241" s="40"/>
+      <c r="O241" s="40"/>
+      <c r="P241" s="40"/>
+      <c r="Q241" s="40"/>
+      <c r="R241" s="40"/>
+      <c r="S241" s="40"/>
+      <c r="T241" s="40"/>
+      <c r="U241" s="40"/>
+      <c r="V241" s="40"/>
     </row>
     <row r="242" spans="1:22">
       <c r="A242" s="1">
@@ -24817,20 +24853,20 @@
       <c r="H252" t="s">
         <v>392</v>
       </c>
-      <c r="K252" s="42" t="s">
+      <c r="K252" s="40" t="s">
         <v>802</v>
       </c>
-      <c r="L252" s="42"/>
-      <c r="M252" s="42"/>
-      <c r="N252" s="42"/>
-      <c r="O252" s="42"/>
-      <c r="P252" s="42"/>
-      <c r="Q252" s="42"/>
-      <c r="R252" s="42"/>
-      <c r="S252" s="42"/>
-      <c r="T252" s="42"/>
-      <c r="U252" s="42"/>
-      <c r="V252" s="42"/>
+      <c r="L252" s="40"/>
+      <c r="M252" s="40"/>
+      <c r="N252" s="40"/>
+      <c r="O252" s="40"/>
+      <c r="P252" s="40"/>
+      <c r="Q252" s="40"/>
+      <c r="R252" s="40"/>
+      <c r="S252" s="40"/>
+      <c r="T252" s="40"/>
+      <c r="U252" s="40"/>
+      <c r="V252" s="40"/>
     </row>
     <row r="253" spans="1:22">
       <c r="A253" s="1">
@@ -25138,25 +25174,25 @@
         <v>43933</v>
       </c>
       <c r="B258" s="2">
-        <v>0.46249999999999997</v>
+        <v>0.45555555555555555</v>
       </c>
       <c r="C258" t="s">
-        <v>936</v>
+        <v>987</v>
       </c>
       <c r="D258" t="s">
-        <v>975</v>
+        <v>988</v>
       </c>
       <c r="E258">
-        <v>33.6</v>
+        <v>449.54</v>
       </c>
       <c r="F258" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G258" t="s">
         <v>24</v>
       </c>
       <c r="H258" t="s">
-        <v>251</v>
+        <v>36</v>
       </c>
       <c r="K258" s="1">
         <v>43904</v>
@@ -25200,16 +25236,16 @@
         <v>0.46249999999999997</v>
       </c>
       <c r="C259" t="s">
-        <v>980</v>
+        <v>936</v>
       </c>
       <c r="D259" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E259">
-        <v>1.5</v>
+        <v>33.6</v>
       </c>
       <c r="F259" t="s">
-        <v>977</v>
+        <v>20</v>
       </c>
       <c r="G259" t="s">
         <v>24</v>
@@ -25253,22 +25289,22 @@
     </row>
     <row r="260" spans="1:22">
       <c r="A260" s="1">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B260" s="2">
-        <v>0.4777777777777778</v>
+        <v>0.46249999999999997</v>
       </c>
       <c r="C260" t="s">
-        <v>936</v>
+        <v>980</v>
       </c>
       <c r="D260" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E260">
-        <v>19.3</v>
+        <v>1.5</v>
       </c>
       <c r="F260" t="s">
-        <v>20</v>
+        <v>977</v>
       </c>
       <c r="G260" t="s">
         <v>24</v>
@@ -25311,8 +25347,30 @@
       </c>
     </row>
     <row r="261" spans="1:22">
-      <c r="A261" s="1"/>
-      <c r="B261" s="2"/>
+      <c r="A261" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B261" s="2">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="C261" t="s">
+        <v>936</v>
+      </c>
+      <c r="D261" t="s">
+        <v>974</v>
+      </c>
+      <c r="E261">
+        <v>19.3</v>
+      </c>
+      <c r="F261" t="s">
+        <v>20</v>
+      </c>
+      <c r="G261" t="s">
+        <v>24</v>
+      </c>
+      <c r="H261" t="s">
+        <v>251</v>
+      </c>
       <c r="K261" s="1">
         <v>43904</v>
       </c>
@@ -25348,8 +25406,30 @@
       </c>
     </row>
     <row r="262" spans="1:22">
-      <c r="A262" s="1"/>
-      <c r="B262" s="2"/>
+      <c r="A262" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B262" s="2">
+        <v>0.77638888888888891</v>
+      </c>
+      <c r="C262" t="s">
+        <v>945</v>
+      </c>
+      <c r="D262" t="s">
+        <v>948</v>
+      </c>
+      <c r="E262">
+        <v>10</v>
+      </c>
+      <c r="F262" t="s">
+        <v>20</v>
+      </c>
+      <c r="G262" t="s">
+        <v>24</v>
+      </c>
+      <c r="H262" t="s">
+        <v>938</v>
+      </c>
       <c r="K262" s="1" t="s">
         <v>128</v>
       </c>
@@ -25379,8 +25459,30 @@
       <c r="U262" s="35"/>
     </row>
     <row r="263" spans="1:22">
-      <c r="A263" s="1"/>
-      <c r="B263" s="2"/>
+      <c r="A263" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B263" s="2">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="C263" t="s">
+        <v>936</v>
+      </c>
+      <c r="D263" t="s">
+        <v>989</v>
+      </c>
+      <c r="E263">
+        <v>17.2</v>
+      </c>
+      <c r="F263" t="s">
+        <v>20</v>
+      </c>
+      <c r="G263" t="s">
+        <v>24</v>
+      </c>
+      <c r="H263" t="s">
+        <v>251</v>
+      </c>
       <c r="K263" s="1"/>
       <c r="L263" s="2"/>
       <c r="M263" s="36">
@@ -25408,25 +25510,96 @@
       <c r="U263" s="35"/>
     </row>
     <row r="264" spans="1:22">
-      <c r="A264" s="1"/>
-      <c r="B264" s="2"/>
+      <c r="A264" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B264" s="2">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="C264" t="s">
+        <v>945</v>
+      </c>
+      <c r="D264" t="s">
+        <v>948</v>
+      </c>
+      <c r="E264">
+        <v>10</v>
+      </c>
+      <c r="F264" t="s">
+        <v>20</v>
+      </c>
+      <c r="G264" t="s">
+        <v>24</v>
+      </c>
+      <c r="H264" t="s">
+        <v>938</v>
+      </c>
     </row>
     <row r="265" spans="1:22">
-      <c r="A265" s="1"/>
-      <c r="B265" s="2"/>
-      <c r="K265" s="40" t="s">
+      <c r="A265" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B265" s="2">
+        <v>0.89930555555555547</v>
+      </c>
+      <c r="C265" t="s">
+        <v>986</v>
+      </c>
+      <c r="D265" t="s">
+        <v>985</v>
+      </c>
+      <c r="E265">
+        <v>80</v>
+      </c>
+      <c r="F265" t="s">
+        <v>23</v>
+      </c>
+      <c r="G265" t="s">
+        <v>24</v>
+      </c>
+      <c r="H265" t="s">
+        <v>36</v>
+      </c>
+      <c r="K265" s="41" t="s">
         <v>839</v>
       </c>
-      <c r="L265" s="40"/>
-      <c r="M265" s="40"/>
-      <c r="N265" s="40"/>
-      <c r="O265" s="40"/>
-      <c r="P265" s="40"/>
-      <c r="Q265" s="40"/>
-      <c r="R265" s="40"/>
-      <c r="S265" s="40"/>
+      <c r="L265" s="41"/>
+      <c r="M265" s="41"/>
+      <c r="N265" s="41"/>
+      <c r="O265" s="41"/>
+      <c r="P265" s="41"/>
+      <c r="Q265" s="41"/>
+      <c r="R265" s="41"/>
+      <c r="S265" s="41"/>
     </row>
     <row r="266" spans="1:22">
+      <c r="A266" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B266" s="2">
+        <v>0.41597222222222219</v>
+      </c>
+      <c r="C266" t="s">
+        <v>983</v>
+      </c>
+      <c r="D266" t="s">
+        <v>990</v>
+      </c>
+      <c r="E266">
+        <v>3000</v>
+      </c>
+      <c r="F266" t="s">
+        <v>23</v>
+      </c>
+      <c r="G266" t="s">
+        <v>14</v>
+      </c>
+      <c r="H266" t="s">
+        <v>36</v>
+      </c>
+      <c r="I266" t="s">
+        <v>991</v>
+      </c>
       <c r="K266" s="9" t="s">
         <v>1</v>
       </c>
@@ -25456,6 +25629,30 @@
       </c>
     </row>
     <row r="267" spans="1:22">
+      <c r="A267" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B267" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="C267" t="s">
+        <v>936</v>
+      </c>
+      <c r="D267" t="s">
+        <v>992</v>
+      </c>
+      <c r="E267">
+        <v>21.5</v>
+      </c>
+      <c r="F267" t="s">
+        <v>20</v>
+      </c>
+      <c r="G267" t="s">
+        <v>24</v>
+      </c>
+      <c r="H267" t="s">
+        <v>251</v>
+      </c>
       <c r="K267" s="1">
         <v>43905</v>
       </c>
@@ -25485,6 +25682,30 @@
       </c>
     </row>
     <row r="268" spans="1:22">
+      <c r="A268" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B268" s="2">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="C268" t="s">
+        <v>979</v>
+      </c>
+      <c r="D268" t="s">
+        <v>993</v>
+      </c>
+      <c r="E268">
+        <v>30</v>
+      </c>
+      <c r="F268" t="s">
+        <v>23</v>
+      </c>
+      <c r="G268" t="s">
+        <v>24</v>
+      </c>
+      <c r="H268" t="s">
+        <v>251</v>
+      </c>
       <c r="K268" s="1">
         <v>43905</v>
       </c>
@@ -25514,6 +25735,30 @@
       </c>
     </row>
     <row r="269" spans="1:22">
+      <c r="A269" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B269" s="2">
+        <v>0.77569444444444446</v>
+      </c>
+      <c r="C269" t="s">
+        <v>945</v>
+      </c>
+      <c r="D269" t="s">
+        <v>948</v>
+      </c>
+      <c r="E269">
+        <v>10</v>
+      </c>
+      <c r="F269" t="s">
+        <v>20</v>
+      </c>
+      <c r="G269" t="s">
+        <v>24</v>
+      </c>
+      <c r="H269" t="s">
+        <v>938</v>
+      </c>
       <c r="K269" s="1">
         <v>43905</v>
       </c>
@@ -25543,6 +25788,8 @@
       </c>
     </row>
     <row r="270" spans="1:22">
+      <c r="A270" s="1"/>
+      <c r="B270" s="2"/>
       <c r="K270" s="1">
         <v>43905</v>
       </c>
@@ -25572,6 +25819,8 @@
       </c>
     </row>
     <row r="271" spans="1:22">
+      <c r="A271" s="1"/>
+      <c r="B271" s="2"/>
       <c r="K271" s="1">
         <v>43905</v>
       </c>
@@ -25601,6 +25850,8 @@
       </c>
     </row>
     <row r="272" spans="1:22">
+      <c r="A272" s="1"/>
+      <c r="B272" s="2"/>
       <c r="K272" s="1">
         <v>43905</v>
       </c>
@@ -25629,7 +25880,9 @@
         <v>854</v>
       </c>
     </row>
-    <row r="273" spans="11:19">
+    <row r="273" spans="1:19">
+      <c r="A273" s="1"/>
+      <c r="B273" s="2"/>
       <c r="K273" s="1">
         <v>43905</v>
       </c>
@@ -25658,7 +25911,9 @@
         <v>856</v>
       </c>
     </row>
-    <row r="274" spans="11:19">
+    <row r="274" spans="1:19">
+      <c r="A274" s="1"/>
+      <c r="B274" s="2"/>
       <c r="K274" s="1">
         <v>43905</v>
       </c>
@@ -25687,7 +25942,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="275" spans="11:19">
+    <row r="275" spans="1:19">
       <c r="K275" s="1">
         <v>43905</v>
       </c>
@@ -25716,7 +25971,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="276" spans="11:19">
+    <row r="276" spans="1:19">
       <c r="K276" s="1">
         <v>43905</v>
       </c>
@@ -25745,7 +26000,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="277" spans="11:19">
+    <row r="277" spans="1:19">
       <c r="K277" s="1">
         <v>43905</v>
       </c>
@@ -25774,7 +26029,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="278" spans="11:19">
+    <row r="278" spans="1:19">
       <c r="K278" s="1">
         <v>43905</v>
       </c>
@@ -25803,7 +26058,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="279" spans="11:19">
+    <row r="279" spans="1:19">
       <c r="K279" s="1">
         <v>43905</v>
       </c>
@@ -25832,7 +26087,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="280" spans="11:19">
+    <row r="280" spans="1:19">
       <c r="K280" s="1">
         <v>43905</v>
       </c>
@@ -25861,7 +26116,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="281" spans="11:19">
+    <row r="281" spans="1:19">
       <c r="K281" s="1">
         <v>43905</v>
       </c>
@@ -25890,7 +26145,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="282" spans="11:19">
+    <row r="282" spans="1:19">
       <c r="K282" s="1">
         <v>43905</v>
       </c>
@@ -25919,7 +26174,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="283" spans="11:19">
+    <row r="283" spans="1:19">
       <c r="K283" s="1">
         <v>43905</v>
       </c>
@@ -25948,7 +26203,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="284" spans="11:19">
+    <row r="284" spans="1:19">
       <c r="K284" s="1">
         <v>43905</v>
       </c>
@@ -25977,7 +26232,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="285" spans="11:19">
+    <row r="285" spans="1:19">
       <c r="K285" s="1">
         <v>43905</v>
       </c>
@@ -26006,7 +26261,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="286" spans="11:19">
+    <row r="286" spans="1:19">
       <c r="K286" s="1">
         <v>43905</v>
       </c>
@@ -26035,7 +26290,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="287" spans="11:19">
+    <row r="287" spans="1:19">
       <c r="K287" s="1" t="s">
         <v>128</v>
       </c>
@@ -26045,17 +26300,17 @@
       </c>
     </row>
     <row r="289" spans="11:22">
-      <c r="K289" s="40" t="s">
+      <c r="K289" s="41" t="s">
         <v>910</v>
       </c>
-      <c r="L289" s="40"/>
-      <c r="M289" s="40"/>
-      <c r="N289" s="40"/>
-      <c r="O289" s="40"/>
-      <c r="P289" s="40"/>
-      <c r="Q289" s="40"/>
-      <c r="R289" s="40"/>
-      <c r="S289" s="40"/>
+      <c r="L289" s="41"/>
+      <c r="M289" s="41"/>
+      <c r="N289" s="41"/>
+      <c r="O289" s="41"/>
+      <c r="P289" s="41"/>
+      <c r="Q289" s="41"/>
+      <c r="R289" s="41"/>
+      <c r="S289" s="41"/>
     </row>
     <row r="290" spans="11:22">
       <c r="K290" s="9" t="s">
@@ -26270,20 +26525,20 @@
       </c>
     </row>
     <row r="299" spans="11:22">
-      <c r="K299" s="42" t="s">
+      <c r="K299" s="40" t="s">
         <v>965</v>
       </c>
-      <c r="L299" s="42"/>
-      <c r="M299" s="42"/>
-      <c r="N299" s="42"/>
-      <c r="O299" s="42"/>
-      <c r="P299" s="42"/>
-      <c r="Q299" s="42"/>
-      <c r="R299" s="42"/>
-      <c r="S299" s="42"/>
-      <c r="T299" s="42"/>
-      <c r="U299" s="42"/>
-      <c r="V299" s="42"/>
+      <c r="L299" s="40"/>
+      <c r="M299" s="40"/>
+      <c r="N299" s="40"/>
+      <c r="O299" s="40"/>
+      <c r="P299" s="40"/>
+      <c r="Q299" s="40"/>
+      <c r="R299" s="40"/>
+      <c r="S299" s="40"/>
+      <c r="T299" s="40"/>
+      <c r="U299" s="40"/>
+      <c r="V299" s="40"/>
     </row>
     <row r="300" spans="11:22">
       <c r="K300" s="9" t="s">
@@ -26503,13 +26758,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="K299:V299"/>
-    <mergeCell ref="K289:S289"/>
-    <mergeCell ref="K265:S265"/>
-    <mergeCell ref="K60:V60"/>
-    <mergeCell ref="K252:V252"/>
-    <mergeCell ref="K214:S214"/>
-    <mergeCell ref="K241:V241"/>
     <mergeCell ref="K1:U1"/>
     <mergeCell ref="K32:S32"/>
     <mergeCell ref="K76:S76"/>
@@ -26523,6 +26771,13 @@
     <mergeCell ref="K102:S102"/>
     <mergeCell ref="K130:S130"/>
     <mergeCell ref="K153:V153"/>
+    <mergeCell ref="K299:V299"/>
+    <mergeCell ref="K289:S289"/>
+    <mergeCell ref="K265:S265"/>
+    <mergeCell ref="K60:V60"/>
+    <mergeCell ref="K252:V252"/>
+    <mergeCell ref="K214:S214"/>
+    <mergeCell ref="K241:V241"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="13">
@@ -26611,34 +26866,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
       <c r="AB1" s="43" t="s">
         <v>327</v>
       </c>
@@ -26647,22 +26902,22 @@
       <c r="AE1" s="43"/>
       <c r="AF1" s="43"/>
       <c r="AG1" s="43"/>
-      <c r="AI1" s="41" t="s">
+      <c r="AI1" s="42" t="s">
         <v>328</v>
       </c>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="41"/>
-      <c r="AV1" s="41"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="42"/>
+      <c r="AP1" s="42"/>
+      <c r="AQ1" s="42"/>
+      <c r="AR1" s="42"/>
+      <c r="AS1" s="42"/>
+      <c r="AT1" s="42"/>
+      <c r="AU1" s="42"/>
+      <c r="AV1" s="42"/>
     </row>
     <row r="2" spans="1:48">
       <c r="A2" t="s">
@@ -30044,163 +30299,163 @@
         <v>24</v>
       </c>
       <c r="C2">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!C1,records!B2:B265, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!C1,records!B2:B274, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!D1,records!B2:B265, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!D1,records!B2:B274, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E2">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!E1,records!B2:B265, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!E1,records!B2:B274, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F2">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!F1,records!B2:B265, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!F1,records!B2:B274, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!G1,records!B2:B265, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!G1,records!B2:B274, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H2">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!H1,records!B2:B265, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!H1,records!B2:B274, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I2">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!I1,records!B2:B265, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!I1,records!B2:B274, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J2">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!J1,records!B2:B265, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!J1,records!B2:B274, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K2">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!K1,records!B2:B265, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!K1,records!B2:B274, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L2">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!L1,records!B2:B265, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!L1,records!B2:B274, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M2">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!M1,records!B2:B265, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!M1,records!B2:B274, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N2">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!N1,records!B2:B265, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!N1,records!B2:B274, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O2">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!O1,records!B2:B265, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!O1,records!B2:B274, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P2">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!P1,records!B2:B265, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!P1,records!B2:B274, "&lt;" &amp; template!Q1)</f>
         <v>24</v>
       </c>
       <c r="Q2">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!Q1,records!B2:B265, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!Q1,records!B2:B274, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R2">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!R1,records!B2:B265, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!R1,records!B2:B274, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S2">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!S1,records!B2:B265, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!S1,records!B2:B274, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T2">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!T1,records!B2:B265, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!T1,records!B2:B274, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U2">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!U1,records!B2:B265, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!U1,records!B2:B274, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V2">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!V1,records!B2:B265, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!V1,records!B2:B274, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W2">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!W1,records!B2:B265, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!W1,records!B2:B274, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X2">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!X1,records!B2:B265, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!X1,records!B2:B274, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y2">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!Y1,records!B2:B265, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!Y1,records!B2:B274, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z2">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2, records!B2:B265, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA2">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2,records!G2:G265,template!AA1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2,records!G2:G274,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB2">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2,records!G2:G265,template!AB1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2,records!G2:G274,template!AB1)</f>
         <v>24</v>
       </c>
       <c r="AC2">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2,records!G2:G265,template!AC1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2,records!G2:G274,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD2">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2,records!G2:G265,template!AD1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2,records!G2:G274,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE2">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2,records!C2:C265,template!AE1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2,records!C2:C274,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF2">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2,records!C2:C265,template!AF1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2,records!C2:C274,template!AF1)</f>
         <v>24</v>
       </c>
       <c r="AG2">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2,records!C2:C265,template!AG1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2,records!C2:C274,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH2">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2,records!C2:C265,template!AH1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2,records!C2:C274,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI2">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2,records!C2:C265,template!AI1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2,records!C2:C274,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ2">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2,records!C2:C265,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2,records!C2:C274,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK2">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2,records!C2:C265,template!AK1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2,records!C2:C274,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL2">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2,records!C2:C265,template!AL1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2,records!C2:C274,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM2">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2,records!C2:C265,template!AM1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2,records!C2:C274,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN2">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2,records!C2:C265,template!AN1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2,records!C2:C274,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO2">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2,records!C2:C265,template!AO1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2,records!C2:C274,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP2">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A2,records!C2:C265,template!AP1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2,records!C2:C274,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -30213,163 +30468,163 @@
         <v>22</v>
       </c>
       <c r="C3">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!C1,records!B2:B265, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!C1,records!B2:B274, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D3" s="14">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!D1,records!B2:B265, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!D1,records!B2:B274, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!E1,records!B2:B265, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!E1,records!B2:B274, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F3">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!F1,records!B2:B265, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!F1,records!B2:B274, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G3">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!G1,records!B2:B265, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!G1,records!B2:B274, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H3">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!H1,records!B2:B265, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!H1,records!B2:B274, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I3">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!I1,records!B2:B265, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!I1,records!B2:B274, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J3">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!J1,records!B2:B265, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!J1,records!B2:B274, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!K1,records!B2:B265, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!K1,records!B2:B274, "&lt;" &amp; template!L1)</f>
         <v>3</v>
       </c>
       <c r="L3">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!L1,records!B2:B265, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!L1,records!B2:B274, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M3">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!M1,records!B2:B265, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!M1,records!B2:B274, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N3">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!N1,records!B2:B265, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!N1,records!B2:B274, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O3">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!O1,records!B2:B265, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!O1,records!B2:B274, "&lt;" &amp; template!P1)</f>
         <v>16</v>
       </c>
       <c r="P3">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!P1,records!B2:B265, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!P1,records!B2:B274, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!Q1,records!B2:B265, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!Q1,records!B2:B274, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R3">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!R1,records!B2:B265, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!R1,records!B2:B274, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S3">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!S1,records!B2:B265, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!S1,records!B2:B274, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T3">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!T1,records!B2:B265, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!T1,records!B2:B274, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U3">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!U1,records!B2:B265, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!U1,records!B2:B274, "&lt;" &amp; template!V1)</f>
         <v>3</v>
       </c>
       <c r="V3">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!V1,records!B2:B265, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!V1,records!B2:B274, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W3">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!W1,records!B2:B265, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!W1,records!B2:B274, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X3">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!X1,records!B2:B265, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!X1,records!B2:B274, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y3">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!Y1,records!B2:B265, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!Y1,records!B2:B274, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z3">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3, records!B2:B265, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA3">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3,records!G2:G265,template!AA1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3,records!G2:G274,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB3">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3,records!G2:G265,template!AB1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3,records!G2:G274,template!AB1)</f>
         <v>22</v>
       </c>
       <c r="AC3">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3,records!G2:G265,template!AC1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3,records!G2:G274,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD3">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3,records!G2:G265,template!AD1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3,records!G2:G274,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE3">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3,records!C2:C265,template!AE1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3,records!C2:C274,template!AE1)</f>
         <v>6</v>
       </c>
       <c r="AF3">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3,records!C2:C265,template!AF1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3,records!C2:C274,template!AF1)</f>
         <v>16</v>
       </c>
       <c r="AG3">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3,records!C2:C265,template!AG1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3,records!C2:C274,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH3">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3,records!C2:C265,template!AH1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3,records!C2:C274,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI3">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3,records!C2:C265,template!AI1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3,records!C2:C274,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ3">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3,records!C2:C265,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3,records!C2:C274,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK3">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3,records!C2:C265,template!AK1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3,records!C2:C274,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL3">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3,records!C2:C265,template!AL1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3,records!C2:C274,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM3">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3,records!C2:C265,template!AM1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3,records!C2:C274,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN3">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3,records!C2:C265,template!AN1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3,records!C2:C274,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO3">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3,records!C2:C265,template!AO1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3,records!C2:C274,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP3">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A3,records!C2:C265,template!AP1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3,records!C2:C274,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -30382,163 +30637,163 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!C1,records!B2:B265, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!C1,records!B2:B274, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D4" s="14">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!D1,records!B2:B265, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!D1,records!B2:B274, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!E1,records!B2:B265, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!E1,records!B2:B274, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!F1,records!B2:B265, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!F1,records!B2:B274, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G4">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!G1,records!B2:B265, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!G1,records!B2:B274, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!H1,records!B2:B265, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!H1,records!B2:B274, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!I1,records!B2:B265, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!I1,records!B2:B274, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!J1,records!B2:B265, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!J1,records!B2:B274, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!K1,records!B2:B265, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!K1,records!B2:B274, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L4">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!L1,records!B2:B265, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!L1,records!B2:B274, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M4">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!M1,records!B2:B265, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!M1,records!B2:B274, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!N1,records!B2:B265, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!N1,records!B2:B274, "&lt;" &amp; template!O1)</f>
         <v>16</v>
       </c>
       <c r="O4">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!O1,records!B2:B265, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!O1,records!B2:B274, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P4">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!P1,records!B2:B265, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!P1,records!B2:B274, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!Q1,records!B2:B265, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!Q1,records!B2:B274, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R4">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!R1,records!B2:B265, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!R1,records!B2:B274, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S4">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!S1,records!B2:B265, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!S1,records!B2:B274, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T4">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!T1,records!B2:B265, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!T1,records!B2:B274, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U4">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!U1,records!B2:B265, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!U1,records!B2:B274, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V4">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!V1,records!B2:B265, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!V1,records!B2:B274, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W4">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!W1,records!B2:B265, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!W1,records!B2:B274, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X4">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!X1,records!B2:B265, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!X1,records!B2:B274, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y4">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!Y1,records!B2:B265, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!Y1,records!B2:B274, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z4">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4, records!B2:B265, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA4">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4,records!G2:G265,template!AA1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4,records!G2:G274,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB4">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4,records!G2:G265,template!AB1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4,records!G2:G274,template!AB1)</f>
         <v>16</v>
       </c>
       <c r="AC4">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4,records!G2:G265,template!AC1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4,records!G2:G274,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD4">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4,records!G2:G265,template!AD1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4,records!G2:G274,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE4">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4,records!C2:C265,template!AE1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4,records!C2:C274,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF4">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4,records!C2:C265,template!AF1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4,records!C2:C274,template!AF1)</f>
         <v>16</v>
       </c>
       <c r="AG4">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4,records!C2:C265,template!AG1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4,records!C2:C274,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH4">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4,records!C2:C265,template!AH1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4,records!C2:C274,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI4">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4,records!C2:C265,template!AI1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4,records!C2:C274,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ4">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4,records!C2:C265,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4,records!C2:C274,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK4">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4,records!C2:C265,template!AK1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4,records!C2:C274,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL4">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4,records!C2:C265,template!AL1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4,records!C2:C274,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM4">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4,records!C2:C265,template!AM1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4,records!C2:C274,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN4">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4,records!C2:C265,template!AN1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4,records!C2:C274,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO4">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4,records!C2:C265,template!AO1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4,records!C2:C274,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP4">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A4,records!C2:C265,template!AP1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4,records!C2:C274,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -30551,163 +30806,163 @@
         <v>69</v>
       </c>
       <c r="C5">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!C1,records!B2:B265, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!C1,records!B2:B274, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D5" s="14">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!D1,records!B2:B265, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!D1,records!B2:B274, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E5">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!E1,records!B2:B265, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!E1,records!B2:B274, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F5">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!F1,records!B2:B265, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!F1,records!B2:B274, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G5">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!G1,records!B2:B265, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!G1,records!B2:B274, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H5">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!H1,records!B2:B265, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!H1,records!B2:B274, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I5">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!I1,records!B2:B265, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!I1,records!B2:B274, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J5">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!J1,records!B2:B265, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!J1,records!B2:B274, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K5">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!K1,records!B2:B265, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!K1,records!B2:B274, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L5">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!L1,records!B2:B265, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!L1,records!B2:B274, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M5">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!M1,records!B2:B265, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!M1,records!B2:B274, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N5">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!N1,records!B2:B265, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!N1,records!B2:B274, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O5">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!O1,records!B2:B265, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!O1,records!B2:B274, "&lt;" &amp; template!P1)</f>
         <v>34</v>
       </c>
       <c r="P5">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!P1,records!B2:B265, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!P1,records!B2:B274, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q5">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!Q1,records!B2:B265, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!Q1,records!B2:B274, "&lt;" &amp; template!R1)</f>
         <v>3</v>
       </c>
       <c r="R5">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!R1,records!B2:B265, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!R1,records!B2:B274, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S5">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!S1,records!B2:B265, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!S1,records!B2:B274, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T5">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!T1,records!B2:B265, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!T1,records!B2:B274, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U5">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!U1,records!B2:B265, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!U1,records!B2:B274, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V5">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!V1,records!B2:B265, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!V1,records!B2:B274, "&lt;" &amp; template!W1)</f>
         <v>32</v>
       </c>
       <c r="W5">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!W1,records!B2:B265, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!W1,records!B2:B274, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X5">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!X1,records!B2:B265, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!X1,records!B2:B274, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y5">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!Y1,records!B2:B265, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!Y1,records!B2:B274, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z5">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5, records!B2:B265, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA5">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5,records!G2:G265,template!AA1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5,records!G2:G274,template!AA1)</f>
         <v>66</v>
       </c>
       <c r="AB5">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5,records!G2:G265,template!AB1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5,records!G2:G274,template!AB1)</f>
         <v>3</v>
       </c>
       <c r="AC5">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5,records!G2:G265,template!AC1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5,records!G2:G274,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD5">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5,records!G2:G265,template!AD1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5,records!G2:G274,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE5">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5,records!C2:C265,template!AE1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5,records!C2:C274,template!AE1)</f>
         <v>32</v>
       </c>
       <c r="AF5">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5,records!C2:C265,template!AF1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5,records!C2:C274,template!AF1)</f>
         <v>34</v>
       </c>
       <c r="AG5">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5,records!C2:C265,template!AG1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5,records!C2:C274,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH5">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5,records!C2:C265,template!AH1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5,records!C2:C274,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI5">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5,records!C2:C265,template!AI1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5,records!C2:C274,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ5">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5,records!C2:C265,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5,records!C2:C274,template!AJ1)</f>
         <v>3</v>
       </c>
       <c r="AK5">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5,records!C2:C265,template!AK1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5,records!C2:C274,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL5">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5,records!C2:C265,template!AL1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5,records!C2:C274,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM5">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5,records!C2:C265,template!AM1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5,records!C2:C274,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN5">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5,records!C2:C265,template!AN1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5,records!C2:C274,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO5">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5,records!C2:C265,template!AO1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5,records!C2:C274,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP5">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A5,records!C2:C265,template!AP1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5,records!C2:C274,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -30720,163 +30975,163 @@
         <v>17</v>
       </c>
       <c r="C6">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!C1,records!B2:B265, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!C1,records!B2:B274, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D6" s="14">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!D1,records!B2:B265, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!D1,records!B2:B274, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E6">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!E1,records!B2:B265, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!E1,records!B2:B274, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F6">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!F1,records!B2:B265, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!F1,records!B2:B274, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!G1,records!B2:B265, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!G1,records!B2:B274, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H6">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!H1,records!B2:B265, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!H1,records!B2:B274, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I6">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!I1,records!B2:B265, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!I1,records!B2:B274, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J6">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!J1,records!B2:B265, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!J1,records!B2:B274, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K6">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!K1,records!B2:B265, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!K1,records!B2:B274, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L6">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!L1,records!B2:B265, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!L1,records!B2:B274, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M6">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!M1,records!B2:B265, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!M1,records!B2:B274, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N6">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!N1,records!B2:B265, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!N1,records!B2:B274, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O6">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!O1,records!B2:B265, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!O1,records!B2:B274, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P6">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!P1,records!B2:B265, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!P1,records!B2:B274, "&lt;" &amp; template!Q1)</f>
         <v>17</v>
       </c>
       <c r="Q6">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!Q1,records!B2:B265, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!Q1,records!B2:B274, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R6">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!R1,records!B2:B265, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!R1,records!B2:B274, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S6">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!S1,records!B2:B265, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!S1,records!B2:B274, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T6">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!T1,records!B2:B265, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!T1,records!B2:B274, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U6">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!U1,records!B2:B265, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!U1,records!B2:B274, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V6">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!V1,records!B2:B265, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!V1,records!B2:B274, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W6">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!W1,records!B2:B265, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!W1,records!B2:B274, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X6">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!X1,records!B2:B265, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!X1,records!B2:B274, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y6">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!Y1,records!B2:B265, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!Y1,records!B2:B274, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z6">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6, records!B2:B265, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA6">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6,records!G2:G265,template!AA1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6,records!G2:G274,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB6">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6,records!G2:G265,template!AB1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6,records!G2:G274,template!AB1)</f>
         <v>17</v>
       </c>
       <c r="AC6">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6,records!G2:G265,template!AC1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6,records!G2:G274,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD6">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6,records!G2:G265,template!AD1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6,records!G2:G274,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE6">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6,records!C2:C265,template!AE1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6,records!C2:C274,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF6">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6,records!C2:C265,template!AF1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6,records!C2:C274,template!AF1)</f>
         <v>17</v>
       </c>
       <c r="AG6">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6,records!C2:C265,template!AG1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6,records!C2:C274,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH6">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6,records!C2:C265,template!AH1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6,records!C2:C274,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI6">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6,records!C2:C265,template!AI1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6,records!C2:C274,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ6">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6,records!C2:C265,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6,records!C2:C274,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK6">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6,records!C2:C265,template!AK1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6,records!C2:C274,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL6">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6,records!C2:C265,template!AL1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6,records!C2:C274,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM6">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6,records!C2:C265,template!AM1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6,records!C2:C274,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN6">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6,records!C2:C265,template!AN1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6,records!C2:C274,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO6">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6,records!C2:C265,template!AO1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6,records!C2:C274,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP6">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A6,records!C2:C265,template!AP1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6,records!C2:C274,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -30889,163 +31144,163 @@
         <v>146.69999999999999</v>
       </c>
       <c r="C7">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!C1,records!B2:B265, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!C1,records!B2:B274, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D7" s="14">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!D1,records!B2:B265, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!D1,records!B2:B274, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!E1,records!B2:B265, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!E1,records!B2:B274, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F7">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!F1,records!B2:B265, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!F1,records!B2:B274, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!G1,records!B2:B265, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!G1,records!B2:B274, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H7">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!H1,records!B2:B265, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!H1,records!B2:B274, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!I1,records!B2:B265, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!I1,records!B2:B274, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!J1,records!B2:B265, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!J1,records!B2:B274, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K7">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!K1,records!B2:B265, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!K1,records!B2:B274, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L7">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!L1,records!B2:B265, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!L1,records!B2:B274, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M7">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!M1,records!B2:B265, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!M1,records!B2:B274, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N7">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!N1,records!B2:B265, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!N1,records!B2:B274, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O7">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!O1,records!B2:B265, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!O1,records!B2:B274, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P7">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!P1,records!B2:B265, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!P1,records!B2:B274, "&lt;" &amp; template!Q1)</f>
         <v>16</v>
       </c>
       <c r="Q7">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!Q1,records!B2:B265, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!Q1,records!B2:B274, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R7">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!R1,records!B2:B265, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!R1,records!B2:B274, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S7">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!S1,records!B2:B265, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!S1,records!B2:B274, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T7">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!T1,records!B2:B265, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!T1,records!B2:B274, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U7">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!U1,records!B2:B265, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!U1,records!B2:B274, "&lt;" &amp; template!V1)</f>
         <v>32</v>
       </c>
       <c r="V7">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!V1,records!B2:B265, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!V1,records!B2:B274, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W7">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!W1,records!B2:B265, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!W1,records!B2:B274, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X7">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!X1,records!B2:B265, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!X1,records!B2:B274, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y7">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!Y1,records!B2:B265, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!Y1,records!B2:B274, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z7">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7, records!B2:B265, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!Z1)</f>
         <v>98.7</v>
       </c>
       <c r="AA7">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7,records!G2:G265,template!AA1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7,records!G2:G274,template!AA1)</f>
         <v>37</v>
       </c>
       <c r="AB7">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7,records!G2:G265,template!AB1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7,records!G2:G274,template!AB1)</f>
         <v>0</v>
       </c>
       <c r="AC7">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7,records!G2:G265,template!AC1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7,records!G2:G274,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD7">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7,records!G2:G265,template!AD1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7,records!G2:G274,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE7">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7,records!C2:C265,template!AE1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7,records!C2:C274,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF7">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7,records!C2:C265,template!AF1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7,records!C2:C274,template!AF1)</f>
         <v>16</v>
       </c>
       <c r="AG7">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7,records!C2:C265,template!AG1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7,records!C2:C274,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH7">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7,records!C2:C265,template!AH1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7,records!C2:C274,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI7">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7,records!C2:C265,template!AI1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7,records!C2:C274,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ7">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7,records!C2:C265,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7,records!C2:C274,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK7">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7,records!C2:C265,template!AK1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7,records!C2:C274,template!AK1)</f>
         <v>11</v>
       </c>
       <c r="AL7">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7,records!C2:C265,template!AL1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7,records!C2:C274,template!AL1)</f>
         <v>21</v>
       </c>
       <c r="AM7">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7,records!C2:C265,template!AM1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7,records!C2:C274,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN7">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7,records!C2:C265,template!AN1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7,records!C2:C274,template!AN1)</f>
         <v>98.7</v>
       </c>
       <c r="AO7">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7,records!C2:C265,template!AO1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7,records!C2:C274,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP7">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A7,records!C2:C265,template!AP1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7,records!C2:C274,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -31058,163 +31313,163 @@
         <v>2017.98</v>
       </c>
       <c r="C8">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!C1,records!B2:B265, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!C1,records!B2:B274, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D8" s="14">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!D1,records!B2:B265, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!D1,records!B2:B274, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E8">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!E1,records!B2:B265, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!E1,records!B2:B274, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!F1,records!B2:B265, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!F1,records!B2:B274, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!G1,records!B2:B265, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!G1,records!B2:B274, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!H1,records!B2:B265, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!H1,records!B2:B274, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!I1,records!B2:B265, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!I1,records!B2:B274, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!J1,records!B2:B265, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!J1,records!B2:B274, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K8">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!K1,records!B2:B265, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!K1,records!B2:B274, "&lt;" &amp; template!L1)</f>
         <v>2000</v>
       </c>
       <c r="L8">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!L1,records!B2:B265, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!L1,records!B2:B274, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M8">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!M1,records!B2:B265, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!M1,records!B2:B274, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N8">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!N1,records!B2:B265, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!N1,records!B2:B274, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O8">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!O1,records!B2:B265, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!O1,records!B2:B274, "&lt;" &amp; template!P1)</f>
         <v>17.98</v>
       </c>
       <c r="P8">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!P1,records!B2:B265, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!P1,records!B2:B274, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!Q1,records!B2:B265, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!Q1,records!B2:B274, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R8">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!R1,records!B2:B265, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!R1,records!B2:B274, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S8">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!S1,records!B2:B265, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!S1,records!B2:B274, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T8">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!T1,records!B2:B265, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!T1,records!B2:B274, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U8">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!U1,records!B2:B265, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!U1,records!B2:B274, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V8">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!V1,records!B2:B265, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!V1,records!B2:B274, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W8">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!W1,records!B2:B265, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!W1,records!B2:B274, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X8">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!X1,records!B2:B265, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!X1,records!B2:B274, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y8">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!Y1,records!B2:B265, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!Y1,records!B2:B274, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z8">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8, records!B2:B265, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA8">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8,records!G2:G265,template!AA1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8,records!G2:G274,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB8">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8,records!G2:G265,template!AB1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8,records!G2:G274,template!AB1)</f>
         <v>2000</v>
       </c>
       <c r="AC8">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8,records!G2:G265,template!AC1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8,records!G2:G274,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD8">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8,records!G2:G265,template!AD1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8,records!G2:G274,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE8">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8,records!C2:C265,template!AE1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8,records!C2:C274,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF8">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8,records!C2:C265,template!AF1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8,records!C2:C274,template!AF1)</f>
         <v>17.98</v>
       </c>
       <c r="AG8">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8,records!C2:C265,template!AG1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8,records!C2:C274,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH8">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8,records!C2:C265,template!AH1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8,records!C2:C274,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI8">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8,records!C2:C265,template!AI1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8,records!C2:C274,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ8">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8,records!C2:C265,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8,records!C2:C274,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK8">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8,records!C2:C265,template!AK1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8,records!C2:C274,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL8">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8,records!C2:C265,template!AL1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8,records!C2:C274,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM8">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8,records!C2:C265,template!AM1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8,records!C2:C274,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN8">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8,records!C2:C265,template!AN1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8,records!C2:C274,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO8">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8,records!C2:C265,template!AO1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8,records!C2:C274,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP8">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A8,records!C2:C265,template!AP1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8,records!C2:C274,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -31227,163 +31482,163 @@
         <v>1532.5</v>
       </c>
       <c r="C9">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!C1,records!B2:B265, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!C1,records!B2:B274, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D9" s="14">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!D1,records!B2:B265, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!D1,records!B2:B274, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!E1,records!B2:B265, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!E1,records!B2:B274, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!F1,records!B2:B265, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!F1,records!B2:B274, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!G1,records!B2:B265, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!G1,records!B2:B274, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H9">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!H1,records!B2:B265, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!H1,records!B2:B274, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!I1,records!B2:B265, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!I1,records!B2:B274, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!J1,records!B2:B265, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!J1,records!B2:B274, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K9">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!K1,records!B2:B265, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!K1,records!B2:B274, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L9">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!L1,records!B2:B265, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!L1,records!B2:B274, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M9">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!M1,records!B2:B265, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!M1,records!B2:B274, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N9">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!N1,records!B2:B265, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!N1,records!B2:B274, "&lt;" &amp; template!O1)</f>
         <v>2</v>
       </c>
       <c r="O9">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!O1,records!B2:B265, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!O1,records!B2:B274, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P9">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!P1,records!B2:B265, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!P1,records!B2:B274, "&lt;" &amp; template!Q1)</f>
         <v>20</v>
       </c>
       <c r="Q9">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!Q1,records!B2:B265, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!Q1,records!B2:B274, "&lt;" &amp; template!R1)</f>
         <v>10.5</v>
       </c>
       <c r="R9">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!R1,records!B2:B265, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!R1,records!B2:B274, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S9">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!S1,records!B2:B265, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!S1,records!B2:B274, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T9">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!T1,records!B2:B265, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!T1,records!B2:B274, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U9">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!U1,records!B2:B265, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!U1,records!B2:B274, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V9">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!V1,records!B2:B265, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!V1,records!B2:B274, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W9">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!W1,records!B2:B265, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!W1,records!B2:B274, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X9">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!X1,records!B2:B265, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!X1,records!B2:B274, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y9">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!Y1,records!B2:B265, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!Y1,records!B2:B274, "&lt;" &amp; template!Z1)</f>
         <v>1500</v>
       </c>
       <c r="Z9">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9, records!B2:B265, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA9">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9,records!G2:G265,template!AA1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9,records!G2:G274,template!AA1)</f>
         <v>1502</v>
       </c>
       <c r="AB9">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9,records!G2:G265,template!AB1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9,records!G2:G274,template!AB1)</f>
         <v>30.5</v>
       </c>
       <c r="AC9">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9,records!G2:G265,template!AC1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9,records!G2:G274,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD9">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9,records!G2:G265,template!AD1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9,records!G2:G274,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE9">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9,records!C2:C265,template!AE1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9,records!C2:C274,template!AE1)</f>
         <v>2</v>
       </c>
       <c r="AF9">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9,records!C2:C265,template!AF1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9,records!C2:C274,template!AF1)</f>
         <v>20</v>
       </c>
       <c r="AG9">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9,records!C2:C265,template!AG1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9,records!C2:C274,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH9">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9,records!C2:C265,template!AH1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9,records!C2:C274,template!AH1)</f>
         <v>1500</v>
       </c>
       <c r="AI9">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9,records!C2:C265,template!AI1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9,records!C2:C274,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ9">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9,records!C2:C265,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9,records!C2:C274,template!AJ1)</f>
         <v>10.5</v>
       </c>
       <c r="AK9">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9,records!C2:C265,template!AK1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9,records!C2:C274,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL9">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9,records!C2:C265,template!AL1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9,records!C2:C274,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM9">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9,records!C2:C265,template!AM1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9,records!C2:C274,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN9">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9,records!C2:C265,template!AN1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9,records!C2:C274,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO9">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9,records!C2:C265,template!AO1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9,records!C2:C274,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP9">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A9,records!C2:C265,template!AP1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9,records!C2:C274,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -31396,163 +31651,163 @@
         <v>109</v>
       </c>
       <c r="C10">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!C1,records!B2:B265, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!C1,records!B2:B274, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D10" s="14">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!D1,records!B2:B265, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!D1,records!B2:B274, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E10">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!E1,records!B2:B265, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!E1,records!B2:B274, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F10">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!F1,records!B2:B265, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!F1,records!B2:B274, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G10">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!G1,records!B2:B265, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!G1,records!B2:B274, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H10">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!H1,records!B2:B265, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!H1,records!B2:B274, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I10">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!I1,records!B2:B265, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!I1,records!B2:B274, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!J1,records!B2:B265, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!J1,records!B2:B274, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K10">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!K1,records!B2:B265, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!K1,records!B2:B274, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L10">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!L1,records!B2:B265, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!L1,records!B2:B274, "&lt;" &amp; template!M1)</f>
         <v>18</v>
       </c>
       <c r="M10">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!M1,records!B2:B265, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!M1,records!B2:B274, "&lt;" &amp; template!N1)</f>
         <v>15</v>
       </c>
       <c r="N10">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!N1,records!B2:B265, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!N1,records!B2:B274, "&lt;" &amp; template!O1)</f>
         <v>30</v>
       </c>
       <c r="O10">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!O1,records!B2:B265, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!O1,records!B2:B274, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P10">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!P1,records!B2:B265, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!P1,records!B2:B274, "&lt;" &amp; template!Q1)</f>
         <v>30</v>
       </c>
       <c r="Q10">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!Q1,records!B2:B265, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!Q1,records!B2:B274, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R10">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!R1,records!B2:B265, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!R1,records!B2:B274, "&lt;" &amp; template!S1)</f>
         <v>6</v>
       </c>
       <c r="S10">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!S1,records!B2:B265, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!S1,records!B2:B274, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T10">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!T1,records!B2:B265, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!T1,records!B2:B274, "&lt;" &amp; template!U1)</f>
         <v>10</v>
       </c>
       <c r="U10">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!U1,records!B2:B265, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!U1,records!B2:B274, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V10">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!V1,records!B2:B265, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!V1,records!B2:B274, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W10">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!W1,records!B2:B265, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!W1,records!B2:B274, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X10">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!X1,records!B2:B265, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!X1,records!B2:B274, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y10">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!Y1,records!B2:B265, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!Y1,records!B2:B274, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z10">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10, records!B2:B265, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA10">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10,records!G2:G265,template!AA1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10,records!G2:G274,template!AA1)</f>
         <v>94</v>
       </c>
       <c r="AB10">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10,records!G2:G265,template!AB1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10,records!G2:G274,template!AB1)</f>
         <v>0</v>
       </c>
       <c r="AC10">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10,records!G2:G265,template!AC1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10,records!G2:G274,template!AC1)</f>
         <v>15</v>
       </c>
       <c r="AD10">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10,records!G2:G265,template!AD1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10,records!G2:G274,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE10">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10,records!C2:C265,template!AE1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10,records!C2:C274,template!AE1)</f>
         <v>33</v>
       </c>
       <c r="AF10">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10,records!C2:C265,template!AF1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10,records!C2:C274,template!AF1)</f>
         <v>30</v>
       </c>
       <c r="AG10">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10,records!C2:C265,template!AG1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10,records!C2:C274,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH10">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10,records!C2:C265,template!AH1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10,records!C2:C274,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI10">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10,records!C2:C265,template!AI1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10,records!C2:C274,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ10">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10,records!C2:C265,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10,records!C2:C274,template!AJ1)</f>
         <v>6</v>
       </c>
       <c r="AK10">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10,records!C2:C265,template!AK1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10,records!C2:C274,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL10">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10,records!C2:C265,template!AL1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10,records!C2:C274,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM10">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10,records!C2:C265,template!AM1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10,records!C2:C274,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN10">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10,records!C2:C265,template!AN1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10,records!C2:C274,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO10">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10,records!C2:C265,template!AO1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10,records!C2:C274,template!AO1)</f>
         <v>10</v>
       </c>
       <c r="AP10">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A10,records!C2:C265,template!AP1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10,records!C2:C274,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -31565,163 +31820,163 @@
         <v>115</v>
       </c>
       <c r="C11">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!C1,records!B2:B265, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!C1,records!B2:B274, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D11" s="14">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!D1,records!B2:B265, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!D1,records!B2:B274, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E11">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!E1,records!B2:B265, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!E1,records!B2:B274, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F11">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!F1,records!B2:B265, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!F1,records!B2:B274, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G11">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!G1,records!B2:B265, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!G1,records!B2:B274, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H11">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!H1,records!B2:B265, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!H1,records!B2:B274, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I11">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!I1,records!B2:B265, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!I1,records!B2:B274, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!J1,records!B2:B265, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!J1,records!B2:B274, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K11">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!K1,records!B2:B265, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!K1,records!B2:B274, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L11">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!L1,records!B2:B265, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!L1,records!B2:B274, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M11">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!M1,records!B2:B265, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!M1,records!B2:B274, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N11">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!N1,records!B2:B265, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!N1,records!B2:B274, "&lt;" &amp; template!O1)</f>
         <v>18</v>
       </c>
       <c r="O11">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!O1,records!B2:B265, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!O1,records!B2:B274, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P11">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!P1,records!B2:B265, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!P1,records!B2:B274, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q11">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!Q1,records!B2:B265, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!Q1,records!B2:B274, "&lt;" &amp; template!R1)</f>
         <v>51</v>
       </c>
       <c r="R11">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!R1,records!B2:B265, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!R1,records!B2:B274, "&lt;" &amp; template!S1)</f>
         <v>15</v>
       </c>
       <c r="S11">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!S1,records!B2:B265, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!S1,records!B2:B274, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T11">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!T1,records!B2:B265, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!T1,records!B2:B274, "&lt;" &amp; template!U1)</f>
         <v>31</v>
       </c>
       <c r="U11">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!U1,records!B2:B265, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!U1,records!B2:B274, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V11">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!V1,records!B2:B265, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!V1,records!B2:B274, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W11">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!W1,records!B2:B265, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!W1,records!B2:B274, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X11">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!X1,records!B2:B265, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!X1,records!B2:B274, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y11">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!Y1,records!B2:B265, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!Y1,records!B2:B274, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z11">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11, records!B2:B265, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA11">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11,records!G2:G265,template!AA1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11,records!G2:G274,template!AA1)</f>
         <v>49</v>
       </c>
       <c r="AB11">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11,records!G2:G265,template!AB1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11,records!G2:G274,template!AB1)</f>
         <v>51</v>
       </c>
       <c r="AC11">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11,records!G2:G265,template!AC1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11,records!G2:G274,template!AC1)</f>
         <v>15</v>
       </c>
       <c r="AD11">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11,records!G2:G265,template!AD1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11,records!G2:G274,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE11">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11,records!C2:C265,template!AE1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11,records!C2:C274,template!AE1)</f>
         <v>64</v>
       </c>
       <c r="AF11">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11,records!C2:C265,template!AF1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11,records!C2:C274,template!AF1)</f>
         <v>51</v>
       </c>
       <c r="AG11">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11,records!C2:C265,template!AG1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11,records!C2:C274,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH11">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11,records!C2:C265,template!AH1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11,records!C2:C274,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI11">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11,records!C2:C265,template!AI1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11,records!C2:C274,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ11">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11,records!C2:C265,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11,records!C2:C274,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK11">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11,records!C2:C265,template!AK1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11,records!C2:C274,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL11">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11,records!C2:C265,template!AL1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11,records!C2:C274,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM11">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11,records!C2:C265,template!AM1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11,records!C2:C274,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN11">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11,records!C2:C265,template!AN1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11,records!C2:C274,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO11">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11,records!C2:C265,template!AO1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11,records!C2:C274,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP11">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A11,records!C2:C265,template!AP1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11,records!C2:C274,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -31734,163 +31989,163 @@
         <v>100</v>
       </c>
       <c r="C12">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!C1,records!B2:B265, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!C1,records!B2:B274, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D12" s="14">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!D1,records!B2:B265, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!D1,records!B2:B274, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E12">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!E1,records!B2:B265, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!E1,records!B2:B274, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F12">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!F1,records!B2:B265, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!F1,records!B2:B274, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G12">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!G1,records!B2:B265, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!G1,records!B2:B274, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H12">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!H1,records!B2:B265, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!H1,records!B2:B274, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I12">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!I1,records!B2:B265, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!I1,records!B2:B274, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!J1,records!B2:B265, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!J1,records!B2:B274, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K12">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!K1,records!B2:B265, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!K1,records!B2:B274, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L12">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!L1,records!B2:B265, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!L1,records!B2:B274, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M12">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!M1,records!B2:B265, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!M1,records!B2:B274, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N12">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!N1,records!B2:B265, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!N1,records!B2:B274, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O12">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!O1,records!B2:B265, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!O1,records!B2:B274, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P12">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!P1,records!B2:B265, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!P1,records!B2:B274, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q12">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!Q1,records!B2:B265, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!Q1,records!B2:B274, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R12">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!R1,records!B2:B265, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!R1,records!B2:B274, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S12">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!S1,records!B2:B265, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!S1,records!B2:B274, "&lt;" &amp; template!T1)</f>
         <v>88</v>
       </c>
       <c r="T12">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!T1,records!B2:B265, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!T1,records!B2:B274, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U12">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!U1,records!B2:B265, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!U1,records!B2:B274, "&lt;" &amp; template!V1)</f>
         <v>12</v>
       </c>
       <c r="V12">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!V1,records!B2:B265, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!V1,records!B2:B274, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W12">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!W1,records!B2:B265, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!W1,records!B2:B274, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X12">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!X1,records!B2:B265, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!X1,records!B2:B274, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y12">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!Y1,records!B2:B265, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!Y1,records!B2:B274, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z12">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12, records!B2:B265, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA12">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12,records!G2:G265,template!AA1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12,records!G2:G274,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB12">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12,records!G2:G265,template!AB1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12,records!G2:G274,template!AB1)</f>
         <v>100</v>
       </c>
       <c r="AC12">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12,records!G2:G265,template!AC1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12,records!G2:G274,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD12">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12,records!G2:G265,template!AD1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12,records!G2:G274,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE12">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12,records!C2:C265,template!AE1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12,records!C2:C274,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF12">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12,records!C2:C265,template!AF1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12,records!C2:C274,template!AF1)</f>
         <v>0</v>
       </c>
       <c r="AG12">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12,records!C2:C265,template!AG1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12,records!C2:C274,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH12">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12,records!C2:C265,template!AH1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12,records!C2:C274,template!AH1)</f>
         <v>88</v>
       </c>
       <c r="AI12">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12,records!C2:C265,template!AI1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12,records!C2:C274,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ12">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12,records!C2:C265,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12,records!C2:C274,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK12">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12,records!C2:C265,template!AK1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12,records!C2:C274,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL12">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12,records!C2:C265,template!AL1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12,records!C2:C274,template!AL1)</f>
         <v>12</v>
       </c>
       <c r="AM12">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12,records!C2:C265,template!AM1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12,records!C2:C274,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN12">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12,records!C2:C265,template!AN1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12,records!C2:C274,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO12">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12,records!C2:C265,template!AO1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12,records!C2:C274,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP12">
-        <f>SUMIFS(records!E2:E265,records!A2:A265,template!A12,records!C2:C265,template!AP1)</f>
+        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12,records!C2:C274,template!AP1)</f>
         <v>0</v>
       </c>
     </row>

--- a/excel/ledger.xlsx
+++ b/excel/ledger.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9727357-68E3-BF4F-96D2-662BB05FEC0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7710475-46D1-B847-BE63-C5A84F4AB4E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="11760" windowWidth="20460" windowHeight="11280" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3358" uniqueCount="994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3363" uniqueCount="995">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3861,6 +3861,10 @@
   </si>
   <si>
     <t>¥5*12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放贷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4177,13 +4181,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -11719,8 +11723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C81ADFD-2D83-574A-AD81-B8046C388F80}">
   <dimension ref="A1:V306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" zoomScale="88" workbookViewId="0">
-      <selection activeCell="B269" sqref="A269:H269"/>
+    <sheetView tabSelected="1" topLeftCell="A251" zoomScale="88" workbookViewId="0">
+      <selection activeCell="H270" sqref="H270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11764,19 +11768,19 @@
       <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="1">
@@ -13553,17 +13557,17 @@
       <c r="I32" t="s">
         <v>141</v>
       </c>
-      <c r="K32" s="41" t="s">
+      <c r="K32" s="40" t="s">
         <v>354</v>
       </c>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="41"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
       <c r="T32" s="29"/>
       <c r="U32" s="29"/>
     </row>
@@ -14082,17 +14086,17 @@
       <c r="I43" t="s">
         <v>197</v>
       </c>
-      <c r="K43" s="41" t="s">
+      <c r="K43" s="40" t="s">
         <v>354</v>
       </c>
-      <c r="L43" s="41"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="41"/>
-      <c r="O43" s="41"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="41"/>
-      <c r="S43" s="41"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="40"/>
+      <c r="S43" s="40"/>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="1">
@@ -14509,19 +14513,19 @@
       <c r="I52" t="s">
         <v>141</v>
       </c>
-      <c r="K52" s="40" t="s">
+      <c r="K52" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="L52" s="40"/>
-      <c r="M52" s="40"/>
-      <c r="N52" s="40"/>
-      <c r="O52" s="40"/>
-      <c r="P52" s="40"/>
-      <c r="Q52" s="40"/>
-      <c r="R52" s="40"/>
-      <c r="S52" s="40"/>
-      <c r="T52" s="40"/>
-      <c r="U52" s="40"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="42"/>
+      <c r="R52" s="42"/>
+      <c r="S52" s="42"/>
+      <c r="T52" s="42"/>
+      <c r="U52" s="42"/>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="1">
@@ -14952,20 +14956,20 @@
       <c r="I60" t="s">
         <v>231</v>
       </c>
-      <c r="K60" s="40" t="s">
+      <c r="K60" s="42" t="s">
         <v>666</v>
       </c>
-      <c r="L60" s="40"/>
-      <c r="M60" s="40"/>
-      <c r="N60" s="40"/>
-      <c r="O60" s="40"/>
-      <c r="P60" s="40"/>
-      <c r="Q60" s="40"/>
-      <c r="R60" s="40"/>
-      <c r="S60" s="40"/>
-      <c r="T60" s="40"/>
-      <c r="U60" s="40"/>
-      <c r="V60" s="40"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="42"/>
+      <c r="P60" s="42"/>
+      <c r="Q60" s="42"/>
+      <c r="R60" s="42"/>
+      <c r="S60" s="42"/>
+      <c r="T60" s="42"/>
+      <c r="U60" s="42"/>
+      <c r="V60" s="42"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="1">
@@ -15884,17 +15888,17 @@
       <c r="I76" t="s">
         <v>262</v>
       </c>
-      <c r="K76" s="41" t="s">
+      <c r="K76" s="40" t="s">
         <v>348</v>
       </c>
-      <c r="L76" s="41"/>
-      <c r="M76" s="41"/>
-      <c r="N76" s="41"/>
-      <c r="O76" s="41"/>
-      <c r="P76" s="41"/>
-      <c r="Q76" s="41"/>
-      <c r="R76" s="41"/>
-      <c r="S76" s="41"/>
+      <c r="L76" s="40"/>
+      <c r="M76" s="40"/>
+      <c r="N76" s="40"/>
+      <c r="O76" s="40"/>
+      <c r="P76" s="40"/>
+      <c r="Q76" s="40"/>
+      <c r="R76" s="40"/>
+      <c r="S76" s="40"/>
     </row>
     <row r="77" spans="1:22">
       <c r="A77" s="1">
@@ -16358,17 +16362,17 @@
       <c r="I86" t="s">
         <v>176</v>
       </c>
-      <c r="K86" s="41" t="s">
+      <c r="K86" s="40" t="s">
         <v>368</v>
       </c>
-      <c r="L86" s="41"/>
-      <c r="M86" s="41"/>
-      <c r="N86" s="41"/>
-      <c r="O86" s="41"/>
-      <c r="P86" s="41"/>
-      <c r="Q86" s="41"/>
-      <c r="R86" s="41"/>
-      <c r="S86" s="41"/>
+      <c r="L86" s="40"/>
+      <c r="M86" s="40"/>
+      <c r="N86" s="40"/>
+      <c r="O86" s="40"/>
+      <c r="P86" s="40"/>
+      <c r="Q86" s="40"/>
+      <c r="R86" s="40"/>
+      <c r="S86" s="40"/>
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="1">
@@ -16673,17 +16677,17 @@
       <c r="I93" t="s">
         <v>141</v>
       </c>
-      <c r="K93" s="41" t="s">
+      <c r="K93" s="40" t="s">
         <v>379</v>
       </c>
-      <c r="L93" s="41"/>
-      <c r="M93" s="41"/>
-      <c r="N93" s="41"/>
-      <c r="O93" s="41"/>
-      <c r="P93" s="41"/>
-      <c r="Q93" s="41"/>
-      <c r="R93" s="41"/>
-      <c r="S93" s="41"/>
+      <c r="L93" s="40"/>
+      <c r="M93" s="40"/>
+      <c r="N93" s="40"/>
+      <c r="O93" s="40"/>
+      <c r="P93" s="40"/>
+      <c r="Q93" s="40"/>
+      <c r="R93" s="40"/>
+      <c r="S93" s="40"/>
     </row>
     <row r="94" spans="1:19">
       <c r="A94" s="1">
@@ -17085,17 +17089,17 @@
       <c r="H102" t="s">
         <v>291</v>
       </c>
-      <c r="K102" s="41" t="s">
+      <c r="K102" s="40" t="s">
         <v>379</v>
       </c>
-      <c r="L102" s="41"/>
-      <c r="M102" s="41"/>
-      <c r="N102" s="41"/>
-      <c r="O102" s="41"/>
-      <c r="P102" s="41"/>
-      <c r="Q102" s="41"/>
-      <c r="R102" s="41"/>
-      <c r="S102" s="41"/>
+      <c r="L102" s="40"/>
+      <c r="M102" s="40"/>
+      <c r="N102" s="40"/>
+      <c r="O102" s="40"/>
+      <c r="P102" s="40"/>
+      <c r="Q102" s="40"/>
+      <c r="R102" s="40"/>
+      <c r="S102" s="40"/>
     </row>
     <row r="103" spans="1:19">
       <c r="A103" s="1">
@@ -17460,17 +17464,17 @@
       <c r="I111" t="s">
         <v>340</v>
       </c>
-      <c r="K111" s="42" t="s">
+      <c r="K111" s="41" t="s">
         <v>448</v>
       </c>
-      <c r="L111" s="42"/>
-      <c r="M111" s="42"/>
-      <c r="N111" s="42"/>
-      <c r="O111" s="42"/>
-      <c r="P111" s="42"/>
-      <c r="Q111" s="42"/>
-      <c r="R111" s="42"/>
-      <c r="S111" s="42"/>
+      <c r="L111" s="41"/>
+      <c r="M111" s="41"/>
+      <c r="N111" s="41"/>
+      <c r="O111" s="41"/>
+      <c r="P111" s="41"/>
+      <c r="Q111" s="41"/>
+      <c r="R111" s="41"/>
+      <c r="S111" s="41"/>
     </row>
     <row r="112" spans="1:19">
       <c r="A112" s="1">
@@ -18395,17 +18399,17 @@
       <c r="H130" t="s">
         <v>283</v>
       </c>
-      <c r="K130" s="41" t="s">
+      <c r="K130" s="40" t="s">
         <v>549</v>
       </c>
-      <c r="L130" s="41"/>
-      <c r="M130" s="41"/>
-      <c r="N130" s="41"/>
-      <c r="O130" s="41"/>
-      <c r="P130" s="41"/>
-      <c r="Q130" s="41"/>
-      <c r="R130" s="41"/>
-      <c r="S130" s="41"/>
+      <c r="L130" s="40"/>
+      <c r="M130" s="40"/>
+      <c r="N130" s="40"/>
+      <c r="O130" s="40"/>
+      <c r="P130" s="40"/>
+      <c r="Q130" s="40"/>
+      <c r="R130" s="40"/>
+      <c r="S130" s="40"/>
     </row>
     <row r="131" spans="1:19">
       <c r="A131" s="1">
@@ -19582,20 +19586,20 @@
       <c r="I153" t="s">
         <v>415</v>
       </c>
-      <c r="K153" s="40" t="s">
+      <c r="K153" s="42" t="s">
         <v>597</v>
       </c>
-      <c r="L153" s="40"/>
-      <c r="M153" s="40"/>
-      <c r="N153" s="40"/>
-      <c r="O153" s="40"/>
-      <c r="P153" s="40"/>
-      <c r="Q153" s="40"/>
-      <c r="R153" s="40"/>
-      <c r="S153" s="40"/>
-      <c r="T153" s="40"/>
-      <c r="U153" s="40"/>
-      <c r="V153" s="40"/>
+      <c r="L153" s="42"/>
+      <c r="M153" s="42"/>
+      <c r="N153" s="42"/>
+      <c r="O153" s="42"/>
+      <c r="P153" s="42"/>
+      <c r="Q153" s="42"/>
+      <c r="R153" s="42"/>
+      <c r="S153" s="42"/>
+      <c r="T153" s="42"/>
+      <c r="U153" s="42"/>
+      <c r="V153" s="42"/>
     </row>
     <row r="154" spans="1:22">
       <c r="A154" s="1">
@@ -21213,17 +21217,17 @@
       <c r="I181" t="s">
         <v>703</v>
       </c>
-      <c r="K181" s="41" t="s">
+      <c r="K181" s="40" t="s">
         <v>531</v>
       </c>
-      <c r="L181" s="41"/>
-      <c r="M181" s="41"/>
-      <c r="N181" s="41"/>
-      <c r="O181" s="41"/>
-      <c r="P181" s="41"/>
-      <c r="Q181" s="41"/>
-      <c r="R181" s="41"/>
-      <c r="S181" s="41"/>
+      <c r="L181" s="40"/>
+      <c r="M181" s="40"/>
+      <c r="N181" s="40"/>
+      <c r="O181" s="40"/>
+      <c r="P181" s="40"/>
+      <c r="Q181" s="40"/>
+      <c r="R181" s="40"/>
+      <c r="S181" s="40"/>
     </row>
     <row r="182" spans="1:22">
       <c r="A182" s="1">
@@ -22523,17 +22527,17 @@
       <c r="H206" t="s">
         <v>216</v>
       </c>
-      <c r="K206" s="41" t="s">
+      <c r="K206" s="40" t="s">
         <v>533</v>
       </c>
-      <c r="L206" s="41"/>
-      <c r="M206" s="41"/>
-      <c r="N206" s="41"/>
-      <c r="O206" s="41"/>
-      <c r="P206" s="41"/>
-      <c r="Q206" s="41"/>
-      <c r="R206" s="41"/>
-      <c r="S206" s="41"/>
+      <c r="L206" s="40"/>
+      <c r="M206" s="40"/>
+      <c r="N206" s="40"/>
+      <c r="O206" s="40"/>
+      <c r="P206" s="40"/>
+      <c r="Q206" s="40"/>
+      <c r="R206" s="40"/>
+      <c r="S206" s="40"/>
     </row>
     <row r="207" spans="1:19">
       <c r="A207" s="1">
@@ -22884,17 +22888,17 @@
       <c r="H214" t="s">
         <v>25</v>
       </c>
-      <c r="K214" s="41" t="s">
+      <c r="K214" s="40" t="s">
         <v>707</v>
       </c>
-      <c r="L214" s="41"/>
-      <c r="M214" s="41"/>
-      <c r="N214" s="41"/>
-      <c r="O214" s="41"/>
-      <c r="P214" s="41"/>
-      <c r="Q214" s="41"/>
-      <c r="R214" s="41"/>
-      <c r="S214" s="41"/>
+      <c r="L214" s="40"/>
+      <c r="M214" s="40"/>
+      <c r="N214" s="40"/>
+      <c r="O214" s="40"/>
+      <c r="P214" s="40"/>
+      <c r="Q214" s="40"/>
+      <c r="R214" s="40"/>
+      <c r="S214" s="40"/>
     </row>
     <row r="215" spans="1:19">
       <c r="A215" s="1">
@@ -24258,20 +24262,20 @@
       <c r="H241" t="s">
         <v>251</v>
       </c>
-      <c r="K241" s="40" t="s">
+      <c r="K241" s="42" t="s">
         <v>767</v>
       </c>
-      <c r="L241" s="40"/>
-      <c r="M241" s="40"/>
-      <c r="N241" s="40"/>
-      <c r="O241" s="40"/>
-      <c r="P241" s="40"/>
-      <c r="Q241" s="40"/>
-      <c r="R241" s="40"/>
-      <c r="S241" s="40"/>
-      <c r="T241" s="40"/>
-      <c r="U241" s="40"/>
-      <c r="V241" s="40"/>
+      <c r="L241" s="42"/>
+      <c r="M241" s="42"/>
+      <c r="N241" s="42"/>
+      <c r="O241" s="42"/>
+      <c r="P241" s="42"/>
+      <c r="Q241" s="42"/>
+      <c r="R241" s="42"/>
+      <c r="S241" s="42"/>
+      <c r="T241" s="42"/>
+      <c r="U241" s="42"/>
+      <c r="V241" s="42"/>
     </row>
     <row r="242" spans="1:22">
       <c r="A242" s="1">
@@ -24853,20 +24857,20 @@
       <c r="H252" t="s">
         <v>392</v>
       </c>
-      <c r="K252" s="40" t="s">
+      <c r="K252" s="42" t="s">
         <v>802</v>
       </c>
-      <c r="L252" s="40"/>
-      <c r="M252" s="40"/>
-      <c r="N252" s="40"/>
-      <c r="O252" s="40"/>
-      <c r="P252" s="40"/>
-      <c r="Q252" s="40"/>
-      <c r="R252" s="40"/>
-      <c r="S252" s="40"/>
-      <c r="T252" s="40"/>
-      <c r="U252" s="40"/>
-      <c r="V252" s="40"/>
+      <c r="L252" s="42"/>
+      <c r="M252" s="42"/>
+      <c r="N252" s="42"/>
+      <c r="O252" s="42"/>
+      <c r="P252" s="42"/>
+      <c r="Q252" s="42"/>
+      <c r="R252" s="42"/>
+      <c r="S252" s="42"/>
+      <c r="T252" s="42"/>
+      <c r="U252" s="42"/>
+      <c r="V252" s="42"/>
     </row>
     <row r="253" spans="1:22">
       <c r="A253" s="1">
@@ -25560,17 +25564,17 @@
       <c r="H265" t="s">
         <v>36</v>
       </c>
-      <c r="K265" s="41" t="s">
+      <c r="K265" s="40" t="s">
         <v>839</v>
       </c>
-      <c r="L265" s="41"/>
-      <c r="M265" s="41"/>
-      <c r="N265" s="41"/>
-      <c r="O265" s="41"/>
-      <c r="P265" s="41"/>
-      <c r="Q265" s="41"/>
-      <c r="R265" s="41"/>
-      <c r="S265" s="41"/>
+      <c r="L265" s="40"/>
+      <c r="M265" s="40"/>
+      <c r="N265" s="40"/>
+      <c r="O265" s="40"/>
+      <c r="P265" s="40"/>
+      <c r="Q265" s="40"/>
+      <c r="R265" s="40"/>
+      <c r="S265" s="40"/>
     </row>
     <row r="266" spans="1:22">
       <c r="A266" s="1">
@@ -25788,8 +25792,30 @@
       </c>
     </row>
     <row r="270" spans="1:22">
-      <c r="A270" s="1"/>
-      <c r="B270" s="2"/>
+      <c r="A270" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B270" s="2">
+        <v>0.86805555555555547</v>
+      </c>
+      <c r="C270" t="s">
+        <v>994</v>
+      </c>
+      <c r="D270" t="s">
+        <v>37</v>
+      </c>
+      <c r="E270">
+        <v>100</v>
+      </c>
+      <c r="F270" t="s">
+        <v>23</v>
+      </c>
+      <c r="G270" t="s">
+        <v>24</v>
+      </c>
+      <c r="H270" t="s">
+        <v>38</v>
+      </c>
       <c r="K270" s="1">
         <v>43905</v>
       </c>
@@ -26300,17 +26326,17 @@
       </c>
     </row>
     <row r="289" spans="11:22">
-      <c r="K289" s="41" t="s">
+      <c r="K289" s="40" t="s">
         <v>910</v>
       </c>
-      <c r="L289" s="41"/>
-      <c r="M289" s="41"/>
-      <c r="N289" s="41"/>
-      <c r="O289" s="41"/>
-      <c r="P289" s="41"/>
-      <c r="Q289" s="41"/>
-      <c r="R289" s="41"/>
-      <c r="S289" s="41"/>
+      <c r="L289" s="40"/>
+      <c r="M289" s="40"/>
+      <c r="N289" s="40"/>
+      <c r="O289" s="40"/>
+      <c r="P289" s="40"/>
+      <c r="Q289" s="40"/>
+      <c r="R289" s="40"/>
+      <c r="S289" s="40"/>
     </row>
     <row r="290" spans="11:22">
       <c r="K290" s="9" t="s">
@@ -26525,20 +26551,20 @@
       </c>
     </row>
     <row r="299" spans="11:22">
-      <c r="K299" s="40" t="s">
+      <c r="K299" s="42" t="s">
         <v>965</v>
       </c>
-      <c r="L299" s="40"/>
-      <c r="M299" s="40"/>
-      <c r="N299" s="40"/>
-      <c r="O299" s="40"/>
-      <c r="P299" s="40"/>
-      <c r="Q299" s="40"/>
-      <c r="R299" s="40"/>
-      <c r="S299" s="40"/>
-      <c r="T299" s="40"/>
-      <c r="U299" s="40"/>
-      <c r="V299" s="40"/>
+      <c r="L299" s="42"/>
+      <c r="M299" s="42"/>
+      <c r="N299" s="42"/>
+      <c r="O299" s="42"/>
+      <c r="P299" s="42"/>
+      <c r="Q299" s="42"/>
+      <c r="R299" s="42"/>
+      <c r="S299" s="42"/>
+      <c r="T299" s="42"/>
+      <c r="U299" s="42"/>
+      <c r="V299" s="42"/>
     </row>
     <row r="300" spans="11:22">
       <c r="K300" s="9" t="s">
@@ -26758,6 +26784,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="K299:V299"/>
+    <mergeCell ref="K289:S289"/>
+    <mergeCell ref="K265:S265"/>
+    <mergeCell ref="K60:V60"/>
+    <mergeCell ref="K252:V252"/>
+    <mergeCell ref="K214:S214"/>
+    <mergeCell ref="K241:V241"/>
     <mergeCell ref="K1:U1"/>
     <mergeCell ref="K32:S32"/>
     <mergeCell ref="K76:S76"/>
@@ -26771,13 +26804,6 @@
     <mergeCell ref="K102:S102"/>
     <mergeCell ref="K130:S130"/>
     <mergeCell ref="K153:V153"/>
-    <mergeCell ref="K299:V299"/>
-    <mergeCell ref="K289:S289"/>
-    <mergeCell ref="K265:S265"/>
-    <mergeCell ref="K60:V60"/>
-    <mergeCell ref="K252:V252"/>
-    <mergeCell ref="K214:S214"/>
-    <mergeCell ref="K241:V241"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="13">
@@ -26866,34 +26892,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
       <c r="AB1" s="43" t="s">
         <v>327</v>
       </c>
@@ -26902,22 +26928,22 @@
       <c r="AE1" s="43"/>
       <c r="AF1" s="43"/>
       <c r="AG1" s="43"/>
-      <c r="AI1" s="42" t="s">
+      <c r="AI1" s="41" t="s">
         <v>328</v>
       </c>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="42"/>
-      <c r="AL1" s="42"/>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="42"/>
-      <c r="AP1" s="42"/>
-      <c r="AQ1" s="42"/>
-      <c r="AR1" s="42"/>
-      <c r="AS1" s="42"/>
-      <c r="AT1" s="42"/>
-      <c r="AU1" s="42"/>
-      <c r="AV1" s="42"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="41"/>
     </row>
     <row r="2" spans="1:48">
       <c r="A2" t="s">

--- a/excel/ledger.xlsx
+++ b/excel/ledger.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gzhennaxia/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7710475-46D1-B847-BE63-C5A84F4AB4E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C054DE-1493-9945-A4FD-36201256A161}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="11760" windowWidth="20460" windowHeight="11280" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3363" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3388" uniqueCount="999">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3865,6 +3865,22 @@
   </si>
   <si>
     <t>放贷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香菇鲜肉+热干面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机话费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油泼棍棍面+凉皮+肉夹馍+。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒凉皮+煎饼卷土豆丝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4181,13 +4197,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -10519,9 +10535,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FEFEF66-0DFC-B343-AE55-FC43085C5197}" name="表1" displayName="表1" ref="A1:I274" totalsRowShown="0">
-  <autoFilter ref="A1:I274" xr:uid="{5BBC9419-B13B-B148-8ACF-0DE90D8ED5A0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I274">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FEFEF66-0DFC-B343-AE55-FC43085C5197}" name="表1" displayName="表1" ref="A1:I275" totalsRowShown="0">
+  <autoFilter ref="A1:I275" xr:uid="{5BBC9419-B13B-B148-8ACF-0DE90D8ED5A0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I275">
     <sortCondition ref="A2:A22"/>
     <sortCondition ref="B2:B22"/>
   </sortState>
@@ -11024,7 +11040,7 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{708C10D3-3099-AB43-BF6B-AAC0E5724B2D}" name="年"/>
     <tableColumn id="2" xr3:uid="{5D7EEFFC-1B1B-C442-8DD0-96BF0D9145E1}" name="总计">
-      <calculatedColumnFormula>SUM(records!E2:E274)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(records!E2:E275)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -11037,7 +11053,7 @@
   <tableColumns count="42">
     <tableColumn id="1" xr3:uid="{F034F842-B0D4-7C49-92AC-92126BFED303}" name="日期" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{E4A20DC4-BCAA-5A4C-8F92-7768890FB62A}" name="总计">
-      <calculatedColumnFormula>SUMIF(records!A2:A274, template!A2, records!E2:E274)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUMIF(records!A2:A275, template!A2, records!E2:E275)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{4634C45B-FA6E-3A4F-A29C-00438EE32653}" name="0:00"/>
     <tableColumn id="4" xr3:uid="{FAE9234B-318D-7D47-AF72-AE2A681B63D3}" name="1:00" dataDxfId="2"/>
@@ -11724,7 +11740,7 @@
   <dimension ref="A1:V306"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A251" zoomScale="88" workbookViewId="0">
-      <selection activeCell="H270" sqref="H270"/>
+      <selection activeCell="I272" sqref="I272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11768,19 +11784,19 @@
       <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="1">
@@ -13557,17 +13573,17 @@
       <c r="I32" t="s">
         <v>141</v>
       </c>
-      <c r="K32" s="40" t="s">
+      <c r="K32" s="41" t="s">
         <v>354</v>
       </c>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
       <c r="T32" s="29"/>
       <c r="U32" s="29"/>
     </row>
@@ -14086,17 +14102,17 @@
       <c r="I43" t="s">
         <v>197</v>
       </c>
-      <c r="K43" s="40" t="s">
+      <c r="K43" s="41" t="s">
         <v>354</v>
       </c>
-      <c r="L43" s="40"/>
-      <c r="M43" s="40"/>
-      <c r="N43" s="40"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="40"/>
-      <c r="S43" s="40"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="41"/>
+      <c r="S43" s="41"/>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="1">
@@ -14513,19 +14529,19 @@
       <c r="I52" t="s">
         <v>141</v>
       </c>
-      <c r="K52" s="42" t="s">
+      <c r="K52" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="L52" s="42"/>
-      <c r="M52" s="42"/>
-      <c r="N52" s="42"/>
-      <c r="O52" s="42"/>
-      <c r="P52" s="42"/>
-      <c r="Q52" s="42"/>
-      <c r="R52" s="42"/>
-      <c r="S52" s="42"/>
-      <c r="T52" s="42"/>
-      <c r="U52" s="42"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="40"/>
+      <c r="R52" s="40"/>
+      <c r="S52" s="40"/>
+      <c r="T52" s="40"/>
+      <c r="U52" s="40"/>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="1">
@@ -14956,20 +14972,20 @@
       <c r="I60" t="s">
         <v>231</v>
       </c>
-      <c r="K60" s="42" t="s">
+      <c r="K60" s="40" t="s">
         <v>666</v>
       </c>
-      <c r="L60" s="42"/>
-      <c r="M60" s="42"/>
-      <c r="N60" s="42"/>
-      <c r="O60" s="42"/>
-      <c r="P60" s="42"/>
-      <c r="Q60" s="42"/>
-      <c r="R60" s="42"/>
-      <c r="S60" s="42"/>
-      <c r="T60" s="42"/>
-      <c r="U60" s="42"/>
-      <c r="V60" s="42"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="40"/>
+      <c r="O60" s="40"/>
+      <c r="P60" s="40"/>
+      <c r="Q60" s="40"/>
+      <c r="R60" s="40"/>
+      <c r="S60" s="40"/>
+      <c r="T60" s="40"/>
+      <c r="U60" s="40"/>
+      <c r="V60" s="40"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="1">
@@ -15888,17 +15904,17 @@
       <c r="I76" t="s">
         <v>262</v>
       </c>
-      <c r="K76" s="40" t="s">
+      <c r="K76" s="41" t="s">
         <v>348</v>
       </c>
-      <c r="L76" s="40"/>
-      <c r="M76" s="40"/>
-      <c r="N76" s="40"/>
-      <c r="O76" s="40"/>
-      <c r="P76" s="40"/>
-      <c r="Q76" s="40"/>
-      <c r="R76" s="40"/>
-      <c r="S76" s="40"/>
+      <c r="L76" s="41"/>
+      <c r="M76" s="41"/>
+      <c r="N76" s="41"/>
+      <c r="O76" s="41"/>
+      <c r="P76" s="41"/>
+      <c r="Q76" s="41"/>
+      <c r="R76" s="41"/>
+      <c r="S76" s="41"/>
     </row>
     <row r="77" spans="1:22">
       <c r="A77" s="1">
@@ -16362,17 +16378,17 @@
       <c r="I86" t="s">
         <v>176</v>
       </c>
-      <c r="K86" s="40" t="s">
+      <c r="K86" s="41" t="s">
         <v>368</v>
       </c>
-      <c r="L86" s="40"/>
-      <c r="M86" s="40"/>
-      <c r="N86" s="40"/>
-      <c r="O86" s="40"/>
-      <c r="P86" s="40"/>
-      <c r="Q86" s="40"/>
-      <c r="R86" s="40"/>
-      <c r="S86" s="40"/>
+      <c r="L86" s="41"/>
+      <c r="M86" s="41"/>
+      <c r="N86" s="41"/>
+      <c r="O86" s="41"/>
+      <c r="P86" s="41"/>
+      <c r="Q86" s="41"/>
+      <c r="R86" s="41"/>
+      <c r="S86" s="41"/>
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="1">
@@ -16677,17 +16693,17 @@
       <c r="I93" t="s">
         <v>141</v>
       </c>
-      <c r="K93" s="40" t="s">
+      <c r="K93" s="41" t="s">
         <v>379</v>
       </c>
-      <c r="L93" s="40"/>
-      <c r="M93" s="40"/>
-      <c r="N93" s="40"/>
-      <c r="O93" s="40"/>
-      <c r="P93" s="40"/>
-      <c r="Q93" s="40"/>
-      <c r="R93" s="40"/>
-      <c r="S93" s="40"/>
+      <c r="L93" s="41"/>
+      <c r="M93" s="41"/>
+      <c r="N93" s="41"/>
+      <c r="O93" s="41"/>
+      <c r="P93" s="41"/>
+      <c r="Q93" s="41"/>
+      <c r="R93" s="41"/>
+      <c r="S93" s="41"/>
     </row>
     <row r="94" spans="1:19">
       <c r="A94" s="1">
@@ -17089,17 +17105,17 @@
       <c r="H102" t="s">
         <v>291</v>
       </c>
-      <c r="K102" s="40" t="s">
+      <c r="K102" s="41" t="s">
         <v>379</v>
       </c>
-      <c r="L102" s="40"/>
-      <c r="M102" s="40"/>
-      <c r="N102" s="40"/>
-      <c r="O102" s="40"/>
-      <c r="P102" s="40"/>
-      <c r="Q102" s="40"/>
-      <c r="R102" s="40"/>
-      <c r="S102" s="40"/>
+      <c r="L102" s="41"/>
+      <c r="M102" s="41"/>
+      <c r="N102" s="41"/>
+      <c r="O102" s="41"/>
+      <c r="P102" s="41"/>
+      <c r="Q102" s="41"/>
+      <c r="R102" s="41"/>
+      <c r="S102" s="41"/>
     </row>
     <row r="103" spans="1:19">
       <c r="A103" s="1">
@@ -17464,17 +17480,17 @@
       <c r="I111" t="s">
         <v>340</v>
       </c>
-      <c r="K111" s="41" t="s">
+      <c r="K111" s="42" t="s">
         <v>448</v>
       </c>
-      <c r="L111" s="41"/>
-      <c r="M111" s="41"/>
-      <c r="N111" s="41"/>
-      <c r="O111" s="41"/>
-      <c r="P111" s="41"/>
-      <c r="Q111" s="41"/>
-      <c r="R111" s="41"/>
-      <c r="S111" s="41"/>
+      <c r="L111" s="42"/>
+      <c r="M111" s="42"/>
+      <c r="N111" s="42"/>
+      <c r="O111" s="42"/>
+      <c r="P111" s="42"/>
+      <c r="Q111" s="42"/>
+      <c r="R111" s="42"/>
+      <c r="S111" s="42"/>
     </row>
     <row r="112" spans="1:19">
       <c r="A112" s="1">
@@ -18399,17 +18415,17 @@
       <c r="H130" t="s">
         <v>283</v>
       </c>
-      <c r="K130" s="40" t="s">
+      <c r="K130" s="41" t="s">
         <v>549</v>
       </c>
-      <c r="L130" s="40"/>
-      <c r="M130" s="40"/>
-      <c r="N130" s="40"/>
-      <c r="O130" s="40"/>
-      <c r="P130" s="40"/>
-      <c r="Q130" s="40"/>
-      <c r="R130" s="40"/>
-      <c r="S130" s="40"/>
+      <c r="L130" s="41"/>
+      <c r="M130" s="41"/>
+      <c r="N130" s="41"/>
+      <c r="O130" s="41"/>
+      <c r="P130" s="41"/>
+      <c r="Q130" s="41"/>
+      <c r="R130" s="41"/>
+      <c r="S130" s="41"/>
     </row>
     <row r="131" spans="1:19">
       <c r="A131" s="1">
@@ -19586,20 +19602,20 @@
       <c r="I153" t="s">
         <v>415</v>
       </c>
-      <c r="K153" s="42" t="s">
+      <c r="K153" s="40" t="s">
         <v>597</v>
       </c>
-      <c r="L153" s="42"/>
-      <c r="M153" s="42"/>
-      <c r="N153" s="42"/>
-      <c r="O153" s="42"/>
-      <c r="P153" s="42"/>
-      <c r="Q153" s="42"/>
-      <c r="R153" s="42"/>
-      <c r="S153" s="42"/>
-      <c r="T153" s="42"/>
-      <c r="U153" s="42"/>
-      <c r="V153" s="42"/>
+      <c r="L153" s="40"/>
+      <c r="M153" s="40"/>
+      <c r="N153" s="40"/>
+      <c r="O153" s="40"/>
+      <c r="P153" s="40"/>
+      <c r="Q153" s="40"/>
+      <c r="R153" s="40"/>
+      <c r="S153" s="40"/>
+      <c r="T153" s="40"/>
+      <c r="U153" s="40"/>
+      <c r="V153" s="40"/>
     </row>
     <row r="154" spans="1:22">
       <c r="A154" s="1">
@@ -21217,17 +21233,17 @@
       <c r="I181" t="s">
         <v>703</v>
       </c>
-      <c r="K181" s="40" t="s">
+      <c r="K181" s="41" t="s">
         <v>531</v>
       </c>
-      <c r="L181" s="40"/>
-      <c r="M181" s="40"/>
-      <c r="N181" s="40"/>
-      <c r="O181" s="40"/>
-      <c r="P181" s="40"/>
-      <c r="Q181" s="40"/>
-      <c r="R181" s="40"/>
-      <c r="S181" s="40"/>
+      <c r="L181" s="41"/>
+      <c r="M181" s="41"/>
+      <c r="N181" s="41"/>
+      <c r="O181" s="41"/>
+      <c r="P181" s="41"/>
+      <c r="Q181" s="41"/>
+      <c r="R181" s="41"/>
+      <c r="S181" s="41"/>
     </row>
     <row r="182" spans="1:22">
       <c r="A182" s="1">
@@ -22527,17 +22543,17 @@
       <c r="H206" t="s">
         <v>216</v>
       </c>
-      <c r="K206" s="40" t="s">
+      <c r="K206" s="41" t="s">
         <v>533</v>
       </c>
-      <c r="L206" s="40"/>
-      <c r="M206" s="40"/>
-      <c r="N206" s="40"/>
-      <c r="O206" s="40"/>
-      <c r="P206" s="40"/>
-      <c r="Q206" s="40"/>
-      <c r="R206" s="40"/>
-      <c r="S206" s="40"/>
+      <c r="L206" s="41"/>
+      <c r="M206" s="41"/>
+      <c r="N206" s="41"/>
+      <c r="O206" s="41"/>
+      <c r="P206" s="41"/>
+      <c r="Q206" s="41"/>
+      <c r="R206" s="41"/>
+      <c r="S206" s="41"/>
     </row>
     <row r="207" spans="1:19">
       <c r="A207" s="1">
@@ -22888,17 +22904,17 @@
       <c r="H214" t="s">
         <v>25</v>
       </c>
-      <c r="K214" s="40" t="s">
+      <c r="K214" s="41" t="s">
         <v>707</v>
       </c>
-      <c r="L214" s="40"/>
-      <c r="M214" s="40"/>
-      <c r="N214" s="40"/>
-      <c r="O214" s="40"/>
-      <c r="P214" s="40"/>
-      <c r="Q214" s="40"/>
-      <c r="R214" s="40"/>
-      <c r="S214" s="40"/>
+      <c r="L214" s="41"/>
+      <c r="M214" s="41"/>
+      <c r="N214" s="41"/>
+      <c r="O214" s="41"/>
+      <c r="P214" s="41"/>
+      <c r="Q214" s="41"/>
+      <c r="R214" s="41"/>
+      <c r="S214" s="41"/>
     </row>
     <row r="215" spans="1:19">
       <c r="A215" s="1">
@@ -24262,20 +24278,20 @@
       <c r="H241" t="s">
         <v>251</v>
       </c>
-      <c r="K241" s="42" t="s">
+      <c r="K241" s="40" t="s">
         <v>767</v>
       </c>
-      <c r="L241" s="42"/>
-      <c r="M241" s="42"/>
-      <c r="N241" s="42"/>
-      <c r="O241" s="42"/>
-      <c r="P241" s="42"/>
-      <c r="Q241" s="42"/>
-      <c r="R241" s="42"/>
-      <c r="S241" s="42"/>
-      <c r="T241" s="42"/>
-      <c r="U241" s="42"/>
-      <c r="V241" s="42"/>
+      <c r="L241" s="40"/>
+      <c r="M241" s="40"/>
+      <c r="N241" s="40"/>
+      <c r="O241" s="40"/>
+      <c r="P241" s="40"/>
+      <c r="Q241" s="40"/>
+      <c r="R241" s="40"/>
+      <c r="S241" s="40"/>
+      <c r="T241" s="40"/>
+      <c r="U241" s="40"/>
+      <c r="V241" s="40"/>
     </row>
     <row r="242" spans="1:22">
       <c r="A242" s="1">
@@ -24857,20 +24873,20 @@
       <c r="H252" t="s">
         <v>392</v>
       </c>
-      <c r="K252" s="42" t="s">
+      <c r="K252" s="40" t="s">
         <v>802</v>
       </c>
-      <c r="L252" s="42"/>
-      <c r="M252" s="42"/>
-      <c r="N252" s="42"/>
-      <c r="O252" s="42"/>
-      <c r="P252" s="42"/>
-      <c r="Q252" s="42"/>
-      <c r="R252" s="42"/>
-      <c r="S252" s="42"/>
-      <c r="T252" s="42"/>
-      <c r="U252" s="42"/>
-      <c r="V252" s="42"/>
+      <c r="L252" s="40"/>
+      <c r="M252" s="40"/>
+      <c r="N252" s="40"/>
+      <c r="O252" s="40"/>
+      <c r="P252" s="40"/>
+      <c r="Q252" s="40"/>
+      <c r="R252" s="40"/>
+      <c r="S252" s="40"/>
+      <c r="T252" s="40"/>
+      <c r="U252" s="40"/>
+      <c r="V252" s="40"/>
     </row>
     <row r="253" spans="1:22">
       <c r="A253" s="1">
@@ -25564,17 +25580,17 @@
       <c r="H265" t="s">
         <v>36</v>
       </c>
-      <c r="K265" s="40" t="s">
+      <c r="K265" s="41" t="s">
         <v>839</v>
       </c>
-      <c r="L265" s="40"/>
-      <c r="M265" s="40"/>
-      <c r="N265" s="40"/>
-      <c r="O265" s="40"/>
-      <c r="P265" s="40"/>
-      <c r="Q265" s="40"/>
-      <c r="R265" s="40"/>
-      <c r="S265" s="40"/>
+      <c r="L265" s="41"/>
+      <c r="M265" s="41"/>
+      <c r="N265" s="41"/>
+      <c r="O265" s="41"/>
+      <c r="P265" s="41"/>
+      <c r="Q265" s="41"/>
+      <c r="R265" s="41"/>
+      <c r="S265" s="41"/>
     </row>
     <row r="266" spans="1:22">
       <c r="A266" s="1">
@@ -25845,8 +25861,30 @@
       </c>
     </row>
     <row r="271" spans="1:22">
-      <c r="A271" s="1"/>
-      <c r="B271" s="2"/>
+      <c r="A271" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B271" s="2">
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="C271" t="s">
+        <v>936</v>
+      </c>
+      <c r="D271" t="s">
+        <v>998</v>
+      </c>
+      <c r="E271">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F271" t="s">
+        <v>23</v>
+      </c>
+      <c r="G271" t="s">
+        <v>24</v>
+      </c>
+      <c r="H271" t="s">
+        <v>938</v>
+      </c>
       <c r="K271" s="1">
         <v>43905</v>
       </c>
@@ -25876,8 +25914,30 @@
       </c>
     </row>
     <row r="272" spans="1:22">
-      <c r="A272" s="1"/>
-      <c r="B272" s="2"/>
+      <c r="A272" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B272" s="2">
+        <v>0.78055555555555556</v>
+      </c>
+      <c r="C272" t="s">
+        <v>945</v>
+      </c>
+      <c r="D272" t="s">
+        <v>948</v>
+      </c>
+      <c r="E272">
+        <v>12</v>
+      </c>
+      <c r="F272" t="s">
+        <v>23</v>
+      </c>
+      <c r="G272" t="s">
+        <v>24</v>
+      </c>
+      <c r="H272" t="s">
+        <v>938</v>
+      </c>
       <c r="K272" s="1">
         <v>43905</v>
       </c>
@@ -25907,8 +25967,30 @@
       </c>
     </row>
     <row r="273" spans="1:19">
-      <c r="A273" s="1"/>
-      <c r="B273" s="2"/>
+      <c r="A273" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B273" s="2">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="C273" t="s">
+        <v>936</v>
+      </c>
+      <c r="D273" t="s">
+        <v>997</v>
+      </c>
+      <c r="E273">
+        <v>48.8</v>
+      </c>
+      <c r="F273" t="s">
+        <v>20</v>
+      </c>
+      <c r="G273" t="s">
+        <v>24</v>
+      </c>
+      <c r="H273" t="s">
+        <v>251</v>
+      </c>
       <c r="K273" s="1">
         <v>43905</v>
       </c>
@@ -25938,8 +26020,30 @@
       </c>
     </row>
     <row r="274" spans="1:19">
-      <c r="A274" s="1"/>
-      <c r="B274" s="2"/>
+      <c r="A274" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B274" s="2">
+        <v>0.38472222222222219</v>
+      </c>
+      <c r="C274" t="s">
+        <v>26</v>
+      </c>
+      <c r="D274" t="s">
+        <v>996</v>
+      </c>
+      <c r="E274">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="F274" t="s">
+        <v>23</v>
+      </c>
+      <c r="G274" t="s">
+        <v>24</v>
+      </c>
+      <c r="H274" t="s">
+        <v>432</v>
+      </c>
       <c r="K274" s="1">
         <v>43905</v>
       </c>
@@ -25969,6 +26073,30 @@
       </c>
     </row>
     <row r="275" spans="1:19">
+      <c r="A275" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B275" s="2">
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="C275" t="s">
+        <v>936</v>
+      </c>
+      <c r="D275" t="s">
+        <v>995</v>
+      </c>
+      <c r="E275">
+        <v>14.9</v>
+      </c>
+      <c r="F275" t="s">
+        <v>20</v>
+      </c>
+      <c r="G275" t="s">
+        <v>24</v>
+      </c>
+      <c r="H275" t="s">
+        <v>251</v>
+      </c>
       <c r="K275" s="1">
         <v>43905</v>
       </c>
@@ -26326,17 +26454,17 @@
       </c>
     </row>
     <row r="289" spans="11:22">
-      <c r="K289" s="40" t="s">
+      <c r="K289" s="41" t="s">
         <v>910</v>
       </c>
-      <c r="L289" s="40"/>
-      <c r="M289" s="40"/>
-      <c r="N289" s="40"/>
-      <c r="O289" s="40"/>
-      <c r="P289" s="40"/>
-      <c r="Q289" s="40"/>
-      <c r="R289" s="40"/>
-      <c r="S289" s="40"/>
+      <c r="L289" s="41"/>
+      <c r="M289" s="41"/>
+      <c r="N289" s="41"/>
+      <c r="O289" s="41"/>
+      <c r="P289" s="41"/>
+      <c r="Q289" s="41"/>
+      <c r="R289" s="41"/>
+      <c r="S289" s="41"/>
     </row>
     <row r="290" spans="11:22">
       <c r="K290" s="9" t="s">
@@ -26551,20 +26679,20 @@
       </c>
     </row>
     <row r="299" spans="11:22">
-      <c r="K299" s="42" t="s">
+      <c r="K299" s="40" t="s">
         <v>965</v>
       </c>
-      <c r="L299" s="42"/>
-      <c r="M299" s="42"/>
-      <c r="N299" s="42"/>
-      <c r="O299" s="42"/>
-      <c r="P299" s="42"/>
-      <c r="Q299" s="42"/>
-      <c r="R299" s="42"/>
-      <c r="S299" s="42"/>
-      <c r="T299" s="42"/>
-      <c r="U299" s="42"/>
-      <c r="V299" s="42"/>
+      <c r="L299" s="40"/>
+      <c r="M299" s="40"/>
+      <c r="N299" s="40"/>
+      <c r="O299" s="40"/>
+      <c r="P299" s="40"/>
+      <c r="Q299" s="40"/>
+      <c r="R299" s="40"/>
+      <c r="S299" s="40"/>
+      <c r="T299" s="40"/>
+      <c r="U299" s="40"/>
+      <c r="V299" s="40"/>
     </row>
     <row r="300" spans="11:22">
       <c r="K300" s="9" t="s">
@@ -26784,13 +26912,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="K299:V299"/>
-    <mergeCell ref="K289:S289"/>
-    <mergeCell ref="K265:S265"/>
-    <mergeCell ref="K60:V60"/>
-    <mergeCell ref="K252:V252"/>
-    <mergeCell ref="K214:S214"/>
-    <mergeCell ref="K241:V241"/>
     <mergeCell ref="K1:U1"/>
     <mergeCell ref="K32:S32"/>
     <mergeCell ref="K76:S76"/>
@@ -26804,6 +26925,13 @@
     <mergeCell ref="K102:S102"/>
     <mergeCell ref="K130:S130"/>
     <mergeCell ref="K153:V153"/>
+    <mergeCell ref="K299:V299"/>
+    <mergeCell ref="K289:S289"/>
+    <mergeCell ref="K265:S265"/>
+    <mergeCell ref="K60:V60"/>
+    <mergeCell ref="K252:V252"/>
+    <mergeCell ref="K214:S214"/>
+    <mergeCell ref="K241:V241"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="13">
@@ -26892,34 +27020,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
       <c r="AB1" s="43" t="s">
         <v>327</v>
       </c>
@@ -26928,22 +27056,22 @@
       <c r="AE1" s="43"/>
       <c r="AF1" s="43"/>
       <c r="AG1" s="43"/>
-      <c r="AI1" s="41" t="s">
+      <c r="AI1" s="42" t="s">
         <v>328</v>
       </c>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="41"/>
-      <c r="AV1" s="41"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="42"/>
+      <c r="AP1" s="42"/>
+      <c r="AQ1" s="42"/>
+      <c r="AR1" s="42"/>
+      <c r="AS1" s="42"/>
+      <c r="AT1" s="42"/>
+      <c r="AU1" s="42"/>
+      <c r="AV1" s="42"/>
     </row>
     <row r="2" spans="1:48">
       <c r="A2" t="s">
@@ -30325,163 +30453,163 @@
         <v>24</v>
       </c>
       <c r="C2">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!C1,records!B2:B274, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!C1,records!B2:B275, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!D1,records!B2:B274, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!D1,records!B2:B275, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E2">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!E1,records!B2:B274, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!E1,records!B2:B275, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F2">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!F1,records!B2:B274, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!F1,records!B2:B275, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!G1,records!B2:B274, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!G1,records!B2:B275, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H2">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!H1,records!B2:B274, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!H1,records!B2:B275, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I2">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!I1,records!B2:B274, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!I1,records!B2:B275, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J2">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!J1,records!B2:B274, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!J1,records!B2:B275, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K2">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!K1,records!B2:B274, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!K1,records!B2:B275, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L2">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!L1,records!B2:B274, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!L1,records!B2:B275, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M2">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!M1,records!B2:B274, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!M1,records!B2:B275, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N2">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!N1,records!B2:B274, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!N1,records!B2:B275, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O2">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!O1,records!B2:B274, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!O1,records!B2:B275, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P2">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!P1,records!B2:B274, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!P1,records!B2:B275, "&lt;" &amp; template!Q1)</f>
         <v>24</v>
       </c>
       <c r="Q2">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!Q1,records!B2:B274, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!Q1,records!B2:B275, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R2">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!R1,records!B2:B274, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!R1,records!B2:B275, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S2">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!S1,records!B2:B274, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!S1,records!B2:B275, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T2">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!T1,records!B2:B274, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!T1,records!B2:B275, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U2">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!U1,records!B2:B274, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!U1,records!B2:B275, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V2">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!V1,records!B2:B274, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!V1,records!B2:B275, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W2">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!W1,records!B2:B274, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!W1,records!B2:B275, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X2">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!X1,records!B2:B274, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!X1,records!B2:B275, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y2">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!Y1,records!B2:B274, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!Y1,records!B2:B275, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z2">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2, records!B2:B274, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA2">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2,records!G2:G274,template!AA1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2,records!G2:G275,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB2">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2,records!G2:G274,template!AB1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2,records!G2:G275,template!AB1)</f>
         <v>24</v>
       </c>
       <c r="AC2">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2,records!G2:G274,template!AC1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2,records!G2:G275,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD2">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2,records!G2:G274,template!AD1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2,records!G2:G275,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE2">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2,records!C2:C274,template!AE1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2,records!C2:C275,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF2">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2,records!C2:C274,template!AF1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2,records!C2:C275,template!AF1)</f>
         <v>24</v>
       </c>
       <c r="AG2">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2,records!C2:C274,template!AG1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2,records!C2:C275,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH2">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2,records!C2:C274,template!AH1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2,records!C2:C275,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI2">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2,records!C2:C274,template!AI1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2,records!C2:C275,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ2">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2,records!C2:C274,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2,records!C2:C275,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK2">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2,records!C2:C274,template!AK1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2,records!C2:C275,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL2">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2,records!C2:C274,template!AL1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2,records!C2:C275,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM2">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2,records!C2:C274,template!AM1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2,records!C2:C275,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN2">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2,records!C2:C274,template!AN1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2,records!C2:C275,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO2">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2,records!C2:C274,template!AO1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2,records!C2:C275,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP2">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A2,records!C2:C274,template!AP1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2,records!C2:C275,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -30494,163 +30622,163 @@
         <v>22</v>
       </c>
       <c r="C3">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!C1,records!B2:B274, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!C1,records!B2:B275, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D3" s="14">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!D1,records!B2:B274, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!D1,records!B2:B275, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!E1,records!B2:B274, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!E1,records!B2:B275, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F3">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!F1,records!B2:B274, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!F1,records!B2:B275, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G3">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!G1,records!B2:B274, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!G1,records!B2:B275, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H3">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!H1,records!B2:B274, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!H1,records!B2:B275, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I3">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!I1,records!B2:B274, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!I1,records!B2:B275, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J3">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!J1,records!B2:B274, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!J1,records!B2:B275, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!K1,records!B2:B274, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!K1,records!B2:B275, "&lt;" &amp; template!L1)</f>
         <v>3</v>
       </c>
       <c r="L3">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!L1,records!B2:B274, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!L1,records!B2:B275, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M3">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!M1,records!B2:B274, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!M1,records!B2:B275, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N3">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!N1,records!B2:B274, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!N1,records!B2:B275, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O3">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!O1,records!B2:B274, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!O1,records!B2:B275, "&lt;" &amp; template!P1)</f>
         <v>16</v>
       </c>
       <c r="P3">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!P1,records!B2:B274, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!P1,records!B2:B275, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!Q1,records!B2:B274, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!Q1,records!B2:B275, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R3">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!R1,records!B2:B274, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!R1,records!B2:B275, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S3">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!S1,records!B2:B274, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!S1,records!B2:B275, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T3">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!T1,records!B2:B274, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!T1,records!B2:B275, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U3">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!U1,records!B2:B274, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!U1,records!B2:B275, "&lt;" &amp; template!V1)</f>
         <v>3</v>
       </c>
       <c r="V3">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!V1,records!B2:B274, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!V1,records!B2:B275, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W3">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!W1,records!B2:B274, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!W1,records!B2:B275, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X3">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!X1,records!B2:B274, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!X1,records!B2:B275, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y3">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!Y1,records!B2:B274, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!Y1,records!B2:B275, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z3">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3, records!B2:B274, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA3">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3,records!G2:G274,template!AA1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3,records!G2:G275,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB3">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3,records!G2:G274,template!AB1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3,records!G2:G275,template!AB1)</f>
         <v>22</v>
       </c>
       <c r="AC3">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3,records!G2:G274,template!AC1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3,records!G2:G275,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD3">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3,records!G2:G274,template!AD1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3,records!G2:G275,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE3">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3,records!C2:C274,template!AE1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3,records!C2:C275,template!AE1)</f>
         <v>6</v>
       </c>
       <c r="AF3">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3,records!C2:C274,template!AF1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3,records!C2:C275,template!AF1)</f>
         <v>16</v>
       </c>
       <c r="AG3">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3,records!C2:C274,template!AG1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3,records!C2:C275,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH3">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3,records!C2:C274,template!AH1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3,records!C2:C275,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI3">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3,records!C2:C274,template!AI1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3,records!C2:C275,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ3">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3,records!C2:C274,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3,records!C2:C275,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK3">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3,records!C2:C274,template!AK1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3,records!C2:C275,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL3">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3,records!C2:C274,template!AL1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3,records!C2:C275,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM3">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3,records!C2:C274,template!AM1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3,records!C2:C275,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN3">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3,records!C2:C274,template!AN1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3,records!C2:C275,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO3">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3,records!C2:C274,template!AO1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3,records!C2:C275,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP3">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A3,records!C2:C274,template!AP1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3,records!C2:C275,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -30663,163 +30791,163 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!C1,records!B2:B274, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!C1,records!B2:B275, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D4" s="14">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!D1,records!B2:B274, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!D1,records!B2:B275, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!E1,records!B2:B274, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!E1,records!B2:B275, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!F1,records!B2:B274, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!F1,records!B2:B275, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G4">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!G1,records!B2:B274, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!G1,records!B2:B275, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!H1,records!B2:B274, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!H1,records!B2:B275, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!I1,records!B2:B274, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!I1,records!B2:B275, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!J1,records!B2:B274, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!J1,records!B2:B275, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!K1,records!B2:B274, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!K1,records!B2:B275, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L4">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!L1,records!B2:B274, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!L1,records!B2:B275, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M4">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!M1,records!B2:B274, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!M1,records!B2:B275, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!N1,records!B2:B274, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!N1,records!B2:B275, "&lt;" &amp; template!O1)</f>
         <v>16</v>
       </c>
       <c r="O4">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!O1,records!B2:B274, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!O1,records!B2:B275, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P4">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!P1,records!B2:B274, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!P1,records!B2:B275, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!Q1,records!B2:B274, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!Q1,records!B2:B275, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R4">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!R1,records!B2:B274, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!R1,records!B2:B275, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S4">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!S1,records!B2:B274, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!S1,records!B2:B275, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T4">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!T1,records!B2:B274, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!T1,records!B2:B275, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U4">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!U1,records!B2:B274, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!U1,records!B2:B275, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V4">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!V1,records!B2:B274, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!V1,records!B2:B275, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W4">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!W1,records!B2:B274, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!W1,records!B2:B275, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X4">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!X1,records!B2:B274, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!X1,records!B2:B275, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y4">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!Y1,records!B2:B274, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!Y1,records!B2:B275, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z4">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4, records!B2:B274, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA4">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4,records!G2:G274,template!AA1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4,records!G2:G275,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB4">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4,records!G2:G274,template!AB1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4,records!G2:G275,template!AB1)</f>
         <v>16</v>
       </c>
       <c r="AC4">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4,records!G2:G274,template!AC1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4,records!G2:G275,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD4">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4,records!G2:G274,template!AD1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4,records!G2:G275,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE4">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4,records!C2:C274,template!AE1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4,records!C2:C275,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF4">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4,records!C2:C274,template!AF1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4,records!C2:C275,template!AF1)</f>
         <v>16</v>
       </c>
       <c r="AG4">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4,records!C2:C274,template!AG1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4,records!C2:C275,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH4">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4,records!C2:C274,template!AH1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4,records!C2:C275,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI4">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4,records!C2:C274,template!AI1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4,records!C2:C275,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ4">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4,records!C2:C274,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4,records!C2:C275,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK4">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4,records!C2:C274,template!AK1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4,records!C2:C275,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL4">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4,records!C2:C274,template!AL1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4,records!C2:C275,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM4">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4,records!C2:C274,template!AM1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4,records!C2:C275,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN4">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4,records!C2:C274,template!AN1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4,records!C2:C275,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO4">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4,records!C2:C274,template!AO1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4,records!C2:C275,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP4">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A4,records!C2:C274,template!AP1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4,records!C2:C275,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -30832,163 +30960,163 @@
         <v>69</v>
       </c>
       <c r="C5">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!C1,records!B2:B274, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!C1,records!B2:B275, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D5" s="14">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!D1,records!B2:B274, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!D1,records!B2:B275, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E5">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!E1,records!B2:B274, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!E1,records!B2:B275, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F5">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!F1,records!B2:B274, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!F1,records!B2:B275, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G5">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!G1,records!B2:B274, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!G1,records!B2:B275, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H5">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!H1,records!B2:B274, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!H1,records!B2:B275, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I5">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!I1,records!B2:B274, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!I1,records!B2:B275, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J5">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!J1,records!B2:B274, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!J1,records!B2:B275, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K5">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!K1,records!B2:B274, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!K1,records!B2:B275, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L5">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!L1,records!B2:B274, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!L1,records!B2:B275, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M5">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!M1,records!B2:B274, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!M1,records!B2:B275, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N5">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!N1,records!B2:B274, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!N1,records!B2:B275, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O5">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!O1,records!B2:B274, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!O1,records!B2:B275, "&lt;" &amp; template!P1)</f>
         <v>34</v>
       </c>
       <c r="P5">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!P1,records!B2:B274, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!P1,records!B2:B275, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q5">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!Q1,records!B2:B274, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!Q1,records!B2:B275, "&lt;" &amp; template!R1)</f>
         <v>3</v>
       </c>
       <c r="R5">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!R1,records!B2:B274, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!R1,records!B2:B275, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S5">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!S1,records!B2:B274, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!S1,records!B2:B275, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T5">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!T1,records!B2:B274, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!T1,records!B2:B275, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U5">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!U1,records!B2:B274, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!U1,records!B2:B275, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V5">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!V1,records!B2:B274, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!V1,records!B2:B275, "&lt;" &amp; template!W1)</f>
         <v>32</v>
       </c>
       <c r="W5">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!W1,records!B2:B274, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!W1,records!B2:B275, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X5">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!X1,records!B2:B274, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!X1,records!B2:B275, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y5">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!Y1,records!B2:B274, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!Y1,records!B2:B275, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z5">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5, records!B2:B274, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA5">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5,records!G2:G274,template!AA1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5,records!G2:G275,template!AA1)</f>
         <v>66</v>
       </c>
       <c r="AB5">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5,records!G2:G274,template!AB1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5,records!G2:G275,template!AB1)</f>
         <v>3</v>
       </c>
       <c r="AC5">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5,records!G2:G274,template!AC1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5,records!G2:G275,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD5">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5,records!G2:G274,template!AD1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5,records!G2:G275,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE5">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5,records!C2:C274,template!AE1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5,records!C2:C275,template!AE1)</f>
         <v>32</v>
       </c>
       <c r="AF5">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5,records!C2:C274,template!AF1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5,records!C2:C275,template!AF1)</f>
         <v>34</v>
       </c>
       <c r="AG5">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5,records!C2:C274,template!AG1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5,records!C2:C275,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH5">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5,records!C2:C274,template!AH1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5,records!C2:C275,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI5">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5,records!C2:C274,template!AI1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5,records!C2:C275,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ5">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5,records!C2:C274,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5,records!C2:C275,template!AJ1)</f>
         <v>3</v>
       </c>
       <c r="AK5">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5,records!C2:C274,template!AK1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5,records!C2:C275,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL5">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5,records!C2:C274,template!AL1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5,records!C2:C275,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM5">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5,records!C2:C274,template!AM1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5,records!C2:C275,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN5">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5,records!C2:C274,template!AN1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5,records!C2:C275,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO5">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5,records!C2:C274,template!AO1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5,records!C2:C275,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP5">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A5,records!C2:C274,template!AP1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5,records!C2:C275,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -31001,163 +31129,163 @@
         <v>17</v>
       </c>
       <c r="C6">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!C1,records!B2:B274, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!C1,records!B2:B275, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D6" s="14">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!D1,records!B2:B274, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!D1,records!B2:B275, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E6">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!E1,records!B2:B274, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!E1,records!B2:B275, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F6">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!F1,records!B2:B274, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!F1,records!B2:B275, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!G1,records!B2:B274, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!G1,records!B2:B275, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H6">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!H1,records!B2:B274, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!H1,records!B2:B275, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I6">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!I1,records!B2:B274, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!I1,records!B2:B275, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J6">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!J1,records!B2:B274, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!J1,records!B2:B275, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K6">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!K1,records!B2:B274, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!K1,records!B2:B275, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L6">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!L1,records!B2:B274, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!L1,records!B2:B275, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M6">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!M1,records!B2:B274, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!M1,records!B2:B275, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N6">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!N1,records!B2:B274, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!N1,records!B2:B275, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O6">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!O1,records!B2:B274, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!O1,records!B2:B275, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P6">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!P1,records!B2:B274, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!P1,records!B2:B275, "&lt;" &amp; template!Q1)</f>
         <v>17</v>
       </c>
       <c r="Q6">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!Q1,records!B2:B274, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!Q1,records!B2:B275, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R6">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!R1,records!B2:B274, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!R1,records!B2:B275, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S6">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!S1,records!B2:B274, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!S1,records!B2:B275, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T6">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!T1,records!B2:B274, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!T1,records!B2:B275, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U6">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!U1,records!B2:B274, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!U1,records!B2:B275, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V6">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!V1,records!B2:B274, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!V1,records!B2:B275, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W6">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!W1,records!B2:B274, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!W1,records!B2:B275, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X6">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!X1,records!B2:B274, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!X1,records!B2:B275, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y6">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!Y1,records!B2:B274, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!Y1,records!B2:B275, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z6">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6, records!B2:B274, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA6">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6,records!G2:G274,template!AA1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6,records!G2:G275,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB6">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6,records!G2:G274,template!AB1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6,records!G2:G275,template!AB1)</f>
         <v>17</v>
       </c>
       <c r="AC6">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6,records!G2:G274,template!AC1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6,records!G2:G275,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD6">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6,records!G2:G274,template!AD1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6,records!G2:G275,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE6">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6,records!C2:C274,template!AE1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6,records!C2:C275,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF6">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6,records!C2:C274,template!AF1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6,records!C2:C275,template!AF1)</f>
         <v>17</v>
       </c>
       <c r="AG6">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6,records!C2:C274,template!AG1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6,records!C2:C275,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH6">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6,records!C2:C274,template!AH1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6,records!C2:C275,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI6">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6,records!C2:C274,template!AI1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6,records!C2:C275,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ6">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6,records!C2:C274,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6,records!C2:C275,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK6">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6,records!C2:C274,template!AK1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6,records!C2:C275,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL6">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6,records!C2:C274,template!AL1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6,records!C2:C275,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM6">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6,records!C2:C274,template!AM1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6,records!C2:C275,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN6">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6,records!C2:C274,template!AN1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6,records!C2:C275,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO6">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6,records!C2:C274,template!AO1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6,records!C2:C275,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP6">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A6,records!C2:C274,template!AP1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6,records!C2:C275,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -31170,163 +31298,163 @@
         <v>146.69999999999999</v>
       </c>
       <c r="C7">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!C1,records!B2:B274, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!C1,records!B2:B275, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D7" s="14">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!D1,records!B2:B274, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!D1,records!B2:B275, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!E1,records!B2:B274, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!E1,records!B2:B275, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F7">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!F1,records!B2:B274, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!F1,records!B2:B275, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!G1,records!B2:B274, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!G1,records!B2:B275, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H7">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!H1,records!B2:B274, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!H1,records!B2:B275, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!I1,records!B2:B274, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!I1,records!B2:B275, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!J1,records!B2:B274, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!J1,records!B2:B275, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K7">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!K1,records!B2:B274, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!K1,records!B2:B275, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L7">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!L1,records!B2:B274, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!L1,records!B2:B275, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M7">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!M1,records!B2:B274, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!M1,records!B2:B275, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N7">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!N1,records!B2:B274, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!N1,records!B2:B275, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O7">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!O1,records!B2:B274, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!O1,records!B2:B275, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P7">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!P1,records!B2:B274, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!P1,records!B2:B275, "&lt;" &amp; template!Q1)</f>
         <v>16</v>
       </c>
       <c r="Q7">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!Q1,records!B2:B274, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!Q1,records!B2:B275, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R7">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!R1,records!B2:B274, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!R1,records!B2:B275, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S7">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!S1,records!B2:B274, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!S1,records!B2:B275, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T7">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!T1,records!B2:B274, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!T1,records!B2:B275, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U7">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!U1,records!B2:B274, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!U1,records!B2:B275, "&lt;" &amp; template!V1)</f>
         <v>32</v>
       </c>
       <c r="V7">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!V1,records!B2:B274, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!V1,records!B2:B275, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W7">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!W1,records!B2:B274, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!W1,records!B2:B275, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X7">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!X1,records!B2:B274, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!X1,records!B2:B275, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y7">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!Y1,records!B2:B274, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!Y1,records!B2:B275, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z7">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7, records!B2:B274, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!Z1)</f>
         <v>98.7</v>
       </c>
       <c r="AA7">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7,records!G2:G274,template!AA1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7,records!G2:G275,template!AA1)</f>
         <v>37</v>
       </c>
       <c r="AB7">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7,records!G2:G274,template!AB1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7,records!G2:G275,template!AB1)</f>
         <v>0</v>
       </c>
       <c r="AC7">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7,records!G2:G274,template!AC1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7,records!G2:G275,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD7">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7,records!G2:G274,template!AD1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7,records!G2:G275,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE7">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7,records!C2:C274,template!AE1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7,records!C2:C275,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF7">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7,records!C2:C274,template!AF1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7,records!C2:C275,template!AF1)</f>
         <v>16</v>
       </c>
       <c r="AG7">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7,records!C2:C274,template!AG1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7,records!C2:C275,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH7">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7,records!C2:C274,template!AH1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7,records!C2:C275,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI7">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7,records!C2:C274,template!AI1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7,records!C2:C275,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ7">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7,records!C2:C274,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7,records!C2:C275,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK7">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7,records!C2:C274,template!AK1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7,records!C2:C275,template!AK1)</f>
         <v>11</v>
       </c>
       <c r="AL7">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7,records!C2:C274,template!AL1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7,records!C2:C275,template!AL1)</f>
         <v>21</v>
       </c>
       <c r="AM7">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7,records!C2:C274,template!AM1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7,records!C2:C275,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN7">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7,records!C2:C274,template!AN1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7,records!C2:C275,template!AN1)</f>
         <v>98.7</v>
       </c>
       <c r="AO7">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7,records!C2:C274,template!AO1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7,records!C2:C275,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP7">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A7,records!C2:C274,template!AP1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7,records!C2:C275,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -31339,163 +31467,163 @@
         <v>2017.98</v>
       </c>
       <c r="C8">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!C1,records!B2:B274, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!C1,records!B2:B275, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D8" s="14">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!D1,records!B2:B274, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!D1,records!B2:B275, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E8">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!E1,records!B2:B274, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!E1,records!B2:B275, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!F1,records!B2:B274, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!F1,records!B2:B275, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!G1,records!B2:B274, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!G1,records!B2:B275, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!H1,records!B2:B274, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!H1,records!B2:B275, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!I1,records!B2:B274, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!I1,records!B2:B275, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!J1,records!B2:B274, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!J1,records!B2:B275, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K8">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!K1,records!B2:B274, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!K1,records!B2:B275, "&lt;" &amp; template!L1)</f>
         <v>2000</v>
       </c>
       <c r="L8">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!L1,records!B2:B274, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!L1,records!B2:B275, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M8">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!M1,records!B2:B274, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!M1,records!B2:B275, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N8">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!N1,records!B2:B274, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!N1,records!B2:B275, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O8">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!O1,records!B2:B274, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!O1,records!B2:B275, "&lt;" &amp; template!P1)</f>
         <v>17.98</v>
       </c>
       <c r="P8">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!P1,records!B2:B274, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!P1,records!B2:B275, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!Q1,records!B2:B274, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!Q1,records!B2:B275, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R8">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!R1,records!B2:B274, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!R1,records!B2:B275, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S8">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!S1,records!B2:B274, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!S1,records!B2:B275, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T8">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!T1,records!B2:B274, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!T1,records!B2:B275, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U8">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!U1,records!B2:B274, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!U1,records!B2:B275, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V8">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!V1,records!B2:B274, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!V1,records!B2:B275, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W8">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!W1,records!B2:B274, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!W1,records!B2:B275, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X8">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!X1,records!B2:B274, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!X1,records!B2:B275, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y8">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!Y1,records!B2:B274, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!Y1,records!B2:B275, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z8">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8, records!B2:B274, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA8">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8,records!G2:G274,template!AA1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8,records!G2:G275,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB8">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8,records!G2:G274,template!AB1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8,records!G2:G275,template!AB1)</f>
         <v>2000</v>
       </c>
       <c r="AC8">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8,records!G2:G274,template!AC1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8,records!G2:G275,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD8">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8,records!G2:G274,template!AD1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8,records!G2:G275,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE8">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8,records!C2:C274,template!AE1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8,records!C2:C275,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF8">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8,records!C2:C274,template!AF1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8,records!C2:C275,template!AF1)</f>
         <v>17.98</v>
       </c>
       <c r="AG8">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8,records!C2:C274,template!AG1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8,records!C2:C275,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH8">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8,records!C2:C274,template!AH1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8,records!C2:C275,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI8">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8,records!C2:C274,template!AI1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8,records!C2:C275,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ8">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8,records!C2:C274,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8,records!C2:C275,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK8">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8,records!C2:C274,template!AK1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8,records!C2:C275,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL8">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8,records!C2:C274,template!AL1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8,records!C2:C275,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM8">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8,records!C2:C274,template!AM1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8,records!C2:C275,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN8">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8,records!C2:C274,template!AN1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8,records!C2:C275,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO8">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8,records!C2:C274,template!AO1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8,records!C2:C275,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP8">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A8,records!C2:C274,template!AP1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8,records!C2:C275,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -31508,163 +31636,163 @@
         <v>1532.5</v>
       </c>
       <c r="C9">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!C1,records!B2:B274, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!C1,records!B2:B275, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D9" s="14">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!D1,records!B2:B274, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!D1,records!B2:B275, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!E1,records!B2:B274, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!E1,records!B2:B275, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!F1,records!B2:B274, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!F1,records!B2:B275, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!G1,records!B2:B274, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!G1,records!B2:B275, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H9">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!H1,records!B2:B274, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!H1,records!B2:B275, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!I1,records!B2:B274, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!I1,records!B2:B275, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!J1,records!B2:B274, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!J1,records!B2:B275, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K9">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!K1,records!B2:B274, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!K1,records!B2:B275, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L9">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!L1,records!B2:B274, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!L1,records!B2:B275, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M9">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!M1,records!B2:B274, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!M1,records!B2:B275, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N9">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!N1,records!B2:B274, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!N1,records!B2:B275, "&lt;" &amp; template!O1)</f>
         <v>2</v>
       </c>
       <c r="O9">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!O1,records!B2:B274, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!O1,records!B2:B275, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P9">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!P1,records!B2:B274, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!P1,records!B2:B275, "&lt;" &amp; template!Q1)</f>
         <v>20</v>
       </c>
       <c r="Q9">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!Q1,records!B2:B274, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!Q1,records!B2:B275, "&lt;" &amp; template!R1)</f>
         <v>10.5</v>
       </c>
       <c r="R9">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!R1,records!B2:B274, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!R1,records!B2:B275, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S9">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!S1,records!B2:B274, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!S1,records!B2:B275, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T9">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!T1,records!B2:B274, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!T1,records!B2:B275, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U9">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!U1,records!B2:B274, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!U1,records!B2:B275, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V9">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!V1,records!B2:B274, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!V1,records!B2:B275, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W9">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!W1,records!B2:B274, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!W1,records!B2:B275, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X9">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!X1,records!B2:B274, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!X1,records!B2:B275, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y9">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!Y1,records!B2:B274, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!Y1,records!B2:B275, "&lt;" &amp; template!Z1)</f>
         <v>1500</v>
       </c>
       <c r="Z9">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9, records!B2:B274, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA9">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9,records!G2:G274,template!AA1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9,records!G2:G275,template!AA1)</f>
         <v>1502</v>
       </c>
       <c r="AB9">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9,records!G2:G274,template!AB1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9,records!G2:G275,template!AB1)</f>
         <v>30.5</v>
       </c>
       <c r="AC9">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9,records!G2:G274,template!AC1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9,records!G2:G275,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD9">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9,records!G2:G274,template!AD1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9,records!G2:G275,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE9">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9,records!C2:C274,template!AE1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9,records!C2:C275,template!AE1)</f>
         <v>2</v>
       </c>
       <c r="AF9">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9,records!C2:C274,template!AF1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9,records!C2:C275,template!AF1)</f>
         <v>20</v>
       </c>
       <c r="AG9">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9,records!C2:C274,template!AG1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9,records!C2:C275,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH9">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9,records!C2:C274,template!AH1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9,records!C2:C275,template!AH1)</f>
         <v>1500</v>
       </c>
       <c r="AI9">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9,records!C2:C274,template!AI1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9,records!C2:C275,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ9">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9,records!C2:C274,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9,records!C2:C275,template!AJ1)</f>
         <v>10.5</v>
       </c>
       <c r="AK9">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9,records!C2:C274,template!AK1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9,records!C2:C275,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL9">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9,records!C2:C274,template!AL1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9,records!C2:C275,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM9">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9,records!C2:C274,template!AM1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9,records!C2:C275,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN9">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9,records!C2:C274,template!AN1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9,records!C2:C275,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO9">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9,records!C2:C274,template!AO1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9,records!C2:C275,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP9">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A9,records!C2:C274,template!AP1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9,records!C2:C275,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -31677,163 +31805,163 @@
         <v>109</v>
       </c>
       <c r="C10">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!C1,records!B2:B274, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!C1,records!B2:B275, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D10" s="14">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!D1,records!B2:B274, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!D1,records!B2:B275, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E10">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!E1,records!B2:B274, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!E1,records!B2:B275, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F10">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!F1,records!B2:B274, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!F1,records!B2:B275, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G10">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!G1,records!B2:B274, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!G1,records!B2:B275, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H10">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!H1,records!B2:B274, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!H1,records!B2:B275, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I10">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!I1,records!B2:B274, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!I1,records!B2:B275, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!J1,records!B2:B274, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!J1,records!B2:B275, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K10">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!K1,records!B2:B274, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!K1,records!B2:B275, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L10">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!L1,records!B2:B274, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!L1,records!B2:B275, "&lt;" &amp; template!M1)</f>
         <v>18</v>
       </c>
       <c r="M10">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!M1,records!B2:B274, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!M1,records!B2:B275, "&lt;" &amp; template!N1)</f>
         <v>15</v>
       </c>
       <c r="N10">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!N1,records!B2:B274, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!N1,records!B2:B275, "&lt;" &amp; template!O1)</f>
         <v>30</v>
       </c>
       <c r="O10">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!O1,records!B2:B274, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!O1,records!B2:B275, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P10">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!P1,records!B2:B274, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!P1,records!B2:B275, "&lt;" &amp; template!Q1)</f>
         <v>30</v>
       </c>
       <c r="Q10">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!Q1,records!B2:B274, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!Q1,records!B2:B275, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R10">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!R1,records!B2:B274, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!R1,records!B2:B275, "&lt;" &amp; template!S1)</f>
         <v>6</v>
       </c>
       <c r="S10">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!S1,records!B2:B274, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!S1,records!B2:B275, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T10">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!T1,records!B2:B274, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!T1,records!B2:B275, "&lt;" &amp; template!U1)</f>
         <v>10</v>
       </c>
       <c r="U10">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!U1,records!B2:B274, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!U1,records!B2:B275, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V10">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!V1,records!B2:B274, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!V1,records!B2:B275, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W10">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!W1,records!B2:B274, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!W1,records!B2:B275, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X10">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!X1,records!B2:B274, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!X1,records!B2:B275, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y10">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!Y1,records!B2:B274, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!Y1,records!B2:B275, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z10">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10, records!B2:B274, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA10">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10,records!G2:G274,template!AA1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10,records!G2:G275,template!AA1)</f>
         <v>94</v>
       </c>
       <c r="AB10">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10,records!G2:G274,template!AB1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10,records!G2:G275,template!AB1)</f>
         <v>0</v>
       </c>
       <c r="AC10">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10,records!G2:G274,template!AC1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10,records!G2:G275,template!AC1)</f>
         <v>15</v>
       </c>
       <c r="AD10">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10,records!G2:G274,template!AD1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10,records!G2:G275,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE10">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10,records!C2:C274,template!AE1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10,records!C2:C275,template!AE1)</f>
         <v>33</v>
       </c>
       <c r="AF10">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10,records!C2:C274,template!AF1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10,records!C2:C275,template!AF1)</f>
         <v>30</v>
       </c>
       <c r="AG10">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10,records!C2:C274,template!AG1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10,records!C2:C275,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH10">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10,records!C2:C274,template!AH1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10,records!C2:C275,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI10">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10,records!C2:C274,template!AI1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10,records!C2:C275,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ10">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10,records!C2:C274,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10,records!C2:C275,template!AJ1)</f>
         <v>6</v>
       </c>
       <c r="AK10">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10,records!C2:C274,template!AK1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10,records!C2:C275,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL10">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10,records!C2:C274,template!AL1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10,records!C2:C275,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM10">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10,records!C2:C274,template!AM1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10,records!C2:C275,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN10">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10,records!C2:C274,template!AN1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10,records!C2:C275,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO10">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10,records!C2:C274,template!AO1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10,records!C2:C275,template!AO1)</f>
         <v>10</v>
       </c>
       <c r="AP10">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A10,records!C2:C274,template!AP1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10,records!C2:C275,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -31846,163 +31974,163 @@
         <v>115</v>
       </c>
       <c r="C11">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!C1,records!B2:B274, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!C1,records!B2:B275, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D11" s="14">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!D1,records!B2:B274, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!D1,records!B2:B275, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E11">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!E1,records!B2:B274, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!E1,records!B2:B275, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F11">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!F1,records!B2:B274, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!F1,records!B2:B275, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G11">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!G1,records!B2:B274, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!G1,records!B2:B275, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H11">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!H1,records!B2:B274, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!H1,records!B2:B275, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I11">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!I1,records!B2:B274, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!I1,records!B2:B275, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!J1,records!B2:B274, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!J1,records!B2:B275, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K11">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!K1,records!B2:B274, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!K1,records!B2:B275, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L11">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!L1,records!B2:B274, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!L1,records!B2:B275, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M11">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!M1,records!B2:B274, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!M1,records!B2:B275, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N11">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!N1,records!B2:B274, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!N1,records!B2:B275, "&lt;" &amp; template!O1)</f>
         <v>18</v>
       </c>
       <c r="O11">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!O1,records!B2:B274, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!O1,records!B2:B275, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P11">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!P1,records!B2:B274, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!P1,records!B2:B275, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q11">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!Q1,records!B2:B274, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!Q1,records!B2:B275, "&lt;" &amp; template!R1)</f>
         <v>51</v>
       </c>
       <c r="R11">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!R1,records!B2:B274, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!R1,records!B2:B275, "&lt;" &amp; template!S1)</f>
         <v>15</v>
       </c>
       <c r="S11">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!S1,records!B2:B274, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!S1,records!B2:B275, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T11">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!T1,records!B2:B274, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!T1,records!B2:B275, "&lt;" &amp; template!U1)</f>
         <v>31</v>
       </c>
       <c r="U11">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!U1,records!B2:B274, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!U1,records!B2:B275, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V11">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!V1,records!B2:B274, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!V1,records!B2:B275, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W11">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!W1,records!B2:B274, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!W1,records!B2:B275, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X11">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!X1,records!B2:B274, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!X1,records!B2:B275, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y11">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!Y1,records!B2:B274, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!Y1,records!B2:B275, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z11">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11, records!B2:B274, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA11">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11,records!G2:G274,template!AA1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11,records!G2:G275,template!AA1)</f>
         <v>49</v>
       </c>
       <c r="AB11">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11,records!G2:G274,template!AB1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11,records!G2:G275,template!AB1)</f>
         <v>51</v>
       </c>
       <c r="AC11">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11,records!G2:G274,template!AC1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11,records!G2:G275,template!AC1)</f>
         <v>15</v>
       </c>
       <c r="AD11">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11,records!G2:G274,template!AD1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11,records!G2:G275,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE11">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11,records!C2:C274,template!AE1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11,records!C2:C275,template!AE1)</f>
         <v>64</v>
       </c>
       <c r="AF11">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11,records!C2:C274,template!AF1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11,records!C2:C275,template!AF1)</f>
         <v>51</v>
       </c>
       <c r="AG11">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11,records!C2:C274,template!AG1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11,records!C2:C275,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH11">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11,records!C2:C274,template!AH1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11,records!C2:C275,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI11">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11,records!C2:C274,template!AI1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11,records!C2:C275,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ11">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11,records!C2:C274,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11,records!C2:C275,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK11">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11,records!C2:C274,template!AK1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11,records!C2:C275,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL11">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11,records!C2:C274,template!AL1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11,records!C2:C275,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM11">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11,records!C2:C274,template!AM1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11,records!C2:C275,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN11">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11,records!C2:C274,template!AN1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11,records!C2:C275,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO11">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11,records!C2:C274,template!AO1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11,records!C2:C275,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP11">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A11,records!C2:C274,template!AP1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11,records!C2:C275,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -32015,163 +32143,163 @@
         <v>100</v>
       </c>
       <c r="C12">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!C1,records!B2:B274, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!C1,records!B2:B275, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D12" s="14">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!D1,records!B2:B274, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!D1,records!B2:B275, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E12">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!E1,records!B2:B274, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!E1,records!B2:B275, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F12">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!F1,records!B2:B274, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!F1,records!B2:B275, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G12">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!G1,records!B2:B274, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!G1,records!B2:B275, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H12">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!H1,records!B2:B274, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!H1,records!B2:B275, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I12">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!I1,records!B2:B274, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!I1,records!B2:B275, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!J1,records!B2:B274, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!J1,records!B2:B275, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K12">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!K1,records!B2:B274, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!K1,records!B2:B275, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L12">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!L1,records!B2:B274, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!L1,records!B2:B275, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M12">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!M1,records!B2:B274, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!M1,records!B2:B275, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N12">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!N1,records!B2:B274, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!N1,records!B2:B275, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O12">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!O1,records!B2:B274, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!O1,records!B2:B275, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P12">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!P1,records!B2:B274, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!P1,records!B2:B275, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q12">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!Q1,records!B2:B274, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!Q1,records!B2:B275, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R12">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!R1,records!B2:B274, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!R1,records!B2:B275, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S12">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!S1,records!B2:B274, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!S1,records!B2:B275, "&lt;" &amp; template!T1)</f>
         <v>88</v>
       </c>
       <c r="T12">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!T1,records!B2:B274, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!T1,records!B2:B275, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U12">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!U1,records!B2:B274, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!U1,records!B2:B275, "&lt;" &amp; template!V1)</f>
         <v>12</v>
       </c>
       <c r="V12">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!V1,records!B2:B274, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!V1,records!B2:B275, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W12">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!W1,records!B2:B274, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!W1,records!B2:B275, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X12">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!X1,records!B2:B274, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!X1,records!B2:B275, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y12">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!Y1,records!B2:B274, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!Y1,records!B2:B275, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z12">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12, records!B2:B274, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA12">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12,records!G2:G274,template!AA1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12,records!G2:G275,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB12">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12,records!G2:G274,template!AB1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12,records!G2:G275,template!AB1)</f>
         <v>100</v>
       </c>
       <c r="AC12">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12,records!G2:G274,template!AC1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12,records!G2:G275,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD12">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12,records!G2:G274,template!AD1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12,records!G2:G275,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE12">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12,records!C2:C274,template!AE1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12,records!C2:C275,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF12">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12,records!C2:C274,template!AF1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12,records!C2:C275,template!AF1)</f>
         <v>0</v>
       </c>
       <c r="AG12">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12,records!C2:C274,template!AG1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12,records!C2:C275,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH12">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12,records!C2:C274,template!AH1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12,records!C2:C275,template!AH1)</f>
         <v>88</v>
       </c>
       <c r="AI12">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12,records!C2:C274,template!AI1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12,records!C2:C275,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ12">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12,records!C2:C274,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12,records!C2:C275,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK12">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12,records!C2:C274,template!AK1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12,records!C2:C275,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL12">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12,records!C2:C274,template!AL1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12,records!C2:C275,template!AL1)</f>
         <v>12</v>
       </c>
       <c r="AM12">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12,records!C2:C274,template!AM1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12,records!C2:C275,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN12">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12,records!C2:C274,template!AN1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12,records!C2:C275,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO12">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12,records!C2:C274,template!AO1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12,records!C2:C275,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP12">
-        <f>SUMIFS(records!E2:E274,records!A2:A274,template!A12,records!C2:C274,template!AP1)</f>
+        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12,records!C2:C275,template!AP1)</f>
         <v>0</v>
       </c>
     </row>

--- a/excel/ledger.xlsx
+++ b/excel/ledger.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gzhennaxia/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C054DE-1493-9945-A4FD-36201256A161}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3DD61B-04A2-C749-A01B-D367434B2224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
+    <workbookView xWindow="0" yWindow="11760" windowWidth="13640" windowHeight="11280" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3388" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3413" uniqueCount="1004">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3881,6 +3881,26 @@
   </si>
   <si>
     <t>炒凉皮+煎饼卷土豆丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜宵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招牌无骨炸鸡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Semi-Yong韩式炸鸡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小资优享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦味店</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4197,13 +4217,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -10535,9 +10555,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FEFEF66-0DFC-B343-AE55-FC43085C5197}" name="表1" displayName="表1" ref="A1:I275" totalsRowShown="0">
-  <autoFilter ref="A1:I275" xr:uid="{5BBC9419-B13B-B148-8ACF-0DE90D8ED5A0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I275">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FEFEF66-0DFC-B343-AE55-FC43085C5197}" name="表1" displayName="表1" ref="A1:I285" totalsRowShown="0">
+  <autoFilter ref="A1:I285" xr:uid="{5BBC9419-B13B-B148-8ACF-0DE90D8ED5A0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I285">
     <sortCondition ref="A2:A22"/>
     <sortCondition ref="B2:B22"/>
   </sortState>
@@ -11040,7 +11060,7 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{708C10D3-3099-AB43-BF6B-AAC0E5724B2D}" name="年"/>
     <tableColumn id="2" xr3:uid="{5D7EEFFC-1B1B-C442-8DD0-96BF0D9145E1}" name="总计">
-      <calculatedColumnFormula>SUM(records!E2:E275)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(records!E2:E285)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -11053,7 +11073,7 @@
   <tableColumns count="42">
     <tableColumn id="1" xr3:uid="{F034F842-B0D4-7C49-92AC-92126BFED303}" name="日期" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{E4A20DC4-BCAA-5A4C-8F92-7768890FB62A}" name="总计">
-      <calculatedColumnFormula>SUMIF(records!A2:A275, template!A2, records!E2:E275)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUMIF(records!A2:A285, template!A2, records!E2:E285)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{4634C45B-FA6E-3A4F-A29C-00438EE32653}" name="0:00"/>
     <tableColumn id="4" xr3:uid="{FAE9234B-318D-7D47-AF72-AE2A681B63D3}" name="1:00" dataDxfId="2"/>
@@ -11739,8 +11759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C81ADFD-2D83-574A-AD81-B8046C388F80}">
   <dimension ref="A1:V306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A251" zoomScale="88" workbookViewId="0">
-      <selection activeCell="I272" sqref="I272"/>
+    <sheetView tabSelected="1" topLeftCell="A258" zoomScale="88" workbookViewId="0">
+      <selection activeCell="E280" sqref="E280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11784,19 +11804,19 @@
       <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="1">
@@ -13573,17 +13593,17 @@
       <c r="I32" t="s">
         <v>141</v>
       </c>
-      <c r="K32" s="41" t="s">
+      <c r="K32" s="40" t="s">
         <v>354</v>
       </c>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="41"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
       <c r="T32" s="29"/>
       <c r="U32" s="29"/>
     </row>
@@ -14102,17 +14122,17 @@
       <c r="I43" t="s">
         <v>197</v>
       </c>
-      <c r="K43" s="41" t="s">
+      <c r="K43" s="40" t="s">
         <v>354</v>
       </c>
-      <c r="L43" s="41"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="41"/>
-      <c r="O43" s="41"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="41"/>
-      <c r="S43" s="41"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="40"/>
+      <c r="S43" s="40"/>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="1">
@@ -14529,19 +14549,19 @@
       <c r="I52" t="s">
         <v>141</v>
       </c>
-      <c r="K52" s="40" t="s">
+      <c r="K52" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="L52" s="40"/>
-      <c r="M52" s="40"/>
-      <c r="N52" s="40"/>
-      <c r="O52" s="40"/>
-      <c r="P52" s="40"/>
-      <c r="Q52" s="40"/>
-      <c r="R52" s="40"/>
-      <c r="S52" s="40"/>
-      <c r="T52" s="40"/>
-      <c r="U52" s="40"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="42"/>
+      <c r="R52" s="42"/>
+      <c r="S52" s="42"/>
+      <c r="T52" s="42"/>
+      <c r="U52" s="42"/>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="1">
@@ -14972,20 +14992,20 @@
       <c r="I60" t="s">
         <v>231</v>
       </c>
-      <c r="K60" s="40" t="s">
+      <c r="K60" s="42" t="s">
         <v>666</v>
       </c>
-      <c r="L60" s="40"/>
-      <c r="M60" s="40"/>
-      <c r="N60" s="40"/>
-      <c r="O60" s="40"/>
-      <c r="P60" s="40"/>
-      <c r="Q60" s="40"/>
-      <c r="R60" s="40"/>
-      <c r="S60" s="40"/>
-      <c r="T60" s="40"/>
-      <c r="U60" s="40"/>
-      <c r="V60" s="40"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="42"/>
+      <c r="P60" s="42"/>
+      <c r="Q60" s="42"/>
+      <c r="R60" s="42"/>
+      <c r="S60" s="42"/>
+      <c r="T60" s="42"/>
+      <c r="U60" s="42"/>
+      <c r="V60" s="42"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="1">
@@ -15904,17 +15924,17 @@
       <c r="I76" t="s">
         <v>262</v>
       </c>
-      <c r="K76" s="41" t="s">
+      <c r="K76" s="40" t="s">
         <v>348</v>
       </c>
-      <c r="L76" s="41"/>
-      <c r="M76" s="41"/>
-      <c r="N76" s="41"/>
-      <c r="O76" s="41"/>
-      <c r="P76" s="41"/>
-      <c r="Q76" s="41"/>
-      <c r="R76" s="41"/>
-      <c r="S76" s="41"/>
+      <c r="L76" s="40"/>
+      <c r="M76" s="40"/>
+      <c r="N76" s="40"/>
+      <c r="O76" s="40"/>
+      <c r="P76" s="40"/>
+      <c r="Q76" s="40"/>
+      <c r="R76" s="40"/>
+      <c r="S76" s="40"/>
     </row>
     <row r="77" spans="1:22">
       <c r="A77" s="1">
@@ -16378,17 +16398,17 @@
       <c r="I86" t="s">
         <v>176</v>
       </c>
-      <c r="K86" s="41" t="s">
+      <c r="K86" s="40" t="s">
         <v>368</v>
       </c>
-      <c r="L86" s="41"/>
-      <c r="M86" s="41"/>
-      <c r="N86" s="41"/>
-      <c r="O86" s="41"/>
-      <c r="P86" s="41"/>
-      <c r="Q86" s="41"/>
-      <c r="R86" s="41"/>
-      <c r="S86" s="41"/>
+      <c r="L86" s="40"/>
+      <c r="M86" s="40"/>
+      <c r="N86" s="40"/>
+      <c r="O86" s="40"/>
+      <c r="P86" s="40"/>
+      <c r="Q86" s="40"/>
+      <c r="R86" s="40"/>
+      <c r="S86" s="40"/>
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="1">
@@ -16693,17 +16713,17 @@
       <c r="I93" t="s">
         <v>141</v>
       </c>
-      <c r="K93" s="41" t="s">
+      <c r="K93" s="40" t="s">
         <v>379</v>
       </c>
-      <c r="L93" s="41"/>
-      <c r="M93" s="41"/>
-      <c r="N93" s="41"/>
-      <c r="O93" s="41"/>
-      <c r="P93" s="41"/>
-      <c r="Q93" s="41"/>
-      <c r="R93" s="41"/>
-      <c r="S93" s="41"/>
+      <c r="L93" s="40"/>
+      <c r="M93" s="40"/>
+      <c r="N93" s="40"/>
+      <c r="O93" s="40"/>
+      <c r="P93" s="40"/>
+      <c r="Q93" s="40"/>
+      <c r="R93" s="40"/>
+      <c r="S93" s="40"/>
     </row>
     <row r="94" spans="1:19">
       <c r="A94" s="1">
@@ -17105,17 +17125,17 @@
       <c r="H102" t="s">
         <v>291</v>
       </c>
-      <c r="K102" s="41" t="s">
+      <c r="K102" s="40" t="s">
         <v>379</v>
       </c>
-      <c r="L102" s="41"/>
-      <c r="M102" s="41"/>
-      <c r="N102" s="41"/>
-      <c r="O102" s="41"/>
-      <c r="P102" s="41"/>
-      <c r="Q102" s="41"/>
-      <c r="R102" s="41"/>
-      <c r="S102" s="41"/>
+      <c r="L102" s="40"/>
+      <c r="M102" s="40"/>
+      <c r="N102" s="40"/>
+      <c r="O102" s="40"/>
+      <c r="P102" s="40"/>
+      <c r="Q102" s="40"/>
+      <c r="R102" s="40"/>
+      <c r="S102" s="40"/>
     </row>
     <row r="103" spans="1:19">
       <c r="A103" s="1">
@@ -17480,17 +17500,17 @@
       <c r="I111" t="s">
         <v>340</v>
       </c>
-      <c r="K111" s="42" t="s">
+      <c r="K111" s="41" t="s">
         <v>448</v>
       </c>
-      <c r="L111" s="42"/>
-      <c r="M111" s="42"/>
-      <c r="N111" s="42"/>
-      <c r="O111" s="42"/>
-      <c r="P111" s="42"/>
-      <c r="Q111" s="42"/>
-      <c r="R111" s="42"/>
-      <c r="S111" s="42"/>
+      <c r="L111" s="41"/>
+      <c r="M111" s="41"/>
+      <c r="N111" s="41"/>
+      <c r="O111" s="41"/>
+      <c r="P111" s="41"/>
+      <c r="Q111" s="41"/>
+      <c r="R111" s="41"/>
+      <c r="S111" s="41"/>
     </row>
     <row r="112" spans="1:19">
       <c r="A112" s="1">
@@ -18415,17 +18435,17 @@
       <c r="H130" t="s">
         <v>283</v>
       </c>
-      <c r="K130" s="41" t="s">
+      <c r="K130" s="40" t="s">
         <v>549</v>
       </c>
-      <c r="L130" s="41"/>
-      <c r="M130" s="41"/>
-      <c r="N130" s="41"/>
-      <c r="O130" s="41"/>
-      <c r="P130" s="41"/>
-      <c r="Q130" s="41"/>
-      <c r="R130" s="41"/>
-      <c r="S130" s="41"/>
+      <c r="L130" s="40"/>
+      <c r="M130" s="40"/>
+      <c r="N130" s="40"/>
+      <c r="O130" s="40"/>
+      <c r="P130" s="40"/>
+      <c r="Q130" s="40"/>
+      <c r="R130" s="40"/>
+      <c r="S130" s="40"/>
     </row>
     <row r="131" spans="1:19">
       <c r="A131" s="1">
@@ -19602,20 +19622,20 @@
       <c r="I153" t="s">
         <v>415</v>
       </c>
-      <c r="K153" s="40" t="s">
+      <c r="K153" s="42" t="s">
         <v>597</v>
       </c>
-      <c r="L153" s="40"/>
-      <c r="M153" s="40"/>
-      <c r="N153" s="40"/>
-      <c r="O153" s="40"/>
-      <c r="P153" s="40"/>
-      <c r="Q153" s="40"/>
-      <c r="R153" s="40"/>
-      <c r="S153" s="40"/>
-      <c r="T153" s="40"/>
-      <c r="U153" s="40"/>
-      <c r="V153" s="40"/>
+      <c r="L153" s="42"/>
+      <c r="M153" s="42"/>
+      <c r="N153" s="42"/>
+      <c r="O153" s="42"/>
+      <c r="P153" s="42"/>
+      <c r="Q153" s="42"/>
+      <c r="R153" s="42"/>
+      <c r="S153" s="42"/>
+      <c r="T153" s="42"/>
+      <c r="U153" s="42"/>
+      <c r="V153" s="42"/>
     </row>
     <row r="154" spans="1:22">
       <c r="A154" s="1">
@@ -21233,17 +21253,17 @@
       <c r="I181" t="s">
         <v>703</v>
       </c>
-      <c r="K181" s="41" t="s">
+      <c r="K181" s="40" t="s">
         <v>531</v>
       </c>
-      <c r="L181" s="41"/>
-      <c r="M181" s="41"/>
-      <c r="N181" s="41"/>
-      <c r="O181" s="41"/>
-      <c r="P181" s="41"/>
-      <c r="Q181" s="41"/>
-      <c r="R181" s="41"/>
-      <c r="S181" s="41"/>
+      <c r="L181" s="40"/>
+      <c r="M181" s="40"/>
+      <c r="N181" s="40"/>
+      <c r="O181" s="40"/>
+      <c r="P181" s="40"/>
+      <c r="Q181" s="40"/>
+      <c r="R181" s="40"/>
+      <c r="S181" s="40"/>
     </row>
     <row r="182" spans="1:22">
       <c r="A182" s="1">
@@ -22543,17 +22563,17 @@
       <c r="H206" t="s">
         <v>216</v>
       </c>
-      <c r="K206" s="41" t="s">
+      <c r="K206" s="40" t="s">
         <v>533</v>
       </c>
-      <c r="L206" s="41"/>
-      <c r="M206" s="41"/>
-      <c r="N206" s="41"/>
-      <c r="O206" s="41"/>
-      <c r="P206" s="41"/>
-      <c r="Q206" s="41"/>
-      <c r="R206" s="41"/>
-      <c r="S206" s="41"/>
+      <c r="L206" s="40"/>
+      <c r="M206" s="40"/>
+      <c r="N206" s="40"/>
+      <c r="O206" s="40"/>
+      <c r="P206" s="40"/>
+      <c r="Q206" s="40"/>
+      <c r="R206" s="40"/>
+      <c r="S206" s="40"/>
     </row>
     <row r="207" spans="1:19">
       <c r="A207" s="1">
@@ -22904,17 +22924,17 @@
       <c r="H214" t="s">
         <v>25</v>
       </c>
-      <c r="K214" s="41" t="s">
+      <c r="K214" s="40" t="s">
         <v>707</v>
       </c>
-      <c r="L214" s="41"/>
-      <c r="M214" s="41"/>
-      <c r="N214" s="41"/>
-      <c r="O214" s="41"/>
-      <c r="P214" s="41"/>
-      <c r="Q214" s="41"/>
-      <c r="R214" s="41"/>
-      <c r="S214" s="41"/>
+      <c r="L214" s="40"/>
+      <c r="M214" s="40"/>
+      <c r="N214" s="40"/>
+      <c r="O214" s="40"/>
+      <c r="P214" s="40"/>
+      <c r="Q214" s="40"/>
+      <c r="R214" s="40"/>
+      <c r="S214" s="40"/>
     </row>
     <row r="215" spans="1:19">
       <c r="A215" s="1">
@@ -24278,20 +24298,20 @@
       <c r="H241" t="s">
         <v>251</v>
       </c>
-      <c r="K241" s="40" t="s">
+      <c r="K241" s="42" t="s">
         <v>767</v>
       </c>
-      <c r="L241" s="40"/>
-      <c r="M241" s="40"/>
-      <c r="N241" s="40"/>
-      <c r="O241" s="40"/>
-      <c r="P241" s="40"/>
-      <c r="Q241" s="40"/>
-      <c r="R241" s="40"/>
-      <c r="S241" s="40"/>
-      <c r="T241" s="40"/>
-      <c r="U241" s="40"/>
-      <c r="V241" s="40"/>
+      <c r="L241" s="42"/>
+      <c r="M241" s="42"/>
+      <c r="N241" s="42"/>
+      <c r="O241" s="42"/>
+      <c r="P241" s="42"/>
+      <c r="Q241" s="42"/>
+      <c r="R241" s="42"/>
+      <c r="S241" s="42"/>
+      <c r="T241" s="42"/>
+      <c r="U241" s="42"/>
+      <c r="V241" s="42"/>
     </row>
     <row r="242" spans="1:22">
       <c r="A242" s="1">
@@ -24873,20 +24893,20 @@
       <c r="H252" t="s">
         <v>392</v>
       </c>
-      <c r="K252" s="40" t="s">
+      <c r="K252" s="42" t="s">
         <v>802</v>
       </c>
-      <c r="L252" s="40"/>
-      <c r="M252" s="40"/>
-      <c r="N252" s="40"/>
-      <c r="O252" s="40"/>
-      <c r="P252" s="40"/>
-      <c r="Q252" s="40"/>
-      <c r="R252" s="40"/>
-      <c r="S252" s="40"/>
-      <c r="T252" s="40"/>
-      <c r="U252" s="40"/>
-      <c r="V252" s="40"/>
+      <c r="L252" s="42"/>
+      <c r="M252" s="42"/>
+      <c r="N252" s="42"/>
+      <c r="O252" s="42"/>
+      <c r="P252" s="42"/>
+      <c r="Q252" s="42"/>
+      <c r="R252" s="42"/>
+      <c r="S252" s="42"/>
+      <c r="T252" s="42"/>
+      <c r="U252" s="42"/>
+      <c r="V252" s="42"/>
     </row>
     <row r="253" spans="1:22">
       <c r="A253" s="1">
@@ -25580,17 +25600,17 @@
       <c r="H265" t="s">
         <v>36</v>
       </c>
-      <c r="K265" s="41" t="s">
+      <c r="K265" s="40" t="s">
         <v>839</v>
       </c>
-      <c r="L265" s="41"/>
-      <c r="M265" s="41"/>
-      <c r="N265" s="41"/>
-      <c r="O265" s="41"/>
-      <c r="P265" s="41"/>
-      <c r="Q265" s="41"/>
-      <c r="R265" s="41"/>
-      <c r="S265" s="41"/>
+      <c r="L265" s="40"/>
+      <c r="M265" s="40"/>
+      <c r="N265" s="40"/>
+      <c r="O265" s="40"/>
+      <c r="P265" s="40"/>
+      <c r="Q265" s="40"/>
+      <c r="R265" s="40"/>
+      <c r="S265" s="40"/>
     </row>
     <row r="266" spans="1:22">
       <c r="A266" s="1">
@@ -26126,6 +26146,30 @@
       </c>
     </row>
     <row r="276" spans="1:19">
+      <c r="A276" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B276" s="2">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="C276" t="s">
+        <v>980</v>
+      </c>
+      <c r="D276" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E276">
+        <v>1.5</v>
+      </c>
+      <c r="F276" t="s">
+        <v>20</v>
+      </c>
+      <c r="G276" t="s">
+        <v>24</v>
+      </c>
+      <c r="H276" t="s">
+        <v>251</v>
+      </c>
       <c r="K276" s="1">
         <v>43905</v>
       </c>
@@ -26155,6 +26199,30 @@
       </c>
     </row>
     <row r="277" spans="1:19">
+      <c r="A277" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B277" s="2">
+        <v>0.47638888888888892</v>
+      </c>
+      <c r="C277" t="s">
+        <v>936</v>
+      </c>
+      <c r="D277" t="s">
+        <v>961</v>
+      </c>
+      <c r="E277">
+        <v>23.6</v>
+      </c>
+      <c r="F277" t="s">
+        <v>20</v>
+      </c>
+      <c r="G277" t="s">
+        <v>24</v>
+      </c>
+      <c r="H277" t="s">
+        <v>251</v>
+      </c>
       <c r="K277" s="1">
         <v>43905</v>
       </c>
@@ -26184,6 +26252,30 @@
       </c>
     </row>
     <row r="278" spans="1:19">
+      <c r="A278" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B278" s="2">
+        <v>0.97013888888888899</v>
+      </c>
+      <c r="C278" t="s">
+        <v>999</v>
+      </c>
+      <c r="D278" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E278">
+        <v>18.8</v>
+      </c>
+      <c r="F278" t="s">
+        <v>20</v>
+      </c>
+      <c r="G278" t="s">
+        <v>24</v>
+      </c>
+      <c r="H278" t="s">
+        <v>251</v>
+      </c>
       <c r="K278" s="1">
         <v>43905</v>
       </c>
@@ -26213,6 +26305,30 @@
       </c>
     </row>
     <row r="279" spans="1:19">
+      <c r="A279" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B279" s="2">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="C279" t="s">
+        <v>999</v>
+      </c>
+      <c r="D279" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E279">
+        <v>23.88</v>
+      </c>
+      <c r="F279" t="s">
+        <v>20</v>
+      </c>
+      <c r="G279" t="s">
+        <v>24</v>
+      </c>
+      <c r="H279" t="s">
+        <v>251</v>
+      </c>
       <c r="K279" s="1">
         <v>43905</v>
       </c>
@@ -26242,6 +26358,30 @@
       </c>
     </row>
     <row r="280" spans="1:19">
+      <c r="A280" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B280" s="2">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="C280" t="s">
+        <v>980</v>
+      </c>
+      <c r="D280" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E280">
+        <v>1.5</v>
+      </c>
+      <c r="F280" t="s">
+        <v>20</v>
+      </c>
+      <c r="G280" t="s">
+        <v>24</v>
+      </c>
+      <c r="H280" t="s">
+        <v>251</v>
+      </c>
       <c r="K280" s="1">
         <v>43905</v>
       </c>
@@ -26271,6 +26411,8 @@
       </c>
     </row>
     <row r="281" spans="1:19">
+      <c r="A281" s="1"/>
+      <c r="B281" s="2"/>
       <c r="K281" s="1">
         <v>43905</v>
       </c>
@@ -26300,6 +26442,8 @@
       </c>
     </row>
     <row r="282" spans="1:19">
+      <c r="A282" s="1"/>
+      <c r="B282" s="2"/>
       <c r="K282" s="1">
         <v>43905</v>
       </c>
@@ -26329,6 +26473,8 @@
       </c>
     </row>
     <row r="283" spans="1:19">
+      <c r="A283" s="1"/>
+      <c r="B283" s="2"/>
       <c r="K283" s="1">
         <v>43905</v>
       </c>
@@ -26358,6 +26504,8 @@
       </c>
     </row>
     <row r="284" spans="1:19">
+      <c r="A284" s="1"/>
+      <c r="B284" s="2"/>
       <c r="K284" s="1">
         <v>43905</v>
       </c>
@@ -26387,6 +26535,8 @@
       </c>
     </row>
     <row r="285" spans="1:19">
+      <c r="A285" s="1"/>
+      <c r="B285" s="2"/>
       <c r="K285" s="1">
         <v>43905</v>
       </c>
@@ -26454,17 +26604,17 @@
       </c>
     </row>
     <row r="289" spans="11:22">
-      <c r="K289" s="41" t="s">
+      <c r="K289" s="40" t="s">
         <v>910</v>
       </c>
-      <c r="L289" s="41"/>
-      <c r="M289" s="41"/>
-      <c r="N289" s="41"/>
-      <c r="O289" s="41"/>
-      <c r="P289" s="41"/>
-      <c r="Q289" s="41"/>
-      <c r="R289" s="41"/>
-      <c r="S289" s="41"/>
+      <c r="L289" s="40"/>
+      <c r="M289" s="40"/>
+      <c r="N289" s="40"/>
+      <c r="O289" s="40"/>
+      <c r="P289" s="40"/>
+      <c r="Q289" s="40"/>
+      <c r="R289" s="40"/>
+      <c r="S289" s="40"/>
     </row>
     <row r="290" spans="11:22">
       <c r="K290" s="9" t="s">
@@ -26679,20 +26829,20 @@
       </c>
     </row>
     <row r="299" spans="11:22">
-      <c r="K299" s="40" t="s">
+      <c r="K299" s="42" t="s">
         <v>965</v>
       </c>
-      <c r="L299" s="40"/>
-      <c r="M299" s="40"/>
-      <c r="N299" s="40"/>
-      <c r="O299" s="40"/>
-      <c r="P299" s="40"/>
-      <c r="Q299" s="40"/>
-      <c r="R299" s="40"/>
-      <c r="S299" s="40"/>
-      <c r="T299" s="40"/>
-      <c r="U299" s="40"/>
-      <c r="V299" s="40"/>
+      <c r="L299" s="42"/>
+      <c r="M299" s="42"/>
+      <c r="N299" s="42"/>
+      <c r="O299" s="42"/>
+      <c r="P299" s="42"/>
+      <c r="Q299" s="42"/>
+      <c r="R299" s="42"/>
+      <c r="S299" s="42"/>
+      <c r="T299" s="42"/>
+      <c r="U299" s="42"/>
+      <c r="V299" s="42"/>
     </row>
     <row r="300" spans="11:22">
       <c r="K300" s="9" t="s">
@@ -26912,6 +27062,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="K299:V299"/>
+    <mergeCell ref="K289:S289"/>
+    <mergeCell ref="K265:S265"/>
+    <mergeCell ref="K60:V60"/>
+    <mergeCell ref="K252:V252"/>
+    <mergeCell ref="K214:S214"/>
+    <mergeCell ref="K241:V241"/>
     <mergeCell ref="K1:U1"/>
     <mergeCell ref="K32:S32"/>
     <mergeCell ref="K76:S76"/>
@@ -26925,13 +27082,6 @@
     <mergeCell ref="K102:S102"/>
     <mergeCell ref="K130:S130"/>
     <mergeCell ref="K153:V153"/>
-    <mergeCell ref="K299:V299"/>
-    <mergeCell ref="K289:S289"/>
-    <mergeCell ref="K265:S265"/>
-    <mergeCell ref="K60:V60"/>
-    <mergeCell ref="K252:V252"/>
-    <mergeCell ref="K214:S214"/>
-    <mergeCell ref="K241:V241"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="13">
@@ -27020,34 +27170,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
       <c r="AB1" s="43" t="s">
         <v>327</v>
       </c>
@@ -27056,22 +27206,22 @@
       <c r="AE1" s="43"/>
       <c r="AF1" s="43"/>
       <c r="AG1" s="43"/>
-      <c r="AI1" s="42" t="s">
+      <c r="AI1" s="41" t="s">
         <v>328</v>
       </c>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="42"/>
-      <c r="AL1" s="42"/>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="42"/>
-      <c r="AP1" s="42"/>
-      <c r="AQ1" s="42"/>
-      <c r="AR1" s="42"/>
-      <c r="AS1" s="42"/>
-      <c r="AT1" s="42"/>
-      <c r="AU1" s="42"/>
-      <c r="AV1" s="42"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="41"/>
     </row>
     <row r="2" spans="1:48">
       <c r="A2" t="s">
@@ -30453,163 +30603,163 @@
         <v>24</v>
       </c>
       <c r="C2">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!C1,records!B2:B275, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A2, records!B2:B285, "&gt;=" &amp; template!C1,records!B2:B285, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!D1,records!B2:B275, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A2, records!B2:B285, "&gt;=" &amp; template!D1,records!B2:B285, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E2">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!E1,records!B2:B275, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A2, records!B2:B285, "&gt;=" &amp; template!E1,records!B2:B285, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F2">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!F1,records!B2:B275, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A2, records!B2:B285, "&gt;=" &amp; template!F1,records!B2:B285, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!G1,records!B2:B275, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A2, records!B2:B285, "&gt;=" &amp; template!G1,records!B2:B285, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H2">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!H1,records!B2:B275, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A2, records!B2:B285, "&gt;=" &amp; template!H1,records!B2:B285, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I2">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!I1,records!B2:B275, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A2, records!B2:B285, "&gt;=" &amp; template!I1,records!B2:B285, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J2">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!J1,records!B2:B275, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A2, records!B2:B285, "&gt;=" &amp; template!J1,records!B2:B285, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K2">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!K1,records!B2:B275, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A2, records!B2:B285, "&gt;=" &amp; template!K1,records!B2:B285, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L2">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!L1,records!B2:B275, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A2, records!B2:B285, "&gt;=" &amp; template!L1,records!B2:B285, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M2">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!M1,records!B2:B275, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A2, records!B2:B285, "&gt;=" &amp; template!M1,records!B2:B285, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N2">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!N1,records!B2:B275, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A2, records!B2:B285, "&gt;=" &amp; template!N1,records!B2:B285, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O2">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!O1,records!B2:B275, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A2, records!B2:B285, "&gt;=" &amp; template!O1,records!B2:B285, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P2">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!P1,records!B2:B275, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A2, records!B2:B285, "&gt;=" &amp; template!P1,records!B2:B285, "&lt;" &amp; template!Q1)</f>
         <v>24</v>
       </c>
       <c r="Q2">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!Q1,records!B2:B275, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A2, records!B2:B285, "&gt;=" &amp; template!Q1,records!B2:B285, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R2">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!R1,records!B2:B275, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A2, records!B2:B285, "&gt;=" &amp; template!R1,records!B2:B285, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S2">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!S1,records!B2:B275, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A2, records!B2:B285, "&gt;=" &amp; template!S1,records!B2:B285, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T2">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!T1,records!B2:B275, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A2, records!B2:B285, "&gt;=" &amp; template!T1,records!B2:B285, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U2">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!U1,records!B2:B275, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A2, records!B2:B285, "&gt;=" &amp; template!U1,records!B2:B285, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V2">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!V1,records!B2:B275, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A2, records!B2:B285, "&gt;=" &amp; template!V1,records!B2:B285, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W2">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!W1,records!B2:B275, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A2, records!B2:B285, "&gt;=" &amp; template!W1,records!B2:B285, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X2">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!X1,records!B2:B275, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A2, records!B2:B285, "&gt;=" &amp; template!X1,records!B2:B285, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y2">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!Y1,records!B2:B275, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A2, records!B2:B285, "&gt;=" &amp; template!Y1,records!B2:B285, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z2">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2, records!B2:B275, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A2, records!B2:B285, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA2">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2,records!G2:G275,template!AA1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A2,records!G2:G285,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB2">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2,records!G2:G275,template!AB1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A2,records!G2:G285,template!AB1)</f>
         <v>24</v>
       </c>
       <c r="AC2">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2,records!G2:G275,template!AC1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A2,records!G2:G285,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD2">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2,records!G2:G275,template!AD1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A2,records!G2:G285,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE2">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2,records!C2:C275,template!AE1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A2,records!C2:C285,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF2">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2,records!C2:C275,template!AF1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A2,records!C2:C285,template!AF1)</f>
         <v>24</v>
       </c>
       <c r="AG2">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2,records!C2:C275,template!AG1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A2,records!C2:C285,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH2">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2,records!C2:C275,template!AH1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A2,records!C2:C285,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI2">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2,records!C2:C275,template!AI1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A2,records!C2:C285,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ2">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2,records!C2:C275,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A2,records!C2:C285,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK2">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2,records!C2:C275,template!AK1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A2,records!C2:C285,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL2">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2,records!C2:C275,template!AL1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A2,records!C2:C285,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM2">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2,records!C2:C275,template!AM1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A2,records!C2:C285,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN2">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2,records!C2:C275,template!AN1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A2,records!C2:C285,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO2">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2,records!C2:C275,template!AO1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A2,records!C2:C285,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP2">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A2,records!C2:C275,template!AP1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A2,records!C2:C285,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -30622,163 +30772,163 @@
         <v>22</v>
       </c>
       <c r="C3">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!C1,records!B2:B275, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A3, records!B2:B285, "&gt;=" &amp; template!C1,records!B2:B285, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D3" s="14">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!D1,records!B2:B275, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A3, records!B2:B285, "&gt;=" &amp; template!D1,records!B2:B285, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!E1,records!B2:B275, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A3, records!B2:B285, "&gt;=" &amp; template!E1,records!B2:B285, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F3">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!F1,records!B2:B275, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A3, records!B2:B285, "&gt;=" &amp; template!F1,records!B2:B285, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G3">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!G1,records!B2:B275, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A3, records!B2:B285, "&gt;=" &amp; template!G1,records!B2:B285, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H3">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!H1,records!B2:B275, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A3, records!B2:B285, "&gt;=" &amp; template!H1,records!B2:B285, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I3">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!I1,records!B2:B275, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A3, records!B2:B285, "&gt;=" &amp; template!I1,records!B2:B285, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J3">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!J1,records!B2:B275, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A3, records!B2:B285, "&gt;=" &amp; template!J1,records!B2:B285, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!K1,records!B2:B275, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A3, records!B2:B285, "&gt;=" &amp; template!K1,records!B2:B285, "&lt;" &amp; template!L1)</f>
         <v>3</v>
       </c>
       <c r="L3">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!L1,records!B2:B275, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A3, records!B2:B285, "&gt;=" &amp; template!L1,records!B2:B285, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M3">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!M1,records!B2:B275, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A3, records!B2:B285, "&gt;=" &amp; template!M1,records!B2:B285, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N3">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!N1,records!B2:B275, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A3, records!B2:B285, "&gt;=" &amp; template!N1,records!B2:B285, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O3">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!O1,records!B2:B275, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A3, records!B2:B285, "&gt;=" &amp; template!O1,records!B2:B285, "&lt;" &amp; template!P1)</f>
         <v>16</v>
       </c>
       <c r="P3">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!P1,records!B2:B275, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A3, records!B2:B285, "&gt;=" &amp; template!P1,records!B2:B285, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!Q1,records!B2:B275, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A3, records!B2:B285, "&gt;=" &amp; template!Q1,records!B2:B285, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R3">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!R1,records!B2:B275, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A3, records!B2:B285, "&gt;=" &amp; template!R1,records!B2:B285, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S3">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!S1,records!B2:B275, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A3, records!B2:B285, "&gt;=" &amp; template!S1,records!B2:B285, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T3">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!T1,records!B2:B275, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A3, records!B2:B285, "&gt;=" &amp; template!T1,records!B2:B285, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U3">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!U1,records!B2:B275, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A3, records!B2:B285, "&gt;=" &amp; template!U1,records!B2:B285, "&lt;" &amp; template!V1)</f>
         <v>3</v>
       </c>
       <c r="V3">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!V1,records!B2:B275, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A3, records!B2:B285, "&gt;=" &amp; template!V1,records!B2:B285, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W3">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!W1,records!B2:B275, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A3, records!B2:B285, "&gt;=" &amp; template!W1,records!B2:B285, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X3">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!X1,records!B2:B275, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A3, records!B2:B285, "&gt;=" &amp; template!X1,records!B2:B285, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y3">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!Y1,records!B2:B275, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A3, records!B2:B285, "&gt;=" &amp; template!Y1,records!B2:B285, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z3">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3, records!B2:B275, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A3, records!B2:B285, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA3">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3,records!G2:G275,template!AA1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A3,records!G2:G285,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB3">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3,records!G2:G275,template!AB1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A3,records!G2:G285,template!AB1)</f>
         <v>22</v>
       </c>
       <c r="AC3">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3,records!G2:G275,template!AC1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A3,records!G2:G285,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD3">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3,records!G2:G275,template!AD1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A3,records!G2:G285,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE3">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3,records!C2:C275,template!AE1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A3,records!C2:C285,template!AE1)</f>
         <v>6</v>
       </c>
       <c r="AF3">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3,records!C2:C275,template!AF1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A3,records!C2:C285,template!AF1)</f>
         <v>16</v>
       </c>
       <c r="AG3">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3,records!C2:C275,template!AG1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A3,records!C2:C285,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH3">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3,records!C2:C275,template!AH1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A3,records!C2:C285,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI3">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3,records!C2:C275,template!AI1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A3,records!C2:C285,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ3">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3,records!C2:C275,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A3,records!C2:C285,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK3">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3,records!C2:C275,template!AK1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A3,records!C2:C285,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL3">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3,records!C2:C275,template!AL1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A3,records!C2:C285,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM3">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3,records!C2:C275,template!AM1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A3,records!C2:C285,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN3">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3,records!C2:C275,template!AN1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A3,records!C2:C285,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO3">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3,records!C2:C275,template!AO1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A3,records!C2:C285,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP3">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A3,records!C2:C275,template!AP1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A3,records!C2:C285,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -30791,163 +30941,163 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!C1,records!B2:B275, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A4, records!B2:B285, "&gt;=" &amp; template!C1,records!B2:B285, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D4" s="14">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!D1,records!B2:B275, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A4, records!B2:B285, "&gt;=" &amp; template!D1,records!B2:B285, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!E1,records!B2:B275, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A4, records!B2:B285, "&gt;=" &amp; template!E1,records!B2:B285, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!F1,records!B2:B275, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A4, records!B2:B285, "&gt;=" &amp; template!F1,records!B2:B285, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G4">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!G1,records!B2:B275, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A4, records!B2:B285, "&gt;=" &amp; template!G1,records!B2:B285, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!H1,records!B2:B275, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A4, records!B2:B285, "&gt;=" &amp; template!H1,records!B2:B285, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!I1,records!B2:B275, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A4, records!B2:B285, "&gt;=" &amp; template!I1,records!B2:B285, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!J1,records!B2:B275, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A4, records!B2:B285, "&gt;=" &amp; template!J1,records!B2:B285, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!K1,records!B2:B275, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A4, records!B2:B285, "&gt;=" &amp; template!K1,records!B2:B285, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L4">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!L1,records!B2:B275, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A4, records!B2:B285, "&gt;=" &amp; template!L1,records!B2:B285, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M4">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!M1,records!B2:B275, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A4, records!B2:B285, "&gt;=" &amp; template!M1,records!B2:B285, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!N1,records!B2:B275, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A4, records!B2:B285, "&gt;=" &amp; template!N1,records!B2:B285, "&lt;" &amp; template!O1)</f>
         <v>16</v>
       </c>
       <c r="O4">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!O1,records!B2:B275, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A4, records!B2:B285, "&gt;=" &amp; template!O1,records!B2:B285, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P4">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!P1,records!B2:B275, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A4, records!B2:B285, "&gt;=" &amp; template!P1,records!B2:B285, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!Q1,records!B2:B275, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A4, records!B2:B285, "&gt;=" &amp; template!Q1,records!B2:B285, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R4">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!R1,records!B2:B275, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A4, records!B2:B285, "&gt;=" &amp; template!R1,records!B2:B285, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S4">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!S1,records!B2:B275, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A4, records!B2:B285, "&gt;=" &amp; template!S1,records!B2:B285, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T4">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!T1,records!B2:B275, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A4, records!B2:B285, "&gt;=" &amp; template!T1,records!B2:B285, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U4">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!U1,records!B2:B275, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A4, records!B2:B285, "&gt;=" &amp; template!U1,records!B2:B285, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V4">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!V1,records!B2:B275, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A4, records!B2:B285, "&gt;=" &amp; template!V1,records!B2:B285, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W4">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!W1,records!B2:B275, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A4, records!B2:B285, "&gt;=" &amp; template!W1,records!B2:B285, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X4">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!X1,records!B2:B275, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A4, records!B2:B285, "&gt;=" &amp; template!X1,records!B2:B285, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y4">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!Y1,records!B2:B275, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A4, records!B2:B285, "&gt;=" &amp; template!Y1,records!B2:B285, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z4">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4, records!B2:B275, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A4, records!B2:B285, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA4">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4,records!G2:G275,template!AA1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A4,records!G2:G285,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB4">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4,records!G2:G275,template!AB1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A4,records!G2:G285,template!AB1)</f>
         <v>16</v>
       </c>
       <c r="AC4">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4,records!G2:G275,template!AC1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A4,records!G2:G285,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD4">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4,records!G2:G275,template!AD1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A4,records!G2:G285,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE4">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4,records!C2:C275,template!AE1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A4,records!C2:C285,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF4">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4,records!C2:C275,template!AF1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A4,records!C2:C285,template!AF1)</f>
         <v>16</v>
       </c>
       <c r="AG4">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4,records!C2:C275,template!AG1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A4,records!C2:C285,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH4">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4,records!C2:C275,template!AH1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A4,records!C2:C285,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI4">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4,records!C2:C275,template!AI1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A4,records!C2:C285,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ4">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4,records!C2:C275,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A4,records!C2:C285,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK4">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4,records!C2:C275,template!AK1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A4,records!C2:C285,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL4">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4,records!C2:C275,template!AL1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A4,records!C2:C285,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM4">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4,records!C2:C275,template!AM1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A4,records!C2:C285,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN4">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4,records!C2:C275,template!AN1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A4,records!C2:C285,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO4">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4,records!C2:C275,template!AO1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A4,records!C2:C285,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP4">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A4,records!C2:C275,template!AP1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A4,records!C2:C285,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -30960,163 +31110,163 @@
         <v>69</v>
       </c>
       <c r="C5">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!C1,records!B2:B275, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A5, records!B2:B285, "&gt;=" &amp; template!C1,records!B2:B285, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D5" s="14">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!D1,records!B2:B275, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A5, records!B2:B285, "&gt;=" &amp; template!D1,records!B2:B285, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E5">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!E1,records!B2:B275, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A5, records!B2:B285, "&gt;=" &amp; template!E1,records!B2:B285, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F5">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!F1,records!B2:B275, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A5, records!B2:B285, "&gt;=" &amp; template!F1,records!B2:B285, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G5">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!G1,records!B2:B275, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A5, records!B2:B285, "&gt;=" &amp; template!G1,records!B2:B285, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H5">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!H1,records!B2:B275, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A5, records!B2:B285, "&gt;=" &amp; template!H1,records!B2:B285, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I5">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!I1,records!B2:B275, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A5, records!B2:B285, "&gt;=" &amp; template!I1,records!B2:B285, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J5">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!J1,records!B2:B275, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A5, records!B2:B285, "&gt;=" &amp; template!J1,records!B2:B285, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K5">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!K1,records!B2:B275, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A5, records!B2:B285, "&gt;=" &amp; template!K1,records!B2:B285, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L5">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!L1,records!B2:B275, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A5, records!B2:B285, "&gt;=" &amp; template!L1,records!B2:B285, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M5">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!M1,records!B2:B275, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A5, records!B2:B285, "&gt;=" &amp; template!M1,records!B2:B285, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N5">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!N1,records!B2:B275, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A5, records!B2:B285, "&gt;=" &amp; template!N1,records!B2:B285, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O5">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!O1,records!B2:B275, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A5, records!B2:B285, "&gt;=" &amp; template!O1,records!B2:B285, "&lt;" &amp; template!P1)</f>
         <v>34</v>
       </c>
       <c r="P5">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!P1,records!B2:B275, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A5, records!B2:B285, "&gt;=" &amp; template!P1,records!B2:B285, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q5">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!Q1,records!B2:B275, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A5, records!B2:B285, "&gt;=" &amp; template!Q1,records!B2:B285, "&lt;" &amp; template!R1)</f>
         <v>3</v>
       </c>
       <c r="R5">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!R1,records!B2:B275, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A5, records!B2:B285, "&gt;=" &amp; template!R1,records!B2:B285, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S5">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!S1,records!B2:B275, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A5, records!B2:B285, "&gt;=" &amp; template!S1,records!B2:B285, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T5">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!T1,records!B2:B275, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A5, records!B2:B285, "&gt;=" &amp; template!T1,records!B2:B285, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U5">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!U1,records!B2:B275, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A5, records!B2:B285, "&gt;=" &amp; template!U1,records!B2:B285, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V5">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!V1,records!B2:B275, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A5, records!B2:B285, "&gt;=" &amp; template!V1,records!B2:B285, "&lt;" &amp; template!W1)</f>
         <v>32</v>
       </c>
       <c r="W5">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!W1,records!B2:B275, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A5, records!B2:B285, "&gt;=" &amp; template!W1,records!B2:B285, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X5">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!X1,records!B2:B275, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A5, records!B2:B285, "&gt;=" &amp; template!X1,records!B2:B285, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y5">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!Y1,records!B2:B275, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A5, records!B2:B285, "&gt;=" &amp; template!Y1,records!B2:B285, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z5">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5, records!B2:B275, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A5, records!B2:B285, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA5">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5,records!G2:G275,template!AA1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A5,records!G2:G285,template!AA1)</f>
         <v>66</v>
       </c>
       <c r="AB5">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5,records!G2:G275,template!AB1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A5,records!G2:G285,template!AB1)</f>
         <v>3</v>
       </c>
       <c r="AC5">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5,records!G2:G275,template!AC1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A5,records!G2:G285,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD5">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5,records!G2:G275,template!AD1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A5,records!G2:G285,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE5">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5,records!C2:C275,template!AE1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A5,records!C2:C285,template!AE1)</f>
         <v>32</v>
       </c>
       <c r="AF5">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5,records!C2:C275,template!AF1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A5,records!C2:C285,template!AF1)</f>
         <v>34</v>
       </c>
       <c r="AG5">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5,records!C2:C275,template!AG1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A5,records!C2:C285,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH5">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5,records!C2:C275,template!AH1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A5,records!C2:C285,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI5">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5,records!C2:C275,template!AI1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A5,records!C2:C285,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ5">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5,records!C2:C275,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A5,records!C2:C285,template!AJ1)</f>
         <v>3</v>
       </c>
       <c r="AK5">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5,records!C2:C275,template!AK1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A5,records!C2:C285,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL5">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5,records!C2:C275,template!AL1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A5,records!C2:C285,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM5">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5,records!C2:C275,template!AM1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A5,records!C2:C285,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN5">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5,records!C2:C275,template!AN1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A5,records!C2:C285,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO5">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5,records!C2:C275,template!AO1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A5,records!C2:C285,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP5">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A5,records!C2:C275,template!AP1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A5,records!C2:C285,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -31129,163 +31279,163 @@
         <v>17</v>
       </c>
       <c r="C6">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!C1,records!B2:B275, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A6, records!B2:B285, "&gt;=" &amp; template!C1,records!B2:B285, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D6" s="14">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!D1,records!B2:B275, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A6, records!B2:B285, "&gt;=" &amp; template!D1,records!B2:B285, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E6">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!E1,records!B2:B275, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A6, records!B2:B285, "&gt;=" &amp; template!E1,records!B2:B285, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F6">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!F1,records!B2:B275, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A6, records!B2:B285, "&gt;=" &amp; template!F1,records!B2:B285, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!G1,records!B2:B275, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A6, records!B2:B285, "&gt;=" &amp; template!G1,records!B2:B285, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H6">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!H1,records!B2:B275, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A6, records!B2:B285, "&gt;=" &amp; template!H1,records!B2:B285, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I6">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!I1,records!B2:B275, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A6, records!B2:B285, "&gt;=" &amp; template!I1,records!B2:B285, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J6">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!J1,records!B2:B275, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A6, records!B2:B285, "&gt;=" &amp; template!J1,records!B2:B285, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K6">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!K1,records!B2:B275, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A6, records!B2:B285, "&gt;=" &amp; template!K1,records!B2:B285, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L6">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!L1,records!B2:B275, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A6, records!B2:B285, "&gt;=" &amp; template!L1,records!B2:B285, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M6">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!M1,records!B2:B275, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A6, records!B2:B285, "&gt;=" &amp; template!M1,records!B2:B285, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N6">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!N1,records!B2:B275, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A6, records!B2:B285, "&gt;=" &amp; template!N1,records!B2:B285, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O6">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!O1,records!B2:B275, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A6, records!B2:B285, "&gt;=" &amp; template!O1,records!B2:B285, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P6">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!P1,records!B2:B275, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A6, records!B2:B285, "&gt;=" &amp; template!P1,records!B2:B285, "&lt;" &amp; template!Q1)</f>
         <v>17</v>
       </c>
       <c r="Q6">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!Q1,records!B2:B275, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A6, records!B2:B285, "&gt;=" &amp; template!Q1,records!B2:B285, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R6">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!R1,records!B2:B275, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A6, records!B2:B285, "&gt;=" &amp; template!R1,records!B2:B285, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S6">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!S1,records!B2:B275, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A6, records!B2:B285, "&gt;=" &amp; template!S1,records!B2:B285, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T6">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!T1,records!B2:B275, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A6, records!B2:B285, "&gt;=" &amp; template!T1,records!B2:B285, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U6">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!U1,records!B2:B275, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A6, records!B2:B285, "&gt;=" &amp; template!U1,records!B2:B285, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V6">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!V1,records!B2:B275, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A6, records!B2:B285, "&gt;=" &amp; template!V1,records!B2:B285, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W6">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!W1,records!B2:B275, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A6, records!B2:B285, "&gt;=" &amp; template!W1,records!B2:B285, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X6">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!X1,records!B2:B275, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A6, records!B2:B285, "&gt;=" &amp; template!X1,records!B2:B285, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y6">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!Y1,records!B2:B275, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A6, records!B2:B285, "&gt;=" &amp; template!Y1,records!B2:B285, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z6">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6, records!B2:B275, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A6, records!B2:B285, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA6">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6,records!G2:G275,template!AA1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A6,records!G2:G285,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB6">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6,records!G2:G275,template!AB1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A6,records!G2:G285,template!AB1)</f>
         <v>17</v>
       </c>
       <c r="AC6">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6,records!G2:G275,template!AC1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A6,records!G2:G285,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD6">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6,records!G2:G275,template!AD1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A6,records!G2:G285,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE6">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6,records!C2:C275,template!AE1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A6,records!C2:C285,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF6">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6,records!C2:C275,template!AF1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A6,records!C2:C285,template!AF1)</f>
         <v>17</v>
       </c>
       <c r="AG6">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6,records!C2:C275,template!AG1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A6,records!C2:C285,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH6">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6,records!C2:C275,template!AH1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A6,records!C2:C285,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI6">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6,records!C2:C275,template!AI1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A6,records!C2:C285,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ6">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6,records!C2:C275,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A6,records!C2:C285,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK6">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6,records!C2:C275,template!AK1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A6,records!C2:C285,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL6">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6,records!C2:C275,template!AL1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A6,records!C2:C285,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM6">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6,records!C2:C275,template!AM1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A6,records!C2:C285,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN6">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6,records!C2:C275,template!AN1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A6,records!C2:C285,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO6">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6,records!C2:C275,template!AO1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A6,records!C2:C285,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP6">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A6,records!C2:C275,template!AP1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A6,records!C2:C285,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -31298,163 +31448,163 @@
         <v>146.69999999999999</v>
       </c>
       <c r="C7">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!C1,records!B2:B275, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A7, records!B2:B285, "&gt;=" &amp; template!C1,records!B2:B285, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D7" s="14">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!D1,records!B2:B275, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A7, records!B2:B285, "&gt;=" &amp; template!D1,records!B2:B285, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!E1,records!B2:B275, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A7, records!B2:B285, "&gt;=" &amp; template!E1,records!B2:B285, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F7">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!F1,records!B2:B275, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A7, records!B2:B285, "&gt;=" &amp; template!F1,records!B2:B285, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!G1,records!B2:B275, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A7, records!B2:B285, "&gt;=" &amp; template!G1,records!B2:B285, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H7">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!H1,records!B2:B275, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A7, records!B2:B285, "&gt;=" &amp; template!H1,records!B2:B285, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!I1,records!B2:B275, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A7, records!B2:B285, "&gt;=" &amp; template!I1,records!B2:B285, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!J1,records!B2:B275, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A7, records!B2:B285, "&gt;=" &amp; template!J1,records!B2:B285, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K7">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!K1,records!B2:B275, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A7, records!B2:B285, "&gt;=" &amp; template!K1,records!B2:B285, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L7">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!L1,records!B2:B275, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A7, records!B2:B285, "&gt;=" &amp; template!L1,records!B2:B285, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M7">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!M1,records!B2:B275, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A7, records!B2:B285, "&gt;=" &amp; template!M1,records!B2:B285, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N7">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!N1,records!B2:B275, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A7, records!B2:B285, "&gt;=" &amp; template!N1,records!B2:B285, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O7">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!O1,records!B2:B275, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A7, records!B2:B285, "&gt;=" &amp; template!O1,records!B2:B285, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P7">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!P1,records!B2:B275, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A7, records!B2:B285, "&gt;=" &amp; template!P1,records!B2:B285, "&lt;" &amp; template!Q1)</f>
         <v>16</v>
       </c>
       <c r="Q7">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!Q1,records!B2:B275, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A7, records!B2:B285, "&gt;=" &amp; template!Q1,records!B2:B285, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R7">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!R1,records!B2:B275, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A7, records!B2:B285, "&gt;=" &amp; template!R1,records!B2:B285, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S7">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!S1,records!B2:B275, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A7, records!B2:B285, "&gt;=" &amp; template!S1,records!B2:B285, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T7">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!T1,records!B2:B275, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A7, records!B2:B285, "&gt;=" &amp; template!T1,records!B2:B285, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U7">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!U1,records!B2:B275, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A7, records!B2:B285, "&gt;=" &amp; template!U1,records!B2:B285, "&lt;" &amp; template!V1)</f>
         <v>32</v>
       </c>
       <c r="V7">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!V1,records!B2:B275, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A7, records!B2:B285, "&gt;=" &amp; template!V1,records!B2:B285, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W7">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!W1,records!B2:B275, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A7, records!B2:B285, "&gt;=" &amp; template!W1,records!B2:B285, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X7">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!X1,records!B2:B275, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A7, records!B2:B285, "&gt;=" &amp; template!X1,records!B2:B285, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y7">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!Y1,records!B2:B275, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A7, records!B2:B285, "&gt;=" &amp; template!Y1,records!B2:B285, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z7">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7, records!B2:B275, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A7, records!B2:B285, "&gt;=" &amp; template!Z1)</f>
         <v>98.7</v>
       </c>
       <c r="AA7">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7,records!G2:G275,template!AA1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A7,records!G2:G285,template!AA1)</f>
         <v>37</v>
       </c>
       <c r="AB7">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7,records!G2:G275,template!AB1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A7,records!G2:G285,template!AB1)</f>
         <v>0</v>
       </c>
       <c r="AC7">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7,records!G2:G275,template!AC1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A7,records!G2:G285,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD7">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7,records!G2:G275,template!AD1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A7,records!G2:G285,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE7">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7,records!C2:C275,template!AE1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A7,records!C2:C285,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF7">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7,records!C2:C275,template!AF1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A7,records!C2:C285,template!AF1)</f>
         <v>16</v>
       </c>
       <c r="AG7">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7,records!C2:C275,template!AG1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A7,records!C2:C285,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH7">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7,records!C2:C275,template!AH1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A7,records!C2:C285,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI7">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7,records!C2:C275,template!AI1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A7,records!C2:C285,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ7">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7,records!C2:C275,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A7,records!C2:C285,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK7">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7,records!C2:C275,template!AK1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A7,records!C2:C285,template!AK1)</f>
         <v>11</v>
       </c>
       <c r="AL7">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7,records!C2:C275,template!AL1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A7,records!C2:C285,template!AL1)</f>
         <v>21</v>
       </c>
       <c r="AM7">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7,records!C2:C275,template!AM1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A7,records!C2:C285,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN7">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7,records!C2:C275,template!AN1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A7,records!C2:C285,template!AN1)</f>
         <v>98.7</v>
       </c>
       <c r="AO7">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7,records!C2:C275,template!AO1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A7,records!C2:C285,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP7">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A7,records!C2:C275,template!AP1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A7,records!C2:C285,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -31467,163 +31617,163 @@
         <v>2017.98</v>
       </c>
       <c r="C8">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!C1,records!B2:B275, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A8, records!B2:B285, "&gt;=" &amp; template!C1,records!B2:B285, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D8" s="14">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!D1,records!B2:B275, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A8, records!B2:B285, "&gt;=" &amp; template!D1,records!B2:B285, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E8">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!E1,records!B2:B275, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A8, records!B2:B285, "&gt;=" &amp; template!E1,records!B2:B285, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!F1,records!B2:B275, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A8, records!B2:B285, "&gt;=" &amp; template!F1,records!B2:B285, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!G1,records!B2:B275, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A8, records!B2:B285, "&gt;=" &amp; template!G1,records!B2:B285, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!H1,records!B2:B275, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A8, records!B2:B285, "&gt;=" &amp; template!H1,records!B2:B285, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!I1,records!B2:B275, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A8, records!B2:B285, "&gt;=" &amp; template!I1,records!B2:B285, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!J1,records!B2:B275, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A8, records!B2:B285, "&gt;=" &amp; template!J1,records!B2:B285, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K8">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!K1,records!B2:B275, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A8, records!B2:B285, "&gt;=" &amp; template!K1,records!B2:B285, "&lt;" &amp; template!L1)</f>
         <v>2000</v>
       </c>
       <c r="L8">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!L1,records!B2:B275, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A8, records!B2:B285, "&gt;=" &amp; template!L1,records!B2:B285, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M8">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!M1,records!B2:B275, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A8, records!B2:B285, "&gt;=" &amp; template!M1,records!B2:B285, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N8">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!N1,records!B2:B275, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A8, records!B2:B285, "&gt;=" &amp; template!N1,records!B2:B285, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O8">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!O1,records!B2:B275, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A8, records!B2:B285, "&gt;=" &amp; template!O1,records!B2:B285, "&lt;" &amp; template!P1)</f>
         <v>17.98</v>
       </c>
       <c r="P8">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!P1,records!B2:B275, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A8, records!B2:B285, "&gt;=" &amp; template!P1,records!B2:B285, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!Q1,records!B2:B275, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A8, records!B2:B285, "&gt;=" &amp; template!Q1,records!B2:B285, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R8">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!R1,records!B2:B275, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A8, records!B2:B285, "&gt;=" &amp; template!R1,records!B2:B285, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S8">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!S1,records!B2:B275, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A8, records!B2:B285, "&gt;=" &amp; template!S1,records!B2:B285, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T8">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!T1,records!B2:B275, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A8, records!B2:B285, "&gt;=" &amp; template!T1,records!B2:B285, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U8">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!U1,records!B2:B275, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A8, records!B2:B285, "&gt;=" &amp; template!U1,records!B2:B285, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V8">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!V1,records!B2:B275, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A8, records!B2:B285, "&gt;=" &amp; template!V1,records!B2:B285, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W8">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!W1,records!B2:B275, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A8, records!B2:B285, "&gt;=" &amp; template!W1,records!B2:B285, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X8">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!X1,records!B2:B275, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A8, records!B2:B285, "&gt;=" &amp; template!X1,records!B2:B285, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y8">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!Y1,records!B2:B275, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A8, records!B2:B285, "&gt;=" &amp; template!Y1,records!B2:B285, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z8">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8, records!B2:B275, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A8, records!B2:B285, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA8">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8,records!G2:G275,template!AA1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A8,records!G2:G285,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB8">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8,records!G2:G275,template!AB1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A8,records!G2:G285,template!AB1)</f>
         <v>2000</v>
       </c>
       <c r="AC8">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8,records!G2:G275,template!AC1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A8,records!G2:G285,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD8">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8,records!G2:G275,template!AD1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A8,records!G2:G285,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE8">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8,records!C2:C275,template!AE1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A8,records!C2:C285,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF8">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8,records!C2:C275,template!AF1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A8,records!C2:C285,template!AF1)</f>
         <v>17.98</v>
       </c>
       <c r="AG8">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8,records!C2:C275,template!AG1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A8,records!C2:C285,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH8">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8,records!C2:C275,template!AH1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A8,records!C2:C285,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI8">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8,records!C2:C275,template!AI1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A8,records!C2:C285,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ8">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8,records!C2:C275,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A8,records!C2:C285,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK8">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8,records!C2:C275,template!AK1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A8,records!C2:C285,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL8">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8,records!C2:C275,template!AL1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A8,records!C2:C285,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM8">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8,records!C2:C275,template!AM1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A8,records!C2:C285,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN8">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8,records!C2:C275,template!AN1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A8,records!C2:C285,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO8">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8,records!C2:C275,template!AO1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A8,records!C2:C285,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP8">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A8,records!C2:C275,template!AP1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A8,records!C2:C285,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -31636,163 +31786,163 @@
         <v>1532.5</v>
       </c>
       <c r="C9">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!C1,records!B2:B275, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A9, records!B2:B285, "&gt;=" &amp; template!C1,records!B2:B285, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D9" s="14">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!D1,records!B2:B275, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A9, records!B2:B285, "&gt;=" &amp; template!D1,records!B2:B285, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!E1,records!B2:B275, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A9, records!B2:B285, "&gt;=" &amp; template!E1,records!B2:B285, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!F1,records!B2:B275, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A9, records!B2:B285, "&gt;=" &amp; template!F1,records!B2:B285, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!G1,records!B2:B275, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A9, records!B2:B285, "&gt;=" &amp; template!G1,records!B2:B285, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H9">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!H1,records!B2:B275, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A9, records!B2:B285, "&gt;=" &amp; template!H1,records!B2:B285, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!I1,records!B2:B275, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A9, records!B2:B285, "&gt;=" &amp; template!I1,records!B2:B285, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!J1,records!B2:B275, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A9, records!B2:B285, "&gt;=" &amp; template!J1,records!B2:B285, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K9">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!K1,records!B2:B275, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A9, records!B2:B285, "&gt;=" &amp; template!K1,records!B2:B285, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L9">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!L1,records!B2:B275, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A9, records!B2:B285, "&gt;=" &amp; template!L1,records!B2:B285, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M9">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!M1,records!B2:B275, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A9, records!B2:B285, "&gt;=" &amp; template!M1,records!B2:B285, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N9">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!N1,records!B2:B275, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A9, records!B2:B285, "&gt;=" &amp; template!N1,records!B2:B285, "&lt;" &amp; template!O1)</f>
         <v>2</v>
       </c>
       <c r="O9">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!O1,records!B2:B275, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A9, records!B2:B285, "&gt;=" &amp; template!O1,records!B2:B285, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P9">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!P1,records!B2:B275, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A9, records!B2:B285, "&gt;=" &amp; template!P1,records!B2:B285, "&lt;" &amp; template!Q1)</f>
         <v>20</v>
       </c>
       <c r="Q9">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!Q1,records!B2:B275, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A9, records!B2:B285, "&gt;=" &amp; template!Q1,records!B2:B285, "&lt;" &amp; template!R1)</f>
         <v>10.5</v>
       </c>
       <c r="R9">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!R1,records!B2:B275, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A9, records!B2:B285, "&gt;=" &amp; template!R1,records!B2:B285, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S9">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!S1,records!B2:B275, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A9, records!B2:B285, "&gt;=" &amp; template!S1,records!B2:B285, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T9">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!T1,records!B2:B275, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A9, records!B2:B285, "&gt;=" &amp; template!T1,records!B2:B285, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U9">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!U1,records!B2:B275, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A9, records!B2:B285, "&gt;=" &amp; template!U1,records!B2:B285, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V9">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!V1,records!B2:B275, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A9, records!B2:B285, "&gt;=" &amp; template!V1,records!B2:B285, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W9">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!W1,records!B2:B275, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A9, records!B2:B285, "&gt;=" &amp; template!W1,records!B2:B285, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X9">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!X1,records!B2:B275, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A9, records!B2:B285, "&gt;=" &amp; template!X1,records!B2:B285, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y9">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!Y1,records!B2:B275, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A9, records!B2:B285, "&gt;=" &amp; template!Y1,records!B2:B285, "&lt;" &amp; template!Z1)</f>
         <v>1500</v>
       </c>
       <c r="Z9">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9, records!B2:B275, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A9, records!B2:B285, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA9">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9,records!G2:G275,template!AA1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A9,records!G2:G285,template!AA1)</f>
         <v>1502</v>
       </c>
       <c r="AB9">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9,records!G2:G275,template!AB1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A9,records!G2:G285,template!AB1)</f>
         <v>30.5</v>
       </c>
       <c r="AC9">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9,records!G2:G275,template!AC1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A9,records!G2:G285,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD9">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9,records!G2:G275,template!AD1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A9,records!G2:G285,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE9">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9,records!C2:C275,template!AE1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A9,records!C2:C285,template!AE1)</f>
         <v>2</v>
       </c>
       <c r="AF9">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9,records!C2:C275,template!AF1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A9,records!C2:C285,template!AF1)</f>
         <v>20</v>
       </c>
       <c r="AG9">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9,records!C2:C275,template!AG1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A9,records!C2:C285,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH9">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9,records!C2:C275,template!AH1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A9,records!C2:C285,template!AH1)</f>
         <v>1500</v>
       </c>
       <c r="AI9">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9,records!C2:C275,template!AI1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A9,records!C2:C285,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ9">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9,records!C2:C275,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A9,records!C2:C285,template!AJ1)</f>
         <v>10.5</v>
       </c>
       <c r="AK9">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9,records!C2:C275,template!AK1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A9,records!C2:C285,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL9">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9,records!C2:C275,template!AL1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A9,records!C2:C285,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM9">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9,records!C2:C275,template!AM1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A9,records!C2:C285,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN9">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9,records!C2:C275,template!AN1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A9,records!C2:C285,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO9">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9,records!C2:C275,template!AO1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A9,records!C2:C285,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP9">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A9,records!C2:C275,template!AP1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A9,records!C2:C285,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -31805,163 +31955,163 @@
         <v>109</v>
       </c>
       <c r="C10">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!C1,records!B2:B275, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A10, records!B2:B285, "&gt;=" &amp; template!C1,records!B2:B285, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D10" s="14">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!D1,records!B2:B275, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A10, records!B2:B285, "&gt;=" &amp; template!D1,records!B2:B285, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E10">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!E1,records!B2:B275, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A10, records!B2:B285, "&gt;=" &amp; template!E1,records!B2:B285, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F10">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!F1,records!B2:B275, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A10, records!B2:B285, "&gt;=" &amp; template!F1,records!B2:B285, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G10">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!G1,records!B2:B275, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A10, records!B2:B285, "&gt;=" &amp; template!G1,records!B2:B285, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H10">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!H1,records!B2:B275, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A10, records!B2:B285, "&gt;=" &amp; template!H1,records!B2:B285, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I10">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!I1,records!B2:B275, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A10, records!B2:B285, "&gt;=" &amp; template!I1,records!B2:B285, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!J1,records!B2:B275, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A10, records!B2:B285, "&gt;=" &amp; template!J1,records!B2:B285, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K10">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!K1,records!B2:B275, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A10, records!B2:B285, "&gt;=" &amp; template!K1,records!B2:B285, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L10">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!L1,records!B2:B275, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A10, records!B2:B285, "&gt;=" &amp; template!L1,records!B2:B285, "&lt;" &amp; template!M1)</f>
         <v>18</v>
       </c>
       <c r="M10">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!M1,records!B2:B275, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A10, records!B2:B285, "&gt;=" &amp; template!M1,records!B2:B285, "&lt;" &amp; template!N1)</f>
         <v>15</v>
       </c>
       <c r="N10">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!N1,records!B2:B275, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A10, records!B2:B285, "&gt;=" &amp; template!N1,records!B2:B285, "&lt;" &amp; template!O1)</f>
         <v>30</v>
       </c>
       <c r="O10">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!O1,records!B2:B275, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A10, records!B2:B285, "&gt;=" &amp; template!O1,records!B2:B285, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P10">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!P1,records!B2:B275, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A10, records!B2:B285, "&gt;=" &amp; template!P1,records!B2:B285, "&lt;" &amp; template!Q1)</f>
         <v>30</v>
       </c>
       <c r="Q10">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!Q1,records!B2:B275, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A10, records!B2:B285, "&gt;=" &amp; template!Q1,records!B2:B285, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R10">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!R1,records!B2:B275, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A10, records!B2:B285, "&gt;=" &amp; template!R1,records!B2:B285, "&lt;" &amp; template!S1)</f>
         <v>6</v>
       </c>
       <c r="S10">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!S1,records!B2:B275, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A10, records!B2:B285, "&gt;=" &amp; template!S1,records!B2:B285, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T10">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!T1,records!B2:B275, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A10, records!B2:B285, "&gt;=" &amp; template!T1,records!B2:B285, "&lt;" &amp; template!U1)</f>
         <v>10</v>
       </c>
       <c r="U10">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!U1,records!B2:B275, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A10, records!B2:B285, "&gt;=" &amp; template!U1,records!B2:B285, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V10">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!V1,records!B2:B275, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A10, records!B2:B285, "&gt;=" &amp; template!V1,records!B2:B285, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W10">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!W1,records!B2:B275, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A10, records!B2:B285, "&gt;=" &amp; template!W1,records!B2:B285, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X10">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!X1,records!B2:B275, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A10, records!B2:B285, "&gt;=" &amp; template!X1,records!B2:B285, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y10">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!Y1,records!B2:B275, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A10, records!B2:B285, "&gt;=" &amp; template!Y1,records!B2:B285, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z10">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10, records!B2:B275, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A10, records!B2:B285, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA10">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10,records!G2:G275,template!AA1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A10,records!G2:G285,template!AA1)</f>
         <v>94</v>
       </c>
       <c r="AB10">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10,records!G2:G275,template!AB1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A10,records!G2:G285,template!AB1)</f>
         <v>0</v>
       </c>
       <c r="AC10">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10,records!G2:G275,template!AC1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A10,records!G2:G285,template!AC1)</f>
         <v>15</v>
       </c>
       <c r="AD10">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10,records!G2:G275,template!AD1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A10,records!G2:G285,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE10">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10,records!C2:C275,template!AE1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A10,records!C2:C285,template!AE1)</f>
         <v>33</v>
       </c>
       <c r="AF10">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10,records!C2:C275,template!AF1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A10,records!C2:C285,template!AF1)</f>
         <v>30</v>
       </c>
       <c r="AG10">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10,records!C2:C275,template!AG1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A10,records!C2:C285,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH10">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10,records!C2:C275,template!AH1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A10,records!C2:C285,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI10">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10,records!C2:C275,template!AI1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A10,records!C2:C285,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ10">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10,records!C2:C275,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A10,records!C2:C285,template!AJ1)</f>
         <v>6</v>
       </c>
       <c r="AK10">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10,records!C2:C275,template!AK1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A10,records!C2:C285,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL10">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10,records!C2:C275,template!AL1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A10,records!C2:C285,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM10">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10,records!C2:C275,template!AM1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A10,records!C2:C285,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN10">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10,records!C2:C275,template!AN1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A10,records!C2:C285,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO10">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10,records!C2:C275,template!AO1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A10,records!C2:C285,template!AO1)</f>
         <v>10</v>
       </c>
       <c r="AP10">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A10,records!C2:C275,template!AP1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A10,records!C2:C285,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -31974,163 +32124,163 @@
         <v>115</v>
       </c>
       <c r="C11">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!C1,records!B2:B275, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A11, records!B2:B285, "&gt;=" &amp; template!C1,records!B2:B285, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D11" s="14">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!D1,records!B2:B275, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A11, records!B2:B285, "&gt;=" &amp; template!D1,records!B2:B285, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E11">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!E1,records!B2:B275, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A11, records!B2:B285, "&gt;=" &amp; template!E1,records!B2:B285, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F11">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!F1,records!B2:B275, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A11, records!B2:B285, "&gt;=" &amp; template!F1,records!B2:B285, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G11">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!G1,records!B2:B275, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A11, records!B2:B285, "&gt;=" &amp; template!G1,records!B2:B285, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H11">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!H1,records!B2:B275, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A11, records!B2:B285, "&gt;=" &amp; template!H1,records!B2:B285, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I11">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!I1,records!B2:B275, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A11, records!B2:B285, "&gt;=" &amp; template!I1,records!B2:B285, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!J1,records!B2:B275, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A11, records!B2:B285, "&gt;=" &amp; template!J1,records!B2:B285, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K11">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!K1,records!B2:B275, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A11, records!B2:B285, "&gt;=" &amp; template!K1,records!B2:B285, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L11">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!L1,records!B2:B275, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A11, records!B2:B285, "&gt;=" &amp; template!L1,records!B2:B285, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M11">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!M1,records!B2:B275, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A11, records!B2:B285, "&gt;=" &amp; template!M1,records!B2:B285, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N11">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!N1,records!B2:B275, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A11, records!B2:B285, "&gt;=" &amp; template!N1,records!B2:B285, "&lt;" &amp; template!O1)</f>
         <v>18</v>
       </c>
       <c r="O11">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!O1,records!B2:B275, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A11, records!B2:B285, "&gt;=" &amp; template!O1,records!B2:B285, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P11">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!P1,records!B2:B275, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A11, records!B2:B285, "&gt;=" &amp; template!P1,records!B2:B285, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q11">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!Q1,records!B2:B275, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A11, records!B2:B285, "&gt;=" &amp; template!Q1,records!B2:B285, "&lt;" &amp; template!R1)</f>
         <v>51</v>
       </c>
       <c r="R11">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!R1,records!B2:B275, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A11, records!B2:B285, "&gt;=" &amp; template!R1,records!B2:B285, "&lt;" &amp; template!S1)</f>
         <v>15</v>
       </c>
       <c r="S11">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!S1,records!B2:B275, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A11, records!B2:B285, "&gt;=" &amp; template!S1,records!B2:B285, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T11">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!T1,records!B2:B275, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A11, records!B2:B285, "&gt;=" &amp; template!T1,records!B2:B285, "&lt;" &amp; template!U1)</f>
         <v>31</v>
       </c>
       <c r="U11">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!U1,records!B2:B275, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A11, records!B2:B285, "&gt;=" &amp; template!U1,records!B2:B285, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V11">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!V1,records!B2:B275, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A11, records!B2:B285, "&gt;=" &amp; template!V1,records!B2:B285, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W11">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!W1,records!B2:B275, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A11, records!B2:B285, "&gt;=" &amp; template!W1,records!B2:B285, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X11">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!X1,records!B2:B275, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A11, records!B2:B285, "&gt;=" &amp; template!X1,records!B2:B285, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y11">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!Y1,records!B2:B275, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A11, records!B2:B285, "&gt;=" &amp; template!Y1,records!B2:B285, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z11">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11, records!B2:B275, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A11, records!B2:B285, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA11">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11,records!G2:G275,template!AA1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A11,records!G2:G285,template!AA1)</f>
         <v>49</v>
       </c>
       <c r="AB11">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11,records!G2:G275,template!AB1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A11,records!G2:G285,template!AB1)</f>
         <v>51</v>
       </c>
       <c r="AC11">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11,records!G2:G275,template!AC1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A11,records!G2:G285,template!AC1)</f>
         <v>15</v>
       </c>
       <c r="AD11">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11,records!G2:G275,template!AD1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A11,records!G2:G285,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE11">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11,records!C2:C275,template!AE1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A11,records!C2:C285,template!AE1)</f>
         <v>64</v>
       </c>
       <c r="AF11">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11,records!C2:C275,template!AF1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A11,records!C2:C285,template!AF1)</f>
         <v>51</v>
       </c>
       <c r="AG11">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11,records!C2:C275,template!AG1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A11,records!C2:C285,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH11">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11,records!C2:C275,template!AH1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A11,records!C2:C285,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI11">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11,records!C2:C275,template!AI1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A11,records!C2:C285,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ11">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11,records!C2:C275,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A11,records!C2:C285,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK11">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11,records!C2:C275,template!AK1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A11,records!C2:C285,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL11">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11,records!C2:C275,template!AL1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A11,records!C2:C285,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM11">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11,records!C2:C275,template!AM1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A11,records!C2:C285,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN11">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11,records!C2:C275,template!AN1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A11,records!C2:C285,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO11">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11,records!C2:C275,template!AO1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A11,records!C2:C285,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP11">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A11,records!C2:C275,template!AP1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A11,records!C2:C285,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -32143,163 +32293,163 @@
         <v>100</v>
       </c>
       <c r="C12">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!C1,records!B2:B275, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A12, records!B2:B285, "&gt;=" &amp; template!C1,records!B2:B285, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D12" s="14">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!D1,records!B2:B275, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A12, records!B2:B285, "&gt;=" &amp; template!D1,records!B2:B285, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E12">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!E1,records!B2:B275, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A12, records!B2:B285, "&gt;=" &amp; template!E1,records!B2:B285, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F12">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!F1,records!B2:B275, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A12, records!B2:B285, "&gt;=" &amp; template!F1,records!B2:B285, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G12">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!G1,records!B2:B275, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A12, records!B2:B285, "&gt;=" &amp; template!G1,records!B2:B285, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H12">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!H1,records!B2:B275, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A12, records!B2:B285, "&gt;=" &amp; template!H1,records!B2:B285, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I12">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!I1,records!B2:B275, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A12, records!B2:B285, "&gt;=" &amp; template!I1,records!B2:B285, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!J1,records!B2:B275, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A12, records!B2:B285, "&gt;=" &amp; template!J1,records!B2:B285, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K12">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!K1,records!B2:B275, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A12, records!B2:B285, "&gt;=" &amp; template!K1,records!B2:B285, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L12">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!L1,records!B2:B275, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A12, records!B2:B285, "&gt;=" &amp; template!L1,records!B2:B285, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M12">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!M1,records!B2:B275, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A12, records!B2:B285, "&gt;=" &amp; template!M1,records!B2:B285, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N12">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!N1,records!B2:B275, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A12, records!B2:B285, "&gt;=" &amp; template!N1,records!B2:B285, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O12">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!O1,records!B2:B275, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A12, records!B2:B285, "&gt;=" &amp; template!O1,records!B2:B285, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P12">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!P1,records!B2:B275, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A12, records!B2:B285, "&gt;=" &amp; template!P1,records!B2:B285, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q12">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!Q1,records!B2:B275, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A12, records!B2:B285, "&gt;=" &amp; template!Q1,records!B2:B285, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R12">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!R1,records!B2:B275, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A12, records!B2:B285, "&gt;=" &amp; template!R1,records!B2:B285, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S12">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!S1,records!B2:B275, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A12, records!B2:B285, "&gt;=" &amp; template!S1,records!B2:B285, "&lt;" &amp; template!T1)</f>
         <v>88</v>
       </c>
       <c r="T12">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!T1,records!B2:B275, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A12, records!B2:B285, "&gt;=" &amp; template!T1,records!B2:B285, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U12">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!U1,records!B2:B275, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A12, records!B2:B285, "&gt;=" &amp; template!U1,records!B2:B285, "&lt;" &amp; template!V1)</f>
         <v>12</v>
       </c>
       <c r="V12">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!V1,records!B2:B275, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A12, records!B2:B285, "&gt;=" &amp; template!V1,records!B2:B285, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W12">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!W1,records!B2:B275, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A12, records!B2:B285, "&gt;=" &amp; template!W1,records!B2:B285, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X12">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!X1,records!B2:B275, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A12, records!B2:B285, "&gt;=" &amp; template!X1,records!B2:B285, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y12">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!Y1,records!B2:B275, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A12, records!B2:B285, "&gt;=" &amp; template!Y1,records!B2:B285, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z12">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12, records!B2:B275, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A12, records!B2:B285, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA12">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12,records!G2:G275,template!AA1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A12,records!G2:G285,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB12">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12,records!G2:G275,template!AB1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A12,records!G2:G285,template!AB1)</f>
         <v>100</v>
       </c>
       <c r="AC12">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12,records!G2:G275,template!AC1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A12,records!G2:G285,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD12">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12,records!G2:G275,template!AD1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A12,records!G2:G285,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE12">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12,records!C2:C275,template!AE1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A12,records!C2:C285,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF12">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12,records!C2:C275,template!AF1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A12,records!C2:C285,template!AF1)</f>
         <v>0</v>
       </c>
       <c r="AG12">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12,records!C2:C275,template!AG1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A12,records!C2:C285,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH12">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12,records!C2:C275,template!AH1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A12,records!C2:C285,template!AH1)</f>
         <v>88</v>
       </c>
       <c r="AI12">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12,records!C2:C275,template!AI1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A12,records!C2:C285,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ12">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12,records!C2:C275,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A12,records!C2:C285,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK12">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12,records!C2:C275,template!AK1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A12,records!C2:C285,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL12">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12,records!C2:C275,template!AL1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A12,records!C2:C285,template!AL1)</f>
         <v>12</v>
       </c>
       <c r="AM12">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12,records!C2:C275,template!AM1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A12,records!C2:C285,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN12">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12,records!C2:C275,template!AN1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A12,records!C2:C285,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO12">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12,records!C2:C275,template!AO1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A12,records!C2:C285,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP12">
-        <f>SUMIFS(records!E2:E275,records!A2:A275,template!A12,records!C2:C275,template!AP1)</f>
+        <f>SUMIFS(records!E2:E285,records!A2:A285,template!A12,records!C2:C285,template!AP1)</f>
         <v>0</v>
       </c>
     </row>

--- a/excel/ledger.xlsx
+++ b/excel/ledger.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29353CC8-013C-E54B-AC85-BC71BD65CC77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C0422D-E8D7-7744-89E4-3ACAD41689D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="11440" windowWidth="13640" windowHeight="11280" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
+    <workbookView xWindow="19520" yWindow="7120" windowWidth="13640" windowHeight="11280" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
-    <sheet name="day" sheetId="6" r:id="rId2"/>
-    <sheet name="week" sheetId="2" r:id="rId3"/>
-    <sheet name="month" sheetId="3" r:id="rId4"/>
-    <sheet name="year" sheetId="4" r:id="rId5"/>
-    <sheet name="template" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="day" sheetId="6" r:id="rId3"/>
+    <sheet name="week" sheetId="2" r:id="rId4"/>
+    <sheet name="month" sheetId="3" r:id="rId5"/>
+    <sheet name="year" sheetId="4" r:id="rId6"/>
+    <sheet name="template" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5509" uniqueCount="1324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6287" uniqueCount="1422">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1589,6 +1590,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线 (正文)"/>
+        <charset val="134"/>
       </rPr>
       <t>已取消</t>
     </r>
@@ -5155,6 +5157,377 @@
     <t>粉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>金额(?)</t>
+  </si>
+  <si>
+    <t>夜宵</t>
+  </si>
+  <si>
+    <t>挂号费</t>
+  </si>
+  <si>
+    <t>古力巴戈新疆核桃2019新货纸皮核桃原味薄皮核桃原味核桃仁包邮</t>
+  </si>
+  <si>
+    <t>纯水乐饮用纯净水整箱矿泉水550ml*24瓶大瓶 等多件</t>
+  </si>
+  <si>
+    <t>淘宝-天猫超市</t>
+  </si>
+  <si>
+    <t>GOLDENSUN/金日 甲硝唑片 0.2g*48片/盒 等多件</t>
+  </si>
+  <si>
+    <t>美团外卖满10减10满减券</t>
+  </si>
+  <si>
+    <t>相互宝分摊-8月第1期-*博</t>
+  </si>
+  <si>
+    <t>百草味 夏威夷果218g休闲零食特产每日坚果炒货干果仁奶油味小吃 等多件</t>
+  </si>
+  <si>
+    <t>天猫超市卡350元面额（美的专享）</t>
+  </si>
+  <si>
+    <t>天猫APP</t>
+  </si>
+  <si>
+    <t>木屋烧烤新洲店</t>
+  </si>
+  <si>
+    <t>和老卜聚餐肥肠鸡腿煲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价197，老卜给了100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生蚝*4+花甲*6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酱饼+胡辣汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臊子面+果啤+煎鸡蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菠菜面+冰封</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉皮肉夹馍+可乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臭豆腐+小面筋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健胃消食片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外卖红包¥5*20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臊子面+冰峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒河粉+鱿鱼串+鱿鱼须</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土豆粉+千张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼缸隔离板吸盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼缸隔离板30x30cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三合一2.5瓦水泵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30*50cm记忆棉枕头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13合一滤材1斤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1斤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底吸泵6w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过滤棉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热熔枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电烙铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑红苹果螺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8w壁挂式过滤器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就医160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州中医药大学口腔科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给爸妈买的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牙疼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司附近兰州拉面门店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联通手机营业厅APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还给老蒋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还剩2500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信转账</t>
+  </si>
+  <si>
+    <t>和老将、大哥、小敏聚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟私教聚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上沙村烤鱼店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1点点(沙尾店) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请老蒋喝奶茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物业水电</t>
+  </si>
+  <si>
+    <t>2020年6月 物业+水电</t>
+  </si>
+  <si>
+    <t>总共302.19，和老蒋平摊</t>
+  </si>
+  <si>
+    <t>2020年6月 房租</t>
+  </si>
+  <si>
+    <t>总共2100.00，和老蒋平摊</t>
+  </si>
+  <si>
+    <t>车公庙-珠光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上沙-景田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根管治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州中医药大学深圳医院口腔门诊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软糖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KKV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甜品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲜芋仙深圳KK ONE店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信红包（单发）发给蒋奉吉</t>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疗程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口腔X线一次成像(RVG)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6(每牙)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊楼4楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根管预备(使用特殊仪器)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3(每根管)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>髓腔消毒术(使用特殊仪器(微波仪等))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牙髓摘除术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根管长度测量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牙用锉(Protaper镍钛手用根扩)[25mm]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3(支)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根管再治疗术(不通根管的扩通)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复杂充填术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1(每牙)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡皮障隔湿法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1(次)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充填体抛光术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次性口腔检查包[A-T(7*1)](K)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1(套)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州中医药大学深圳医院(福田)治疗收费单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州中医药大学深圳医院(福田) 治疗收费单</t>
+  </si>
 </sst>
 </file>
 
@@ -5163,7 +5536,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5241,6 +5614,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="等线 (正文)"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -5270,6 +5644,21 @@
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -5357,12 +5746,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5504,11 +5896,186 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="287">
+  <dxfs count="298">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
     </dxf>
@@ -5699,6 +6266,12 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
     </dxf>
     <dxf>
       <font>
@@ -11830,15 +12403,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FEFEF66-0DFC-B343-AE55-FC43085C5197}" name="表1" displayName="表1" ref="A1:I731" totalsRowShown="0">
-  <autoFilter ref="A1:I731" xr:uid="{5BBC9419-B13B-B148-8ACF-0DE90D8ED5A0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I731">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FEFEF66-0DFC-B343-AE55-FC43085C5197}" name="表1" displayName="表1" ref="A1:I775" totalsRowShown="0">
+  <autoFilter ref="A1:I775" xr:uid="{5BBC9419-B13B-B148-8ACF-0DE90D8ED5A0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I775">
     <sortCondition ref="A2:A22"/>
     <sortCondition ref="B2:B22"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{72722D89-93C2-8A41-9B20-0A4F424C6AC1}" name="日期" dataDxfId="286"/>
-    <tableColumn id="2" xr3:uid="{E3DDD260-AD94-3B4D-A5E3-388891DDD893}" name="时间" dataDxfId="285"/>
+    <tableColumn id="1" xr3:uid="{72722D89-93C2-8A41-9B20-0A4F424C6AC1}" name="日期" dataDxfId="297"/>
+    <tableColumn id="2" xr3:uid="{E3DDD260-AD94-3B4D-A5E3-388891DDD893}" name="时间" dataDxfId="296"/>
     <tableColumn id="3" xr3:uid="{DCBF4A5F-9919-504B-8B8E-109C04FA8E2B}" name="类别"/>
     <tableColumn id="4" xr3:uid="{A8A4CCEB-557C-D346-B945-54BF13A8C825}" name="名称"/>
     <tableColumn id="5" xr3:uid="{DF4347C8-27B6-5643-97AF-17AC7096A509}" name="金额(¥)"/>
@@ -11870,287 +12443,325 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{AB454117-BA52-2544-9127-12465162C859}" name="表2_1213151620211823" displayName="表2_1213151620211823" ref="K182:S204" totalsRowShown="0" headerRowDxfId="175" dataDxfId="173" headerRowBorderDxfId="174" tableBorderDxfId="172">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{AB454117-BA52-2544-9127-12465162C859}" name="表2_1213151620211823" displayName="表2_1213151620211823" ref="K182:S204" totalsRowShown="0" headerRowDxfId="186" dataDxfId="184" headerRowBorderDxfId="185" tableBorderDxfId="183">
   <autoFilter ref="K182:S204" xr:uid="{02D241E9-3DCF-8D40-BFFA-FFE3C0F5535D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K183:S197">
     <sortCondition ref="K3:K27"/>
     <sortCondition ref="L3:L27"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{E0363E3F-8A48-934C-B29D-6F37B2A1F390}" name="日期" dataDxfId="171"/>
-    <tableColumn id="2" xr3:uid="{8EF78633-EF5B-D949-9349-9BA90D233A6B}" name="时间" dataDxfId="170"/>
-    <tableColumn id="3" xr3:uid="{0A291899-58E8-2546-9EB0-FB388ED22547}" name="类别" dataDxfId="169"/>
-    <tableColumn id="4" xr3:uid="{816B9FC9-9687-FC4B-BB06-0D42F1052B33}" name="名称" dataDxfId="168"/>
-    <tableColumn id="10" xr3:uid="{02884C40-934F-0D4A-BD96-621C5C5CA1BD}" name="金额($)" dataDxfId="167"/>
-    <tableColumn id="6" xr3:uid="{0ECCB125-B4E3-624F-8652-7FC0D1EFC1D8}" name="数量" dataDxfId="166"/>
-    <tableColumn id="7" xr3:uid="{18528009-3F29-5D42-9C0D-9AA95B859C4C}" name="支付方式" dataDxfId="165"/>
-    <tableColumn id="8" xr3:uid="{03F449A0-F068-C340-AEDC-BDBC5A0F46EB}" name="渠道" dataDxfId="164"/>
-    <tableColumn id="9" xr3:uid="{ADC9AE2A-A61B-414C-89E7-D98600793217}" name="备注" dataDxfId="163"/>
+    <tableColumn id="1" xr3:uid="{E0363E3F-8A48-934C-B29D-6F37B2A1F390}" name="日期" dataDxfId="182"/>
+    <tableColumn id="2" xr3:uid="{8EF78633-EF5B-D949-9349-9BA90D233A6B}" name="时间" dataDxfId="181"/>
+    <tableColumn id="3" xr3:uid="{0A291899-58E8-2546-9EB0-FB388ED22547}" name="类别" dataDxfId="180"/>
+    <tableColumn id="4" xr3:uid="{816B9FC9-9687-FC4B-BB06-0D42F1052B33}" name="名称" dataDxfId="179"/>
+    <tableColumn id="10" xr3:uid="{02884C40-934F-0D4A-BD96-621C5C5CA1BD}" name="金额($)" dataDxfId="178"/>
+    <tableColumn id="6" xr3:uid="{0ECCB125-B4E3-624F-8652-7FC0D1EFC1D8}" name="数量" dataDxfId="177"/>
+    <tableColumn id="7" xr3:uid="{18528009-3F29-5D42-9C0D-9AA95B859C4C}" name="支付方式" dataDxfId="176"/>
+    <tableColumn id="8" xr3:uid="{03F449A0-F068-C340-AEDC-BDBC5A0F46EB}" name="渠道" dataDxfId="175"/>
+    <tableColumn id="9" xr3:uid="{ADC9AE2A-A61B-414C-89E7-D98600793217}" name="备注" dataDxfId="174"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{87DA1393-6827-EA44-A084-237782089CCF}" name="表2_12131516202118231718" displayName="表2_12131516202118231718" ref="K207:S212" totalsRowShown="0" headerRowDxfId="162" dataDxfId="160" headerRowBorderDxfId="161" tableBorderDxfId="159">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{87DA1393-6827-EA44-A084-237782089CCF}" name="表2_12131516202118231718" displayName="表2_12131516202118231718" ref="K207:S212" totalsRowShown="0" headerRowDxfId="173" dataDxfId="171" headerRowBorderDxfId="172" tableBorderDxfId="170">
   <autoFilter ref="K207:S212" xr:uid="{91480F83-2419-784F-8386-55181DF5FEED}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K208:S212">
     <sortCondition ref="K3:K16"/>
     <sortCondition ref="L3:L16"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7C3343CA-D706-6144-8941-580B84CF394E}" name="日期" dataDxfId="158"/>
-    <tableColumn id="2" xr3:uid="{F0847EE3-B118-BE48-8689-812598FEC9AB}" name="时间" dataDxfId="157"/>
-    <tableColumn id="3" xr3:uid="{DDD877B7-BAD5-4F47-9769-A90FCED37116}" name="类别" dataDxfId="156"/>
-    <tableColumn id="4" xr3:uid="{5733AB69-4847-A948-B567-029768E79D0F}" name="名称" dataDxfId="155"/>
-    <tableColumn id="10" xr3:uid="{77BDEA3A-FF25-D243-BE63-AC4C735EE37B}" name="金额($)" dataDxfId="154"/>
-    <tableColumn id="6" xr3:uid="{E8909EDA-F899-A749-B5A9-EF6D64858A24}" name="数量" dataDxfId="153"/>
-    <tableColumn id="7" xr3:uid="{FF1D4B60-B5F5-C841-A54B-3C394BED27E0}" name="支付方式" dataDxfId="152"/>
-    <tableColumn id="8" xr3:uid="{0C20E0FA-7029-A345-AE88-BCCB51C0FB8F}" name="渠道" dataDxfId="151"/>
-    <tableColumn id="9" xr3:uid="{5E0D300F-446D-D245-97F6-C4F1EDF51911}" name="备注" dataDxfId="150"/>
+    <tableColumn id="1" xr3:uid="{7C3343CA-D706-6144-8941-580B84CF394E}" name="日期" dataDxfId="169"/>
+    <tableColumn id="2" xr3:uid="{F0847EE3-B118-BE48-8689-812598FEC9AB}" name="时间" dataDxfId="168"/>
+    <tableColumn id="3" xr3:uid="{DDD877B7-BAD5-4F47-9769-A90FCED37116}" name="类别" dataDxfId="167"/>
+    <tableColumn id="4" xr3:uid="{5733AB69-4847-A948-B567-029768E79D0F}" name="名称" dataDxfId="166"/>
+    <tableColumn id="10" xr3:uid="{77BDEA3A-FF25-D243-BE63-AC4C735EE37B}" name="金额($)" dataDxfId="165"/>
+    <tableColumn id="6" xr3:uid="{E8909EDA-F899-A749-B5A9-EF6D64858A24}" name="数量" dataDxfId="164"/>
+    <tableColumn id="7" xr3:uid="{FF1D4B60-B5F5-C841-A54B-3C394BED27E0}" name="支付方式" dataDxfId="163"/>
+    <tableColumn id="8" xr3:uid="{0C20E0FA-7029-A345-AE88-BCCB51C0FB8F}" name="渠道" dataDxfId="162"/>
+    <tableColumn id="9" xr3:uid="{5E0D300F-446D-D245-97F6-C4F1EDF51911}" name="备注" dataDxfId="161"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{D07645E1-FF51-BE44-A108-6E2E28DFE3B7}" name="表2_121315162021182317181725" displayName="表2_121315162021182317181725" ref="K131:S151" totalsRowShown="0" headerRowDxfId="149" dataDxfId="147" headerRowBorderDxfId="148" tableBorderDxfId="146">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{D07645E1-FF51-BE44-A108-6E2E28DFE3B7}" name="表2_121315162021182317181725" displayName="表2_121315162021182317181725" ref="K131:S151" totalsRowShown="0" headerRowDxfId="160" dataDxfId="158" headerRowBorderDxfId="159" tableBorderDxfId="157">
   <autoFilter ref="K131:S151" xr:uid="{7F3530B9-75AA-9F46-8D36-5829A96A835C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K132:S136">
     <sortCondition ref="K3:K16"/>
     <sortCondition ref="L3:L16"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{8388B4F3-69C3-C044-806B-2EE342EDD1C1}" name="日期" dataDxfId="145"/>
-    <tableColumn id="2" xr3:uid="{1A44F757-A145-5C4B-8846-784AA96D8FE5}" name="时间" dataDxfId="144"/>
-    <tableColumn id="3" xr3:uid="{03320F0B-381F-4E4D-8C75-FE6DCBE2496F}" name="类别" dataDxfId="143"/>
-    <tableColumn id="4" xr3:uid="{16347860-F209-A641-A3C4-CD2748326322}" name="名称" dataDxfId="142"/>
-    <tableColumn id="10" xr3:uid="{39758E3B-78A9-5A48-8DFC-3FF15887AE7E}" name="金额($)" dataDxfId="141"/>
-    <tableColumn id="6" xr3:uid="{FF6795EE-AE94-E44E-8DC0-CC26ACFADE61}" name="数量" dataDxfId="140"/>
-    <tableColumn id="7" xr3:uid="{DA94A68D-2BBE-C746-9AA4-32A4797B9173}" name="支付方式" dataDxfId="139"/>
-    <tableColumn id="8" xr3:uid="{2C9A8B05-D71F-7944-9F61-0DA82B1DFBF3}" name="渠道" dataDxfId="138"/>
-    <tableColumn id="9" xr3:uid="{EEF78B6C-8D16-8549-9C0B-F12CD0D648B8}" name="备注" dataDxfId="137"/>
+    <tableColumn id="1" xr3:uid="{8388B4F3-69C3-C044-806B-2EE342EDD1C1}" name="日期" dataDxfId="156"/>
+    <tableColumn id="2" xr3:uid="{1A44F757-A145-5C4B-8846-784AA96D8FE5}" name="时间" dataDxfId="155"/>
+    <tableColumn id="3" xr3:uid="{03320F0B-381F-4E4D-8C75-FE6DCBE2496F}" name="类别" dataDxfId="154"/>
+    <tableColumn id="4" xr3:uid="{16347860-F209-A641-A3C4-CD2748326322}" name="名称" dataDxfId="153"/>
+    <tableColumn id="10" xr3:uid="{39758E3B-78A9-5A48-8DFC-3FF15887AE7E}" name="金额($)" dataDxfId="152"/>
+    <tableColumn id="6" xr3:uid="{FF6795EE-AE94-E44E-8DC0-CC26ACFADE61}" name="数量" dataDxfId="151"/>
+    <tableColumn id="7" xr3:uid="{DA94A68D-2BBE-C746-9AA4-32A4797B9173}" name="支付方式" dataDxfId="150"/>
+    <tableColumn id="8" xr3:uid="{2C9A8B05-D71F-7944-9F61-0DA82B1DFBF3}" name="渠道" dataDxfId="149"/>
+    <tableColumn id="9" xr3:uid="{EEF78B6C-8D16-8549-9C0B-F12CD0D648B8}" name="备注" dataDxfId="148"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{E94DDC74-E61C-5249-90F9-930C74E64060}" name="表2_12131516202118231724" displayName="表2_12131516202118231724" ref="K154:V179" totalsRowShown="0" headerRowDxfId="136" dataDxfId="134" headerRowBorderDxfId="135" tableBorderDxfId="133">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{E94DDC74-E61C-5249-90F9-930C74E64060}" name="表2_12131516202118231724" displayName="表2_12131516202118231724" ref="K154:V179" totalsRowShown="0" headerRowDxfId="147" dataDxfId="145" headerRowBorderDxfId="146" tableBorderDxfId="144">
   <autoFilter ref="K154:V179" xr:uid="{A7B4FD5B-7483-B04B-9945-909AF67F9E14}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K155:S169">
     <sortCondition ref="K3:K27"/>
     <sortCondition ref="L3:L27"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{DD305DCE-D663-1142-86EC-D044803DC44F}" name="日期" dataDxfId="132"/>
-    <tableColumn id="2" xr3:uid="{6982A3CC-B1A0-4D45-BF51-C06CBB7A285C}" name="时间" dataDxfId="131"/>
-    <tableColumn id="3" xr3:uid="{912915AB-DBFC-554A-8CD9-B4F4926B4A88}" name="类别" dataDxfId="130"/>
-    <tableColumn id="4" xr3:uid="{D100A818-0E73-8B45-A0E8-8884ACD0B9A5}" name="名称" dataDxfId="129"/>
-    <tableColumn id="10" xr3:uid="{3B8E05F8-35E1-A04B-AFF1-8420B1B2683A}" name="金额($)" dataDxfId="128"/>
-    <tableColumn id="6" xr3:uid="{A0D4CAB7-832E-4C45-B8D4-06FD364054C7}" name="数量" dataDxfId="127"/>
-    <tableColumn id="7" xr3:uid="{FE530E16-074B-C844-A52C-76C806232C75}" name="支付方式" dataDxfId="126"/>
-    <tableColumn id="8" xr3:uid="{09B30289-80C0-584E-B3E0-DDD5B9414A87}" name="渠道" dataDxfId="125"/>
-    <tableColumn id="9" xr3:uid="{BA05C1CE-6415-F940-8118-34A391017EE7}" name="备注" dataDxfId="124"/>
-    <tableColumn id="11" xr3:uid="{FB53420E-50E1-4A44-8957-033A6FA13273}" name="图片地址" dataDxfId="123"/>
-    <tableColumn id="12" xr3:uid="{B614C980-4CAD-1848-BF01-7572F1B90952}" name="订单详情" dataDxfId="122"/>
-    <tableColumn id="13" xr3:uid="{B6B349AE-EC78-0846-9E99-3A5C24F68DB6}" name="列1" dataDxfId="121"/>
+    <tableColumn id="1" xr3:uid="{DD305DCE-D663-1142-86EC-D044803DC44F}" name="日期" dataDxfId="143"/>
+    <tableColumn id="2" xr3:uid="{6982A3CC-B1A0-4D45-BF51-C06CBB7A285C}" name="时间" dataDxfId="142"/>
+    <tableColumn id="3" xr3:uid="{912915AB-DBFC-554A-8CD9-B4F4926B4A88}" name="类别" dataDxfId="141"/>
+    <tableColumn id="4" xr3:uid="{D100A818-0E73-8B45-A0E8-8884ACD0B9A5}" name="名称" dataDxfId="140"/>
+    <tableColumn id="10" xr3:uid="{3B8E05F8-35E1-A04B-AFF1-8420B1B2683A}" name="金额($)" dataDxfId="139"/>
+    <tableColumn id="6" xr3:uid="{A0D4CAB7-832E-4C45-B8D4-06FD364054C7}" name="数量" dataDxfId="138"/>
+    <tableColumn id="7" xr3:uid="{FE530E16-074B-C844-A52C-76C806232C75}" name="支付方式" dataDxfId="137"/>
+    <tableColumn id="8" xr3:uid="{09B30289-80C0-584E-B3E0-DDD5B9414A87}" name="渠道" dataDxfId="136"/>
+    <tableColumn id="9" xr3:uid="{BA05C1CE-6415-F940-8118-34A391017EE7}" name="备注" dataDxfId="135"/>
+    <tableColumn id="11" xr3:uid="{FB53420E-50E1-4A44-8957-033A6FA13273}" name="图片地址" dataDxfId="134"/>
+    <tableColumn id="12" xr3:uid="{B614C980-4CAD-1848-BF01-7572F1B90952}" name="订单详情" dataDxfId="133"/>
+    <tableColumn id="13" xr3:uid="{B6B349AE-EC78-0846-9E99-3A5C24F68DB6}" name="列1" dataDxfId="132"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{029FEBD4-A447-6D48-BD02-0BE2F1B735AB}" name="表2_12131516202118231726" displayName="表2_12131516202118231726" ref="K61:V74" totalsRowShown="0" headerRowDxfId="120" dataDxfId="118" headerRowBorderDxfId="119" tableBorderDxfId="117">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{029FEBD4-A447-6D48-BD02-0BE2F1B735AB}" name="表2_12131516202118231726" displayName="表2_12131516202118231726" ref="K61:V74" totalsRowShown="0" headerRowDxfId="131" dataDxfId="129" headerRowBorderDxfId="130" tableBorderDxfId="128">
   <autoFilter ref="K61:V74" xr:uid="{4A6F62B7-DFA0-0142-8AF6-16BD93B05409}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K62:S72">
     <sortCondition ref="K3:K18"/>
     <sortCondition ref="L3:L18"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{221A8622-D460-D946-9D54-30C9CDF9ACD3}" name="日期" dataDxfId="116"/>
-    <tableColumn id="2" xr3:uid="{3F799C66-E8A5-C840-9B0F-90149E0B90B8}" name="时间" dataDxfId="115"/>
-    <tableColumn id="3" xr3:uid="{247A341C-834A-D84A-B642-E4D254351147}" name="类别" dataDxfId="114"/>
-    <tableColumn id="4" xr3:uid="{66C0FF70-B0EB-1348-9A0A-A373D91877A5}" name="名称" dataDxfId="113"/>
-    <tableColumn id="10" xr3:uid="{F2CF9D3F-1599-2140-A9E3-6DD2BB6718A0}" name="金额($)" dataDxfId="112"/>
-    <tableColumn id="6" xr3:uid="{7A2F9865-1F89-7847-BBB5-866D4F8ACE2C}" name="数量" dataDxfId="111"/>
-    <tableColumn id="7" xr3:uid="{4D476744-220B-7845-B018-74BE17061F7F}" name="支付方式" dataDxfId="110"/>
-    <tableColumn id="8" xr3:uid="{DAAED3F4-C2DA-3C42-AA43-0EB6C981D90B}" name="渠道" dataDxfId="109"/>
-    <tableColumn id="9" xr3:uid="{01438435-C03F-5E4C-B03F-CBE95D393CA8}" name="备注" dataDxfId="108"/>
-    <tableColumn id="11" xr3:uid="{EF6A6F82-FA89-1643-BF62-35B9E06215E1}" name="图片地址" dataDxfId="107"/>
-    <tableColumn id="12" xr3:uid="{AE1B08C3-3787-9045-A6A9-2A9595E5C02A}" name="订单详情" dataDxfId="106"/>
-    <tableColumn id="13" xr3:uid="{817576EA-B0A3-324E-A3B3-3DCDD8FFE8C3}" name="列1" dataDxfId="105"/>
+    <tableColumn id="1" xr3:uid="{221A8622-D460-D946-9D54-30C9CDF9ACD3}" name="日期" dataDxfId="127"/>
+    <tableColumn id="2" xr3:uid="{3F799C66-E8A5-C840-9B0F-90149E0B90B8}" name="时间" dataDxfId="126"/>
+    <tableColumn id="3" xr3:uid="{247A341C-834A-D84A-B642-E4D254351147}" name="类别" dataDxfId="125"/>
+    <tableColumn id="4" xr3:uid="{66C0FF70-B0EB-1348-9A0A-A373D91877A5}" name="名称" dataDxfId="124"/>
+    <tableColumn id="10" xr3:uid="{F2CF9D3F-1599-2140-A9E3-6DD2BB6718A0}" name="金额($)" dataDxfId="123"/>
+    <tableColumn id="6" xr3:uid="{7A2F9865-1F89-7847-BBB5-866D4F8ACE2C}" name="数量" dataDxfId="122"/>
+    <tableColumn id="7" xr3:uid="{4D476744-220B-7845-B018-74BE17061F7F}" name="支付方式" dataDxfId="121"/>
+    <tableColumn id="8" xr3:uid="{DAAED3F4-C2DA-3C42-AA43-0EB6C981D90B}" name="渠道" dataDxfId="120"/>
+    <tableColumn id="9" xr3:uid="{01438435-C03F-5E4C-B03F-CBE95D393CA8}" name="备注" dataDxfId="119"/>
+    <tableColumn id="11" xr3:uid="{EF6A6F82-FA89-1643-BF62-35B9E06215E1}" name="图片地址" dataDxfId="118"/>
+    <tableColumn id="12" xr3:uid="{AE1B08C3-3787-9045-A6A9-2A9595E5C02A}" name="订单详情" dataDxfId="117"/>
+    <tableColumn id="13" xr3:uid="{817576EA-B0A3-324E-A3B3-3DCDD8FFE8C3}" name="列1" dataDxfId="116"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{3F2EC857-243B-2645-AF03-53AF6C939B9F}" name="表2_121315162021182317181727" displayName="表2_121315162021182317181727" ref="K215:S239" totalsRowShown="0" headerRowDxfId="104" dataDxfId="102" headerRowBorderDxfId="103" tableBorderDxfId="101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{3F2EC857-243B-2645-AF03-53AF6C939B9F}" name="表2_121315162021182317181727" displayName="表2_121315162021182317181727" ref="K215:S239" totalsRowShown="0" headerRowDxfId="115" dataDxfId="113" headerRowBorderDxfId="114" tableBorderDxfId="112">
   <autoFilter ref="K215:S239" xr:uid="{DAC89B1E-920B-0D43-AD39-2C0F93C33525}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K216:S220">
     <sortCondition ref="K3:K16"/>
     <sortCondition ref="L3:L16"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B8C31F80-1A4B-4648-8E25-9594C529804C}" name="日期" dataDxfId="100"/>
-    <tableColumn id="2" xr3:uid="{E3FE4CDC-CB02-4547-8A6E-7B5018F830B9}" name="时间" dataDxfId="99"/>
-    <tableColumn id="3" xr3:uid="{B830E525-327C-5445-91BD-134C2E975CA1}" name="类别" dataDxfId="98"/>
-    <tableColumn id="4" xr3:uid="{4C06D8FD-B007-FD4D-A0C6-EEFCD7D2462D}" name="名称" dataDxfId="97"/>
-    <tableColumn id="10" xr3:uid="{CB8B18FA-634B-DF42-96C1-13B16D3B4C37}" name="金额($)" dataDxfId="96"/>
-    <tableColumn id="6" xr3:uid="{8F79BF8F-58E2-DD43-8F4A-93643167882D}" name="数量" dataDxfId="95"/>
-    <tableColumn id="7" xr3:uid="{3563508A-5295-5443-AB75-74063E5F55C3}" name="支付方式" dataDxfId="94"/>
-    <tableColumn id="8" xr3:uid="{8FC2120B-449C-2B40-8921-5B059E22E49F}" name="渠道" dataDxfId="93"/>
-    <tableColumn id="9" xr3:uid="{64B8FCA5-512D-FE47-92FF-7DDFBB7884E4}" name="备注" dataDxfId="92"/>
+    <tableColumn id="1" xr3:uid="{B8C31F80-1A4B-4648-8E25-9594C529804C}" name="日期" dataDxfId="111"/>
+    <tableColumn id="2" xr3:uid="{E3FE4CDC-CB02-4547-8A6E-7B5018F830B9}" name="时间" dataDxfId="110"/>
+    <tableColumn id="3" xr3:uid="{B830E525-327C-5445-91BD-134C2E975CA1}" name="类别" dataDxfId="109"/>
+    <tableColumn id="4" xr3:uid="{4C06D8FD-B007-FD4D-A0C6-EEFCD7D2462D}" name="名称" dataDxfId="108"/>
+    <tableColumn id="10" xr3:uid="{CB8B18FA-634B-DF42-96C1-13B16D3B4C37}" name="金额($)" dataDxfId="107"/>
+    <tableColumn id="6" xr3:uid="{8F79BF8F-58E2-DD43-8F4A-93643167882D}" name="数量" dataDxfId="106"/>
+    <tableColumn id="7" xr3:uid="{3563508A-5295-5443-AB75-74063E5F55C3}" name="支付方式" dataDxfId="105"/>
+    <tableColumn id="8" xr3:uid="{8FC2120B-449C-2B40-8921-5B059E22E49F}" name="渠道" dataDxfId="104"/>
+    <tableColumn id="9" xr3:uid="{64B8FCA5-512D-FE47-92FF-7DDFBB7884E4}" name="备注" dataDxfId="103"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{7E52F1F1-47DF-7043-BC6F-D5DF62C49306}" name="表2_121315162021182317242829" displayName="表2_121315162021182317242829" ref="K242:V250" totalsRowShown="0" headerRowDxfId="91" dataDxfId="89" headerRowBorderDxfId="90" tableBorderDxfId="88">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{7E52F1F1-47DF-7043-BC6F-D5DF62C49306}" name="表2_121315162021182317242829" displayName="表2_121315162021182317242829" ref="K242:V250" totalsRowShown="0" headerRowDxfId="102" dataDxfId="100" headerRowBorderDxfId="101" tableBorderDxfId="99">
   <autoFilter ref="K242:V250" xr:uid="{9E59D046-D048-C843-8065-387FC3638EC9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K243:S250">
     <sortCondition ref="K3:K18"/>
     <sortCondition ref="L3:L18"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{8BAAA80A-A7FB-9C4C-AB5C-CFA3B8FABC98}" name="日期" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{347E57DF-2B5E-BD40-86C8-8F59D0256FB2}" name="时间" dataDxfId="86"/>
-    <tableColumn id="3" xr3:uid="{18E112DA-9A28-A74E-8CC6-4AC29E6C30CC}" name="类别" dataDxfId="85"/>
-    <tableColumn id="4" xr3:uid="{A72441B5-BA41-F64F-8F0A-4E80E2BC5460}" name="名称" dataDxfId="84"/>
-    <tableColumn id="10" xr3:uid="{432E6622-AC43-064E-8A9A-7E2979B64C81}" name="金额($)" dataDxfId="83"/>
-    <tableColumn id="6" xr3:uid="{F7CC930A-519F-ED47-88BB-E7F6BC8E72F5}" name="数量" dataDxfId="82"/>
-    <tableColumn id="7" xr3:uid="{3F34C0C1-C8A9-EC44-BE7B-5E1805884F14}" name="支付方式" dataDxfId="81"/>
-    <tableColumn id="8" xr3:uid="{84730249-F504-F740-AC25-9A561C529D42}" name="渠道" dataDxfId="80"/>
-    <tableColumn id="9" xr3:uid="{AD4DD8A8-6A02-8F4F-91F0-DD7F2E94B253}" name="备注" dataDxfId="79"/>
-    <tableColumn id="11" xr3:uid="{6AE29104-87BA-6448-A1D6-3EFCD9E408DF}" name="图片地址" dataDxfId="78"/>
-    <tableColumn id="12" xr3:uid="{E7D376F1-44BE-7F42-B1F6-9A6FAA1BD658}" name="订单详情" dataDxfId="77"/>
-    <tableColumn id="13" xr3:uid="{22C41DAC-55E6-8342-96F8-4842A3C8659C}" name="列1" dataDxfId="76"/>
+    <tableColumn id="1" xr3:uid="{8BAAA80A-A7FB-9C4C-AB5C-CFA3B8FABC98}" name="日期" dataDxfId="98"/>
+    <tableColumn id="2" xr3:uid="{347E57DF-2B5E-BD40-86C8-8F59D0256FB2}" name="时间" dataDxfId="97"/>
+    <tableColumn id="3" xr3:uid="{18E112DA-9A28-A74E-8CC6-4AC29E6C30CC}" name="类别" dataDxfId="96"/>
+    <tableColumn id="4" xr3:uid="{A72441B5-BA41-F64F-8F0A-4E80E2BC5460}" name="名称" dataDxfId="95"/>
+    <tableColumn id="10" xr3:uid="{432E6622-AC43-064E-8A9A-7E2979B64C81}" name="金额($)" dataDxfId="94"/>
+    <tableColumn id="6" xr3:uid="{F7CC930A-519F-ED47-88BB-E7F6BC8E72F5}" name="数量" dataDxfId="93"/>
+    <tableColumn id="7" xr3:uid="{3F34C0C1-C8A9-EC44-BE7B-5E1805884F14}" name="支付方式" dataDxfId="92"/>
+    <tableColumn id="8" xr3:uid="{84730249-F504-F740-AC25-9A561C529D42}" name="渠道" dataDxfId="91"/>
+    <tableColumn id="9" xr3:uid="{AD4DD8A8-6A02-8F4F-91F0-DD7F2E94B253}" name="备注" dataDxfId="90"/>
+    <tableColumn id="11" xr3:uid="{6AE29104-87BA-6448-A1D6-3EFCD9E408DF}" name="图片地址" dataDxfId="89"/>
+    <tableColumn id="12" xr3:uid="{E7D376F1-44BE-7F42-B1F6-9A6FAA1BD658}" name="订单详情" dataDxfId="88"/>
+    <tableColumn id="13" xr3:uid="{22C41DAC-55E6-8342-96F8-4842A3C8659C}" name="列1" dataDxfId="87"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{13C46A62-F0CF-624F-B8B1-05BDFB8205C2}" name="表2_1213151620211823172428291728" displayName="表2_1213151620211823172428291728" ref="K253:V263" totalsRowShown="0" headerRowDxfId="75" dataDxfId="73" headerRowBorderDxfId="74" tableBorderDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{13C46A62-F0CF-624F-B8B1-05BDFB8205C2}" name="表2_1213151620211823172428291728" displayName="表2_1213151620211823172428291728" ref="K253:V263" totalsRowShown="0" headerRowDxfId="86" dataDxfId="84" headerRowBorderDxfId="85" tableBorderDxfId="83">
   <autoFilter ref="K253:V263" xr:uid="{71BAF812-C1FF-6F47-99C9-6676E531B0D8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K254:S263">
     <sortCondition ref="K3:K22"/>
     <sortCondition ref="L3:L22"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{0C9C24D4-6C4E-1E41-BB19-A753D30EEB1F}" name="日期" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{DD9E0D3C-D75B-7344-9697-18B109EBC526}" name="时间" dataDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{B3D44877-D397-E74C-9786-4AAD53F1C29A}" name="类别" dataDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{85A74C0F-056C-DC4F-BD60-3893462862FD}" name="名称" dataDxfId="68"/>
-    <tableColumn id="10" xr3:uid="{4B8BC20A-FA2D-D746-9B6C-1D4BE3D2C843}" name="金额($)" dataDxfId="67"/>
-    <tableColumn id="6" xr3:uid="{5FF34829-EC22-F94F-A5F1-1CB8DBF311F3}" name="数量" dataDxfId="66"/>
-    <tableColumn id="7" xr3:uid="{BD4A1933-54F8-9646-9A4D-27A96AF4CA46}" name="支付方式" dataDxfId="65"/>
-    <tableColumn id="8" xr3:uid="{1503903D-9129-4C4E-8961-6908E3A522D3}" name="渠道" dataDxfId="64"/>
-    <tableColumn id="9" xr3:uid="{3DFBD95E-56A9-094F-9730-442A433CD346}" name="备注" dataDxfId="63"/>
-    <tableColumn id="11" xr3:uid="{2D754D37-9C71-014D-AB90-8F1CCFD5FDDE}" name="图片地址" dataDxfId="62"/>
-    <tableColumn id="12" xr3:uid="{CA6406E3-CEEA-6C43-BBAD-D43411B562C0}" name="订单详情" dataDxfId="61"/>
-    <tableColumn id="13" xr3:uid="{EBF9066D-8CDB-424B-9C3D-A0DC5CD8CBC2}" name="列1" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{0C9C24D4-6C4E-1E41-BB19-A753D30EEB1F}" name="日期" dataDxfId="82"/>
+    <tableColumn id="2" xr3:uid="{DD9E0D3C-D75B-7344-9697-18B109EBC526}" name="时间" dataDxfId="81"/>
+    <tableColumn id="3" xr3:uid="{B3D44877-D397-E74C-9786-4AAD53F1C29A}" name="类别" dataDxfId="80"/>
+    <tableColumn id="4" xr3:uid="{85A74C0F-056C-DC4F-BD60-3893462862FD}" name="名称" dataDxfId="79"/>
+    <tableColumn id="10" xr3:uid="{4B8BC20A-FA2D-D746-9B6C-1D4BE3D2C843}" name="金额($)" dataDxfId="78"/>
+    <tableColumn id="6" xr3:uid="{5FF34829-EC22-F94F-A5F1-1CB8DBF311F3}" name="数量" dataDxfId="77"/>
+    <tableColumn id="7" xr3:uid="{BD4A1933-54F8-9646-9A4D-27A96AF4CA46}" name="支付方式" dataDxfId="76"/>
+    <tableColumn id="8" xr3:uid="{1503903D-9129-4C4E-8961-6908E3A522D3}" name="渠道" dataDxfId="75"/>
+    <tableColumn id="9" xr3:uid="{3DFBD95E-56A9-094F-9730-442A433CD346}" name="备注" dataDxfId="74"/>
+    <tableColumn id="11" xr3:uid="{2D754D37-9C71-014D-AB90-8F1CCFD5FDDE}" name="图片地址" dataDxfId="73"/>
+    <tableColumn id="12" xr3:uid="{CA6406E3-CEEA-6C43-BBAD-D43411B562C0}" name="订单详情" dataDxfId="72"/>
+    <tableColumn id="13" xr3:uid="{EBF9066D-8CDB-424B-9C3D-A0DC5CD8CBC2}" name="列1" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{72BCC51D-4165-C448-B82C-A263B9880D62}" name="表2_1213151620211823171817" displayName="表2_1213151620211823171817" ref="K266:S287" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{72BCC51D-4165-C448-B82C-A263B9880D62}" name="表2_1213151620211823171817" displayName="表2_1213151620211823171817" ref="K266:S287" totalsRowShown="0" headerRowDxfId="70" dataDxfId="68" headerRowBorderDxfId="69" tableBorderDxfId="67">
   <autoFilter ref="K266:S287" xr:uid="{5F6D25BB-3E42-564C-AA79-91B0EBC07FC4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K267:S271">
     <sortCondition ref="K258:K271"/>
     <sortCondition ref="L258:L271"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{43D08019-CB55-E64C-A582-7164C07BFAE3}" name="日期" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{F26B41EC-36EA-DB41-9395-C974B983BC85}" name="时间" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{8BB0E3BF-A9E0-384C-B2E1-E0712FA9168F}" name="类别" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{3DF4AEFA-B488-8142-A801-684FB87323C6}" name="名称" dataDxfId="52"/>
-    <tableColumn id="10" xr3:uid="{D9233AF3-A6D1-5247-B635-FF8D4E0BE30C}" name="金额($)" dataDxfId="51"/>
-    <tableColumn id="6" xr3:uid="{2DBFCA37-8FE3-EB43-B50F-71029FD28038}" name="数量" dataDxfId="50"/>
-    <tableColumn id="7" xr3:uid="{74FB31CE-3FBF-3442-8881-4B7A979E7271}" name="支付方式" dataDxfId="49"/>
-    <tableColumn id="8" xr3:uid="{D290E6A6-DF8D-6C4A-9138-C20E189FEFDD}" name="渠道" dataDxfId="48"/>
-    <tableColumn id="9" xr3:uid="{BE73F99C-935F-9F42-AEC7-18342B2A8982}" name="备注" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{43D08019-CB55-E64C-A582-7164C07BFAE3}" name="日期" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{F26B41EC-36EA-DB41-9395-C974B983BC85}" name="时间" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{8BB0E3BF-A9E0-384C-B2E1-E0712FA9168F}" name="类别" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{3DF4AEFA-B488-8142-A801-684FB87323C6}" name="名称" dataDxfId="63"/>
+    <tableColumn id="10" xr3:uid="{D9233AF3-A6D1-5247-B635-FF8D4E0BE30C}" name="金额($)" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{2DBFCA37-8FE3-EB43-B50F-71029FD28038}" name="数量" dataDxfId="61"/>
+    <tableColumn id="7" xr3:uid="{74FB31CE-3FBF-3442-8881-4B7A979E7271}" name="支付方式" dataDxfId="60"/>
+    <tableColumn id="8" xr3:uid="{D290E6A6-DF8D-6C4A-9138-C20E189FEFDD}" name="渠道" dataDxfId="59"/>
+    <tableColumn id="9" xr3:uid="{BE73F99C-935F-9F42-AEC7-18342B2A8982}" name="备注" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA735AAC-C770-2E42-A456-00A4A31FA22B}" name="表2" displayName="表2" ref="K2:U30" totalsRowShown="0" headerRowDxfId="284" dataDxfId="282" headerRowBorderDxfId="283" tableBorderDxfId="281">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA735AAC-C770-2E42-A456-00A4A31FA22B}" name="表2" displayName="表2" ref="K2:U30" totalsRowShown="0" headerRowDxfId="295" dataDxfId="293" headerRowBorderDxfId="294" tableBorderDxfId="292">
   <autoFilter ref="K2:U30" xr:uid="{4793C34A-1C18-7E44-A39F-05257DC17272}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K3:U30">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{A8855FFB-69E8-5346-85D7-D302A4361F0D}" name="日期" dataDxfId="280"/>
-    <tableColumn id="2" xr3:uid="{7F5C8AE4-748F-B249-94E5-C82E8B468666}" name="时间" dataDxfId="279"/>
-    <tableColumn id="3" xr3:uid="{2038DB5F-A483-5B45-BD40-2EE71479D120}" name="类别" dataDxfId="278"/>
-    <tableColumn id="4" xr3:uid="{866FA0C4-A8D9-954D-B79F-91827E135B06}" name="名称" dataDxfId="277"/>
-    <tableColumn id="10" xr3:uid="{BDBE979D-A86E-9A42-B694-AF71E0F9E33B}" name="金额($)" dataDxfId="276"/>
-    <tableColumn id="11" xr3:uid="{34065CA2-B34E-7E48-9114-CF6B6AC8F093}" name="金额(陈)" dataDxfId="275"/>
-    <tableColumn id="5" xr3:uid="{A5B56494-2462-CB4D-8877-6002352002FB}" name="金额(李)" dataDxfId="274"/>
-    <tableColumn id="6" xr3:uid="{040AF034-DFE5-1447-B9DF-4AE4E769137D}" name="数量" dataDxfId="273"/>
-    <tableColumn id="7" xr3:uid="{C33AE25B-0D3A-124A-889B-B96CBDD49041}" name="支付方式" dataDxfId="272"/>
-    <tableColumn id="8" xr3:uid="{FDC575F4-37F8-2B42-AA8E-F9581923CCAD}" name="渠道" dataDxfId="271"/>
-    <tableColumn id="9" xr3:uid="{EBDE8156-8EBE-DE42-AE3D-F526626C95E6}" name="备注" dataDxfId="270"/>
+    <tableColumn id="1" xr3:uid="{A8855FFB-69E8-5346-85D7-D302A4361F0D}" name="日期" dataDxfId="291"/>
+    <tableColumn id="2" xr3:uid="{7F5C8AE4-748F-B249-94E5-C82E8B468666}" name="时间" dataDxfId="290"/>
+    <tableColumn id="3" xr3:uid="{2038DB5F-A483-5B45-BD40-2EE71479D120}" name="类别" dataDxfId="289"/>
+    <tableColumn id="4" xr3:uid="{866FA0C4-A8D9-954D-B79F-91827E135B06}" name="名称" dataDxfId="288"/>
+    <tableColumn id="10" xr3:uid="{BDBE979D-A86E-9A42-B694-AF71E0F9E33B}" name="金额($)" dataDxfId="287"/>
+    <tableColumn id="11" xr3:uid="{34065CA2-B34E-7E48-9114-CF6B6AC8F093}" name="金额(陈)" dataDxfId="286"/>
+    <tableColumn id="5" xr3:uid="{A5B56494-2462-CB4D-8877-6002352002FB}" name="金额(李)" dataDxfId="285"/>
+    <tableColumn id="6" xr3:uid="{040AF034-DFE5-1447-B9DF-4AE4E769137D}" name="数量" dataDxfId="284"/>
+    <tableColumn id="7" xr3:uid="{C33AE25B-0D3A-124A-889B-B96CBDD49041}" name="支付方式" dataDxfId="283"/>
+    <tableColumn id="8" xr3:uid="{FDC575F4-37F8-2B42-AA8E-F9581923CCAD}" name="渠道" dataDxfId="282"/>
+    <tableColumn id="9" xr3:uid="{EBDE8156-8EBE-DE42-AE3D-F526626C95E6}" name="备注" dataDxfId="281"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{FB357124-CAEC-3A4F-9AD4-7015BDE6A775}" name="表2_1213151620211823171817273031" displayName="表2_1213151620211823171817273031" ref="K290:S297" totalsRowShown="0" headerRowDxfId="46" dataDxfId="44" headerRowBorderDxfId="45" tableBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{FB357124-CAEC-3A4F-9AD4-7015BDE6A775}" name="表2_1213151620211823171817273031" displayName="表2_1213151620211823171817273031" ref="K290:S297" totalsRowShown="0" headerRowDxfId="57" dataDxfId="55" headerRowBorderDxfId="56" tableBorderDxfId="54">
   <autoFilter ref="K290:S297" xr:uid="{19D2B74C-350E-264E-98FF-E443C6433870}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K291:S295">
     <sortCondition ref="K3:K16"/>
     <sortCondition ref="L3:L16"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{9F482AF4-8898-3D4C-9C3D-D4CF5443AA65}" name="日期" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{D4017213-F6BD-CD45-B890-1657F2E760B3}" name="时间" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{4D0F7953-22E6-5145-98C4-202DC7DFA362}" name="类别" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{2FD150A8-7F79-3042-8703-1432B4938FC8}" name="名称" dataDxfId="39"/>
-    <tableColumn id="10" xr3:uid="{6730A74C-034E-7C45-B932-A54930F60E7E}" name="金额($)" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{B1BA88F4-FDAC-3D49-9152-2FE21693D2D0}" name="数量" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{05EF7F84-CFDB-AF40-B6F0-5EDC117FD992}" name="支付方式" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{2E853F2D-E108-3E48-83B5-BBA8785D9168}" name="渠道" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{D8BEB0D1-5FD6-EC41-BA7B-1FA7AD6A53C6}" name="备注" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{9F482AF4-8898-3D4C-9C3D-D4CF5443AA65}" name="日期" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{D4017213-F6BD-CD45-B890-1657F2E760B3}" name="时间" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{4D0F7953-22E6-5145-98C4-202DC7DFA362}" name="类别" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{2FD150A8-7F79-3042-8703-1432B4938FC8}" name="名称" dataDxfId="50"/>
+    <tableColumn id="10" xr3:uid="{6730A74C-034E-7C45-B932-A54930F60E7E}" name="金额($)" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{B1BA88F4-FDAC-3D49-9152-2FE21693D2D0}" name="数量" dataDxfId="48"/>
+    <tableColumn id="7" xr3:uid="{05EF7F84-CFDB-AF40-B6F0-5EDC117FD992}" name="支付方式" dataDxfId="47"/>
+    <tableColumn id="8" xr3:uid="{2E853F2D-E108-3E48-83B5-BBA8785D9168}" name="渠道" dataDxfId="46"/>
+    <tableColumn id="9" xr3:uid="{D8BEB0D1-5FD6-EC41-BA7B-1FA7AD6A53C6}" name="备注" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{A091A92C-8D15-494C-9271-1560616714FF}" name="表2_12131516202118231724282917283032" displayName="表2_12131516202118231724282917283032" ref="K300:V306" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{A091A92C-8D15-494C-9271-1560616714FF}" name="表2_12131516202118231724282917283032" displayName="表2_12131516202118231724282917283032" ref="K300:V306" totalsRowShown="0" headerRowDxfId="44" dataDxfId="42" headerRowBorderDxfId="43" tableBorderDxfId="41">
   <autoFilter ref="K300:V306" xr:uid="{67CE5601-EEEE-6546-A415-E03486A4FB5C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K301:S306">
     <sortCondition ref="K3:K18"/>
     <sortCondition ref="L3:L18"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{B98629A6-9FDE-6643-B4DC-7CE89F44DFE3}" name="日期" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{4D159D06-7404-9042-B7E8-270ECCC8AF58}" name="时间" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{390AD1F2-6635-6945-83F9-F128B4BCD775}" name="类别" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{3238EEAF-9D23-3443-A46F-CD3E778E1BAE}" name="名称" dataDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{FAD10A5C-DA42-3948-8033-2170DA2E709C}" name="金额($)" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{025F8947-3C16-7C4C-AC34-773D099DA4B8}" name="数量" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{C8AEE753-1F17-6F41-982A-2983AFDF83CC}" name="支付方式" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{55CEAD31-BBC4-A644-91D8-1700DA9E8AC0}" name="渠道" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{070A6CEC-45AD-7347-BB5D-E9A8284F9CD9}" name="备注" dataDxfId="21"/>
-    <tableColumn id="11" xr3:uid="{AA22FFCA-B274-9245-91E7-7F58AD731074}" name="图片地址" dataDxfId="20"/>
-    <tableColumn id="12" xr3:uid="{0C9A315A-FA3C-6647-9CB0-EEF0FCD034F3}" name="订单详情" dataDxfId="19"/>
-    <tableColumn id="13" xr3:uid="{CBC19044-2043-5A4E-A2F5-7013CD1CB630}" name="列1" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{B98629A6-9FDE-6643-B4DC-7CE89F44DFE3}" name="日期" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{4D159D06-7404-9042-B7E8-270ECCC8AF58}" name="时间" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{390AD1F2-6635-6945-83F9-F128B4BCD775}" name="类别" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{3238EEAF-9D23-3443-A46F-CD3E778E1BAE}" name="名称" dataDxfId="37"/>
+    <tableColumn id="10" xr3:uid="{FAD10A5C-DA42-3948-8033-2170DA2E709C}" name="金额($)" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{025F8947-3C16-7C4C-AC34-773D099DA4B8}" name="数量" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{C8AEE753-1F17-6F41-982A-2983AFDF83CC}" name="支付方式" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{55CEAD31-BBC4-A644-91D8-1700DA9E8AC0}" name="渠道" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{070A6CEC-45AD-7347-BB5D-E9A8284F9CD9}" name="备注" dataDxfId="32"/>
+    <tableColumn id="11" xr3:uid="{AA22FFCA-B274-9245-91E7-7F58AD731074}" name="图片地址" dataDxfId="31"/>
+    <tableColumn id="12" xr3:uid="{0C9A315A-FA3C-6647-9CB0-EEF0FCD034F3}" name="订单详情" dataDxfId="30"/>
+    <tableColumn id="13" xr3:uid="{CBC19044-2043-5A4E-A2F5-7013CD1CB630}" name="列1" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{BB3A0840-620E-5045-BFDB-A08ED738B7F0}" name="表2_35" displayName="表2_35" ref="K309:R321" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="K309:R321" xr:uid="{016A6DEA-5F7E-144C-9FBD-B635DCFE087E}"/>
+  <tableColumns count="8">
+    <tableColumn id="8" xr3:uid="{89F3890F-B839-1044-9670-45F6658AC500}" name="日期" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{6C7647B3-63AF-AE42-A0E2-65312D12169D}" name="时间" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{5A110ABF-78A9-3E41-A8D1-34E42194A301}" name="名称" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{8EC3769D-3878-3243-982C-E9691C456E2B}" name="单价" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{29E53809-5E3B-514A-A728-396A1136B1EC}" name="疗程" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{98716D25-A1EC-A34D-B0DE-7F82CDB08B76}" name="数量" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{D9992431-5BB8-004F-9C78-CC86FBF254AB}" name="总价" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{5A0FF7CA-F737-EF48-B429-14608A88BB8A}" name="治疗地址" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{91487C9E-824E-B04A-9DC8-01A661A2BC5C}" name="表29" displayName="表29" ref="A1:I68" totalsRowShown="0">
+  <autoFilter ref="A1:I68" xr:uid="{69B47496-0EB4-2444-98FA-A384D98D12C6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I68">
+    <sortCondition ref="H1:H68"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{644EAC52-C5CE-4A49-A248-F11CB18A7F09}" name="日期" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{EFD3A60F-BA05-9647-BEAF-E448CF9FFECB}" name="时间" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{21637332-F2F0-DD4A-BEB0-30C5DC752306}" name="类别"/>
+    <tableColumn id="4" xr3:uid="{A9C58302-B7E2-AF45-A0AA-BE2C01C00FF2}" name="名称"/>
+    <tableColumn id="5" xr3:uid="{7CEA26B6-7B06-6445-886E-B3816A169556}" name="金额(?)"/>
+    <tableColumn id="6" xr3:uid="{FA7D522E-C7C1-824C-9424-1A3CBF4C3BEE}" name="数量"/>
+    <tableColumn id="7" xr3:uid="{74BE0337-F0CD-C741-AE68-C0AC1B8F964E}" name="支付方式"/>
+    <tableColumn id="8" xr3:uid="{0E4198F2-44A7-D541-AB4D-01993FD5AC58}" name="渠道"/>
+    <tableColumn id="9" xr3:uid="{C4A9C3E5-B2D7-E84D-836F-A32E66687F99}" name="备注"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E8827FEC-29EB-A64F-A117-AB93F5AF704B}" name="表4" displayName="表4" ref="A2:Z29" totalsRowShown="0">
   <autoFilter ref="A2:Z29" xr:uid="{ADCC33E7-0DD1-FA45-9C41-7D7E3B5A50FC}"/>
   <tableColumns count="26">
@@ -12185,22 +12796,22 @@
 </table>
 </file>
 
-<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{608D5E4E-7BC0-414D-A696-97B3CAE12BE2}" name="表7" displayName="表7" ref="AB2:AG16" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{608D5E4E-7BC0-414D-A696-97B3CAE12BE2}" name="表7" displayName="表7" ref="AB2:AG16" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23">
   <autoFilter ref="AB2:AG16" xr:uid="{D99BBCC0-26F8-584F-82AF-B9C9A1318EBC}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AD21D3B0-716F-7E48-8025-AFE6FCD92120}" name="日期" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{FC1DE92B-2BB9-C747-9F2C-31A1E6EC711A}" name="总计" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{2CF739A1-8CBC-4B46-BFBE-38C9697B1DC3}" name="支付宝" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{37AC6B7D-8DE6-EA44-989F-87DDDBECA772}" name="微信" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00BE3057-47F6-7B4F-87A9-6B0CC4188CEF}" name="现金" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{B6C7CF2F-B1B2-3E49-8ACD-DD1A2CA77F01}" name="银行卡" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{AD21D3B0-716F-7E48-8025-AFE6FCD92120}" name="日期" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{FC1DE92B-2BB9-C747-9F2C-31A1E6EC711A}" name="总计" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{2CF739A1-8CBC-4B46-BFBE-38C9697B1DC3}" name="支付宝" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{37AC6B7D-8DE6-EA44-989F-87DDDBECA772}" name="微信" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{00BE3057-47F6-7B4F-87A9-6B0CC4188CEF}" name="现金" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{B6C7CF2F-B1B2-3E49-8ACD-DD1A2CA77F01}" name="银行卡" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{410100AD-10E0-4F44-9412-B97D896BE399}" name="表12_14" displayName="表12_14" ref="AI2:AV16" totalsRowShown="0">
   <autoFilter ref="AI2:AV16" xr:uid="{89D068C2-82CB-8047-9DFF-C45CD4BCF7C3}"/>
   <tableColumns count="14">
@@ -12223,12 +12834,12 @@
 </table>
 </file>
 
-<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4A8A3C27-EB59-8440-9FAF-B3CF2592953D}" name="表8" displayName="表8" ref="A1:AR3" totalsRowShown="0">
   <autoFilter ref="A1:AR3" xr:uid="{0F1C729B-8ECB-2146-BFBD-8CF0DB869F75}"/>
   <tableColumns count="44">
-    <tableColumn id="3" xr3:uid="{2581BCC0-F69D-6B4D-AEC8-D0030C419CB3}" name="起始日期2" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{95E26320-E744-E549-B533-39AC4179085D}" name="结束日期3" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{2581BCC0-F69D-6B4D-AEC8-D0030C419CB3}" name="起始日期2" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{95E26320-E744-E549-B533-39AC4179085D}" name="结束日期3" dataDxfId="15"/>
     <tableColumn id="5" xr3:uid="{017C7CC6-7A50-E14C-9010-4A96C3E17AAE}" name="周次"/>
     <tableColumn id="6" xr3:uid="{5013C261-37F5-024E-8869-62C7BB939C64}" name="总计"/>
     <tableColumn id="7" xr3:uid="{86979D30-41EE-6C4C-B773-E0842C968F33}" name="0:00"/>
@@ -12276,12 +12887,12 @@
 </table>
 </file>
 
-<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{02022759-1D6A-1B48-A9EF-B4775205DB9B}" name="表10" displayName="表10" ref="A1:AR2" totalsRowShown="0">
   <autoFilter ref="A1:AR2" xr:uid="{2368815E-0083-7C4E-AFD6-5BD45387C155}"/>
   <tableColumns count="44">
-    <tableColumn id="1" xr3:uid="{C0F5CD09-98E8-DD4D-8B07-7A63CBC46885}" name="起始日期" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{310700D5-AA51-6C4F-9C4C-EBF3E9EFEA2B}" name="结束日期" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{C0F5CD09-98E8-DD4D-8B07-7A63CBC46885}" name="起始日期" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{310700D5-AA51-6C4F-9C4C-EBF3E9EFEA2B}" name="结束日期" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{E3BB613C-2E5A-4046-9257-D1DB5057AC50}" name="月份"/>
     <tableColumn id="4" xr3:uid="{581D6C9B-0675-814D-8E48-FE3CBE3222FF}" name="总计"/>
     <tableColumn id="5" xr3:uid="{8CD512E4-B465-1948-AD0C-9D92E154A27C}" name="0:00"/>
@@ -12329,29 +12940,51 @@
 </table>
 </file>
 
-<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A5C76C99-5210-AA4E-88F9-DA6CB4EC7370}" name="表6" displayName="表6" ref="A1:B2" totalsRowShown="0">
   <autoFilter ref="A1:B2" xr:uid="{6D1BEB71-2A6D-204C-90D6-33D32A457DF7}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{708C10D3-3099-AB43-BF6B-AAC0E5724B2D}" name="年"/>
     <tableColumn id="2" xr3:uid="{5D7EEFFC-1B1B-C442-8DD0-96BF0D9145E1}" name="总计">
-      <calculatedColumnFormula>SUM(records!E2:E731)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(records!E2:E775)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{11A792C6-3B2B-EB45-B402-6B17FF6ECC12}" name="表2_12" displayName="表2_12" ref="K33:S41" totalsRowShown="0" headerRowDxfId="280" dataDxfId="278" headerRowBorderDxfId="279" tableBorderDxfId="277">
+  <autoFilter ref="K33:S41" xr:uid="{BF5DEAC1-034C-6E4F-BFC7-2363B9047242}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K34:S60">
+    <sortCondition ref="K3:K30"/>
+    <sortCondition ref="L3:L30"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{9E6DCB6F-2192-F341-9E3F-1C4530C10FA8}" name="日期" dataDxfId="276"/>
+    <tableColumn id="2" xr3:uid="{E2BCBFCC-07FA-4144-B6A7-6BA37CAE0B0B}" name="时间" dataDxfId="275"/>
+    <tableColumn id="3" xr3:uid="{9E554D31-EFE4-EC43-967A-01E672C5B7F9}" name="类别" dataDxfId="274"/>
+    <tableColumn id="4" xr3:uid="{7F292805-5DAB-FB40-9F28-0C7BCA16DAA0}" name="名称" dataDxfId="273"/>
+    <tableColumn id="10" xr3:uid="{2F81F807-05F7-C04A-BB0E-654041F5B9F6}" name="金额($)" dataDxfId="272"/>
+    <tableColumn id="6" xr3:uid="{6DBF3C40-8B26-0048-A1C9-BE6D68464C6F}" name="数量" dataDxfId="271"/>
+    <tableColumn id="7" xr3:uid="{A64FDE06-A678-4646-A55C-2026413CC908}" name="支付方式" dataDxfId="270"/>
+    <tableColumn id="8" xr3:uid="{3352A65C-6558-D843-9D75-CEE8687567E5}" name="渠道" dataDxfId="269"/>
+    <tableColumn id="9" xr3:uid="{9E21A11A-E4AD-DA4D-B780-F28E44B87A61}" name="备注" dataDxfId="268"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{90CCD7A2-463A-D647-96DA-22DFD0FBF9A0}" name="表3" displayName="表3" ref="A1:AP32" totalsRowShown="0">
   <autoFilter ref="A1:AP32" xr:uid="{506FB319-DAC5-C74F-9129-972A005A58DA}"/>
   <tableColumns count="42">
-    <tableColumn id="1" xr3:uid="{F034F842-B0D4-7C49-92AC-92126BFED303}" name="日期" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{F034F842-B0D4-7C49-92AC-92126BFED303}" name="日期" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{E4A20DC4-BCAA-5A4C-8F92-7768890FB62A}" name="总计">
-      <calculatedColumnFormula>SUMIF(records!A2:A731, template!A2, records!E2:E731)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUMIF(records!A2:A775, template!A2, records!E2:E775)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{4634C45B-FA6E-3A4F-A29C-00438EE32653}" name="0:00"/>
-    <tableColumn id="4" xr3:uid="{FAE9234B-318D-7D47-AF72-AE2A681B63D3}" name="1:00" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{FAE9234B-318D-7D47-AF72-AE2A681B63D3}" name="1:00" dataDxfId="11"/>
     <tableColumn id="5" xr3:uid="{C3E9F398-2977-274F-AC07-745B24EA6D5B}" name="2:00"/>
     <tableColumn id="6" xr3:uid="{538DED39-B589-734E-A6B3-BC72BF0D9B0D}" name="3:00"/>
     <tableColumn id="7" xr3:uid="{108D9D1B-57A3-B849-9C65-4BBC2558EB2F}" name="4:00"/>
@@ -12395,7 +13028,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{80315183-2A95-B14D-B6F6-AFEEA10909ED}" name="表5" displayName="表5" ref="A34:AR36" totalsRowShown="0">
   <autoFilter ref="A34:AR36" xr:uid="{36935680-17BE-F74F-88AB-1DDEC0F4D885}"/>
   <tableColumns count="44">
@@ -12448,34 +13081,12 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{11A792C6-3B2B-EB45-B402-6B17FF6ECC12}" name="表2_12" displayName="表2_12" ref="K33:S41" totalsRowShown="0" headerRowDxfId="269" dataDxfId="267" headerRowBorderDxfId="268" tableBorderDxfId="266">
-  <autoFilter ref="K33:S41" xr:uid="{BF5DEAC1-034C-6E4F-BFC7-2363B9047242}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K34:S60">
-    <sortCondition ref="K3:K30"/>
-    <sortCondition ref="L3:L30"/>
-  </sortState>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{9E6DCB6F-2192-F341-9E3F-1C4530C10FA8}" name="日期" dataDxfId="265"/>
-    <tableColumn id="2" xr3:uid="{E2BCBFCC-07FA-4144-B6A7-6BA37CAE0B0B}" name="时间" dataDxfId="264"/>
-    <tableColumn id="3" xr3:uid="{9E554D31-EFE4-EC43-967A-01E672C5B7F9}" name="类别" dataDxfId="263"/>
-    <tableColumn id="4" xr3:uid="{7F292805-5DAB-FB40-9F28-0C7BCA16DAA0}" name="名称" dataDxfId="262"/>
-    <tableColumn id="10" xr3:uid="{2F81F807-05F7-C04A-BB0E-654041F5B9F6}" name="金额($)" dataDxfId="261"/>
-    <tableColumn id="6" xr3:uid="{6DBF3C40-8B26-0048-A1C9-BE6D68464C6F}" name="数量" dataDxfId="260"/>
-    <tableColumn id="7" xr3:uid="{A64FDE06-A678-4646-A55C-2026413CC908}" name="支付方式" dataDxfId="259"/>
-    <tableColumn id="8" xr3:uid="{3352A65C-6558-D843-9D75-CEE8687567E5}" name="渠道" dataDxfId="258"/>
-    <tableColumn id="9" xr3:uid="{9E21A11A-E4AD-DA4D-B780-F28E44B87A61}" name="备注" dataDxfId="257"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9E9531E0-077A-C14A-B48F-4B3304B57241}" name="表9" displayName="表9" ref="A40:AR41" totalsRowShown="0">
   <autoFilter ref="A40:AR41" xr:uid="{76002C9A-0A0E-6F40-A4AF-4AD85C0C63A4}"/>
   <tableColumns count="44">
-    <tableColumn id="1" xr3:uid="{4B46A71B-91FB-1542-AB1C-88155CE27D04}" name="起始日期" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{8482E588-E7EF-7B49-8CA8-6F2A7133DEAD}" name="结束日期" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{4B46A71B-91FB-1542-AB1C-88155CE27D04}" name="起始日期" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{8482E588-E7EF-7B49-8CA8-6F2A7133DEAD}" name="结束日期" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{92055967-689A-EC42-B55A-6B47F10291F6}" name="月份"/>
     <tableColumn id="4" xr3:uid="{55866787-4B70-3048-A457-F0AE2ECD6322}" name="总计">
       <calculatedColumnFormula>SUMIFS(day!B3:B55,day!A3:A55,"&gt;="&amp;template!A41,day!A3:A55,"&lt;="&amp;template!B41)</calculatedColumnFormula>
@@ -12606,130 +13217,130 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{8E6CF227-0B2A-9943-95A9-E98C28AA3996}" name="表2_1213" displayName="表2_1213" ref="K44:S50" totalsRowShown="0" headerRowDxfId="256" dataDxfId="254" headerRowBorderDxfId="255" tableBorderDxfId="253">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{8E6CF227-0B2A-9943-95A9-E98C28AA3996}" name="表2_1213" displayName="表2_1213" ref="K44:S50" totalsRowShown="0" headerRowDxfId="267" dataDxfId="265" headerRowBorderDxfId="266" tableBorderDxfId="264">
   <autoFilter ref="K44:S50" xr:uid="{DBBD540D-9ACB-A74D-BB39-A853F97094BD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K45:S69">
     <sortCondition ref="K2:K29"/>
     <sortCondition ref="L2:L29"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{BD21C2E9-1BF4-1A48-903A-DCDEC887088A}" name="日期" dataDxfId="252"/>
-    <tableColumn id="2" xr3:uid="{B11C4ABC-6240-EF48-A31A-8BECF6AE51C3}" name="时间" dataDxfId="251"/>
-    <tableColumn id="3" xr3:uid="{67754CDC-1A19-9D49-B251-9EC86E09BE70}" name="类别" dataDxfId="250"/>
-    <tableColumn id="4" xr3:uid="{3F8C96A0-999F-A049-BCA0-6ED855C07086}" name="名称" dataDxfId="249"/>
-    <tableColumn id="10" xr3:uid="{CF71653C-3CB6-274A-8499-A136549F1D07}" name="金额($)" dataDxfId="248"/>
-    <tableColumn id="6" xr3:uid="{99FBADE8-F414-3D4E-9F3B-BDE3571F4BA1}" name="数量" dataDxfId="247"/>
-    <tableColumn id="7" xr3:uid="{24CADA98-38C4-8143-AA5C-9D7AE4D2221D}" name="支付方式" dataDxfId="246"/>
-    <tableColumn id="8" xr3:uid="{1D3BEB19-BBEB-C845-87BF-7C23136790B9}" name="渠道" dataDxfId="245"/>
-    <tableColumn id="9" xr3:uid="{3855FCA6-738B-7D49-9DEE-4106312F0DB2}" name="备注" dataDxfId="244"/>
+    <tableColumn id="1" xr3:uid="{BD21C2E9-1BF4-1A48-903A-DCDEC887088A}" name="日期" dataDxfId="263"/>
+    <tableColumn id="2" xr3:uid="{B11C4ABC-6240-EF48-A31A-8BECF6AE51C3}" name="时间" dataDxfId="262"/>
+    <tableColumn id="3" xr3:uid="{67754CDC-1A19-9D49-B251-9EC86E09BE70}" name="类别" dataDxfId="261"/>
+    <tableColumn id="4" xr3:uid="{3F8C96A0-999F-A049-BCA0-6ED855C07086}" name="名称" dataDxfId="260"/>
+    <tableColumn id="10" xr3:uid="{CF71653C-3CB6-274A-8499-A136549F1D07}" name="金额($)" dataDxfId="259"/>
+    <tableColumn id="6" xr3:uid="{99FBADE8-F414-3D4E-9F3B-BDE3571F4BA1}" name="数量" dataDxfId="258"/>
+    <tableColumn id="7" xr3:uid="{24CADA98-38C4-8143-AA5C-9D7AE4D2221D}" name="支付方式" dataDxfId="257"/>
+    <tableColumn id="8" xr3:uid="{1D3BEB19-BBEB-C845-87BF-7C23136790B9}" name="渠道" dataDxfId="256"/>
+    <tableColumn id="9" xr3:uid="{3855FCA6-738B-7D49-9DEE-4106312F0DB2}" name="备注" dataDxfId="255"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{85D5A6C9-0983-1F49-9E7D-1C7D322B37A0}" name="表2_121315" displayName="表2_121315" ref="K77:S84" totalsRowShown="0" headerRowDxfId="243" dataDxfId="241" headerRowBorderDxfId="242" tableBorderDxfId="240">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{85D5A6C9-0983-1F49-9E7D-1C7D322B37A0}" name="表2_121315" displayName="表2_121315" ref="K77:S84" totalsRowShown="0" headerRowDxfId="254" dataDxfId="252" headerRowBorderDxfId="253" tableBorderDxfId="251">
   <autoFilter ref="K77:S84" xr:uid="{835B7ABE-F456-CF45-8A7D-5507E998E23E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K78:S103">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{74D9CA40-4FE9-984A-A0EB-AA2378AD6CA6}" name="日期" dataDxfId="239"/>
-    <tableColumn id="2" xr3:uid="{399F4564-6842-1545-B8AF-E02DAC43416A}" name="时间" dataDxfId="238"/>
-    <tableColumn id="3" xr3:uid="{E8144FE3-3D58-0443-AF79-8BF552410036}" name="类别" dataDxfId="237"/>
-    <tableColumn id="4" xr3:uid="{8FBB1190-B9EE-0A40-B8AF-1F9469490287}" name="名称" dataDxfId="236"/>
-    <tableColumn id="10" xr3:uid="{0C6C1CDC-B4E4-8645-8C6D-D53E3E0CFEAC}" name="金额($)" dataDxfId="235"/>
-    <tableColumn id="6" xr3:uid="{D8196724-FF67-DD4A-A1BE-F88FB8237117}" name="数量" dataDxfId="234"/>
-    <tableColumn id="7" xr3:uid="{321E4B00-5C56-AF45-956D-93589BC551AF}" name="支付方式" dataDxfId="233"/>
-    <tableColumn id="8" xr3:uid="{8C94CA3B-1B09-C945-8241-D03F6F239F9F}" name="渠道" dataDxfId="232"/>
-    <tableColumn id="9" xr3:uid="{F056B581-94F6-6A4D-9231-DDC1C0437631}" name="备注" dataDxfId="231"/>
+    <tableColumn id="1" xr3:uid="{74D9CA40-4FE9-984A-A0EB-AA2378AD6CA6}" name="日期" dataDxfId="250"/>
+    <tableColumn id="2" xr3:uid="{399F4564-6842-1545-B8AF-E02DAC43416A}" name="时间" dataDxfId="249"/>
+    <tableColumn id="3" xr3:uid="{E8144FE3-3D58-0443-AF79-8BF552410036}" name="类别" dataDxfId="248"/>
+    <tableColumn id="4" xr3:uid="{8FBB1190-B9EE-0A40-B8AF-1F9469490287}" name="名称" dataDxfId="247"/>
+    <tableColumn id="10" xr3:uid="{0C6C1CDC-B4E4-8645-8C6D-D53E3E0CFEAC}" name="金额($)" dataDxfId="246"/>
+    <tableColumn id="6" xr3:uid="{D8196724-FF67-DD4A-A1BE-F88FB8237117}" name="数量" dataDxfId="245"/>
+    <tableColumn id="7" xr3:uid="{321E4B00-5C56-AF45-956D-93589BC551AF}" name="支付方式" dataDxfId="244"/>
+    <tableColumn id="8" xr3:uid="{8C94CA3B-1B09-C945-8241-D03F6F239F9F}" name="渠道" dataDxfId="243"/>
+    <tableColumn id="9" xr3:uid="{F056B581-94F6-6A4D-9231-DDC1C0437631}" name="备注" dataDxfId="242"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{5A08404A-170A-AF43-8E1D-DF9862393746}" name="表2_12131516" displayName="表2_12131516" ref="K87:S91" totalsRowShown="0" headerRowDxfId="230" dataDxfId="228" headerRowBorderDxfId="229" tableBorderDxfId="227">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{5A08404A-170A-AF43-8E1D-DF9862393746}" name="表2_12131516" displayName="表2_12131516" ref="K87:S91" totalsRowShown="0" headerRowDxfId="241" dataDxfId="239" headerRowBorderDxfId="240" tableBorderDxfId="238">
   <autoFilter ref="K87:S91" xr:uid="{94896363-E9F6-6743-B1C8-ACC0B149BEDF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K88:S110">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{834FC3A7-2586-5448-8952-7C3E0EC89688}" name="日期" dataDxfId="226"/>
-    <tableColumn id="2" xr3:uid="{7F1EF38F-268A-0F46-942E-72A9EF34A342}" name="时间" dataDxfId="225"/>
-    <tableColumn id="3" xr3:uid="{28FEEB6B-3150-6649-9028-BA0EE86B0496}" name="类别" dataDxfId="224"/>
-    <tableColumn id="4" xr3:uid="{347E68C4-C92A-4D49-BDAE-84DC38ED641B}" name="名称" dataDxfId="223"/>
-    <tableColumn id="10" xr3:uid="{17182FB7-D83A-1D4A-99C7-3B78D3BC590F}" name="金额($)" dataDxfId="222"/>
-    <tableColumn id="6" xr3:uid="{53E4A12C-B04D-EB4B-A0DE-59416C400198}" name="数量" dataDxfId="221"/>
-    <tableColumn id="7" xr3:uid="{393090AF-7A3C-C54A-825A-64E2B42A460E}" name="支付方式" dataDxfId="220"/>
-    <tableColumn id="8" xr3:uid="{549E8A07-2F1C-804C-B9F0-258E3F72FC60}" name="渠道" dataDxfId="219"/>
-    <tableColumn id="9" xr3:uid="{92665FCA-79D8-8145-8646-27E3066FA64C}" name="备注" dataDxfId="218"/>
+    <tableColumn id="1" xr3:uid="{834FC3A7-2586-5448-8952-7C3E0EC89688}" name="日期" dataDxfId="237"/>
+    <tableColumn id="2" xr3:uid="{7F1EF38F-268A-0F46-942E-72A9EF34A342}" name="时间" dataDxfId="236"/>
+    <tableColumn id="3" xr3:uid="{28FEEB6B-3150-6649-9028-BA0EE86B0496}" name="类别" dataDxfId="235"/>
+    <tableColumn id="4" xr3:uid="{347E68C4-C92A-4D49-BDAE-84DC38ED641B}" name="名称" dataDxfId="234"/>
+    <tableColumn id="10" xr3:uid="{17182FB7-D83A-1D4A-99C7-3B78D3BC590F}" name="金额($)" dataDxfId="233"/>
+    <tableColumn id="6" xr3:uid="{53E4A12C-B04D-EB4B-A0DE-59416C400198}" name="数量" dataDxfId="232"/>
+    <tableColumn id="7" xr3:uid="{393090AF-7A3C-C54A-825A-64E2B42A460E}" name="支付方式" dataDxfId="231"/>
+    <tableColumn id="8" xr3:uid="{549E8A07-2F1C-804C-B9F0-258E3F72FC60}" name="渠道" dataDxfId="230"/>
+    <tableColumn id="9" xr3:uid="{92665FCA-79D8-8145-8646-27E3066FA64C}" name="备注" dataDxfId="229"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{F8F4C9F9-ECF7-484B-BF22-500571CA134E}" name="表18" displayName="表18" ref="K53:U58" totalsRowShown="0" headerRowDxfId="217" dataDxfId="215" headerRowBorderDxfId="216" tableBorderDxfId="214" totalsRowBorderDxfId="213">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{F8F4C9F9-ECF7-484B-BF22-500571CA134E}" name="表18" displayName="表18" ref="K53:U58" totalsRowShown="0" headerRowDxfId="228" dataDxfId="226" headerRowBorderDxfId="227" tableBorderDxfId="225" totalsRowBorderDxfId="224">
   <autoFilter ref="K53:U58" xr:uid="{D9ADCBF8-F752-BD45-92A5-FF212FE991D9}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{A7BB4249-B024-D844-9DC5-DC40FE447B69}" name="日期" dataDxfId="212"/>
-    <tableColumn id="2" xr3:uid="{371CFA43-DD16-3D47-BFDB-319E8BB2562D}" name="时间" dataDxfId="211"/>
-    <tableColumn id="3" xr3:uid="{9E72B5C9-6F7B-EB40-B273-DC1E26E01184}" name="类别" dataDxfId="210"/>
-    <tableColumn id="4" xr3:uid="{05B51FE5-06F7-3B4A-9CE8-59C692D71DB6}" name="名称" dataDxfId="209"/>
-    <tableColumn id="5" xr3:uid="{971993D3-228B-BE4F-9FBE-3D1DDDBB8726}" name="金额($)" dataDxfId="208"/>
-    <tableColumn id="6" xr3:uid="{8E3188D8-5443-0141-87FC-8B6D4AFFEF54}" name="金额(陈)" dataDxfId="207"/>
-    <tableColumn id="7" xr3:uid="{648E2B1A-EBE3-8F4A-95A3-A09F24E0C9DA}" name="金额(李)" dataDxfId="206"/>
-    <tableColumn id="8" xr3:uid="{7D50B75C-424D-034A-9749-4961F0A2F2C9}" name="数量" dataDxfId="205"/>
-    <tableColumn id="9" xr3:uid="{85652E18-1A14-BD49-B7D7-2C7AA1447817}" name="支付方式" dataDxfId="204"/>
-    <tableColumn id="10" xr3:uid="{C770346D-F261-0347-B5FE-63CC5BAF59B4}" name="渠道" dataDxfId="203"/>
-    <tableColumn id="11" xr3:uid="{31FD91E5-37C9-BE46-9FA0-02CFBF3E45E1}" name="备注" dataDxfId="202"/>
+    <tableColumn id="1" xr3:uid="{A7BB4249-B024-D844-9DC5-DC40FE447B69}" name="日期" dataDxfId="223"/>
+    <tableColumn id="2" xr3:uid="{371CFA43-DD16-3D47-BFDB-319E8BB2562D}" name="时间" dataDxfId="222"/>
+    <tableColumn id="3" xr3:uid="{9E72B5C9-6F7B-EB40-B273-DC1E26E01184}" name="类别" dataDxfId="221"/>
+    <tableColumn id="4" xr3:uid="{05B51FE5-06F7-3B4A-9CE8-59C692D71DB6}" name="名称" dataDxfId="220"/>
+    <tableColumn id="5" xr3:uid="{971993D3-228B-BE4F-9FBE-3D1DDDBB8726}" name="金额($)" dataDxfId="219"/>
+    <tableColumn id="6" xr3:uid="{8E3188D8-5443-0141-87FC-8B6D4AFFEF54}" name="金额(陈)" dataDxfId="218"/>
+    <tableColumn id="7" xr3:uid="{648E2B1A-EBE3-8F4A-95A3-A09F24E0C9DA}" name="金额(李)" dataDxfId="217"/>
+    <tableColumn id="8" xr3:uid="{7D50B75C-424D-034A-9749-4961F0A2F2C9}" name="数量" dataDxfId="216"/>
+    <tableColumn id="9" xr3:uid="{85652E18-1A14-BD49-B7D7-2C7AA1447817}" name="支付方式" dataDxfId="215"/>
+    <tableColumn id="10" xr3:uid="{C770346D-F261-0347-B5FE-63CC5BAF59B4}" name="渠道" dataDxfId="214"/>
+    <tableColumn id="11" xr3:uid="{31FD91E5-37C9-BE46-9FA0-02CFBF3E45E1}" name="备注" dataDxfId="213"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{606E3E97-D81D-AB41-BA99-E007537886BF}" name="表2_1213151620" displayName="表2_1213151620" ref="K94:S100" totalsRowShown="0" headerRowDxfId="201" dataDxfId="199" headerRowBorderDxfId="200" tableBorderDxfId="198">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{606E3E97-D81D-AB41-BA99-E007537886BF}" name="表2_1213151620" displayName="表2_1213151620" ref="K94:S100" totalsRowShown="0" headerRowDxfId="212" dataDxfId="210" headerRowBorderDxfId="211" tableBorderDxfId="209">
   <autoFilter ref="K94:S100" xr:uid="{2674F753-E0FA-1844-8EF2-AF7541B04290}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K95:S119">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{15D7FFBF-4311-7F47-914F-8B84FE5F4082}" name="日期" dataDxfId="197"/>
-    <tableColumn id="2" xr3:uid="{27DD3D02-CE0C-FF46-B0B1-235BB58DA381}" name="时间" dataDxfId="196"/>
-    <tableColumn id="3" xr3:uid="{3F62F38A-6972-5A49-B690-81990D2CC035}" name="类别" dataDxfId="195"/>
-    <tableColumn id="4" xr3:uid="{EA1F0C6D-25C3-7342-8D38-1ADC56C101DF}" name="名称" dataDxfId="194"/>
-    <tableColumn id="10" xr3:uid="{90C5F47D-F18D-7942-A073-EAF9720C1C5F}" name="金额($)" dataDxfId="193"/>
-    <tableColumn id="6" xr3:uid="{23DA7484-2642-294C-B615-581AB57BD3A1}" name="数量" dataDxfId="192"/>
-    <tableColumn id="7" xr3:uid="{82AC8D78-CF26-9F4D-8211-2B13B307DFC3}" name="支付方式" dataDxfId="191"/>
-    <tableColumn id="8" xr3:uid="{91141D7B-3679-F747-9F5F-E409D72331DA}" name="渠道" dataDxfId="190"/>
-    <tableColumn id="9" xr3:uid="{529F0920-90E6-EB41-A2FB-D0928A57CD99}" name="备注" dataDxfId="189"/>
+    <tableColumn id="1" xr3:uid="{15D7FFBF-4311-7F47-914F-8B84FE5F4082}" name="日期" dataDxfId="208"/>
+    <tableColumn id="2" xr3:uid="{27DD3D02-CE0C-FF46-B0B1-235BB58DA381}" name="时间" dataDxfId="207"/>
+    <tableColumn id="3" xr3:uid="{3F62F38A-6972-5A49-B690-81990D2CC035}" name="类别" dataDxfId="206"/>
+    <tableColumn id="4" xr3:uid="{EA1F0C6D-25C3-7342-8D38-1ADC56C101DF}" name="名称" dataDxfId="205"/>
+    <tableColumn id="10" xr3:uid="{90C5F47D-F18D-7942-A073-EAF9720C1C5F}" name="金额($)" dataDxfId="204"/>
+    <tableColumn id="6" xr3:uid="{23DA7484-2642-294C-B615-581AB57BD3A1}" name="数量" dataDxfId="203"/>
+    <tableColumn id="7" xr3:uid="{82AC8D78-CF26-9F4D-8211-2B13B307DFC3}" name="支付方式" dataDxfId="202"/>
+    <tableColumn id="8" xr3:uid="{91141D7B-3679-F747-9F5F-E409D72331DA}" name="渠道" dataDxfId="201"/>
+    <tableColumn id="9" xr3:uid="{529F0920-90E6-EB41-A2FB-D0928A57CD99}" name="备注" dataDxfId="200"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{65F04204-4685-BD44-A9A9-528E74381FD5}" name="表2_121315162021" displayName="表2_121315162021" ref="K103:S109" totalsRowShown="0" headerRowDxfId="188" dataDxfId="186" headerRowBorderDxfId="187" tableBorderDxfId="185">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{65F04204-4685-BD44-A9A9-528E74381FD5}" name="表2_121315162021" displayName="表2_121315162021" ref="K103:S109" totalsRowShown="0" headerRowDxfId="199" dataDxfId="197" headerRowBorderDxfId="198" tableBorderDxfId="196">
   <autoFilter ref="K103:S109" xr:uid="{667113CE-E40C-644A-9375-DFFA158F767D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K104:S128">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{86FDBD0A-C64B-684E-88E4-97A9B8A90394}" name="日期" dataDxfId="184"/>
-    <tableColumn id="2" xr3:uid="{E706DFF2-17A8-074C-A9BC-624F5932127D}" name="时间" dataDxfId="183"/>
-    <tableColumn id="3" xr3:uid="{4178F89C-CD46-CA48-BE92-ECFE4C3DFE56}" name="类别" dataDxfId="182"/>
-    <tableColumn id="4" xr3:uid="{A549C014-3FFF-9F40-9F34-910684A4517C}" name="名称" dataDxfId="181"/>
-    <tableColumn id="10" xr3:uid="{C84AE528-810C-6C47-8DF2-AF970AF9A2D4}" name="金额($)" dataDxfId="180"/>
-    <tableColumn id="6" xr3:uid="{5270CAB9-ED19-D449-9926-0A2551F4C6AD}" name="数量" dataDxfId="179"/>
-    <tableColumn id="7" xr3:uid="{A50583DC-76A3-3246-BBE9-4A25FC54C124}" name="支付方式" dataDxfId="178"/>
-    <tableColumn id="8" xr3:uid="{F0F66474-976C-7E44-8C1D-71BF0D6187AB}" name="渠道" dataDxfId="177"/>
-    <tableColumn id="9" xr3:uid="{7CB81F3A-0F01-4E45-8F36-0A6F6C393579}" name="备注" dataDxfId="176"/>
+    <tableColumn id="1" xr3:uid="{86FDBD0A-C64B-684E-88E4-97A9B8A90394}" name="日期" dataDxfId="195"/>
+    <tableColumn id="2" xr3:uid="{E706DFF2-17A8-074C-A9BC-624F5932127D}" name="时间" dataDxfId="194"/>
+    <tableColumn id="3" xr3:uid="{4178F89C-CD46-CA48-BE92-ECFE4C3DFE56}" name="类别" dataDxfId="193"/>
+    <tableColumn id="4" xr3:uid="{A549C014-3FFF-9F40-9F34-910684A4517C}" name="名称" dataDxfId="192"/>
+    <tableColumn id="10" xr3:uid="{C84AE528-810C-6C47-8DF2-AF970AF9A2D4}" name="金额($)" dataDxfId="191"/>
+    <tableColumn id="6" xr3:uid="{5270CAB9-ED19-D449-9926-0A2551F4C6AD}" name="数量" dataDxfId="190"/>
+    <tableColumn id="7" xr3:uid="{A50583DC-76A3-3246-BBE9-4A25FC54C124}" name="支付方式" dataDxfId="189"/>
+    <tableColumn id="8" xr3:uid="{F0F66474-976C-7E44-8C1D-71BF0D6187AB}" name="渠道" dataDxfId="188"/>
+    <tableColumn id="9" xr3:uid="{7CB81F3A-0F01-4E45-8F36-0A6F6C393579}" name="备注" dataDxfId="187"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13032,10 +13643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C81ADFD-2D83-574A-AD81-B8046C388F80}">
-  <dimension ref="A1:V731"/>
+  <dimension ref="A1:V775"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A688" zoomScale="88" workbookViewId="0">
-      <selection activeCell="F697" sqref="F697"/>
+    <sheetView tabSelected="1" topLeftCell="A753" zoomScale="88" workbookViewId="0">
+      <selection activeCell="I766" sqref="I766"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -28956,7 +29567,7 @@
       <c r="R306" s="36">
         <v>-127.74</v>
       </c>
-      <c r="S306" s="37">
+      <c r="S306" s="13">
         <v>0</v>
       </c>
       <c r="T306" s="35"/>
@@ -28987,6 +29598,17 @@
       <c r="H307" t="s">
         <v>251</v>
       </c>
+      <c r="K307" s="1"/>
+      <c r="L307" s="2"/>
+      <c r="M307" s="36"/>
+      <c r="N307" s="36"/>
+      <c r="O307" s="36"/>
+      <c r="P307" s="36"/>
+      <c r="Q307" s="36"/>
+      <c r="R307" s="36"/>
+      <c r="S307" s="13"/>
+      <c r="T307" s="35"/>
+      <c r="U307" s="35"/>
     </row>
     <row r="308" spans="1:21">
       <c r="A308" s="1">
@@ -29013,6 +29635,16 @@
       <c r="H308" t="s">
         <v>25</v>
       </c>
+      <c r="K308" s="49" t="s">
+        <v>1420</v>
+      </c>
+      <c r="L308" s="50"/>
+      <c r="M308" s="50"/>
+      <c r="N308" s="50"/>
+      <c r="O308" s="50"/>
+      <c r="P308" s="50"/>
+      <c r="Q308" s="50"/>
+      <c r="R308" s="50"/>
     </row>
     <row r="309" spans="1:21">
       <c r="A309" s="1">
@@ -29039,6 +29671,30 @@
       <c r="H309" t="s">
         <v>25</v>
       </c>
+      <c r="K309" t="s">
+        <v>1</v>
+      </c>
+      <c r="L309" t="s">
+        <v>2</v>
+      </c>
+      <c r="M309" t="s">
+        <v>3</v>
+      </c>
+      <c r="N309" t="s">
+        <v>1397</v>
+      </c>
+      <c r="O309" t="s">
+        <v>1398</v>
+      </c>
+      <c r="P309" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q309" t="s">
+        <v>1399</v>
+      </c>
+      <c r="R309" t="s">
+        <v>1400</v>
+      </c>
     </row>
     <row r="310" spans="1:21">
       <c r="A310" s="1">
@@ -29062,6 +29718,30 @@
       <c r="G310" t="s">
         <v>24</v>
       </c>
+      <c r="K310" s="1">
+        <v>44063</v>
+      </c>
+      <c r="L310" s="2">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="M310" t="s">
+        <v>1401</v>
+      </c>
+      <c r="N310">
+        <v>15</v>
+      </c>
+      <c r="O310" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P310" t="s">
+        <v>1403</v>
+      </c>
+      <c r="Q310">
+        <v>90</v>
+      </c>
+      <c r="R310" t="s">
+        <v>1404</v>
+      </c>
     </row>
     <row r="311" spans="1:21">
       <c r="A311" s="1">
@@ -29085,6 +29765,30 @@
       <c r="G311" t="s">
         <v>24</v>
       </c>
+      <c r="K311" s="1">
+        <v>44063</v>
+      </c>
+      <c r="L311" s="2">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="M311" t="s">
+        <v>1405</v>
+      </c>
+      <c r="N311">
+        <v>50</v>
+      </c>
+      <c r="O311" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P311" t="s">
+        <v>1406</v>
+      </c>
+      <c r="Q311">
+        <v>150</v>
+      </c>
+      <c r="R311" t="s">
+        <v>1404</v>
+      </c>
     </row>
     <row r="312" spans="1:21">
       <c r="A312" s="1">
@@ -29108,6 +29812,30 @@
       <c r="G312" t="s">
         <v>24</v>
       </c>
+      <c r="K312" s="1">
+        <v>44063</v>
+      </c>
+      <c r="L312" s="2">
+        <v>0.38124999999999998</v>
+      </c>
+      <c r="M312" t="s">
+        <v>1407</v>
+      </c>
+      <c r="N312">
+        <v>15</v>
+      </c>
+      <c r="O312" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P312" t="s">
+        <v>1406</v>
+      </c>
+      <c r="Q312">
+        <v>45</v>
+      </c>
+      <c r="R312" t="s">
+        <v>1404</v>
+      </c>
     </row>
     <row r="313" spans="1:21">
       <c r="A313" s="1">
@@ -29134,6 +29862,30 @@
       <c r="H313" t="s">
         <v>251</v>
       </c>
+      <c r="K313" s="1">
+        <v>44063</v>
+      </c>
+      <c r="L313" s="2">
+        <v>0.38124999999999998</v>
+      </c>
+      <c r="M313" t="s">
+        <v>1408</v>
+      </c>
+      <c r="N313">
+        <v>15</v>
+      </c>
+      <c r="O313" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P313" t="s">
+        <v>1406</v>
+      </c>
+      <c r="Q313">
+        <v>45</v>
+      </c>
+      <c r="R313" t="s">
+        <v>1404</v>
+      </c>
     </row>
     <row r="314" spans="1:21">
       <c r="A314" s="1">
@@ -29160,6 +29912,30 @@
       <c r="H314" t="s">
         <v>25</v>
       </c>
+      <c r="K314" s="1">
+        <v>44063</v>
+      </c>
+      <c r="L314" s="2">
+        <v>0.38124999999999998</v>
+      </c>
+      <c r="M314" t="s">
+        <v>1409</v>
+      </c>
+      <c r="N314">
+        <v>15</v>
+      </c>
+      <c r="O314" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P314" t="s">
+        <v>1406</v>
+      </c>
+      <c r="Q314">
+        <v>45</v>
+      </c>
+      <c r="R314" t="s">
+        <v>1404</v>
+      </c>
     </row>
     <row r="315" spans="1:21">
       <c r="A315" s="1">
@@ -29186,6 +29962,30 @@
       <c r="H315" t="s">
         <v>1040</v>
       </c>
+      <c r="K315" s="1">
+        <v>44063</v>
+      </c>
+      <c r="L315" s="2">
+        <v>0.38124999999999998</v>
+      </c>
+      <c r="M315" t="s">
+        <v>1410</v>
+      </c>
+      <c r="N315">
+        <v>65</v>
+      </c>
+      <c r="O315" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P315" t="s">
+        <v>1411</v>
+      </c>
+      <c r="Q315">
+        <v>195</v>
+      </c>
+      <c r="R315" t="s">
+        <v>1404</v>
+      </c>
     </row>
     <row r="316" spans="1:21">
       <c r="A316" s="1">
@@ -29212,6 +30012,30 @@
       <c r="H316" t="s">
         <v>25</v>
       </c>
+      <c r="K316" s="1">
+        <v>44063</v>
+      </c>
+      <c r="L316" s="2">
+        <v>0.38124999999999998</v>
+      </c>
+      <c r="M316" t="s">
+        <v>1412</v>
+      </c>
+      <c r="N316">
+        <v>60</v>
+      </c>
+      <c r="O316" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P316" t="s">
+        <v>1406</v>
+      </c>
+      <c r="Q316">
+        <v>180</v>
+      </c>
+      <c r="R316" t="s">
+        <v>1404</v>
+      </c>
     </row>
     <row r="317" spans="1:21">
       <c r="A317" s="1">
@@ -29238,6 +30062,30 @@
       <c r="H317" t="s">
         <v>1038</v>
       </c>
+      <c r="K317" s="1">
+        <v>44063</v>
+      </c>
+      <c r="L317" s="2">
+        <v>0.38124999999999998</v>
+      </c>
+      <c r="M317" t="s">
+        <v>1413</v>
+      </c>
+      <c r="N317">
+        <v>50</v>
+      </c>
+      <c r="O317" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P317" t="s">
+        <v>1414</v>
+      </c>
+      <c r="Q317">
+        <v>50</v>
+      </c>
+      <c r="R317" t="s">
+        <v>1404</v>
+      </c>
     </row>
     <row r="318" spans="1:21">
       <c r="A318" s="1">
@@ -29264,6 +30112,30 @@
       <c r="H318" t="s">
         <v>1038</v>
       </c>
+      <c r="K318" s="1">
+        <v>44063</v>
+      </c>
+      <c r="L318" s="2">
+        <v>0.38124999999999998</v>
+      </c>
+      <c r="M318" t="s">
+        <v>1415</v>
+      </c>
+      <c r="N318">
+        <v>15</v>
+      </c>
+      <c r="O318" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P318" t="s">
+        <v>1416</v>
+      </c>
+      <c r="Q318">
+        <v>15</v>
+      </c>
+      <c r="R318" t="s">
+        <v>1404</v>
+      </c>
     </row>
     <row r="319" spans="1:21">
       <c r="A319" s="1">
@@ -29290,6 +30162,30 @@
       <c r="H319" t="s">
         <v>432</v>
       </c>
+      <c r="K319" s="1">
+        <v>44063</v>
+      </c>
+      <c r="L319" s="2">
+        <v>0.38124999999999998</v>
+      </c>
+      <c r="M319" t="s">
+        <v>1417</v>
+      </c>
+      <c r="N319">
+        <v>3</v>
+      </c>
+      <c r="O319" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P319" t="s">
+        <v>1414</v>
+      </c>
+      <c r="Q319">
+        <v>3</v>
+      </c>
+      <c r="R319" t="s">
+        <v>1404</v>
+      </c>
     </row>
     <row r="320" spans="1:21">
       <c r="A320" s="1">
@@ -29316,8 +30212,32 @@
       <c r="H320" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="321" spans="1:8">
+      <c r="K320" s="1">
+        <v>44063</v>
+      </c>
+      <c r="L320" s="2">
+        <v>0.38124999999999998</v>
+      </c>
+      <c r="M320" t="s">
+        <v>1418</v>
+      </c>
+      <c r="N320">
+        <v>3</v>
+      </c>
+      <c r="O320" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P320" t="s">
+        <v>1419</v>
+      </c>
+      <c r="Q320">
+        <v>3</v>
+      </c>
+      <c r="R320" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="321" spans="1:17" ht="20">
       <c r="A321" s="1">
         <v>43953</v>
       </c>
@@ -29342,8 +30262,13 @@
       <c r="H321" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="322" spans="1:8">
+      <c r="K321" s="47"/>
+      <c r="L321" s="47"/>
+      <c r="Q321" s="13">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="322" spans="1:17">
       <c r="A322" s="1">
         <v>43953</v>
       </c>
@@ -29369,7 +30294,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:17">
       <c r="A323" s="1">
         <v>43953</v>
       </c>
@@ -29395,7 +30320,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:17">
       <c r="A324" s="1">
         <v>43954</v>
       </c>
@@ -29421,7 +30346,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:17">
       <c r="A325" s="1">
         <v>43954</v>
       </c>
@@ -29447,7 +30372,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:17">
       <c r="A326" s="1">
         <v>43954</v>
       </c>
@@ -29473,7 +30398,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:17">
       <c r="A327" s="1">
         <v>43954</v>
       </c>
@@ -29499,7 +30424,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:17">
       <c r="A328" s="1">
         <v>43955</v>
       </c>
@@ -29525,7 +30450,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:17">
       <c r="A329" s="1">
         <v>43955</v>
       </c>
@@ -29551,7 +30476,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:17">
       <c r="A330" s="1">
         <v>43956</v>
       </c>
@@ -29577,7 +30502,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:17">
       <c r="A331" s="1">
         <v>43957</v>
       </c>
@@ -29603,7 +30528,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:17">
       <c r="A332" s="1">
         <v>43957</v>
       </c>
@@ -29629,7 +30554,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:17">
       <c r="A333" s="1">
         <v>43958</v>
       </c>
@@ -29655,7 +30580,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:17">
       <c r="A334" s="1">
         <v>43958</v>
       </c>
@@ -29681,7 +30606,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:17">
       <c r="A335" s="1">
         <v>43958</v>
       </c>
@@ -29707,7 +30632,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:17">
       <c r="A336" s="1">
         <v>43958</v>
       </c>
@@ -38972,22 +39897,22 @@
         <v>0.3659722222222222</v>
       </c>
       <c r="C690" t="s">
-        <v>427</v>
+        <v>1254</v>
       </c>
       <c r="D690" t="s">
-        <v>1106</v>
+        <v>1255</v>
       </c>
       <c r="E690">
         <v>5</v>
       </c>
       <c r="F690" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G690" t="s">
         <v>303</v>
       </c>
       <c r="H690" t="s">
-        <v>1107</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -38998,22 +39923,22 @@
         <v>0.38750000000000001</v>
       </c>
       <c r="C691" t="s">
-        <v>274</v>
+        <v>78</v>
       </c>
       <c r="D691" t="s">
-        <v>1281</v>
+        <v>1364</v>
       </c>
       <c r="E691">
-        <v>26.1</v>
+        <v>26.01</v>
       </c>
       <c r="F691" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="G691" t="s">
         <v>303</v>
       </c>
       <c r="H691" t="s">
-        <v>278</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -39105,7 +40030,7 @@
         <v>1249</v>
       </c>
       <c r="D695" t="s">
-        <v>1157</v>
+        <v>1350</v>
       </c>
       <c r="E695">
         <v>18.760000000000002</v>
@@ -39147,147 +40072,1985 @@
       </c>
     </row>
     <row r="697" spans="1:8">
-      <c r="A697" s="1"/>
-      <c r="B697" s="2"/>
+      <c r="A697" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B697" s="2">
+        <v>0.3659722222222222</v>
+      </c>
+      <c r="C697" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D697" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E697">
+        <v>5</v>
+      </c>
+      <c r="F697" t="s">
+        <v>45</v>
+      </c>
+      <c r="G697" t="s">
+        <v>51</v>
+      </c>
+      <c r="H697" t="s">
+        <v>1256</v>
+      </c>
     </row>
     <row r="698" spans="1:8">
-      <c r="A698" s="1"/>
-      <c r="B698" s="2"/>
+      <c r="A698" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B698" s="2">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="C698" t="s">
+        <v>78</v>
+      </c>
+      <c r="D698" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E698">
+        <v>0.9</v>
+      </c>
+      <c r="F698" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G698" t="s">
+        <v>51</v>
+      </c>
+      <c r="H698" t="s">
+        <v>1285</v>
+      </c>
     </row>
     <row r="699" spans="1:8">
-      <c r="A699" s="1"/>
-      <c r="B699" s="2"/>
+      <c r="A699" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B699" s="2">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="C699" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D699" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E699">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="F699" t="s">
+        <v>45</v>
+      </c>
+      <c r="G699" t="s">
+        <v>51</v>
+      </c>
+      <c r="H699" t="s">
+        <v>1257</v>
+      </c>
     </row>
     <row r="700" spans="1:8">
-      <c r="A700" s="1"/>
-      <c r="B700" s="2"/>
+      <c r="A700" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B700" s="2">
+        <v>0.75902777777777775</v>
+      </c>
+      <c r="C700" t="s">
+        <v>945</v>
+      </c>
+      <c r="D700" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E700">
+        <v>19</v>
+      </c>
+      <c r="F700" t="s">
+        <v>23</v>
+      </c>
+      <c r="G700" t="s">
+        <v>51</v>
+      </c>
+      <c r="H700" t="s">
+        <v>1371</v>
+      </c>
     </row>
     <row r="701" spans="1:8">
-      <c r="A701" s="1"/>
-      <c r="B701" s="2"/>
+      <c r="A701" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B701" s="2">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C701" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D701" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E701">
+        <v>5</v>
+      </c>
+      <c r="F701" t="s">
+        <v>45</v>
+      </c>
+      <c r="G701" t="s">
+        <v>51</v>
+      </c>
+      <c r="H701" t="s">
+        <v>1256</v>
+      </c>
     </row>
     <row r="702" spans="1:8">
-      <c r="A702" s="1"/>
-      <c r="B702" s="2"/>
+      <c r="A702" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B702" s="2">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C702" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D702" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E702">
+        <v>7.98</v>
+      </c>
+      <c r="F702" t="s">
+        <v>45</v>
+      </c>
+      <c r="G702" t="s">
+        <v>51</v>
+      </c>
+      <c r="H702" t="s">
+        <v>1257</v>
+      </c>
     </row>
     <row r="703" spans="1:8">
-      <c r="A703" s="1"/>
-      <c r="B703" s="2"/>
+      <c r="A703" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B703" s="2">
+        <v>0.57013888888888886</v>
+      </c>
+      <c r="C703" t="s">
+        <v>78</v>
+      </c>
+      <c r="D703" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E703">
+        <v>3.94</v>
+      </c>
+      <c r="F703" t="s">
+        <v>121</v>
+      </c>
+      <c r="G703" t="s">
+        <v>51</v>
+      </c>
+      <c r="H703" t="s">
+        <v>1285</v>
+      </c>
     </row>
     <row r="704" spans="1:8">
-      <c r="A704" s="1"/>
-      <c r="B704" s="2"/>
-    </row>
-    <row r="705" spans="1:2">
-      <c r="A705" s="1"/>
-      <c r="B705" s="2"/>
-    </row>
-    <row r="706" spans="1:2">
-      <c r="A706" s="1"/>
-      <c r="B706" s="2"/>
-    </row>
-    <row r="707" spans="1:2">
-      <c r="A707" s="1"/>
-      <c r="B707" s="2"/>
-    </row>
-    <row r="708" spans="1:2">
-      <c r="A708" s="1"/>
-      <c r="B708" s="2"/>
-    </row>
-    <row r="709" spans="1:2">
-      <c r="A709" s="1"/>
-      <c r="B709" s="2"/>
-    </row>
-    <row r="710" spans="1:2">
-      <c r="A710" s="1"/>
-      <c r="B710" s="2"/>
-    </row>
-    <row r="711" spans="1:2">
-      <c r="A711" s="1"/>
-      <c r="B711" s="2"/>
-    </row>
-    <row r="712" spans="1:2">
-      <c r="A712" s="1"/>
-      <c r="B712" s="2"/>
-    </row>
-    <row r="713" spans="1:2">
-      <c r="A713" s="1"/>
-      <c r="B713" s="2"/>
-    </row>
-    <row r="714" spans="1:2">
-      <c r="A714" s="1"/>
-      <c r="B714" s="2"/>
-    </row>
-    <row r="715" spans="1:2">
-      <c r="A715" s="1"/>
-      <c r="B715" s="2"/>
-    </row>
-    <row r="716" spans="1:2">
-      <c r="A716" s="1"/>
-      <c r="B716" s="2"/>
-    </row>
-    <row r="717" spans="1:2">
-      <c r="A717" s="1"/>
-      <c r="B717" s="2"/>
-    </row>
-    <row r="718" spans="1:2">
-      <c r="A718" s="1"/>
-      <c r="B718" s="2"/>
-    </row>
-    <row r="719" spans="1:2">
-      <c r="A719" s="1"/>
-      <c r="B719" s="2"/>
-    </row>
-    <row r="720" spans="1:2">
-      <c r="A720" s="1"/>
-      <c r="B720" s="2"/>
-    </row>
-    <row r="721" spans="1:2">
-      <c r="A721" s="1"/>
-      <c r="B721" s="2"/>
-    </row>
-    <row r="722" spans="1:2">
-      <c r="A722" s="1"/>
-      <c r="B722" s="2"/>
-    </row>
-    <row r="723" spans="1:2">
-      <c r="A723" s="1"/>
-      <c r="B723" s="2"/>
-    </row>
-    <row r="724" spans="1:2">
-      <c r="A724" s="1"/>
-      <c r="B724" s="2"/>
-    </row>
-    <row r="725" spans="1:2">
-      <c r="A725" s="1"/>
-      <c r="B725" s="2"/>
-    </row>
-    <row r="726" spans="1:2">
-      <c r="A726" s="1"/>
-      <c r="B726" s="2"/>
-    </row>
-    <row r="727" spans="1:2">
-      <c r="A727" s="1"/>
-      <c r="B727" s="2"/>
-    </row>
-    <row r="728" spans="1:2">
-      <c r="A728" s="1"/>
-      <c r="B728" s="2"/>
-    </row>
-    <row r="729" spans="1:2">
-      <c r="A729" s="1"/>
-      <c r="B729" s="2"/>
-    </row>
-    <row r="730" spans="1:2">
-      <c r="A730" s="1"/>
-      <c r="B730" s="2"/>
-    </row>
-    <row r="731" spans="1:2">
-      <c r="A731" s="1"/>
-      <c r="B731" s="2"/>
+      <c r="A704" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B704" s="2">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="C704" t="s">
+        <v>78</v>
+      </c>
+      <c r="D704" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E704">
+        <v>8.82</v>
+      </c>
+      <c r="F704" t="s">
+        <v>121</v>
+      </c>
+      <c r="G704" t="s">
+        <v>51</v>
+      </c>
+      <c r="H704" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="705" spans="1:9">
+      <c r="A705" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B705" s="2">
+        <v>0.77569444444444446</v>
+      </c>
+      <c r="C705" t="s">
+        <v>32</v>
+      </c>
+      <c r="D705" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E705">
+        <v>4</v>
+      </c>
+      <c r="F705" t="s">
+        <v>42</v>
+      </c>
+      <c r="G705" t="s">
+        <v>29</v>
+      </c>
+      <c r="H705" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="706" spans="1:9">
+      <c r="A706" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B706" s="2">
+        <v>0.87222222222222223</v>
+      </c>
+      <c r="C706" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D706" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E706">
+        <v>20.7</v>
+      </c>
+      <c r="F706" t="s">
+        <v>45</v>
+      </c>
+      <c r="G706" t="s">
+        <v>51</v>
+      </c>
+      <c r="H706" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="707" spans="1:9">
+      <c r="A707" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B707" s="2">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="C707" t="s">
+        <v>32</v>
+      </c>
+      <c r="D707" t="s">
+        <v>896</v>
+      </c>
+      <c r="E707">
+        <v>4</v>
+      </c>
+      <c r="F707" t="s">
+        <v>42</v>
+      </c>
+      <c r="G707" t="s">
+        <v>29</v>
+      </c>
+      <c r="H707" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="708" spans="1:9">
+      <c r="A708" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B708" s="2">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="C708" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D708" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E708">
+        <v>19</v>
+      </c>
+      <c r="F708" t="s">
+        <v>45</v>
+      </c>
+      <c r="G708" t="s">
+        <v>51</v>
+      </c>
+      <c r="H708" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="709" spans="1:9">
+      <c r="A709" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B709" s="2">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="C709" t="s">
+        <v>78</v>
+      </c>
+      <c r="D709" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E709">
+        <v>3.9</v>
+      </c>
+      <c r="F709" t="s">
+        <v>121</v>
+      </c>
+      <c r="G709" t="s">
+        <v>51</v>
+      </c>
+      <c r="H709" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="710" spans="1:9">
+      <c r="A710" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B710" s="2">
+        <v>0.49374999999999997</v>
+      </c>
+      <c r="C710" t="s">
+        <v>78</v>
+      </c>
+      <c r="D710" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E710">
+        <v>8.9</v>
+      </c>
+      <c r="F710" t="s">
+        <v>121</v>
+      </c>
+      <c r="G710" t="s">
+        <v>51</v>
+      </c>
+      <c r="H710" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="711" spans="1:9">
+      <c r="A711" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B711" s="2">
+        <v>0.50069444444444444</v>
+      </c>
+      <c r="C711" t="s">
+        <v>78</v>
+      </c>
+      <c r="D711" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E711">
+        <v>4.8</v>
+      </c>
+      <c r="F711" t="s">
+        <v>1357</v>
+      </c>
+      <c r="G711" t="s">
+        <v>51</v>
+      </c>
+      <c r="H711" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="712" spans="1:9">
+      <c r="A712" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B712" s="2">
+        <v>0.81666666666666676</v>
+      </c>
+      <c r="C712" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D712" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E712">
+        <v>40.75</v>
+      </c>
+      <c r="F712" t="s">
+        <v>23</v>
+      </c>
+      <c r="G712" t="s">
+        <v>51</v>
+      </c>
+      <c r="H712" t="s">
+        <v>1336</v>
+      </c>
+      <c r="I712" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="713" spans="1:9">
+      <c r="A713" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B713" s="2">
+        <v>0.84652777777777777</v>
+      </c>
+      <c r="C713" t="s">
+        <v>53</v>
+      </c>
+      <c r="D713" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E713">
+        <v>23</v>
+      </c>
+      <c r="F713" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G713" t="s">
+        <v>51</v>
+      </c>
+      <c r="H713" t="s">
+        <v>1379</v>
+      </c>
+      <c r="I713" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="714" spans="1:9">
+      <c r="A714" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B714" s="2">
+        <v>0.85902777777777783</v>
+      </c>
+      <c r="C714" t="s">
+        <v>765</v>
+      </c>
+      <c r="D714" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E714">
+        <v>100</v>
+      </c>
+      <c r="F714" t="s">
+        <v>42</v>
+      </c>
+      <c r="G714" t="s">
+        <v>29</v>
+      </c>
+      <c r="H714" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="715" spans="1:9">
+      <c r="A715" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B715" s="2">
+        <v>5.9027777777777783E-2</v>
+      </c>
+      <c r="C715" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D715" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E715">
+        <v>220</v>
+      </c>
+      <c r="F715" t="s">
+        <v>23</v>
+      </c>
+      <c r="G715" t="s">
+        <v>51</v>
+      </c>
+      <c r="H715" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="716" spans="1:9">
+      <c r="A716" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B716" s="2">
+        <v>0.53611111111111109</v>
+      </c>
+      <c r="C716" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D716" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E716">
+        <v>10.88</v>
+      </c>
+      <c r="F716" t="s">
+        <v>45</v>
+      </c>
+      <c r="G716" t="s">
+        <v>51</v>
+      </c>
+      <c r="H716" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="717" spans="1:9">
+      <c r="A717" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B717" s="2">
+        <v>0.53611111111111109</v>
+      </c>
+      <c r="C717" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D717" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E717">
+        <v>50</v>
+      </c>
+      <c r="F717" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G717" t="s">
+        <v>51</v>
+      </c>
+      <c r="H717" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="718" spans="1:9">
+      <c r="A718" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B718" s="2">
+        <v>0.76527777777777783</v>
+      </c>
+      <c r="C718" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D718" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E718">
+        <v>1.9</v>
+      </c>
+      <c r="F718" t="s">
+        <v>45</v>
+      </c>
+      <c r="G718" t="s">
+        <v>51</v>
+      </c>
+      <c r="H718" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="719" spans="1:9">
+      <c r="A719" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B719" s="2">
+        <v>0.76944444444444438</v>
+      </c>
+      <c r="C719" t="s">
+        <v>449</v>
+      </c>
+      <c r="D719" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E719">
+        <v>20.6</v>
+      </c>
+      <c r="F719" t="s">
+        <v>45</v>
+      </c>
+      <c r="G719" t="s">
+        <v>51</v>
+      </c>
+      <c r="H719" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="720" spans="1:9">
+      <c r="A720" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B720" s="2">
+        <v>0.78194444444444444</v>
+      </c>
+      <c r="C720" t="s">
+        <v>136</v>
+      </c>
+      <c r="D720" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E720">
+        <v>350</v>
+      </c>
+      <c r="F720" t="s">
+        <v>42</v>
+      </c>
+      <c r="G720" t="s">
+        <v>51</v>
+      </c>
+      <c r="H720" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="721" spans="1:9">
+      <c r="A721" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B721" s="2">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="C721" t="s">
+        <v>78</v>
+      </c>
+      <c r="D721" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E721">
+        <v>0</v>
+      </c>
+      <c r="F721" t="s">
+        <v>42</v>
+      </c>
+      <c r="G721" t="s">
+        <v>51</v>
+      </c>
+      <c r="H721" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="722" spans="1:9">
+      <c r="A722" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B722" s="2">
+        <v>0.78680555555555554</v>
+      </c>
+      <c r="C722" t="s">
+        <v>274</v>
+      </c>
+      <c r="D722" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E722">
+        <v>7.9</v>
+      </c>
+      <c r="F722" t="s">
+        <v>1368</v>
+      </c>
+      <c r="G722" t="s">
+        <v>51</v>
+      </c>
+      <c r="H722" t="s">
+        <v>276</v>
+      </c>
+      <c r="I722" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="723" spans="1:9">
+      <c r="A723" s="1">
+        <v>44053</v>
+      </c>
+      <c r="B723" s="2">
+        <v>0.37708333333333338</v>
+      </c>
+      <c r="C723" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D723" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E723">
+        <v>5</v>
+      </c>
+      <c r="F723" t="s">
+        <v>45</v>
+      </c>
+      <c r="G723" t="s">
+        <v>51</v>
+      </c>
+      <c r="H723" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="724" spans="1:9">
+      <c r="A724" s="1">
+        <v>44053</v>
+      </c>
+      <c r="B724" s="2">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="C724" t="s">
+        <v>78</v>
+      </c>
+      <c r="D724" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E724">
+        <v>12.85</v>
+      </c>
+      <c r="F724" t="s">
+        <v>121</v>
+      </c>
+      <c r="G724" t="s">
+        <v>51</v>
+      </c>
+      <c r="H724" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="725" spans="1:9">
+      <c r="A725" s="1">
+        <v>44053</v>
+      </c>
+      <c r="B725" s="2">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="C725" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D725" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E725">
+        <v>11.8</v>
+      </c>
+      <c r="F725" t="s">
+        <v>45</v>
+      </c>
+      <c r="G725" t="s">
+        <v>51</v>
+      </c>
+      <c r="H725" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="726" spans="1:9">
+      <c r="A726" s="1">
+        <v>44053</v>
+      </c>
+      <c r="B726" s="2">
+        <v>0.7631944444444444</v>
+      </c>
+      <c r="C726" t="s">
+        <v>449</v>
+      </c>
+      <c r="D726" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E726">
+        <v>21</v>
+      </c>
+      <c r="F726" t="s">
+        <v>42</v>
+      </c>
+      <c r="G726" t="s">
+        <v>29</v>
+      </c>
+      <c r="H726" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="727" spans="1:9">
+      <c r="A727" s="1">
+        <v>44054</v>
+      </c>
+      <c r="B727" s="2">
+        <v>0.37708333333333338</v>
+      </c>
+      <c r="C727" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D727" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E727">
+        <v>5</v>
+      </c>
+      <c r="F727" t="s">
+        <v>45</v>
+      </c>
+      <c r="G727" t="s">
+        <v>51</v>
+      </c>
+      <c r="H727" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="728" spans="1:9">
+      <c r="A728" s="1">
+        <v>44054</v>
+      </c>
+      <c r="B728" s="2">
+        <v>0.47361111111111115</v>
+      </c>
+      <c r="C728" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D728" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E728">
+        <v>18</v>
+      </c>
+      <c r="F728" t="s">
+        <v>45</v>
+      </c>
+      <c r="G728" t="s">
+        <v>51</v>
+      </c>
+      <c r="H728" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="729" spans="1:9">
+      <c r="A729" s="1">
+        <v>44054</v>
+      </c>
+      <c r="B729" s="2">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="C729" t="s">
+        <v>207</v>
+      </c>
+      <c r="D729" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E729">
+        <v>1050</v>
+      </c>
+      <c r="F729" t="s">
+        <v>42</v>
+      </c>
+      <c r="G729" t="s">
+        <v>29</v>
+      </c>
+      <c r="H729" t="s">
+        <v>1375</v>
+      </c>
+      <c r="I729" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="730" spans="1:9">
+      <c r="A730" s="1">
+        <v>44054</v>
+      </c>
+      <c r="B730" s="2">
+        <v>0.7631944444444444</v>
+      </c>
+      <c r="C730" t="s">
+        <v>449</v>
+      </c>
+      <c r="D730" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E730">
+        <v>14.8</v>
+      </c>
+      <c r="F730" t="s">
+        <v>42</v>
+      </c>
+      <c r="G730" t="s">
+        <v>29</v>
+      </c>
+      <c r="H730" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="731" spans="1:9">
+      <c r="A731" s="1">
+        <v>44055</v>
+      </c>
+      <c r="B731" s="2">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="C731" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D731" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E731">
+        <v>5</v>
+      </c>
+      <c r="F731" t="s">
+        <v>45</v>
+      </c>
+      <c r="G731" t="s">
+        <v>51</v>
+      </c>
+      <c r="H731" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="732" spans="1:9">
+      <c r="A732" s="1">
+        <v>44055</v>
+      </c>
+      <c r="B732" s="2">
+        <v>0.47152777777777777</v>
+      </c>
+      <c r="C732" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D732" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E732">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F732" t="s">
+        <v>45</v>
+      </c>
+      <c r="G732" t="s">
+        <v>51</v>
+      </c>
+      <c r="H732" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="733" spans="1:9">
+      <c r="A733" s="1">
+        <v>44055</v>
+      </c>
+      <c r="B733" s="2">
+        <v>0.74444444444444446</v>
+      </c>
+      <c r="C733" t="s">
+        <v>449</v>
+      </c>
+      <c r="D733" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E733">
+        <v>16.8</v>
+      </c>
+      <c r="F733" t="s">
+        <v>42</v>
+      </c>
+      <c r="G733" t="s">
+        <v>29</v>
+      </c>
+      <c r="H733" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="734" spans="1:9">
+      <c r="A734" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B734" s="2">
+        <v>0.37986111111111115</v>
+      </c>
+      <c r="C734" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D734" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E734">
+        <v>5</v>
+      </c>
+      <c r="F734" t="s">
+        <v>45</v>
+      </c>
+      <c r="G734" t="s">
+        <v>51</v>
+      </c>
+      <c r="H734" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="735" spans="1:9">
+      <c r="A735" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B735" s="2">
+        <v>0.47361111111111115</v>
+      </c>
+      <c r="C735" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D735" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E735">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F735" t="s">
+        <v>45</v>
+      </c>
+      <c r="G735" t="s">
+        <v>51</v>
+      </c>
+      <c r="H735" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="736" spans="1:9">
+      <c r="A736" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B736" s="2">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="C736" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D736" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E736">
+        <v>1000</v>
+      </c>
+      <c r="F736" t="s">
+        <v>23</v>
+      </c>
+      <c r="G736" t="s">
+        <v>51</v>
+      </c>
+      <c r="H736" t="s">
+        <v>263</v>
+      </c>
+      <c r="I736" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="737" spans="1:9">
+      <c r="A737" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B737" s="2">
+        <v>0.83611111111111114</v>
+      </c>
+      <c r="C737" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D737" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E737">
+        <v>22.9</v>
+      </c>
+      <c r="F737" t="s">
+        <v>45</v>
+      </c>
+      <c r="G737" t="s">
+        <v>51</v>
+      </c>
+      <c r="H737" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="738" spans="1:9">
+      <c r="A738" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B738" s="2">
+        <v>0.35972222222222222</v>
+      </c>
+      <c r="C738" t="s">
+        <v>67</v>
+      </c>
+      <c r="D738" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E738">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="F738" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G738" t="s">
+        <v>51</v>
+      </c>
+      <c r="H738" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="739" spans="1:9">
+      <c r="A739" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B739" s="2">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="C739" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D739" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E739">
+        <v>5</v>
+      </c>
+      <c r="F739" t="s">
+        <v>45</v>
+      </c>
+      <c r="G739" t="s">
+        <v>51</v>
+      </c>
+      <c r="H739" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="740" spans="1:9">
+      <c r="A740" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B740" s="2">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="C740" t="s">
+        <v>980</v>
+      </c>
+      <c r="D740" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E740">
+        <v>2.6</v>
+      </c>
+      <c r="F740" t="s">
+        <v>23</v>
+      </c>
+      <c r="G740" t="s">
+        <v>51</v>
+      </c>
+      <c r="H740" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="741" spans="1:9">
+      <c r="A741" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B741" s="2">
+        <v>0.47083333333333338</v>
+      </c>
+      <c r="C741" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D741" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E741">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F741" t="s">
+        <v>45</v>
+      </c>
+      <c r="G741" t="s">
+        <v>51</v>
+      </c>
+      <c r="H741" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="742" spans="1:9">
+      <c r="A742" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B742" s="2">
+        <v>0.70208333333333339</v>
+      </c>
+      <c r="C742" t="s">
+        <v>78</v>
+      </c>
+      <c r="D742" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E742">
+        <v>15.8</v>
+      </c>
+      <c r="F742" t="s">
+        <v>121</v>
+      </c>
+      <c r="G742" t="s">
+        <v>51</v>
+      </c>
+      <c r="H742" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="743" spans="1:9">
+      <c r="A743" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B743" s="2">
+        <v>0.72152777777777777</v>
+      </c>
+      <c r="C743" t="s">
+        <v>78</v>
+      </c>
+      <c r="D743" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E743">
+        <v>18.8</v>
+      </c>
+      <c r="F743" t="s">
+        <v>773</v>
+      </c>
+      <c r="G743" t="s">
+        <v>51</v>
+      </c>
+      <c r="H743" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="744" spans="1:9">
+      <c r="A744" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B744" s="2">
+        <v>0.72430555555555554</v>
+      </c>
+      <c r="C744" t="s">
+        <v>78</v>
+      </c>
+      <c r="D744" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E744">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="F744" t="s">
+        <v>1352</v>
+      </c>
+      <c r="G744" t="s">
+        <v>51</v>
+      </c>
+      <c r="H744" t="s">
+        <v>1285</v>
+      </c>
+      <c r="I744" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="745" spans="1:9">
+      <c r="A745" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B745" s="2">
+        <v>0.7284722222222223</v>
+      </c>
+      <c r="C745" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D745" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E745">
+        <v>151.095</v>
+      </c>
+      <c r="F745" t="s">
+        <v>42</v>
+      </c>
+      <c r="G745" t="s">
+        <v>29</v>
+      </c>
+      <c r="H745" t="s">
+        <v>1375</v>
+      </c>
+      <c r="I745" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="746" spans="1:9">
+      <c r="A746" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B746" s="2">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="C746" t="s">
+        <v>449</v>
+      </c>
+      <c r="D746" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E746">
+        <v>9.6</v>
+      </c>
+      <c r="F746" t="s">
+        <v>45</v>
+      </c>
+      <c r="G746" t="s">
+        <v>51</v>
+      </c>
+      <c r="H746" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="747" spans="1:9">
+      <c r="A747" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B747" s="2">
+        <v>0.73888888888888893</v>
+      </c>
+      <c r="C747" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D747" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E747">
+        <v>31.8</v>
+      </c>
+      <c r="F747" t="s">
+        <v>23</v>
+      </c>
+      <c r="G747" t="s">
+        <v>51</v>
+      </c>
+      <c r="H747" t="s">
+        <v>263</v>
+      </c>
+      <c r="I747" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="748" spans="1:9">
+      <c r="A748" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B748" s="2">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="C748" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D748" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E748">
+        <v>19.3</v>
+      </c>
+      <c r="F748" t="s">
+        <v>45</v>
+      </c>
+      <c r="G748" t="s">
+        <v>51</v>
+      </c>
+      <c r="H748" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="749" spans="1:9">
+      <c r="A749" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B749" s="2">
+        <v>0.80763888888888891</v>
+      </c>
+      <c r="C749" t="s">
+        <v>449</v>
+      </c>
+      <c r="D749" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E749">
+        <v>7.64</v>
+      </c>
+      <c r="F749" t="s">
+        <v>45</v>
+      </c>
+      <c r="G749" t="s">
+        <v>51</v>
+      </c>
+      <c r="H749" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="750" spans="1:9">
+      <c r="A750" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B750" s="2">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="C750" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D750" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E750">
+        <v>12.56</v>
+      </c>
+      <c r="F750" t="s">
+        <v>45</v>
+      </c>
+      <c r="G750" t="s">
+        <v>51</v>
+      </c>
+      <c r="H750" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="751" spans="1:9">
+      <c r="A751" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B751" s="2">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="C751" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D751" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E751">
+        <v>18</v>
+      </c>
+      <c r="F751" t="s">
+        <v>42</v>
+      </c>
+      <c r="G751" t="s">
+        <v>29</v>
+      </c>
+      <c r="H751" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="752" spans="1:9">
+      <c r="A752" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B752" s="2">
+        <v>0.62361111111111112</v>
+      </c>
+      <c r="C752" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D752" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E752">
+        <v>10</v>
+      </c>
+      <c r="F752" t="s">
+        <v>42</v>
+      </c>
+      <c r="G752" t="s">
+        <v>29</v>
+      </c>
+      <c r="H752" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="753" spans="1:9">
+      <c r="A753" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B753" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C753" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D753" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E753">
+        <v>97</v>
+      </c>
+      <c r="F753" t="s">
+        <v>42</v>
+      </c>
+      <c r="G753" t="s">
+        <v>303</v>
+      </c>
+      <c r="H753" t="s">
+        <v>1286</v>
+      </c>
+      <c r="I753" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="754" spans="1:9">
+      <c r="A754" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B754" s="2">
+        <v>0.94166666666666676</v>
+      </c>
+      <c r="C754" t="s">
+        <v>78</v>
+      </c>
+      <c r="D754" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E754">
+        <v>0</v>
+      </c>
+      <c r="F754" t="s">
+        <v>42</v>
+      </c>
+      <c r="G754" t="s">
+        <v>51</v>
+      </c>
+      <c r="H754" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="755" spans="1:9">
+      <c r="A755" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B755" s="2">
+        <v>0.37013888888888885</v>
+      </c>
+      <c r="C755" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D755" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E755">
+        <v>5</v>
+      </c>
+      <c r="F755" t="s">
+        <v>45</v>
+      </c>
+      <c r="G755" t="s">
+        <v>51</v>
+      </c>
+      <c r="H755" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="756" spans="1:9">
+      <c r="A756" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B756" s="2">
+        <v>0.47361111111111115</v>
+      </c>
+      <c r="C756" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D756" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E756">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="F756" t="s">
+        <v>45</v>
+      </c>
+      <c r="G756" t="s">
+        <v>51</v>
+      </c>
+      <c r="H756" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="757" spans="1:9">
+      <c r="A757" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B757" s="2">
+        <v>0.8520833333333333</v>
+      </c>
+      <c r="C757" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D757" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E757">
+        <v>10.88</v>
+      </c>
+      <c r="F757" t="s">
+        <v>45</v>
+      </c>
+      <c r="G757" t="s">
+        <v>51</v>
+      </c>
+      <c r="H757" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="758" spans="1:9">
+      <c r="A758" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B758" s="2">
+        <v>0.37361111111111112</v>
+      </c>
+      <c r="C758" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D758" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E758">
+        <v>5</v>
+      </c>
+      <c r="F758" t="s">
+        <v>45</v>
+      </c>
+      <c r="G758" t="s">
+        <v>51</v>
+      </c>
+      <c r="H758" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="759" spans="1:9">
+      <c r="A759" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B759" s="2">
+        <v>0.47361111111111115</v>
+      </c>
+      <c r="C759" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D759" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E759">
+        <v>14.6</v>
+      </c>
+      <c r="F759" t="s">
+        <v>45</v>
+      </c>
+      <c r="G759" t="s">
+        <v>51</v>
+      </c>
+      <c r="H759" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="760" spans="1:9">
+      <c r="A760" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B760" s="2">
+        <v>0.77222222222222225</v>
+      </c>
+      <c r="C760" t="s">
+        <v>449</v>
+      </c>
+      <c r="D760" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E760">
+        <v>15</v>
+      </c>
+      <c r="F760" t="s">
+        <v>23</v>
+      </c>
+      <c r="G760" t="s">
+        <v>51</v>
+      </c>
+      <c r="H760" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="761" spans="1:9">
+      <c r="A761" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B761" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C761" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D761" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E761">
+        <v>5</v>
+      </c>
+      <c r="F761" t="s">
+        <v>45</v>
+      </c>
+      <c r="G761" t="s">
+        <v>51</v>
+      </c>
+      <c r="H761" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="762" spans="1:9">
+      <c r="A762" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B762" s="2">
+        <v>0.4770833333333333</v>
+      </c>
+      <c r="C762" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D762" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E762">
+        <v>15.8</v>
+      </c>
+      <c r="F762" t="s">
+        <v>45</v>
+      </c>
+      <c r="G762" t="s">
+        <v>51</v>
+      </c>
+      <c r="H762" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="763" spans="1:9">
+      <c r="A763" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B763" s="2">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="C763" t="s">
+        <v>449</v>
+      </c>
+      <c r="D763" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E763">
+        <v>15.5</v>
+      </c>
+      <c r="F763" t="s">
+        <v>42</v>
+      </c>
+      <c r="G763" t="s">
+        <v>29</v>
+      </c>
+      <c r="H763" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="764" spans="1:9">
+      <c r="A764" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B764" s="2">
+        <v>0.3215277777777778</v>
+      </c>
+      <c r="C764" t="s">
+        <v>32</v>
+      </c>
+      <c r="D764" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E764">
+        <v>3</v>
+      </c>
+      <c r="F764" t="s">
+        <v>42</v>
+      </c>
+      <c r="G764" t="s">
+        <v>29</v>
+      </c>
+      <c r="H764" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="765" spans="1:9">
+      <c r="A765" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B765" s="2">
+        <v>0.32916666666666666</v>
+      </c>
+      <c r="C765" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D765" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E765">
+        <v>25</v>
+      </c>
+      <c r="F765" t="s">
+        <v>23</v>
+      </c>
+      <c r="G765" t="s">
+        <v>51</v>
+      </c>
+      <c r="H765" t="s">
+        <v>1366</v>
+      </c>
+      <c r="I765" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="766" spans="1:9">
+      <c r="A766" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B766" s="2">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="C766" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D766" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E766">
+        <v>821</v>
+      </c>
+      <c r="F766" t="s">
+        <v>42</v>
+      </c>
+      <c r="G766" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H766" t="s">
+        <v>1391</v>
+      </c>
+      <c r="I766" s="48" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="767" spans="1:9">
+      <c r="A767" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B767" s="2">
+        <v>0.4069444444444445</v>
+      </c>
+      <c r="C767" t="s">
+        <v>32</v>
+      </c>
+      <c r="D767" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E767">
+        <v>3</v>
+      </c>
+      <c r="F767" t="s">
+        <v>42</v>
+      </c>
+      <c r="G767" t="s">
+        <v>29</v>
+      </c>
+      <c r="H767" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="768" spans="1:9">
+      <c r="A768" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B768" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="C768" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D768" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E768">
+        <v>23.6</v>
+      </c>
+      <c r="F768" t="s">
+        <v>45</v>
+      </c>
+      <c r="G768" t="s">
+        <v>51</v>
+      </c>
+      <c r="H768" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="769" spans="1:8">
+      <c r="A769" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B769" s="2">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="C769" t="s">
+        <v>449</v>
+      </c>
+      <c r="D769" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E769">
+        <v>30</v>
+      </c>
+      <c r="F769" t="s">
+        <v>45</v>
+      </c>
+      <c r="G769" t="s">
+        <v>51</v>
+      </c>
+      <c r="H769" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="770" spans="1:8">
+      <c r="A770" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B770" s="2">
+        <v>0.83611111111111114</v>
+      </c>
+      <c r="C770" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D770" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E770">
+        <v>18.96</v>
+      </c>
+      <c r="F770" t="s">
+        <v>45</v>
+      </c>
+      <c r="G770" t="s">
+        <v>51</v>
+      </c>
+      <c r="H770" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="771" spans="1:8">
+      <c r="A771" s="1"/>
+      <c r="B771" s="2"/>
+    </row>
+    <row r="772" spans="1:8">
+      <c r="A772" s="1"/>
+      <c r="B772" s="2"/>
+    </row>
+    <row r="773" spans="1:8">
+      <c r="A773" s="1"/>
+      <c r="B773" s="2"/>
+    </row>
+    <row r="774" spans="1:8">
+      <c r="A774" s="1"/>
+      <c r="B774" s="2"/>
+    </row>
+    <row r="775" spans="1:8">
+      <c r="A775" s="1"/>
+      <c r="B775" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
+    <mergeCell ref="K308:R308"/>
     <mergeCell ref="K1:U1"/>
     <mergeCell ref="K32:S32"/>
     <mergeCell ref="K76:S76"/>
@@ -39338,7 +42101,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:C27" xr:uid="{5D70956C-08BC-1847-9287-58E3F0F5D56D}">
       <formula1>"出行,饮品,午饭,晚饭,水果,转账,充值,烟,酒,保险,超市"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M30 C28:C49 M54:M74 C62 C533 C538:C540 C542 C545" xr:uid="{4C9076EE-28FE-714B-A0EA-145826F14EE2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M30 C28:C49 M54:M74 C62 C534 C539:C541 C543 C546" xr:uid="{4C9076EE-28FE-714B-A0EA-145826F14EE2}">
       <formula1>"超市,电影,网购,出行,饮品,午饭,晚饭,水果,转账,充值,烟,酒,保险"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S30 S54:S74" xr:uid="{194ABDD9-8D09-FC45-ACB3-2CCED48F5B47}">
@@ -39351,12 +42114,16 @@
       <formula1>"超市,门票,电影,网购,出行,饮品,午饭,晚饭,水果,转账,充值,烟,酒,房租,保险"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="I766" location="records!K308" display="广州中医药大学深圳医院(福田) 治疗收费单" xr:uid="{FEE832A8-945B-3448-8F61-D994021BA0DE}"/>
+    <hyperlink ref="K308:R308" location="records!I766" display="广州中医药大学深圳医院(福田)治疗收费单" xr:uid="{DC1C4AFB-9150-F049-9B73-97F7EACA1561}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
     <ignoredError sqref="S61:S74 M61:M74" listDataValidation="1"/>
   </ignoredErrors>
-  <tableParts count="21">
+  <tableParts count="22">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -39378,11 +42145,1799 @@
     <tablePart r:id="rId19"/>
     <tablePart r:id="rId20"/>
     <tablePart r:id="rId21"/>
+    <tablePart r:id="rId22"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09C0548-CF87-AE41-864A-EA52BE79D2C5}">
+  <dimension ref="A1:I68"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H68" sqref="A2:I68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G1" t="s">
+        <v>475</v>
+      </c>
+      <c r="H1" t="s">
+        <v>476</v>
+      </c>
+      <c r="I1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.37361111111111112</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.37013888888888885</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.37986111111111115</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>44055</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>44054</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.37708333333333338</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>44053</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.37708333333333338</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.3659722222222222</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.3659722222222222</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E13">
+        <v>97</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" t="s">
+        <v>303</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1286</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.83611111111111114</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E14">
+        <v>18.96</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="C15" t="s">
+        <v>449</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E15">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E16">
+        <v>23.6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.4770833333333333</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E17">
+        <v>15.8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.47361111111111115</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E18">
+        <v>14.6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.8520833333333333</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E19">
+        <v>10.88</v>
+      </c>
+      <c r="F19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.47361111111111115</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E20">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="F20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E21">
+        <v>12.56</v>
+      </c>
+      <c r="F21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.80763888888888891</v>
+      </c>
+      <c r="C22" t="s">
+        <v>449</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E22">
+        <v>7.64</v>
+      </c>
+      <c r="F22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E23">
+        <v>19.3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="C24" t="s">
+        <v>449</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E24">
+        <v>9.6</v>
+      </c>
+      <c r="F24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.47083333333333338</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E25">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.83611111111111114</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E26">
+        <v>22.9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.47361111111111115</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E27">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F27" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
+        <v>44055</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.47152777777777777</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E28">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
+        <v>44054</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.47361111111111115</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E29">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>44053</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E30">
+        <v>11.8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.76944444444444438</v>
+      </c>
+      <c r="C31" t="s">
+        <v>449</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E31">
+        <v>20.6</v>
+      </c>
+      <c r="F31" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.76527777777777783</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E32">
+        <v>1.9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.53611111111111109</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E33">
+        <v>10.88</v>
+      </c>
+      <c r="F33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.53611111111111109</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E34">
+        <v>50</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G34" t="s">
+        <v>51</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E35">
+        <v>19</v>
+      </c>
+      <c r="F35" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" t="s">
+        <v>51</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.87222222222222223</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E36">
+        <v>20.7</v>
+      </c>
+      <c r="F36" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E37">
+        <v>7.98</v>
+      </c>
+      <c r="F37" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E38">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="F38" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" t="s">
+        <v>51</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E39">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="F39" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" t="s">
+        <v>51</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.72430555555555554</v>
+      </c>
+      <c r="C40" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E40">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1352</v>
+      </c>
+      <c r="G40" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1285</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.72152777777777777</v>
+      </c>
+      <c r="C41" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E41">
+        <v>18.8</v>
+      </c>
+      <c r="F41" t="s">
+        <v>773</v>
+      </c>
+      <c r="G41" t="s">
+        <v>51</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.70208333333333339</v>
+      </c>
+      <c r="C42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E42">
+        <v>15.8</v>
+      </c>
+      <c r="F42" t="s">
+        <v>121</v>
+      </c>
+      <c r="G42" t="s">
+        <v>51</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1">
+        <v>44053</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="C43" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E43">
+        <v>12.85</v>
+      </c>
+      <c r="F43" t="s">
+        <v>121</v>
+      </c>
+      <c r="G43" t="s">
+        <v>51</v>
+      </c>
+      <c r="H43" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.50069444444444444</v>
+      </c>
+      <c r="C44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E44">
+        <v>4.8</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1357</v>
+      </c>
+      <c r="G44" t="s">
+        <v>51</v>
+      </c>
+      <c r="H44" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.49374999999999997</v>
+      </c>
+      <c r="C45" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E45">
+        <v>8.9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>121</v>
+      </c>
+      <c r="G45" t="s">
+        <v>51</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="C46" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E46">
+        <v>3.9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>121</v>
+      </c>
+      <c r="G46" t="s">
+        <v>51</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="C47" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E47">
+        <v>8.82</v>
+      </c>
+      <c r="F47" t="s">
+        <v>121</v>
+      </c>
+      <c r="G47" t="s">
+        <v>51</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.57013888888888886</v>
+      </c>
+      <c r="C48" t="s">
+        <v>78</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E48">
+        <v>3.94</v>
+      </c>
+      <c r="F48" t="s">
+        <v>121</v>
+      </c>
+      <c r="G48" t="s">
+        <v>51</v>
+      </c>
+      <c r="H48" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="C49" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E49">
+        <v>0.9</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G49" t="s">
+        <v>51</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.39097222222222222</v>
+      </c>
+      <c r="C50" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E50">
+        <v>1.36</v>
+      </c>
+      <c r="F50" t="s">
+        <v>121</v>
+      </c>
+      <c r="G50" t="s">
+        <v>51</v>
+      </c>
+      <c r="H50" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C51" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E51">
+        <v>15.9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>121</v>
+      </c>
+      <c r="G51" t="s">
+        <v>51</v>
+      </c>
+      <c r="H51" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="C52" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E52">
+        <v>26.01</v>
+      </c>
+      <c r="F52" t="s">
+        <v>121</v>
+      </c>
+      <c r="G52" t="s">
+        <v>51</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.94166666666666676</v>
+      </c>
+      <c r="C53" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>42</v>
+      </c>
+      <c r="G53" t="s">
+        <v>51</v>
+      </c>
+      <c r="H53" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="C54" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>42</v>
+      </c>
+      <c r="G54" t="s">
+        <v>51</v>
+      </c>
+      <c r="H54" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0.78194444444444444</v>
+      </c>
+      <c r="C55" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E55">
+        <v>350</v>
+      </c>
+      <c r="F55" t="s">
+        <v>42</v>
+      </c>
+      <c r="G55" t="s">
+        <v>51</v>
+      </c>
+      <c r="H55" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0.35972222222222222</v>
+      </c>
+      <c r="C56" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E56">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G56" t="s">
+        <v>51</v>
+      </c>
+      <c r="H56" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0.32916666666666666</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E57">
+        <v>25</v>
+      </c>
+      <c r="F57" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" t="s">
+        <v>51</v>
+      </c>
+      <c r="H57" t="s">
+        <v>1366</v>
+      </c>
+      <c r="I57" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0.78680555555555554</v>
+      </c>
+      <c r="C58" t="s">
+        <v>274</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E58">
+        <v>7.9</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1368</v>
+      </c>
+      <c r="G58" t="s">
+        <v>51</v>
+      </c>
+      <c r="H58" t="s">
+        <v>276</v>
+      </c>
+      <c r="I58" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0.77222222222222225</v>
+      </c>
+      <c r="C59" t="s">
+        <v>449</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E59">
+        <v>15</v>
+      </c>
+      <c r="F59" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" t="s">
+        <v>51</v>
+      </c>
+      <c r="H59" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0.73888888888888893</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E60">
+        <v>31.8</v>
+      </c>
+      <c r="F60" t="s">
+        <v>23</v>
+      </c>
+      <c r="G60" t="s">
+        <v>51</v>
+      </c>
+      <c r="H60" t="s">
+        <v>263</v>
+      </c>
+      <c r="I60" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B61" s="2">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="C61" t="s">
+        <v>980</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E61">
+        <v>2.6</v>
+      </c>
+      <c r="F61" t="s">
+        <v>23</v>
+      </c>
+      <c r="G61" t="s">
+        <v>51</v>
+      </c>
+      <c r="H61" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B62" s="2">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E62">
+        <v>1000</v>
+      </c>
+      <c r="G62" t="s">
+        <v>51</v>
+      </c>
+      <c r="H62" t="s">
+        <v>263</v>
+      </c>
+      <c r="I62" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="C63" t="s">
+        <v>208</v>
+      </c>
+      <c r="D63" t="s">
+        <v>208</v>
+      </c>
+      <c r="E63">
+        <v>1050</v>
+      </c>
+      <c r="G63" t="s">
+        <v>24</v>
+      </c>
+      <c r="H63" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="1"/>
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B65" s="2">
+        <v>5.9027777777777783E-2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E65">
+        <v>220</v>
+      </c>
+      <c r="F65" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65" t="s">
+        <v>51</v>
+      </c>
+      <c r="H65" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0.84652777777777777</v>
+      </c>
+      <c r="C66" t="s">
+        <v>53</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E66">
+        <v>23</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G66" t="s">
+        <v>51</v>
+      </c>
+      <c r="H66" t="s">
+        <v>1379</v>
+      </c>
+      <c r="I66" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B67" s="2">
+        <v>0.81666666666666676</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E67">
+        <v>40.75</v>
+      </c>
+      <c r="F67" t="s">
+        <v>23</v>
+      </c>
+      <c r="G67" t="s">
+        <v>51</v>
+      </c>
+      <c r="H67" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B68" s="2">
+        <v>0.75902777777777775</v>
+      </c>
+      <c r="C68" t="s">
+        <v>945</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E68">
+        <v>19</v>
+      </c>
+      <c r="F68" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" t="s">
+        <v>51</v>
+      </c>
+      <c r="H68" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB2B069-B7D1-B241-94FB-BD2BABA4F21B}">
   <dimension ref="A1:AV29"/>
   <sheetViews>
@@ -41929,7 +46484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD00F1D-BDF3-F84D-B5ED-A52D485635D1}">
   <dimension ref="A1:AR3"/>
   <sheetViews>
@@ -42353,7 +46908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7449864C-81B0-2843-812E-DB373BCCD68D}">
   <dimension ref="A1:AR2"/>
   <sheetViews>
@@ -42643,7 +47198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F579D7EB-98F9-654B-82DC-57DD86037272}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -42679,7 +47234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2FF376-F086-744B-9590-1745A2BB9815}">
   <dimension ref="A1:AR44"/>
   <sheetViews>
@@ -42829,163 +47384,163 @@
         <v>24</v>
       </c>
       <c r="C2">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A2, records!B2:B731, "&gt;=" &amp; template!C1,records!B2:B731, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!C1,records!B2:B775, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A2, records!B2:B731, "&gt;=" &amp; template!D1,records!B2:B731, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!D1,records!B2:B775, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E2">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A2, records!B2:B731, "&gt;=" &amp; template!E1,records!B2:B731, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!E1,records!B2:B775, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F2">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A2, records!B2:B731, "&gt;=" &amp; template!F1,records!B2:B731, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!F1,records!B2:B775, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A2, records!B2:B731, "&gt;=" &amp; template!G1,records!B2:B731, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!G1,records!B2:B775, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H2">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A2, records!B2:B731, "&gt;=" &amp; template!H1,records!B2:B731, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!H1,records!B2:B775, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I2">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A2, records!B2:B731, "&gt;=" &amp; template!I1,records!B2:B731, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!I1,records!B2:B775, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J2">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A2, records!B2:B731, "&gt;=" &amp; template!J1,records!B2:B731, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!J1,records!B2:B775, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K2">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A2, records!B2:B731, "&gt;=" &amp; template!K1,records!B2:B731, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!K1,records!B2:B775, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L2">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A2, records!B2:B731, "&gt;=" &amp; template!L1,records!B2:B731, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!L1,records!B2:B775, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M2">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A2, records!B2:B731, "&gt;=" &amp; template!M1,records!B2:B731, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!M1,records!B2:B775, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N2">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A2, records!B2:B731, "&gt;=" &amp; template!N1,records!B2:B731, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!N1,records!B2:B775, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O2">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A2, records!B2:B731, "&gt;=" &amp; template!O1,records!B2:B731, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!O1,records!B2:B775, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P2">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A2, records!B2:B731, "&gt;=" &amp; template!P1,records!B2:B731, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!P1,records!B2:B775, "&lt;" &amp; template!Q1)</f>
         <v>24</v>
       </c>
       <c r="Q2">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A2, records!B2:B731, "&gt;=" &amp; template!Q1,records!B2:B731, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!Q1,records!B2:B775, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R2">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A2, records!B2:B731, "&gt;=" &amp; template!R1,records!B2:B731, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!R1,records!B2:B775, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S2">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A2, records!B2:B731, "&gt;=" &amp; template!S1,records!B2:B731, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!S1,records!B2:B775, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T2">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A2, records!B2:B731, "&gt;=" &amp; template!T1,records!B2:B731, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!T1,records!B2:B775, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U2">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A2, records!B2:B731, "&gt;=" &amp; template!U1,records!B2:B731, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!U1,records!B2:B775, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V2">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A2, records!B2:B731, "&gt;=" &amp; template!V1,records!B2:B731, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!V1,records!B2:B775, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W2">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A2, records!B2:B731, "&gt;=" &amp; template!W1,records!B2:B731, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!W1,records!B2:B775, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X2">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A2, records!B2:B731, "&gt;=" &amp; template!X1,records!B2:B731, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!X1,records!B2:B775, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y2">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A2, records!B2:B731, "&gt;=" &amp; template!Y1,records!B2:B731, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!Y1,records!B2:B775, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z2">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A2, records!B2:B731, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA2">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A2,records!G2:G731,template!AA1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2,records!G2:G775,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB2">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A2,records!G2:G731,template!AB1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2,records!G2:G775,template!AB1)</f>
         <v>24</v>
       </c>
       <c r="AC2">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A2,records!G2:G731,template!AC1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2,records!G2:G775,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD2">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A2,records!G2:G731,template!AD1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2,records!G2:G775,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE2">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A2,records!C2:C731,template!AE1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2,records!C2:C775,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF2">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A2,records!C2:C731,template!AF1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2,records!C2:C775,template!AF1)</f>
         <v>24</v>
       </c>
       <c r="AG2">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A2,records!C2:C731,template!AG1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2,records!C2:C775,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH2">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A2,records!C2:C731,template!AH1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2,records!C2:C775,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI2">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A2,records!C2:C731,template!AI1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2,records!C2:C775,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ2">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A2,records!C2:C731,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2,records!C2:C775,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK2">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A2,records!C2:C731,template!AK1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2,records!C2:C775,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL2">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A2,records!C2:C731,template!AL1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2,records!C2:C775,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM2">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A2,records!C2:C731,template!AM1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2,records!C2:C775,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN2">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A2,records!C2:C731,template!AN1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2,records!C2:C775,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO2">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A2,records!C2:C731,template!AO1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2,records!C2:C775,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP2">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A2,records!C2:C731,template!AP1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2,records!C2:C775,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -42998,163 +47553,163 @@
         <v>22</v>
       </c>
       <c r="C3">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A3, records!B2:B731, "&gt;=" &amp; template!C1,records!B2:B731, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!C1,records!B2:B775, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D3" s="14">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A3, records!B2:B731, "&gt;=" &amp; template!D1,records!B2:B731, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!D1,records!B2:B775, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A3, records!B2:B731, "&gt;=" &amp; template!E1,records!B2:B731, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!E1,records!B2:B775, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F3">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A3, records!B2:B731, "&gt;=" &amp; template!F1,records!B2:B731, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!F1,records!B2:B775, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G3">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A3, records!B2:B731, "&gt;=" &amp; template!G1,records!B2:B731, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!G1,records!B2:B775, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H3">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A3, records!B2:B731, "&gt;=" &amp; template!H1,records!B2:B731, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!H1,records!B2:B775, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I3">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A3, records!B2:B731, "&gt;=" &amp; template!I1,records!B2:B731, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!I1,records!B2:B775, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J3">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A3, records!B2:B731, "&gt;=" &amp; template!J1,records!B2:B731, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!J1,records!B2:B775, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A3, records!B2:B731, "&gt;=" &amp; template!K1,records!B2:B731, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!K1,records!B2:B775, "&lt;" &amp; template!L1)</f>
         <v>3</v>
       </c>
       <c r="L3">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A3, records!B2:B731, "&gt;=" &amp; template!L1,records!B2:B731, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!L1,records!B2:B775, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M3">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A3, records!B2:B731, "&gt;=" &amp; template!M1,records!B2:B731, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!M1,records!B2:B775, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N3">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A3, records!B2:B731, "&gt;=" &amp; template!N1,records!B2:B731, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!N1,records!B2:B775, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O3">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A3, records!B2:B731, "&gt;=" &amp; template!O1,records!B2:B731, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!O1,records!B2:B775, "&lt;" &amp; template!P1)</f>
         <v>16</v>
       </c>
       <c r="P3">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A3, records!B2:B731, "&gt;=" &amp; template!P1,records!B2:B731, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!P1,records!B2:B775, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A3, records!B2:B731, "&gt;=" &amp; template!Q1,records!B2:B731, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!Q1,records!B2:B775, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R3">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A3, records!B2:B731, "&gt;=" &amp; template!R1,records!B2:B731, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!R1,records!B2:B775, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S3">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A3, records!B2:B731, "&gt;=" &amp; template!S1,records!B2:B731, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!S1,records!B2:B775, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T3">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A3, records!B2:B731, "&gt;=" &amp; template!T1,records!B2:B731, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!T1,records!B2:B775, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U3">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A3, records!B2:B731, "&gt;=" &amp; template!U1,records!B2:B731, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!U1,records!B2:B775, "&lt;" &amp; template!V1)</f>
         <v>3</v>
       </c>
       <c r="V3">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A3, records!B2:B731, "&gt;=" &amp; template!V1,records!B2:B731, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!V1,records!B2:B775, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W3">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A3, records!B2:B731, "&gt;=" &amp; template!W1,records!B2:B731, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!W1,records!B2:B775, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X3">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A3, records!B2:B731, "&gt;=" &amp; template!X1,records!B2:B731, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!X1,records!B2:B775, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y3">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A3, records!B2:B731, "&gt;=" &amp; template!Y1,records!B2:B731, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!Y1,records!B2:B775, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z3">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A3, records!B2:B731, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA3">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A3,records!G2:G731,template!AA1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3,records!G2:G775,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB3">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A3,records!G2:G731,template!AB1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3,records!G2:G775,template!AB1)</f>
         <v>22</v>
       </c>
       <c r="AC3">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A3,records!G2:G731,template!AC1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3,records!G2:G775,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD3">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A3,records!G2:G731,template!AD1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3,records!G2:G775,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE3">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A3,records!C2:C731,template!AE1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3,records!C2:C775,template!AE1)</f>
         <v>6</v>
       </c>
       <c r="AF3">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A3,records!C2:C731,template!AF1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3,records!C2:C775,template!AF1)</f>
         <v>16</v>
       </c>
       <c r="AG3">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A3,records!C2:C731,template!AG1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3,records!C2:C775,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH3">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A3,records!C2:C731,template!AH1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3,records!C2:C775,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI3">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A3,records!C2:C731,template!AI1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3,records!C2:C775,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ3">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A3,records!C2:C731,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3,records!C2:C775,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK3">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A3,records!C2:C731,template!AK1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3,records!C2:C775,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL3">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A3,records!C2:C731,template!AL1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3,records!C2:C775,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM3">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A3,records!C2:C731,template!AM1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3,records!C2:C775,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN3">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A3,records!C2:C731,template!AN1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3,records!C2:C775,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO3">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A3,records!C2:C731,template!AO1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3,records!C2:C775,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP3">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A3,records!C2:C731,template!AP1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3,records!C2:C775,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -43167,163 +47722,163 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A4, records!B2:B731, "&gt;=" &amp; template!C1,records!B2:B731, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!C1,records!B2:B775, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D4" s="14">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A4, records!B2:B731, "&gt;=" &amp; template!D1,records!B2:B731, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!D1,records!B2:B775, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A4, records!B2:B731, "&gt;=" &amp; template!E1,records!B2:B731, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!E1,records!B2:B775, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A4, records!B2:B731, "&gt;=" &amp; template!F1,records!B2:B731, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!F1,records!B2:B775, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G4">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A4, records!B2:B731, "&gt;=" &amp; template!G1,records!B2:B731, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!G1,records!B2:B775, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A4, records!B2:B731, "&gt;=" &amp; template!H1,records!B2:B731, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!H1,records!B2:B775, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A4, records!B2:B731, "&gt;=" &amp; template!I1,records!B2:B731, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!I1,records!B2:B775, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A4, records!B2:B731, "&gt;=" &amp; template!J1,records!B2:B731, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!J1,records!B2:B775, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A4, records!B2:B731, "&gt;=" &amp; template!K1,records!B2:B731, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!K1,records!B2:B775, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L4">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A4, records!B2:B731, "&gt;=" &amp; template!L1,records!B2:B731, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!L1,records!B2:B775, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M4">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A4, records!B2:B731, "&gt;=" &amp; template!M1,records!B2:B731, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!M1,records!B2:B775, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A4, records!B2:B731, "&gt;=" &amp; template!N1,records!B2:B731, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!N1,records!B2:B775, "&lt;" &amp; template!O1)</f>
         <v>16</v>
       </c>
       <c r="O4">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A4, records!B2:B731, "&gt;=" &amp; template!O1,records!B2:B731, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!O1,records!B2:B775, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P4">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A4, records!B2:B731, "&gt;=" &amp; template!P1,records!B2:B731, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!P1,records!B2:B775, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A4, records!B2:B731, "&gt;=" &amp; template!Q1,records!B2:B731, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!Q1,records!B2:B775, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R4">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A4, records!B2:B731, "&gt;=" &amp; template!R1,records!B2:B731, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!R1,records!B2:B775, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S4">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A4, records!B2:B731, "&gt;=" &amp; template!S1,records!B2:B731, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!S1,records!B2:B775, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T4">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A4, records!B2:B731, "&gt;=" &amp; template!T1,records!B2:B731, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!T1,records!B2:B775, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U4">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A4, records!B2:B731, "&gt;=" &amp; template!U1,records!B2:B731, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!U1,records!B2:B775, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V4">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A4, records!B2:B731, "&gt;=" &amp; template!V1,records!B2:B731, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!V1,records!B2:B775, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W4">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A4, records!B2:B731, "&gt;=" &amp; template!W1,records!B2:B731, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!W1,records!B2:B775, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X4">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A4, records!B2:B731, "&gt;=" &amp; template!X1,records!B2:B731, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!X1,records!B2:B775, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y4">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A4, records!B2:B731, "&gt;=" &amp; template!Y1,records!B2:B731, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!Y1,records!B2:B775, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z4">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A4, records!B2:B731, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA4">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A4,records!G2:G731,template!AA1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4,records!G2:G775,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB4">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A4,records!G2:G731,template!AB1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4,records!G2:G775,template!AB1)</f>
         <v>16</v>
       </c>
       <c r="AC4">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A4,records!G2:G731,template!AC1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4,records!G2:G775,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD4">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A4,records!G2:G731,template!AD1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4,records!G2:G775,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE4">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A4,records!C2:C731,template!AE1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4,records!C2:C775,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF4">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A4,records!C2:C731,template!AF1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4,records!C2:C775,template!AF1)</f>
         <v>16</v>
       </c>
       <c r="AG4">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A4,records!C2:C731,template!AG1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4,records!C2:C775,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH4">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A4,records!C2:C731,template!AH1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4,records!C2:C775,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI4">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A4,records!C2:C731,template!AI1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4,records!C2:C775,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ4">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A4,records!C2:C731,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4,records!C2:C775,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK4">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A4,records!C2:C731,template!AK1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4,records!C2:C775,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL4">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A4,records!C2:C731,template!AL1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4,records!C2:C775,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM4">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A4,records!C2:C731,template!AM1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4,records!C2:C775,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN4">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A4,records!C2:C731,template!AN1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4,records!C2:C775,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO4">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A4,records!C2:C731,template!AO1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4,records!C2:C775,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP4">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A4,records!C2:C731,template!AP1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4,records!C2:C775,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -43336,163 +47891,163 @@
         <v>69</v>
       </c>
       <c r="C5">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A5, records!B2:B731, "&gt;=" &amp; template!C1,records!B2:B731, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!C1,records!B2:B775, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D5" s="14">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A5, records!B2:B731, "&gt;=" &amp; template!D1,records!B2:B731, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!D1,records!B2:B775, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E5">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A5, records!B2:B731, "&gt;=" &amp; template!E1,records!B2:B731, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!E1,records!B2:B775, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F5">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A5, records!B2:B731, "&gt;=" &amp; template!F1,records!B2:B731, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!F1,records!B2:B775, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G5">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A5, records!B2:B731, "&gt;=" &amp; template!G1,records!B2:B731, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!G1,records!B2:B775, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H5">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A5, records!B2:B731, "&gt;=" &amp; template!H1,records!B2:B731, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!H1,records!B2:B775, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I5">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A5, records!B2:B731, "&gt;=" &amp; template!I1,records!B2:B731, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!I1,records!B2:B775, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J5">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A5, records!B2:B731, "&gt;=" &amp; template!J1,records!B2:B731, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!J1,records!B2:B775, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K5">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A5, records!B2:B731, "&gt;=" &amp; template!K1,records!B2:B731, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!K1,records!B2:B775, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L5">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A5, records!B2:B731, "&gt;=" &amp; template!L1,records!B2:B731, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!L1,records!B2:B775, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M5">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A5, records!B2:B731, "&gt;=" &amp; template!M1,records!B2:B731, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!M1,records!B2:B775, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N5">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A5, records!B2:B731, "&gt;=" &amp; template!N1,records!B2:B731, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!N1,records!B2:B775, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O5">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A5, records!B2:B731, "&gt;=" &amp; template!O1,records!B2:B731, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!O1,records!B2:B775, "&lt;" &amp; template!P1)</f>
         <v>34</v>
       </c>
       <c r="P5">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A5, records!B2:B731, "&gt;=" &amp; template!P1,records!B2:B731, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!P1,records!B2:B775, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q5">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A5, records!B2:B731, "&gt;=" &amp; template!Q1,records!B2:B731, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!Q1,records!B2:B775, "&lt;" &amp; template!R1)</f>
         <v>3</v>
       </c>
       <c r="R5">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A5, records!B2:B731, "&gt;=" &amp; template!R1,records!B2:B731, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!R1,records!B2:B775, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S5">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A5, records!B2:B731, "&gt;=" &amp; template!S1,records!B2:B731, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!S1,records!B2:B775, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T5">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A5, records!B2:B731, "&gt;=" &amp; template!T1,records!B2:B731, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!T1,records!B2:B775, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U5">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A5, records!B2:B731, "&gt;=" &amp; template!U1,records!B2:B731, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!U1,records!B2:B775, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V5">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A5, records!B2:B731, "&gt;=" &amp; template!V1,records!B2:B731, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!V1,records!B2:B775, "&lt;" &amp; template!W1)</f>
         <v>32</v>
       </c>
       <c r="W5">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A5, records!B2:B731, "&gt;=" &amp; template!W1,records!B2:B731, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!W1,records!B2:B775, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X5">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A5, records!B2:B731, "&gt;=" &amp; template!X1,records!B2:B731, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!X1,records!B2:B775, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y5">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A5, records!B2:B731, "&gt;=" &amp; template!Y1,records!B2:B731, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!Y1,records!B2:B775, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z5">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A5, records!B2:B731, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA5">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A5,records!G2:G731,template!AA1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5,records!G2:G775,template!AA1)</f>
         <v>66</v>
       </c>
       <c r="AB5">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A5,records!G2:G731,template!AB1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5,records!G2:G775,template!AB1)</f>
         <v>3</v>
       </c>
       <c r="AC5">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A5,records!G2:G731,template!AC1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5,records!G2:G775,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD5">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A5,records!G2:G731,template!AD1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5,records!G2:G775,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE5">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A5,records!C2:C731,template!AE1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5,records!C2:C775,template!AE1)</f>
         <v>32</v>
       </c>
       <c r="AF5">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A5,records!C2:C731,template!AF1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5,records!C2:C775,template!AF1)</f>
         <v>34</v>
       </c>
       <c r="AG5">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A5,records!C2:C731,template!AG1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5,records!C2:C775,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH5">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A5,records!C2:C731,template!AH1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5,records!C2:C775,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI5">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A5,records!C2:C731,template!AI1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5,records!C2:C775,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ5">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A5,records!C2:C731,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5,records!C2:C775,template!AJ1)</f>
         <v>3</v>
       </c>
       <c r="AK5">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A5,records!C2:C731,template!AK1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5,records!C2:C775,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL5">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A5,records!C2:C731,template!AL1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5,records!C2:C775,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM5">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A5,records!C2:C731,template!AM1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5,records!C2:C775,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN5">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A5,records!C2:C731,template!AN1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5,records!C2:C775,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO5">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A5,records!C2:C731,template!AO1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5,records!C2:C775,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP5">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A5,records!C2:C731,template!AP1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5,records!C2:C775,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -43505,163 +48060,163 @@
         <v>17</v>
       </c>
       <c r="C6">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A6, records!B2:B731, "&gt;=" &amp; template!C1,records!B2:B731, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!C1,records!B2:B775, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D6" s="14">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A6, records!B2:B731, "&gt;=" &amp; template!D1,records!B2:B731, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!D1,records!B2:B775, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E6">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A6, records!B2:B731, "&gt;=" &amp; template!E1,records!B2:B731, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!E1,records!B2:B775, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F6">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A6, records!B2:B731, "&gt;=" &amp; template!F1,records!B2:B731, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!F1,records!B2:B775, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A6, records!B2:B731, "&gt;=" &amp; template!G1,records!B2:B731, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!G1,records!B2:B775, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H6">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A6, records!B2:B731, "&gt;=" &amp; template!H1,records!B2:B731, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!H1,records!B2:B775, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I6">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A6, records!B2:B731, "&gt;=" &amp; template!I1,records!B2:B731, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!I1,records!B2:B775, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J6">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A6, records!B2:B731, "&gt;=" &amp; template!J1,records!B2:B731, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!J1,records!B2:B775, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K6">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A6, records!B2:B731, "&gt;=" &amp; template!K1,records!B2:B731, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!K1,records!B2:B775, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L6">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A6, records!B2:B731, "&gt;=" &amp; template!L1,records!B2:B731, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!L1,records!B2:B775, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M6">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A6, records!B2:B731, "&gt;=" &amp; template!M1,records!B2:B731, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!M1,records!B2:B775, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N6">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A6, records!B2:B731, "&gt;=" &amp; template!N1,records!B2:B731, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!N1,records!B2:B775, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O6">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A6, records!B2:B731, "&gt;=" &amp; template!O1,records!B2:B731, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!O1,records!B2:B775, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P6">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A6, records!B2:B731, "&gt;=" &amp; template!P1,records!B2:B731, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!P1,records!B2:B775, "&lt;" &amp; template!Q1)</f>
         <v>17</v>
       </c>
       <c r="Q6">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A6, records!B2:B731, "&gt;=" &amp; template!Q1,records!B2:B731, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!Q1,records!B2:B775, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R6">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A6, records!B2:B731, "&gt;=" &amp; template!R1,records!B2:B731, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!R1,records!B2:B775, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S6">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A6, records!B2:B731, "&gt;=" &amp; template!S1,records!B2:B731, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!S1,records!B2:B775, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T6">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A6, records!B2:B731, "&gt;=" &amp; template!T1,records!B2:B731, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!T1,records!B2:B775, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U6">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A6, records!B2:B731, "&gt;=" &amp; template!U1,records!B2:B731, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!U1,records!B2:B775, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V6">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A6, records!B2:B731, "&gt;=" &amp; template!V1,records!B2:B731, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!V1,records!B2:B775, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W6">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A6, records!B2:B731, "&gt;=" &amp; template!W1,records!B2:B731, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!W1,records!B2:B775, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X6">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A6, records!B2:B731, "&gt;=" &amp; template!X1,records!B2:B731, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!X1,records!B2:B775, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y6">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A6, records!B2:B731, "&gt;=" &amp; template!Y1,records!B2:B731, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!Y1,records!B2:B775, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z6">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A6, records!B2:B731, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA6">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A6,records!G2:G731,template!AA1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6,records!G2:G775,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB6">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A6,records!G2:G731,template!AB1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6,records!G2:G775,template!AB1)</f>
         <v>17</v>
       </c>
       <c r="AC6">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A6,records!G2:G731,template!AC1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6,records!G2:G775,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD6">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A6,records!G2:G731,template!AD1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6,records!G2:G775,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE6">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A6,records!C2:C731,template!AE1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6,records!C2:C775,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF6">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A6,records!C2:C731,template!AF1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6,records!C2:C775,template!AF1)</f>
         <v>17</v>
       </c>
       <c r="AG6">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A6,records!C2:C731,template!AG1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6,records!C2:C775,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH6">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A6,records!C2:C731,template!AH1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6,records!C2:C775,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI6">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A6,records!C2:C731,template!AI1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6,records!C2:C775,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ6">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A6,records!C2:C731,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6,records!C2:C775,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK6">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A6,records!C2:C731,template!AK1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6,records!C2:C775,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL6">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A6,records!C2:C731,template!AL1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6,records!C2:C775,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM6">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A6,records!C2:C731,template!AM1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6,records!C2:C775,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN6">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A6,records!C2:C731,template!AN1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6,records!C2:C775,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO6">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A6,records!C2:C731,template!AO1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6,records!C2:C775,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP6">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A6,records!C2:C731,template!AP1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6,records!C2:C775,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -43674,163 +48229,163 @@
         <v>146.69999999999999</v>
       </c>
       <c r="C7">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A7, records!B2:B731, "&gt;=" &amp; template!C1,records!B2:B731, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!C1,records!B2:B775, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D7" s="14">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A7, records!B2:B731, "&gt;=" &amp; template!D1,records!B2:B731, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!D1,records!B2:B775, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A7, records!B2:B731, "&gt;=" &amp; template!E1,records!B2:B731, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!E1,records!B2:B775, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F7">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A7, records!B2:B731, "&gt;=" &amp; template!F1,records!B2:B731, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!F1,records!B2:B775, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A7, records!B2:B731, "&gt;=" &amp; template!G1,records!B2:B731, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!G1,records!B2:B775, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H7">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A7, records!B2:B731, "&gt;=" &amp; template!H1,records!B2:B731, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!H1,records!B2:B775, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A7, records!B2:B731, "&gt;=" &amp; template!I1,records!B2:B731, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!I1,records!B2:B775, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A7, records!B2:B731, "&gt;=" &amp; template!J1,records!B2:B731, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!J1,records!B2:B775, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K7">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A7, records!B2:B731, "&gt;=" &amp; template!K1,records!B2:B731, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!K1,records!B2:B775, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L7">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A7, records!B2:B731, "&gt;=" &amp; template!L1,records!B2:B731, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!L1,records!B2:B775, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M7">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A7, records!B2:B731, "&gt;=" &amp; template!M1,records!B2:B731, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!M1,records!B2:B775, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N7">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A7, records!B2:B731, "&gt;=" &amp; template!N1,records!B2:B731, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!N1,records!B2:B775, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O7">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A7, records!B2:B731, "&gt;=" &amp; template!O1,records!B2:B731, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!O1,records!B2:B775, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P7">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A7, records!B2:B731, "&gt;=" &amp; template!P1,records!B2:B731, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!P1,records!B2:B775, "&lt;" &amp; template!Q1)</f>
         <v>16</v>
       </c>
       <c r="Q7">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A7, records!B2:B731, "&gt;=" &amp; template!Q1,records!B2:B731, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!Q1,records!B2:B775, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R7">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A7, records!B2:B731, "&gt;=" &amp; template!R1,records!B2:B731, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!R1,records!B2:B775, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S7">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A7, records!B2:B731, "&gt;=" &amp; template!S1,records!B2:B731, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!S1,records!B2:B775, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T7">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A7, records!B2:B731, "&gt;=" &amp; template!T1,records!B2:B731, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!T1,records!B2:B775, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U7">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A7, records!B2:B731, "&gt;=" &amp; template!U1,records!B2:B731, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!U1,records!B2:B775, "&lt;" &amp; template!V1)</f>
         <v>32</v>
       </c>
       <c r="V7">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A7, records!B2:B731, "&gt;=" &amp; template!V1,records!B2:B731, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!V1,records!B2:B775, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W7">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A7, records!B2:B731, "&gt;=" &amp; template!W1,records!B2:B731, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!W1,records!B2:B775, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X7">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A7, records!B2:B731, "&gt;=" &amp; template!X1,records!B2:B731, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!X1,records!B2:B775, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y7">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A7, records!B2:B731, "&gt;=" &amp; template!Y1,records!B2:B731, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!Y1,records!B2:B775, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z7">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A7, records!B2:B731, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!Z1)</f>
         <v>98.7</v>
       </c>
       <c r="AA7">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A7,records!G2:G731,template!AA1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7,records!G2:G775,template!AA1)</f>
         <v>37</v>
       </c>
       <c r="AB7">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A7,records!G2:G731,template!AB1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7,records!G2:G775,template!AB1)</f>
         <v>0</v>
       </c>
       <c r="AC7">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A7,records!G2:G731,template!AC1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7,records!G2:G775,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD7">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A7,records!G2:G731,template!AD1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7,records!G2:G775,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE7">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A7,records!C2:C731,template!AE1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7,records!C2:C775,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF7">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A7,records!C2:C731,template!AF1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7,records!C2:C775,template!AF1)</f>
         <v>16</v>
       </c>
       <c r="AG7">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A7,records!C2:C731,template!AG1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7,records!C2:C775,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH7">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A7,records!C2:C731,template!AH1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7,records!C2:C775,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI7">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A7,records!C2:C731,template!AI1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7,records!C2:C775,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ7">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A7,records!C2:C731,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7,records!C2:C775,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK7">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A7,records!C2:C731,template!AK1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7,records!C2:C775,template!AK1)</f>
         <v>11</v>
       </c>
       <c r="AL7">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A7,records!C2:C731,template!AL1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7,records!C2:C775,template!AL1)</f>
         <v>21</v>
       </c>
       <c r="AM7">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A7,records!C2:C731,template!AM1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7,records!C2:C775,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN7">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A7,records!C2:C731,template!AN1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7,records!C2:C775,template!AN1)</f>
         <v>98.7</v>
       </c>
       <c r="AO7">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A7,records!C2:C731,template!AO1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7,records!C2:C775,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP7">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A7,records!C2:C731,template!AP1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7,records!C2:C775,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -43843,163 +48398,163 @@
         <v>2017.98</v>
       </c>
       <c r="C8">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A8, records!B2:B731, "&gt;=" &amp; template!C1,records!B2:B731, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!C1,records!B2:B775, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D8" s="14">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A8, records!B2:B731, "&gt;=" &amp; template!D1,records!B2:B731, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!D1,records!B2:B775, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E8">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A8, records!B2:B731, "&gt;=" &amp; template!E1,records!B2:B731, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!E1,records!B2:B775, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A8, records!B2:B731, "&gt;=" &amp; template!F1,records!B2:B731, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!F1,records!B2:B775, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A8, records!B2:B731, "&gt;=" &amp; template!G1,records!B2:B731, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!G1,records!B2:B775, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A8, records!B2:B731, "&gt;=" &amp; template!H1,records!B2:B731, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!H1,records!B2:B775, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A8, records!B2:B731, "&gt;=" &amp; template!I1,records!B2:B731, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!I1,records!B2:B775, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A8, records!B2:B731, "&gt;=" &amp; template!J1,records!B2:B731, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!J1,records!B2:B775, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K8">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A8, records!B2:B731, "&gt;=" &amp; template!K1,records!B2:B731, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!K1,records!B2:B775, "&lt;" &amp; template!L1)</f>
         <v>2000</v>
       </c>
       <c r="L8">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A8, records!B2:B731, "&gt;=" &amp; template!L1,records!B2:B731, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!L1,records!B2:B775, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M8">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A8, records!B2:B731, "&gt;=" &amp; template!M1,records!B2:B731, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!M1,records!B2:B775, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N8">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A8, records!B2:B731, "&gt;=" &amp; template!N1,records!B2:B731, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!N1,records!B2:B775, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O8">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A8, records!B2:B731, "&gt;=" &amp; template!O1,records!B2:B731, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!O1,records!B2:B775, "&lt;" &amp; template!P1)</f>
         <v>17.98</v>
       </c>
       <c r="P8">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A8, records!B2:B731, "&gt;=" &amp; template!P1,records!B2:B731, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!P1,records!B2:B775, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A8, records!B2:B731, "&gt;=" &amp; template!Q1,records!B2:B731, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!Q1,records!B2:B775, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R8">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A8, records!B2:B731, "&gt;=" &amp; template!R1,records!B2:B731, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!R1,records!B2:B775, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S8">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A8, records!B2:B731, "&gt;=" &amp; template!S1,records!B2:B731, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!S1,records!B2:B775, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T8">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A8, records!B2:B731, "&gt;=" &amp; template!T1,records!B2:B731, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!T1,records!B2:B775, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U8">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A8, records!B2:B731, "&gt;=" &amp; template!U1,records!B2:B731, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!U1,records!B2:B775, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V8">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A8, records!B2:B731, "&gt;=" &amp; template!V1,records!B2:B731, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!V1,records!B2:B775, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W8">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A8, records!B2:B731, "&gt;=" &amp; template!W1,records!B2:B731, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!W1,records!B2:B775, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X8">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A8, records!B2:B731, "&gt;=" &amp; template!X1,records!B2:B731, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!X1,records!B2:B775, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y8">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A8, records!B2:B731, "&gt;=" &amp; template!Y1,records!B2:B731, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!Y1,records!B2:B775, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z8">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A8, records!B2:B731, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA8">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A8,records!G2:G731,template!AA1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8,records!G2:G775,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB8">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A8,records!G2:G731,template!AB1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8,records!G2:G775,template!AB1)</f>
         <v>2000</v>
       </c>
       <c r="AC8">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A8,records!G2:G731,template!AC1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8,records!G2:G775,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD8">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A8,records!G2:G731,template!AD1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8,records!G2:G775,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE8">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A8,records!C2:C731,template!AE1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8,records!C2:C775,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF8">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A8,records!C2:C731,template!AF1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8,records!C2:C775,template!AF1)</f>
         <v>17.98</v>
       </c>
       <c r="AG8">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A8,records!C2:C731,template!AG1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8,records!C2:C775,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH8">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A8,records!C2:C731,template!AH1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8,records!C2:C775,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI8">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A8,records!C2:C731,template!AI1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8,records!C2:C775,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ8">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A8,records!C2:C731,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8,records!C2:C775,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK8">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A8,records!C2:C731,template!AK1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8,records!C2:C775,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL8">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A8,records!C2:C731,template!AL1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8,records!C2:C775,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM8">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A8,records!C2:C731,template!AM1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8,records!C2:C775,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN8">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A8,records!C2:C731,template!AN1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8,records!C2:C775,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO8">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A8,records!C2:C731,template!AO1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8,records!C2:C775,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP8">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A8,records!C2:C731,template!AP1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8,records!C2:C775,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -44012,163 +48567,163 @@
         <v>1532.5</v>
       </c>
       <c r="C9">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A9, records!B2:B731, "&gt;=" &amp; template!C1,records!B2:B731, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!C1,records!B2:B775, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D9" s="14">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A9, records!B2:B731, "&gt;=" &amp; template!D1,records!B2:B731, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!D1,records!B2:B775, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A9, records!B2:B731, "&gt;=" &amp; template!E1,records!B2:B731, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!E1,records!B2:B775, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A9, records!B2:B731, "&gt;=" &amp; template!F1,records!B2:B731, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!F1,records!B2:B775, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A9, records!B2:B731, "&gt;=" &amp; template!G1,records!B2:B731, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!G1,records!B2:B775, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H9">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A9, records!B2:B731, "&gt;=" &amp; template!H1,records!B2:B731, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!H1,records!B2:B775, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A9, records!B2:B731, "&gt;=" &amp; template!I1,records!B2:B731, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!I1,records!B2:B775, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A9, records!B2:B731, "&gt;=" &amp; template!J1,records!B2:B731, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!J1,records!B2:B775, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K9">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A9, records!B2:B731, "&gt;=" &amp; template!K1,records!B2:B731, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!K1,records!B2:B775, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L9">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A9, records!B2:B731, "&gt;=" &amp; template!L1,records!B2:B731, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!L1,records!B2:B775, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M9">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A9, records!B2:B731, "&gt;=" &amp; template!M1,records!B2:B731, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!M1,records!B2:B775, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N9">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A9, records!B2:B731, "&gt;=" &amp; template!N1,records!B2:B731, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!N1,records!B2:B775, "&lt;" &amp; template!O1)</f>
         <v>2</v>
       </c>
       <c r="O9">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A9, records!B2:B731, "&gt;=" &amp; template!O1,records!B2:B731, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!O1,records!B2:B775, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P9">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A9, records!B2:B731, "&gt;=" &amp; template!P1,records!B2:B731, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!P1,records!B2:B775, "&lt;" &amp; template!Q1)</f>
         <v>20</v>
       </c>
       <c r="Q9">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A9, records!B2:B731, "&gt;=" &amp; template!Q1,records!B2:B731, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!Q1,records!B2:B775, "&lt;" &amp; template!R1)</f>
         <v>10.5</v>
       </c>
       <c r="R9">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A9, records!B2:B731, "&gt;=" &amp; template!R1,records!B2:B731, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!R1,records!B2:B775, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S9">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A9, records!B2:B731, "&gt;=" &amp; template!S1,records!B2:B731, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!S1,records!B2:B775, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T9">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A9, records!B2:B731, "&gt;=" &amp; template!T1,records!B2:B731, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!T1,records!B2:B775, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U9">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A9, records!B2:B731, "&gt;=" &amp; template!U1,records!B2:B731, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!U1,records!B2:B775, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V9">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A9, records!B2:B731, "&gt;=" &amp; template!V1,records!B2:B731, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!V1,records!B2:B775, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W9">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A9, records!B2:B731, "&gt;=" &amp; template!W1,records!B2:B731, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!W1,records!B2:B775, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X9">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A9, records!B2:B731, "&gt;=" &amp; template!X1,records!B2:B731, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!X1,records!B2:B775, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y9">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A9, records!B2:B731, "&gt;=" &amp; template!Y1,records!B2:B731, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!Y1,records!B2:B775, "&lt;" &amp; template!Z1)</f>
         <v>1500</v>
       </c>
       <c r="Z9">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A9, records!B2:B731, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA9">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A9,records!G2:G731,template!AA1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9,records!G2:G775,template!AA1)</f>
         <v>1502</v>
       </c>
       <c r="AB9">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A9,records!G2:G731,template!AB1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9,records!G2:G775,template!AB1)</f>
         <v>30.5</v>
       </c>
       <c r="AC9">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A9,records!G2:G731,template!AC1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9,records!G2:G775,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD9">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A9,records!G2:G731,template!AD1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9,records!G2:G775,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE9">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A9,records!C2:C731,template!AE1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9,records!C2:C775,template!AE1)</f>
         <v>2</v>
       </c>
       <c r="AF9">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A9,records!C2:C731,template!AF1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9,records!C2:C775,template!AF1)</f>
         <v>20</v>
       </c>
       <c r="AG9">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A9,records!C2:C731,template!AG1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9,records!C2:C775,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH9">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A9,records!C2:C731,template!AH1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9,records!C2:C775,template!AH1)</f>
         <v>1500</v>
       </c>
       <c r="AI9">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A9,records!C2:C731,template!AI1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9,records!C2:C775,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ9">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A9,records!C2:C731,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9,records!C2:C775,template!AJ1)</f>
         <v>10.5</v>
       </c>
       <c r="AK9">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A9,records!C2:C731,template!AK1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9,records!C2:C775,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL9">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A9,records!C2:C731,template!AL1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9,records!C2:C775,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM9">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A9,records!C2:C731,template!AM1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9,records!C2:C775,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN9">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A9,records!C2:C731,template!AN1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9,records!C2:C775,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO9">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A9,records!C2:C731,template!AO1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9,records!C2:C775,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP9">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A9,records!C2:C731,template!AP1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9,records!C2:C775,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -44181,163 +48736,163 @@
         <v>109</v>
       </c>
       <c r="C10">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A10, records!B2:B731, "&gt;=" &amp; template!C1,records!B2:B731, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!C1,records!B2:B775, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D10" s="14">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A10, records!B2:B731, "&gt;=" &amp; template!D1,records!B2:B731, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!D1,records!B2:B775, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E10">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A10, records!B2:B731, "&gt;=" &amp; template!E1,records!B2:B731, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!E1,records!B2:B775, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F10">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A10, records!B2:B731, "&gt;=" &amp; template!F1,records!B2:B731, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!F1,records!B2:B775, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G10">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A10, records!B2:B731, "&gt;=" &amp; template!G1,records!B2:B731, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!G1,records!B2:B775, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H10">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A10, records!B2:B731, "&gt;=" &amp; template!H1,records!B2:B731, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!H1,records!B2:B775, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I10">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A10, records!B2:B731, "&gt;=" &amp; template!I1,records!B2:B731, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!I1,records!B2:B775, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A10, records!B2:B731, "&gt;=" &amp; template!J1,records!B2:B731, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!J1,records!B2:B775, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K10">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A10, records!B2:B731, "&gt;=" &amp; template!K1,records!B2:B731, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!K1,records!B2:B775, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L10">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A10, records!B2:B731, "&gt;=" &amp; template!L1,records!B2:B731, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!L1,records!B2:B775, "&lt;" &amp; template!M1)</f>
         <v>18</v>
       </c>
       <c r="M10">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A10, records!B2:B731, "&gt;=" &amp; template!M1,records!B2:B731, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!M1,records!B2:B775, "&lt;" &amp; template!N1)</f>
         <v>15</v>
       </c>
       <c r="N10">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A10, records!B2:B731, "&gt;=" &amp; template!N1,records!B2:B731, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!N1,records!B2:B775, "&lt;" &amp; template!O1)</f>
         <v>30</v>
       </c>
       <c r="O10">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A10, records!B2:B731, "&gt;=" &amp; template!O1,records!B2:B731, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!O1,records!B2:B775, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P10">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A10, records!B2:B731, "&gt;=" &amp; template!P1,records!B2:B731, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!P1,records!B2:B775, "&lt;" &amp; template!Q1)</f>
         <v>30</v>
       </c>
       <c r="Q10">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A10, records!B2:B731, "&gt;=" &amp; template!Q1,records!B2:B731, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!Q1,records!B2:B775, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R10">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A10, records!B2:B731, "&gt;=" &amp; template!R1,records!B2:B731, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!R1,records!B2:B775, "&lt;" &amp; template!S1)</f>
         <v>6</v>
       </c>
       <c r="S10">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A10, records!B2:B731, "&gt;=" &amp; template!S1,records!B2:B731, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!S1,records!B2:B775, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T10">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A10, records!B2:B731, "&gt;=" &amp; template!T1,records!B2:B731, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!T1,records!B2:B775, "&lt;" &amp; template!U1)</f>
         <v>10</v>
       </c>
       <c r="U10">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A10, records!B2:B731, "&gt;=" &amp; template!U1,records!B2:B731, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!U1,records!B2:B775, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V10">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A10, records!B2:B731, "&gt;=" &amp; template!V1,records!B2:B731, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!V1,records!B2:B775, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W10">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A10, records!B2:B731, "&gt;=" &amp; template!W1,records!B2:B731, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!W1,records!B2:B775, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X10">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A10, records!B2:B731, "&gt;=" &amp; template!X1,records!B2:B731, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!X1,records!B2:B775, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y10">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A10, records!B2:B731, "&gt;=" &amp; template!Y1,records!B2:B731, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!Y1,records!B2:B775, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z10">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A10, records!B2:B731, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA10">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A10,records!G2:G731,template!AA1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10,records!G2:G775,template!AA1)</f>
         <v>94</v>
       </c>
       <c r="AB10">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A10,records!G2:G731,template!AB1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10,records!G2:G775,template!AB1)</f>
         <v>0</v>
       </c>
       <c r="AC10">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A10,records!G2:G731,template!AC1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10,records!G2:G775,template!AC1)</f>
         <v>15</v>
       </c>
       <c r="AD10">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A10,records!G2:G731,template!AD1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10,records!G2:G775,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE10">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A10,records!C2:C731,template!AE1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10,records!C2:C775,template!AE1)</f>
         <v>33</v>
       </c>
       <c r="AF10">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A10,records!C2:C731,template!AF1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10,records!C2:C775,template!AF1)</f>
         <v>30</v>
       </c>
       <c r="AG10">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A10,records!C2:C731,template!AG1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10,records!C2:C775,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH10">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A10,records!C2:C731,template!AH1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10,records!C2:C775,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI10">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A10,records!C2:C731,template!AI1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10,records!C2:C775,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ10">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A10,records!C2:C731,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10,records!C2:C775,template!AJ1)</f>
         <v>6</v>
       </c>
       <c r="AK10">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A10,records!C2:C731,template!AK1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10,records!C2:C775,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL10">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A10,records!C2:C731,template!AL1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10,records!C2:C775,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM10">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A10,records!C2:C731,template!AM1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10,records!C2:C775,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN10">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A10,records!C2:C731,template!AN1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10,records!C2:C775,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO10">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A10,records!C2:C731,template!AO1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10,records!C2:C775,template!AO1)</f>
         <v>10</v>
       </c>
       <c r="AP10">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A10,records!C2:C731,template!AP1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10,records!C2:C775,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -44350,163 +48905,163 @@
         <v>115</v>
       </c>
       <c r="C11">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A11, records!B2:B731, "&gt;=" &amp; template!C1,records!B2:B731, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!C1,records!B2:B775, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D11" s="14">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A11, records!B2:B731, "&gt;=" &amp; template!D1,records!B2:B731, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!D1,records!B2:B775, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E11">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A11, records!B2:B731, "&gt;=" &amp; template!E1,records!B2:B731, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!E1,records!B2:B775, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F11">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A11, records!B2:B731, "&gt;=" &amp; template!F1,records!B2:B731, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!F1,records!B2:B775, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G11">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A11, records!B2:B731, "&gt;=" &amp; template!G1,records!B2:B731, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!G1,records!B2:B775, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H11">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A11, records!B2:B731, "&gt;=" &amp; template!H1,records!B2:B731, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!H1,records!B2:B775, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I11">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A11, records!B2:B731, "&gt;=" &amp; template!I1,records!B2:B731, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!I1,records!B2:B775, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A11, records!B2:B731, "&gt;=" &amp; template!J1,records!B2:B731, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!J1,records!B2:B775, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K11">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A11, records!B2:B731, "&gt;=" &amp; template!K1,records!B2:B731, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!K1,records!B2:B775, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L11">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A11, records!B2:B731, "&gt;=" &amp; template!L1,records!B2:B731, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!L1,records!B2:B775, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M11">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A11, records!B2:B731, "&gt;=" &amp; template!M1,records!B2:B731, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!M1,records!B2:B775, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N11">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A11, records!B2:B731, "&gt;=" &amp; template!N1,records!B2:B731, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!N1,records!B2:B775, "&lt;" &amp; template!O1)</f>
         <v>18</v>
       </c>
       <c r="O11">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A11, records!B2:B731, "&gt;=" &amp; template!O1,records!B2:B731, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!O1,records!B2:B775, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P11">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A11, records!B2:B731, "&gt;=" &amp; template!P1,records!B2:B731, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!P1,records!B2:B775, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q11">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A11, records!B2:B731, "&gt;=" &amp; template!Q1,records!B2:B731, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!Q1,records!B2:B775, "&lt;" &amp; template!R1)</f>
         <v>51</v>
       </c>
       <c r="R11">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A11, records!B2:B731, "&gt;=" &amp; template!R1,records!B2:B731, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!R1,records!B2:B775, "&lt;" &amp; template!S1)</f>
         <v>15</v>
       </c>
       <c r="S11">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A11, records!B2:B731, "&gt;=" &amp; template!S1,records!B2:B731, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!S1,records!B2:B775, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T11">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A11, records!B2:B731, "&gt;=" &amp; template!T1,records!B2:B731, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!T1,records!B2:B775, "&lt;" &amp; template!U1)</f>
         <v>31</v>
       </c>
       <c r="U11">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A11, records!B2:B731, "&gt;=" &amp; template!U1,records!B2:B731, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!U1,records!B2:B775, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V11">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A11, records!B2:B731, "&gt;=" &amp; template!V1,records!B2:B731, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!V1,records!B2:B775, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W11">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A11, records!B2:B731, "&gt;=" &amp; template!W1,records!B2:B731, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!W1,records!B2:B775, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X11">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A11, records!B2:B731, "&gt;=" &amp; template!X1,records!B2:B731, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!X1,records!B2:B775, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y11">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A11, records!B2:B731, "&gt;=" &amp; template!Y1,records!B2:B731, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!Y1,records!B2:B775, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z11">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A11, records!B2:B731, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA11">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A11,records!G2:G731,template!AA1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11,records!G2:G775,template!AA1)</f>
         <v>49</v>
       </c>
       <c r="AB11">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A11,records!G2:G731,template!AB1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11,records!G2:G775,template!AB1)</f>
         <v>51</v>
       </c>
       <c r="AC11">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A11,records!G2:G731,template!AC1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11,records!G2:G775,template!AC1)</f>
         <v>15</v>
       </c>
       <c r="AD11">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A11,records!G2:G731,template!AD1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11,records!G2:G775,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE11">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A11,records!C2:C731,template!AE1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11,records!C2:C775,template!AE1)</f>
         <v>64</v>
       </c>
       <c r="AF11">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A11,records!C2:C731,template!AF1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11,records!C2:C775,template!AF1)</f>
         <v>51</v>
       </c>
       <c r="AG11">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A11,records!C2:C731,template!AG1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11,records!C2:C775,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH11">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A11,records!C2:C731,template!AH1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11,records!C2:C775,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI11">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A11,records!C2:C731,template!AI1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11,records!C2:C775,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ11">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A11,records!C2:C731,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11,records!C2:C775,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK11">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A11,records!C2:C731,template!AK1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11,records!C2:C775,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL11">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A11,records!C2:C731,template!AL1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11,records!C2:C775,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM11">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A11,records!C2:C731,template!AM1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11,records!C2:C775,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN11">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A11,records!C2:C731,template!AN1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11,records!C2:C775,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO11">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A11,records!C2:C731,template!AO1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11,records!C2:C775,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP11">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A11,records!C2:C731,template!AP1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11,records!C2:C775,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -44519,163 +49074,163 @@
         <v>100</v>
       </c>
       <c r="C12">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A12, records!B2:B731, "&gt;=" &amp; template!C1,records!B2:B731, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!C1,records!B2:B775, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D12" s="14">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A12, records!B2:B731, "&gt;=" &amp; template!D1,records!B2:B731, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!D1,records!B2:B775, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E12">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A12, records!B2:B731, "&gt;=" &amp; template!E1,records!B2:B731, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!E1,records!B2:B775, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F12">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A12, records!B2:B731, "&gt;=" &amp; template!F1,records!B2:B731, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!F1,records!B2:B775, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G12">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A12, records!B2:B731, "&gt;=" &amp; template!G1,records!B2:B731, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!G1,records!B2:B775, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H12">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A12, records!B2:B731, "&gt;=" &amp; template!H1,records!B2:B731, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!H1,records!B2:B775, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I12">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A12, records!B2:B731, "&gt;=" &amp; template!I1,records!B2:B731, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!I1,records!B2:B775, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A12, records!B2:B731, "&gt;=" &amp; template!J1,records!B2:B731, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!J1,records!B2:B775, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K12">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A12, records!B2:B731, "&gt;=" &amp; template!K1,records!B2:B731, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!K1,records!B2:B775, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L12">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A12, records!B2:B731, "&gt;=" &amp; template!L1,records!B2:B731, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!L1,records!B2:B775, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M12">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A12, records!B2:B731, "&gt;=" &amp; template!M1,records!B2:B731, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!M1,records!B2:B775, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N12">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A12, records!B2:B731, "&gt;=" &amp; template!N1,records!B2:B731, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!N1,records!B2:B775, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O12">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A12, records!B2:B731, "&gt;=" &amp; template!O1,records!B2:B731, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!O1,records!B2:B775, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P12">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A12, records!B2:B731, "&gt;=" &amp; template!P1,records!B2:B731, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!P1,records!B2:B775, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q12">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A12, records!B2:B731, "&gt;=" &amp; template!Q1,records!B2:B731, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!Q1,records!B2:B775, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R12">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A12, records!B2:B731, "&gt;=" &amp; template!R1,records!B2:B731, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!R1,records!B2:B775, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S12">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A12, records!B2:B731, "&gt;=" &amp; template!S1,records!B2:B731, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!S1,records!B2:B775, "&lt;" &amp; template!T1)</f>
         <v>88</v>
       </c>
       <c r="T12">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A12, records!B2:B731, "&gt;=" &amp; template!T1,records!B2:B731, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!T1,records!B2:B775, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U12">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A12, records!B2:B731, "&gt;=" &amp; template!U1,records!B2:B731, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!U1,records!B2:B775, "&lt;" &amp; template!V1)</f>
         <v>12</v>
       </c>
       <c r="V12">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A12, records!B2:B731, "&gt;=" &amp; template!V1,records!B2:B731, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!V1,records!B2:B775, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W12">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A12, records!B2:B731, "&gt;=" &amp; template!W1,records!B2:B731, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!W1,records!B2:B775, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X12">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A12, records!B2:B731, "&gt;=" &amp; template!X1,records!B2:B731, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!X1,records!B2:B775, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y12">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A12, records!B2:B731, "&gt;=" &amp; template!Y1,records!B2:B731, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!Y1,records!B2:B775, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z12">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A12, records!B2:B731, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA12">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A12,records!G2:G731,template!AA1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12,records!G2:G775,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB12">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A12,records!G2:G731,template!AB1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12,records!G2:G775,template!AB1)</f>
         <v>100</v>
       </c>
       <c r="AC12">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A12,records!G2:G731,template!AC1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12,records!G2:G775,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD12">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A12,records!G2:G731,template!AD1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12,records!G2:G775,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE12">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A12,records!C2:C731,template!AE1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12,records!C2:C775,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF12">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A12,records!C2:C731,template!AF1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12,records!C2:C775,template!AF1)</f>
         <v>0</v>
       </c>
       <c r="AG12">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A12,records!C2:C731,template!AG1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12,records!C2:C775,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH12">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A12,records!C2:C731,template!AH1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12,records!C2:C775,template!AH1)</f>
         <v>88</v>
       </c>
       <c r="AI12">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A12,records!C2:C731,template!AI1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12,records!C2:C775,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ12">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A12,records!C2:C731,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12,records!C2:C775,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK12">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A12,records!C2:C731,template!AK1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12,records!C2:C775,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL12">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A12,records!C2:C731,template!AL1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12,records!C2:C775,template!AL1)</f>
         <v>12</v>
       </c>
       <c r="AM12">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A12,records!C2:C731,template!AM1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12,records!C2:C775,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN12">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A12,records!C2:C731,template!AN1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12,records!C2:C775,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO12">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A12,records!C2:C731,template!AO1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12,records!C2:C775,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP12">
-        <f>SUMIFS(records!E2:E731,records!A2:A731,template!A12,records!C2:C731,template!AP1)</f>
+        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12,records!C2:C775,template!AP1)</f>
         <v>0</v>
       </c>
     </row>

--- a/excel/ledger.xlsx
+++ b/excel/ledger.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C0422D-E8D7-7744-89E4-3ACAD41689D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC63216-4B9E-7548-B2FE-A58FA8945CE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19520" yWindow="7120" windowWidth="13640" windowHeight="11280" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
+    <workbookView xWindow="6860" yWindow="7020" windowWidth="13980" windowHeight="12660" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6287" uniqueCount="1422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7081" uniqueCount="1562">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1590,6 +1590,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线 (正文)"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>已取消</t>
@@ -5381,9 +5382,6 @@
     <t>总共302.19，和老蒋平摊</t>
   </si>
   <si>
-    <t>2020年6月 房租</t>
-  </si>
-  <si>
     <t>总共2100.00，和老蒋平摊</t>
   </si>
   <si>
@@ -5527,6 +5525,519 @@
   </si>
   <si>
     <t>广州中医药大学深圳医院(福田) 治疗收费单</t>
+  </si>
+  <si>
+    <t>公交</t>
+  </si>
+  <si>
+    <t>深圳通小程序</t>
+  </si>
+  <si>
+    <t>京东APP</t>
+  </si>
+  <si>
+    <t>纵声乐队演唱会门票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梧桐山顶微信扫码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上沙-木棉湾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翠竹-上沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梧桐山假日专线：木棉湾地铁站1-梧桐山总站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>211路：梧桐山总站-留医部2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为路由器AX3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上沙-岗头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗头-上沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打车、椰子、饮料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亮哥代付</t>
+  </si>
+  <si>
+    <t>西奎代付</t>
+  </si>
+  <si>
+    <t>商品</t>
+  </si>
+  <si>
+    <t>相互宝分摊-8月第2期-*博</t>
+  </si>
+  <si>
+    <t>大众点评订单-20082711100400000004114357872056</t>
+  </si>
+  <si>
+    <t>7-Eleven便利店</t>
+  </si>
+  <si>
+    <t>淘宝APP</t>
+  </si>
+  <si>
+    <t>为18598046892交费30.00元</t>
+  </si>
+  <si>
+    <t>高德地图打车订单</t>
+  </si>
+  <si>
+    <t>肉包子*1、菜包子*1、茶叶蛋*1、水煮蛋*1、豆浆*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉包子*1、菜包子*1、茶叶蛋*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红枣南瓜粥+香炸黄金鸡肉块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆小面+狼牙土豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油泼棍棍面+煎饼卷土豆丝+冰红茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊肉粉丝汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煎饼果子+烤冷面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孜然牛肉面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海盐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰年虾孵化桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰年虾卵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省钱月卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑壳虾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电磨机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红斑马鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红孔雀鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总共87.07，老蒋付了47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与私教聚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康师傅康师傅冰红茶500ml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动售货机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水*2、红牛*1、士力架*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便利店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高德地图APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打车</t>
+  </si>
+  <si>
+    <t>高德地图APP</t>
+  </si>
+  <si>
+    <t>拉面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司附近兰州拉面门店</t>
+  </si>
+  <si>
+    <t>牛肉炒刀削</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外卖券</t>
+  </si>
+  <si>
+    <t>外卖代金券 ¥3*3</t>
+  </si>
+  <si>
+    <t>外卖红包加量包 ¥5*20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆小面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卤肉饭拼宫保鸡丁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臭豆腐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电影八佰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云吞面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外卖代金券 ¥3*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艇仔粥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑椒牛柳拼宫保鸡丁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外卖会员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素臊子面+鱼丸汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美团订单-20090111100400000004416724993056</t>
+  </si>
+  <si>
+    <t>java书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扬子除湿机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏威夷果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>握力器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迪卡侬运动套装男夏跑步健身宽松休闲速干t恤短袖短裤两件套RUNM</t>
+  </si>
+  <si>
+    <t>天猫超市卡299面额（年货节专享）</t>
+  </si>
+  <si>
+    <t>相互宝分摊-9月第1期-*博</t>
+  </si>
+  <si>
+    <t>竞彩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿香智慧店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿香竞彩店APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿香智慧店</t>
+  </si>
+  <si>
+    <t>八合里牛肉火锅(购物公园店)消费</t>
+  </si>
+  <si>
+    <t>八合里牛肉火锅(购物公园店)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价299，老蒋转了150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百里臣金地分店消费：脉动*1+冰红茶*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小区门口便利店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦都面馆外卖订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饿了么APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易站沙尾店：南京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康师傅冰红茶500ML</t>
+  </si>
+  <si>
+    <t>友宝售货机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友宝-脉动青柠味维生素饮料600ml</t>
+  </si>
+  <si>
+    <t>花果园水果店(福田店)</t>
+  </si>
+  <si>
+    <t>外卖券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美团外卖满5减5满减券</t>
+  </si>
+  <si>
+    <t>豫见焖面外卖订单</t>
+  </si>
+  <si>
+    <t>百里臣金地分店消费：南京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百里臣金地分店消费：冰红茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州中医药大学深圳医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天猫小店益海超市：矿泉水+冰红茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级吃货卡订单：3000000005139723610</t>
+  </si>
+  <si>
+    <t>咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luckincoffee APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为18598046892交费50.00元</t>
+  </si>
+  <si>
+    <t>根管充填术(使用螺旋充填器、热牙胶装置等)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根管消毒术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根管再治疗术(疑难根管口的定位)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树脂嵌体修复术(高嵌体修复)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充填体抛光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固化复合树脂[Z350型4g/支]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1(克)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自酸蚀粘接剂[5ml/瓶]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1(m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复合树脂[流动式Z350XT]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咬合检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医师：王素文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年8月 房租</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年9月 房租</t>
+  </si>
+  <si>
+    <t>购物公园-上沙</t>
+  </si>
+  <si>
+    <t>梅景-上沙</t>
+  </si>
+  <si>
+    <t>上沙-梅景</t>
+  </si>
+  <si>
+    <t>黄贝岭-上沙</t>
+  </si>
+  <si>
+    <t>上沙-黄贝岭</t>
+  </si>
+  <si>
+    <t>岗厦-岗厦</t>
+  </si>
+  <si>
+    <t>大梅沙假日专线1号</t>
+  </si>
+  <si>
+    <t>3D眼睛</t>
+  </si>
+  <si>
+    <t>英皇电影城</t>
+  </si>
+  <si>
+    <t>出租车</t>
+  </si>
+  <si>
+    <t>花木兰</t>
+  </si>
+  <si>
+    <t>东方福利网公众号</t>
+  </si>
+  <si>
+    <t>医院</t>
+  </si>
+  <si>
+    <t>广州中医药大学深圳医院</t>
+  </si>
+  <si>
+    <t>旅游</t>
+  </si>
+  <si>
+    <t>大梅沙冲凉房</t>
+  </si>
+  <si>
+    <t>大梅沙</t>
+  </si>
+  <si>
+    <t>未知</t>
+  </si>
+  <si>
+    <t>以后发红包要加备注</t>
+  </si>
+  <si>
+    <t>KTV</t>
   </si>
 </sst>
 </file>
@@ -5536,7 +6047,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5608,12 +6119,6 @@
       <color rgb="FFFF0000"/>
       <name val="等线 (正文)"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线 (正文)"/>
       <charset val="134"/>
     </font>
     <font>
@@ -5750,7 +6255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5869,25 +6374,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5896,24 +6413,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="298">
+  <dxfs count="307">
     <dxf>
       <font>
         <b val="0"/>
@@ -6272,6 +6777,168 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -12403,15 +13070,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FEFEF66-0DFC-B343-AE55-FC43085C5197}" name="表1" displayName="表1" ref="A1:I775" totalsRowShown="0">
-  <autoFilter ref="A1:I775" xr:uid="{5BBC9419-B13B-B148-8ACF-0DE90D8ED5A0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I775">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FEFEF66-0DFC-B343-AE55-FC43085C5197}" name="表1" displayName="表1" ref="A1:I916" totalsRowShown="0">
+  <autoFilter ref="A1:I916" xr:uid="{5BBC9419-B13B-B148-8ACF-0DE90D8ED5A0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I916">
     <sortCondition ref="A2:A22"/>
     <sortCondition ref="B2:B22"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{72722D89-93C2-8A41-9B20-0A4F424C6AC1}" name="日期" dataDxfId="297"/>
-    <tableColumn id="2" xr3:uid="{E3DDD260-AD94-3B4D-A5E3-388891DDD893}" name="时间" dataDxfId="296"/>
+    <tableColumn id="1" xr3:uid="{72722D89-93C2-8A41-9B20-0A4F424C6AC1}" name="日期" dataDxfId="306"/>
+    <tableColumn id="2" xr3:uid="{E3DDD260-AD94-3B4D-A5E3-388891DDD893}" name="时间" dataDxfId="305"/>
     <tableColumn id="3" xr3:uid="{DCBF4A5F-9919-504B-8B8E-109C04FA8E2B}" name="类别"/>
     <tableColumn id="4" xr3:uid="{A8A4CCEB-557C-D346-B945-54BF13A8C825}" name="名称"/>
     <tableColumn id="5" xr3:uid="{DF4347C8-27B6-5643-97AF-17AC7096A509}" name="金额(¥)"/>
@@ -12443,304 +13110,321 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{AB454117-BA52-2544-9127-12465162C859}" name="表2_1213151620211823" displayName="表2_1213151620211823" ref="K182:S204" totalsRowShown="0" headerRowDxfId="186" dataDxfId="184" headerRowBorderDxfId="185" tableBorderDxfId="183">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{AB454117-BA52-2544-9127-12465162C859}" name="表2_1213151620211823" displayName="表2_1213151620211823" ref="K182:S204" totalsRowShown="0" headerRowDxfId="195" dataDxfId="193" headerRowBorderDxfId="194" tableBorderDxfId="192">
   <autoFilter ref="K182:S204" xr:uid="{02D241E9-3DCF-8D40-BFFA-FFE3C0F5535D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K183:S197">
     <sortCondition ref="K3:K27"/>
     <sortCondition ref="L3:L27"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{E0363E3F-8A48-934C-B29D-6F37B2A1F390}" name="日期" dataDxfId="182"/>
-    <tableColumn id="2" xr3:uid="{8EF78633-EF5B-D949-9349-9BA90D233A6B}" name="时间" dataDxfId="181"/>
-    <tableColumn id="3" xr3:uid="{0A291899-58E8-2546-9EB0-FB388ED22547}" name="类别" dataDxfId="180"/>
-    <tableColumn id="4" xr3:uid="{816B9FC9-9687-FC4B-BB06-0D42F1052B33}" name="名称" dataDxfId="179"/>
-    <tableColumn id="10" xr3:uid="{02884C40-934F-0D4A-BD96-621C5C5CA1BD}" name="金额($)" dataDxfId="178"/>
-    <tableColumn id="6" xr3:uid="{0ECCB125-B4E3-624F-8652-7FC0D1EFC1D8}" name="数量" dataDxfId="177"/>
-    <tableColumn id="7" xr3:uid="{18528009-3F29-5D42-9C0D-9AA95B859C4C}" name="支付方式" dataDxfId="176"/>
-    <tableColumn id="8" xr3:uid="{03F449A0-F068-C340-AEDC-BDBC5A0F46EB}" name="渠道" dataDxfId="175"/>
-    <tableColumn id="9" xr3:uid="{ADC9AE2A-A61B-414C-89E7-D98600793217}" name="备注" dataDxfId="174"/>
+    <tableColumn id="1" xr3:uid="{E0363E3F-8A48-934C-B29D-6F37B2A1F390}" name="日期" dataDxfId="191"/>
+    <tableColumn id="2" xr3:uid="{8EF78633-EF5B-D949-9349-9BA90D233A6B}" name="时间" dataDxfId="190"/>
+    <tableColumn id="3" xr3:uid="{0A291899-58E8-2546-9EB0-FB388ED22547}" name="类别" dataDxfId="189"/>
+    <tableColumn id="4" xr3:uid="{816B9FC9-9687-FC4B-BB06-0D42F1052B33}" name="名称" dataDxfId="188"/>
+    <tableColumn id="10" xr3:uid="{02884C40-934F-0D4A-BD96-621C5C5CA1BD}" name="金额($)" dataDxfId="187"/>
+    <tableColumn id="6" xr3:uid="{0ECCB125-B4E3-624F-8652-7FC0D1EFC1D8}" name="数量" dataDxfId="186"/>
+    <tableColumn id="7" xr3:uid="{18528009-3F29-5D42-9C0D-9AA95B859C4C}" name="支付方式" dataDxfId="185"/>
+    <tableColumn id="8" xr3:uid="{03F449A0-F068-C340-AEDC-BDBC5A0F46EB}" name="渠道" dataDxfId="184"/>
+    <tableColumn id="9" xr3:uid="{ADC9AE2A-A61B-414C-89E7-D98600793217}" name="备注" dataDxfId="183"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{87DA1393-6827-EA44-A084-237782089CCF}" name="表2_12131516202118231718" displayName="表2_12131516202118231718" ref="K207:S212" totalsRowShown="0" headerRowDxfId="173" dataDxfId="171" headerRowBorderDxfId="172" tableBorderDxfId="170">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{87DA1393-6827-EA44-A084-237782089CCF}" name="表2_12131516202118231718" displayName="表2_12131516202118231718" ref="K207:S212" totalsRowShown="0" headerRowDxfId="182" dataDxfId="180" headerRowBorderDxfId="181" tableBorderDxfId="179">
   <autoFilter ref="K207:S212" xr:uid="{91480F83-2419-784F-8386-55181DF5FEED}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K208:S212">
     <sortCondition ref="K3:K16"/>
     <sortCondition ref="L3:L16"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7C3343CA-D706-6144-8941-580B84CF394E}" name="日期" dataDxfId="169"/>
-    <tableColumn id="2" xr3:uid="{F0847EE3-B118-BE48-8689-812598FEC9AB}" name="时间" dataDxfId="168"/>
-    <tableColumn id="3" xr3:uid="{DDD877B7-BAD5-4F47-9769-A90FCED37116}" name="类别" dataDxfId="167"/>
-    <tableColumn id="4" xr3:uid="{5733AB69-4847-A948-B567-029768E79D0F}" name="名称" dataDxfId="166"/>
-    <tableColumn id="10" xr3:uid="{77BDEA3A-FF25-D243-BE63-AC4C735EE37B}" name="金额($)" dataDxfId="165"/>
-    <tableColumn id="6" xr3:uid="{E8909EDA-F899-A749-B5A9-EF6D64858A24}" name="数量" dataDxfId="164"/>
-    <tableColumn id="7" xr3:uid="{FF1D4B60-B5F5-C841-A54B-3C394BED27E0}" name="支付方式" dataDxfId="163"/>
-    <tableColumn id="8" xr3:uid="{0C20E0FA-7029-A345-AE88-BCCB51C0FB8F}" name="渠道" dataDxfId="162"/>
-    <tableColumn id="9" xr3:uid="{5E0D300F-446D-D245-97F6-C4F1EDF51911}" name="备注" dataDxfId="161"/>
+    <tableColumn id="1" xr3:uid="{7C3343CA-D706-6144-8941-580B84CF394E}" name="日期" dataDxfId="178"/>
+    <tableColumn id="2" xr3:uid="{F0847EE3-B118-BE48-8689-812598FEC9AB}" name="时间" dataDxfId="177"/>
+    <tableColumn id="3" xr3:uid="{DDD877B7-BAD5-4F47-9769-A90FCED37116}" name="类别" dataDxfId="176"/>
+    <tableColumn id="4" xr3:uid="{5733AB69-4847-A948-B567-029768E79D0F}" name="名称" dataDxfId="175"/>
+    <tableColumn id="10" xr3:uid="{77BDEA3A-FF25-D243-BE63-AC4C735EE37B}" name="金额($)" dataDxfId="174"/>
+    <tableColumn id="6" xr3:uid="{E8909EDA-F899-A749-B5A9-EF6D64858A24}" name="数量" dataDxfId="173"/>
+    <tableColumn id="7" xr3:uid="{FF1D4B60-B5F5-C841-A54B-3C394BED27E0}" name="支付方式" dataDxfId="172"/>
+    <tableColumn id="8" xr3:uid="{0C20E0FA-7029-A345-AE88-BCCB51C0FB8F}" name="渠道" dataDxfId="171"/>
+    <tableColumn id="9" xr3:uid="{5E0D300F-446D-D245-97F6-C4F1EDF51911}" name="备注" dataDxfId="170"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{D07645E1-FF51-BE44-A108-6E2E28DFE3B7}" name="表2_121315162021182317181725" displayName="表2_121315162021182317181725" ref="K131:S151" totalsRowShown="0" headerRowDxfId="160" dataDxfId="158" headerRowBorderDxfId="159" tableBorderDxfId="157">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{D07645E1-FF51-BE44-A108-6E2E28DFE3B7}" name="表2_121315162021182317181725" displayName="表2_121315162021182317181725" ref="K131:S151" totalsRowShown="0" headerRowDxfId="169" dataDxfId="167" headerRowBorderDxfId="168" tableBorderDxfId="166">
   <autoFilter ref="K131:S151" xr:uid="{7F3530B9-75AA-9F46-8D36-5829A96A835C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K132:S136">
     <sortCondition ref="K3:K16"/>
     <sortCondition ref="L3:L16"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{8388B4F3-69C3-C044-806B-2EE342EDD1C1}" name="日期" dataDxfId="156"/>
-    <tableColumn id="2" xr3:uid="{1A44F757-A145-5C4B-8846-784AA96D8FE5}" name="时间" dataDxfId="155"/>
-    <tableColumn id="3" xr3:uid="{03320F0B-381F-4E4D-8C75-FE6DCBE2496F}" name="类别" dataDxfId="154"/>
-    <tableColumn id="4" xr3:uid="{16347860-F209-A641-A3C4-CD2748326322}" name="名称" dataDxfId="153"/>
-    <tableColumn id="10" xr3:uid="{39758E3B-78A9-5A48-8DFC-3FF15887AE7E}" name="金额($)" dataDxfId="152"/>
-    <tableColumn id="6" xr3:uid="{FF6795EE-AE94-E44E-8DC0-CC26ACFADE61}" name="数量" dataDxfId="151"/>
-    <tableColumn id="7" xr3:uid="{DA94A68D-2BBE-C746-9AA4-32A4797B9173}" name="支付方式" dataDxfId="150"/>
-    <tableColumn id="8" xr3:uid="{2C9A8B05-D71F-7944-9F61-0DA82B1DFBF3}" name="渠道" dataDxfId="149"/>
-    <tableColumn id="9" xr3:uid="{EEF78B6C-8D16-8549-9C0B-F12CD0D648B8}" name="备注" dataDxfId="148"/>
+    <tableColumn id="1" xr3:uid="{8388B4F3-69C3-C044-806B-2EE342EDD1C1}" name="日期" dataDxfId="165"/>
+    <tableColumn id="2" xr3:uid="{1A44F757-A145-5C4B-8846-784AA96D8FE5}" name="时间" dataDxfId="164"/>
+    <tableColumn id="3" xr3:uid="{03320F0B-381F-4E4D-8C75-FE6DCBE2496F}" name="类别" dataDxfId="163"/>
+    <tableColumn id="4" xr3:uid="{16347860-F209-A641-A3C4-CD2748326322}" name="名称" dataDxfId="162"/>
+    <tableColumn id="10" xr3:uid="{39758E3B-78A9-5A48-8DFC-3FF15887AE7E}" name="金额($)" dataDxfId="161"/>
+    <tableColumn id="6" xr3:uid="{FF6795EE-AE94-E44E-8DC0-CC26ACFADE61}" name="数量" dataDxfId="160"/>
+    <tableColumn id="7" xr3:uid="{DA94A68D-2BBE-C746-9AA4-32A4797B9173}" name="支付方式" dataDxfId="159"/>
+    <tableColumn id="8" xr3:uid="{2C9A8B05-D71F-7944-9F61-0DA82B1DFBF3}" name="渠道" dataDxfId="158"/>
+    <tableColumn id="9" xr3:uid="{EEF78B6C-8D16-8549-9C0B-F12CD0D648B8}" name="备注" dataDxfId="157"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{E94DDC74-E61C-5249-90F9-930C74E64060}" name="表2_12131516202118231724" displayName="表2_12131516202118231724" ref="K154:V179" totalsRowShown="0" headerRowDxfId="147" dataDxfId="145" headerRowBorderDxfId="146" tableBorderDxfId="144">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{E94DDC74-E61C-5249-90F9-930C74E64060}" name="表2_12131516202118231724" displayName="表2_12131516202118231724" ref="K154:V179" totalsRowShown="0" headerRowDxfId="156" dataDxfId="154" headerRowBorderDxfId="155" tableBorderDxfId="153">
   <autoFilter ref="K154:V179" xr:uid="{A7B4FD5B-7483-B04B-9945-909AF67F9E14}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K155:S169">
     <sortCondition ref="K3:K27"/>
     <sortCondition ref="L3:L27"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{DD305DCE-D663-1142-86EC-D044803DC44F}" name="日期" dataDxfId="143"/>
-    <tableColumn id="2" xr3:uid="{6982A3CC-B1A0-4D45-BF51-C06CBB7A285C}" name="时间" dataDxfId="142"/>
-    <tableColumn id="3" xr3:uid="{912915AB-DBFC-554A-8CD9-B4F4926B4A88}" name="类别" dataDxfId="141"/>
-    <tableColumn id="4" xr3:uid="{D100A818-0E73-8B45-A0E8-8884ACD0B9A5}" name="名称" dataDxfId="140"/>
-    <tableColumn id="10" xr3:uid="{3B8E05F8-35E1-A04B-AFF1-8420B1B2683A}" name="金额($)" dataDxfId="139"/>
-    <tableColumn id="6" xr3:uid="{A0D4CAB7-832E-4C45-B8D4-06FD364054C7}" name="数量" dataDxfId="138"/>
-    <tableColumn id="7" xr3:uid="{FE530E16-074B-C844-A52C-76C806232C75}" name="支付方式" dataDxfId="137"/>
-    <tableColumn id="8" xr3:uid="{09B30289-80C0-584E-B3E0-DDD5B9414A87}" name="渠道" dataDxfId="136"/>
-    <tableColumn id="9" xr3:uid="{BA05C1CE-6415-F940-8118-34A391017EE7}" name="备注" dataDxfId="135"/>
-    <tableColumn id="11" xr3:uid="{FB53420E-50E1-4A44-8957-033A6FA13273}" name="图片地址" dataDxfId="134"/>
-    <tableColumn id="12" xr3:uid="{B614C980-4CAD-1848-BF01-7572F1B90952}" name="订单详情" dataDxfId="133"/>
-    <tableColumn id="13" xr3:uid="{B6B349AE-EC78-0846-9E99-3A5C24F68DB6}" name="列1" dataDxfId="132"/>
+    <tableColumn id="1" xr3:uid="{DD305DCE-D663-1142-86EC-D044803DC44F}" name="日期" dataDxfId="152"/>
+    <tableColumn id="2" xr3:uid="{6982A3CC-B1A0-4D45-BF51-C06CBB7A285C}" name="时间" dataDxfId="151"/>
+    <tableColumn id="3" xr3:uid="{912915AB-DBFC-554A-8CD9-B4F4926B4A88}" name="类别" dataDxfId="150"/>
+    <tableColumn id="4" xr3:uid="{D100A818-0E73-8B45-A0E8-8884ACD0B9A5}" name="名称" dataDxfId="149"/>
+    <tableColumn id="10" xr3:uid="{3B8E05F8-35E1-A04B-AFF1-8420B1B2683A}" name="金额($)" dataDxfId="148"/>
+    <tableColumn id="6" xr3:uid="{A0D4CAB7-832E-4C45-B8D4-06FD364054C7}" name="数量" dataDxfId="147"/>
+    <tableColumn id="7" xr3:uid="{FE530E16-074B-C844-A52C-76C806232C75}" name="支付方式" dataDxfId="146"/>
+    <tableColumn id="8" xr3:uid="{09B30289-80C0-584E-B3E0-DDD5B9414A87}" name="渠道" dataDxfId="145"/>
+    <tableColumn id="9" xr3:uid="{BA05C1CE-6415-F940-8118-34A391017EE7}" name="备注" dataDxfId="144"/>
+    <tableColumn id="11" xr3:uid="{FB53420E-50E1-4A44-8957-033A6FA13273}" name="图片地址" dataDxfId="143"/>
+    <tableColumn id="12" xr3:uid="{B614C980-4CAD-1848-BF01-7572F1B90952}" name="订单详情" dataDxfId="142"/>
+    <tableColumn id="13" xr3:uid="{B6B349AE-EC78-0846-9E99-3A5C24F68DB6}" name="列1" dataDxfId="141"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{029FEBD4-A447-6D48-BD02-0BE2F1B735AB}" name="表2_12131516202118231726" displayName="表2_12131516202118231726" ref="K61:V74" totalsRowShown="0" headerRowDxfId="131" dataDxfId="129" headerRowBorderDxfId="130" tableBorderDxfId="128">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{029FEBD4-A447-6D48-BD02-0BE2F1B735AB}" name="表2_12131516202118231726" displayName="表2_12131516202118231726" ref="K61:V74" totalsRowShown="0" headerRowDxfId="140" dataDxfId="138" headerRowBorderDxfId="139" tableBorderDxfId="137">
   <autoFilter ref="K61:V74" xr:uid="{4A6F62B7-DFA0-0142-8AF6-16BD93B05409}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K62:S72">
     <sortCondition ref="K3:K18"/>
     <sortCondition ref="L3:L18"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{221A8622-D460-D946-9D54-30C9CDF9ACD3}" name="日期" dataDxfId="127"/>
-    <tableColumn id="2" xr3:uid="{3F799C66-E8A5-C840-9B0F-90149E0B90B8}" name="时间" dataDxfId="126"/>
-    <tableColumn id="3" xr3:uid="{247A341C-834A-D84A-B642-E4D254351147}" name="类别" dataDxfId="125"/>
-    <tableColumn id="4" xr3:uid="{66C0FF70-B0EB-1348-9A0A-A373D91877A5}" name="名称" dataDxfId="124"/>
-    <tableColumn id="10" xr3:uid="{F2CF9D3F-1599-2140-A9E3-6DD2BB6718A0}" name="金额($)" dataDxfId="123"/>
-    <tableColumn id="6" xr3:uid="{7A2F9865-1F89-7847-BBB5-866D4F8ACE2C}" name="数量" dataDxfId="122"/>
-    <tableColumn id="7" xr3:uid="{4D476744-220B-7845-B018-74BE17061F7F}" name="支付方式" dataDxfId="121"/>
-    <tableColumn id="8" xr3:uid="{DAAED3F4-C2DA-3C42-AA43-0EB6C981D90B}" name="渠道" dataDxfId="120"/>
-    <tableColumn id="9" xr3:uid="{01438435-C03F-5E4C-B03F-CBE95D393CA8}" name="备注" dataDxfId="119"/>
-    <tableColumn id="11" xr3:uid="{EF6A6F82-FA89-1643-BF62-35B9E06215E1}" name="图片地址" dataDxfId="118"/>
-    <tableColumn id="12" xr3:uid="{AE1B08C3-3787-9045-A6A9-2A9595E5C02A}" name="订单详情" dataDxfId="117"/>
-    <tableColumn id="13" xr3:uid="{817576EA-B0A3-324E-A3B3-3DCDD8FFE8C3}" name="列1" dataDxfId="116"/>
+    <tableColumn id="1" xr3:uid="{221A8622-D460-D946-9D54-30C9CDF9ACD3}" name="日期" dataDxfId="136"/>
+    <tableColumn id="2" xr3:uid="{3F799C66-E8A5-C840-9B0F-90149E0B90B8}" name="时间" dataDxfId="135"/>
+    <tableColumn id="3" xr3:uid="{247A341C-834A-D84A-B642-E4D254351147}" name="类别" dataDxfId="134"/>
+    <tableColumn id="4" xr3:uid="{66C0FF70-B0EB-1348-9A0A-A373D91877A5}" name="名称" dataDxfId="133"/>
+    <tableColumn id="10" xr3:uid="{F2CF9D3F-1599-2140-A9E3-6DD2BB6718A0}" name="金额($)" dataDxfId="132"/>
+    <tableColumn id="6" xr3:uid="{7A2F9865-1F89-7847-BBB5-866D4F8ACE2C}" name="数量" dataDxfId="131"/>
+    <tableColumn id="7" xr3:uid="{4D476744-220B-7845-B018-74BE17061F7F}" name="支付方式" dataDxfId="130"/>
+    <tableColumn id="8" xr3:uid="{DAAED3F4-C2DA-3C42-AA43-0EB6C981D90B}" name="渠道" dataDxfId="129"/>
+    <tableColumn id="9" xr3:uid="{01438435-C03F-5E4C-B03F-CBE95D393CA8}" name="备注" dataDxfId="128"/>
+    <tableColumn id="11" xr3:uid="{EF6A6F82-FA89-1643-BF62-35B9E06215E1}" name="图片地址" dataDxfId="127"/>
+    <tableColumn id="12" xr3:uid="{AE1B08C3-3787-9045-A6A9-2A9595E5C02A}" name="订单详情" dataDxfId="126"/>
+    <tableColumn id="13" xr3:uid="{817576EA-B0A3-324E-A3B3-3DCDD8FFE8C3}" name="列1" dataDxfId="125"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{3F2EC857-243B-2645-AF03-53AF6C939B9F}" name="表2_121315162021182317181727" displayName="表2_121315162021182317181727" ref="K215:S239" totalsRowShown="0" headerRowDxfId="115" dataDxfId="113" headerRowBorderDxfId="114" tableBorderDxfId="112">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{3F2EC857-243B-2645-AF03-53AF6C939B9F}" name="表2_121315162021182317181727" displayName="表2_121315162021182317181727" ref="K215:S239" totalsRowShown="0" headerRowDxfId="124" dataDxfId="122" headerRowBorderDxfId="123" tableBorderDxfId="121">
   <autoFilter ref="K215:S239" xr:uid="{DAC89B1E-920B-0D43-AD39-2C0F93C33525}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K216:S220">
     <sortCondition ref="K3:K16"/>
     <sortCondition ref="L3:L16"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B8C31F80-1A4B-4648-8E25-9594C529804C}" name="日期" dataDxfId="111"/>
-    <tableColumn id="2" xr3:uid="{E3FE4CDC-CB02-4547-8A6E-7B5018F830B9}" name="时间" dataDxfId="110"/>
-    <tableColumn id="3" xr3:uid="{B830E525-327C-5445-91BD-134C2E975CA1}" name="类别" dataDxfId="109"/>
-    <tableColumn id="4" xr3:uid="{4C06D8FD-B007-FD4D-A0C6-EEFCD7D2462D}" name="名称" dataDxfId="108"/>
-    <tableColumn id="10" xr3:uid="{CB8B18FA-634B-DF42-96C1-13B16D3B4C37}" name="金额($)" dataDxfId="107"/>
-    <tableColumn id="6" xr3:uid="{8F79BF8F-58E2-DD43-8F4A-93643167882D}" name="数量" dataDxfId="106"/>
-    <tableColumn id="7" xr3:uid="{3563508A-5295-5443-AB75-74063E5F55C3}" name="支付方式" dataDxfId="105"/>
-    <tableColumn id="8" xr3:uid="{8FC2120B-449C-2B40-8921-5B059E22E49F}" name="渠道" dataDxfId="104"/>
-    <tableColumn id="9" xr3:uid="{64B8FCA5-512D-FE47-92FF-7DDFBB7884E4}" name="备注" dataDxfId="103"/>
+    <tableColumn id="1" xr3:uid="{B8C31F80-1A4B-4648-8E25-9594C529804C}" name="日期" dataDxfId="120"/>
+    <tableColumn id="2" xr3:uid="{E3FE4CDC-CB02-4547-8A6E-7B5018F830B9}" name="时间" dataDxfId="119"/>
+    <tableColumn id="3" xr3:uid="{B830E525-327C-5445-91BD-134C2E975CA1}" name="类别" dataDxfId="118"/>
+    <tableColumn id="4" xr3:uid="{4C06D8FD-B007-FD4D-A0C6-EEFCD7D2462D}" name="名称" dataDxfId="117"/>
+    <tableColumn id="10" xr3:uid="{CB8B18FA-634B-DF42-96C1-13B16D3B4C37}" name="金额($)" dataDxfId="116"/>
+    <tableColumn id="6" xr3:uid="{8F79BF8F-58E2-DD43-8F4A-93643167882D}" name="数量" dataDxfId="115"/>
+    <tableColumn id="7" xr3:uid="{3563508A-5295-5443-AB75-74063E5F55C3}" name="支付方式" dataDxfId="114"/>
+    <tableColumn id="8" xr3:uid="{8FC2120B-449C-2B40-8921-5B059E22E49F}" name="渠道" dataDxfId="113"/>
+    <tableColumn id="9" xr3:uid="{64B8FCA5-512D-FE47-92FF-7DDFBB7884E4}" name="备注" dataDxfId="112"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{7E52F1F1-47DF-7043-BC6F-D5DF62C49306}" name="表2_121315162021182317242829" displayName="表2_121315162021182317242829" ref="K242:V250" totalsRowShown="0" headerRowDxfId="102" dataDxfId="100" headerRowBorderDxfId="101" tableBorderDxfId="99">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{7E52F1F1-47DF-7043-BC6F-D5DF62C49306}" name="表2_121315162021182317242829" displayName="表2_121315162021182317242829" ref="K242:V250" totalsRowShown="0" headerRowDxfId="111" dataDxfId="109" headerRowBorderDxfId="110" tableBorderDxfId="108">
   <autoFilter ref="K242:V250" xr:uid="{9E59D046-D048-C843-8065-387FC3638EC9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K243:S250">
     <sortCondition ref="K3:K18"/>
     <sortCondition ref="L3:L18"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{8BAAA80A-A7FB-9C4C-AB5C-CFA3B8FABC98}" name="日期" dataDxfId="98"/>
-    <tableColumn id="2" xr3:uid="{347E57DF-2B5E-BD40-86C8-8F59D0256FB2}" name="时间" dataDxfId="97"/>
-    <tableColumn id="3" xr3:uid="{18E112DA-9A28-A74E-8CC6-4AC29E6C30CC}" name="类别" dataDxfId="96"/>
-    <tableColumn id="4" xr3:uid="{A72441B5-BA41-F64F-8F0A-4E80E2BC5460}" name="名称" dataDxfId="95"/>
-    <tableColumn id="10" xr3:uid="{432E6622-AC43-064E-8A9A-7E2979B64C81}" name="金额($)" dataDxfId="94"/>
-    <tableColumn id="6" xr3:uid="{F7CC930A-519F-ED47-88BB-E7F6BC8E72F5}" name="数量" dataDxfId="93"/>
-    <tableColumn id="7" xr3:uid="{3F34C0C1-C8A9-EC44-BE7B-5E1805884F14}" name="支付方式" dataDxfId="92"/>
-    <tableColumn id="8" xr3:uid="{84730249-F504-F740-AC25-9A561C529D42}" name="渠道" dataDxfId="91"/>
-    <tableColumn id="9" xr3:uid="{AD4DD8A8-6A02-8F4F-91F0-DD7F2E94B253}" name="备注" dataDxfId="90"/>
-    <tableColumn id="11" xr3:uid="{6AE29104-87BA-6448-A1D6-3EFCD9E408DF}" name="图片地址" dataDxfId="89"/>
-    <tableColumn id="12" xr3:uid="{E7D376F1-44BE-7F42-B1F6-9A6FAA1BD658}" name="订单详情" dataDxfId="88"/>
-    <tableColumn id="13" xr3:uid="{22C41DAC-55E6-8342-96F8-4842A3C8659C}" name="列1" dataDxfId="87"/>
+    <tableColumn id="1" xr3:uid="{8BAAA80A-A7FB-9C4C-AB5C-CFA3B8FABC98}" name="日期" dataDxfId="107"/>
+    <tableColumn id="2" xr3:uid="{347E57DF-2B5E-BD40-86C8-8F59D0256FB2}" name="时间" dataDxfId="106"/>
+    <tableColumn id="3" xr3:uid="{18E112DA-9A28-A74E-8CC6-4AC29E6C30CC}" name="类别" dataDxfId="105"/>
+    <tableColumn id="4" xr3:uid="{A72441B5-BA41-F64F-8F0A-4E80E2BC5460}" name="名称" dataDxfId="104"/>
+    <tableColumn id="10" xr3:uid="{432E6622-AC43-064E-8A9A-7E2979B64C81}" name="金额($)" dataDxfId="103"/>
+    <tableColumn id="6" xr3:uid="{F7CC930A-519F-ED47-88BB-E7F6BC8E72F5}" name="数量" dataDxfId="102"/>
+    <tableColumn id="7" xr3:uid="{3F34C0C1-C8A9-EC44-BE7B-5E1805884F14}" name="支付方式" dataDxfId="101"/>
+    <tableColumn id="8" xr3:uid="{84730249-F504-F740-AC25-9A561C529D42}" name="渠道" dataDxfId="100"/>
+    <tableColumn id="9" xr3:uid="{AD4DD8A8-6A02-8F4F-91F0-DD7F2E94B253}" name="备注" dataDxfId="99"/>
+    <tableColumn id="11" xr3:uid="{6AE29104-87BA-6448-A1D6-3EFCD9E408DF}" name="图片地址" dataDxfId="98"/>
+    <tableColumn id="12" xr3:uid="{E7D376F1-44BE-7F42-B1F6-9A6FAA1BD658}" name="订单详情" dataDxfId="97"/>
+    <tableColumn id="13" xr3:uid="{22C41DAC-55E6-8342-96F8-4842A3C8659C}" name="列1" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{13C46A62-F0CF-624F-B8B1-05BDFB8205C2}" name="表2_1213151620211823172428291728" displayName="表2_1213151620211823172428291728" ref="K253:V263" totalsRowShown="0" headerRowDxfId="86" dataDxfId="84" headerRowBorderDxfId="85" tableBorderDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{13C46A62-F0CF-624F-B8B1-05BDFB8205C2}" name="表2_1213151620211823172428291728" displayName="表2_1213151620211823172428291728" ref="K253:V263" totalsRowShown="0" headerRowDxfId="95" dataDxfId="93" headerRowBorderDxfId="94" tableBorderDxfId="92">
   <autoFilter ref="K253:V263" xr:uid="{71BAF812-C1FF-6F47-99C9-6676E531B0D8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K254:S263">
     <sortCondition ref="K3:K22"/>
     <sortCondition ref="L3:L22"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{0C9C24D4-6C4E-1E41-BB19-A753D30EEB1F}" name="日期" dataDxfId="82"/>
-    <tableColumn id="2" xr3:uid="{DD9E0D3C-D75B-7344-9697-18B109EBC526}" name="时间" dataDxfId="81"/>
-    <tableColumn id="3" xr3:uid="{B3D44877-D397-E74C-9786-4AAD53F1C29A}" name="类别" dataDxfId="80"/>
-    <tableColumn id="4" xr3:uid="{85A74C0F-056C-DC4F-BD60-3893462862FD}" name="名称" dataDxfId="79"/>
-    <tableColumn id="10" xr3:uid="{4B8BC20A-FA2D-D746-9B6C-1D4BE3D2C843}" name="金额($)" dataDxfId="78"/>
-    <tableColumn id="6" xr3:uid="{5FF34829-EC22-F94F-A5F1-1CB8DBF311F3}" name="数量" dataDxfId="77"/>
-    <tableColumn id="7" xr3:uid="{BD4A1933-54F8-9646-9A4D-27A96AF4CA46}" name="支付方式" dataDxfId="76"/>
-    <tableColumn id="8" xr3:uid="{1503903D-9129-4C4E-8961-6908E3A522D3}" name="渠道" dataDxfId="75"/>
-    <tableColumn id="9" xr3:uid="{3DFBD95E-56A9-094F-9730-442A433CD346}" name="备注" dataDxfId="74"/>
-    <tableColumn id="11" xr3:uid="{2D754D37-9C71-014D-AB90-8F1CCFD5FDDE}" name="图片地址" dataDxfId="73"/>
-    <tableColumn id="12" xr3:uid="{CA6406E3-CEEA-6C43-BBAD-D43411B562C0}" name="订单详情" dataDxfId="72"/>
-    <tableColumn id="13" xr3:uid="{EBF9066D-8CDB-424B-9C3D-A0DC5CD8CBC2}" name="列1" dataDxfId="71"/>
+    <tableColumn id="1" xr3:uid="{0C9C24D4-6C4E-1E41-BB19-A753D30EEB1F}" name="日期" dataDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{DD9E0D3C-D75B-7344-9697-18B109EBC526}" name="时间" dataDxfId="90"/>
+    <tableColumn id="3" xr3:uid="{B3D44877-D397-E74C-9786-4AAD53F1C29A}" name="类别" dataDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{85A74C0F-056C-DC4F-BD60-3893462862FD}" name="名称" dataDxfId="88"/>
+    <tableColumn id="10" xr3:uid="{4B8BC20A-FA2D-D746-9B6C-1D4BE3D2C843}" name="金额($)" dataDxfId="87"/>
+    <tableColumn id="6" xr3:uid="{5FF34829-EC22-F94F-A5F1-1CB8DBF311F3}" name="数量" dataDxfId="86"/>
+    <tableColumn id="7" xr3:uid="{BD4A1933-54F8-9646-9A4D-27A96AF4CA46}" name="支付方式" dataDxfId="85"/>
+    <tableColumn id="8" xr3:uid="{1503903D-9129-4C4E-8961-6908E3A522D3}" name="渠道" dataDxfId="84"/>
+    <tableColumn id="9" xr3:uid="{3DFBD95E-56A9-094F-9730-442A433CD346}" name="备注" dataDxfId="83"/>
+    <tableColumn id="11" xr3:uid="{2D754D37-9C71-014D-AB90-8F1CCFD5FDDE}" name="图片地址" dataDxfId="82"/>
+    <tableColumn id="12" xr3:uid="{CA6406E3-CEEA-6C43-BBAD-D43411B562C0}" name="订单详情" dataDxfId="81"/>
+    <tableColumn id="13" xr3:uid="{EBF9066D-8CDB-424B-9C3D-A0DC5CD8CBC2}" name="列1" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{72BCC51D-4165-C448-B82C-A263B9880D62}" name="表2_1213151620211823171817" displayName="表2_1213151620211823171817" ref="K266:S287" totalsRowShown="0" headerRowDxfId="70" dataDxfId="68" headerRowBorderDxfId="69" tableBorderDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{72BCC51D-4165-C448-B82C-A263B9880D62}" name="表2_1213151620211823171817" displayName="表2_1213151620211823171817" ref="K266:S287" totalsRowShown="0" headerRowDxfId="79" dataDxfId="77" headerRowBorderDxfId="78" tableBorderDxfId="76">
   <autoFilter ref="K266:S287" xr:uid="{5F6D25BB-3E42-564C-AA79-91B0EBC07FC4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K267:S271">
     <sortCondition ref="K258:K271"/>
     <sortCondition ref="L258:L271"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{43D08019-CB55-E64C-A582-7164C07BFAE3}" name="日期" dataDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{F26B41EC-36EA-DB41-9395-C974B983BC85}" name="时间" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{8BB0E3BF-A9E0-384C-B2E1-E0712FA9168F}" name="类别" dataDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{3DF4AEFA-B488-8142-A801-684FB87323C6}" name="名称" dataDxfId="63"/>
-    <tableColumn id="10" xr3:uid="{D9233AF3-A6D1-5247-B635-FF8D4E0BE30C}" name="金额($)" dataDxfId="62"/>
-    <tableColumn id="6" xr3:uid="{2DBFCA37-8FE3-EB43-B50F-71029FD28038}" name="数量" dataDxfId="61"/>
-    <tableColumn id="7" xr3:uid="{74FB31CE-3FBF-3442-8881-4B7A979E7271}" name="支付方式" dataDxfId="60"/>
-    <tableColumn id="8" xr3:uid="{D290E6A6-DF8D-6C4A-9138-C20E189FEFDD}" name="渠道" dataDxfId="59"/>
-    <tableColumn id="9" xr3:uid="{BE73F99C-935F-9F42-AEC7-18342B2A8982}" name="备注" dataDxfId="58"/>
+    <tableColumn id="1" xr3:uid="{43D08019-CB55-E64C-A582-7164C07BFAE3}" name="日期" dataDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{F26B41EC-36EA-DB41-9395-C974B983BC85}" name="时间" dataDxfId="74"/>
+    <tableColumn id="3" xr3:uid="{8BB0E3BF-A9E0-384C-B2E1-E0712FA9168F}" name="类别" dataDxfId="73"/>
+    <tableColumn id="4" xr3:uid="{3DF4AEFA-B488-8142-A801-684FB87323C6}" name="名称" dataDxfId="72"/>
+    <tableColumn id="10" xr3:uid="{D9233AF3-A6D1-5247-B635-FF8D4E0BE30C}" name="金额($)" dataDxfId="71"/>
+    <tableColumn id="6" xr3:uid="{2DBFCA37-8FE3-EB43-B50F-71029FD28038}" name="数量" dataDxfId="70"/>
+    <tableColumn id="7" xr3:uid="{74FB31CE-3FBF-3442-8881-4B7A979E7271}" name="支付方式" dataDxfId="69"/>
+    <tableColumn id="8" xr3:uid="{D290E6A6-DF8D-6C4A-9138-C20E189FEFDD}" name="渠道" dataDxfId="68"/>
+    <tableColumn id="9" xr3:uid="{BE73F99C-935F-9F42-AEC7-18342B2A8982}" name="备注" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA735AAC-C770-2E42-A456-00A4A31FA22B}" name="表2" displayName="表2" ref="K2:U30" totalsRowShown="0" headerRowDxfId="295" dataDxfId="293" headerRowBorderDxfId="294" tableBorderDxfId="292">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA735AAC-C770-2E42-A456-00A4A31FA22B}" name="表2" displayName="表2" ref="K2:U30" totalsRowShown="0" headerRowDxfId="304" dataDxfId="302" headerRowBorderDxfId="303" tableBorderDxfId="301">
   <autoFilter ref="K2:U30" xr:uid="{4793C34A-1C18-7E44-A39F-05257DC17272}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K3:U30">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{A8855FFB-69E8-5346-85D7-D302A4361F0D}" name="日期" dataDxfId="291"/>
-    <tableColumn id="2" xr3:uid="{7F5C8AE4-748F-B249-94E5-C82E8B468666}" name="时间" dataDxfId="290"/>
-    <tableColumn id="3" xr3:uid="{2038DB5F-A483-5B45-BD40-2EE71479D120}" name="类别" dataDxfId="289"/>
-    <tableColumn id="4" xr3:uid="{866FA0C4-A8D9-954D-B79F-91827E135B06}" name="名称" dataDxfId="288"/>
-    <tableColumn id="10" xr3:uid="{BDBE979D-A86E-9A42-B694-AF71E0F9E33B}" name="金额($)" dataDxfId="287"/>
-    <tableColumn id="11" xr3:uid="{34065CA2-B34E-7E48-9114-CF6B6AC8F093}" name="金额(陈)" dataDxfId="286"/>
-    <tableColumn id="5" xr3:uid="{A5B56494-2462-CB4D-8877-6002352002FB}" name="金额(李)" dataDxfId="285"/>
-    <tableColumn id="6" xr3:uid="{040AF034-DFE5-1447-B9DF-4AE4E769137D}" name="数量" dataDxfId="284"/>
-    <tableColumn id="7" xr3:uid="{C33AE25B-0D3A-124A-889B-B96CBDD49041}" name="支付方式" dataDxfId="283"/>
-    <tableColumn id="8" xr3:uid="{FDC575F4-37F8-2B42-AA8E-F9581923CCAD}" name="渠道" dataDxfId="282"/>
-    <tableColumn id="9" xr3:uid="{EBDE8156-8EBE-DE42-AE3D-F526626C95E6}" name="备注" dataDxfId="281"/>
+    <tableColumn id="1" xr3:uid="{A8855FFB-69E8-5346-85D7-D302A4361F0D}" name="日期" dataDxfId="300"/>
+    <tableColumn id="2" xr3:uid="{7F5C8AE4-748F-B249-94E5-C82E8B468666}" name="时间" dataDxfId="299"/>
+    <tableColumn id="3" xr3:uid="{2038DB5F-A483-5B45-BD40-2EE71479D120}" name="类别" dataDxfId="298"/>
+    <tableColumn id="4" xr3:uid="{866FA0C4-A8D9-954D-B79F-91827E135B06}" name="名称" dataDxfId="297"/>
+    <tableColumn id="10" xr3:uid="{BDBE979D-A86E-9A42-B694-AF71E0F9E33B}" name="金额($)" dataDxfId="296"/>
+    <tableColumn id="11" xr3:uid="{34065CA2-B34E-7E48-9114-CF6B6AC8F093}" name="金额(陈)" dataDxfId="295"/>
+    <tableColumn id="5" xr3:uid="{A5B56494-2462-CB4D-8877-6002352002FB}" name="金额(李)" dataDxfId="294"/>
+    <tableColumn id="6" xr3:uid="{040AF034-DFE5-1447-B9DF-4AE4E769137D}" name="数量" dataDxfId="293"/>
+    <tableColumn id="7" xr3:uid="{C33AE25B-0D3A-124A-889B-B96CBDD49041}" name="支付方式" dataDxfId="292"/>
+    <tableColumn id="8" xr3:uid="{FDC575F4-37F8-2B42-AA8E-F9581923CCAD}" name="渠道" dataDxfId="291"/>
+    <tableColumn id="9" xr3:uid="{EBDE8156-8EBE-DE42-AE3D-F526626C95E6}" name="备注" dataDxfId="290"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{FB357124-CAEC-3A4F-9AD4-7015BDE6A775}" name="表2_1213151620211823171817273031" displayName="表2_1213151620211823171817273031" ref="K290:S297" totalsRowShown="0" headerRowDxfId="57" dataDxfId="55" headerRowBorderDxfId="56" tableBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{FB357124-CAEC-3A4F-9AD4-7015BDE6A775}" name="表2_1213151620211823171817273031" displayName="表2_1213151620211823171817273031" ref="K290:S297" totalsRowShown="0" headerRowDxfId="66" dataDxfId="64" headerRowBorderDxfId="65" tableBorderDxfId="63">
   <autoFilter ref="K290:S297" xr:uid="{19D2B74C-350E-264E-98FF-E443C6433870}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K291:S295">
     <sortCondition ref="K3:K16"/>
     <sortCondition ref="L3:L16"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{9F482AF4-8898-3D4C-9C3D-D4CF5443AA65}" name="日期" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{D4017213-F6BD-CD45-B890-1657F2E760B3}" name="时间" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{4D0F7953-22E6-5145-98C4-202DC7DFA362}" name="类别" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{2FD150A8-7F79-3042-8703-1432B4938FC8}" name="名称" dataDxfId="50"/>
-    <tableColumn id="10" xr3:uid="{6730A74C-034E-7C45-B932-A54930F60E7E}" name="金额($)" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{B1BA88F4-FDAC-3D49-9152-2FE21693D2D0}" name="数量" dataDxfId="48"/>
-    <tableColumn id="7" xr3:uid="{05EF7F84-CFDB-AF40-B6F0-5EDC117FD992}" name="支付方式" dataDxfId="47"/>
-    <tableColumn id="8" xr3:uid="{2E853F2D-E108-3E48-83B5-BBA8785D9168}" name="渠道" dataDxfId="46"/>
-    <tableColumn id="9" xr3:uid="{D8BEB0D1-5FD6-EC41-BA7B-1FA7AD6A53C6}" name="备注" dataDxfId="45"/>
+    <tableColumn id="1" xr3:uid="{9F482AF4-8898-3D4C-9C3D-D4CF5443AA65}" name="日期" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{D4017213-F6BD-CD45-B890-1657F2E760B3}" name="时间" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{4D0F7953-22E6-5145-98C4-202DC7DFA362}" name="类别" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{2FD150A8-7F79-3042-8703-1432B4938FC8}" name="名称" dataDxfId="59"/>
+    <tableColumn id="10" xr3:uid="{6730A74C-034E-7C45-B932-A54930F60E7E}" name="金额($)" dataDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{B1BA88F4-FDAC-3D49-9152-2FE21693D2D0}" name="数量" dataDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{05EF7F84-CFDB-AF40-B6F0-5EDC117FD992}" name="支付方式" dataDxfId="56"/>
+    <tableColumn id="8" xr3:uid="{2E853F2D-E108-3E48-83B5-BBA8785D9168}" name="渠道" dataDxfId="55"/>
+    <tableColumn id="9" xr3:uid="{D8BEB0D1-5FD6-EC41-BA7B-1FA7AD6A53C6}" name="备注" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{A091A92C-8D15-494C-9271-1560616714FF}" name="表2_12131516202118231724282917283032" displayName="表2_12131516202118231724282917283032" ref="K300:V306" totalsRowShown="0" headerRowDxfId="44" dataDxfId="42" headerRowBorderDxfId="43" tableBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{A091A92C-8D15-494C-9271-1560616714FF}" name="表2_12131516202118231724282917283032" displayName="表2_12131516202118231724282917283032" ref="K300:V306" totalsRowShown="0" headerRowDxfId="53" dataDxfId="51" headerRowBorderDxfId="52" tableBorderDxfId="50">
   <autoFilter ref="K300:V306" xr:uid="{67CE5601-EEEE-6546-A415-E03486A4FB5C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K301:S306">
     <sortCondition ref="K3:K18"/>
     <sortCondition ref="L3:L18"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{B98629A6-9FDE-6643-B4DC-7CE89F44DFE3}" name="日期" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{4D159D06-7404-9042-B7E8-270ECCC8AF58}" name="时间" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{390AD1F2-6635-6945-83F9-F128B4BCD775}" name="类别" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{3238EEAF-9D23-3443-A46F-CD3E778E1BAE}" name="名称" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{FAD10A5C-DA42-3948-8033-2170DA2E709C}" name="金额($)" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{025F8947-3C16-7C4C-AC34-773D099DA4B8}" name="数量" dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{C8AEE753-1F17-6F41-982A-2983AFDF83CC}" name="支付方式" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{55CEAD31-BBC4-A644-91D8-1700DA9E8AC0}" name="渠道" dataDxfId="33"/>
-    <tableColumn id="9" xr3:uid="{070A6CEC-45AD-7347-BB5D-E9A8284F9CD9}" name="备注" dataDxfId="32"/>
-    <tableColumn id="11" xr3:uid="{AA22FFCA-B274-9245-91E7-7F58AD731074}" name="图片地址" dataDxfId="31"/>
-    <tableColumn id="12" xr3:uid="{0C9A315A-FA3C-6647-9CB0-EEF0FCD034F3}" name="订单详情" dataDxfId="30"/>
-    <tableColumn id="13" xr3:uid="{CBC19044-2043-5A4E-A2F5-7013CD1CB630}" name="列1" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{B98629A6-9FDE-6643-B4DC-7CE89F44DFE3}" name="日期" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{4D159D06-7404-9042-B7E8-270ECCC8AF58}" name="时间" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{390AD1F2-6635-6945-83F9-F128B4BCD775}" name="类别" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{3238EEAF-9D23-3443-A46F-CD3E778E1BAE}" name="名称" dataDxfId="46"/>
+    <tableColumn id="10" xr3:uid="{FAD10A5C-DA42-3948-8033-2170DA2E709C}" name="金额($)" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{025F8947-3C16-7C4C-AC34-773D099DA4B8}" name="数量" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{C8AEE753-1F17-6F41-982A-2983AFDF83CC}" name="支付方式" dataDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{55CEAD31-BBC4-A644-91D8-1700DA9E8AC0}" name="渠道" dataDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{070A6CEC-45AD-7347-BB5D-E9A8284F9CD9}" name="备注" dataDxfId="41"/>
+    <tableColumn id="11" xr3:uid="{AA22FFCA-B274-9245-91E7-7F58AD731074}" name="图片地址" dataDxfId="40"/>
+    <tableColumn id="12" xr3:uid="{0C9A315A-FA3C-6647-9CB0-EEF0FCD034F3}" name="订单详情" dataDxfId="39"/>
+    <tableColumn id="13" xr3:uid="{CBC19044-2043-5A4E-A2F5-7013CD1CB630}" name="列1" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{BB3A0840-620E-5045-BFDB-A08ED738B7F0}" name="表2_35" displayName="表2_35" ref="K309:R321" totalsRowShown="0" dataDxfId="8">
-  <autoFilter ref="K309:R321" xr:uid="{016A6DEA-5F7E-144C-9FBD-B635DCFE087E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{BB3A0840-620E-5045-BFDB-A08ED738B7F0}" name="表2_35" displayName="表2_35" ref="K309:R322" totalsRowShown="0" dataDxfId="37">
+  <autoFilter ref="K309:R322" xr:uid="{016A6DEA-5F7E-144C-9FBD-B635DCFE087E}"/>
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{89F3890F-B839-1044-9670-45F6658AC500}" name="日期" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{6C7647B3-63AF-AE42-A0E2-65312D12169D}" name="时间" dataDxfId="1"/>
-    <tableColumn id="1" xr3:uid="{5A110ABF-78A9-3E41-A8D1-34E42194A301}" name="名称" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{8EC3769D-3878-3243-982C-E9691C456E2B}" name="单价" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{29E53809-5E3B-514A-A728-396A1136B1EC}" name="疗程" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{98716D25-A1EC-A34D-B0DE-7F82CDB08B76}" name="数量" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{D9992431-5BB8-004F-9C78-CC86FBF254AB}" name="总价" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{5A0FF7CA-F737-EF48-B429-14608A88BB8A}" name="治疗地址" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{89F3890F-B839-1044-9670-45F6658AC500}" name="日期" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{6C7647B3-63AF-AE42-A0E2-65312D12169D}" name="时间" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{5A110ABF-78A9-3E41-A8D1-34E42194A301}" name="名称" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{8EC3769D-3878-3243-982C-E9691C456E2B}" name="单价" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{29E53809-5E3B-514A-A728-396A1136B1EC}" name="疗程" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{98716D25-A1EC-A34D-B0DE-7F82CDB08B76}" name="数量" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{D9992431-5BB8-004F-9C78-CC86FBF254AB}" name="总价" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{5A0FF7CA-F737-EF48-B429-14608A88BB8A}" name="治疗地址" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{019196E0-2B78-BE4D-A9BC-D3D6902511FB}" name="表2_3533" displayName="表2_3533" ref="K325:R339" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="K325:R339" xr:uid="{72C3BAA0-C953-6A49-8264-EE8BE06FF59B}"/>
+  <tableColumns count="8">
+    <tableColumn id="8" xr3:uid="{04039D40-3D83-CB4B-A407-75A40D26B8A4}" name="日期" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{A473F710-87B0-FD46-8048-57F53AF0EB43}" name="时间" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{774C8DFD-A4D0-FB4F-8A30-5E52EF65929B}" name="名称" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{9BBB29E8-7C70-654E-ACF4-416CC94DB4F3}" name="单价" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{B8D7C85F-DC42-F240-895B-62E1DF7EA263}" name="疗程" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{C5A85072-F801-2045-8282-05DFFC6A8A46}" name="数量" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{5677D2D8-8DD9-194F-8ADE-8298495ADE72}" name="总价" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{9B26B598-7EA7-1744-9CD0-EB7804EF504E}" name="治疗地址" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{91487C9E-824E-B04A-9DC8-01A661A2BC5C}" name="表29" displayName="表29" ref="A1:I68" totalsRowShown="0">
   <autoFilter ref="A1:I68" xr:uid="{69B47496-0EB4-2444-98FA-A384D98D12C6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I68">
@@ -12761,7 +13445,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E8827FEC-29EB-A64F-A117-AB93F5AF704B}" name="表4" displayName="表4" ref="A2:Z29" totalsRowShown="0">
   <autoFilter ref="A2:Z29" xr:uid="{ADCC33E7-0DD1-FA45-9C41-7D7E3B5A50FC}"/>
   <tableColumns count="26">
@@ -12796,7 +13480,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{608D5E4E-7BC0-414D-A696-97B3CAE12BE2}" name="表7" displayName="表7" ref="AB2:AG16" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23">
   <autoFilter ref="AB2:AG16" xr:uid="{D99BBCC0-26F8-584F-82AF-B9C9A1318EBC}"/>
   <tableColumns count="6">
@@ -12811,7 +13495,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{410100AD-10E0-4F44-9412-B97D896BE399}" name="表12_14" displayName="表12_14" ref="AI2:AV16" totalsRowShown="0">
   <autoFilter ref="AI2:AV16" xr:uid="{89D068C2-82CB-8047-9DFF-C45CD4BCF7C3}"/>
   <tableColumns count="14">
@@ -12834,7 +13518,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4A8A3C27-EB59-8440-9FAF-B3CF2592953D}" name="表8" displayName="表8" ref="A1:AR3" totalsRowShown="0">
   <autoFilter ref="A1:AR3" xr:uid="{0F1C729B-8ECB-2146-BFBD-8CF0DB869F75}"/>
   <tableColumns count="44">
@@ -12887,7 +13571,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{02022759-1D6A-1B48-A9EF-B4775205DB9B}" name="表10" displayName="表10" ref="A1:AR2" totalsRowShown="0">
   <autoFilter ref="A1:AR2" xr:uid="{2368815E-0083-7C4E-AFD6-5BD45387C155}"/>
   <tableColumns count="44">
@@ -12940,48 +13624,48 @@
 </table>
 </file>
 
-<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{11A792C6-3B2B-EB45-B402-6B17FF6ECC12}" name="表2_12" displayName="表2_12" ref="K33:S41" totalsRowShown="0" headerRowDxfId="289" dataDxfId="287" headerRowBorderDxfId="288" tableBorderDxfId="286">
+  <autoFilter ref="K33:S41" xr:uid="{BF5DEAC1-034C-6E4F-BFC7-2363B9047242}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K34:S60">
+    <sortCondition ref="K3:K30"/>
+    <sortCondition ref="L3:L30"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{9E6DCB6F-2192-F341-9E3F-1C4530C10FA8}" name="日期" dataDxfId="285"/>
+    <tableColumn id="2" xr3:uid="{E2BCBFCC-07FA-4144-B6A7-6BA37CAE0B0B}" name="时间" dataDxfId="284"/>
+    <tableColumn id="3" xr3:uid="{9E554D31-EFE4-EC43-967A-01E672C5B7F9}" name="类别" dataDxfId="283"/>
+    <tableColumn id="4" xr3:uid="{7F292805-5DAB-FB40-9F28-0C7BCA16DAA0}" name="名称" dataDxfId="282"/>
+    <tableColumn id="10" xr3:uid="{2F81F807-05F7-C04A-BB0E-654041F5B9F6}" name="金额($)" dataDxfId="281"/>
+    <tableColumn id="6" xr3:uid="{6DBF3C40-8B26-0048-A1C9-BE6D68464C6F}" name="数量" dataDxfId="280"/>
+    <tableColumn id="7" xr3:uid="{A64FDE06-A678-4646-A55C-2026413CC908}" name="支付方式" dataDxfId="279"/>
+    <tableColumn id="8" xr3:uid="{3352A65C-6558-D843-9D75-CEE8687567E5}" name="渠道" dataDxfId="278"/>
+    <tableColumn id="9" xr3:uid="{9E21A11A-E4AD-DA4D-B780-F28E44B87A61}" name="备注" dataDxfId="277"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A5C76C99-5210-AA4E-88F9-DA6CB4EC7370}" name="表6" displayName="表6" ref="A1:B2" totalsRowShown="0">
   <autoFilter ref="A1:B2" xr:uid="{6D1BEB71-2A6D-204C-90D6-33D32A457DF7}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{708C10D3-3099-AB43-BF6B-AAC0E5724B2D}" name="年"/>
     <tableColumn id="2" xr3:uid="{5D7EEFFC-1B1B-C442-8DD0-96BF0D9145E1}" name="总计">
-      <calculatedColumnFormula>SUM(records!E2:E775)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(records!E2:E916)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{11A792C6-3B2B-EB45-B402-6B17FF6ECC12}" name="表2_12" displayName="表2_12" ref="K33:S41" totalsRowShown="0" headerRowDxfId="280" dataDxfId="278" headerRowBorderDxfId="279" tableBorderDxfId="277">
-  <autoFilter ref="K33:S41" xr:uid="{BF5DEAC1-034C-6E4F-BFC7-2363B9047242}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K34:S60">
-    <sortCondition ref="K3:K30"/>
-    <sortCondition ref="L3:L30"/>
-  </sortState>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{9E6DCB6F-2192-F341-9E3F-1C4530C10FA8}" name="日期" dataDxfId="276"/>
-    <tableColumn id="2" xr3:uid="{E2BCBFCC-07FA-4144-B6A7-6BA37CAE0B0B}" name="时间" dataDxfId="275"/>
-    <tableColumn id="3" xr3:uid="{9E554D31-EFE4-EC43-967A-01E672C5B7F9}" name="类别" dataDxfId="274"/>
-    <tableColumn id="4" xr3:uid="{7F292805-5DAB-FB40-9F28-0C7BCA16DAA0}" name="名称" dataDxfId="273"/>
-    <tableColumn id="10" xr3:uid="{2F81F807-05F7-C04A-BB0E-654041F5B9F6}" name="金额($)" dataDxfId="272"/>
-    <tableColumn id="6" xr3:uid="{6DBF3C40-8B26-0048-A1C9-BE6D68464C6F}" name="数量" dataDxfId="271"/>
-    <tableColumn id="7" xr3:uid="{A64FDE06-A678-4646-A55C-2026413CC908}" name="支付方式" dataDxfId="270"/>
-    <tableColumn id="8" xr3:uid="{3352A65C-6558-D843-9D75-CEE8687567E5}" name="渠道" dataDxfId="269"/>
-    <tableColumn id="9" xr3:uid="{9E21A11A-E4AD-DA4D-B780-F28E44B87A61}" name="备注" dataDxfId="268"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{90CCD7A2-463A-D647-96DA-22DFD0FBF9A0}" name="表3" displayName="表3" ref="A1:AP32" totalsRowShown="0">
   <autoFilter ref="A1:AP32" xr:uid="{506FB319-DAC5-C74F-9129-972A005A58DA}"/>
   <tableColumns count="42">
     <tableColumn id="1" xr3:uid="{F034F842-B0D4-7C49-92AC-92126BFED303}" name="日期" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{E4A20DC4-BCAA-5A4C-8F92-7768890FB62A}" name="总计">
-      <calculatedColumnFormula>SUMIF(records!A2:A775, template!A2, records!E2:E775)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUMIF(records!A2:A916, template!A2, records!E2:E916)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{4634C45B-FA6E-3A4F-A29C-00438EE32653}" name="0:00"/>
     <tableColumn id="4" xr3:uid="{FAE9234B-318D-7D47-AF72-AE2A681B63D3}" name="1:00" dataDxfId="11"/>
@@ -13028,7 +13712,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{80315183-2A95-B14D-B6F6-AFEEA10909ED}" name="表5" displayName="表5" ref="A34:AR36" totalsRowShown="0">
   <autoFilter ref="A34:AR36" xr:uid="{36935680-17BE-F74F-88AB-1DDEC0F4D885}"/>
   <tableColumns count="44">
@@ -13081,7 +13765,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9E9531E0-077A-C14A-B48F-4B3304B57241}" name="表9" displayName="表9" ref="A40:AR41" totalsRowShown="0">
   <autoFilter ref="A40:AR41" xr:uid="{76002C9A-0A0E-6F40-A4AF-4AD85C0C63A4}"/>
   <tableColumns count="44">
@@ -13217,130 +13901,130 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{8E6CF227-0B2A-9943-95A9-E98C28AA3996}" name="表2_1213" displayName="表2_1213" ref="K44:S50" totalsRowShown="0" headerRowDxfId="267" dataDxfId="265" headerRowBorderDxfId="266" tableBorderDxfId="264">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{8E6CF227-0B2A-9943-95A9-E98C28AA3996}" name="表2_1213" displayName="表2_1213" ref="K44:S50" totalsRowShown="0" headerRowDxfId="276" dataDxfId="274" headerRowBorderDxfId="275" tableBorderDxfId="273">
   <autoFilter ref="K44:S50" xr:uid="{DBBD540D-9ACB-A74D-BB39-A853F97094BD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K45:S69">
     <sortCondition ref="K2:K29"/>
     <sortCondition ref="L2:L29"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{BD21C2E9-1BF4-1A48-903A-DCDEC887088A}" name="日期" dataDxfId="263"/>
-    <tableColumn id="2" xr3:uid="{B11C4ABC-6240-EF48-A31A-8BECF6AE51C3}" name="时间" dataDxfId="262"/>
-    <tableColumn id="3" xr3:uid="{67754CDC-1A19-9D49-B251-9EC86E09BE70}" name="类别" dataDxfId="261"/>
-    <tableColumn id="4" xr3:uid="{3F8C96A0-999F-A049-BCA0-6ED855C07086}" name="名称" dataDxfId="260"/>
-    <tableColumn id="10" xr3:uid="{CF71653C-3CB6-274A-8499-A136549F1D07}" name="金额($)" dataDxfId="259"/>
-    <tableColumn id="6" xr3:uid="{99FBADE8-F414-3D4E-9F3B-BDE3571F4BA1}" name="数量" dataDxfId="258"/>
-    <tableColumn id="7" xr3:uid="{24CADA98-38C4-8143-AA5C-9D7AE4D2221D}" name="支付方式" dataDxfId="257"/>
-    <tableColumn id="8" xr3:uid="{1D3BEB19-BBEB-C845-87BF-7C23136790B9}" name="渠道" dataDxfId="256"/>
-    <tableColumn id="9" xr3:uid="{3855FCA6-738B-7D49-9DEE-4106312F0DB2}" name="备注" dataDxfId="255"/>
+    <tableColumn id="1" xr3:uid="{BD21C2E9-1BF4-1A48-903A-DCDEC887088A}" name="日期" dataDxfId="272"/>
+    <tableColumn id="2" xr3:uid="{B11C4ABC-6240-EF48-A31A-8BECF6AE51C3}" name="时间" dataDxfId="271"/>
+    <tableColumn id="3" xr3:uid="{67754CDC-1A19-9D49-B251-9EC86E09BE70}" name="类别" dataDxfId="270"/>
+    <tableColumn id="4" xr3:uid="{3F8C96A0-999F-A049-BCA0-6ED855C07086}" name="名称" dataDxfId="269"/>
+    <tableColumn id="10" xr3:uid="{CF71653C-3CB6-274A-8499-A136549F1D07}" name="金额($)" dataDxfId="268"/>
+    <tableColumn id="6" xr3:uid="{99FBADE8-F414-3D4E-9F3B-BDE3571F4BA1}" name="数量" dataDxfId="267"/>
+    <tableColumn id="7" xr3:uid="{24CADA98-38C4-8143-AA5C-9D7AE4D2221D}" name="支付方式" dataDxfId="266"/>
+    <tableColumn id="8" xr3:uid="{1D3BEB19-BBEB-C845-87BF-7C23136790B9}" name="渠道" dataDxfId="265"/>
+    <tableColumn id="9" xr3:uid="{3855FCA6-738B-7D49-9DEE-4106312F0DB2}" name="备注" dataDxfId="264"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{85D5A6C9-0983-1F49-9E7D-1C7D322B37A0}" name="表2_121315" displayName="表2_121315" ref="K77:S84" totalsRowShown="0" headerRowDxfId="254" dataDxfId="252" headerRowBorderDxfId="253" tableBorderDxfId="251">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{85D5A6C9-0983-1F49-9E7D-1C7D322B37A0}" name="表2_121315" displayName="表2_121315" ref="K77:S84" totalsRowShown="0" headerRowDxfId="263" dataDxfId="261" headerRowBorderDxfId="262" tableBorderDxfId="260">
   <autoFilter ref="K77:S84" xr:uid="{835B7ABE-F456-CF45-8A7D-5507E998E23E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K78:S103">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{74D9CA40-4FE9-984A-A0EB-AA2378AD6CA6}" name="日期" dataDxfId="250"/>
-    <tableColumn id="2" xr3:uid="{399F4564-6842-1545-B8AF-E02DAC43416A}" name="时间" dataDxfId="249"/>
-    <tableColumn id="3" xr3:uid="{E8144FE3-3D58-0443-AF79-8BF552410036}" name="类别" dataDxfId="248"/>
-    <tableColumn id="4" xr3:uid="{8FBB1190-B9EE-0A40-B8AF-1F9469490287}" name="名称" dataDxfId="247"/>
-    <tableColumn id="10" xr3:uid="{0C6C1CDC-B4E4-8645-8C6D-D53E3E0CFEAC}" name="金额($)" dataDxfId="246"/>
-    <tableColumn id="6" xr3:uid="{D8196724-FF67-DD4A-A1BE-F88FB8237117}" name="数量" dataDxfId="245"/>
-    <tableColumn id="7" xr3:uid="{321E4B00-5C56-AF45-956D-93589BC551AF}" name="支付方式" dataDxfId="244"/>
-    <tableColumn id="8" xr3:uid="{8C94CA3B-1B09-C945-8241-D03F6F239F9F}" name="渠道" dataDxfId="243"/>
-    <tableColumn id="9" xr3:uid="{F056B581-94F6-6A4D-9231-DDC1C0437631}" name="备注" dataDxfId="242"/>
+    <tableColumn id="1" xr3:uid="{74D9CA40-4FE9-984A-A0EB-AA2378AD6CA6}" name="日期" dataDxfId="259"/>
+    <tableColumn id="2" xr3:uid="{399F4564-6842-1545-B8AF-E02DAC43416A}" name="时间" dataDxfId="258"/>
+    <tableColumn id="3" xr3:uid="{E8144FE3-3D58-0443-AF79-8BF552410036}" name="类别" dataDxfId="257"/>
+    <tableColumn id="4" xr3:uid="{8FBB1190-B9EE-0A40-B8AF-1F9469490287}" name="名称" dataDxfId="256"/>
+    <tableColumn id="10" xr3:uid="{0C6C1CDC-B4E4-8645-8C6D-D53E3E0CFEAC}" name="金额($)" dataDxfId="255"/>
+    <tableColumn id="6" xr3:uid="{D8196724-FF67-DD4A-A1BE-F88FB8237117}" name="数量" dataDxfId="254"/>
+    <tableColumn id="7" xr3:uid="{321E4B00-5C56-AF45-956D-93589BC551AF}" name="支付方式" dataDxfId="253"/>
+    <tableColumn id="8" xr3:uid="{8C94CA3B-1B09-C945-8241-D03F6F239F9F}" name="渠道" dataDxfId="252"/>
+    <tableColumn id="9" xr3:uid="{F056B581-94F6-6A4D-9231-DDC1C0437631}" name="备注" dataDxfId="251"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{5A08404A-170A-AF43-8E1D-DF9862393746}" name="表2_12131516" displayName="表2_12131516" ref="K87:S91" totalsRowShown="0" headerRowDxfId="241" dataDxfId="239" headerRowBorderDxfId="240" tableBorderDxfId="238">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{5A08404A-170A-AF43-8E1D-DF9862393746}" name="表2_12131516" displayName="表2_12131516" ref="K87:S91" totalsRowShown="0" headerRowDxfId="250" dataDxfId="248" headerRowBorderDxfId="249" tableBorderDxfId="247">
   <autoFilter ref="K87:S91" xr:uid="{94896363-E9F6-6743-B1C8-ACC0B149BEDF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K88:S110">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{834FC3A7-2586-5448-8952-7C3E0EC89688}" name="日期" dataDxfId="237"/>
-    <tableColumn id="2" xr3:uid="{7F1EF38F-268A-0F46-942E-72A9EF34A342}" name="时间" dataDxfId="236"/>
-    <tableColumn id="3" xr3:uid="{28FEEB6B-3150-6649-9028-BA0EE86B0496}" name="类别" dataDxfId="235"/>
-    <tableColumn id="4" xr3:uid="{347E68C4-C92A-4D49-BDAE-84DC38ED641B}" name="名称" dataDxfId="234"/>
-    <tableColumn id="10" xr3:uid="{17182FB7-D83A-1D4A-99C7-3B78D3BC590F}" name="金额($)" dataDxfId="233"/>
-    <tableColumn id="6" xr3:uid="{53E4A12C-B04D-EB4B-A0DE-59416C400198}" name="数量" dataDxfId="232"/>
-    <tableColumn id="7" xr3:uid="{393090AF-7A3C-C54A-825A-64E2B42A460E}" name="支付方式" dataDxfId="231"/>
-    <tableColumn id="8" xr3:uid="{549E8A07-2F1C-804C-B9F0-258E3F72FC60}" name="渠道" dataDxfId="230"/>
-    <tableColumn id="9" xr3:uid="{92665FCA-79D8-8145-8646-27E3066FA64C}" name="备注" dataDxfId="229"/>
+    <tableColumn id="1" xr3:uid="{834FC3A7-2586-5448-8952-7C3E0EC89688}" name="日期" dataDxfId="246"/>
+    <tableColumn id="2" xr3:uid="{7F1EF38F-268A-0F46-942E-72A9EF34A342}" name="时间" dataDxfId="245"/>
+    <tableColumn id="3" xr3:uid="{28FEEB6B-3150-6649-9028-BA0EE86B0496}" name="类别" dataDxfId="244"/>
+    <tableColumn id="4" xr3:uid="{347E68C4-C92A-4D49-BDAE-84DC38ED641B}" name="名称" dataDxfId="243"/>
+    <tableColumn id="10" xr3:uid="{17182FB7-D83A-1D4A-99C7-3B78D3BC590F}" name="金额($)" dataDxfId="242"/>
+    <tableColumn id="6" xr3:uid="{53E4A12C-B04D-EB4B-A0DE-59416C400198}" name="数量" dataDxfId="241"/>
+    <tableColumn id="7" xr3:uid="{393090AF-7A3C-C54A-825A-64E2B42A460E}" name="支付方式" dataDxfId="240"/>
+    <tableColumn id="8" xr3:uid="{549E8A07-2F1C-804C-B9F0-258E3F72FC60}" name="渠道" dataDxfId="239"/>
+    <tableColumn id="9" xr3:uid="{92665FCA-79D8-8145-8646-27E3066FA64C}" name="备注" dataDxfId="238"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{F8F4C9F9-ECF7-484B-BF22-500571CA134E}" name="表18" displayName="表18" ref="K53:U58" totalsRowShown="0" headerRowDxfId="228" dataDxfId="226" headerRowBorderDxfId="227" tableBorderDxfId="225" totalsRowBorderDxfId="224">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{F8F4C9F9-ECF7-484B-BF22-500571CA134E}" name="表18" displayName="表18" ref="K53:U58" totalsRowShown="0" headerRowDxfId="237" dataDxfId="235" headerRowBorderDxfId="236" tableBorderDxfId="234" totalsRowBorderDxfId="233">
   <autoFilter ref="K53:U58" xr:uid="{D9ADCBF8-F752-BD45-92A5-FF212FE991D9}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{A7BB4249-B024-D844-9DC5-DC40FE447B69}" name="日期" dataDxfId="223"/>
-    <tableColumn id="2" xr3:uid="{371CFA43-DD16-3D47-BFDB-319E8BB2562D}" name="时间" dataDxfId="222"/>
-    <tableColumn id="3" xr3:uid="{9E72B5C9-6F7B-EB40-B273-DC1E26E01184}" name="类别" dataDxfId="221"/>
-    <tableColumn id="4" xr3:uid="{05B51FE5-06F7-3B4A-9CE8-59C692D71DB6}" name="名称" dataDxfId="220"/>
-    <tableColumn id="5" xr3:uid="{971993D3-228B-BE4F-9FBE-3D1DDDBB8726}" name="金额($)" dataDxfId="219"/>
-    <tableColumn id="6" xr3:uid="{8E3188D8-5443-0141-87FC-8B6D4AFFEF54}" name="金额(陈)" dataDxfId="218"/>
-    <tableColumn id="7" xr3:uid="{648E2B1A-EBE3-8F4A-95A3-A09F24E0C9DA}" name="金额(李)" dataDxfId="217"/>
-    <tableColumn id="8" xr3:uid="{7D50B75C-424D-034A-9749-4961F0A2F2C9}" name="数量" dataDxfId="216"/>
-    <tableColumn id="9" xr3:uid="{85652E18-1A14-BD49-B7D7-2C7AA1447817}" name="支付方式" dataDxfId="215"/>
-    <tableColumn id="10" xr3:uid="{C770346D-F261-0347-B5FE-63CC5BAF59B4}" name="渠道" dataDxfId="214"/>
-    <tableColumn id="11" xr3:uid="{31FD91E5-37C9-BE46-9FA0-02CFBF3E45E1}" name="备注" dataDxfId="213"/>
+    <tableColumn id="1" xr3:uid="{A7BB4249-B024-D844-9DC5-DC40FE447B69}" name="日期" dataDxfId="232"/>
+    <tableColumn id="2" xr3:uid="{371CFA43-DD16-3D47-BFDB-319E8BB2562D}" name="时间" dataDxfId="231"/>
+    <tableColumn id="3" xr3:uid="{9E72B5C9-6F7B-EB40-B273-DC1E26E01184}" name="类别" dataDxfId="230"/>
+    <tableColumn id="4" xr3:uid="{05B51FE5-06F7-3B4A-9CE8-59C692D71DB6}" name="名称" dataDxfId="229"/>
+    <tableColumn id="5" xr3:uid="{971993D3-228B-BE4F-9FBE-3D1DDDBB8726}" name="金额($)" dataDxfId="228"/>
+    <tableColumn id="6" xr3:uid="{8E3188D8-5443-0141-87FC-8B6D4AFFEF54}" name="金额(陈)" dataDxfId="227"/>
+    <tableColumn id="7" xr3:uid="{648E2B1A-EBE3-8F4A-95A3-A09F24E0C9DA}" name="金额(李)" dataDxfId="226"/>
+    <tableColumn id="8" xr3:uid="{7D50B75C-424D-034A-9749-4961F0A2F2C9}" name="数量" dataDxfId="225"/>
+    <tableColumn id="9" xr3:uid="{85652E18-1A14-BD49-B7D7-2C7AA1447817}" name="支付方式" dataDxfId="224"/>
+    <tableColumn id="10" xr3:uid="{C770346D-F261-0347-B5FE-63CC5BAF59B4}" name="渠道" dataDxfId="223"/>
+    <tableColumn id="11" xr3:uid="{31FD91E5-37C9-BE46-9FA0-02CFBF3E45E1}" name="备注" dataDxfId="222"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{606E3E97-D81D-AB41-BA99-E007537886BF}" name="表2_1213151620" displayName="表2_1213151620" ref="K94:S100" totalsRowShown="0" headerRowDxfId="212" dataDxfId="210" headerRowBorderDxfId="211" tableBorderDxfId="209">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{606E3E97-D81D-AB41-BA99-E007537886BF}" name="表2_1213151620" displayName="表2_1213151620" ref="K94:S100" totalsRowShown="0" headerRowDxfId="221" dataDxfId="219" headerRowBorderDxfId="220" tableBorderDxfId="218">
   <autoFilter ref="K94:S100" xr:uid="{2674F753-E0FA-1844-8EF2-AF7541B04290}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K95:S119">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{15D7FFBF-4311-7F47-914F-8B84FE5F4082}" name="日期" dataDxfId="208"/>
-    <tableColumn id="2" xr3:uid="{27DD3D02-CE0C-FF46-B0B1-235BB58DA381}" name="时间" dataDxfId="207"/>
-    <tableColumn id="3" xr3:uid="{3F62F38A-6972-5A49-B690-81990D2CC035}" name="类别" dataDxfId="206"/>
-    <tableColumn id="4" xr3:uid="{EA1F0C6D-25C3-7342-8D38-1ADC56C101DF}" name="名称" dataDxfId="205"/>
-    <tableColumn id="10" xr3:uid="{90C5F47D-F18D-7942-A073-EAF9720C1C5F}" name="金额($)" dataDxfId="204"/>
-    <tableColumn id="6" xr3:uid="{23DA7484-2642-294C-B615-581AB57BD3A1}" name="数量" dataDxfId="203"/>
-    <tableColumn id="7" xr3:uid="{82AC8D78-CF26-9F4D-8211-2B13B307DFC3}" name="支付方式" dataDxfId="202"/>
-    <tableColumn id="8" xr3:uid="{91141D7B-3679-F747-9F5F-E409D72331DA}" name="渠道" dataDxfId="201"/>
-    <tableColumn id="9" xr3:uid="{529F0920-90E6-EB41-A2FB-D0928A57CD99}" name="备注" dataDxfId="200"/>
+    <tableColumn id="1" xr3:uid="{15D7FFBF-4311-7F47-914F-8B84FE5F4082}" name="日期" dataDxfId="217"/>
+    <tableColumn id="2" xr3:uid="{27DD3D02-CE0C-FF46-B0B1-235BB58DA381}" name="时间" dataDxfId="216"/>
+    <tableColumn id="3" xr3:uid="{3F62F38A-6972-5A49-B690-81990D2CC035}" name="类别" dataDxfId="215"/>
+    <tableColumn id="4" xr3:uid="{EA1F0C6D-25C3-7342-8D38-1ADC56C101DF}" name="名称" dataDxfId="214"/>
+    <tableColumn id="10" xr3:uid="{90C5F47D-F18D-7942-A073-EAF9720C1C5F}" name="金额($)" dataDxfId="213"/>
+    <tableColumn id="6" xr3:uid="{23DA7484-2642-294C-B615-581AB57BD3A1}" name="数量" dataDxfId="212"/>
+    <tableColumn id="7" xr3:uid="{82AC8D78-CF26-9F4D-8211-2B13B307DFC3}" name="支付方式" dataDxfId="211"/>
+    <tableColumn id="8" xr3:uid="{91141D7B-3679-F747-9F5F-E409D72331DA}" name="渠道" dataDxfId="210"/>
+    <tableColumn id="9" xr3:uid="{529F0920-90E6-EB41-A2FB-D0928A57CD99}" name="备注" dataDxfId="209"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{65F04204-4685-BD44-A9A9-528E74381FD5}" name="表2_121315162021" displayName="表2_121315162021" ref="K103:S109" totalsRowShown="0" headerRowDxfId="199" dataDxfId="197" headerRowBorderDxfId="198" tableBorderDxfId="196">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{65F04204-4685-BD44-A9A9-528E74381FD5}" name="表2_121315162021" displayName="表2_121315162021" ref="K103:S109" totalsRowShown="0" headerRowDxfId="208" dataDxfId="206" headerRowBorderDxfId="207" tableBorderDxfId="205">
   <autoFilter ref="K103:S109" xr:uid="{667113CE-E40C-644A-9375-DFFA158F767D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K104:S128">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{86FDBD0A-C64B-684E-88E4-97A9B8A90394}" name="日期" dataDxfId="195"/>
-    <tableColumn id="2" xr3:uid="{E706DFF2-17A8-074C-A9BC-624F5932127D}" name="时间" dataDxfId="194"/>
-    <tableColumn id="3" xr3:uid="{4178F89C-CD46-CA48-BE92-ECFE4C3DFE56}" name="类别" dataDxfId="193"/>
-    <tableColumn id="4" xr3:uid="{A549C014-3FFF-9F40-9F34-910684A4517C}" name="名称" dataDxfId="192"/>
-    <tableColumn id="10" xr3:uid="{C84AE528-810C-6C47-8DF2-AF970AF9A2D4}" name="金额($)" dataDxfId="191"/>
-    <tableColumn id="6" xr3:uid="{5270CAB9-ED19-D449-9926-0A2551F4C6AD}" name="数量" dataDxfId="190"/>
-    <tableColumn id="7" xr3:uid="{A50583DC-76A3-3246-BBE9-4A25FC54C124}" name="支付方式" dataDxfId="189"/>
-    <tableColumn id="8" xr3:uid="{F0F66474-976C-7E44-8C1D-71BF0D6187AB}" name="渠道" dataDxfId="188"/>
-    <tableColumn id="9" xr3:uid="{7CB81F3A-0F01-4E45-8F36-0A6F6C393579}" name="备注" dataDxfId="187"/>
+    <tableColumn id="1" xr3:uid="{86FDBD0A-C64B-684E-88E4-97A9B8A90394}" name="日期" dataDxfId="204"/>
+    <tableColumn id="2" xr3:uid="{E706DFF2-17A8-074C-A9BC-624F5932127D}" name="时间" dataDxfId="203"/>
+    <tableColumn id="3" xr3:uid="{4178F89C-CD46-CA48-BE92-ECFE4C3DFE56}" name="类别" dataDxfId="202"/>
+    <tableColumn id="4" xr3:uid="{A549C014-3FFF-9F40-9F34-910684A4517C}" name="名称" dataDxfId="201"/>
+    <tableColumn id="10" xr3:uid="{C84AE528-810C-6C47-8DF2-AF970AF9A2D4}" name="金额($)" dataDxfId="200"/>
+    <tableColumn id="6" xr3:uid="{5270CAB9-ED19-D449-9926-0A2551F4C6AD}" name="数量" dataDxfId="199"/>
+    <tableColumn id="7" xr3:uid="{A50583DC-76A3-3246-BBE9-4A25FC54C124}" name="支付方式" dataDxfId="198"/>
+    <tableColumn id="8" xr3:uid="{F0F66474-976C-7E44-8C1D-71BF0D6187AB}" name="渠道" dataDxfId="197"/>
+    <tableColumn id="9" xr3:uid="{7CB81F3A-0F01-4E45-8F36-0A6F6C393579}" name="备注" dataDxfId="196"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13643,10 +14327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C81ADFD-2D83-574A-AD81-B8046C388F80}">
-  <dimension ref="A1:V775"/>
+  <dimension ref="A1:V916"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A753" zoomScale="88" workbookViewId="0">
-      <selection activeCell="I766" sqref="I766"/>
+    <sheetView tabSelected="1" topLeftCell="A888" zoomScale="88" workbookViewId="0">
+      <selection activeCell="D931" sqref="D931"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13690,19 +14374,19 @@
       <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="1">
@@ -15479,17 +16163,17 @@
       <c r="I32" t="s">
         <v>141</v>
       </c>
-      <c r="K32" s="44" t="s">
+      <c r="K32" s="45" t="s">
         <v>354</v>
       </c>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="44"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
       <c r="T32" s="29"/>
       <c r="U32" s="29"/>
     </row>
@@ -16008,17 +16692,17 @@
       <c r="I43" t="s">
         <v>197</v>
       </c>
-      <c r="K43" s="44" t="s">
+      <c r="K43" s="45" t="s">
         <v>354</v>
       </c>
-      <c r="L43" s="44"/>
-      <c r="M43" s="44"/>
-      <c r="N43" s="44"/>
-      <c r="O43" s="44"/>
-      <c r="P43" s="44"/>
-      <c r="Q43" s="44"/>
-      <c r="R43" s="44"/>
-      <c r="S43" s="44"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="45"/>
+      <c r="O43" s="45"/>
+      <c r="P43" s="45"/>
+      <c r="Q43" s="45"/>
+      <c r="R43" s="45"/>
+      <c r="S43" s="45"/>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="1">
@@ -16435,19 +17119,19 @@
       <c r="I52" t="s">
         <v>141</v>
       </c>
-      <c r="K52" s="43" t="s">
+      <c r="K52" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="L52" s="43"/>
-      <c r="M52" s="43"/>
-      <c r="N52" s="43"/>
-      <c r="O52" s="43"/>
-      <c r="P52" s="43"/>
-      <c r="Q52" s="43"/>
-      <c r="R52" s="43"/>
-      <c r="S52" s="43"/>
-      <c r="T52" s="43"/>
-      <c r="U52" s="43"/>
+      <c r="L52" s="46"/>
+      <c r="M52" s="46"/>
+      <c r="N52" s="46"/>
+      <c r="O52" s="46"/>
+      <c r="P52" s="46"/>
+      <c r="Q52" s="46"/>
+      <c r="R52" s="46"/>
+      <c r="S52" s="46"/>
+      <c r="T52" s="46"/>
+      <c r="U52" s="46"/>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="1">
@@ -16878,20 +17562,20 @@
       <c r="I60" t="s">
         <v>231</v>
       </c>
-      <c r="K60" s="43" t="s">
+      <c r="K60" s="46" t="s">
         <v>666</v>
       </c>
-      <c r="L60" s="43"/>
-      <c r="M60" s="43"/>
-      <c r="N60" s="43"/>
-      <c r="O60" s="43"/>
-      <c r="P60" s="43"/>
-      <c r="Q60" s="43"/>
-      <c r="R60" s="43"/>
-      <c r="S60" s="43"/>
-      <c r="T60" s="43"/>
-      <c r="U60" s="43"/>
-      <c r="V60" s="43"/>
+      <c r="L60" s="46"/>
+      <c r="M60" s="46"/>
+      <c r="N60" s="46"/>
+      <c r="O60" s="46"/>
+      <c r="P60" s="46"/>
+      <c r="Q60" s="46"/>
+      <c r="R60" s="46"/>
+      <c r="S60" s="46"/>
+      <c r="T60" s="46"/>
+      <c r="U60" s="46"/>
+      <c r="V60" s="46"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="1">
@@ -17810,17 +18494,17 @@
       <c r="I76" t="s">
         <v>262</v>
       </c>
-      <c r="K76" s="44" t="s">
+      <c r="K76" s="45" t="s">
         <v>348</v>
       </c>
-      <c r="L76" s="44"/>
-      <c r="M76" s="44"/>
-      <c r="N76" s="44"/>
-      <c r="O76" s="44"/>
-      <c r="P76" s="44"/>
-      <c r="Q76" s="44"/>
-      <c r="R76" s="44"/>
-      <c r="S76" s="44"/>
+      <c r="L76" s="45"/>
+      <c r="M76" s="45"/>
+      <c r="N76" s="45"/>
+      <c r="O76" s="45"/>
+      <c r="P76" s="45"/>
+      <c r="Q76" s="45"/>
+      <c r="R76" s="45"/>
+      <c r="S76" s="45"/>
     </row>
     <row r="77" spans="1:22">
       <c r="A77" s="1">
@@ -18284,17 +18968,17 @@
       <c r="I86" t="s">
         <v>176</v>
       </c>
-      <c r="K86" s="44" t="s">
+      <c r="K86" s="45" t="s">
         <v>368</v>
       </c>
-      <c r="L86" s="44"/>
-      <c r="M86" s="44"/>
-      <c r="N86" s="44"/>
-      <c r="O86" s="44"/>
-      <c r="P86" s="44"/>
-      <c r="Q86" s="44"/>
-      <c r="R86" s="44"/>
-      <c r="S86" s="44"/>
+      <c r="L86" s="45"/>
+      <c r="M86" s="45"/>
+      <c r="N86" s="45"/>
+      <c r="O86" s="45"/>
+      <c r="P86" s="45"/>
+      <c r="Q86" s="45"/>
+      <c r="R86" s="45"/>
+      <c r="S86" s="45"/>
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="1">
@@ -18599,17 +19283,17 @@
       <c r="I93" t="s">
         <v>141</v>
       </c>
-      <c r="K93" s="44" t="s">
+      <c r="K93" s="45" t="s">
         <v>379</v>
       </c>
-      <c r="L93" s="44"/>
-      <c r="M93" s="44"/>
-      <c r="N93" s="44"/>
-      <c r="O93" s="44"/>
-      <c r="P93" s="44"/>
-      <c r="Q93" s="44"/>
-      <c r="R93" s="44"/>
-      <c r="S93" s="44"/>
+      <c r="L93" s="45"/>
+      <c r="M93" s="45"/>
+      <c r="N93" s="45"/>
+      <c r="O93" s="45"/>
+      <c r="P93" s="45"/>
+      <c r="Q93" s="45"/>
+      <c r="R93" s="45"/>
+      <c r="S93" s="45"/>
     </row>
     <row r="94" spans="1:19">
       <c r="A94" s="1">
@@ -19011,17 +19695,17 @@
       <c r="H102" t="s">
         <v>291</v>
       </c>
-      <c r="K102" s="44" t="s">
+      <c r="K102" s="45" t="s">
         <v>379</v>
       </c>
-      <c r="L102" s="44"/>
-      <c r="M102" s="44"/>
-      <c r="N102" s="44"/>
-      <c r="O102" s="44"/>
-      <c r="P102" s="44"/>
-      <c r="Q102" s="44"/>
-      <c r="R102" s="44"/>
-      <c r="S102" s="44"/>
+      <c r="L102" s="45"/>
+      <c r="M102" s="45"/>
+      <c r="N102" s="45"/>
+      <c r="O102" s="45"/>
+      <c r="P102" s="45"/>
+      <c r="Q102" s="45"/>
+      <c r="R102" s="45"/>
+      <c r="S102" s="45"/>
     </row>
     <row r="103" spans="1:19">
       <c r="A103" s="1">
@@ -19386,17 +20070,17 @@
       <c r="I111" t="s">
         <v>340</v>
       </c>
-      <c r="K111" s="45" t="s">
+      <c r="K111" s="49" t="s">
         <v>448</v>
       </c>
-      <c r="L111" s="45"/>
-      <c r="M111" s="45"/>
-      <c r="N111" s="45"/>
-      <c r="O111" s="45"/>
-      <c r="P111" s="45"/>
-      <c r="Q111" s="45"/>
-      <c r="R111" s="45"/>
-      <c r="S111" s="45"/>
+      <c r="L111" s="49"/>
+      <c r="M111" s="49"/>
+      <c r="N111" s="49"/>
+      <c r="O111" s="49"/>
+      <c r="P111" s="49"/>
+      <c r="Q111" s="49"/>
+      <c r="R111" s="49"/>
+      <c r="S111" s="49"/>
     </row>
     <row r="112" spans="1:19">
       <c r="A112" s="1">
@@ -20321,17 +21005,17 @@
       <c r="H130" t="s">
         <v>283</v>
       </c>
-      <c r="K130" s="44" t="s">
+      <c r="K130" s="45" t="s">
         <v>549</v>
       </c>
-      <c r="L130" s="44"/>
-      <c r="M130" s="44"/>
-      <c r="N130" s="44"/>
-      <c r="O130" s="44"/>
-      <c r="P130" s="44"/>
-      <c r="Q130" s="44"/>
-      <c r="R130" s="44"/>
-      <c r="S130" s="44"/>
+      <c r="L130" s="45"/>
+      <c r="M130" s="45"/>
+      <c r="N130" s="45"/>
+      <c r="O130" s="45"/>
+      <c r="P130" s="45"/>
+      <c r="Q130" s="45"/>
+      <c r="R130" s="45"/>
+      <c r="S130" s="45"/>
     </row>
     <row r="131" spans="1:19">
       <c r="A131" s="1">
@@ -21508,20 +22192,20 @@
       <c r="I153" t="s">
         <v>415</v>
       </c>
-      <c r="K153" s="43" t="s">
+      <c r="K153" s="46" t="s">
         <v>597</v>
       </c>
-      <c r="L153" s="43"/>
-      <c r="M153" s="43"/>
-      <c r="N153" s="43"/>
-      <c r="O153" s="43"/>
-      <c r="P153" s="43"/>
-      <c r="Q153" s="43"/>
-      <c r="R153" s="43"/>
-      <c r="S153" s="43"/>
-      <c r="T153" s="43"/>
-      <c r="U153" s="43"/>
-      <c r="V153" s="43"/>
+      <c r="L153" s="46"/>
+      <c r="M153" s="46"/>
+      <c r="N153" s="46"/>
+      <c r="O153" s="46"/>
+      <c r="P153" s="46"/>
+      <c r="Q153" s="46"/>
+      <c r="R153" s="46"/>
+      <c r="S153" s="46"/>
+      <c r="T153" s="46"/>
+      <c r="U153" s="46"/>
+      <c r="V153" s="46"/>
     </row>
     <row r="154" spans="1:22">
       <c r="A154" s="1">
@@ -23139,17 +23823,17 @@
       <c r="I181" t="s">
         <v>703</v>
       </c>
-      <c r="K181" s="44" t="s">
+      <c r="K181" s="45" t="s">
         <v>531</v>
       </c>
-      <c r="L181" s="44"/>
-      <c r="M181" s="44"/>
-      <c r="N181" s="44"/>
-      <c r="O181" s="44"/>
-      <c r="P181" s="44"/>
-      <c r="Q181" s="44"/>
-      <c r="R181" s="44"/>
-      <c r="S181" s="44"/>
+      <c r="L181" s="45"/>
+      <c r="M181" s="45"/>
+      <c r="N181" s="45"/>
+      <c r="O181" s="45"/>
+      <c r="P181" s="45"/>
+      <c r="Q181" s="45"/>
+      <c r="R181" s="45"/>
+      <c r="S181" s="45"/>
     </row>
     <row r="182" spans="1:22">
       <c r="A182" s="1">
@@ -24449,17 +25133,17 @@
       <c r="H206" t="s">
         <v>216</v>
       </c>
-      <c r="K206" s="44" t="s">
+      <c r="K206" s="45" t="s">
         <v>533</v>
       </c>
-      <c r="L206" s="44"/>
-      <c r="M206" s="44"/>
-      <c r="N206" s="44"/>
-      <c r="O206" s="44"/>
-      <c r="P206" s="44"/>
-      <c r="Q206" s="44"/>
-      <c r="R206" s="44"/>
-      <c r="S206" s="44"/>
+      <c r="L206" s="45"/>
+      <c r="M206" s="45"/>
+      <c r="N206" s="45"/>
+      <c r="O206" s="45"/>
+      <c r="P206" s="45"/>
+      <c r="Q206" s="45"/>
+      <c r="R206" s="45"/>
+      <c r="S206" s="45"/>
     </row>
     <row r="207" spans="1:19">
       <c r="A207" s="1">
@@ -24810,17 +25494,17 @@
       <c r="H214" t="s">
         <v>25</v>
       </c>
-      <c r="K214" s="44" t="s">
+      <c r="K214" s="45" t="s">
         <v>707</v>
       </c>
-      <c r="L214" s="44"/>
-      <c r="M214" s="44"/>
-      <c r="N214" s="44"/>
-      <c r="O214" s="44"/>
-      <c r="P214" s="44"/>
-      <c r="Q214" s="44"/>
-      <c r="R214" s="44"/>
-      <c r="S214" s="44"/>
+      <c r="L214" s="45"/>
+      <c r="M214" s="45"/>
+      <c r="N214" s="45"/>
+      <c r="O214" s="45"/>
+      <c r="P214" s="45"/>
+      <c r="Q214" s="45"/>
+      <c r="R214" s="45"/>
+      <c r="S214" s="45"/>
     </row>
     <row r="215" spans="1:19">
       <c r="A215" s="1">
@@ -26184,20 +26868,20 @@
       <c r="H241" t="s">
         <v>251</v>
       </c>
-      <c r="K241" s="43" t="s">
+      <c r="K241" s="46" t="s">
         <v>767</v>
       </c>
-      <c r="L241" s="43"/>
-      <c r="M241" s="43"/>
-      <c r="N241" s="43"/>
-      <c r="O241" s="43"/>
-      <c r="P241" s="43"/>
-      <c r="Q241" s="43"/>
-      <c r="R241" s="43"/>
-      <c r="S241" s="43"/>
-      <c r="T241" s="43"/>
-      <c r="U241" s="43"/>
-      <c r="V241" s="43"/>
+      <c r="L241" s="46"/>
+      <c r="M241" s="46"/>
+      <c r="N241" s="46"/>
+      <c r="O241" s="46"/>
+      <c r="P241" s="46"/>
+      <c r="Q241" s="46"/>
+      <c r="R241" s="46"/>
+      <c r="S241" s="46"/>
+      <c r="T241" s="46"/>
+      <c r="U241" s="46"/>
+      <c r="V241" s="46"/>
     </row>
     <row r="242" spans="1:22">
       <c r="A242" s="1">
@@ -26779,20 +27463,20 @@
       <c r="H252" t="s">
         <v>392</v>
       </c>
-      <c r="K252" s="43" t="s">
+      <c r="K252" s="46" t="s">
         <v>802</v>
       </c>
-      <c r="L252" s="43"/>
-      <c r="M252" s="43"/>
-      <c r="N252" s="43"/>
-      <c r="O252" s="43"/>
-      <c r="P252" s="43"/>
-      <c r="Q252" s="43"/>
-      <c r="R252" s="43"/>
-      <c r="S252" s="43"/>
-      <c r="T252" s="43"/>
-      <c r="U252" s="43"/>
-      <c r="V252" s="43"/>
+      <c r="L252" s="46"/>
+      <c r="M252" s="46"/>
+      <c r="N252" s="46"/>
+      <c r="O252" s="46"/>
+      <c r="P252" s="46"/>
+      <c r="Q252" s="46"/>
+      <c r="R252" s="46"/>
+      <c r="S252" s="46"/>
+      <c r="T252" s="46"/>
+      <c r="U252" s="46"/>
+      <c r="V252" s="46"/>
     </row>
     <row r="253" spans="1:22">
       <c r="A253" s="1">
@@ -27486,17 +28170,17 @@
       <c r="H265" t="s">
         <v>36</v>
       </c>
-      <c r="K265" s="44" t="s">
+      <c r="K265" s="45" t="s">
         <v>839</v>
       </c>
-      <c r="L265" s="44"/>
-      <c r="M265" s="44"/>
-      <c r="N265" s="44"/>
-      <c r="O265" s="44"/>
-      <c r="P265" s="44"/>
-      <c r="Q265" s="44"/>
-      <c r="R265" s="44"/>
-      <c r="S265" s="44"/>
+      <c r="L265" s="45"/>
+      <c r="M265" s="45"/>
+      <c r="N265" s="45"/>
+      <c r="O265" s="45"/>
+      <c r="P265" s="45"/>
+      <c r="Q265" s="45"/>
+      <c r="R265" s="45"/>
+      <c r="S265" s="45"/>
     </row>
     <row r="266" spans="1:22">
       <c r="A266" s="1">
@@ -28704,17 +29388,17 @@
       <c r="H289" t="s">
         <v>251</v>
       </c>
-      <c r="K289" s="44" t="s">
+      <c r="K289" s="45" t="s">
         <v>910</v>
       </c>
-      <c r="L289" s="44"/>
-      <c r="M289" s="44"/>
-      <c r="N289" s="44"/>
-      <c r="O289" s="44"/>
-      <c r="P289" s="44"/>
-      <c r="Q289" s="44"/>
-      <c r="R289" s="44"/>
-      <c r="S289" s="44"/>
+      <c r="L289" s="45"/>
+      <c r="M289" s="45"/>
+      <c r="N289" s="45"/>
+      <c r="O289" s="45"/>
+      <c r="P289" s="45"/>
+      <c r="Q289" s="45"/>
+      <c r="R289" s="45"/>
+      <c r="S289" s="45"/>
     </row>
     <row r="290" spans="1:22">
       <c r="A290" s="1">
@@ -29174,20 +29858,20 @@
       <c r="H299" t="s">
         <v>938</v>
       </c>
-      <c r="K299" s="43" t="s">
+      <c r="K299" s="46" t="s">
         <v>965</v>
       </c>
-      <c r="L299" s="43"/>
-      <c r="M299" s="43"/>
-      <c r="N299" s="43"/>
-      <c r="O299" s="43"/>
-      <c r="P299" s="43"/>
-      <c r="Q299" s="43"/>
-      <c r="R299" s="43"/>
-      <c r="S299" s="43"/>
-      <c r="T299" s="43"/>
-      <c r="U299" s="43"/>
-      <c r="V299" s="43"/>
+      <c r="L299" s="46"/>
+      <c r="M299" s="46"/>
+      <c r="N299" s="46"/>
+      <c r="O299" s="46"/>
+      <c r="P299" s="46"/>
+      <c r="Q299" s="46"/>
+      <c r="R299" s="46"/>
+      <c r="S299" s="46"/>
+      <c r="T299" s="46"/>
+      <c r="U299" s="46"/>
+      <c r="V299" s="46"/>
     </row>
     <row r="300" spans="1:22">
       <c r="A300" s="1">
@@ -29635,16 +30319,16 @@
       <c r="H308" t="s">
         <v>25</v>
       </c>
-      <c r="K308" s="49" t="s">
-        <v>1420</v>
-      </c>
-      <c r="L308" s="50"/>
-      <c r="M308" s="50"/>
-      <c r="N308" s="50"/>
-      <c r="O308" s="50"/>
-      <c r="P308" s="50"/>
-      <c r="Q308" s="50"/>
-      <c r="R308" s="50"/>
+      <c r="K308" s="47" t="s">
+        <v>1419</v>
+      </c>
+      <c r="L308" s="48"/>
+      <c r="M308" s="48"/>
+      <c r="N308" s="48"/>
+      <c r="O308" s="48"/>
+      <c r="P308" s="48"/>
+      <c r="Q308" s="48"/>
+      <c r="R308" s="48"/>
     </row>
     <row r="309" spans="1:21">
       <c r="A309" s="1">
@@ -29681,19 +30365,19 @@
         <v>3</v>
       </c>
       <c r="N309" t="s">
+        <v>1396</v>
+      </c>
+      <c r="O309" t="s">
         <v>1397</v>
-      </c>
-      <c r="O309" t="s">
-        <v>1398</v>
       </c>
       <c r="P309" t="s">
         <v>15</v>
       </c>
       <c r="Q309" t="s">
+        <v>1398</v>
+      </c>
+      <c r="R309" t="s">
         <v>1399</v>
-      </c>
-      <c r="R309" t="s">
-        <v>1400</v>
       </c>
     </row>
     <row r="310" spans="1:21">
@@ -29725,22 +30409,22 @@
         <v>0.38125000000000003</v>
       </c>
       <c r="M310" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="N310">
         <v>15</v>
       </c>
       <c r="O310" t="s">
+        <v>1401</v>
+      </c>
+      <c r="P310" t="s">
         <v>1402</v>
-      </c>
-      <c r="P310" t="s">
-        <v>1403</v>
       </c>
       <c r="Q310">
         <v>90</v>
       </c>
       <c r="R310" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="311" spans="1:21">
@@ -29772,22 +30456,22 @@
         <v>0.38125000000000003</v>
       </c>
       <c r="M311" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="N311">
         <v>50</v>
       </c>
       <c r="O311" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="P311" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="Q311">
         <v>150</v>
       </c>
       <c r="R311" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="312" spans="1:21">
@@ -29819,22 +30503,22 @@
         <v>0.38124999999999998</v>
       </c>
       <c r="M312" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="N312">
         <v>15</v>
       </c>
       <c r="O312" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="P312" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="Q312">
         <v>45</v>
       </c>
       <c r="R312" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="313" spans="1:21">
@@ -29869,22 +30553,22 @@
         <v>0.38124999999999998</v>
       </c>
       <c r="M313" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="N313">
         <v>15</v>
       </c>
       <c r="O313" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="P313" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="Q313">
         <v>45</v>
       </c>
       <c r="R313" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="314" spans="1:21">
@@ -29919,22 +30603,22 @@
         <v>0.38124999999999998</v>
       </c>
       <c r="M314" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="N314">
         <v>15</v>
       </c>
       <c r="O314" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="P314" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="Q314">
         <v>45</v>
       </c>
       <c r="R314" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="315" spans="1:21">
@@ -29969,22 +30653,22 @@
         <v>0.38124999999999998</v>
       </c>
       <c r="M315" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="N315">
         <v>65</v>
       </c>
       <c r="O315" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="P315" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="Q315">
         <v>195</v>
       </c>
       <c r="R315" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="316" spans="1:21">
@@ -30019,22 +30703,22 @@
         <v>0.38124999999999998</v>
       </c>
       <c r="M316" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="N316">
         <v>60</v>
       </c>
       <c r="O316" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="P316" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="Q316">
         <v>180</v>
       </c>
       <c r="R316" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="317" spans="1:21">
@@ -30069,22 +30753,22 @@
         <v>0.38124999999999998</v>
       </c>
       <c r="M317" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="N317">
         <v>50</v>
       </c>
       <c r="O317" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="P317" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="Q317">
         <v>50</v>
       </c>
       <c r="R317" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="318" spans="1:21">
@@ -30119,22 +30803,22 @@
         <v>0.38124999999999998</v>
       </c>
       <c r="M318" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="N318">
         <v>15</v>
       </c>
       <c r="O318" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="P318" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="Q318">
         <v>15</v>
       </c>
       <c r="R318" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="319" spans="1:21">
@@ -30169,22 +30853,22 @@
         <v>0.38124999999999998</v>
       </c>
       <c r="M319" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="N319">
         <v>3</v>
       </c>
       <c r="O319" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="P319" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="Q319">
         <v>3</v>
       </c>
       <c r="R319" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="320" spans="1:21">
@@ -30219,25 +30903,25 @@
         <v>0.38124999999999998</v>
       </c>
       <c r="M320" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="N320">
         <v>3</v>
       </c>
       <c r="O320" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="P320" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="Q320">
         <v>3</v>
       </c>
       <c r="R320" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="321" spans="1:17" ht="20">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="321" spans="1:18" ht="20">
       <c r="A321" s="1">
         <v>43953</v>
       </c>
@@ -30262,13 +30946,15 @@
       <c r="H321" t="s">
         <v>1033</v>
       </c>
-      <c r="K321" s="47"/>
-      <c r="L321" s="47"/>
+      <c r="K321" t="s">
+        <v>1398</v>
+      </c>
+      <c r="L321" s="43"/>
       <c r="Q321" s="13">
         <v>821</v>
       </c>
     </row>
-    <row r="322" spans="1:17">
+    <row r="322" spans="1:18" ht="20">
       <c r="A322" s="1">
         <v>43953</v>
       </c>
@@ -30293,8 +30979,15 @@
       <c r="H322" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="323" spans="1:17">
+      <c r="K322" t="s">
+        <v>1538</v>
+      </c>
+      <c r="Q322" t="s">
+        <v>1539</v>
+      </c>
+      <c r="R322" s="43"/>
+    </row>
+    <row r="323" spans="1:18">
       <c r="A323" s="1">
         <v>43953</v>
       </c>
@@ -30320,7 +31013,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="324" spans="1:17">
+    <row r="324" spans="1:18">
       <c r="A324" s="1">
         <v>43954</v>
       </c>
@@ -30345,8 +31038,18 @@
       <c r="H324" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="325" spans="1:17">
+      <c r="K324" s="47" t="s">
+        <v>1419</v>
+      </c>
+      <c r="L324" s="48"/>
+      <c r="M324" s="48"/>
+      <c r="N324" s="48"/>
+      <c r="O324" s="48"/>
+      <c r="P324" s="48"/>
+      <c r="Q324" s="48"/>
+      <c r="R324" s="48"/>
+    </row>
+    <row r="325" spans="1:18">
       <c r="A325" s="1">
         <v>43954</v>
       </c>
@@ -30371,8 +31074,32 @@
       <c r="H325" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="326" spans="1:17">
+      <c r="K325" t="s">
+        <v>1</v>
+      </c>
+      <c r="L325" t="s">
+        <v>2</v>
+      </c>
+      <c r="M325" t="s">
+        <v>3</v>
+      </c>
+      <c r="N325" t="s">
+        <v>1396</v>
+      </c>
+      <c r="O325" t="s">
+        <v>1397</v>
+      </c>
+      <c r="P325" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q325" t="s">
+        <v>1398</v>
+      </c>
+      <c r="R325" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="326" spans="1:18">
       <c r="A326" s="1">
         <v>43954</v>
       </c>
@@ -30397,8 +31124,32 @@
       <c r="H326" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="327" spans="1:17">
+      <c r="K326" s="1">
+        <v>44081</v>
+      </c>
+      <c r="L326" s="2">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="M326" t="s">
+        <v>1527</v>
+      </c>
+      <c r="N326">
+        <v>60</v>
+      </c>
+      <c r="O326" t="s">
+        <v>1401</v>
+      </c>
+      <c r="P326" t="s">
+        <v>1405</v>
+      </c>
+      <c r="Q326">
+        <v>180</v>
+      </c>
+      <c r="R326" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="327" spans="1:18">
       <c r="A327" s="1">
         <v>43954</v>
       </c>
@@ -30423,8 +31174,32 @@
       <c r="H327" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="328" spans="1:17">
+      <c r="K327" s="1">
+        <v>44081</v>
+      </c>
+      <c r="L327" s="2">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="M327" t="s">
+        <v>1528</v>
+      </c>
+      <c r="N327">
+        <v>10</v>
+      </c>
+      <c r="O327" t="s">
+        <v>1401</v>
+      </c>
+      <c r="P327" t="s">
+        <v>1405</v>
+      </c>
+      <c r="Q327">
+        <v>30</v>
+      </c>
+      <c r="R327" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="328" spans="1:18">
       <c r="A328" s="1">
         <v>43955</v>
       </c>
@@ -30449,8 +31224,32 @@
       <c r="H328" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="329" spans="1:17">
+      <c r="K328" s="1">
+        <v>44081</v>
+      </c>
+      <c r="L328" s="2">
+        <v>0.42916666666666697</v>
+      </c>
+      <c r="M328" t="s">
+        <v>1529</v>
+      </c>
+      <c r="N328">
+        <v>60</v>
+      </c>
+      <c r="O328" t="s">
+        <v>1401</v>
+      </c>
+      <c r="P328" t="s">
+        <v>1405</v>
+      </c>
+      <c r="Q328">
+        <v>180</v>
+      </c>
+      <c r="R328" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="329" spans="1:18">
       <c r="A329" s="1">
         <v>43955</v>
       </c>
@@ -30475,8 +31274,32 @@
       <c r="H329" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="330" spans="1:17">
+      <c r="K329" s="1">
+        <v>44081</v>
+      </c>
+      <c r="L329" s="2">
+        <v>0.42916666666666697</v>
+      </c>
+      <c r="M329" t="s">
+        <v>1400</v>
+      </c>
+      <c r="N329">
+        <v>15</v>
+      </c>
+      <c r="O329" t="s">
+        <v>1401</v>
+      </c>
+      <c r="P329" t="s">
+        <v>1413</v>
+      </c>
+      <c r="Q329">
+        <v>15</v>
+      </c>
+      <c r="R329" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="330" spans="1:18">
       <c r="A330" s="1">
         <v>43956</v>
       </c>
@@ -30501,8 +31324,32 @@
       <c r="H330" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="331" spans="1:17">
+      <c r="K330" s="1">
+        <v>44081</v>
+      </c>
+      <c r="L330" s="2">
+        <v>0.42916666666666697</v>
+      </c>
+      <c r="M330" t="s">
+        <v>1530</v>
+      </c>
+      <c r="N330">
+        <v>120</v>
+      </c>
+      <c r="O330" t="s">
+        <v>1401</v>
+      </c>
+      <c r="P330" t="s">
+        <v>1413</v>
+      </c>
+      <c r="Q330">
+        <v>120</v>
+      </c>
+      <c r="R330" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="331" spans="1:18">
       <c r="A331" s="1">
         <v>43957</v>
       </c>
@@ -30527,8 +31374,32 @@
       <c r="H331" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="332" spans="1:17">
+      <c r="K331" s="1">
+        <v>44081</v>
+      </c>
+      <c r="L331" s="2">
+        <v>0.42916666666666697</v>
+      </c>
+      <c r="M331" t="s">
+        <v>1531</v>
+      </c>
+      <c r="N331">
+        <v>3</v>
+      </c>
+      <c r="O331" t="s">
+        <v>1401</v>
+      </c>
+      <c r="P331" t="s">
+        <v>1413</v>
+      </c>
+      <c r="Q331">
+        <v>3</v>
+      </c>
+      <c r="R331" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="332" spans="1:18">
       <c r="A332" s="1">
         <v>43957</v>
       </c>
@@ -30553,8 +31424,32 @@
       <c r="H332" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="333" spans="1:17">
+      <c r="K332" s="1">
+        <v>44081</v>
+      </c>
+      <c r="L332" s="2">
+        <v>0.42916666666666697</v>
+      </c>
+      <c r="M332" t="s">
+        <v>1414</v>
+      </c>
+      <c r="N332">
+        <v>15</v>
+      </c>
+      <c r="O332" t="s">
+        <v>1401</v>
+      </c>
+      <c r="P332" t="s">
+        <v>1415</v>
+      </c>
+      <c r="Q332">
+        <v>15</v>
+      </c>
+      <c r="R332" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="333" spans="1:18">
       <c r="A333" s="1">
         <v>43958</v>
       </c>
@@ -30579,8 +31474,32 @@
       <c r="H333" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="334" spans="1:17">
+      <c r="K333" s="1">
+        <v>44081</v>
+      </c>
+      <c r="L333" s="2">
+        <v>0.42916666666666697</v>
+      </c>
+      <c r="M333" t="s">
+        <v>1532</v>
+      </c>
+      <c r="N333">
+        <v>51.75</v>
+      </c>
+      <c r="O333" t="s">
+        <v>1401</v>
+      </c>
+      <c r="P333" t="s">
+        <v>1533</v>
+      </c>
+      <c r="Q333">
+        <v>51.75</v>
+      </c>
+      <c r="R333" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="334" spans="1:18">
       <c r="A334" s="1">
         <v>43958</v>
       </c>
@@ -30605,8 +31524,32 @@
       <c r="H334" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="335" spans="1:17">
+      <c r="K334" s="1">
+        <v>44081</v>
+      </c>
+      <c r="L334" s="2">
+        <v>0.42916666666666697</v>
+      </c>
+      <c r="M334" t="s">
+        <v>1534</v>
+      </c>
+      <c r="N334">
+        <v>81.8</v>
+      </c>
+      <c r="O334" t="s">
+        <v>1401</v>
+      </c>
+      <c r="P334" t="s">
+        <v>1535</v>
+      </c>
+      <c r="Q334">
+        <v>81.8</v>
+      </c>
+      <c r="R334" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="335" spans="1:18">
       <c r="A335" s="1">
         <v>43958</v>
       </c>
@@ -30631,8 +31574,32 @@
       <c r="H335" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="336" spans="1:17">
+      <c r="K335" s="1">
+        <v>44081</v>
+      </c>
+      <c r="L335" s="2">
+        <v>0.42916666666666697</v>
+      </c>
+      <c r="M335" t="s">
+        <v>1536</v>
+      </c>
+      <c r="N335">
+        <v>70</v>
+      </c>
+      <c r="O335" t="s">
+        <v>1401</v>
+      </c>
+      <c r="P335" t="s">
+        <v>1533</v>
+      </c>
+      <c r="Q335">
+        <v>70</v>
+      </c>
+      <c r="R335" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="336" spans="1:18">
       <c r="A336" s="1">
         <v>43958</v>
       </c>
@@ -30657,8 +31624,32 @@
       <c r="H336" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="337" spans="1:8">
+      <c r="K336" s="1">
+        <v>44081</v>
+      </c>
+      <c r="L336" s="2">
+        <v>0.42916666666666697</v>
+      </c>
+      <c r="M336" t="s">
+        <v>1537</v>
+      </c>
+      <c r="N336">
+        <v>30</v>
+      </c>
+      <c r="O336" t="s">
+        <v>1401</v>
+      </c>
+      <c r="P336" t="s">
+        <v>1415</v>
+      </c>
+      <c r="Q336">
+        <v>30</v>
+      </c>
+      <c r="R336" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="337" spans="1:18">
       <c r="A337" s="1">
         <v>43959</v>
       </c>
@@ -30683,8 +31674,32 @@
       <c r="H337" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="338" spans="1:8">
+      <c r="K337" s="1">
+        <v>44081</v>
+      </c>
+      <c r="L337" s="2">
+        <v>0.42916666666666697</v>
+      </c>
+      <c r="M337" t="s">
+        <v>1417</v>
+      </c>
+      <c r="N337">
+        <v>3</v>
+      </c>
+      <c r="O337" t="s">
+        <v>1401</v>
+      </c>
+      <c r="P337" t="s">
+        <v>1418</v>
+      </c>
+      <c r="Q337">
+        <v>3</v>
+      </c>
+      <c r="R337" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="338" spans="1:18">
       <c r="A338" s="1">
         <v>43959</v>
       </c>
@@ -30709,8 +31724,14 @@
       <c r="H338" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="339" spans="1:8">
+      <c r="K338" t="s">
+        <v>1398</v>
+      </c>
+      <c r="Q338" s="13">
+        <v>779.55</v>
+      </c>
+    </row>
+    <row r="339" spans="1:18" ht="20">
       <c r="A339" s="1">
         <v>43959</v>
       </c>
@@ -30735,8 +31756,15 @@
       <c r="H339" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="340" spans="1:8">
+      <c r="K339" t="s">
+        <v>1538</v>
+      </c>
+      <c r="Q339" t="s">
+        <v>1539</v>
+      </c>
+      <c r="R339" s="43"/>
+    </row>
+    <row r="340" spans="1:18" ht="20">
       <c r="A340" s="1">
         <v>43959</v>
       </c>
@@ -30761,8 +31789,14 @@
       <c r="H340" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="341" spans="1:8">
+      <c r="K340" s="43"/>
+      <c r="L340" s="43"/>
+      <c r="M340" s="43"/>
+      <c r="N340" s="43"/>
+      <c r="O340" s="43"/>
+      <c r="P340" s="43"/>
+    </row>
+    <row r="341" spans="1:18" ht="20">
       <c r="A341" s="1">
         <v>43960</v>
       </c>
@@ -30787,8 +31821,14 @@
       <c r="H341" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="342" spans="1:8">
+      <c r="K341" s="43"/>
+      <c r="L341" s="43"/>
+      <c r="M341" s="43"/>
+      <c r="N341" s="43"/>
+      <c r="O341" s="43"/>
+      <c r="P341" s="43"/>
+    </row>
+    <row r="342" spans="1:18" ht="20">
       <c r="A342" s="1">
         <v>43960</v>
       </c>
@@ -30813,8 +31853,14 @@
       <c r="H342" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="343" spans="1:8">
+      <c r="K342" s="43"/>
+      <c r="L342" s="43"/>
+      <c r="M342" s="43"/>
+      <c r="N342" s="43"/>
+      <c r="O342" s="43"/>
+      <c r="P342" s="43"/>
+    </row>
+    <row r="343" spans="1:18" ht="20">
       <c r="A343" s="1">
         <v>43960</v>
       </c>
@@ -30839,8 +31885,14 @@
       <c r="H343" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="344" spans="1:8">
+      <c r="K343" s="43"/>
+      <c r="L343" s="43"/>
+      <c r="M343" s="43"/>
+      <c r="N343" s="43"/>
+      <c r="O343" s="43"/>
+      <c r="P343" s="43"/>
+    </row>
+    <row r="344" spans="1:18" ht="20">
       <c r="A344" s="1">
         <v>43960</v>
       </c>
@@ -30865,8 +31917,14 @@
       <c r="H344" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="345" spans="1:8">
+      <c r="K344" s="43"/>
+      <c r="L344" s="43"/>
+      <c r="M344" s="43"/>
+      <c r="N344" s="43"/>
+      <c r="O344" s="43"/>
+      <c r="P344" s="43"/>
+    </row>
+    <row r="345" spans="1:18" ht="20">
       <c r="A345" s="1">
         <v>43960</v>
       </c>
@@ -30888,8 +31946,14 @@
       <c r="G345" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="346" spans="1:8">
+      <c r="K345" s="43"/>
+      <c r="L345" s="43"/>
+      <c r="M345" s="43"/>
+      <c r="N345" s="43"/>
+      <c r="O345" s="43"/>
+      <c r="P345" s="43"/>
+    </row>
+    <row r="346" spans="1:18" ht="20">
       <c r="A346" s="1">
         <v>43960</v>
       </c>
@@ -30914,8 +31978,14 @@
       <c r="H346" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="347" spans="1:8">
+      <c r="K346" s="43"/>
+      <c r="L346" s="43"/>
+      <c r="M346" s="43"/>
+      <c r="N346" s="43"/>
+      <c r="O346" s="43"/>
+      <c r="P346" s="43"/>
+    </row>
+    <row r="347" spans="1:18" ht="20">
       <c r="A347" s="1">
         <v>43961</v>
       </c>
@@ -30940,8 +32010,14 @@
       <c r="H347" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="348" spans="1:8">
+      <c r="K347" s="43"/>
+      <c r="L347" s="43"/>
+      <c r="M347" s="43"/>
+      <c r="N347" s="43"/>
+      <c r="O347" s="43"/>
+      <c r="P347" s="43"/>
+    </row>
+    <row r="348" spans="1:18" ht="20">
       <c r="A348" s="1">
         <v>43961</v>
       </c>
@@ -30966,8 +32042,14 @@
       <c r="H348" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="349" spans="1:8">
+      <c r="K348" s="43"/>
+      <c r="L348" s="43"/>
+      <c r="M348" s="43"/>
+      <c r="N348" s="43"/>
+      <c r="O348" s="43"/>
+      <c r="P348" s="43"/>
+    </row>
+    <row r="349" spans="1:18" ht="20">
       <c r="A349" s="1">
         <v>43961</v>
       </c>
@@ -30992,8 +32074,14 @@
       <c r="H349" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="350" spans="1:8">
+      <c r="K349" s="43"/>
+      <c r="L349" s="43"/>
+      <c r="M349" s="43"/>
+      <c r="N349" s="43"/>
+      <c r="O349" s="43"/>
+      <c r="P349" s="43"/>
+    </row>
+    <row r="350" spans="1:18" ht="20">
       <c r="A350" s="1">
         <v>43962</v>
       </c>
@@ -31018,8 +32106,14 @@
       <c r="H350" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="351" spans="1:8">
+      <c r="K350" s="43"/>
+      <c r="L350" s="43"/>
+      <c r="M350" s="43"/>
+      <c r="N350" s="43"/>
+      <c r="O350" s="43"/>
+      <c r="P350" s="43"/>
+    </row>
+    <row r="351" spans="1:18">
       <c r="A351" s="1">
         <v>43962</v>
       </c>
@@ -31045,7 +32139,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:18">
       <c r="A352" s="1">
         <v>43962</v>
       </c>
@@ -40290,7 +41384,7 @@
         <v>32</v>
       </c>
       <c r="D705" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="E705">
         <v>4</v>
@@ -40487,7 +41581,7 @@
         <v>1336</v>
       </c>
       <c r="I712" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="713" spans="1:9">
@@ -40530,7 +41624,7 @@
         <v>765</v>
       </c>
       <c r="D714" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="E714">
         <v>100</v>
@@ -40923,7 +42017,7 @@
         <v>207</v>
       </c>
       <c r="D729" t="s">
-        <v>1384</v>
+        <v>1540</v>
       </c>
       <c r="E729">
         <v>1050</v>
@@ -40938,7 +42032,7 @@
         <v>1375</v>
       </c>
       <c r="I729" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="730" spans="1:9">
@@ -41507,7 +42601,7 @@
         <v>0.52222222222222225</v>
       </c>
       <c r="C751" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D751" t="s">
         <v>1184</v>
@@ -41522,7 +42616,7 @@
         <v>29</v>
       </c>
       <c r="H751" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="752" spans="1:9">
@@ -41536,7 +42630,7 @@
         <v>1079</v>
       </c>
       <c r="D752" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="E752">
         <v>10</v>
@@ -41548,7 +42642,7 @@
         <v>29</v>
       </c>
       <c r="H752" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="753" spans="1:9">
@@ -41851,7 +42945,7 @@
         <v>32</v>
       </c>
       <c r="D764" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E764">
         <v>3</v>
@@ -41903,10 +42997,10 @@
         <v>0.38125000000000003</v>
       </c>
       <c r="C766" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D766" t="s">
         <v>1389</v>
-      </c>
-      <c r="D766" t="s">
-        <v>1390</v>
       </c>
       <c r="E766">
         <v>821</v>
@@ -41918,10 +43012,10 @@
         <v>1248</v>
       </c>
       <c r="H766" t="s">
-        <v>1391</v>
-      </c>
-      <c r="I766" s="48" t="s">
-        <v>1421</v>
+        <v>1390</v>
+      </c>
+      <c r="I766" s="44" t="s">
+        <v>1420</v>
       </c>
     </row>
     <row r="767" spans="1:9">
@@ -41976,7 +43070,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="769" spans="1:8">
+    <row r="769" spans="1:9">
       <c r="A769" s="1">
         <v>44063</v>
       </c>
@@ -42002,7 +43096,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="770" spans="1:8">
+    <row r="770" spans="1:9">
       <c r="A770" s="1">
         <v>44063</v>
       </c>
@@ -42028,28 +43122,3801 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="771" spans="1:8">
-      <c r="A771" s="1"/>
-      <c r="B771" s="2"/>
-    </row>
-    <row r="772" spans="1:8">
-      <c r="A772" s="1"/>
-      <c r="B772" s="2"/>
-    </row>
-    <row r="773" spans="1:8">
-      <c r="A773" s="1"/>
-      <c r="B773" s="2"/>
-    </row>
-    <row r="774" spans="1:8">
-      <c r="A774" s="1"/>
-      <c r="B774" s="2"/>
-    </row>
-    <row r="775" spans="1:8">
-      <c r="A775" s="1"/>
-      <c r="B775" s="2"/>
+    <row r="771" spans="1:9">
+      <c r="A771" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B771" s="2">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C771" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D771" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E771">
+        <v>5</v>
+      </c>
+      <c r="F771" t="s">
+        <v>45</v>
+      </c>
+      <c r="G771" t="s">
+        <v>51</v>
+      </c>
+      <c r="H771" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="772" spans="1:9">
+      <c r="A772" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B772" s="2">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="C772" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D772" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E772">
+        <v>13</v>
+      </c>
+      <c r="F772" t="s">
+        <v>45</v>
+      </c>
+      <c r="G772" t="s">
+        <v>51</v>
+      </c>
+      <c r="H772" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="773" spans="1:9">
+      <c r="A773" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B773" s="2">
+        <v>0.6791666666666667</v>
+      </c>
+      <c r="C773" t="s">
+        <v>78</v>
+      </c>
+      <c r="D773" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E773">
+        <v>12.9</v>
+      </c>
+      <c r="F773" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G773" t="s">
+        <v>51</v>
+      </c>
+      <c r="H773" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="774" spans="1:9">
+      <c r="A774" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B774" s="2">
+        <v>0.73472222222222217</v>
+      </c>
+      <c r="C774" t="s">
+        <v>78</v>
+      </c>
+      <c r="D774" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E774">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F774" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G774" t="s">
+        <v>51</v>
+      </c>
+      <c r="H774" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="775" spans="1:9">
+      <c r="A775" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B775" s="2">
+        <v>0.75069444444444444</v>
+      </c>
+      <c r="C775" t="s">
+        <v>449</v>
+      </c>
+      <c r="D775" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E775">
+        <v>19.8</v>
+      </c>
+      <c r="F775" t="s">
+        <v>45</v>
+      </c>
+      <c r="G775" t="s">
+        <v>51</v>
+      </c>
+      <c r="H775" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="776" spans="1:9">
+      <c r="A776" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B776" s="2">
+        <v>0.99652777777777779</v>
+      </c>
+      <c r="C776" t="s">
+        <v>78</v>
+      </c>
+      <c r="D776" t="s">
+        <v>391</v>
+      </c>
+      <c r="E776">
+        <v>37.07</v>
+      </c>
+      <c r="F776" t="s">
+        <v>42</v>
+      </c>
+      <c r="G776" t="s">
+        <v>51</v>
+      </c>
+      <c r="H776" t="s">
+        <v>1441</v>
+      </c>
+      <c r="I776" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="777" spans="1:9">
+      <c r="A777" s="1">
+        <v>44065</v>
+      </c>
+      <c r="B777" s="2">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="C777" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D777" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E777">
+        <v>20.38</v>
+      </c>
+      <c r="F777" t="s">
+        <v>45</v>
+      </c>
+      <c r="G777" t="s">
+        <v>51</v>
+      </c>
+      <c r="H777" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="778" spans="1:9">
+      <c r="A778" s="1">
+        <v>44065</v>
+      </c>
+      <c r="B778" s="2">
+        <v>0.7006944444444444</v>
+      </c>
+      <c r="C778" t="s">
+        <v>351</v>
+      </c>
+      <c r="D778" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E778">
+        <v>10</v>
+      </c>
+      <c r="F778" t="s">
+        <v>23</v>
+      </c>
+      <c r="G778" t="s">
+        <v>51</v>
+      </c>
+      <c r="H778" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="779" spans="1:9">
+      <c r="A779" s="1">
+        <v>44065</v>
+      </c>
+      <c r="B779" s="2">
+        <v>0.7993055555555556</v>
+      </c>
+      <c r="C779" t="s">
+        <v>449</v>
+      </c>
+      <c r="D779" t="s">
+        <v>894</v>
+      </c>
+      <c r="E779">
+        <v>12.88</v>
+      </c>
+      <c r="F779" t="s">
+        <v>45</v>
+      </c>
+      <c r="G779" t="s">
+        <v>51</v>
+      </c>
+      <c r="H779" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="780" spans="1:9">
+      <c r="A780" s="1">
+        <v>44065</v>
+      </c>
+      <c r="B780" s="2">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="C780" t="s">
+        <v>449</v>
+      </c>
+      <c r="D780" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E780">
+        <v>8.81</v>
+      </c>
+      <c r="F780" t="s">
+        <v>45</v>
+      </c>
+      <c r="G780" t="s">
+        <v>51</v>
+      </c>
+      <c r="H780" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="781" spans="1:9">
+      <c r="A781" s="1">
+        <v>44066</v>
+      </c>
+      <c r="B781" s="2">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="C781" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D781" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E781">
+        <v>25</v>
+      </c>
+      <c r="F781" t="s">
+        <v>42</v>
+      </c>
+      <c r="G781" t="s">
+        <v>29</v>
+      </c>
+      <c r="H781" t="s">
+        <v>29</v>
+      </c>
+      <c r="I781" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="782" spans="1:9">
+      <c r="A782" s="1">
+        <v>44066</v>
+      </c>
+      <c r="B782" s="2">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="C782" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D782" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E782">
+        <v>17</v>
+      </c>
+      <c r="F782" t="s">
+        <v>45</v>
+      </c>
+      <c r="G782" t="s">
+        <v>51</v>
+      </c>
+      <c r="H782" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="783" spans="1:9">
+      <c r="A783" s="1">
+        <v>44066</v>
+      </c>
+      <c r="B783" s="2">
+        <v>0.6430555555555556</v>
+      </c>
+      <c r="C783" t="s">
+        <v>32</v>
+      </c>
+      <c r="D783" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E783">
+        <v>6</v>
+      </c>
+      <c r="F783" t="s">
+        <v>42</v>
+      </c>
+      <c r="G783" t="s">
+        <v>29</v>
+      </c>
+      <c r="H783" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="784" spans="1:9">
+      <c r="A784" s="1">
+        <v>44066</v>
+      </c>
+      <c r="B784" s="2">
+        <v>0.65347222222222223</v>
+      </c>
+      <c r="C784" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D784" t="s">
+        <v>1443</v>
+      </c>
+      <c r="E784">
+        <v>6</v>
+      </c>
+      <c r="F784" t="s">
+        <v>23</v>
+      </c>
+      <c r="G784" t="s">
+        <v>51</v>
+      </c>
+      <c r="H784" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="785" spans="1:8">
+      <c r="A785" s="1">
+        <v>44066</v>
+      </c>
+      <c r="B785" s="2">
+        <v>0.85138888888888886</v>
+      </c>
+      <c r="C785" t="s">
+        <v>32</v>
+      </c>
+      <c r="D785" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E785">
+        <v>6</v>
+      </c>
+      <c r="F785" t="s">
+        <v>42</v>
+      </c>
+      <c r="G785" t="s">
+        <v>29</v>
+      </c>
+      <c r="H785" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="786" spans="1:8">
+      <c r="A786" s="1">
+        <v>44067</v>
+      </c>
+      <c r="B786" s="2">
+        <v>0.37361111111111112</v>
+      </c>
+      <c r="C786" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D786" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E786">
+        <v>5</v>
+      </c>
+      <c r="F786" t="s">
+        <v>45</v>
+      </c>
+      <c r="G786" t="s">
+        <v>51</v>
+      </c>
+      <c r="H786" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="787" spans="1:8">
+      <c r="A787" s="1">
+        <v>44067</v>
+      </c>
+      <c r="B787" s="2">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="C787" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D787" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E787">
+        <v>24</v>
+      </c>
+      <c r="F787" t="s">
+        <v>45</v>
+      </c>
+      <c r="G787" t="s">
+        <v>51</v>
+      </c>
+      <c r="H787" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="788" spans="1:8">
+      <c r="A788" s="1">
+        <v>44067</v>
+      </c>
+      <c r="B788" s="2">
+        <v>0.92499999999999993</v>
+      </c>
+      <c r="C788" t="s">
+        <v>410</v>
+      </c>
+      <c r="D788" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E788">
+        <v>29.85</v>
+      </c>
+      <c r="F788" t="s">
+        <v>23</v>
+      </c>
+      <c r="G788" t="s">
+        <v>51</v>
+      </c>
+      <c r="H788" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="789" spans="1:8">
+      <c r="A789" s="1">
+        <v>44067</v>
+      </c>
+      <c r="B789" s="2">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="C789" t="s">
+        <v>78</v>
+      </c>
+      <c r="D789" t="s">
+        <v>1431</v>
+      </c>
+      <c r="E789">
+        <v>229</v>
+      </c>
+      <c r="F789" t="s">
+        <v>42</v>
+      </c>
+      <c r="G789" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H789" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="790" spans="1:8">
+      <c r="A790" s="1">
+        <v>44068</v>
+      </c>
+      <c r="B790" s="2">
+        <v>0.37222222222222223</v>
+      </c>
+      <c r="C790" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D790" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E790">
+        <v>5</v>
+      </c>
+      <c r="F790" t="s">
+        <v>45</v>
+      </c>
+      <c r="G790" t="s">
+        <v>51</v>
+      </c>
+      <c r="H790" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="791" spans="1:8">
+      <c r="A791" s="1">
+        <v>44068</v>
+      </c>
+      <c r="B791" s="2">
+        <v>0.47013888888888888</v>
+      </c>
+      <c r="C791" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D791" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E791">
+        <v>16.8</v>
+      </c>
+      <c r="F791" t="s">
+        <v>45</v>
+      </c>
+      <c r="G791" t="s">
+        <v>51</v>
+      </c>
+      <c r="H791" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="792" spans="1:8">
+      <c r="A792" s="1">
+        <v>44068</v>
+      </c>
+      <c r="B792" s="2">
+        <v>0.7729166666666667</v>
+      </c>
+      <c r="C792" t="s">
+        <v>449</v>
+      </c>
+      <c r="D792" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E792">
+        <v>24.7</v>
+      </c>
+      <c r="F792" t="s">
+        <v>42</v>
+      </c>
+      <c r="G792" t="s">
+        <v>29</v>
+      </c>
+      <c r="H792" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="793" spans="1:8">
+      <c r="A793" s="1">
+        <v>44069</v>
+      </c>
+      <c r="B793" s="2">
+        <v>0.39097222222222222</v>
+      </c>
+      <c r="C793" t="s">
+        <v>83</v>
+      </c>
+      <c r="D793" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E793">
+        <v>5.5</v>
+      </c>
+      <c r="F793" t="s">
+        <v>42</v>
+      </c>
+      <c r="G793" t="s">
+        <v>478</v>
+      </c>
+      <c r="H793" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="794" spans="1:8">
+      <c r="A794" s="1">
+        <v>44069</v>
+      </c>
+      <c r="B794" s="2">
+        <v>0.47083333333333338</v>
+      </c>
+      <c r="C794" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D794" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E794">
+        <v>20.5</v>
+      </c>
+      <c r="F794" t="s">
+        <v>45</v>
+      </c>
+      <c r="G794" t="s">
+        <v>51</v>
+      </c>
+      <c r="H794" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="795" spans="1:8">
+      <c r="A795" s="1">
+        <v>44069</v>
+      </c>
+      <c r="B795" s="2">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="C795" t="s">
+        <v>78</v>
+      </c>
+      <c r="D795" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E795">
+        <v>39.9</v>
+      </c>
+      <c r="F795" t="s">
+        <v>121</v>
+      </c>
+      <c r="G795" t="s">
+        <v>51</v>
+      </c>
+      <c r="H795" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="796" spans="1:8">
+      <c r="A796" s="1">
+        <v>44069</v>
+      </c>
+      <c r="B796" s="2">
+        <v>0.84236111111111101</v>
+      </c>
+      <c r="C796" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D796" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E796">
+        <v>19.8</v>
+      </c>
+      <c r="F796" t="s">
+        <v>45</v>
+      </c>
+      <c r="G796" t="s">
+        <v>51</v>
+      </c>
+      <c r="H796" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="797" spans="1:8">
+      <c r="A797" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B797" s="2">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="C797" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D797" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E797">
+        <v>5</v>
+      </c>
+      <c r="F797" t="s">
+        <v>45</v>
+      </c>
+      <c r="G797" t="s">
+        <v>51</v>
+      </c>
+      <c r="H797" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="798" spans="1:8">
+      <c r="A798" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B798" s="2">
+        <v>0.47083333333333338</v>
+      </c>
+      <c r="C798" t="s">
+        <v>78</v>
+      </c>
+      <c r="D798" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E798">
+        <v>9.9</v>
+      </c>
+      <c r="F798" t="s">
+        <v>121</v>
+      </c>
+      <c r="G798" t="s">
+        <v>51</v>
+      </c>
+      <c r="H798" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="799" spans="1:8">
+      <c r="A799" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B799" s="2">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="C799" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D799" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E799">
+        <v>125</v>
+      </c>
+      <c r="F799" t="s">
+        <v>45</v>
+      </c>
+      <c r="G799" t="s">
+        <v>51</v>
+      </c>
+      <c r="H799" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="800" spans="1:8">
+      <c r="A800" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B800" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C800" t="s">
+        <v>449</v>
+      </c>
+      <c r="D800" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E800">
+        <v>13</v>
+      </c>
+      <c r="F800" t="s">
+        <v>42</v>
+      </c>
+      <c r="G800" t="s">
+        <v>29</v>
+      </c>
+      <c r="H800" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="801" spans="1:8">
+      <c r="A801" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B801" s="2">
+        <v>0.37083333333333335</v>
+      </c>
+      <c r="C801" t="s">
+        <v>67</v>
+      </c>
+      <c r="D801" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E801">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="F801" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G801" t="s">
+        <v>51</v>
+      </c>
+      <c r="H801" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="802" spans="1:8">
+      <c r="A802" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B802" s="2">
+        <v>0.37638888888888888</v>
+      </c>
+      <c r="C802" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D802" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E802">
+        <v>5</v>
+      </c>
+      <c r="F802" t="s">
+        <v>45</v>
+      </c>
+      <c r="G802" t="s">
+        <v>51</v>
+      </c>
+      <c r="H802" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="803" spans="1:8">
+      <c r="A803" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B803" s="2">
+        <v>0.45763888888888887</v>
+      </c>
+      <c r="C803" t="s">
+        <v>694</v>
+      </c>
+      <c r="D803" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E803">
+        <v>3</v>
+      </c>
+      <c r="F803" t="s">
+        <v>1252</v>
+      </c>
+      <c r="G803" t="s">
+        <v>29</v>
+      </c>
+      <c r="H803" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="804" spans="1:8">
+      <c r="A804" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B804" s="2">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="C804" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D804" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E804">
+        <v>14</v>
+      </c>
+      <c r="F804" t="s">
+        <v>45</v>
+      </c>
+      <c r="G804" t="s">
+        <v>51</v>
+      </c>
+      <c r="H804" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="805" spans="1:8">
+      <c r="A805" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B805" s="2">
+        <v>0.74861111111111101</v>
+      </c>
+      <c r="C805" t="s">
+        <v>449</v>
+      </c>
+      <c r="D805" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E805">
+        <v>14.5</v>
+      </c>
+      <c r="F805" t="s">
+        <v>45</v>
+      </c>
+      <c r="G805" t="s">
+        <v>51</v>
+      </c>
+      <c r="H805" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="806" spans="1:8">
+      <c r="A806" s="1">
+        <v>44072</v>
+      </c>
+      <c r="B806" s="2">
+        <v>0.4152777777777778</v>
+      </c>
+      <c r="C806" t="s">
+        <v>32</v>
+      </c>
+      <c r="D806" t="s">
+        <v>1427</v>
+      </c>
+      <c r="E806">
+        <v>6</v>
+      </c>
+      <c r="F806" t="s">
+        <v>42</v>
+      </c>
+      <c r="G806" t="s">
+        <v>29</v>
+      </c>
+      <c r="H806" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="807" spans="1:8">
+      <c r="A807" s="1">
+        <v>44072</v>
+      </c>
+      <c r="B807" s="2">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="C807" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D807" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E807">
+        <v>1.6</v>
+      </c>
+      <c r="F807" t="s">
+        <v>42</v>
+      </c>
+      <c r="G807" t="s">
+        <v>29</v>
+      </c>
+      <c r="H807" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="808" spans="1:8">
+      <c r="A808" s="1">
+        <v>44072</v>
+      </c>
+      <c r="B808" s="2">
+        <v>0.44236111111111115</v>
+      </c>
+      <c r="C808" t="s">
+        <v>258</v>
+      </c>
+      <c r="D808" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E808">
+        <v>20</v>
+      </c>
+      <c r="F808" t="s">
+        <v>23</v>
+      </c>
+      <c r="G808" t="s">
+        <v>51</v>
+      </c>
+      <c r="H808" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="809" spans="1:8">
+      <c r="A809" s="1">
+        <v>44072</v>
+      </c>
+      <c r="B809" s="2">
+        <v>0.62986111111111109</v>
+      </c>
+      <c r="C809" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D809" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E809">
+        <v>20</v>
+      </c>
+      <c r="F809" t="s">
+        <v>195</v>
+      </c>
+      <c r="G809" t="s">
+        <v>29</v>
+      </c>
+      <c r="H809" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="810" spans="1:8">
+      <c r="A810" s="1">
+        <v>44072</v>
+      </c>
+      <c r="B810" s="2">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="C810" t="s">
+        <v>53</v>
+      </c>
+      <c r="D810" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E810">
+        <v>5</v>
+      </c>
+      <c r="F810" t="s">
+        <v>23</v>
+      </c>
+      <c r="G810" t="s">
+        <v>51</v>
+      </c>
+      <c r="H810" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="811" spans="1:8">
+      <c r="A811" s="1">
+        <v>44072</v>
+      </c>
+      <c r="B811" s="2">
+        <v>0.78402777777777777</v>
+      </c>
+      <c r="C811" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D811" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E811">
+        <v>1.6</v>
+      </c>
+      <c r="F811" t="s">
+        <v>42</v>
+      </c>
+      <c r="G811" t="s">
+        <v>29</v>
+      </c>
+      <c r="H811" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="812" spans="1:8">
+      <c r="A812" s="1">
+        <v>44072</v>
+      </c>
+      <c r="B812" s="2">
+        <v>0.81736111111111109</v>
+      </c>
+      <c r="C812" t="s">
+        <v>449</v>
+      </c>
+      <c r="D812" t="s">
+        <v>961</v>
+      </c>
+      <c r="E812">
+        <v>20.8</v>
+      </c>
+      <c r="F812" t="s">
+        <v>45</v>
+      </c>
+      <c r="G812" t="s">
+        <v>51</v>
+      </c>
+      <c r="H812" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="813" spans="1:8">
+      <c r="A813" s="1">
+        <v>44072</v>
+      </c>
+      <c r="B813" s="2">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="C813" t="s">
+        <v>449</v>
+      </c>
+      <c r="D813" t="s">
+        <v>8</v>
+      </c>
+      <c r="E813">
+        <v>21.3</v>
+      </c>
+      <c r="F813" t="s">
+        <v>45</v>
+      </c>
+      <c r="G813" t="s">
+        <v>51</v>
+      </c>
+      <c r="H813" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="814" spans="1:8">
+      <c r="A814" s="1">
+        <v>44072</v>
+      </c>
+      <c r="B814" s="2">
+        <v>0.83680555555555547</v>
+      </c>
+      <c r="C814" t="s">
+        <v>32</v>
+      </c>
+      <c r="D814" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E814">
+        <v>4</v>
+      </c>
+      <c r="F814" t="s">
+        <v>42</v>
+      </c>
+      <c r="G814" t="s">
+        <v>29</v>
+      </c>
+      <c r="H814" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="815" spans="1:8">
+      <c r="A815" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B815" s="2">
+        <v>0.41388888888888892</v>
+      </c>
+      <c r="C815" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D815" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E815">
+        <v>9</v>
+      </c>
+      <c r="F815" t="s">
+        <v>45</v>
+      </c>
+      <c r="G815" t="s">
+        <v>51</v>
+      </c>
+      <c r="H815" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="816" spans="1:8">
+      <c r="A816" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B816" s="2">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="C816" t="s">
+        <v>78</v>
+      </c>
+      <c r="D816" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E816">
+        <v>9.9</v>
+      </c>
+      <c r="F816" t="s">
+        <v>121</v>
+      </c>
+      <c r="G816" t="s">
+        <v>51</v>
+      </c>
+      <c r="H816" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="817" spans="1:8">
+      <c r="A817" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B817" s="2">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="C817" t="s">
+        <v>78</v>
+      </c>
+      <c r="D817" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E817">
+        <v>20.5</v>
+      </c>
+      <c r="F817" t="s">
+        <v>121</v>
+      </c>
+      <c r="G817" t="s">
+        <v>51</v>
+      </c>
+      <c r="H817" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="818" spans="1:8">
+      <c r="A818" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B818" s="2">
+        <v>0.42986111111111108</v>
+      </c>
+      <c r="C818" t="s">
+        <v>78</v>
+      </c>
+      <c r="D818" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E818">
+        <v>8.5</v>
+      </c>
+      <c r="F818" t="s">
+        <v>121</v>
+      </c>
+      <c r="G818" t="s">
+        <v>51</v>
+      </c>
+      <c r="H818" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="819" spans="1:8">
+      <c r="A819" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B819" s="2">
+        <v>0.44236111111111115</v>
+      </c>
+      <c r="C819" t="s">
+        <v>78</v>
+      </c>
+      <c r="D819" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E819">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="F819" t="s">
+        <v>121</v>
+      </c>
+      <c r="G819" t="s">
+        <v>51</v>
+      </c>
+      <c r="H819" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="820" spans="1:8">
+      <c r="A820" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B820" s="2">
+        <v>0.47013888888888888</v>
+      </c>
+      <c r="C820" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D820" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E820">
+        <v>18.68</v>
+      </c>
+      <c r="F820" t="s">
+        <v>45</v>
+      </c>
+      <c r="G820" t="s">
+        <v>51</v>
+      </c>
+      <c r="H820" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="821" spans="1:8">
+      <c r="A821" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B821" s="2">
+        <v>9.2361111111111116E-2</v>
+      </c>
+      <c r="C821" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D821" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E821">
+        <v>248</v>
+      </c>
+      <c r="F821" t="s">
+        <v>23</v>
+      </c>
+      <c r="G821" t="s">
+        <v>51</v>
+      </c>
+      <c r="H821" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="822" spans="1:8">
+      <c r="A822" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B822" s="2">
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="C822" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D822" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E822">
+        <v>14.7</v>
+      </c>
+      <c r="F822" t="s">
+        <v>45</v>
+      </c>
+      <c r="G822" t="s">
+        <v>51</v>
+      </c>
+      <c r="H822" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="823" spans="1:8">
+      <c r="A823" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B823" s="2">
+        <v>0.8041666666666667</v>
+      </c>
+      <c r="C823" t="s">
+        <v>449</v>
+      </c>
+      <c r="D823" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E823">
+        <v>14</v>
+      </c>
+      <c r="F823" t="s">
+        <v>42</v>
+      </c>
+      <c r="G823" t="s">
+        <v>29</v>
+      </c>
+      <c r="H823" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="824" spans="1:8">
+      <c r="A824" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B824" s="2">
+        <v>0.8041666666666667</v>
+      </c>
+      <c r="C824" t="s">
+        <v>449</v>
+      </c>
+      <c r="D824" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E824">
+        <v>14</v>
+      </c>
+      <c r="F824" t="s">
+        <v>42</v>
+      </c>
+      <c r="G824" t="s">
+        <v>29</v>
+      </c>
+      <c r="H824" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="825" spans="1:8">
+      <c r="A825" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B825" s="2">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C825" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D825" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E825">
+        <v>5</v>
+      </c>
+      <c r="F825" t="s">
+        <v>45</v>
+      </c>
+      <c r="G825" t="s">
+        <v>51</v>
+      </c>
+      <c r="H825" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="826" spans="1:8">
+      <c r="A826" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B826" s="2">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="C826" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D826" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E826">
+        <v>5</v>
+      </c>
+      <c r="F826" t="s">
+        <v>45</v>
+      </c>
+      <c r="G826" t="s">
+        <v>51</v>
+      </c>
+      <c r="H826" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="827" spans="1:8">
+      <c r="A827" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B827" s="2">
+        <v>0.4770833333333333</v>
+      </c>
+      <c r="C827" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D827" t="s">
+        <v>1490</v>
+      </c>
+      <c r="E827">
+        <v>13.39</v>
+      </c>
+      <c r="F827" t="s">
+        <v>45</v>
+      </c>
+      <c r="G827" t="s">
+        <v>51</v>
+      </c>
+      <c r="H827" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="828" spans="1:8">
+      <c r="A828" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B828" s="2">
+        <v>0.81180555555555556</v>
+      </c>
+      <c r="C828" t="s">
+        <v>449</v>
+      </c>
+      <c r="D828" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E828">
+        <v>15</v>
+      </c>
+      <c r="F828" t="s">
+        <v>42</v>
+      </c>
+      <c r="G828" t="s">
+        <v>51</v>
+      </c>
+      <c r="H828" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="829" spans="1:8">
+      <c r="A829" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B829" s="2">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="C829" t="s">
+        <v>410</v>
+      </c>
+      <c r="D829" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E829">
+        <v>49.75</v>
+      </c>
+      <c r="F829" t="s">
+        <v>23</v>
+      </c>
+      <c r="G829" t="s">
+        <v>51</v>
+      </c>
+      <c r="H829" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="830" spans="1:8">
+      <c r="A830" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B830" s="2">
+        <v>0.37083333333333335</v>
+      </c>
+      <c r="C830" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D830" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E830">
+        <v>5</v>
+      </c>
+      <c r="F830" t="s">
+        <v>45</v>
+      </c>
+      <c r="G830" t="s">
+        <v>51</v>
+      </c>
+      <c r="H830" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="831" spans="1:8">
+      <c r="A831" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B831" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C831" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D831" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E831">
+        <v>15</v>
+      </c>
+      <c r="F831" t="s">
+        <v>45</v>
+      </c>
+      <c r="G831" t="s">
+        <v>51</v>
+      </c>
+      <c r="H831" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="832" spans="1:8">
+      <c r="A832" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B832" s="2">
+        <v>0.47986111111111113</v>
+      </c>
+      <c r="C832" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D832" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E832">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="F832" t="s">
+        <v>45</v>
+      </c>
+      <c r="G832" t="s">
+        <v>51</v>
+      </c>
+      <c r="H832" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="833" spans="1:8">
+      <c r="A833" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B833" s="2">
+        <v>0.47986111111111113</v>
+      </c>
+      <c r="C833" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D833" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E833">
+        <v>3</v>
+      </c>
+      <c r="F833" t="s">
+        <v>45</v>
+      </c>
+      <c r="G833" t="s">
+        <v>51</v>
+      </c>
+      <c r="H833" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="834" spans="1:8">
+      <c r="A834" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B834" s="2">
+        <v>0.77638888888888891</v>
+      </c>
+      <c r="C834" t="s">
+        <v>449</v>
+      </c>
+      <c r="D834" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E834">
+        <v>15.5</v>
+      </c>
+      <c r="F834" t="s">
+        <v>42</v>
+      </c>
+      <c r="G834" t="s">
+        <v>29</v>
+      </c>
+      <c r="H834" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="835" spans="1:8">
+      <c r="A835" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B835" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="C835" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D835" t="s">
+        <v>894</v>
+      </c>
+      <c r="E835">
+        <v>14.88</v>
+      </c>
+      <c r="F835" t="s">
+        <v>45</v>
+      </c>
+      <c r="G835" t="s">
+        <v>51</v>
+      </c>
+      <c r="H835" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="836" spans="1:8">
+      <c r="A836" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B836" s="2">
+        <v>0.39513888888888887</v>
+      </c>
+      <c r="C836" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D836" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E836">
+        <v>5</v>
+      </c>
+      <c r="F836" t="s">
+        <v>45</v>
+      </c>
+      <c r="G836" t="s">
+        <v>51</v>
+      </c>
+      <c r="H836" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="837" spans="1:8">
+      <c r="A837" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B837" s="2">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C837" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D837" t="s">
+        <v>1487</v>
+      </c>
+      <c r="E837">
+        <v>10.3</v>
+      </c>
+      <c r="F837" t="s">
+        <v>45</v>
+      </c>
+      <c r="G837" t="s">
+        <v>51</v>
+      </c>
+      <c r="H837" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="838" spans="1:8">
+      <c r="A838" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B838" s="2">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="C838" t="s">
+        <v>449</v>
+      </c>
+      <c r="D838" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E838">
+        <v>19</v>
+      </c>
+      <c r="F838" t="s">
+        <v>42</v>
+      </c>
+      <c r="G838" t="s">
+        <v>51</v>
+      </c>
+      <c r="H838" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="839" spans="1:8">
+      <c r="A839" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B839" s="2">
+        <v>0.79791666666666661</v>
+      </c>
+      <c r="C839" t="s">
+        <v>53</v>
+      </c>
+      <c r="D839" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E839">
+        <v>10.64</v>
+      </c>
+      <c r="F839" t="s">
+        <v>23</v>
+      </c>
+      <c r="G839" t="s">
+        <v>51</v>
+      </c>
+      <c r="H839" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="840" spans="1:8">
+      <c r="A840" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B840" s="2">
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="C840" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D840" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E840">
+        <v>17.5</v>
+      </c>
+      <c r="F840" t="s">
+        <v>45</v>
+      </c>
+      <c r="G840" t="s">
+        <v>51</v>
+      </c>
+      <c r="H840" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="841" spans="1:8">
+      <c r="A841" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B841" s="2">
+        <v>0.62013888888888891</v>
+      </c>
+      <c r="C841" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D841" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E841">
+        <v>2.4</v>
+      </c>
+      <c r="F841" t="s">
+        <v>42</v>
+      </c>
+      <c r="G841" t="s">
+        <v>51</v>
+      </c>
+      <c r="H841" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="842" spans="1:8">
+      <c r="A842" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B842" s="2">
+        <v>0.87708333333333333</v>
+      </c>
+      <c r="C842" t="s">
+        <v>32</v>
+      </c>
+      <c r="D842" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E842">
+        <v>2</v>
+      </c>
+      <c r="F842" t="s">
+        <v>42</v>
+      </c>
+      <c r="G842" t="s">
+        <v>29</v>
+      </c>
+      <c r="H842" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="843" spans="1:8">
+      <c r="A843" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B843" s="2">
+        <v>0.87777777777777777</v>
+      </c>
+      <c r="C843" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D843" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E843">
+        <v>200</v>
+      </c>
+      <c r="F843" t="s">
+        <v>42</v>
+      </c>
+      <c r="G843" t="s">
+        <v>29</v>
+      </c>
+      <c r="H843" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="844" spans="1:8">
+      <c r="A844" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B844" s="2">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="C844" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D844" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E844">
+        <v>14.38</v>
+      </c>
+      <c r="F844" t="s">
+        <v>45</v>
+      </c>
+      <c r="G844" t="s">
+        <v>51</v>
+      </c>
+      <c r="H844" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="845" spans="1:8">
+      <c r="A845" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B845" s="2">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="C845" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D845" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E845">
+        <v>1.99</v>
+      </c>
+      <c r="F845" t="s">
+        <v>23</v>
+      </c>
+      <c r="G845" t="s">
+        <v>51</v>
+      </c>
+      <c r="H845" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="846" spans="1:8">
+      <c r="A846" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B846" s="2">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="C846" t="s">
+        <v>8</v>
+      </c>
+      <c r="D846" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E846">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="F846" t="s">
+        <v>23</v>
+      </c>
+      <c r="G846" t="s">
+        <v>51</v>
+      </c>
+      <c r="H846" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="847" spans="1:8">
+      <c r="A847" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B847" s="2">
+        <v>0.77569444444444446</v>
+      </c>
+      <c r="C847" t="s">
+        <v>449</v>
+      </c>
+      <c r="D847" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E847">
+        <v>3</v>
+      </c>
+      <c r="F847" t="s">
+        <v>45</v>
+      </c>
+      <c r="G847" t="s">
+        <v>51</v>
+      </c>
+      <c r="H847" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="848" spans="1:8">
+      <c r="A848" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B848" s="2">
+        <v>0.77638888888888891</v>
+      </c>
+      <c r="C848" t="s">
+        <v>449</v>
+      </c>
+      <c r="D848" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E848">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="F848" t="s">
+        <v>45</v>
+      </c>
+      <c r="G848" t="s">
+        <v>51</v>
+      </c>
+      <c r="H848" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="849" spans="1:9">
+      <c r="A849" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B849" s="2">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="C849" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D849" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E849">
+        <v>20.68</v>
+      </c>
+      <c r="F849" t="s">
+        <v>45</v>
+      </c>
+      <c r="G849" t="s">
+        <v>51</v>
+      </c>
+      <c r="H849" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="850" spans="1:9">
+      <c r="A850" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B850" s="2">
+        <v>0.62291666666666667</v>
+      </c>
+      <c r="C850" t="s">
+        <v>32</v>
+      </c>
+      <c r="D850" t="s">
+        <v>1546</v>
+      </c>
+      <c r="E850">
+        <v>4</v>
+      </c>
+      <c r="F850" t="s">
+        <v>42</v>
+      </c>
+      <c r="G850" t="s">
+        <v>29</v>
+      </c>
+      <c r="H850" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="851" spans="1:9">
+      <c r="A851" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B851" s="2">
+        <v>0.65833333333333333</v>
+      </c>
+      <c r="C851" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D851" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E851">
+        <v>10</v>
+      </c>
+      <c r="F851" t="s">
+        <v>42</v>
+      </c>
+      <c r="G851" t="s">
+        <v>29</v>
+      </c>
+      <c r="H851" t="s">
+        <v>29</v>
+      </c>
+      <c r="I851" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="852" spans="1:9">
+      <c r="A852" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B852" s="2">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="C852" t="s">
+        <v>53</v>
+      </c>
+      <c r="D852" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E852">
+        <v>8</v>
+      </c>
+      <c r="F852" t="s">
+        <v>23</v>
+      </c>
+      <c r="G852" t="s">
+        <v>51</v>
+      </c>
+      <c r="H852" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="853" spans="1:9">
+      <c r="A853" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B853" s="2">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="C853" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D853" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E853">
+        <v>15</v>
+      </c>
+      <c r="F853" t="s">
+        <v>42</v>
+      </c>
+      <c r="G853" t="s">
+        <v>29</v>
+      </c>
+      <c r="H853" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="854" spans="1:9">
+      <c r="A854" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B854" s="2">
+        <v>0.82708333333333339</v>
+      </c>
+      <c r="C854" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D854" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E854">
+        <v>3.9</v>
+      </c>
+      <c r="F854" t="s">
+        <v>42</v>
+      </c>
+      <c r="G854" t="s">
+        <v>29</v>
+      </c>
+      <c r="H854" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="855" spans="1:9">
+      <c r="A855" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B855" s="2">
+        <v>0.88402777777777775</v>
+      </c>
+      <c r="C855" t="s">
+        <v>32</v>
+      </c>
+      <c r="D855" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E855">
+        <v>4</v>
+      </c>
+      <c r="F855" t="s">
+        <v>42</v>
+      </c>
+      <c r="G855" t="s">
+        <v>29</v>
+      </c>
+      <c r="H855" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="856" spans="1:9">
+      <c r="A856" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B856" s="2">
+        <v>0.94305555555555554</v>
+      </c>
+      <c r="C856" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D856" t="s">
+        <v>1443</v>
+      </c>
+      <c r="E856">
+        <v>11.04</v>
+      </c>
+      <c r="F856" t="s">
+        <v>42</v>
+      </c>
+      <c r="G856" t="s">
+        <v>51</v>
+      </c>
+      <c r="H856" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="857" spans="1:9">
+      <c r="A857" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B857" s="2">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="C857" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D857" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E857">
+        <v>3.9</v>
+      </c>
+      <c r="F857" t="s">
+        <v>42</v>
+      </c>
+      <c r="G857" t="s">
+        <v>29</v>
+      </c>
+      <c r="H857" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="858" spans="1:9">
+      <c r="A858" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B858" s="2">
+        <v>0.32222222222222224</v>
+      </c>
+      <c r="C858" t="s">
+        <v>32</v>
+      </c>
+      <c r="D858" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E858">
+        <v>3</v>
+      </c>
+      <c r="F858" t="s">
+        <v>42</v>
+      </c>
+      <c r="G858" t="s">
+        <v>29</v>
+      </c>
+      <c r="H858" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="859" spans="1:9">
+      <c r="A859" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B859" s="2">
+        <v>0.35347222222222219</v>
+      </c>
+      <c r="C859" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D859" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E859">
+        <v>25</v>
+      </c>
+      <c r="F859" t="s">
+        <v>42</v>
+      </c>
+      <c r="G859" t="s">
+        <v>29</v>
+      </c>
+      <c r="H859" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="860" spans="1:9">
+      <c r="A860" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B860" s="2">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="C860" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D860" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E860">
+        <v>779.55</v>
+      </c>
+      <c r="F860" t="s">
+        <v>23</v>
+      </c>
+      <c r="G860" t="s">
+        <v>51</v>
+      </c>
+      <c r="H860" t="s">
+        <v>1521</v>
+      </c>
+      <c r="I860" s="44" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="861" spans="1:9">
+      <c r="A861" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B861" s="2">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="C861" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D861" t="s">
+        <v>1485</v>
+      </c>
+      <c r="E861">
+        <v>21</v>
+      </c>
+      <c r="F861" t="s">
+        <v>45</v>
+      </c>
+      <c r="G861" t="s">
+        <v>51</v>
+      </c>
+      <c r="H861" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="862" spans="1:9">
+      <c r="A862" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B862" s="2">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="C862" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D862" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E862">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="F862" t="s">
+        <v>45</v>
+      </c>
+      <c r="G862" t="s">
+        <v>51</v>
+      </c>
+      <c r="H862" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="863" spans="1:9">
+      <c r="A863" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B863" s="2">
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="C863" t="s">
+        <v>32</v>
+      </c>
+      <c r="D863" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E863">
+        <v>3</v>
+      </c>
+      <c r="F863" t="s">
+        <v>42</v>
+      </c>
+      <c r="G863" t="s">
+        <v>29</v>
+      </c>
+      <c r="H863" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="864" spans="1:9">
+      <c r="A864" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B864" s="2">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="C864" t="s">
+        <v>53</v>
+      </c>
+      <c r="D864" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E864">
+        <v>3.5</v>
+      </c>
+      <c r="F864" t="s">
+        <v>233</v>
+      </c>
+      <c r="G864" t="s">
+        <v>51</v>
+      </c>
+      <c r="H864" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="865" spans="1:8">
+      <c r="A865" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B865" s="2">
+        <v>0.72361111111111109</v>
+      </c>
+      <c r="C865" t="s">
+        <v>449</v>
+      </c>
+      <c r="D865" t="s">
+        <v>894</v>
+      </c>
+      <c r="E865">
+        <v>10.88</v>
+      </c>
+      <c r="F865" t="s">
+        <v>45</v>
+      </c>
+      <c r="G865" t="s">
+        <v>51</v>
+      </c>
+      <c r="H865" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="866" spans="1:8">
+      <c r="A866" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B866" s="2">
+        <v>0.7284722222222223</v>
+      </c>
+      <c r="C866" t="s">
+        <v>78</v>
+      </c>
+      <c r="D866" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E866">
+        <v>299</v>
+      </c>
+      <c r="F866" t="s">
+        <v>42</v>
+      </c>
+      <c r="G866" t="s">
+        <v>51</v>
+      </c>
+      <c r="H866" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="867" spans="1:8">
+      <c r="A867" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B867" s="2">
+        <v>0.82777777777777783</v>
+      </c>
+      <c r="C867" t="s">
+        <v>78</v>
+      </c>
+      <c r="D867" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E867">
+        <v>0</v>
+      </c>
+      <c r="F867" t="s">
+        <v>42</v>
+      </c>
+      <c r="G867" t="s">
+        <v>51</v>
+      </c>
+      <c r="H867" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="868" spans="1:8">
+      <c r="A868" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B868" s="2">
+        <v>0.87569444444444444</v>
+      </c>
+      <c r="C868" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D868" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E868">
+        <v>16</v>
+      </c>
+      <c r="F868" t="s">
+        <v>45</v>
+      </c>
+      <c r="G868" t="s">
+        <v>51</v>
+      </c>
+      <c r="H868" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="869" spans="1:8">
+      <c r="A869" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B869" s="2">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="C869" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D869" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E869">
+        <v>5</v>
+      </c>
+      <c r="F869" t="s">
+        <v>45</v>
+      </c>
+      <c r="G869" t="s">
+        <v>51</v>
+      </c>
+      <c r="H869" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="870" spans="1:8">
+      <c r="A870" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B870" s="2">
+        <v>0.47361111111111115</v>
+      </c>
+      <c r="C870" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D870" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E870">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="F870" t="s">
+        <v>45</v>
+      </c>
+      <c r="G870" t="s">
+        <v>51</v>
+      </c>
+      <c r="H870" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="871" spans="1:8">
+      <c r="A871" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B871" s="2">
+        <v>0.59236111111111112</v>
+      </c>
+      <c r="C871" t="s">
+        <v>78</v>
+      </c>
+      <c r="D871" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E871">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F871" t="s">
+        <v>121</v>
+      </c>
+      <c r="G871" t="s">
+        <v>51</v>
+      </c>
+      <c r="H871" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="872" spans="1:8">
+      <c r="A872" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B872" s="2">
+        <v>0.77222222222222225</v>
+      </c>
+      <c r="C872" t="s">
+        <v>449</v>
+      </c>
+      <c r="D872" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E872">
+        <v>12.4</v>
+      </c>
+      <c r="F872" t="s">
+        <v>42</v>
+      </c>
+      <c r="G872" t="s">
+        <v>29</v>
+      </c>
+      <c r="H872" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="873" spans="1:8">
+      <c r="A873" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B873" s="2">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="C873" t="s">
+        <v>78</v>
+      </c>
+      <c r="D873" t="s">
+        <v>1497</v>
+      </c>
+      <c r="E873">
+        <v>111.8</v>
+      </c>
+      <c r="F873" t="s">
+        <v>42</v>
+      </c>
+      <c r="G873" t="s">
+        <v>51</v>
+      </c>
+      <c r="H873" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="874" spans="1:8">
+      <c r="A874" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B874" s="2">
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="C874" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D874" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E874">
+        <v>19.5</v>
+      </c>
+      <c r="F874" t="s">
+        <v>45</v>
+      </c>
+      <c r="G874" t="s">
+        <v>51</v>
+      </c>
+      <c r="H874" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="875" spans="1:8">
+      <c r="A875" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B875" s="2">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="C875" t="s">
+        <v>78</v>
+      </c>
+      <c r="D875" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E875">
+        <v>9.9</v>
+      </c>
+      <c r="F875" t="s">
+        <v>121</v>
+      </c>
+      <c r="G875" t="s">
+        <v>51</v>
+      </c>
+      <c r="H875" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="876" spans="1:8">
+      <c r="A876" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B876" s="2">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="C876" t="s">
+        <v>449</v>
+      </c>
+      <c r="D876" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E876">
+        <v>17.5</v>
+      </c>
+      <c r="F876" t="s">
+        <v>42</v>
+      </c>
+      <c r="G876" t="s">
+        <v>29</v>
+      </c>
+      <c r="H876" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="877" spans="1:8">
+      <c r="A877" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B877" s="2">
+        <v>0.93541666666666667</v>
+      </c>
+      <c r="C877" t="s">
+        <v>336</v>
+      </c>
+      <c r="D877" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E877">
+        <v>21</v>
+      </c>
+      <c r="F877" t="s">
+        <v>62</v>
+      </c>
+      <c r="G877" t="s">
+        <v>51</v>
+      </c>
+      <c r="H877" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="878" spans="1:8">
+      <c r="A878" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B878" s="2">
+        <v>0.98263888888888884</v>
+      </c>
+      <c r="C878" t="s">
+        <v>78</v>
+      </c>
+      <c r="D878" t="s">
+        <v>1494</v>
+      </c>
+      <c r="E878">
+        <v>170</v>
+      </c>
+      <c r="F878" t="s">
+        <v>121</v>
+      </c>
+      <c r="G878" t="s">
+        <v>51</v>
+      </c>
+      <c r="H878" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="879" spans="1:8">
+      <c r="A879" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B879" s="2">
+        <v>0.37708333333333338</v>
+      </c>
+      <c r="C879" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D879" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E879">
+        <v>5</v>
+      </c>
+      <c r="F879" t="s">
+        <v>45</v>
+      </c>
+      <c r="G879" t="s">
+        <v>51</v>
+      </c>
+      <c r="H879" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="880" spans="1:8">
+      <c r="A880" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B880" s="2">
+        <v>0.47083333333333338</v>
+      </c>
+      <c r="C880" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D880" t="s">
+        <v>946</v>
+      </c>
+      <c r="E880">
+        <v>9.09</v>
+      </c>
+      <c r="F880" t="s">
+        <v>45</v>
+      </c>
+      <c r="G880" t="s">
+        <v>51</v>
+      </c>
+      <c r="H880" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="881" spans="1:8">
+      <c r="A881" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B881" s="2">
+        <v>0.78055555555555556</v>
+      </c>
+      <c r="C881" t="s">
+        <v>449</v>
+      </c>
+      <c r="D881" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E881">
+        <v>15</v>
+      </c>
+      <c r="F881" t="s">
+        <v>42</v>
+      </c>
+      <c r="G881" t="s">
+        <v>51</v>
+      </c>
+      <c r="H881" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="882" spans="1:8">
+      <c r="A882" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B882" s="2">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="C882" t="s">
+        <v>936</v>
+      </c>
+      <c r="D882" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E882">
+        <v>15.9</v>
+      </c>
+      <c r="F882" t="s">
+        <v>23</v>
+      </c>
+      <c r="G882" t="s">
+        <v>51</v>
+      </c>
+      <c r="H882" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="883" spans="1:8">
+      <c r="A883" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B883" s="2">
+        <v>0.73472222222222217</v>
+      </c>
+      <c r="C883" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D883" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E883">
+        <v>2</v>
+      </c>
+      <c r="F883" t="s">
+        <v>195</v>
+      </c>
+      <c r="G883" t="s">
+        <v>51</v>
+      </c>
+      <c r="H883" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="884" spans="1:8">
+      <c r="A884" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B884" s="2">
+        <v>0.77569444444444446</v>
+      </c>
+      <c r="C884" t="s">
+        <v>8</v>
+      </c>
+      <c r="D884" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E884">
+        <v>16.3</v>
+      </c>
+      <c r="F884" t="s">
+        <v>23</v>
+      </c>
+      <c r="G884" t="s">
+        <v>51</v>
+      </c>
+      <c r="H884" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="885" spans="1:8">
+      <c r="A885" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B885" s="2">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="C885" t="s">
+        <v>449</v>
+      </c>
+      <c r="D885" t="s">
+        <v>1480</v>
+      </c>
+      <c r="E885">
+        <v>18.68</v>
+      </c>
+      <c r="F885" t="s">
+        <v>45</v>
+      </c>
+      <c r="G885" t="s">
+        <v>51</v>
+      </c>
+      <c r="H885" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="886" spans="1:8">
+      <c r="A886" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B886" s="2">
+        <v>0.94236111111111109</v>
+      </c>
+      <c r="C886" t="s">
+        <v>53</v>
+      </c>
+      <c r="D886" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E886">
+        <v>6.5</v>
+      </c>
+      <c r="F886" t="s">
+        <v>233</v>
+      </c>
+      <c r="G886" t="s">
+        <v>51</v>
+      </c>
+      <c r="H886" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="887" spans="1:8">
+      <c r="A887" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B887" s="2">
+        <v>0.94305555555555554</v>
+      </c>
+      <c r="C887" t="s">
+        <v>53</v>
+      </c>
+      <c r="D887" t="s">
+        <v>1512</v>
+      </c>
+      <c r="E887">
+        <v>5</v>
+      </c>
+      <c r="F887" t="s">
+        <v>233</v>
+      </c>
+      <c r="G887" t="s">
+        <v>51</v>
+      </c>
+      <c r="H887" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="888" spans="1:8">
+      <c r="A888" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B888" s="2">
+        <v>0.11041666666666666</v>
+      </c>
+      <c r="C888" t="s">
+        <v>336</v>
+      </c>
+      <c r="D888" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E888">
+        <v>18</v>
+      </c>
+      <c r="F888" t="s">
+        <v>62</v>
+      </c>
+      <c r="G888" t="s">
+        <v>51</v>
+      </c>
+      <c r="H888" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="889" spans="1:8">
+      <c r="A889" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B889" s="2">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="C889" t="s">
+        <v>78</v>
+      </c>
+      <c r="D889" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E889">
+        <v>3.5</v>
+      </c>
+      <c r="F889" t="s">
+        <v>121</v>
+      </c>
+      <c r="G889" t="s">
+        <v>51</v>
+      </c>
+      <c r="H889" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="890" spans="1:8">
+      <c r="A890" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B890" s="2">
+        <v>0.77986111111111101</v>
+      </c>
+      <c r="C890" t="s">
+        <v>945</v>
+      </c>
+      <c r="D890" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E890">
+        <v>15.6</v>
+      </c>
+      <c r="F890" t="s">
+        <v>45</v>
+      </c>
+      <c r="G890" t="s">
+        <v>51</v>
+      </c>
+      <c r="H890" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="891" spans="1:8">
+      <c r="A891" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B891" s="2">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="C891" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D891" t="s">
+        <v>1479</v>
+      </c>
+      <c r="E891">
+        <v>50</v>
+      </c>
+      <c r="F891" t="s">
+        <v>45</v>
+      </c>
+      <c r="G891" t="s">
+        <v>51</v>
+      </c>
+      <c r="H891" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="892" spans="1:8">
+      <c r="A892" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B892" s="2">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="C892" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D892" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E892">
+        <v>7.81</v>
+      </c>
+      <c r="F892" t="s">
+        <v>45</v>
+      </c>
+      <c r="G892" t="s">
+        <v>51</v>
+      </c>
+      <c r="H892" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="893" spans="1:8">
+      <c r="A893" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B893" s="2">
+        <v>0.48402777777777778</v>
+      </c>
+      <c r="C893" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D893" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E893">
+        <v>4</v>
+      </c>
+      <c r="F893" t="s">
+        <v>977</v>
+      </c>
+      <c r="G893" t="s">
+        <v>51</v>
+      </c>
+      <c r="H893" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="894" spans="1:8">
+      <c r="A894" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B894" s="2">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="C894" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D894" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E894">
+        <v>15.9</v>
+      </c>
+      <c r="F894" t="s">
+        <v>45</v>
+      </c>
+      <c r="G894" t="s">
+        <v>51</v>
+      </c>
+      <c r="H894" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="895" spans="1:8">
+      <c r="A895" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B895" s="2">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="C895" t="s">
+        <v>73</v>
+      </c>
+      <c r="D895" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E895">
+        <v>9</v>
+      </c>
+      <c r="F895" t="s">
+        <v>1252</v>
+      </c>
+      <c r="G895" t="s">
+        <v>29</v>
+      </c>
+      <c r="H895" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="896" spans="1:8">
+      <c r="A896" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B896" s="2">
+        <v>0.67638888888888893</v>
+      </c>
+      <c r="C896" t="s">
+        <v>53</v>
+      </c>
+      <c r="D896" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E896">
+        <v>9</v>
+      </c>
+      <c r="F896" t="s">
+        <v>23</v>
+      </c>
+      <c r="G896" t="s">
+        <v>51</v>
+      </c>
+      <c r="H896" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="897" spans="1:9">
+      <c r="A897" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B897" s="2">
+        <v>0.68333333333333324</v>
+      </c>
+      <c r="C897" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D897" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E897">
+        <v>14.5</v>
+      </c>
+      <c r="F897" t="s">
+        <v>42</v>
+      </c>
+      <c r="G897" t="s">
+        <v>29</v>
+      </c>
+      <c r="H897" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="898" spans="1:9">
+      <c r="A898" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B898" s="2">
+        <v>0.68819444444444444</v>
+      </c>
+      <c r="C898" t="s">
+        <v>73</v>
+      </c>
+      <c r="D898" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E898">
+        <v>15</v>
+      </c>
+      <c r="F898" t="s">
+        <v>89</v>
+      </c>
+      <c r="G898" t="s">
+        <v>29</v>
+      </c>
+      <c r="H898" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="899" spans="1:9">
+      <c r="A899" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B899" s="2">
+        <v>0.85069444444444453</v>
+      </c>
+      <c r="C899" t="s">
+        <v>945</v>
+      </c>
+      <c r="D899" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E899">
+        <v>299</v>
+      </c>
+      <c r="F899" t="s">
+        <v>42</v>
+      </c>
+      <c r="G899" t="s">
+        <v>51</v>
+      </c>
+      <c r="H899" t="s">
+        <v>1505</v>
+      </c>
+      <c r="I899" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="900" spans="1:9">
+      <c r="A900" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B900" s="2">
+        <v>0.87569444444444444</v>
+      </c>
+      <c r="C900" t="s">
+        <v>78</v>
+      </c>
+      <c r="D900" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E900">
+        <v>48</v>
+      </c>
+      <c r="F900" t="s">
+        <v>121</v>
+      </c>
+      <c r="G900" t="s">
+        <v>51</v>
+      </c>
+      <c r="H900" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="901" spans="1:9">
+      <c r="A901" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B901" s="2">
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="C901" t="s">
+        <v>32</v>
+      </c>
+      <c r="D901" t="s">
+        <v>1542</v>
+      </c>
+      <c r="E901">
+        <v>2</v>
+      </c>
+      <c r="F901" t="s">
+        <v>42</v>
+      </c>
+      <c r="G901" t="s">
+        <v>29</v>
+      </c>
+      <c r="H901" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="902" spans="1:9">
+      <c r="A902" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B902" s="2">
+        <v>0.9506944444444444</v>
+      </c>
+      <c r="C902" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D902" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E902">
+        <v>40</v>
+      </c>
+      <c r="F902" t="s">
+        <v>42</v>
+      </c>
+      <c r="G902" t="s">
+        <v>51</v>
+      </c>
+      <c r="H902" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="903" spans="1:9">
+      <c r="A903" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B903" s="2">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="C903" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D903" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E903">
+        <v>20</v>
+      </c>
+      <c r="F903" t="s">
+        <v>42</v>
+      </c>
+      <c r="G903" t="s">
+        <v>51</v>
+      </c>
+      <c r="H903" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="904" spans="1:9">
+      <c r="A904" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B904" s="2">
+        <v>0.95208333333333339</v>
+      </c>
+      <c r="C904" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D904" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E904">
+        <v>10</v>
+      </c>
+      <c r="F904" t="s">
+        <v>42</v>
+      </c>
+      <c r="G904" t="s">
+        <v>51</v>
+      </c>
+      <c r="H904" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="905" spans="1:9">
+      <c r="A905" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B905" s="2">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="C905" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D905" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E905">
+        <v>30</v>
+      </c>
+      <c r="F905" t="s">
+        <v>42</v>
+      </c>
+      <c r="G905" t="s">
+        <v>51</v>
+      </c>
+      <c r="H905" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="906" spans="1:9">
+      <c r="A906" s="1">
+        <v>44088</v>
+      </c>
+      <c r="B906" s="2">
+        <v>0.36180555555555555</v>
+      </c>
+      <c r="C906" t="s">
+        <v>67</v>
+      </c>
+      <c r="D906" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E906">
+        <v>4.17</v>
+      </c>
+      <c r="F906" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G906" t="s">
+        <v>51</v>
+      </c>
+      <c r="H906" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="907" spans="1:9">
+      <c r="A907" s="1">
+        <v>44088</v>
+      </c>
+      <c r="B907" s="2">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="C907" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D907" t="s">
+        <v>946</v>
+      </c>
+      <c r="E907">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="F907" t="s">
+        <v>45</v>
+      </c>
+      <c r="G907" t="s">
+        <v>51</v>
+      </c>
+      <c r="H907" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="908" spans="1:9">
+      <c r="A908" s="1">
+        <v>44088</v>
+      </c>
+      <c r="B908" s="2">
+        <v>0.74861111111111101</v>
+      </c>
+      <c r="C908" t="s">
+        <v>207</v>
+      </c>
+      <c r="D908" t="s">
+        <v>1541</v>
+      </c>
+      <c r="E908">
+        <v>1050</v>
+      </c>
+      <c r="F908" t="s">
+        <v>42</v>
+      </c>
+      <c r="G908" t="s">
+        <v>29</v>
+      </c>
+      <c r="H908" t="s">
+        <v>1375</v>
+      </c>
+      <c r="I908" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="909" spans="1:9">
+      <c r="A909" s="1">
+        <v>44088</v>
+      </c>
+      <c r="B909" s="2">
+        <v>0.83888888888888891</v>
+      </c>
+      <c r="C909" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D909" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E909">
+        <v>20.5</v>
+      </c>
+      <c r="F909" t="s">
+        <v>45</v>
+      </c>
+      <c r="G909" t="s">
+        <v>51</v>
+      </c>
+      <c r="H909" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="910" spans="1:9">
+      <c r="A910" s="1">
+        <v>44088</v>
+      </c>
+      <c r="B910" s="2">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="C910" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D910" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E910">
+        <v>9</v>
+      </c>
+      <c r="F910" t="s">
+        <v>42</v>
+      </c>
+      <c r="G910" t="s">
+        <v>51</v>
+      </c>
+      <c r="H910" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="911" spans="1:9">
+      <c r="A911" s="1">
+        <v>44088</v>
+      </c>
+      <c r="B911" s="2">
+        <v>0.86249999999999993</v>
+      </c>
+      <c r="C911" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D911" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E911">
+        <v>20</v>
+      </c>
+      <c r="F911" t="s">
+        <v>42</v>
+      </c>
+      <c r="G911" t="s">
+        <v>51</v>
+      </c>
+      <c r="H911" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="912" spans="1:9">
+      <c r="A912" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B912" s="2">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="C912" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D912" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E912">
+        <v>72.569999999999993</v>
+      </c>
+      <c r="F912" t="s">
+        <v>42</v>
+      </c>
+      <c r="G912" t="s">
+        <v>51</v>
+      </c>
+      <c r="H912" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="913" spans="1:8">
+      <c r="A913" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B913" s="2">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C913" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D913" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E913">
+        <v>13.41</v>
+      </c>
+      <c r="F913" t="s">
+        <v>45</v>
+      </c>
+      <c r="G913" t="s">
+        <v>51</v>
+      </c>
+      <c r="H913" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="914" spans="1:8">
+      <c r="A914" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B914" s="2">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="C914" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D914" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E914">
+        <v>10</v>
+      </c>
+      <c r="F914" t="s">
+        <v>42</v>
+      </c>
+      <c r="G914" t="s">
+        <v>51</v>
+      </c>
+      <c r="H914" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="915" spans="1:8">
+      <c r="A915" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B915" s="2">
+        <v>0.7631944444444444</v>
+      </c>
+      <c r="C915" t="s">
+        <v>449</v>
+      </c>
+      <c r="D915" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E915">
+        <v>17.8</v>
+      </c>
+      <c r="F915" t="s">
+        <v>42</v>
+      </c>
+      <c r="G915" t="s">
+        <v>29</v>
+      </c>
+      <c r="H915" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="916" spans="1:8">
+      <c r="A916" s="1"/>
+      <c r="B916" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
+    <mergeCell ref="K324:R324"/>
     <mergeCell ref="K308:R308"/>
     <mergeCell ref="K1:U1"/>
     <mergeCell ref="K32:S32"/>
@@ -42073,7 +46940,7 @@
     <mergeCell ref="K241:V241"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="13">
+  <dataValidations count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11 C13:C19" xr:uid="{3E43E9E5-CA6B-4F45-A703-CF25F1C54DE5}">
       <formula1>"出行,午饭,水果"</formula1>
     </dataValidation>
@@ -42117,13 +46984,15 @@
   <hyperlinks>
     <hyperlink ref="I766" location="records!K308" display="广州中医药大学深圳医院(福田) 治疗收费单" xr:uid="{FEE832A8-945B-3448-8F61-D994021BA0DE}"/>
     <hyperlink ref="K308:R308" location="records!I766" display="广州中医药大学深圳医院(福田)治疗收费单" xr:uid="{DC1C4AFB-9150-F049-9B73-97F7EACA1561}"/>
+    <hyperlink ref="K324:R324" location="records!I860" display="广州中医药大学深圳医院(福田)治疗收费单" xr:uid="{450CEB24-D5E7-5A40-8CD2-96BE5E4B525C}"/>
+    <hyperlink ref="I860" location="records!K324" display="广州中医药大学深圳医院(福田)治疗收费单" xr:uid="{B08D6760-8303-BE49-963E-0F4AAAD1FF51}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
     <ignoredError sqref="S61:S74 M61:M74" listDataValidation="1"/>
   </ignoredErrors>
-  <tableParts count="22">
+  <tableParts count="23">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -42146,6 +47015,7 @@
     <tablePart r:id="rId20"/>
     <tablePart r:id="rId21"/>
     <tablePart r:id="rId22"/>
+    <tablePart r:id="rId23"/>
   </tableParts>
 </worksheet>
 </file>
@@ -43951,58 +48821,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="49" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AB1" s="46" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AB1" s="50" t="s">
         <v>327</v>
       </c>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AI1" s="45" t="s">
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AI1" s="49" t="s">
         <v>328</v>
       </c>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="45"/>
-      <c r="AO1" s="45"/>
-      <c r="AP1" s="45"/>
-      <c r="AQ1" s="45"/>
-      <c r="AR1" s="45"/>
-      <c r="AS1" s="45"/>
-      <c r="AT1" s="45"/>
-      <c r="AU1" s="45"/>
-      <c r="AV1" s="45"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="49"/>
+      <c r="AQ1" s="49"/>
+      <c r="AR1" s="49"/>
+      <c r="AS1" s="49"/>
+      <c r="AT1" s="49"/>
+      <c r="AU1" s="49"/>
+      <c r="AV1" s="49"/>
     </row>
     <row r="2" spans="1:48">
       <c r="A2" t="s">
@@ -47384,163 +52254,163 @@
         <v>24</v>
       </c>
       <c r="C2">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!C1,records!B2:B775, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A2, records!B2:B916, "&gt;=" &amp; template!C1,records!B2:B916, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!D1,records!B2:B775, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A2, records!B2:B916, "&gt;=" &amp; template!D1,records!B2:B916, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E2">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!E1,records!B2:B775, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A2, records!B2:B916, "&gt;=" &amp; template!E1,records!B2:B916, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F2">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!F1,records!B2:B775, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A2, records!B2:B916, "&gt;=" &amp; template!F1,records!B2:B916, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!G1,records!B2:B775, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A2, records!B2:B916, "&gt;=" &amp; template!G1,records!B2:B916, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H2">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!H1,records!B2:B775, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A2, records!B2:B916, "&gt;=" &amp; template!H1,records!B2:B916, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I2">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!I1,records!B2:B775, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A2, records!B2:B916, "&gt;=" &amp; template!I1,records!B2:B916, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J2">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!J1,records!B2:B775, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A2, records!B2:B916, "&gt;=" &amp; template!J1,records!B2:B916, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K2">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!K1,records!B2:B775, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A2, records!B2:B916, "&gt;=" &amp; template!K1,records!B2:B916, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L2">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!L1,records!B2:B775, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A2, records!B2:B916, "&gt;=" &amp; template!L1,records!B2:B916, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M2">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!M1,records!B2:B775, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A2, records!B2:B916, "&gt;=" &amp; template!M1,records!B2:B916, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N2">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!N1,records!B2:B775, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A2, records!B2:B916, "&gt;=" &amp; template!N1,records!B2:B916, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O2">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!O1,records!B2:B775, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A2, records!B2:B916, "&gt;=" &amp; template!O1,records!B2:B916, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P2">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!P1,records!B2:B775, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A2, records!B2:B916, "&gt;=" &amp; template!P1,records!B2:B916, "&lt;" &amp; template!Q1)</f>
         <v>24</v>
       </c>
       <c r="Q2">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!Q1,records!B2:B775, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A2, records!B2:B916, "&gt;=" &amp; template!Q1,records!B2:B916, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R2">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!R1,records!B2:B775, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A2, records!B2:B916, "&gt;=" &amp; template!R1,records!B2:B916, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S2">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!S1,records!B2:B775, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A2, records!B2:B916, "&gt;=" &amp; template!S1,records!B2:B916, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T2">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!T1,records!B2:B775, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A2, records!B2:B916, "&gt;=" &amp; template!T1,records!B2:B916, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U2">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!U1,records!B2:B775, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A2, records!B2:B916, "&gt;=" &amp; template!U1,records!B2:B916, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V2">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!V1,records!B2:B775, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A2, records!B2:B916, "&gt;=" &amp; template!V1,records!B2:B916, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W2">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!W1,records!B2:B775, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A2, records!B2:B916, "&gt;=" &amp; template!W1,records!B2:B916, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X2">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!X1,records!B2:B775, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A2, records!B2:B916, "&gt;=" &amp; template!X1,records!B2:B916, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y2">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!Y1,records!B2:B775, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A2, records!B2:B916, "&gt;=" &amp; template!Y1,records!B2:B916, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z2">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2, records!B2:B775, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A2, records!B2:B916, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA2">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2,records!G2:G775,template!AA1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A2,records!G2:G916,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB2">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2,records!G2:G775,template!AB1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A2,records!G2:G916,template!AB1)</f>
         <v>24</v>
       </c>
       <c r="AC2">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2,records!G2:G775,template!AC1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A2,records!G2:G916,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD2">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2,records!G2:G775,template!AD1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A2,records!G2:G916,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE2">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2,records!C2:C775,template!AE1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A2,records!C2:C916,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF2">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2,records!C2:C775,template!AF1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A2,records!C2:C916,template!AF1)</f>
         <v>24</v>
       </c>
       <c r="AG2">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2,records!C2:C775,template!AG1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A2,records!C2:C916,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH2">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2,records!C2:C775,template!AH1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A2,records!C2:C916,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI2">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2,records!C2:C775,template!AI1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A2,records!C2:C916,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ2">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2,records!C2:C775,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A2,records!C2:C916,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK2">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2,records!C2:C775,template!AK1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A2,records!C2:C916,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL2">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2,records!C2:C775,template!AL1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A2,records!C2:C916,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM2">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2,records!C2:C775,template!AM1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A2,records!C2:C916,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN2">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2,records!C2:C775,template!AN1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A2,records!C2:C916,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO2">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2,records!C2:C775,template!AO1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A2,records!C2:C916,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP2">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A2,records!C2:C775,template!AP1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A2,records!C2:C916,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -47553,163 +52423,163 @@
         <v>22</v>
       </c>
       <c r="C3">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!C1,records!B2:B775, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A3, records!B2:B916, "&gt;=" &amp; template!C1,records!B2:B916, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D3" s="14">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!D1,records!B2:B775, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A3, records!B2:B916, "&gt;=" &amp; template!D1,records!B2:B916, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!E1,records!B2:B775, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A3, records!B2:B916, "&gt;=" &amp; template!E1,records!B2:B916, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F3">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!F1,records!B2:B775, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A3, records!B2:B916, "&gt;=" &amp; template!F1,records!B2:B916, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G3">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!G1,records!B2:B775, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A3, records!B2:B916, "&gt;=" &amp; template!G1,records!B2:B916, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H3">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!H1,records!B2:B775, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A3, records!B2:B916, "&gt;=" &amp; template!H1,records!B2:B916, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I3">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!I1,records!B2:B775, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A3, records!B2:B916, "&gt;=" &amp; template!I1,records!B2:B916, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J3">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!J1,records!B2:B775, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A3, records!B2:B916, "&gt;=" &amp; template!J1,records!B2:B916, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!K1,records!B2:B775, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A3, records!B2:B916, "&gt;=" &amp; template!K1,records!B2:B916, "&lt;" &amp; template!L1)</f>
         <v>3</v>
       </c>
       <c r="L3">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!L1,records!B2:B775, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A3, records!B2:B916, "&gt;=" &amp; template!L1,records!B2:B916, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M3">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!M1,records!B2:B775, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A3, records!B2:B916, "&gt;=" &amp; template!M1,records!B2:B916, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N3">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!N1,records!B2:B775, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A3, records!B2:B916, "&gt;=" &amp; template!N1,records!B2:B916, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O3">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!O1,records!B2:B775, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A3, records!B2:B916, "&gt;=" &amp; template!O1,records!B2:B916, "&lt;" &amp; template!P1)</f>
         <v>16</v>
       </c>
       <c r="P3">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!P1,records!B2:B775, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A3, records!B2:B916, "&gt;=" &amp; template!P1,records!B2:B916, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!Q1,records!B2:B775, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A3, records!B2:B916, "&gt;=" &amp; template!Q1,records!B2:B916, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R3">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!R1,records!B2:B775, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A3, records!B2:B916, "&gt;=" &amp; template!R1,records!B2:B916, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S3">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!S1,records!B2:B775, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A3, records!B2:B916, "&gt;=" &amp; template!S1,records!B2:B916, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T3">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!T1,records!B2:B775, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A3, records!B2:B916, "&gt;=" &amp; template!T1,records!B2:B916, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U3">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!U1,records!B2:B775, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A3, records!B2:B916, "&gt;=" &amp; template!U1,records!B2:B916, "&lt;" &amp; template!V1)</f>
         <v>3</v>
       </c>
       <c r="V3">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!V1,records!B2:B775, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A3, records!B2:B916, "&gt;=" &amp; template!V1,records!B2:B916, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W3">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!W1,records!B2:B775, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A3, records!B2:B916, "&gt;=" &amp; template!W1,records!B2:B916, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X3">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!X1,records!B2:B775, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A3, records!B2:B916, "&gt;=" &amp; template!X1,records!B2:B916, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y3">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!Y1,records!B2:B775, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A3, records!B2:B916, "&gt;=" &amp; template!Y1,records!B2:B916, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z3">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3, records!B2:B775, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A3, records!B2:B916, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA3">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3,records!G2:G775,template!AA1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A3,records!G2:G916,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB3">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3,records!G2:G775,template!AB1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A3,records!G2:G916,template!AB1)</f>
         <v>22</v>
       </c>
       <c r="AC3">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3,records!G2:G775,template!AC1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A3,records!G2:G916,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD3">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3,records!G2:G775,template!AD1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A3,records!G2:G916,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE3">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3,records!C2:C775,template!AE1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A3,records!C2:C916,template!AE1)</f>
         <v>6</v>
       </c>
       <c r="AF3">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3,records!C2:C775,template!AF1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A3,records!C2:C916,template!AF1)</f>
         <v>16</v>
       </c>
       <c r="AG3">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3,records!C2:C775,template!AG1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A3,records!C2:C916,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH3">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3,records!C2:C775,template!AH1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A3,records!C2:C916,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI3">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3,records!C2:C775,template!AI1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A3,records!C2:C916,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ3">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3,records!C2:C775,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A3,records!C2:C916,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK3">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3,records!C2:C775,template!AK1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A3,records!C2:C916,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL3">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3,records!C2:C775,template!AL1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A3,records!C2:C916,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM3">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3,records!C2:C775,template!AM1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A3,records!C2:C916,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN3">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3,records!C2:C775,template!AN1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A3,records!C2:C916,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO3">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3,records!C2:C775,template!AO1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A3,records!C2:C916,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP3">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A3,records!C2:C775,template!AP1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A3,records!C2:C916,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -47722,163 +52592,163 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!C1,records!B2:B775, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A4, records!B2:B916, "&gt;=" &amp; template!C1,records!B2:B916, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D4" s="14">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!D1,records!B2:B775, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A4, records!B2:B916, "&gt;=" &amp; template!D1,records!B2:B916, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!E1,records!B2:B775, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A4, records!B2:B916, "&gt;=" &amp; template!E1,records!B2:B916, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!F1,records!B2:B775, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A4, records!B2:B916, "&gt;=" &amp; template!F1,records!B2:B916, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G4">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!G1,records!B2:B775, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A4, records!B2:B916, "&gt;=" &amp; template!G1,records!B2:B916, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!H1,records!B2:B775, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A4, records!B2:B916, "&gt;=" &amp; template!H1,records!B2:B916, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!I1,records!B2:B775, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A4, records!B2:B916, "&gt;=" &amp; template!I1,records!B2:B916, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!J1,records!B2:B775, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A4, records!B2:B916, "&gt;=" &amp; template!J1,records!B2:B916, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!K1,records!B2:B775, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A4, records!B2:B916, "&gt;=" &amp; template!K1,records!B2:B916, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L4">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!L1,records!B2:B775, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A4, records!B2:B916, "&gt;=" &amp; template!L1,records!B2:B916, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M4">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!M1,records!B2:B775, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A4, records!B2:B916, "&gt;=" &amp; template!M1,records!B2:B916, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!N1,records!B2:B775, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A4, records!B2:B916, "&gt;=" &amp; template!N1,records!B2:B916, "&lt;" &amp; template!O1)</f>
         <v>16</v>
       </c>
       <c r="O4">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!O1,records!B2:B775, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A4, records!B2:B916, "&gt;=" &amp; template!O1,records!B2:B916, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P4">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!P1,records!B2:B775, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A4, records!B2:B916, "&gt;=" &amp; template!P1,records!B2:B916, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!Q1,records!B2:B775, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A4, records!B2:B916, "&gt;=" &amp; template!Q1,records!B2:B916, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R4">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!R1,records!B2:B775, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A4, records!B2:B916, "&gt;=" &amp; template!R1,records!B2:B916, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S4">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!S1,records!B2:B775, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A4, records!B2:B916, "&gt;=" &amp; template!S1,records!B2:B916, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T4">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!T1,records!B2:B775, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A4, records!B2:B916, "&gt;=" &amp; template!T1,records!B2:B916, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U4">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!U1,records!B2:B775, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A4, records!B2:B916, "&gt;=" &amp; template!U1,records!B2:B916, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V4">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!V1,records!B2:B775, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A4, records!B2:B916, "&gt;=" &amp; template!V1,records!B2:B916, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W4">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!W1,records!B2:B775, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A4, records!B2:B916, "&gt;=" &amp; template!W1,records!B2:B916, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X4">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!X1,records!B2:B775, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A4, records!B2:B916, "&gt;=" &amp; template!X1,records!B2:B916, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y4">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!Y1,records!B2:B775, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A4, records!B2:B916, "&gt;=" &amp; template!Y1,records!B2:B916, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z4">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4, records!B2:B775, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A4, records!B2:B916, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA4">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4,records!G2:G775,template!AA1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A4,records!G2:G916,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB4">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4,records!G2:G775,template!AB1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A4,records!G2:G916,template!AB1)</f>
         <v>16</v>
       </c>
       <c r="AC4">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4,records!G2:G775,template!AC1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A4,records!G2:G916,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD4">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4,records!G2:G775,template!AD1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A4,records!G2:G916,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE4">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4,records!C2:C775,template!AE1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A4,records!C2:C916,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF4">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4,records!C2:C775,template!AF1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A4,records!C2:C916,template!AF1)</f>
         <v>16</v>
       </c>
       <c r="AG4">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4,records!C2:C775,template!AG1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A4,records!C2:C916,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH4">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4,records!C2:C775,template!AH1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A4,records!C2:C916,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI4">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4,records!C2:C775,template!AI1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A4,records!C2:C916,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ4">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4,records!C2:C775,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A4,records!C2:C916,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK4">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4,records!C2:C775,template!AK1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A4,records!C2:C916,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL4">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4,records!C2:C775,template!AL1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A4,records!C2:C916,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM4">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4,records!C2:C775,template!AM1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A4,records!C2:C916,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN4">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4,records!C2:C775,template!AN1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A4,records!C2:C916,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO4">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4,records!C2:C775,template!AO1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A4,records!C2:C916,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP4">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A4,records!C2:C775,template!AP1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A4,records!C2:C916,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -47891,163 +52761,163 @@
         <v>69</v>
       </c>
       <c r="C5">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!C1,records!B2:B775, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A5, records!B2:B916, "&gt;=" &amp; template!C1,records!B2:B916, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D5" s="14">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!D1,records!B2:B775, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A5, records!B2:B916, "&gt;=" &amp; template!D1,records!B2:B916, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E5">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!E1,records!B2:B775, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A5, records!B2:B916, "&gt;=" &amp; template!E1,records!B2:B916, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F5">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!F1,records!B2:B775, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A5, records!B2:B916, "&gt;=" &amp; template!F1,records!B2:B916, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G5">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!G1,records!B2:B775, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A5, records!B2:B916, "&gt;=" &amp; template!G1,records!B2:B916, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H5">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!H1,records!B2:B775, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A5, records!B2:B916, "&gt;=" &amp; template!H1,records!B2:B916, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I5">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!I1,records!B2:B775, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A5, records!B2:B916, "&gt;=" &amp; template!I1,records!B2:B916, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J5">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!J1,records!B2:B775, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A5, records!B2:B916, "&gt;=" &amp; template!J1,records!B2:B916, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K5">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!K1,records!B2:B775, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A5, records!B2:B916, "&gt;=" &amp; template!K1,records!B2:B916, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L5">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!L1,records!B2:B775, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A5, records!B2:B916, "&gt;=" &amp; template!L1,records!B2:B916, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M5">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!M1,records!B2:B775, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A5, records!B2:B916, "&gt;=" &amp; template!M1,records!B2:B916, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N5">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!N1,records!B2:B775, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A5, records!B2:B916, "&gt;=" &amp; template!N1,records!B2:B916, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O5">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!O1,records!B2:B775, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A5, records!B2:B916, "&gt;=" &amp; template!O1,records!B2:B916, "&lt;" &amp; template!P1)</f>
         <v>34</v>
       </c>
       <c r="P5">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!P1,records!B2:B775, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A5, records!B2:B916, "&gt;=" &amp; template!P1,records!B2:B916, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q5">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!Q1,records!B2:B775, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A5, records!B2:B916, "&gt;=" &amp; template!Q1,records!B2:B916, "&lt;" &amp; template!R1)</f>
         <v>3</v>
       </c>
       <c r="R5">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!R1,records!B2:B775, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A5, records!B2:B916, "&gt;=" &amp; template!R1,records!B2:B916, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S5">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!S1,records!B2:B775, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A5, records!B2:B916, "&gt;=" &amp; template!S1,records!B2:B916, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T5">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!T1,records!B2:B775, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A5, records!B2:B916, "&gt;=" &amp; template!T1,records!B2:B916, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U5">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!U1,records!B2:B775, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A5, records!B2:B916, "&gt;=" &amp; template!U1,records!B2:B916, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V5">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!V1,records!B2:B775, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A5, records!B2:B916, "&gt;=" &amp; template!V1,records!B2:B916, "&lt;" &amp; template!W1)</f>
         <v>32</v>
       </c>
       <c r="W5">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!W1,records!B2:B775, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A5, records!B2:B916, "&gt;=" &amp; template!W1,records!B2:B916, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X5">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!X1,records!B2:B775, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A5, records!B2:B916, "&gt;=" &amp; template!X1,records!B2:B916, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y5">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!Y1,records!B2:B775, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A5, records!B2:B916, "&gt;=" &amp; template!Y1,records!B2:B916, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z5">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5, records!B2:B775, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A5, records!B2:B916, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA5">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5,records!G2:G775,template!AA1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A5,records!G2:G916,template!AA1)</f>
         <v>66</v>
       </c>
       <c r="AB5">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5,records!G2:G775,template!AB1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A5,records!G2:G916,template!AB1)</f>
         <v>3</v>
       </c>
       <c r="AC5">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5,records!G2:G775,template!AC1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A5,records!G2:G916,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD5">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5,records!G2:G775,template!AD1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A5,records!G2:G916,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE5">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5,records!C2:C775,template!AE1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A5,records!C2:C916,template!AE1)</f>
         <v>32</v>
       </c>
       <c r="AF5">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5,records!C2:C775,template!AF1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A5,records!C2:C916,template!AF1)</f>
         <v>34</v>
       </c>
       <c r="AG5">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5,records!C2:C775,template!AG1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A5,records!C2:C916,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH5">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5,records!C2:C775,template!AH1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A5,records!C2:C916,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI5">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5,records!C2:C775,template!AI1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A5,records!C2:C916,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ5">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5,records!C2:C775,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A5,records!C2:C916,template!AJ1)</f>
         <v>3</v>
       </c>
       <c r="AK5">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5,records!C2:C775,template!AK1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A5,records!C2:C916,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL5">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5,records!C2:C775,template!AL1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A5,records!C2:C916,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM5">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5,records!C2:C775,template!AM1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A5,records!C2:C916,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN5">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5,records!C2:C775,template!AN1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A5,records!C2:C916,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO5">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5,records!C2:C775,template!AO1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A5,records!C2:C916,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP5">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A5,records!C2:C775,template!AP1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A5,records!C2:C916,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -48060,163 +52930,163 @@
         <v>17</v>
       </c>
       <c r="C6">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!C1,records!B2:B775, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A6, records!B2:B916, "&gt;=" &amp; template!C1,records!B2:B916, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D6" s="14">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!D1,records!B2:B775, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A6, records!B2:B916, "&gt;=" &amp; template!D1,records!B2:B916, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E6">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!E1,records!B2:B775, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A6, records!B2:B916, "&gt;=" &amp; template!E1,records!B2:B916, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F6">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!F1,records!B2:B775, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A6, records!B2:B916, "&gt;=" &amp; template!F1,records!B2:B916, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!G1,records!B2:B775, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A6, records!B2:B916, "&gt;=" &amp; template!G1,records!B2:B916, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H6">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!H1,records!B2:B775, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A6, records!B2:B916, "&gt;=" &amp; template!H1,records!B2:B916, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I6">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!I1,records!B2:B775, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A6, records!B2:B916, "&gt;=" &amp; template!I1,records!B2:B916, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J6">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!J1,records!B2:B775, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A6, records!B2:B916, "&gt;=" &amp; template!J1,records!B2:B916, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K6">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!K1,records!B2:B775, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A6, records!B2:B916, "&gt;=" &amp; template!K1,records!B2:B916, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L6">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!L1,records!B2:B775, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A6, records!B2:B916, "&gt;=" &amp; template!L1,records!B2:B916, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M6">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!M1,records!B2:B775, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A6, records!B2:B916, "&gt;=" &amp; template!M1,records!B2:B916, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N6">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!N1,records!B2:B775, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A6, records!B2:B916, "&gt;=" &amp; template!N1,records!B2:B916, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O6">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!O1,records!B2:B775, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A6, records!B2:B916, "&gt;=" &amp; template!O1,records!B2:B916, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P6">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!P1,records!B2:B775, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A6, records!B2:B916, "&gt;=" &amp; template!P1,records!B2:B916, "&lt;" &amp; template!Q1)</f>
         <v>17</v>
       </c>
       <c r="Q6">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!Q1,records!B2:B775, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A6, records!B2:B916, "&gt;=" &amp; template!Q1,records!B2:B916, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R6">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!R1,records!B2:B775, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A6, records!B2:B916, "&gt;=" &amp; template!R1,records!B2:B916, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S6">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!S1,records!B2:B775, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A6, records!B2:B916, "&gt;=" &amp; template!S1,records!B2:B916, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T6">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!T1,records!B2:B775, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A6, records!B2:B916, "&gt;=" &amp; template!T1,records!B2:B916, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U6">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!U1,records!B2:B775, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A6, records!B2:B916, "&gt;=" &amp; template!U1,records!B2:B916, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V6">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!V1,records!B2:B775, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A6, records!B2:B916, "&gt;=" &amp; template!V1,records!B2:B916, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W6">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!W1,records!B2:B775, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A6, records!B2:B916, "&gt;=" &amp; template!W1,records!B2:B916, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X6">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!X1,records!B2:B775, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A6, records!B2:B916, "&gt;=" &amp; template!X1,records!B2:B916, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y6">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!Y1,records!B2:B775, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A6, records!B2:B916, "&gt;=" &amp; template!Y1,records!B2:B916, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z6">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6, records!B2:B775, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A6, records!B2:B916, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA6">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6,records!G2:G775,template!AA1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A6,records!G2:G916,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB6">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6,records!G2:G775,template!AB1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A6,records!G2:G916,template!AB1)</f>
         <v>17</v>
       </c>
       <c r="AC6">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6,records!G2:G775,template!AC1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A6,records!G2:G916,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD6">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6,records!G2:G775,template!AD1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A6,records!G2:G916,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE6">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6,records!C2:C775,template!AE1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A6,records!C2:C916,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF6">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6,records!C2:C775,template!AF1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A6,records!C2:C916,template!AF1)</f>
         <v>17</v>
       </c>
       <c r="AG6">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6,records!C2:C775,template!AG1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A6,records!C2:C916,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH6">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6,records!C2:C775,template!AH1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A6,records!C2:C916,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI6">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6,records!C2:C775,template!AI1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A6,records!C2:C916,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ6">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6,records!C2:C775,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A6,records!C2:C916,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK6">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6,records!C2:C775,template!AK1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A6,records!C2:C916,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL6">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6,records!C2:C775,template!AL1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A6,records!C2:C916,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM6">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6,records!C2:C775,template!AM1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A6,records!C2:C916,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN6">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6,records!C2:C775,template!AN1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A6,records!C2:C916,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO6">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6,records!C2:C775,template!AO1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A6,records!C2:C916,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP6">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A6,records!C2:C775,template!AP1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A6,records!C2:C916,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -48229,163 +53099,163 @@
         <v>146.69999999999999</v>
       </c>
       <c r="C7">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!C1,records!B2:B775, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A7, records!B2:B916, "&gt;=" &amp; template!C1,records!B2:B916, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D7" s="14">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!D1,records!B2:B775, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A7, records!B2:B916, "&gt;=" &amp; template!D1,records!B2:B916, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!E1,records!B2:B775, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A7, records!B2:B916, "&gt;=" &amp; template!E1,records!B2:B916, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F7">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!F1,records!B2:B775, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A7, records!B2:B916, "&gt;=" &amp; template!F1,records!B2:B916, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!G1,records!B2:B775, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A7, records!B2:B916, "&gt;=" &amp; template!G1,records!B2:B916, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H7">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!H1,records!B2:B775, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A7, records!B2:B916, "&gt;=" &amp; template!H1,records!B2:B916, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!I1,records!B2:B775, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A7, records!B2:B916, "&gt;=" &amp; template!I1,records!B2:B916, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!J1,records!B2:B775, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A7, records!B2:B916, "&gt;=" &amp; template!J1,records!B2:B916, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K7">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!K1,records!B2:B775, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A7, records!B2:B916, "&gt;=" &amp; template!K1,records!B2:B916, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L7">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!L1,records!B2:B775, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A7, records!B2:B916, "&gt;=" &amp; template!L1,records!B2:B916, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M7">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!M1,records!B2:B775, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A7, records!B2:B916, "&gt;=" &amp; template!M1,records!B2:B916, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N7">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!N1,records!B2:B775, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A7, records!B2:B916, "&gt;=" &amp; template!N1,records!B2:B916, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O7">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!O1,records!B2:B775, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A7, records!B2:B916, "&gt;=" &amp; template!O1,records!B2:B916, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P7">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!P1,records!B2:B775, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A7, records!B2:B916, "&gt;=" &amp; template!P1,records!B2:B916, "&lt;" &amp; template!Q1)</f>
         <v>16</v>
       </c>
       <c r="Q7">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!Q1,records!B2:B775, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A7, records!B2:B916, "&gt;=" &amp; template!Q1,records!B2:B916, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R7">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!R1,records!B2:B775, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A7, records!B2:B916, "&gt;=" &amp; template!R1,records!B2:B916, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S7">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!S1,records!B2:B775, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A7, records!B2:B916, "&gt;=" &amp; template!S1,records!B2:B916, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T7">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!T1,records!B2:B775, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A7, records!B2:B916, "&gt;=" &amp; template!T1,records!B2:B916, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U7">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!U1,records!B2:B775, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A7, records!B2:B916, "&gt;=" &amp; template!U1,records!B2:B916, "&lt;" &amp; template!V1)</f>
         <v>32</v>
       </c>
       <c r="V7">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!V1,records!B2:B775, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A7, records!B2:B916, "&gt;=" &amp; template!V1,records!B2:B916, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W7">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!W1,records!B2:B775, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A7, records!B2:B916, "&gt;=" &amp; template!W1,records!B2:B916, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X7">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!X1,records!B2:B775, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A7, records!B2:B916, "&gt;=" &amp; template!X1,records!B2:B916, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y7">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!Y1,records!B2:B775, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A7, records!B2:B916, "&gt;=" &amp; template!Y1,records!B2:B916, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z7">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7, records!B2:B775, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A7, records!B2:B916, "&gt;=" &amp; template!Z1)</f>
         <v>98.7</v>
       </c>
       <c r="AA7">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7,records!G2:G775,template!AA1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A7,records!G2:G916,template!AA1)</f>
         <v>37</v>
       </c>
       <c r="AB7">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7,records!G2:G775,template!AB1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A7,records!G2:G916,template!AB1)</f>
         <v>0</v>
       </c>
       <c r="AC7">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7,records!G2:G775,template!AC1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A7,records!G2:G916,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD7">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7,records!G2:G775,template!AD1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A7,records!G2:G916,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE7">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7,records!C2:C775,template!AE1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A7,records!C2:C916,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF7">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7,records!C2:C775,template!AF1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A7,records!C2:C916,template!AF1)</f>
         <v>16</v>
       </c>
       <c r="AG7">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7,records!C2:C775,template!AG1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A7,records!C2:C916,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH7">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7,records!C2:C775,template!AH1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A7,records!C2:C916,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI7">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7,records!C2:C775,template!AI1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A7,records!C2:C916,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ7">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7,records!C2:C775,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A7,records!C2:C916,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK7">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7,records!C2:C775,template!AK1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A7,records!C2:C916,template!AK1)</f>
         <v>11</v>
       </c>
       <c r="AL7">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7,records!C2:C775,template!AL1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A7,records!C2:C916,template!AL1)</f>
         <v>21</v>
       </c>
       <c r="AM7">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7,records!C2:C775,template!AM1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A7,records!C2:C916,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN7">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7,records!C2:C775,template!AN1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A7,records!C2:C916,template!AN1)</f>
         <v>98.7</v>
       </c>
       <c r="AO7">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7,records!C2:C775,template!AO1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A7,records!C2:C916,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP7">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A7,records!C2:C775,template!AP1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A7,records!C2:C916,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -48398,163 +53268,163 @@
         <v>2017.98</v>
       </c>
       <c r="C8">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!C1,records!B2:B775, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A8, records!B2:B916, "&gt;=" &amp; template!C1,records!B2:B916, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D8" s="14">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!D1,records!B2:B775, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A8, records!B2:B916, "&gt;=" &amp; template!D1,records!B2:B916, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E8">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!E1,records!B2:B775, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A8, records!B2:B916, "&gt;=" &amp; template!E1,records!B2:B916, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!F1,records!B2:B775, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A8, records!B2:B916, "&gt;=" &amp; template!F1,records!B2:B916, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!G1,records!B2:B775, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A8, records!B2:B916, "&gt;=" &amp; template!G1,records!B2:B916, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!H1,records!B2:B775, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A8, records!B2:B916, "&gt;=" &amp; template!H1,records!B2:B916, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!I1,records!B2:B775, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A8, records!B2:B916, "&gt;=" &amp; template!I1,records!B2:B916, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!J1,records!B2:B775, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A8, records!B2:B916, "&gt;=" &amp; template!J1,records!B2:B916, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K8">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!K1,records!B2:B775, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A8, records!B2:B916, "&gt;=" &amp; template!K1,records!B2:B916, "&lt;" &amp; template!L1)</f>
         <v>2000</v>
       </c>
       <c r="L8">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!L1,records!B2:B775, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A8, records!B2:B916, "&gt;=" &amp; template!L1,records!B2:B916, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M8">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!M1,records!B2:B775, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A8, records!B2:B916, "&gt;=" &amp; template!M1,records!B2:B916, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N8">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!N1,records!B2:B775, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A8, records!B2:B916, "&gt;=" &amp; template!N1,records!B2:B916, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O8">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!O1,records!B2:B775, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A8, records!B2:B916, "&gt;=" &amp; template!O1,records!B2:B916, "&lt;" &amp; template!P1)</f>
         <v>17.98</v>
       </c>
       <c r="P8">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!P1,records!B2:B775, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A8, records!B2:B916, "&gt;=" &amp; template!P1,records!B2:B916, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!Q1,records!B2:B775, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A8, records!B2:B916, "&gt;=" &amp; template!Q1,records!B2:B916, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R8">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!R1,records!B2:B775, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A8, records!B2:B916, "&gt;=" &amp; template!R1,records!B2:B916, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S8">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!S1,records!B2:B775, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A8, records!B2:B916, "&gt;=" &amp; template!S1,records!B2:B916, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T8">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!T1,records!B2:B775, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A8, records!B2:B916, "&gt;=" &amp; template!T1,records!B2:B916, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U8">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!U1,records!B2:B775, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A8, records!B2:B916, "&gt;=" &amp; template!U1,records!B2:B916, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V8">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!V1,records!B2:B775, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A8, records!B2:B916, "&gt;=" &amp; template!V1,records!B2:B916, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W8">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!W1,records!B2:B775, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A8, records!B2:B916, "&gt;=" &amp; template!W1,records!B2:B916, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X8">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!X1,records!B2:B775, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A8, records!B2:B916, "&gt;=" &amp; template!X1,records!B2:B916, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y8">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!Y1,records!B2:B775, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A8, records!B2:B916, "&gt;=" &amp; template!Y1,records!B2:B916, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z8">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8, records!B2:B775, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A8, records!B2:B916, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA8">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8,records!G2:G775,template!AA1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A8,records!G2:G916,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB8">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8,records!G2:G775,template!AB1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A8,records!G2:G916,template!AB1)</f>
         <v>2000</v>
       </c>
       <c r="AC8">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8,records!G2:G775,template!AC1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A8,records!G2:G916,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD8">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8,records!G2:G775,template!AD1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A8,records!G2:G916,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE8">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8,records!C2:C775,template!AE1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A8,records!C2:C916,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF8">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8,records!C2:C775,template!AF1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A8,records!C2:C916,template!AF1)</f>
         <v>17.98</v>
       </c>
       <c r="AG8">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8,records!C2:C775,template!AG1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A8,records!C2:C916,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH8">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8,records!C2:C775,template!AH1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A8,records!C2:C916,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI8">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8,records!C2:C775,template!AI1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A8,records!C2:C916,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ8">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8,records!C2:C775,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A8,records!C2:C916,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK8">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8,records!C2:C775,template!AK1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A8,records!C2:C916,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL8">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8,records!C2:C775,template!AL1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A8,records!C2:C916,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM8">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8,records!C2:C775,template!AM1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A8,records!C2:C916,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN8">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8,records!C2:C775,template!AN1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A8,records!C2:C916,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO8">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8,records!C2:C775,template!AO1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A8,records!C2:C916,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP8">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A8,records!C2:C775,template!AP1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A8,records!C2:C916,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -48567,163 +53437,163 @@
         <v>1532.5</v>
       </c>
       <c r="C9">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!C1,records!B2:B775, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A9, records!B2:B916, "&gt;=" &amp; template!C1,records!B2:B916, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D9" s="14">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!D1,records!B2:B775, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A9, records!B2:B916, "&gt;=" &amp; template!D1,records!B2:B916, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!E1,records!B2:B775, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A9, records!B2:B916, "&gt;=" &amp; template!E1,records!B2:B916, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!F1,records!B2:B775, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A9, records!B2:B916, "&gt;=" &amp; template!F1,records!B2:B916, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!G1,records!B2:B775, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A9, records!B2:B916, "&gt;=" &amp; template!G1,records!B2:B916, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H9">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!H1,records!B2:B775, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A9, records!B2:B916, "&gt;=" &amp; template!H1,records!B2:B916, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!I1,records!B2:B775, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A9, records!B2:B916, "&gt;=" &amp; template!I1,records!B2:B916, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!J1,records!B2:B775, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A9, records!B2:B916, "&gt;=" &amp; template!J1,records!B2:B916, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K9">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!K1,records!B2:B775, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A9, records!B2:B916, "&gt;=" &amp; template!K1,records!B2:B916, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L9">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!L1,records!B2:B775, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A9, records!B2:B916, "&gt;=" &amp; template!L1,records!B2:B916, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M9">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!M1,records!B2:B775, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A9, records!B2:B916, "&gt;=" &amp; template!M1,records!B2:B916, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N9">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!N1,records!B2:B775, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A9, records!B2:B916, "&gt;=" &amp; template!N1,records!B2:B916, "&lt;" &amp; template!O1)</f>
         <v>2</v>
       </c>
       <c r="O9">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!O1,records!B2:B775, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A9, records!B2:B916, "&gt;=" &amp; template!O1,records!B2:B916, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P9">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!P1,records!B2:B775, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A9, records!B2:B916, "&gt;=" &amp; template!P1,records!B2:B916, "&lt;" &amp; template!Q1)</f>
         <v>20</v>
       </c>
       <c r="Q9">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!Q1,records!B2:B775, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A9, records!B2:B916, "&gt;=" &amp; template!Q1,records!B2:B916, "&lt;" &amp; template!R1)</f>
         <v>10.5</v>
       </c>
       <c r="R9">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!R1,records!B2:B775, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A9, records!B2:B916, "&gt;=" &amp; template!R1,records!B2:B916, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S9">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!S1,records!B2:B775, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A9, records!B2:B916, "&gt;=" &amp; template!S1,records!B2:B916, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T9">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!T1,records!B2:B775, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A9, records!B2:B916, "&gt;=" &amp; template!T1,records!B2:B916, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U9">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!U1,records!B2:B775, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A9, records!B2:B916, "&gt;=" &amp; template!U1,records!B2:B916, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V9">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!V1,records!B2:B775, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A9, records!B2:B916, "&gt;=" &amp; template!V1,records!B2:B916, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W9">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!W1,records!B2:B775, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A9, records!B2:B916, "&gt;=" &amp; template!W1,records!B2:B916, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X9">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!X1,records!B2:B775, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A9, records!B2:B916, "&gt;=" &amp; template!X1,records!B2:B916, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y9">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!Y1,records!B2:B775, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A9, records!B2:B916, "&gt;=" &amp; template!Y1,records!B2:B916, "&lt;" &amp; template!Z1)</f>
         <v>1500</v>
       </c>
       <c r="Z9">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9, records!B2:B775, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A9, records!B2:B916, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA9">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9,records!G2:G775,template!AA1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A9,records!G2:G916,template!AA1)</f>
         <v>1502</v>
       </c>
       <c r="AB9">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9,records!G2:G775,template!AB1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A9,records!G2:G916,template!AB1)</f>
         <v>30.5</v>
       </c>
       <c r="AC9">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9,records!G2:G775,template!AC1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A9,records!G2:G916,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD9">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9,records!G2:G775,template!AD1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A9,records!G2:G916,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE9">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9,records!C2:C775,template!AE1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A9,records!C2:C916,template!AE1)</f>
         <v>2</v>
       </c>
       <c r="AF9">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9,records!C2:C775,template!AF1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A9,records!C2:C916,template!AF1)</f>
         <v>20</v>
       </c>
       <c r="AG9">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9,records!C2:C775,template!AG1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A9,records!C2:C916,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH9">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9,records!C2:C775,template!AH1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A9,records!C2:C916,template!AH1)</f>
         <v>1500</v>
       </c>
       <c r="AI9">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9,records!C2:C775,template!AI1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A9,records!C2:C916,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ9">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9,records!C2:C775,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A9,records!C2:C916,template!AJ1)</f>
         <v>10.5</v>
       </c>
       <c r="AK9">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9,records!C2:C775,template!AK1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A9,records!C2:C916,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL9">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9,records!C2:C775,template!AL1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A9,records!C2:C916,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM9">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9,records!C2:C775,template!AM1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A9,records!C2:C916,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN9">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9,records!C2:C775,template!AN1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A9,records!C2:C916,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO9">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9,records!C2:C775,template!AO1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A9,records!C2:C916,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP9">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A9,records!C2:C775,template!AP1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A9,records!C2:C916,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -48736,163 +53606,163 @@
         <v>109</v>
       </c>
       <c r="C10">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!C1,records!B2:B775, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A10, records!B2:B916, "&gt;=" &amp; template!C1,records!B2:B916, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D10" s="14">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!D1,records!B2:B775, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A10, records!B2:B916, "&gt;=" &amp; template!D1,records!B2:B916, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E10">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!E1,records!B2:B775, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A10, records!B2:B916, "&gt;=" &amp; template!E1,records!B2:B916, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F10">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!F1,records!B2:B775, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A10, records!B2:B916, "&gt;=" &amp; template!F1,records!B2:B916, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G10">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!G1,records!B2:B775, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A10, records!B2:B916, "&gt;=" &amp; template!G1,records!B2:B916, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H10">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!H1,records!B2:B775, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A10, records!B2:B916, "&gt;=" &amp; template!H1,records!B2:B916, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I10">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!I1,records!B2:B775, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A10, records!B2:B916, "&gt;=" &amp; template!I1,records!B2:B916, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!J1,records!B2:B775, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A10, records!B2:B916, "&gt;=" &amp; template!J1,records!B2:B916, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K10">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!K1,records!B2:B775, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A10, records!B2:B916, "&gt;=" &amp; template!K1,records!B2:B916, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L10">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!L1,records!B2:B775, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A10, records!B2:B916, "&gt;=" &amp; template!L1,records!B2:B916, "&lt;" &amp; template!M1)</f>
         <v>18</v>
       </c>
       <c r="M10">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!M1,records!B2:B775, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A10, records!B2:B916, "&gt;=" &amp; template!M1,records!B2:B916, "&lt;" &amp; template!N1)</f>
         <v>15</v>
       </c>
       <c r="N10">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!N1,records!B2:B775, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A10, records!B2:B916, "&gt;=" &amp; template!N1,records!B2:B916, "&lt;" &amp; template!O1)</f>
         <v>30</v>
       </c>
       <c r="O10">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!O1,records!B2:B775, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A10, records!B2:B916, "&gt;=" &amp; template!O1,records!B2:B916, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P10">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!P1,records!B2:B775, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A10, records!B2:B916, "&gt;=" &amp; template!P1,records!B2:B916, "&lt;" &amp; template!Q1)</f>
         <v>30</v>
       </c>
       <c r="Q10">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!Q1,records!B2:B775, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A10, records!B2:B916, "&gt;=" &amp; template!Q1,records!B2:B916, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R10">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!R1,records!B2:B775, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A10, records!B2:B916, "&gt;=" &amp; template!R1,records!B2:B916, "&lt;" &amp; template!S1)</f>
         <v>6</v>
       </c>
       <c r="S10">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!S1,records!B2:B775, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A10, records!B2:B916, "&gt;=" &amp; template!S1,records!B2:B916, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T10">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!T1,records!B2:B775, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A10, records!B2:B916, "&gt;=" &amp; template!T1,records!B2:B916, "&lt;" &amp; template!U1)</f>
         <v>10</v>
       </c>
       <c r="U10">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!U1,records!B2:B775, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A10, records!B2:B916, "&gt;=" &amp; template!U1,records!B2:B916, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V10">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!V1,records!B2:B775, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A10, records!B2:B916, "&gt;=" &amp; template!V1,records!B2:B916, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W10">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!W1,records!B2:B775, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A10, records!B2:B916, "&gt;=" &amp; template!W1,records!B2:B916, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X10">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!X1,records!B2:B775, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A10, records!B2:B916, "&gt;=" &amp; template!X1,records!B2:B916, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y10">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!Y1,records!B2:B775, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A10, records!B2:B916, "&gt;=" &amp; template!Y1,records!B2:B916, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z10">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10, records!B2:B775, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A10, records!B2:B916, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA10">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10,records!G2:G775,template!AA1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A10,records!G2:G916,template!AA1)</f>
         <v>94</v>
       </c>
       <c r="AB10">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10,records!G2:G775,template!AB1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A10,records!G2:G916,template!AB1)</f>
         <v>0</v>
       </c>
       <c r="AC10">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10,records!G2:G775,template!AC1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A10,records!G2:G916,template!AC1)</f>
         <v>15</v>
       </c>
       <c r="AD10">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10,records!G2:G775,template!AD1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A10,records!G2:G916,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE10">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10,records!C2:C775,template!AE1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A10,records!C2:C916,template!AE1)</f>
         <v>33</v>
       </c>
       <c r="AF10">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10,records!C2:C775,template!AF1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A10,records!C2:C916,template!AF1)</f>
         <v>30</v>
       </c>
       <c r="AG10">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10,records!C2:C775,template!AG1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A10,records!C2:C916,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH10">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10,records!C2:C775,template!AH1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A10,records!C2:C916,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI10">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10,records!C2:C775,template!AI1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A10,records!C2:C916,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ10">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10,records!C2:C775,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A10,records!C2:C916,template!AJ1)</f>
         <v>6</v>
       </c>
       <c r="AK10">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10,records!C2:C775,template!AK1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A10,records!C2:C916,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL10">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10,records!C2:C775,template!AL1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A10,records!C2:C916,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM10">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10,records!C2:C775,template!AM1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A10,records!C2:C916,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN10">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10,records!C2:C775,template!AN1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A10,records!C2:C916,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO10">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10,records!C2:C775,template!AO1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A10,records!C2:C916,template!AO1)</f>
         <v>10</v>
       </c>
       <c r="AP10">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A10,records!C2:C775,template!AP1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A10,records!C2:C916,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -48905,163 +53775,163 @@
         <v>115</v>
       </c>
       <c r="C11">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!C1,records!B2:B775, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A11, records!B2:B916, "&gt;=" &amp; template!C1,records!B2:B916, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D11" s="14">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!D1,records!B2:B775, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A11, records!B2:B916, "&gt;=" &amp; template!D1,records!B2:B916, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E11">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!E1,records!B2:B775, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A11, records!B2:B916, "&gt;=" &amp; template!E1,records!B2:B916, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F11">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!F1,records!B2:B775, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A11, records!B2:B916, "&gt;=" &amp; template!F1,records!B2:B916, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G11">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!G1,records!B2:B775, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A11, records!B2:B916, "&gt;=" &amp; template!G1,records!B2:B916, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H11">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!H1,records!B2:B775, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A11, records!B2:B916, "&gt;=" &amp; template!H1,records!B2:B916, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I11">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!I1,records!B2:B775, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A11, records!B2:B916, "&gt;=" &amp; template!I1,records!B2:B916, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!J1,records!B2:B775, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A11, records!B2:B916, "&gt;=" &amp; template!J1,records!B2:B916, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K11">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!K1,records!B2:B775, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A11, records!B2:B916, "&gt;=" &amp; template!K1,records!B2:B916, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L11">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!L1,records!B2:B775, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A11, records!B2:B916, "&gt;=" &amp; template!L1,records!B2:B916, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M11">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!M1,records!B2:B775, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A11, records!B2:B916, "&gt;=" &amp; template!M1,records!B2:B916, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N11">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!N1,records!B2:B775, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A11, records!B2:B916, "&gt;=" &amp; template!N1,records!B2:B916, "&lt;" &amp; template!O1)</f>
         <v>18</v>
       </c>
       <c r="O11">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!O1,records!B2:B775, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A11, records!B2:B916, "&gt;=" &amp; template!O1,records!B2:B916, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P11">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!P1,records!B2:B775, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A11, records!B2:B916, "&gt;=" &amp; template!P1,records!B2:B916, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q11">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!Q1,records!B2:B775, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A11, records!B2:B916, "&gt;=" &amp; template!Q1,records!B2:B916, "&lt;" &amp; template!R1)</f>
         <v>51</v>
       </c>
       <c r="R11">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!R1,records!B2:B775, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A11, records!B2:B916, "&gt;=" &amp; template!R1,records!B2:B916, "&lt;" &amp; template!S1)</f>
         <v>15</v>
       </c>
       <c r="S11">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!S1,records!B2:B775, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A11, records!B2:B916, "&gt;=" &amp; template!S1,records!B2:B916, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T11">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!T1,records!B2:B775, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A11, records!B2:B916, "&gt;=" &amp; template!T1,records!B2:B916, "&lt;" &amp; template!U1)</f>
         <v>31</v>
       </c>
       <c r="U11">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!U1,records!B2:B775, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A11, records!B2:B916, "&gt;=" &amp; template!U1,records!B2:B916, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V11">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!V1,records!B2:B775, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A11, records!B2:B916, "&gt;=" &amp; template!V1,records!B2:B916, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W11">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!W1,records!B2:B775, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A11, records!B2:B916, "&gt;=" &amp; template!W1,records!B2:B916, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X11">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!X1,records!B2:B775, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A11, records!B2:B916, "&gt;=" &amp; template!X1,records!B2:B916, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y11">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!Y1,records!B2:B775, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A11, records!B2:B916, "&gt;=" &amp; template!Y1,records!B2:B916, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z11">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11, records!B2:B775, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A11, records!B2:B916, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA11">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11,records!G2:G775,template!AA1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A11,records!G2:G916,template!AA1)</f>
         <v>49</v>
       </c>
       <c r="AB11">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11,records!G2:G775,template!AB1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A11,records!G2:G916,template!AB1)</f>
         <v>51</v>
       </c>
       <c r="AC11">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11,records!G2:G775,template!AC1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A11,records!G2:G916,template!AC1)</f>
         <v>15</v>
       </c>
       <c r="AD11">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11,records!G2:G775,template!AD1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A11,records!G2:G916,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE11">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11,records!C2:C775,template!AE1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A11,records!C2:C916,template!AE1)</f>
         <v>64</v>
       </c>
       <c r="AF11">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11,records!C2:C775,template!AF1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A11,records!C2:C916,template!AF1)</f>
         <v>51</v>
       </c>
       <c r="AG11">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11,records!C2:C775,template!AG1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A11,records!C2:C916,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH11">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11,records!C2:C775,template!AH1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A11,records!C2:C916,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI11">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11,records!C2:C775,template!AI1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A11,records!C2:C916,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ11">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11,records!C2:C775,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A11,records!C2:C916,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK11">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11,records!C2:C775,template!AK1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A11,records!C2:C916,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL11">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11,records!C2:C775,template!AL1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A11,records!C2:C916,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM11">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11,records!C2:C775,template!AM1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A11,records!C2:C916,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN11">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11,records!C2:C775,template!AN1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A11,records!C2:C916,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO11">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11,records!C2:C775,template!AO1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A11,records!C2:C916,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP11">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A11,records!C2:C775,template!AP1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A11,records!C2:C916,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -49074,163 +53944,163 @@
         <v>100</v>
       </c>
       <c r="C12">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!C1,records!B2:B775, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A12, records!B2:B916, "&gt;=" &amp; template!C1,records!B2:B916, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D12" s="14">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!D1,records!B2:B775, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A12, records!B2:B916, "&gt;=" &amp; template!D1,records!B2:B916, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E12">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!E1,records!B2:B775, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A12, records!B2:B916, "&gt;=" &amp; template!E1,records!B2:B916, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F12">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!F1,records!B2:B775, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A12, records!B2:B916, "&gt;=" &amp; template!F1,records!B2:B916, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G12">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!G1,records!B2:B775, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A12, records!B2:B916, "&gt;=" &amp; template!G1,records!B2:B916, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H12">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!H1,records!B2:B775, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A12, records!B2:B916, "&gt;=" &amp; template!H1,records!B2:B916, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I12">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!I1,records!B2:B775, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A12, records!B2:B916, "&gt;=" &amp; template!I1,records!B2:B916, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!J1,records!B2:B775, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A12, records!B2:B916, "&gt;=" &amp; template!J1,records!B2:B916, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K12">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!K1,records!B2:B775, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A12, records!B2:B916, "&gt;=" &amp; template!K1,records!B2:B916, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L12">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!L1,records!B2:B775, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A12, records!B2:B916, "&gt;=" &amp; template!L1,records!B2:B916, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M12">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!M1,records!B2:B775, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A12, records!B2:B916, "&gt;=" &amp; template!M1,records!B2:B916, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N12">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!N1,records!B2:B775, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A12, records!B2:B916, "&gt;=" &amp; template!N1,records!B2:B916, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O12">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!O1,records!B2:B775, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A12, records!B2:B916, "&gt;=" &amp; template!O1,records!B2:B916, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P12">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!P1,records!B2:B775, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A12, records!B2:B916, "&gt;=" &amp; template!P1,records!B2:B916, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q12">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!Q1,records!B2:B775, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A12, records!B2:B916, "&gt;=" &amp; template!Q1,records!B2:B916, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R12">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!R1,records!B2:B775, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A12, records!B2:B916, "&gt;=" &amp; template!R1,records!B2:B916, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S12">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!S1,records!B2:B775, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A12, records!B2:B916, "&gt;=" &amp; template!S1,records!B2:B916, "&lt;" &amp; template!T1)</f>
         <v>88</v>
       </c>
       <c r="T12">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!T1,records!B2:B775, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A12, records!B2:B916, "&gt;=" &amp; template!T1,records!B2:B916, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U12">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!U1,records!B2:B775, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A12, records!B2:B916, "&gt;=" &amp; template!U1,records!B2:B916, "&lt;" &amp; template!V1)</f>
         <v>12</v>
       </c>
       <c r="V12">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!V1,records!B2:B775, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A12, records!B2:B916, "&gt;=" &amp; template!V1,records!B2:B916, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W12">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!W1,records!B2:B775, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A12, records!B2:B916, "&gt;=" &amp; template!W1,records!B2:B916, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X12">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!X1,records!B2:B775, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A12, records!B2:B916, "&gt;=" &amp; template!X1,records!B2:B916, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y12">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!Y1,records!B2:B775, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A12, records!B2:B916, "&gt;=" &amp; template!Y1,records!B2:B916, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z12">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12, records!B2:B775, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A12, records!B2:B916, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA12">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12,records!G2:G775,template!AA1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A12,records!G2:G916,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB12">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12,records!G2:G775,template!AB1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A12,records!G2:G916,template!AB1)</f>
         <v>100</v>
       </c>
       <c r="AC12">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12,records!G2:G775,template!AC1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A12,records!G2:G916,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD12">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12,records!G2:G775,template!AD1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A12,records!G2:G916,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE12">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12,records!C2:C775,template!AE1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A12,records!C2:C916,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF12">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12,records!C2:C775,template!AF1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A12,records!C2:C916,template!AF1)</f>
         <v>0</v>
       </c>
       <c r="AG12">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12,records!C2:C775,template!AG1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A12,records!C2:C916,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH12">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12,records!C2:C775,template!AH1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A12,records!C2:C916,template!AH1)</f>
         <v>88</v>
       </c>
       <c r="AI12">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12,records!C2:C775,template!AI1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A12,records!C2:C916,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ12">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12,records!C2:C775,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A12,records!C2:C916,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK12">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12,records!C2:C775,template!AK1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A12,records!C2:C916,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL12">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12,records!C2:C775,template!AL1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A12,records!C2:C916,template!AL1)</f>
         <v>12</v>
       </c>
       <c r="AM12">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12,records!C2:C775,template!AM1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A12,records!C2:C916,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN12">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12,records!C2:C775,template!AN1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A12,records!C2:C916,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO12">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12,records!C2:C775,template!AO1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A12,records!C2:C916,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP12">
-        <f>SUMIFS(records!E2:E775,records!A2:A775,template!A12,records!C2:C775,template!AP1)</f>
+        <f>SUMIFS(records!E2:E916,records!A2:A916,template!A12,records!C2:C916,template!AP1)</f>
         <v>0</v>
       </c>
     </row>

--- a/excel/ledger.xlsx
+++ b/excel/ledger.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC63216-4B9E-7548-B2FE-A58FA8945CE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492A94FC-B950-8A4D-A258-A26159C30B2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6860" yWindow="7020" windowWidth="13980" windowHeight="12660" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7081" uniqueCount="1562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7750" uniqueCount="1697">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6038,6 +6038,519 @@
   </si>
   <si>
     <t>KTV</t>
+  </si>
+  <si>
+    <t>饮料*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请大哥和承华一人一瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天天向上烟一盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞彩</t>
+  </si>
+  <si>
+    <t>阿香竞彩店APP</t>
+  </si>
+  <si>
+    <t>大掌柜凉皮肉夹馍(车公庙店)外卖订单</t>
+  </si>
+  <si>
+    <t>饿了么APP</t>
+  </si>
+  <si>
+    <t>切果吧.甘草水果(新洲店)</t>
+  </si>
+  <si>
+    <t>尊宝比萨(上沙二店)外卖订单</t>
+  </si>
+  <si>
+    <t>锋百味小笼包·炸酱面外卖订单</t>
+  </si>
+  <si>
+    <t>秦都面馆外卖订单</t>
+  </si>
+  <si>
+    <t>阿香饭团(车公庙店)外卖订单</t>
+  </si>
+  <si>
+    <t>高德地图打车订单：金地花园-平安金融中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡蛋炒刀削</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美团订单-20092911100400000006087618294056</t>
+  </si>
+  <si>
+    <t>猫眼X美团外卖联合会员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>榴莲披萨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤生蚝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外卖代金券¥4*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸酱刀削面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永和大王黑椒牛柳拼宫保鸡丁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑椒牛柳拼宫保鸡丁套餐商品券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊肉粉丝汤+土豆丝夹馍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外卖代金券¥3*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩式拉面+鳗鱼紫菜包饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拌米粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大盘鸡拌面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼粮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A6照片纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔雀鱼饲料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月饼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫斯水草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>氧气泵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清道夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全红孔雀鱼2对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西兰空气清新剂茉莉香型卧室家用清香剂固体厕所除臭香薰70g固体 等多件</t>
+  </si>
+  <si>
+    <t>智能货柜消费：两瓶伊利水蜜桃饮料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友宝售货机</t>
+  </si>
+  <si>
+    <t>难喝的要死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能货柜消费：三瓶红牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能货柜消费</t>
+  </si>
+  <si>
+    <t>相互宝分摊-9月第2期-*博</t>
+  </si>
+  <si>
+    <t>娱乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打桌球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台球厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和大哥、承华一起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴犀烧烤自助(民治店)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3瓶饮料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MTDP-领跑桌球棋牌俱乐部</t>
+  </si>
+  <si>
+    <t>凉皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳北站东广场商场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安踏拉链卫衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匡威灯绒外套+短袖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆瓣网 豆瓣电影日历2021</t>
+  </si>
+  <si>
+    <t>豆瓣APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李佳文生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巧克力+南京烟+酸奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级会员加量包订单：3000000006903730810</t>
+  </si>
+  <si>
+    <t>超级会员加量包订单：3000000006705980010</t>
+  </si>
+  <si>
+    <t>海底捞深圳三十七店</t>
+  </si>
+  <si>
+    <t>海底捞门店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和老蒋一起、总共333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出租车：金地花园-广州中医药大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳出租</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有品[4200920660101416]号支付：鱼缸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米有品APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冠修复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总义齿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1(单颌)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粘结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口腔模型制备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2(单颌)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调改义齿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1(每次)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1(每件)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸造加工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咬合重建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加加固装置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记存模型制备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1天</t>
+  </si>
+  <si>
+    <t>1(次)</t>
+  </si>
+  <si>
+    <t>门诊楼4楼</t>
+  </si>
+  <si>
+    <t>调(牙合)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴面修复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美容义齿(特殊设计)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前牙美容修复术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双固化树脂粘合材料1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.8(ml)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.6(ml)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口腔检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用动力钻、磨、锯</t>
+  </si>
+  <si>
+    <t>紫晶全瓷冠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1(个)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴张咪生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中秋节送父母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新琪佳便利店订单号：2009280100200184834校验码:2422</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单车</t>
+  </si>
+  <si>
+    <t>美团单车</t>
+  </si>
+  <si>
+    <t>美团APP</t>
+  </si>
+  <si>
+    <t>沙尾-深圳北站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民治-上沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉拉的外婆凉皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方福利网公众号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和老蒋一人一张，共18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中秋红包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你我他微信群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂号费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超市购物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牙冠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州中医药大学深圳医院(福田)治疗收费单</t>
+  </si>
+  <si>
+    <t>小笼包+炸酱面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美团月付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三及第汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必胜客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲜果派对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贡茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增量券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩国料理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美团打车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桌球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领跑桌球棋牌俱乐部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电影：我和我的家乡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si